--- a/example_app_tracker.xlsx
+++ b/example_app_tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\graha\OneDrive\Documents\GitHub\application_tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08E53E3-A34E-48A0-BBC0-FE4C3B0DDCC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC65E256-C72D-4D4E-9FA3-5863D6AD00B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17140" yWindow="4230" windowWidth="20200" windowHeight="15960" activeTab="1" xr2:uid="{85E7A6A4-6F22-48D9-815F-FC03736B7AC4}"/>
+    <workbookView xWindow="17140" yWindow="4230" windowWidth="20200" windowHeight="15960" xr2:uid="{85E7A6A4-6F22-48D9-815F-FC03736B7AC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="240">
   <si>
     <t>Company</t>
   </si>
@@ -91,31 +91,7 @@
     <t>Analyst</t>
   </si>
   <si>
-    <t>DailyPay</t>
-  </si>
-  <si>
-    <t>Technical Engagement Analyst</t>
-  </si>
-  <si>
     <t>Project Manager</t>
-  </si>
-  <si>
-    <t>Capco</t>
-  </si>
-  <si>
-    <t>BrandED</t>
-  </si>
-  <si>
-    <t>Enterprise Application Services Analyst</t>
-  </si>
-  <si>
-    <t>Jellyfish</t>
-  </si>
-  <si>
-    <t>Forward Deployed Engineer</t>
-  </si>
-  <si>
-    <t>Technical Strategy Analyst</t>
   </si>
   <si>
     <t>Indeed</t>
@@ -589,6 +565,393 @@
   </si>
   <si>
     <t>Company 10</t>
+  </si>
+  <si>
+    <t>Company 11</t>
+  </si>
+  <si>
+    <t>Title 11</t>
+  </si>
+  <si>
+    <t>Company 12</t>
+  </si>
+  <si>
+    <t>Title 12</t>
+  </si>
+  <si>
+    <t>Company 13</t>
+  </si>
+  <si>
+    <t>Title 13</t>
+  </si>
+  <si>
+    <t>Company 14</t>
+  </si>
+  <si>
+    <t>Title 14</t>
+  </si>
+  <si>
+    <t>Company 15</t>
+  </si>
+  <si>
+    <t>Title 15</t>
+  </si>
+  <si>
+    <t>Company 16</t>
+  </si>
+  <si>
+    <t>Title 16</t>
+  </si>
+  <si>
+    <t>Company 17</t>
+  </si>
+  <si>
+    <t>Title 17</t>
+  </si>
+  <si>
+    <t>Company 18</t>
+  </si>
+  <si>
+    <t>Title 18</t>
+  </si>
+  <si>
+    <t>Company 19</t>
+  </si>
+  <si>
+    <t>Title 19</t>
+  </si>
+  <si>
+    <t>Company 20</t>
+  </si>
+  <si>
+    <t>Title 20</t>
+  </si>
+  <si>
+    <t>Company 21</t>
+  </si>
+  <si>
+    <t>Title 21</t>
+  </si>
+  <si>
+    <t>Company 22</t>
+  </si>
+  <si>
+    <t>Title 22</t>
+  </si>
+  <si>
+    <t>Company 23</t>
+  </si>
+  <si>
+    <t>Title 23</t>
+  </si>
+  <si>
+    <t>Company 24</t>
+  </si>
+  <si>
+    <t>Title 24</t>
+  </si>
+  <si>
+    <t>Company 25</t>
+  </si>
+  <si>
+    <t>Title 25</t>
+  </si>
+  <si>
+    <t>Company 26</t>
+  </si>
+  <si>
+    <t>Title 26</t>
+  </si>
+  <si>
+    <t>Company 27</t>
+  </si>
+  <si>
+    <t>Title 27</t>
+  </si>
+  <si>
+    <t>Company 28</t>
+  </si>
+  <si>
+    <t>Title 28</t>
+  </si>
+  <si>
+    <t>Company 29</t>
+  </si>
+  <si>
+    <t>Title 29</t>
+  </si>
+  <si>
+    <t>Company 30</t>
+  </si>
+  <si>
+    <t>Title 30</t>
+  </si>
+  <si>
+    <t>Company 31</t>
+  </si>
+  <si>
+    <t>Title 31</t>
+  </si>
+  <si>
+    <t>Company 32</t>
+  </si>
+  <si>
+    <t>Title 32</t>
+  </si>
+  <si>
+    <t>Company 33</t>
+  </si>
+  <si>
+    <t>Title 33</t>
+  </si>
+  <si>
+    <t>Company 34</t>
+  </si>
+  <si>
+    <t>Title 34</t>
+  </si>
+  <si>
+    <t>Company 35</t>
+  </si>
+  <si>
+    <t>Title 35</t>
+  </si>
+  <si>
+    <t>Company 36</t>
+  </si>
+  <si>
+    <t>Title 36</t>
+  </si>
+  <si>
+    <t>Company 37</t>
+  </si>
+  <si>
+    <t>Title 37</t>
+  </si>
+  <si>
+    <t>Company 38</t>
+  </si>
+  <si>
+    <t>Title 38</t>
+  </si>
+  <si>
+    <t>Company 39</t>
+  </si>
+  <si>
+    <t>Title 39</t>
+  </si>
+  <si>
+    <t>Company 40</t>
+  </si>
+  <si>
+    <t>Title 40</t>
+  </si>
+  <si>
+    <t>Company 41</t>
+  </si>
+  <si>
+    <t>Title 41</t>
+  </si>
+  <si>
+    <t>Company 42</t>
+  </si>
+  <si>
+    <t>Title 42</t>
+  </si>
+  <si>
+    <t>Company 43</t>
+  </si>
+  <si>
+    <t>Title 43</t>
+  </si>
+  <si>
+    <t>Company 44</t>
+  </si>
+  <si>
+    <t>Title 44</t>
+  </si>
+  <si>
+    <t>Company 45</t>
+  </si>
+  <si>
+    <t>Title 45</t>
+  </si>
+  <si>
+    <t>Company 46</t>
+  </si>
+  <si>
+    <t>Title 46</t>
+  </si>
+  <si>
+    <t>Company 47</t>
+  </si>
+  <si>
+    <t>Title 47</t>
+  </si>
+  <si>
+    <t>Company 48</t>
+  </si>
+  <si>
+    <t>Title 48</t>
+  </si>
+  <si>
+    <t>Company 49</t>
+  </si>
+  <si>
+    <t>Title 49</t>
+  </si>
+  <si>
+    <t>Company 50</t>
+  </si>
+  <si>
+    <t>Title 50</t>
+  </si>
+  <si>
+    <t>Company 51</t>
+  </si>
+  <si>
+    <t>Title 51</t>
+  </si>
+  <si>
+    <t>Company 52</t>
+  </si>
+  <si>
+    <t>Title 52</t>
+  </si>
+  <si>
+    <t>Company 53</t>
+  </si>
+  <si>
+    <t>Title 53</t>
+  </si>
+  <si>
+    <t>Company 54</t>
+  </si>
+  <si>
+    <t>Title 54</t>
+  </si>
+  <si>
+    <t>Company 55</t>
+  </si>
+  <si>
+    <t>Title 55</t>
+  </si>
+  <si>
+    <t>Company 56</t>
+  </si>
+  <si>
+    <t>Title 56</t>
+  </si>
+  <si>
+    <t>Company 57</t>
+  </si>
+  <si>
+    <t>Title 57</t>
+  </si>
+  <si>
+    <t>Company 58</t>
+  </si>
+  <si>
+    <t>Title 58</t>
+  </si>
+  <si>
+    <t>Company 59</t>
+  </si>
+  <si>
+    <t>Title 59</t>
+  </si>
+  <si>
+    <t>Company 60</t>
+  </si>
+  <si>
+    <t>Title 60</t>
+  </si>
+  <si>
+    <t>Company 61</t>
+  </si>
+  <si>
+    <t>Title 61</t>
+  </si>
+  <si>
+    <t>Company 62</t>
+  </si>
+  <si>
+    <t>Title 62</t>
+  </si>
+  <si>
+    <t>Company 63</t>
+  </si>
+  <si>
+    <t>Title 63</t>
+  </si>
+  <si>
+    <t>Company 64</t>
+  </si>
+  <si>
+    <t>Title 64</t>
+  </si>
+  <si>
+    <t>Company 65</t>
+  </si>
+  <si>
+    <t>Title 65</t>
+  </si>
+  <si>
+    <t>Company 66</t>
+  </si>
+  <si>
+    <t>Title 66</t>
+  </si>
+  <si>
+    <t>Company 67</t>
+  </si>
+  <si>
+    <t>Title 67</t>
+  </si>
+  <si>
+    <t>Company 68</t>
+  </si>
+  <si>
+    <t>Title 68</t>
+  </si>
+  <si>
+    <t>Company 69</t>
+  </si>
+  <si>
+    <t>Title 69</t>
+  </si>
+  <si>
+    <t>Company 70</t>
+  </si>
+  <si>
+    <t>Title 70</t>
+  </si>
+  <si>
+    <t>Title 71</t>
+  </si>
+  <si>
+    <t>Title 72</t>
+  </si>
+  <si>
+    <t>Title 73</t>
+  </si>
+  <si>
+    <t>Title 74</t>
+  </si>
+  <si>
+    <t>Company 71</t>
+  </si>
+  <si>
+    <t>Company 72</t>
+  </si>
+  <si>
+    <t>Company 73</t>
+  </si>
+  <si>
+    <t>Company 74</t>
+  </si>
+  <si>
+    <t>LinkedIn DM</t>
   </si>
 </sst>
 </file>
@@ -884,7 +1247,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="13">
     <dxf>
       <fill>
         <patternFill>
@@ -910,13 +1273,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFF1B9DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1330,25 +1686,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1911,37 +2267,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2189,28 +2545,28 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -2759,40 +3115,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3234,19 +3590,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6476,11 +6832,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2050F9-523E-4C88-ABEB-54BB5869DFA0}">
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6494,7 +6850,7 @@
     <col min="7" max="7" width="4.453125" customWidth="1"/>
     <col min="8" max="8" width="4.7265625" customWidth="1"/>
     <col min="9" max="9" width="12.36328125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="2.81640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="5.08984375" style="2" customWidth="1"/>
     <col min="11" max="11" width="3.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6503,13 +6859,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>6</v>
@@ -6518,30 +6874,30 @@
         <v>1</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="K1" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="29.5" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -6550,19 +6906,21 @@
         <v>45756</v>
       </c>
       <c r="F2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G2">
-        <v>100</v>
+        <f ca="1">ROUND(RAND()*60+50,0)</f>
+        <v>82</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <f ca="1">ROUND(RAND()*40+100,0)</f>
+        <v>117</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="J2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="4">
         <f t="shared" ref="K2:K15" si="0">WEEKNUM(E2)-14</f>
@@ -6571,13 +6929,13 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -6586,16 +6944,18 @@
         <v>45756</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G3">
-        <v>87</v>
+        <f t="shared" ref="G3:G66" ca="1" si="1">ROUND(RAND()*60+50,0)</f>
+        <v>61</v>
       </c>
       <c r="H3">
-        <v>100</v>
+        <f t="shared" ref="H3:H66" ca="1" si="2">ROUND(RAND()*40+100,0)</f>
+        <v>115</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="J3" s="2">
         <v>3</v>
@@ -6607,13 +6967,13 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -6625,13 +6985,15 @@
         <v>4</v>
       </c>
       <c r="G4">
-        <v>84</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>80</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>132</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="J4" s="2">
         <v>0</v>
@@ -6643,25 +7005,33 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E5" s="6">
         <v>45756</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>45</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ca="1" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ca="1" si="2"/>
+        <v>118</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="J5" s="2">
         <v>1</v>
@@ -6673,13 +7043,13 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -6691,13 +7061,15 @@
         <v>4</v>
       </c>
       <c r="G6">
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>93</v>
       </c>
       <c r="H6">
-        <v>100</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>117</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="J6" s="2">
         <v>0</v>
@@ -6709,34 +7081,36 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7" s="6">
         <v>45759</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G7">
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>103</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>131</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="J7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="4">
         <f t="shared" si="0"/>
@@ -6745,13 +7119,13 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -6763,13 +7137,15 @@
         <v>2</v>
       </c>
       <c r="G8">
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>57</v>
       </c>
       <c r="H8">
-        <v>100</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>135</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="J8" s="2">
         <v>0</v>
@@ -6781,13 +7157,13 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -6799,16 +7175,18 @@
         <v>4</v>
       </c>
       <c r="G9">
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>65</v>
       </c>
       <c r="H9">
-        <v>100</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>118</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="J9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="4">
         <f t="shared" si="0"/>
@@ -6817,13 +7195,13 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -6832,16 +7210,18 @@
         <v>45778</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G10">
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>63</v>
       </c>
       <c r="H10">
-        <v>100</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>101</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J10" s="2">
         <v>1</v>
@@ -6853,13 +7233,13 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -6868,16 +7248,18 @@
         <v>45781</v>
       </c>
       <c r="F11" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G11">
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>108</v>
       </c>
       <c r="H11">
-        <v>100</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>139</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="J11" s="2">
         <v>0</v>
@@ -6889,13 +7271,13 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
@@ -6904,16 +7286,18 @@
         <v>45784</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G12">
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>96</v>
       </c>
       <c r="H12">
-        <v>100</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>123</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="J12" s="2">
         <v>0</v>
@@ -6925,31 +7309,33 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E13" s="6">
         <v>45809</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G13">
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>67</v>
       </c>
       <c r="H13">
-        <v>100</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>139</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="J13" s="2">
         <v>0</v>
@@ -6961,13 +7347,13 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>
@@ -6979,13 +7365,15 @@
         <v>3</v>
       </c>
       <c r="G14">
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>97</v>
       </c>
       <c r="H14">
-        <v>100</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>111</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="J14" s="2">
         <v>0</v>
@@ -6997,13 +7385,13 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
@@ -7012,16 +7400,18 @@
         <v>45812</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G15">
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>107</v>
       </c>
       <c r="H15">
-        <v>100</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>120</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="J15" s="2">
         <v>0</v>
@@ -7032,242 +7422,2283 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="6">
+        <v>45813</v>
+      </c>
+      <c r="F16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ca="1" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ca="1" si="2"/>
+        <v>125</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J16" s="2">
         <v>0</v>
       </c>
       <c r="K16" s="4">
-        <f t="shared" ref="K16:K41" si="1">WEEKNUM(E16)-14</f>
-        <v>-14</v>
-      </c>
-    </row>
-    <row r="17" spans="10:11" x14ac:dyDescent="0.35">
+        <f t="shared" ref="K16:K41" si="3">WEEKNUM(E16)-14</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="6">
+        <v>45814</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ca="1" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ca="1" si="2"/>
+        <v>126</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J17" s="2">
         <v>0</v>
       </c>
       <c r="K17" s="4">
-        <f t="shared" si="1"/>
-        <v>-14</v>
-      </c>
-    </row>
-    <row r="18" spans="10:11" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="6">
+        <v>45815</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ca="1" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ca="1" si="2"/>
+        <v>126</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J18" s="2">
         <v>0</v>
       </c>
       <c r="K18" s="4">
-        <f t="shared" si="1"/>
-        <v>-14</v>
-      </c>
-    </row>
-    <row r="19" spans="10:11" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="6">
+        <v>45816</v>
+      </c>
+      <c r="F19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ca="1" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ca="1" si="2"/>
+        <v>130</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J19" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K19" s="4">
-        <f t="shared" si="1"/>
-        <v>-14</v>
-      </c>
-    </row>
-    <row r="20" spans="10:11" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="6">
+        <v>45817</v>
+      </c>
+      <c r="F20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ca="1" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ca="1" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J20" s="2">
         <v>0</v>
       </c>
       <c r="K20" s="4">
-        <f t="shared" si="1"/>
-        <v>-14</v>
-      </c>
-    </row>
-    <row r="21" spans="10:11" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="6">
+        <v>45818</v>
+      </c>
+      <c r="F21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ca="1" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ca="1" si="2"/>
+        <v>136</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="J21" s="2">
         <v>0</v>
       </c>
       <c r="K21" s="4">
-        <f t="shared" si="1"/>
-        <v>-14</v>
-      </c>
-    </row>
-    <row r="22" spans="10:11" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="6">
+        <v>45819</v>
+      </c>
+      <c r="F22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ca="1" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ca="1" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="J22" s="2">
         <v>0</v>
       </c>
       <c r="K22" s="4">
-        <f t="shared" si="1"/>
-        <v>-14</v>
-      </c>
-    </row>
-    <row r="23" spans="10:11" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="6">
+        <v>45820</v>
+      </c>
+      <c r="F23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ca="1" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="H23">
+        <f t="shared" ca="1" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="J23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="4">
-        <f t="shared" si="1"/>
-        <v>-14</v>
-      </c>
-    </row>
-    <row r="24" spans="10:11" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="6">
+        <v>45821</v>
+      </c>
+      <c r="F24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ca="1" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ca="1" si="2"/>
+        <v>102</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="J24" s="2">
         <v>0</v>
       </c>
       <c r="K24" s="4">
-        <f t="shared" si="1"/>
-        <v>-14</v>
-      </c>
-    </row>
-    <row r="25" spans="10:11" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="6">
+        <v>45822</v>
+      </c>
+      <c r="F25" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ca="1" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ca="1" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="J25" s="2">
         <v>0</v>
       </c>
       <c r="K25" s="4">
-        <f t="shared" si="1"/>
-        <v>-14</v>
-      </c>
-    </row>
-    <row r="26" spans="10:11" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="6">
+        <v>45768</v>
+      </c>
+      <c r="F26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ca="1" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="H26">
+        <f t="shared" ca="1" si="2"/>
+        <v>112</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="J26" s="2">
         <v>0</v>
       </c>
       <c r="K26" s="4">
-        <f t="shared" si="1"/>
-        <v>-14</v>
-      </c>
-    </row>
-    <row r="27" spans="10:11" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="6">
+        <v>45769</v>
+      </c>
+      <c r="F27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ca="1" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ca="1" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="J27" s="2">
         <v>0</v>
       </c>
       <c r="K27" s="4">
-        <f t="shared" si="1"/>
-        <v>-14</v>
-      </c>
-    </row>
-    <row r="28" spans="10:11" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="6">
+        <v>45770</v>
+      </c>
+      <c r="F28" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <f t="shared" ca="1" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="H28">
+        <f t="shared" ca="1" si="2"/>
+        <v>134</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="J28" s="2">
         <v>0</v>
       </c>
       <c r="K28" s="4">
-        <f t="shared" si="1"/>
-        <v>-14</v>
-      </c>
-    </row>
-    <row r="29" spans="10:11" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="6">
+        <v>45771</v>
+      </c>
+      <c r="F29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <f t="shared" ca="1" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="H29">
+        <f t="shared" ca="1" si="2"/>
+        <v>130</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="J29" s="2">
         <v>0</v>
       </c>
       <c r="K29" s="4">
-        <f t="shared" si="1"/>
-        <v>-14</v>
-      </c>
-    </row>
-    <row r="30" spans="10:11" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>147</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="6">
+        <v>45752</v>
+      </c>
+      <c r="F30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <f t="shared" ca="1" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="H30">
+        <f t="shared" ca="1" si="2"/>
+        <v>104</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="J30" s="2">
         <v>0</v>
       </c>
       <c r="K30" s="4">
-        <f t="shared" si="1"/>
-        <v>-14</v>
-      </c>
-    </row>
-    <row r="31" spans="10:11" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>149</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="6">
+        <v>45752</v>
+      </c>
+      <c r="F31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ca="1" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="H31">
+        <f t="shared" ca="1" si="2"/>
+        <v>116</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="J31" s="2">
         <v>0</v>
       </c>
       <c r="K31" s="4">
-        <f t="shared" si="1"/>
-        <v>-14</v>
-      </c>
-    </row>
-    <row r="32" spans="10:11" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>151</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="6">
+        <v>45774</v>
+      </c>
+      <c r="F32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <f t="shared" ca="1" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="H32">
+        <f t="shared" ca="1" si="2"/>
+        <v>113</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J32" s="2">
         <v>0</v>
       </c>
       <c r="K32" s="4">
-        <f t="shared" si="1"/>
-        <v>-14</v>
-      </c>
-    </row>
-    <row r="33" spans="10:11" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>153</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="6">
+        <v>45775</v>
+      </c>
+      <c r="F33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ca="1" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="H33">
+        <f t="shared" ca="1" si="2"/>
+        <v>113</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="J33" s="2">
         <v>0</v>
       </c>
       <c r="K33" s="4">
-        <f t="shared" si="1"/>
-        <v>-14</v>
-      </c>
-    </row>
-    <row r="34" spans="10:11" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>155</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="6">
+        <v>45776</v>
+      </c>
+      <c r="F34" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34">
+        <f t="shared" ca="1" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="H34">
+        <f t="shared" ca="1" si="2"/>
+        <v>132</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="J34" s="2">
         <v>0</v>
       </c>
       <c r="K34" s="4">
-        <f t="shared" si="1"/>
-        <v>-14</v>
-      </c>
-    </row>
-    <row r="35" spans="10:11" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>157</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="6">
+        <v>45777</v>
+      </c>
+      <c r="F35" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <f t="shared" ca="1" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="H35">
+        <f t="shared" ca="1" si="2"/>
+        <v>106</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="J35" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K35" s="4">
-        <f t="shared" si="1"/>
-        <v>-14</v>
-      </c>
-    </row>
-    <row r="36" spans="10:11" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>159</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="6">
+        <v>45778</v>
+      </c>
+      <c r="F36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <f t="shared" ca="1" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="H36">
+        <f t="shared" ca="1" si="2"/>
+        <v>113</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="J36" s="2">
         <v>0</v>
       </c>
       <c r="K36" s="4">
-        <f t="shared" si="1"/>
-        <v>-14</v>
-      </c>
-    </row>
-    <row r="37" spans="10:11" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>161</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="6">
+        <v>45779</v>
+      </c>
+      <c r="F37" t="s">
+        <v>72</v>
+      </c>
+      <c r="G37">
+        <f t="shared" ca="1" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="H37">
+        <f t="shared" ca="1" si="2"/>
+        <v>127</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="J37" s="2">
         <v>0</v>
       </c>
       <c r="K37" s="4">
-        <f t="shared" si="1"/>
-        <v>-14</v>
-      </c>
-    </row>
-    <row r="38" spans="10:11" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>163</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="6">
+        <v>45780</v>
+      </c>
+      <c r="F38" t="s">
+        <v>72</v>
+      </c>
+      <c r="G38">
+        <f t="shared" ca="1" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="H38">
+        <f t="shared" ca="1" si="2"/>
+        <v>126</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="J38" s="2">
         <v>0</v>
       </c>
       <c r="K38" s="4">
-        <f t="shared" si="1"/>
-        <v>-14</v>
-      </c>
-    </row>
-    <row r="39" spans="10:11" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>165</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="6">
+        <v>45781</v>
+      </c>
+      <c r="F39" t="s">
+        <v>72</v>
+      </c>
+      <c r="G39">
+        <f t="shared" ca="1" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="H39">
+        <f t="shared" ca="1" si="2"/>
+        <v>114</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="J39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="4">
-        <f t="shared" si="1"/>
-        <v>-14</v>
-      </c>
-    </row>
-    <row r="40" spans="10:11" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>167</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="6">
+        <v>45782</v>
+      </c>
+      <c r="F40" t="s">
+        <v>72</v>
+      </c>
+      <c r="G40">
+        <f t="shared" ca="1" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="H40">
+        <f t="shared" ca="1" si="2"/>
+        <v>125</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="J40" s="2">
         <v>0</v>
       </c>
       <c r="K40" s="4">
-        <f t="shared" si="1"/>
-        <v>-14</v>
-      </c>
-    </row>
-    <row r="41" spans="10:11" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>169</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="6">
+        <v>45783</v>
+      </c>
+      <c r="F41" t="s">
+        <v>72</v>
+      </c>
+      <c r="G41">
+        <f t="shared" ca="1" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="H41">
+        <f t="shared" ca="1" si="2"/>
+        <v>122</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="J41" s="2">
         <v>0</v>
       </c>
       <c r="K41" s="4">
-        <f t="shared" si="1"/>
-        <v>-14</v>
-      </c>
-    </row>
-    <row r="42" spans="10:11" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>171</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C42" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="6">
+        <v>45784</v>
+      </c>
+      <c r="F42" t="s">
+        <v>72</v>
+      </c>
+      <c r="G42">
+        <f t="shared" ca="1" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="H42">
+        <f t="shared" ca="1" si="2"/>
+        <v>138</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="J42" s="2">
+        <v>2</v>
+      </c>
+      <c r="K42" s="4">
+        <f t="shared" ref="K42:K75" si="4">WEEKNUM(E42)-14</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>173</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="6">
+        <v>45785</v>
+      </c>
+      <c r="F43" t="s">
+        <v>72</v>
+      </c>
+      <c r="G43">
+        <f t="shared" ca="1" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="H43">
+        <f t="shared" ca="1" si="2"/>
+        <v>128</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J43" s="2">
         <v>0</v>
+      </c>
+      <c r="K43" s="4">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>175</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C44" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="6">
+        <v>45786</v>
+      </c>
+      <c r="F44" t="s">
+        <v>72</v>
+      </c>
+      <c r="G44">
+        <f t="shared" ca="1" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="H44">
+        <f t="shared" ca="1" si="2"/>
+        <v>130</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J44" s="2">
+        <v>0</v>
+      </c>
+      <c r="K44" s="4">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>177</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="6">
+        <v>45787</v>
+      </c>
+      <c r="F45" t="s">
+        <v>72</v>
+      </c>
+      <c r="G45">
+        <f t="shared" ca="1" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="H45">
+        <f t="shared" ca="1" si="2"/>
+        <v>127</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J45" s="2">
+        <v>0</v>
+      </c>
+      <c r="K45" s="4">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>179</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C46" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46" s="6">
+        <v>45788</v>
+      </c>
+      <c r="F46" t="s">
+        <v>72</v>
+      </c>
+      <c r="G46">
+        <f t="shared" ca="1" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="H46">
+        <f t="shared" ca="1" si="2"/>
+        <v>113</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0</v>
+      </c>
+      <c r="K46" s="4">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>181</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C47" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47" s="6">
+        <v>45789</v>
+      </c>
+      <c r="F47" t="s">
+        <v>72</v>
+      </c>
+      <c r="G47">
+        <f t="shared" ca="1" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="H47">
+        <f t="shared" ca="1" si="2"/>
+        <v>138</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J47" s="2">
+        <v>0</v>
+      </c>
+      <c r="K47" s="4">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>183</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C48" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" t="s">
+        <v>36</v>
+      </c>
+      <c r="E48" s="6">
+        <v>45790</v>
+      </c>
+      <c r="F48" t="s">
+        <v>45</v>
+      </c>
+      <c r="G48">
+        <f t="shared" ca="1" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="H48">
+        <f t="shared" ca="1" si="2"/>
+        <v>108</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J48" s="2">
+        <v>0</v>
+      </c>
+      <c r="K48" s="4">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>185</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49" s="6">
+        <v>45791</v>
+      </c>
+      <c r="F49" t="s">
+        <v>45</v>
+      </c>
+      <c r="G49">
+        <f t="shared" ca="1" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="H49">
+        <f t="shared" ca="1" si="2"/>
+        <v>104</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J49" s="2">
+        <v>0</v>
+      </c>
+      <c r="K49" s="4">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>187</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C50" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" s="6">
+        <v>45792</v>
+      </c>
+      <c r="F50" t="s">
+        <v>45</v>
+      </c>
+      <c r="G50">
+        <f t="shared" ca="1" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="H50">
+        <f t="shared" ca="1" si="2"/>
+        <v>129</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J50" s="2">
+        <v>0</v>
+      </c>
+      <c r="K50" s="4">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>189</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C51" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" t="s">
+        <v>36</v>
+      </c>
+      <c r="E51" s="6">
+        <v>45793</v>
+      </c>
+      <c r="F51" t="s">
+        <v>45</v>
+      </c>
+      <c r="G51">
+        <f t="shared" ca="1" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="H51">
+        <f t="shared" ca="1" si="2"/>
+        <v>104</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J51" s="2">
+        <v>0</v>
+      </c>
+      <c r="K51" s="4">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>191</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C52" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" t="s">
+        <v>36</v>
+      </c>
+      <c r="E52" s="6">
+        <v>45794</v>
+      </c>
+      <c r="F52" t="s">
+        <v>45</v>
+      </c>
+      <c r="G52">
+        <f t="shared" ca="1" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="H52">
+        <f t="shared" ca="1" si="2"/>
+        <v>115</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J52" s="2">
+        <v>0</v>
+      </c>
+      <c r="K52" s="4">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>193</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C53" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" t="s">
+        <v>36</v>
+      </c>
+      <c r="E53" s="6">
+        <v>45795</v>
+      </c>
+      <c r="F53" t="s">
+        <v>45</v>
+      </c>
+      <c r="G53">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="H53">
+        <f t="shared" ca="1" si="2"/>
+        <v>117</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J53" s="2">
+        <v>0</v>
+      </c>
+      <c r="K53" s="4">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>195</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C54" t="s">
+        <v>54</v>
+      </c>
+      <c r="D54" t="s">
+        <v>30</v>
+      </c>
+      <c r="E54" s="6">
+        <v>45796</v>
+      </c>
+      <c r="F54" t="s">
+        <v>45</v>
+      </c>
+      <c r="G54">
+        <f t="shared" ca="1" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="H54">
+        <f t="shared" ca="1" si="2"/>
+        <v>139</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J54" s="2">
+        <v>5</v>
+      </c>
+      <c r="K54" s="4">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>197</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C55" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55" t="s">
+        <v>30</v>
+      </c>
+      <c r="E55" s="6">
+        <v>45797</v>
+      </c>
+      <c r="F55" t="s">
+        <v>45</v>
+      </c>
+      <c r="G55">
+        <f t="shared" ca="1" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="H55">
+        <f t="shared" ca="1" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J55" s="2">
+        <v>0</v>
+      </c>
+      <c r="K55" s="4">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>199</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C56" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" t="s">
+        <v>30</v>
+      </c>
+      <c r="E56" s="6">
+        <v>45798</v>
+      </c>
+      <c r="F56" t="s">
+        <v>2</v>
+      </c>
+      <c r="G56">
+        <f t="shared" ca="1" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="H56">
+        <f t="shared" ca="1" si="2"/>
+        <v>118</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J56" s="2">
+        <v>0</v>
+      </c>
+      <c r="K56" s="4">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>201</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C57" t="s">
+        <v>51</v>
+      </c>
+      <c r="D57" t="s">
+        <v>30</v>
+      </c>
+      <c r="E57" s="6">
+        <v>45799</v>
+      </c>
+      <c r="F57" t="s">
+        <v>2</v>
+      </c>
+      <c r="G57">
+        <f t="shared" ca="1" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="H57">
+        <f t="shared" ca="1" si="2"/>
+        <v>104</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J57" s="2">
+        <v>0</v>
+      </c>
+      <c r="K57" s="4">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>203</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C58" t="s">
+        <v>51</v>
+      </c>
+      <c r="D58" t="s">
+        <v>30</v>
+      </c>
+      <c r="E58" s="6">
+        <v>45800</v>
+      </c>
+      <c r="F58" t="s">
+        <v>2</v>
+      </c>
+      <c r="G58">
+        <f t="shared" ca="1" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="H58">
+        <f t="shared" ca="1" si="2"/>
+        <v>113</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J58" s="2">
+        <v>0</v>
+      </c>
+      <c r="K58" s="4">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>205</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C59" t="s">
+        <v>51</v>
+      </c>
+      <c r="D59" t="s">
+        <v>30</v>
+      </c>
+      <c r="E59" s="6">
+        <v>45801</v>
+      </c>
+      <c r="F59" t="s">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <f t="shared" ca="1" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="H59">
+        <f t="shared" ca="1" si="2"/>
+        <v>128</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J59" s="2">
+        <v>0</v>
+      </c>
+      <c r="K59" s="4">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>207</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C60" t="s">
+        <v>51</v>
+      </c>
+      <c r="D60" t="s">
+        <v>30</v>
+      </c>
+      <c r="E60" s="6">
+        <v>45802</v>
+      </c>
+      <c r="F60" t="s">
+        <v>4</v>
+      </c>
+      <c r="G60">
+        <f t="shared" ca="1" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="H60">
+        <f t="shared" ca="1" si="2"/>
+        <v>123</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J60" s="2">
+        <v>0</v>
+      </c>
+      <c r="K60" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>209</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C61" t="s">
+        <v>29</v>
+      </c>
+      <c r="D61" t="s">
+        <v>30</v>
+      </c>
+      <c r="E61" s="6">
+        <v>45803</v>
+      </c>
+      <c r="F61" t="s">
+        <v>4</v>
+      </c>
+      <c r="G61">
+        <f t="shared" ca="1" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="H61">
+        <f t="shared" ca="1" si="2"/>
+        <v>118</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J61" s="2">
+        <v>0</v>
+      </c>
+      <c r="K61" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>211</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C62" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" t="s">
+        <v>30</v>
+      </c>
+      <c r="E62" s="6">
+        <v>45804</v>
+      </c>
+      <c r="F62" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62">
+        <f t="shared" ca="1" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="H62">
+        <f t="shared" ca="1" si="2"/>
+        <v>102</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J62" s="2">
+        <v>0</v>
+      </c>
+      <c r="K62" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>213</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C63" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63" t="s">
+        <v>30</v>
+      </c>
+      <c r="E63" s="6">
+        <v>45805</v>
+      </c>
+      <c r="F63" t="s">
+        <v>18</v>
+      </c>
+      <c r="G63">
+        <f t="shared" ca="1" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="H63">
+        <f t="shared" ca="1" si="2"/>
+        <v>107</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J63" s="2">
+        <v>0</v>
+      </c>
+      <c r="K63" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>215</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C64" t="s">
+        <v>32</v>
+      </c>
+      <c r="D64" t="s">
+        <v>30</v>
+      </c>
+      <c r="E64" s="6">
+        <v>45806</v>
+      </c>
+      <c r="F64" t="s">
+        <v>2</v>
+      </c>
+      <c r="G64">
+        <f t="shared" ca="1" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="H64">
+        <f t="shared" ca="1" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J64" s="2">
+        <v>0</v>
+      </c>
+      <c r="K64" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>217</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C65" t="s">
+        <v>31</v>
+      </c>
+      <c r="D65" t="s">
+        <v>5</v>
+      </c>
+      <c r="E65" s="6">
+        <v>45807</v>
+      </c>
+      <c r="F65" t="s">
+        <v>2</v>
+      </c>
+      <c r="G65">
+        <f t="shared" ca="1" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="H65">
+        <f t="shared" ca="1" si="2"/>
+        <v>132</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J65" s="2">
+        <v>0</v>
+      </c>
+      <c r="K65" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>219</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C66" t="s">
+        <v>31</v>
+      </c>
+      <c r="D66" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="6">
+        <v>45808</v>
+      </c>
+      <c r="F66" t="s">
+        <v>72</v>
+      </c>
+      <c r="G66">
+        <f t="shared" ca="1" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="H66">
+        <f t="shared" ca="1" si="2"/>
+        <v>123</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J66" s="2">
+        <v>6</v>
+      </c>
+      <c r="K66" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>221</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C67" t="s">
+        <v>32</v>
+      </c>
+      <c r="D67" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67" s="6">
+        <v>45809</v>
+      </c>
+      <c r="F67" t="s">
+        <v>72</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ref="G67:G75" ca="1" si="5">ROUND(RAND()*60+50,0)</f>
+        <v>86</v>
+      </c>
+      <c r="H67">
+        <f t="shared" ref="H67:H75" ca="1" si="6">ROUND(RAND()*40+100,0)</f>
+        <v>128</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J67" s="2">
+        <v>0</v>
+      </c>
+      <c r="K67" s="4">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>223</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C68" t="s">
+        <v>31</v>
+      </c>
+      <c r="D68" t="s">
+        <v>5</v>
+      </c>
+      <c r="E68" s="6">
+        <v>45810</v>
+      </c>
+      <c r="F68" t="s">
+        <v>72</v>
+      </c>
+      <c r="G68">
+        <f t="shared" ca="1" si="5"/>
+        <v>101</v>
+      </c>
+      <c r="H68">
+        <f t="shared" ca="1" si="6"/>
+        <v>106</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J68" s="2">
+        <v>0</v>
+      </c>
+      <c r="K68" s="4">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>225</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C69" t="s">
+        <v>31</v>
+      </c>
+      <c r="D69" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69" s="6">
+        <v>45811</v>
+      </c>
+      <c r="F69" t="s">
+        <v>72</v>
+      </c>
+      <c r="G69">
+        <f t="shared" ca="1" si="5"/>
+        <v>63</v>
+      </c>
+      <c r="H69">
+        <f t="shared" ca="1" si="6"/>
+        <v>106</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J69" s="2">
+        <v>0</v>
+      </c>
+      <c r="K69" s="4">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>227</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C70" t="s">
+        <v>31</v>
+      </c>
+      <c r="D70" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70" s="6">
+        <v>45812</v>
+      </c>
+      <c r="F70" t="s">
+        <v>72</v>
+      </c>
+      <c r="G70">
+        <f t="shared" ca="1" si="5"/>
+        <v>71</v>
+      </c>
+      <c r="H70">
+        <f t="shared" ca="1" si="6"/>
+        <v>137</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J70" s="2">
+        <v>0</v>
+      </c>
+      <c r="K70" s="4">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>229</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C71" t="s">
+        <v>31</v>
+      </c>
+      <c r="D71" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71" s="6">
+        <v>45813</v>
+      </c>
+      <c r="F71" t="s">
+        <v>2</v>
+      </c>
+      <c r="G71">
+        <f t="shared" ca="1" si="5"/>
+        <v>105</v>
+      </c>
+      <c r="H71">
+        <f t="shared" ca="1" si="6"/>
+        <v>122</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J71" s="2">
+        <v>0</v>
+      </c>
+      <c r="K71" s="4">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>235</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C72" t="s">
+        <v>31</v>
+      </c>
+      <c r="D72" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="6">
+        <v>45814</v>
+      </c>
+      <c r="F72" t="s">
+        <v>2</v>
+      </c>
+      <c r="G72">
+        <f t="shared" ca="1" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="H72">
+        <f t="shared" ca="1" si="6"/>
+        <v>130</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J72" s="2">
+        <v>0</v>
+      </c>
+      <c r="K72" s="4">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>236</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C73" t="s">
+        <v>34</v>
+      </c>
+      <c r="D73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" s="6">
+        <v>45815</v>
+      </c>
+      <c r="F73" t="s">
+        <v>2</v>
+      </c>
+      <c r="G73">
+        <f t="shared" ca="1" si="5"/>
+        <v>98</v>
+      </c>
+      <c r="H73">
+        <f t="shared" ca="1" si="6"/>
+        <v>105</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J73" s="2">
+        <v>0</v>
+      </c>
+      <c r="K73" s="4">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>237</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C74" t="s">
+        <v>34</v>
+      </c>
+      <c r="D74" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" s="6">
+        <v>45816</v>
+      </c>
+      <c r="F74" t="s">
+        <v>2</v>
+      </c>
+      <c r="G74">
+        <f t="shared" ca="1" si="5"/>
+        <v>104</v>
+      </c>
+      <c r="H74">
+        <f t="shared" ca="1" si="6"/>
+        <v>113</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J74" s="2">
+        <v>0</v>
+      </c>
+      <c r="K74" s="4">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>238</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C75" t="s">
+        <v>34</v>
+      </c>
+      <c r="D75" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" s="6">
+        <v>45817</v>
+      </c>
+      <c r="F75" t="s">
+        <v>2</v>
+      </c>
+      <c r="G75">
+        <f t="shared" ca="1" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="H75">
+        <f t="shared" ca="1" si="6"/>
+        <v>139</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J75" s="2">
+        <v>3</v>
+      </c>
+      <c r="K75" s="4">
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -7276,10 +9707,10 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B1:D1048576">
-    <cfRule type="endsWith" dxfId="13" priority="16" operator="endsWith" text="?">
+    <cfRule type="endsWith" dxfId="12" priority="16" operator="endsWith" text="?">
       <formula>RIGHT(B1,LEN("?"))="?"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="17" operator="containsText" text="&quot;?&quot;">
+    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="&quot;?&quot;">
       <formula>NOT(ISERROR(SEARCH("""?""",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7294,42 +9725,38 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="Reject">
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="Reject">
       <formula>NOT(ISERROR(SEARCH("Reject",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="Offer">
+    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="Offer">
       <formula>NOT(ISERROR(SEARCH("Offer",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:H1048576">
-    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="On">
+    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="On">
       <formula>NOT(ISERROR(SEARCH("On",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576 F1:I1048576">
-    <cfRule type="containsText" dxfId="8" priority="14" operator="containsText" text="Ended">
+    <cfRule type="containsText" dxfId="7" priority="14" operator="containsText" text="Ended">
       <formula>NOT(ISERROR(SEARCH("Ended",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="18" operator="containsText" text="Den">
+    <cfRule type="containsText" dxfId="6" priority="18" operator="containsText" text="Den">
       <formula>NOT(ISERROR(SEARCH("Den",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="19" operator="containsText" text="Interv">
+    <cfRule type="containsText" dxfId="5" priority="19" operator="containsText" text="Interv">
       <formula>NOT(ISERROR(SEARCH("Interv",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1048576 K1:K1048576 E1:E1048576">
-    <cfRule type="beginsWith" dxfId="5" priority="15" operator="beginsWith" text="?">
+  <conditionalFormatting sqref="K1:K1048576 E1:E1048576 I1:I1048576">
+    <cfRule type="beginsWith" dxfId="4" priority="15" operator="beginsWith" text="?">
       <formula>LEFT(E1,LEN("?"))="?"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="6">
+  <dataValidations count="5">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576" xr:uid="{89175BC1-BED2-4A4E-BC9B-30B543588650}">
       <formula1>0</formula1>
       <formula2>10</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H1048576" xr:uid="{96547A65-6216-415C-BF81-5FAEEACED75C}">
-      <formula1>0</formula1>
-      <formula2>200000</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{F09CCFA7-B907-4EDC-9E6C-DB73AAE9A528}">
       <formula1>"Pending,Denied,Interviewing,No Response,On Hold,Rejected,Offer"</formula1>
@@ -7353,7 +9780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1D2922-16B6-4E36-9001-106FDB9647EC}">
   <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
@@ -7374,43 +9801,43 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F1" s="42" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="I1" s="3"/>
       <c r="K1" s="31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="L1" s="14">
         <f>SUM(B2:B10)</f>
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="M1" s="14"/>
       <c r="N1" s="14" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="O1" s="14">
         <f>SUM(D2:D6)</f>
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="P1" s="14"/>
       <c r="Q1" s="14" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="R1" s="32">
         <f>SUM(G2:G14)</f>
-        <v>14</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -7419,33 +9846,33 @@
       </c>
       <c r="B2">
         <f>COUNTIF(Tracker!F2:F718, "Pending")</f>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2">
         <f>COUNTIF(Tracker!D2:D720, "analyst")</f>
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G2">
         <f>COUNTIF(Tracker!I2:I718, "LinkedIn")</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I2" s="3"/>
       <c r="K2" s="23" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="L2" s="24">
         <f>SUM(B7:B8)/L1 * 100</f>
-        <v>14.285714285714285</v>
+        <v>17.567567567567568</v>
       </c>
       <c r="M2" s="24"/>
       <c r="N2" s="25" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="O2" s="26"/>
       <c r="P2" s="26"/>
@@ -7454,21 +9881,21 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B3">
         <f>COUNTIF(Tracker!F2:F718, "No Response")</f>
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3">
         <f>COUNTIF(Tracker!D2:D718, "Product Manager")</f>
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G3">
         <f>COUNTIF(Tracker!I2:I719, "Company Site")</f>
@@ -7476,15 +9903,15 @@
       </c>
       <c r="I3" s="3"/>
       <c r="K3" s="19" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="L3" s="28">
         <f>SUM(B4:B8)/L1 * 100</f>
-        <v>71.428571428571431</v>
+        <v>48.648648648648653</v>
       </c>
       <c r="M3" s="28"/>
       <c r="N3" s="33" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="O3" s="20"/>
       <c r="P3" s="20"/>
@@ -7497,95 +9924,95 @@
       </c>
       <c r="B4">
         <f>COUNTIF(Tracker!F2:F718, "Denied")</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <f>COUNTIF(Tracker!D2:D719, "Project Manager")</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G4">
         <f>COUNTIF(Tracker!I2:I718, "Wellfound")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B5">
         <f>COUNTIF(Tracker!F2:F719, "Rejected")</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <f>COUNTIF(Tracker!D2:D722, "other")</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G5">
         <f>COUNTIF(Tracker!I1:I719, "HiringCafe")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I5" s="3"/>
       <c r="K5" s="15" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
       <c r="N5" s="27"/>
       <c r="Q5" s="29" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="R5" s="27">
         <f>COUNTA(Tracker!J2:J717) - COUNTIF(Tracker!J2:J717, "=0")</f>
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <f>COUNTIF(Tracker!F2:F718, "On Hold")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D6">
         <f>COUNTIF(Tracker!D2:D721, "Consultant")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G6">
         <f>COUNTIF(Tracker!I2:I718, "Gaingels")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I6" s="3"/>
       <c r="K6" s="18" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="L6" s="38">
-        <f>AVERAGE(Tracker!G2:G719)</f>
-        <v>97.769230769230774</v>
+        <f ca="1">AVERAGE(Tracker!G2:G719)</f>
+        <v>81.351351351351354</v>
       </c>
       <c r="M6" s="38"/>
       <c r="N6" s="39">
-        <f>AVERAGE(Tracker!H2:H719)</f>
-        <v>100</v>
+        <f ca="1">AVERAGE(Tracker!H2:H719)</f>
+        <v>120.64864864864865</v>
       </c>
       <c r="Q6" s="18"/>
       <c r="R6" s="13"/>
@@ -7596,10 +10023,10 @@
       </c>
       <c r="B7">
         <f>COUNTIF(Tracker!F2:F718, "Interviewing")</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G7">
         <f>COUNTIF(Tracker!I2:I718, "Referral")</f>
@@ -7607,85 +10034,85 @@
       </c>
       <c r="I7" s="3"/>
       <c r="K7" s="19" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="L7" s="28">
-        <f>(SUM(Tracker!G2:G719)+SUM(Tracker!H2:H721))/(COUNTA(Tracker!G2:G721)*2)</f>
-        <v>98.884615384615387</v>
+        <f ca="1">(SUM(Tracker!G2:G719)+SUM(Tracker!H2:H721))/(COUNTA(Tracker!G2:G721)*2)</f>
+        <v>101</v>
       </c>
       <c r="M7" s="28"/>
       <c r="N7" s="21"/>
       <c r="Q7" s="30" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="R7" s="13">
         <f>SUM(Tracker!J2:J718)</f>
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B8">
         <f>COUNTIF(Tracker!F2:F719, "Offer")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G8">
         <f>COUNTIF(Tracker!I2:I719, "LinkedIn DM")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I8" s="3"/>
       <c r="L8" s="38"/>
       <c r="M8" s="38"/>
       <c r="Q8" s="40" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="R8" s="21">
         <f>COUNTA(_xlfn.UNIQUE(Tracker!A2:A718))</f>
-        <v>15</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="F9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G9">
         <f>COUNTIF(Tracker!I1:I719, "Ycombinator")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="F10" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G10">
         <f>COUNTIF(Tracker!I2:I718, "Indeed")</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="F11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G11">
         <f>COUNTIF(Tracker!I1:I717, "80000 Hours")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="F12" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G12">
         <f>COUNTIF(Tracker!I1:I719, "BuiltIn")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I12" s="3"/>
     </row>
@@ -7715,7 +10142,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D313E94-785B-4EBA-91D1-25EC3022E961}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
@@ -7736,46 +10163,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="J1" s="27" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="str" cm="1">
-        <f t="array" ref="A2:B16">_xlfn.LET(
+        <f t="array" ref="A2:B76">_xlfn.LET(
     _xlpm.uniqueCompanies, _xlfn.UNIQUE(Tracker!A2:A719),
     _xlpm.industries, _xlfn.XLOOKUP(_xlpm.uniqueCompanies, Tracker!A2:A719, Tracker!C2:C719),
     _xlfn.HSTACK(_xlpm.uniqueCompanies, _xlpm.industries)
 )</f>
-        <v>BrandED</v>
+        <v>Company 1</v>
       </c>
       <c r="B2" s="13" t="str">
         <v>Other</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F2">
         <f>COUNTIF(B2:B1000,E2)</f>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G2" s="13">
         <f>COUNTIF(Tracker!C2:C730,E2)</f>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="I2" s="18">
         <v>1</v>
@@ -7787,21 +10214,21 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="str">
-        <v>Capco</v>
+        <v>Company 2</v>
       </c>
       <c r="B3" s="13" t="str">
         <v>Consulting</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F3">
         <f>COUNTIF(B2:B1001,E3)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G3" s="13">
         <f>COUNTIF(Tracker!C2:C724,E3)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I3" s="18">
         <v>2</v>
@@ -7813,243 +10240,243 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
-        <v>DailyPay</v>
+        <v>Company 3</v>
       </c>
       <c r="B4" s="13" t="str">
         <v>Business</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F4">
         <f>COUNTIF(B2:B1002,E4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G4" s="13">
         <f>COUNTIF(Tracker!C2:C728,E4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I4" s="18">
         <v>3</v>
       </c>
       <c r="J4" s="13">
         <f>COUNTIF(Tracker!K2:K720, "3")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
-        <v>Jellyfish</v>
+        <v>Company 4</v>
       </c>
       <c r="B5" s="13" t="str">
         <v>Tech</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F5">
         <f>COUNTIF(B2:B1003,E5)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G5" s="13">
         <f>COUNTIF(Tracker!C2:C723,E5)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I5" s="18">
         <v>4</v>
       </c>
       <c r="J5" s="13">
         <f>COUNTIF(Tracker!K2:K721, "4")</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L5" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="M5">
         <f>AVERAGE('Data Calculations'!J2:J11)</f>
-        <v>1.4</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
-        <v>Company 1</v>
+        <v>Company 5</v>
       </c>
       <c r="B6" s="13" t="str">
         <v>Other</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F6">
         <f>COUNTIF(B2:B1004,E6)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G6" s="13">
         <f>COUNTIF(Tracker!C2:C729,E6)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I6" s="18">
         <v>5</v>
       </c>
       <c r="J6" s="13">
         <f>COUNTIF(Tracker!K2:K722, "5")</f>
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
-        <v>Company 2</v>
+        <v>Company 6</v>
       </c>
       <c r="B7" s="13" t="str">
         <v>Recruiter</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F7">
         <f>COUNTIF(B2:B1005,E7)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G7" s="13">
         <f>COUNTIF(Tracker!C2:C727,E7)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7" s="18">
         <v>6</v>
       </c>
       <c r="J7" s="13">
         <f>COUNTIF(Tracker!K2:K723, "6")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
-        <v>Company 3</v>
+        <v>Company 7</v>
       </c>
       <c r="B8" s="13" t="str">
         <v>Tech</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F8">
         <f>COUNTIF(B2:B1006,E8)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G8" s="13">
         <f>COUNTIF(Tracker!C2:C721,E8)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I8" s="18">
         <v>7</v>
       </c>
       <c r="J8" s="13">
         <f>COUNTIF(Tracker!K2:K724, "7")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
-        <v>Company 4</v>
+        <v>Company 8</v>
       </c>
       <c r="B9" s="13" t="str">
         <v>Tech</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F9">
         <f>COUNTIF(B2:B1007,E9)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G9" s="13">
         <f>COUNTIF(Tracker!C2:C725,E9)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I9" s="18">
         <v>8</v>
       </c>
       <c r="J9" s="13">
         <f>COUNTIF(Tracker!K2:K725, "8")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L9" s="36" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="M9" s="37">
         <f>SUM(G2:G13)</f>
-        <v>14</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
-        <v>Company 5</v>
+        <v>Company 9</v>
       </c>
       <c r="B10" s="13" t="str">
         <v>Tech</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F10">
         <f>COUNTIF(B2:B1008,E10)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G10" s="13">
         <f>COUNTIF(Tracker!C2:C722,E10)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I10" s="18">
         <v>9</v>
       </c>
       <c r="J10" s="13">
         <f>COUNTIF(Tracker!K2:K726, "9")</f>
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
-        <v>Company 6</v>
+        <v>Company 10</v>
       </c>
       <c r="B11" s="13" t="str">
         <v>Insurance</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F11">
         <f>COUNTIF(B2:B1009,E11)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G11" s="13">
         <f>COUNTIF(Tracker!C2:C731,E11)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I11" s="18">
         <v>10</v>
       </c>
       <c r="J11" s="13">
         <f>COUNTIF(Tracker!K2:K727, "10")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
-        <v>Company 7</v>
+        <v>Company 11</v>
       </c>
       <c r="B12" s="13" t="str">
         <v>Consumer Products</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F12">
         <f>COUNTIF(B2:B1010,E12)</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G12" s="13">
         <f>COUNTIF(Tracker!C2:C726,E12)</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I12">
         <v>11</v>
@@ -8061,26 +10488,26 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
-        <v>Company 8</v>
+        <v>Company 12</v>
       </c>
       <c r="B13" s="13" t="str">
         <v>Consumer Products</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F13">
         <f>COUNTIF(B2:B1011,E13)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G13" s="13">
         <f>COUNTIF(Tracker!C2:C732,E13)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
-        <v>Company 9</v>
+        <v>Company 13</v>
       </c>
       <c r="B14" s="13" t="str">
         <v>Consumer Products</v>
@@ -8089,17 +10516,497 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
-        <v>Company 10</v>
+        <v>Company 14</v>
       </c>
       <c r="B15" s="13" t="str">
         <v>Consumer Products</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16">
+      <c r="A16" t="str">
+        <v>Company 15</v>
+      </c>
+      <c r="B16" s="13" t="str">
+        <v>Venture</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="str">
+        <v>Company 16</v>
+      </c>
+      <c r="B17" s="13" t="str">
+        <v>Tech</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="str">
+        <v>Company 17</v>
+      </c>
+      <c r="B18" s="13" t="str">
+        <v>Tech</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="str">
+        <v>Company 18</v>
+      </c>
+      <c r="B19" s="13" t="str">
+        <v>Tech</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="str">
+        <v>Company 19</v>
+      </c>
+      <c r="B20" s="13" t="str">
+        <v>Tech</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="str">
+        <v>Company 20</v>
+      </c>
+      <c r="B21" s="13" t="str">
+        <v>Venture</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="str">
+        <v>Company 21</v>
+      </c>
+      <c r="B22" s="13" t="str">
+        <v>Consumer Products</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="str">
+        <v>Company 22</v>
+      </c>
+      <c r="B23" s="13" t="str">
+        <v>Insurance</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="str">
+        <v>Company 23</v>
+      </c>
+      <c r="B24" s="13" t="str">
+        <v>Consulting</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="str">
+        <v>Company 24</v>
+      </c>
+      <c r="B25" s="13" t="str">
+        <v>Healthcare</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="str">
+        <v>Company 25</v>
+      </c>
+      <c r="B26" s="13" t="str">
+        <v>Other</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="str">
+        <v>Company 26</v>
+      </c>
+      <c r="B27" s="13" t="str">
+        <v>Unknown</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="str">
+        <v>Company 27</v>
+      </c>
+      <c r="B28" s="13" t="str">
+        <v>Recruiter</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="str">
+        <v>Company 28</v>
+      </c>
+      <c r="B29" s="13" t="str">
+        <v>Recruiter</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="str">
+        <v>Company 29</v>
+      </c>
+      <c r="B30" s="13" t="str">
+        <v>Recruiter</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="str">
+        <v>Company 30</v>
+      </c>
+      <c r="B31" s="13" t="str">
+        <v>Other</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="str">
+        <v>Company 31</v>
+      </c>
+      <c r="B32" s="13" t="str">
+        <v>Business</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="str">
+        <v>Company 32</v>
+      </c>
+      <c r="B33" s="13" t="str">
+        <v>Business</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="str">
+        <v>Company 33</v>
+      </c>
+      <c r="B34" s="13" t="str">
+        <v>Business</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="str">
+        <v>Company 34</v>
+      </c>
+      <c r="B35" s="13" t="str">
+        <v>Tech</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="str">
+        <v>Company 35</v>
+      </c>
+      <c r="B36" s="13" t="str">
+        <v>Tech</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="str">
+        <v>Company 36</v>
+      </c>
+      <c r="B37" s="13" t="str">
+        <v>Insurance</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="str">
+        <v>Company 37</v>
+      </c>
+      <c r="B38" s="13" t="str">
+        <v>Finance</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="str">
+        <v>Company 38</v>
+      </c>
+      <c r="B39" s="13" t="str">
+        <v>Finance</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="str">
+        <v>Company 39</v>
+      </c>
+      <c r="B40" s="13" t="str">
+        <v>Finance</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="str">
+        <v>Company 40</v>
+      </c>
+      <c r="B41" s="13" t="str">
+        <v>Finance</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="str">
+        <v>Company 41</v>
+      </c>
+      <c r="B42" s="13" t="str">
+        <v>Tech</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="str">
+        <v>Company 42</v>
+      </c>
+      <c r="B43" s="13" t="str">
+        <v>Tech</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="str">
+        <v>Company 43</v>
+      </c>
+      <c r="B44" s="13" t="str">
+        <v>Tech</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="str">
+        <v>Company 44</v>
+      </c>
+      <c r="B45" s="13" t="str">
+        <v>Tech</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="str">
+        <v>Company 45</v>
+      </c>
+      <c r="B46" s="13" t="str">
+        <v>Tech</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="str">
+        <v>Company 46</v>
+      </c>
+      <c r="B47" s="13" t="str">
+        <v>Healthcare</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="str">
+        <v>Company 47</v>
+      </c>
+      <c r="B48" s="13" t="str">
+        <v>Healthcare</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="str">
+        <v>Company 48</v>
+      </c>
+      <c r="B49" s="13" t="str">
+        <v>Healthcare</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="str">
+        <v>Company 49</v>
+      </c>
+      <c r="B50" s="13" t="str">
+        <v>Healthcare</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="str">
+        <v>Company 50</v>
+      </c>
+      <c r="B51" s="13" t="str">
+        <v>Venture</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="str">
+        <v>Company 51</v>
+      </c>
+      <c r="B52" s="13" t="str">
+        <v>Consumer Products</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="str">
+        <v>Company 52</v>
+      </c>
+      <c r="B53" s="13" t="str">
+        <v>Consumer Products</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="str">
+        <v>Company 53</v>
+      </c>
+      <c r="B54" s="13" t="str">
+        <v>Consumer Products</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="str">
+        <v>Company 54</v>
+      </c>
+      <c r="B55" s="13" t="str">
+        <v>Consumer Products</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="str">
+        <v>Company 55</v>
+      </c>
+      <c r="B56" s="13" t="str">
+        <v>Unknown</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="str">
+        <v>Company 56</v>
+      </c>
+      <c r="B57" s="13" t="str">
+        <v>Consulting</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="str">
+        <v>Company 57</v>
+      </c>
+      <c r="B58" s="13" t="str">
+        <v>Consulting</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="str">
+        <v>Company 58</v>
+      </c>
+      <c r="B59" s="13" t="str">
+        <v>Consulting</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="str">
+        <v>Company 59</v>
+      </c>
+      <c r="B60" s="13" t="str">
+        <v>Consulting</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="str">
+        <v>Company 60</v>
+      </c>
+      <c r="B61" s="13" t="str">
+        <v>Marketing</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="str">
+        <v>Company 61</v>
+      </c>
+      <c r="B62" s="13" t="str">
+        <v>Marketing</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="str">
+        <v>Company 62</v>
+      </c>
+      <c r="B63" s="13" t="str">
+        <v>Marketing</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="str">
+        <v>Company 63</v>
+      </c>
+      <c r="B64" s="13" t="str">
+        <v>Unknown</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" t="str">
+        <v>Company 64</v>
+      </c>
+      <c r="B65" s="13" t="str">
+        <v>Insurance</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="str">
+        <v>Company 65</v>
+      </c>
+      <c r="B66" s="13" t="str">
+        <v>Insurance</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="str">
+        <v>Company 66</v>
+      </c>
+      <c r="B67" s="13" t="str">
+        <v>Unknown</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" t="str">
+        <v>Company 67</v>
+      </c>
+      <c r="B68" s="13" t="str">
+        <v>Insurance</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="str">
+        <v>Company 68</v>
+      </c>
+      <c r="B69" s="13" t="str">
+        <v>Insurance</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="str">
+        <v>Company 69</v>
+      </c>
+      <c r="B70" s="13" t="str">
+        <v>Insurance</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="str">
+        <v>Company 70</v>
+      </c>
+      <c r="B71" s="13" t="str">
+        <v>Insurance</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="str">
+        <v>Company 71</v>
+      </c>
+      <c r="B72" s="13" t="str">
+        <v>Insurance</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="str">
+        <v>Company 72</v>
+      </c>
+      <c r="B73" s="13" t="str">
+        <v>Recruiter</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="str">
+        <v>Company 73</v>
+      </c>
+      <c r="B74" s="13" t="str">
+        <v>Recruiter</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="str">
+        <v>Company 74</v>
+      </c>
+      <c r="B75" s="13" t="str">
+        <v>Recruiter</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76">
         <v>0</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B76" s="13">
         <v>0</v>
       </c>
     </row>
@@ -8127,11 +11034,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70590CAF-D2CD-443E-AE13-8F53684D3C03}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O70"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomLeft" activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8151,64 +11058,64 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F1" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="35" t="s">
-        <v>72</v>
-      </c>
       <c r="H1" s="34" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="J1" s="34" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="K1" s="34" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="M1" s="34" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="N1" s="34" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="O1" s="34" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="str">
         <f>Tracker!A2</f>
-        <v>BrandED</v>
+        <v>Company 1</v>
       </c>
       <c r="B2" t="str">
         <f>Tracker!B2</f>
-        <v>Enterprise Application Services Analyst</v>
+        <v>Title 1</v>
       </c>
       <c r="C2" t="str">
         <f>Tracker!F2</f>
         <v>No Response</v>
       </c>
       <c r="D2">
-        <f>(Tracker!G2+Tracker!H2)/2</f>
-        <v>100</v>
+        <f ca="1">(Tracker!G2+Tracker!H2)/2</f>
+        <v>99.5</v>
       </c>
       <c r="E2" s="34">
         <f>IF(OR(Tracker!F2="denied",Tracker!F2="on hold",Tracker!F2="No Response",Tracker!F2="pending"), 0.2, IF(Tracker!F2="interviewing", 0.4, IF(Tracker!F2="rejected", 0.3, IF(Tracker!F2="offer", 1, 0))))</f>
@@ -8227,45 +11134,45 @@
       </c>
       <c r="I2" s="35">
         <f>10-(0.5*Tracker!J2)</f>
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="J2">
-        <f t="shared" ref="J2:J15" si="0">IF(D2=0,0,((0.3*D2*G2*H2)/10)-2.7)</f>
-        <v>0.43499999999999961</v>
+        <f t="shared" ref="J2:J15" ca="1" si="0">IF(D2=0,0,((0.3*D2*G2*H2)/10)-2.7)</f>
+        <v>0.41932499999999973</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K15" si="1">IF(D2=0, 0,((D2*E2*G2*H2)/(F2*I2)-2))</f>
-        <v>0.32222222222222197</v>
+        <f t="shared" ref="K2:K15" ca="1" si="1">IF(D2=0, 0,((D2*E2*G2*H2)/(F2*I2)-2))</f>
+        <v>0.43222222222222229</v>
       </c>
       <c r="M2" t="e">
-        <f>IF(J2=0, 0, NA())</f>
+        <f ca="1">IF(J2=0, 0, NA())</f>
         <v>#N/A</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="N2:N15" si="2">IF(J2=0, NA(), J2)</f>
-        <v>0.43499999999999961</v>
+        <f t="shared" ref="N2:N15" ca="1" si="2">IF(J2=0, NA(), J2)</f>
+        <v>0.41932499999999973</v>
       </c>
       <c r="O2">
-        <f t="shared" ref="O2:O15" si="3">IF(K2=0, NA(), K2)</f>
-        <v>0.32222222222222197</v>
+        <f t="shared" ref="O2:O15" ca="1" si="3">IF(K2=0, NA(), K2)</f>
+        <v>0.43222222222222229</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="str">
         <f>Tracker!A3</f>
-        <v>Capco</v>
+        <v>Company 2</v>
       </c>
       <c r="B3" t="str">
         <f>Tracker!B3</f>
-        <v>Technical Strategy Analyst</v>
+        <v>Title 2</v>
       </c>
       <c r="C3" t="str">
         <f>Tracker!F3</f>
         <v>Rejected</v>
       </c>
       <c r="D3">
-        <f>(Tracker!G3+Tracker!H3)/2</f>
-        <v>93.5</v>
+        <f ca="1">(Tracker!G3+Tracker!H3)/2</f>
+        <v>88</v>
       </c>
       <c r="E3" s="34">
         <f>IF(OR(Tracker!F3="denied",Tracker!F3="on hold",Tracker!F3="No Response",Tracker!F3="pending"), 0.2, IF(Tracker!F3="interviewing", 0.4, IF(Tracker!F3="rejected", 0.3, IF(Tracker!F3="offer", 1, 0))))</f>
@@ -8287,42 +11194,42 @@
         <v>8.5</v>
       </c>
       <c r="J3">
-        <f t="shared" si="0"/>
-        <v>0.23122500000000024</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5.8799999999999741E-2</v>
       </c>
       <c r="K3">
-        <f t="shared" si="1"/>
-        <v>1.831666666666667</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.6062745098039213</v>
       </c>
       <c r="M3" t="e">
-        <f t="shared" ref="M3:M15" si="4">IF(J3=0, 0, NA())</f>
+        <f t="shared" ref="M3:M15" ca="1" si="4">IF(J3=0, 0, NA())</f>
         <v>#N/A</v>
       </c>
       <c r="N3">
-        <f t="shared" si="2"/>
-        <v>0.23122500000000024</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5.8799999999999741E-2</v>
       </c>
       <c r="O3">
-        <f t="shared" si="3"/>
-        <v>1.831666666666667</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.6062745098039213</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
         <f>Tracker!A4</f>
-        <v>DailyPay</v>
+        <v>Company 3</v>
       </c>
       <c r="B4" t="str">
         <f>Tracker!B4</f>
-        <v>Technical Engagement Analyst</v>
+        <v>Title 3</v>
       </c>
       <c r="C4" t="str">
         <f>Tracker!F4</f>
         <v>Denied</v>
       </c>
       <c r="D4">
-        <f>(Tracker!G4+Tracker!H4)/2</f>
-        <v>92</v>
+        <f ca="1">(Tracker!G4+Tracker!H4)/2</f>
+        <v>106</v>
       </c>
       <c r="E4" s="34">
         <f>IF(OR(Tracker!F4="denied",Tracker!F4="on hold",Tracker!F4="No Response",Tracker!F4="pending"), 0.2, IF(Tracker!F4="interviewing", 0.4, IF(Tracker!F4="rejected", 0.3, IF(Tracker!F4="offer", 1, 0))))</f>
@@ -8344,42 +11251,42 @@
         <v>10</v>
       </c>
       <c r="J4">
-        <f t="shared" si="0"/>
-        <v>0.1841999999999997</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.6230999999999991</v>
       </c>
       <c r="K4">
-        <f t="shared" si="1"/>
-        <v>0.13644444444444481</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.46155555555555594</v>
       </c>
       <c r="M4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="N4">
-        <f t="shared" si="2"/>
-        <v>0.1841999999999997</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.6230999999999991</v>
       </c>
       <c r="O4">
-        <f t="shared" si="3"/>
-        <v>0.13644444444444481</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.46155555555555594</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f>Tracker!A5</f>
-        <v>Jellyfish</v>
+        <v>Company 4</v>
       </c>
       <c r="B5" t="str">
         <f>Tracker!B5</f>
-        <v>Forward Deployed Engineer</v>
+        <v>Title 4</v>
       </c>
       <c r="C5" t="str">
         <f>Tracker!F5</f>
         <v>Rejected</v>
       </c>
       <c r="D5">
-        <f>(Tracker!G5+Tracker!H5)/2</f>
-        <v>0</v>
+        <f ca="1">(Tracker!G5+Tracker!H5)/2</f>
+        <v>100</v>
       </c>
       <c r="E5" s="34">
         <f>IF(OR(Tracker!F5="denied",Tracker!F5="on hold",Tracker!F5="No Response",Tracker!F5="pending"), 0.2, IF(Tracker!F5="interviewing", 0.4, IF(Tracker!F5="rejected", 0.3, IF(Tracker!F5="offer", 1, 0))))</f>
@@ -8401,42 +11308,42 @@
         <v>9.5</v>
       </c>
       <c r="J5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.14999999999999991</v>
       </c>
       <c r="K5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M5" t="e">
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="O5" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
+      <c r="N5">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f>Tracker!A6</f>
-        <v>Company 1</v>
+        <v>Company 5</v>
       </c>
       <c r="B6" t="str">
         <f>Tracker!B6</f>
-        <v>Title 1</v>
+        <v>Title 5</v>
       </c>
       <c r="C6" t="str">
         <f>Tracker!F6</f>
         <v>Denied</v>
       </c>
       <c r="D6">
-        <f>(Tracker!G6+Tracker!H6)/2</f>
-        <v>100</v>
+        <f ca="1">(Tracker!G6+Tracker!H6)/2</f>
+        <v>105</v>
       </c>
       <c r="E6" s="34">
         <f>IF(OR(Tracker!F6="denied",Tracker!F6="on hold",Tracker!F6="No Response",Tracker!F6="pending"), 0.2, IF(Tracker!F6="interviewing", 0.4, IF(Tracker!F6="rejected", 0.3, IF(Tracker!F6="offer", 1, 0))))</f>
@@ -8458,42 +11365,42 @@
         <v>10</v>
       </c>
       <c r="J6">
-        <f t="shared" si="0"/>
-        <v>0.43499999999999961</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.59175000000000022</v>
       </c>
       <c r="K6">
-        <f t="shared" si="1"/>
-        <v>0.32222222222222197</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.43833333333333346</v>
       </c>
       <c r="M6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="N6">
-        <f t="shared" si="2"/>
-        <v>0.43499999999999961</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.59175000000000022</v>
       </c>
       <c r="O6">
-        <f t="shared" si="3"/>
-        <v>0.32222222222222197</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.43833333333333346</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <f>Tracker!A7</f>
-        <v>Company 2</v>
+        <v>Company 6</v>
       </c>
       <c r="B7" t="str">
         <f>Tracker!B7</f>
-        <v>Title 2</v>
+        <v>Title 6</v>
       </c>
       <c r="C7" t="str">
         <f>Tracker!F7</f>
         <v>No Response</v>
       </c>
       <c r="D7">
-        <f>(Tracker!G7+Tracker!H7)/2</f>
-        <v>100</v>
+        <f ca="1">(Tracker!G7+Tracker!H7)/2</f>
+        <v>117</v>
       </c>
       <c r="E7" s="34">
         <f>IF(OR(Tracker!F7="denied",Tracker!F7="on hold",Tracker!F7="No Response",Tracker!F7="pending"), 0.2, IF(Tracker!F7="interviewing", 0.4, IF(Tracker!F7="rejected", 0.3, IF(Tracker!F7="offer", 1, 0))))</f>
@@ -8512,45 +11419,45 @@
       </c>
       <c r="I7" s="35">
         <f>10-(0.5*Tracker!J7)</f>
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="J7">
-        <f t="shared" si="0"/>
-        <v>0.43499999999999961</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.96795000000000009</v>
       </c>
       <c r="K7">
-        <f t="shared" si="1"/>
-        <v>0.32222222222222197</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.86000000000000032</v>
       </c>
       <c r="M7" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="N7">
-        <f t="shared" si="2"/>
-        <v>0.43499999999999961</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.96795000000000009</v>
       </c>
       <c r="O7">
-        <f t="shared" si="3"/>
-        <v>0.32222222222222197</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.86000000000000032</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <f>Tracker!A8</f>
-        <v>Company 3</v>
+        <v>Company 7</v>
       </c>
       <c r="B8" t="str">
         <f>Tracker!B8</f>
-        <v>Title 3</v>
+        <v>Title 7</v>
       </c>
       <c r="C8" t="str">
         <f>Tracker!F8</f>
         <v>Pending</v>
       </c>
       <c r="D8">
-        <f>(Tracker!G8+Tracker!H8)/2</f>
-        <v>100</v>
+        <f ca="1">(Tracker!G8+Tracker!H8)/2</f>
+        <v>96</v>
       </c>
       <c r="E8" s="34">
         <f>IF(OR(Tracker!F8="denied",Tracker!F8="on hold",Tracker!F8="No Response",Tracker!F8="pending"), 0.2, IF(Tracker!F8="interviewing", 0.4, IF(Tracker!F8="rejected", 0.3, IF(Tracker!F8="offer", 1, 0))))</f>
@@ -8572,42 +11479,42 @@
         <v>10</v>
       </c>
       <c r="J8">
-        <f t="shared" si="0"/>
-        <v>0.43499999999999961</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.30959999999999965</v>
       </c>
       <c r="K8">
-        <f t="shared" si="1"/>
-        <v>0.32222222222222197</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.22933333333333383</v>
       </c>
       <c r="M8" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="N8">
-        <f t="shared" si="2"/>
-        <v>0.43499999999999961</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.30959999999999965</v>
       </c>
       <c r="O8">
-        <f t="shared" si="3"/>
-        <v>0.32222222222222197</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.22933333333333383</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <f>Tracker!A9</f>
-        <v>Company 4</v>
+        <v>Company 8</v>
       </c>
       <c r="B9" t="str">
         <f>Tracker!B9</f>
-        <v>Title 4</v>
+        <v>Title 8</v>
       </c>
       <c r="C9" t="str">
         <f>Tracker!F9</f>
         <v>Denied</v>
       </c>
       <c r="D9">
-        <f>(Tracker!G9+Tracker!H9)/2</f>
-        <v>100</v>
+        <f ca="1">(Tracker!G9+Tracker!H9)/2</f>
+        <v>91.5</v>
       </c>
       <c r="E9" s="34">
         <f>IF(OR(Tracker!F9="denied",Tracker!F9="on hold",Tracker!F9="No Response",Tracker!F9="pending"), 0.2, IF(Tracker!F9="interviewing", 0.4, IF(Tracker!F9="rejected", 0.3, IF(Tracker!F9="offer", 1, 0))))</f>
@@ -8626,45 +11533,45 @@
       </c>
       <c r="I9" s="35">
         <f>10-(0.5*Tracker!J9)</f>
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="J9">
-        <f t="shared" si="0"/>
-        <v>0.43499999999999961</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.16852499999999981</v>
       </c>
       <c r="K9">
-        <f t="shared" si="1"/>
-        <v>0.32222222222222197</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.23666666666666636</v>
       </c>
       <c r="M9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="N9">
-        <f t="shared" si="2"/>
-        <v>0.43499999999999961</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.16852499999999981</v>
       </c>
       <c r="O9">
-        <f t="shared" si="3"/>
-        <v>0.32222222222222197</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.23666666666666636</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <f>Tracker!A10</f>
-        <v>Company 5</v>
+        <v>Company 9</v>
       </c>
       <c r="B10" t="str">
         <f>Tracker!B10</f>
-        <v>Title 5</v>
+        <v>Title 9</v>
       </c>
       <c r="C10" t="str">
         <f>Tracker!F10</f>
         <v>Rejected</v>
       </c>
       <c r="D10">
-        <f>(Tracker!G10+Tracker!H10)/2</f>
-        <v>100</v>
+        <f ca="1">(Tracker!G10+Tracker!H10)/2</f>
+        <v>82</v>
       </c>
       <c r="E10" s="34">
         <f>IF(OR(Tracker!F10="denied",Tracker!F10="on hold",Tracker!F10="No Response",Tracker!F10="pending"), 0.2, IF(Tracker!F10="interviewing", 0.4, IF(Tracker!F10="rejected", 0.3, IF(Tracker!F10="offer", 1, 0))))</f>
@@ -8686,42 +11593,42 @@
         <v>9.5</v>
       </c>
       <c r="J10">
-        <f t="shared" si="0"/>
-        <v>0.43499999999999961</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.12930000000000064</v>
       </c>
       <c r="K10">
-        <f t="shared" si="1"/>
-        <v>0.99999999999999956</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.45999999999999952</v>
       </c>
       <c r="M10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="N10">
-        <f t="shared" si="2"/>
-        <v>0.43499999999999961</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.12930000000000064</v>
       </c>
       <c r="O10">
-        <f t="shared" si="3"/>
-        <v>0.99999999999999956</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.45999999999999952</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <f>Tracker!A11</f>
-        <v>Company 6</v>
+        <v>Company 10</v>
       </c>
       <c r="B11" t="str">
         <f>Tracker!B11</f>
-        <v>Title 6</v>
+        <v>Title 10</v>
       </c>
       <c r="C11" t="str">
         <f>Tracker!F11</f>
         <v>No Response</v>
       </c>
       <c r="D11">
-        <f>(Tracker!G11+Tracker!H11)/2</f>
-        <v>100</v>
+        <f ca="1">(Tracker!G11+Tracker!H11)/2</f>
+        <v>123.5</v>
       </c>
       <c r="E11" s="34">
         <f>IF(OR(Tracker!F11="denied",Tracker!F11="on hold",Tracker!F11="No Response",Tracker!F11="pending"), 0.2, IF(Tracker!F11="interviewing", 0.4, IF(Tracker!F11="rejected", 0.3, IF(Tracker!F11="offer", 1, 0))))</f>
@@ -8743,42 +11650,42 @@
         <v>10</v>
       </c>
       <c r="J11">
-        <f t="shared" si="0"/>
-        <v>0.43499999999999961</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.1717249999999999</v>
       </c>
       <c r="K11">
-        <f t="shared" si="1"/>
-        <v>0.32222222222222197</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.86794444444444485</v>
       </c>
       <c r="M11" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="N11">
-        <f t="shared" si="2"/>
-        <v>0.43499999999999961</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.1717249999999999</v>
       </c>
       <c r="O11">
-        <f t="shared" si="3"/>
-        <v>0.32222222222222197</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.86794444444444485</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
         <f>Tracker!A12</f>
-        <v>Company 7</v>
+        <v>Company 11</v>
       </c>
       <c r="B12" t="str">
         <f>Tracker!B12</f>
-        <v>Title 7</v>
+        <v>Title 11</v>
       </c>
       <c r="C12" t="str">
         <f>Tracker!F12</f>
         <v>Rejected</v>
       </c>
       <c r="D12">
-        <f>(Tracker!G12+Tracker!H12)/2</f>
-        <v>100</v>
+        <f ca="1">(Tracker!G12+Tracker!H12)/2</f>
+        <v>109.5</v>
       </c>
       <c r="E12" s="34">
         <f>IF(OR(Tracker!F12="denied",Tracker!F12="on hold",Tracker!F12="No Response",Tracker!F12="pending"), 0.2, IF(Tracker!F12="interviewing", 0.4, IF(Tracker!F12="rejected", 0.3, IF(Tracker!F12="offer", 1, 0))))</f>
@@ -8800,42 +11707,42 @@
         <v>10</v>
       </c>
       <c r="J12">
-        <f t="shared" si="0"/>
-        <v>0.43499999999999961</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.73282500000000006</v>
       </c>
       <c r="K12">
-        <f t="shared" si="1"/>
-        <v>1.4833333333333329</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.8142500000000004</v>
       </c>
       <c r="M12" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="N12">
-        <f t="shared" si="2"/>
-        <v>0.43499999999999961</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.73282500000000006</v>
       </c>
       <c r="O12">
-        <f t="shared" si="3"/>
-        <v>1.4833333333333329</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.8142500000000004</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <f>Tracker!A13</f>
-        <v>Company 8</v>
+        <v>Company 12</v>
       </c>
       <c r="B13" t="str">
         <f>Tracker!B13</f>
-        <v>Title 8</v>
+        <v>Title 12</v>
       </c>
       <c r="C13" t="str">
         <f>Tracker!F13</f>
         <v>On Hold</v>
       </c>
       <c r="D13">
-        <f>(Tracker!G13+Tracker!H13)/2</f>
-        <v>100</v>
+        <f ca="1">(Tracker!G13+Tracker!H13)/2</f>
+        <v>103</v>
       </c>
       <c r="E13" s="34">
         <f>IF(OR(Tracker!F13="denied",Tracker!F13="on hold",Tracker!F13="No Response",Tracker!F13="pending"), 0.2, IF(Tracker!F13="interviewing", 0.4, IF(Tracker!F13="rejected", 0.3, IF(Tracker!F13="offer", 1, 0))))</f>
@@ -8857,42 +11764,42 @@
         <v>10</v>
       </c>
       <c r="J13">
-        <f t="shared" si="0"/>
-        <v>0.43499999999999961</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5290499999999998</v>
       </c>
       <c r="K13">
-        <f t="shared" si="1"/>
-        <v>8.9999999999999858E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.15270000000000028</v>
       </c>
       <c r="M13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="N13">
-        <f t="shared" si="2"/>
-        <v>0.43499999999999961</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.5290499999999998</v>
       </c>
       <c r="O13">
-        <f t="shared" si="3"/>
-        <v>8.9999999999999858E-2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.15270000000000028</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
         <f>Tracker!A14</f>
-        <v>Company 9</v>
+        <v>Company 13</v>
       </c>
       <c r="B14" t="str">
         <f>Tracker!B14</f>
-        <v>Title 9</v>
+        <v>Title 13</v>
       </c>
       <c r="C14" t="str">
         <f>Tracker!F14</f>
         <v>Interviewing</v>
       </c>
       <c r="D14">
-        <f>(Tracker!G14+Tracker!H14)/2</f>
-        <v>100</v>
+        <f ca="1">(Tracker!G14+Tracker!H14)/2</f>
+        <v>104</v>
       </c>
       <c r="E14" s="34">
         <f>IF(OR(Tracker!F14="denied",Tracker!F14="on hold",Tracker!F14="No Response",Tracker!F14="pending"), 0.2, IF(Tracker!F14="interviewing", 0.4, IF(Tracker!F14="rejected", 0.3, IF(Tracker!F14="offer", 1, 0))))</f>
@@ -8914,42 +11821,42 @@
         <v>10</v>
       </c>
       <c r="J14">
-        <f t="shared" si="0"/>
-        <v>-0.13500000000000023</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-3.2400000000000428E-2</v>
       </c>
       <c r="K14">
-        <f t="shared" si="1"/>
-        <v>1.4199999999999995</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.5568000000000004</v>
       </c>
       <c r="M14" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="N14">
-        <f t="shared" si="2"/>
-        <v>-0.13500000000000023</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-3.2400000000000428E-2</v>
       </c>
       <c r="O14">
-        <f t="shared" si="3"/>
-        <v>1.4199999999999995</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.5568000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
         <f>Tracker!A15</f>
-        <v>Company 10</v>
+        <v>Company 14</v>
       </c>
       <c r="B15" t="str">
         <f>Tracker!B15</f>
-        <v>Title 10</v>
+        <v>Title 14</v>
       </c>
       <c r="C15" t="str">
         <f>Tracker!F15</f>
         <v>Offer</v>
       </c>
       <c r="D15">
-        <f>(Tracker!G15+Tracker!H15)/2</f>
-        <v>100</v>
+        <f ca="1">(Tracker!G15+Tracker!H15)/2</f>
+        <v>113.5</v>
       </c>
       <c r="E15" s="34">
         <f>IF(OR(Tracker!F15="denied",Tracker!F15="on hold",Tracker!F15="No Response",Tracker!F15="pending"), 0.2, IF(Tracker!F15="interviewing", 0.4, IF(Tracker!F15="rejected", 0.3, IF(Tracker!F15="offer", 1, 0))))</f>
@@ -8971,24 +11878,3159 @@
         <v>10</v>
       </c>
       <c r="J15">
-        <f t="shared" si="0"/>
-        <v>-0.13500000000000023</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.21127499999999966</v>
       </c>
       <c r="K15">
-        <f t="shared" si="1"/>
-        <v>6.5500000000000007</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7.70425</v>
       </c>
       <c r="M15" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="N15">
-        <f t="shared" si="2"/>
-        <v>-0.13500000000000023</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.21127499999999966</v>
       </c>
       <c r="O15">
-        <f t="shared" si="3"/>
-        <v>6.5500000000000007</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>7.70425</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" t="str">
+        <f>Tracker!A16</f>
+        <v>Company 15</v>
+      </c>
+      <c r="B16" t="str">
+        <f>Tracker!B16</f>
+        <v>Title 15</v>
+      </c>
+      <c r="C16" t="str">
+        <f>Tracker!F16</f>
+        <v>Pending</v>
+      </c>
+      <c r="D16">
+        <f ca="1">(Tracker!G16+Tracker!H16)/2</f>
+        <v>110.5</v>
+      </c>
+      <c r="E16" s="34">
+        <f>IF(OR(Tracker!F16="denied",Tracker!F16="on hold",Tracker!F16="No Response",Tracker!F16="pending"), 0.2, IF(Tracker!F16="interviewing", 0.4, IF(Tracker!F16="rejected", 0.3, IF(Tracker!F16="offer", 1, 0))))</f>
+        <v>0.2</v>
+      </c>
+      <c r="F16" s="35">
+        <f>IF(OR(Tracker!I16="linkedin", Tracker!I16="Indeed", Tracker!I16="linkedin dm"), 0.9, IF(Tracker!I16="Company Site", 1.1, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="G16" s="35">
+        <f>IF(OR(Tracker!D16="analyst", Tracker!D16="project manager", Tracker!D16="consultant"), 1.1, IF(Tracker!D16="Product Manager", 0.9, 1))</f>
+        <v>0.9</v>
+      </c>
+      <c r="H16" s="34">
+        <v>1.95</v>
+      </c>
+      <c r="I16" s="35">
+        <f>10-(0.5*Tracker!J16)</f>
+        <v>10</v>
+      </c>
+      <c r="J16">
+        <f t="shared" ref="J16:J70" ca="1" si="5">IF(D16=0,0,((0.3*D16*G16*H16)/10)-2.7)</f>
+        <v>3.1178249999999998</v>
+      </c>
+      <c r="K16">
+        <f t="shared" ref="K16:K70" ca="1" si="6">IF(D16=0, 0,((D16*E16*G16*H16)/(F16*I16)-2))</f>
+        <v>1.8785499999999997</v>
+      </c>
+      <c r="M16" t="e">
+        <f t="shared" ref="M16:M70" ca="1" si="7">IF(J16=0, 0, NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N16">
+        <f t="shared" ref="N16:N70" ca="1" si="8">IF(J16=0, NA(), J16)</f>
+        <v>3.1178249999999998</v>
+      </c>
+      <c r="O16">
+        <f t="shared" ref="O16:O70" ca="1" si="9">IF(K16=0, NA(), K16)</f>
+        <v>1.8785499999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A17" t="str">
+        <f>Tracker!A17</f>
+        <v>Company 16</v>
+      </c>
+      <c r="B17" t="str">
+        <f>Tracker!B17</f>
+        <v>Title 16</v>
+      </c>
+      <c r="C17" t="str">
+        <f>Tracker!F17</f>
+        <v>Pending</v>
+      </c>
+      <c r="D17">
+        <f ca="1">(Tracker!G17+Tracker!H17)/2</f>
+        <v>94</v>
+      </c>
+      <c r="E17" s="34">
+        <f>IF(OR(Tracker!F17="denied",Tracker!F17="on hold",Tracker!F17="No Response",Tracker!F17="pending"), 0.2, IF(Tracker!F17="interviewing", 0.4, IF(Tracker!F17="rejected", 0.3, IF(Tracker!F17="offer", 1, 0))))</f>
+        <v>0.2</v>
+      </c>
+      <c r="F17" s="35">
+        <f>IF(OR(Tracker!I17="linkedin", Tracker!I17="Indeed", Tracker!I17="linkedin dm"), 0.9, IF(Tracker!I17="Company Site", 1.1, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="G17" s="35">
+        <f>IF(OR(Tracker!D17="analyst", Tracker!D17="project manager", Tracker!D17="consultant"), 1.1, IF(Tracker!D17="Product Manager", 0.9, 1))</f>
+        <v>0.9</v>
+      </c>
+      <c r="H17" s="34">
+        <v>2.95</v>
+      </c>
+      <c r="I17" s="35">
+        <f>10-(0.5*Tracker!J17)</f>
+        <v>10</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ca="1" si="5"/>
+        <v>4.7870999999999997</v>
+      </c>
+      <c r="K17">
+        <f t="shared" ca="1" si="6"/>
+        <v>2.9914000000000005</v>
+      </c>
+      <c r="M17" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N17">
+        <f t="shared" ca="1" si="8"/>
+        <v>4.7870999999999997</v>
+      </c>
+      <c r="O17">
+        <f t="shared" ca="1" si="9"/>
+        <v>2.9914000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A18" t="str">
+        <f>Tracker!A18</f>
+        <v>Company 17</v>
+      </c>
+      <c r="B18" t="str">
+        <f>Tracker!B18</f>
+        <v>Title 17</v>
+      </c>
+      <c r="C18" t="str">
+        <f>Tracker!F18</f>
+        <v>Offer</v>
+      </c>
+      <c r="D18">
+        <f ca="1">(Tracker!G18+Tracker!H18)/2</f>
+        <v>92</v>
+      </c>
+      <c r="E18" s="34">
+        <f>IF(OR(Tracker!F18="denied",Tracker!F18="on hold",Tracker!F18="No Response",Tracker!F18="pending"), 0.2, IF(Tracker!F18="interviewing", 0.4, IF(Tracker!F18="rejected", 0.3, IF(Tracker!F18="offer", 1, 0))))</f>
+        <v>1</v>
+      </c>
+      <c r="F18" s="35">
+        <f>IF(OR(Tracker!I18="linkedin", Tracker!I18="Indeed", Tracker!I18="linkedin dm"), 0.9, IF(Tracker!I18="Company Site", 1.1, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="G18" s="35">
+        <f>IF(OR(Tracker!D18="analyst", Tracker!D18="project manager", Tracker!D18="consultant"), 1.1, IF(Tracker!D18="Product Manager", 0.9, 1))</f>
+        <v>0.9</v>
+      </c>
+      <c r="H18" s="34">
+        <v>3.95</v>
+      </c>
+      <c r="I18" s="35">
+        <f>10-(0.5*Tracker!J18)</f>
+        <v>10</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ca="1" si="5"/>
+        <v>7.1118000000000015</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ca="1" si="6"/>
+        <v>30.706000000000003</v>
+      </c>
+      <c r="M18" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N18">
+        <f t="shared" ca="1" si="8"/>
+        <v>7.1118000000000015</v>
+      </c>
+      <c r="O18">
+        <f t="shared" ca="1" si="9"/>
+        <v>30.706000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A19" t="str">
+        <f>Tracker!A19</f>
+        <v>Company 18</v>
+      </c>
+      <c r="B19" t="str">
+        <f>Tracker!B19</f>
+        <v>Title 18</v>
+      </c>
+      <c r="C19" t="str">
+        <f>Tracker!F19</f>
+        <v>No Response</v>
+      </c>
+      <c r="D19">
+        <f ca="1">(Tracker!G19+Tracker!H19)/2</f>
+        <v>117.5</v>
+      </c>
+      <c r="E19" s="34">
+        <f>IF(OR(Tracker!F19="denied",Tracker!F19="on hold",Tracker!F19="No Response",Tracker!F19="pending"), 0.2, IF(Tracker!F19="interviewing", 0.4, IF(Tracker!F19="rejected", 0.3, IF(Tracker!F19="offer", 1, 0))))</f>
+        <v>0.2</v>
+      </c>
+      <c r="F19" s="35">
+        <f>IF(OR(Tracker!I19="linkedin", Tracker!I19="Indeed", Tracker!I19="linkedin dm"), 0.9, IF(Tracker!I19="Company Site", 1.1, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="G19" s="35">
+        <f>IF(OR(Tracker!D19="analyst", Tracker!D19="project manager", Tracker!D19="consultant"), 1.1, IF(Tracker!D19="Product Manager", 0.9, 1))</f>
+        <v>0.9</v>
+      </c>
+      <c r="H19" s="34">
+        <v>4.95</v>
+      </c>
+      <c r="I19" s="35">
+        <f>10-(0.5*Tracker!J19)</f>
+        <v>9</v>
+      </c>
+      <c r="J19">
+        <f t="shared" ca="1" si="5"/>
+        <v>13.003875000000001</v>
+      </c>
+      <c r="K19">
+        <f t="shared" ca="1" si="6"/>
+        <v>9.6325000000000003</v>
+      </c>
+      <c r="M19" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N19">
+        <f t="shared" ca="1" si="8"/>
+        <v>13.003875000000001</v>
+      </c>
+      <c r="O19">
+        <f t="shared" ca="1" si="9"/>
+        <v>9.6325000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A20" t="str">
+        <f>Tracker!A20</f>
+        <v>Company 19</v>
+      </c>
+      <c r="B20" t="str">
+        <f>Tracker!B20</f>
+        <v>Title 19</v>
+      </c>
+      <c r="C20" t="str">
+        <f>Tracker!F20</f>
+        <v>Pending</v>
+      </c>
+      <c r="D20">
+        <f ca="1">(Tracker!G20+Tracker!H20)/2</f>
+        <v>85.5</v>
+      </c>
+      <c r="E20" s="34">
+        <f>IF(OR(Tracker!F20="denied",Tracker!F20="on hold",Tracker!F20="No Response",Tracker!F20="pending"), 0.2, IF(Tracker!F20="interviewing", 0.4, IF(Tracker!F20="rejected", 0.3, IF(Tracker!F20="offer", 1, 0))))</f>
+        <v>0.2</v>
+      </c>
+      <c r="F20" s="35">
+        <f>IF(OR(Tracker!I20="linkedin", Tracker!I20="Indeed", Tracker!I20="linkedin dm"), 0.9, IF(Tracker!I20="Company Site", 1.1, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="G20" s="35">
+        <f>IF(OR(Tracker!D20="analyst", Tracker!D20="project manager", Tracker!D20="consultant"), 1.1, IF(Tracker!D20="Product Manager", 0.9, 1))</f>
+        <v>0.9</v>
+      </c>
+      <c r="H20" s="34">
+        <v>5.95</v>
+      </c>
+      <c r="I20" s="35">
+        <f>10-(0.5*Tracker!J20)</f>
+        <v>10</v>
+      </c>
+      <c r="J20">
+        <f t="shared" ca="1" si="5"/>
+        <v>11.035575000000001</v>
+      </c>
+      <c r="K20">
+        <f t="shared" ca="1" si="6"/>
+        <v>7.1570500000000017</v>
+      </c>
+      <c r="M20" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N20">
+        <f t="shared" ca="1" si="8"/>
+        <v>11.035575000000001</v>
+      </c>
+      <c r="O20">
+        <f t="shared" ca="1" si="9"/>
+        <v>7.1570500000000017</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A21" t="str">
+        <f>Tracker!A21</f>
+        <v>Company 20</v>
+      </c>
+      <c r="B21" t="str">
+        <f>Tracker!B21</f>
+        <v>Title 20</v>
+      </c>
+      <c r="C21" t="str">
+        <f>Tracker!F21</f>
+        <v>Offer</v>
+      </c>
+      <c r="D21">
+        <f ca="1">(Tracker!G21+Tracker!H21)/2</f>
+        <v>117.5</v>
+      </c>
+      <c r="E21" s="34">
+        <f>IF(OR(Tracker!F21="denied",Tracker!F21="on hold",Tracker!F21="No Response",Tracker!F21="pending"), 0.2, IF(Tracker!F21="interviewing", 0.4, IF(Tracker!F21="rejected", 0.3, IF(Tracker!F21="offer", 1, 0))))</f>
+        <v>1</v>
+      </c>
+      <c r="F21" s="35">
+        <f>IF(OR(Tracker!I21="linkedin", Tracker!I21="Indeed", Tracker!I21="linkedin dm"), 0.9, IF(Tracker!I21="Company Site", 1.1, 1))</f>
+        <v>0.9</v>
+      </c>
+      <c r="G21" s="35">
+        <f>IF(OR(Tracker!D21="analyst", Tracker!D21="project manager", Tracker!D21="consultant"), 1.1, IF(Tracker!D21="Product Manager", 0.9, 1))</f>
+        <v>0.9</v>
+      </c>
+      <c r="H21" s="34">
+        <v>6.95</v>
+      </c>
+      <c r="I21" s="35">
+        <f>10-(0.5*Tracker!J21)</f>
+        <v>10</v>
+      </c>
+      <c r="J21">
+        <f t="shared" ca="1" si="5"/>
+        <v>19.348875000000003</v>
+      </c>
+      <c r="K21">
+        <f t="shared" ca="1" si="6"/>
+        <v>79.662499999999994</v>
+      </c>
+      <c r="M21" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N21">
+        <f t="shared" ca="1" si="8"/>
+        <v>19.348875000000003</v>
+      </c>
+      <c r="O21">
+        <f t="shared" ca="1" si="9"/>
+        <v>79.662499999999994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A22" t="str">
+        <f>Tracker!A22</f>
+        <v>Company 21</v>
+      </c>
+      <c r="B22" t="str">
+        <f>Tracker!B22</f>
+        <v>Title 21</v>
+      </c>
+      <c r="C22" t="str">
+        <f>Tracker!F22</f>
+        <v>Pending</v>
+      </c>
+      <c r="D22">
+        <f ca="1">(Tracker!G22+Tracker!H22)/2</f>
+        <v>118</v>
+      </c>
+      <c r="E22" s="34">
+        <f>IF(OR(Tracker!F22="denied",Tracker!F22="on hold",Tracker!F22="No Response",Tracker!F22="pending"), 0.2, IF(Tracker!F22="interviewing", 0.4, IF(Tracker!F22="rejected", 0.3, IF(Tracker!F22="offer", 1, 0))))</f>
+        <v>0.2</v>
+      </c>
+      <c r="F22" s="35">
+        <f>IF(OR(Tracker!I22="linkedin", Tracker!I22="Indeed", Tracker!I22="linkedin dm"), 0.9, IF(Tracker!I22="Company Site", 1.1, 1))</f>
+        <v>0.9</v>
+      </c>
+      <c r="G22" s="35">
+        <f>IF(OR(Tracker!D22="analyst", Tracker!D22="project manager", Tracker!D22="consultant"), 1.1, IF(Tracker!D22="Product Manager", 0.9, 1))</f>
+        <v>0.9</v>
+      </c>
+      <c r="H22" s="34">
+        <v>7.95</v>
+      </c>
+      <c r="I22" s="35">
+        <f>10-(0.5*Tracker!J22)</f>
+        <v>10</v>
+      </c>
+      <c r="J22">
+        <f t="shared" ca="1" si="5"/>
+        <v>22.628700000000002</v>
+      </c>
+      <c r="K22">
+        <f t="shared" ca="1" si="6"/>
+        <v>16.762000000000004</v>
+      </c>
+      <c r="M22" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N22">
+        <f t="shared" ca="1" si="8"/>
+        <v>22.628700000000002</v>
+      </c>
+      <c r="O22">
+        <f t="shared" ca="1" si="9"/>
+        <v>16.762000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A23" t="str">
+        <f>Tracker!A23</f>
+        <v>Company 22</v>
+      </c>
+      <c r="B23" t="str">
+        <f>Tracker!B23</f>
+        <v>Title 22</v>
+      </c>
+      <c r="C23" t="str">
+        <f>Tracker!F23</f>
+        <v>Interviewing</v>
+      </c>
+      <c r="D23">
+        <f ca="1">(Tracker!G23+Tracker!H23)/2</f>
+        <v>107.5</v>
+      </c>
+      <c r="E23" s="34">
+        <f>IF(OR(Tracker!F23="denied",Tracker!F23="on hold",Tracker!F23="No Response",Tracker!F23="pending"), 0.2, IF(Tracker!F23="interviewing", 0.4, IF(Tracker!F23="rejected", 0.3, IF(Tracker!F23="offer", 1, 0))))</f>
+        <v>0.4</v>
+      </c>
+      <c r="F23" s="35">
+        <f>IF(OR(Tracker!I23="linkedin", Tracker!I23="Indeed", Tracker!I23="linkedin dm"), 0.9, IF(Tracker!I23="Company Site", 1.1, 1))</f>
+        <v>0.9</v>
+      </c>
+      <c r="G23" s="35">
+        <f>IF(OR(Tracker!D23="analyst", Tracker!D23="project manager", Tracker!D23="consultant"), 1.1, IF(Tracker!D23="Product Manager", 0.9, 1))</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H23" s="34">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="I23" s="35">
+        <f>10-(0.5*Tracker!J23)</f>
+        <v>9.5</v>
+      </c>
+      <c r="J23">
+        <f t="shared" ca="1" si="5"/>
+        <v>29.050124999999998</v>
+      </c>
+      <c r="K23">
+        <f t="shared" ca="1" si="6"/>
+        <v>47.512865497076014</v>
+      </c>
+      <c r="M23" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N23">
+        <f t="shared" ca="1" si="8"/>
+        <v>29.050124999999998</v>
+      </c>
+      <c r="O23">
+        <f t="shared" ca="1" si="9"/>
+        <v>47.512865497076014</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A24" t="str">
+        <f>Tracker!A24</f>
+        <v>Company 23</v>
+      </c>
+      <c r="B24" t="str">
+        <f>Tracker!B24</f>
+        <v>Title 23</v>
+      </c>
+      <c r="C24" t="str">
+        <f>Tracker!F24</f>
+        <v>Denied</v>
+      </c>
+      <c r="D24">
+        <f ca="1">(Tracker!G24+Tracker!H24)/2</f>
+        <v>82</v>
+      </c>
+      <c r="E24" s="34">
+        <f>IF(OR(Tracker!F24="denied",Tracker!F24="on hold",Tracker!F24="No Response",Tracker!F24="pending"), 0.2, IF(Tracker!F24="interviewing", 0.4, IF(Tracker!F24="rejected", 0.3, IF(Tracker!F24="offer", 1, 0))))</f>
+        <v>0.2</v>
+      </c>
+      <c r="F24" s="35">
+        <f>IF(OR(Tracker!I24="linkedin", Tracker!I24="Indeed", Tracker!I24="linkedin dm"), 0.9, IF(Tracker!I24="Company Site", 1.1, 1))</f>
+        <v>0.9</v>
+      </c>
+      <c r="G24" s="35">
+        <f>IF(OR(Tracker!D24="analyst", Tracker!D24="project manager", Tracker!D24="consultant"), 1.1, IF(Tracker!D24="Product Manager", 0.9, 1))</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H24" s="34">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="I24" s="35">
+        <f>10-(0.5*Tracker!J24)</f>
+        <v>10</v>
+      </c>
+      <c r="J24">
+        <f t="shared" ca="1" si="5"/>
+        <v>24.224699999999995</v>
+      </c>
+      <c r="K24">
+        <f t="shared" ca="1" si="6"/>
+        <v>17.944222222222223</v>
+      </c>
+      <c r="M24" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N24">
+        <f t="shared" ca="1" si="8"/>
+        <v>24.224699999999995</v>
+      </c>
+      <c r="O24">
+        <f t="shared" ca="1" si="9"/>
+        <v>17.944222222222223</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A25" t="str">
+        <f>Tracker!A25</f>
+        <v>Company 24</v>
+      </c>
+      <c r="B25" t="str">
+        <f>Tracker!B25</f>
+        <v>Title 24</v>
+      </c>
+      <c r="C25" t="str">
+        <f>Tracker!F25</f>
+        <v>Denied</v>
+      </c>
+      <c r="D25">
+        <f ca="1">(Tracker!G25+Tracker!H25)/2</f>
+        <v>99</v>
+      </c>
+      <c r="E25" s="34">
+        <f>IF(OR(Tracker!F25="denied",Tracker!F25="on hold",Tracker!F25="No Response",Tracker!F25="pending"), 0.2, IF(Tracker!F25="interviewing", 0.4, IF(Tracker!F25="rejected", 0.3, IF(Tracker!F25="offer", 1, 0))))</f>
+        <v>0.2</v>
+      </c>
+      <c r="F25" s="35">
+        <f>IF(OR(Tracker!I25="linkedin", Tracker!I25="Indeed", Tracker!I25="linkedin dm"), 0.9, IF(Tracker!I25="Company Site", 1.1, 1))</f>
+        <v>0.9</v>
+      </c>
+      <c r="G25" s="35">
+        <f>IF(OR(Tracker!D25="analyst", Tracker!D25="project manager", Tracker!D25="consultant"), 1.1, IF(Tracker!D25="Product Manager", 0.9, 1))</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H25" s="34">
+        <v>10.95</v>
+      </c>
+      <c r="I25" s="35">
+        <f>10-(0.5*Tracker!J25)</f>
+        <v>10</v>
+      </c>
+      <c r="J25">
+        <f t="shared" ca="1" si="5"/>
+        <v>33.073649999999994</v>
+      </c>
+      <c r="K25">
+        <f t="shared" ca="1" si="6"/>
+        <v>24.498999999999999</v>
+      </c>
+      <c r="M25" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N25">
+        <f t="shared" ca="1" si="8"/>
+        <v>33.073649999999994</v>
+      </c>
+      <c r="O25">
+        <f t="shared" ca="1" si="9"/>
+        <v>24.498999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A26" t="str">
+        <f>Tracker!A26</f>
+        <v>Company 25</v>
+      </c>
+      <c r="B26" t="str">
+        <f>Tracker!B26</f>
+        <v>Title 25</v>
+      </c>
+      <c r="C26" t="str">
+        <f>Tracker!F26</f>
+        <v>Denied</v>
+      </c>
+      <c r="D26">
+        <f ca="1">(Tracker!G26+Tracker!H26)/2</f>
+        <v>109</v>
+      </c>
+      <c r="E26" s="34">
+        <f>IF(OR(Tracker!F26="denied",Tracker!F26="on hold",Tracker!F26="No Response",Tracker!F26="pending"), 0.2, IF(Tracker!F26="interviewing", 0.4, IF(Tracker!F26="rejected", 0.3, IF(Tracker!F26="offer", 1, 0))))</f>
+        <v>0.2</v>
+      </c>
+      <c r="F26" s="35">
+        <f>IF(OR(Tracker!I26="linkedin", Tracker!I26="Indeed", Tracker!I26="linkedin dm"), 0.9, IF(Tracker!I26="Company Site", 1.1, 1))</f>
+        <v>0.9</v>
+      </c>
+      <c r="G26" s="35">
+        <f>IF(OR(Tracker!D26="analyst", Tracker!D26="project manager", Tracker!D26="consultant"), 1.1, IF(Tracker!D26="Product Manager", 0.9, 1))</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H26" s="34">
+        <v>11.95</v>
+      </c>
+      <c r="I26" s="35">
+        <f>10-(0.5*Tracker!J26)</f>
+        <v>10</v>
+      </c>
+      <c r="J26">
+        <f t="shared" ca="1" si="5"/>
+        <v>40.28414999999999</v>
+      </c>
+      <c r="K26">
+        <f t="shared" ca="1" si="6"/>
+        <v>29.840111111111113</v>
+      </c>
+      <c r="M26" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N26">
+        <f t="shared" ca="1" si="8"/>
+        <v>40.28414999999999</v>
+      </c>
+      <c r="O26">
+        <f t="shared" ca="1" si="9"/>
+        <v>29.840111111111113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A27" t="str">
+        <f>Tracker!A27</f>
+        <v>Company 26</v>
+      </c>
+      <c r="B27" t="str">
+        <f>Tracker!B27</f>
+        <v>Title 26</v>
+      </c>
+      <c r="C27" t="str">
+        <f>Tracker!F27</f>
+        <v>Pending</v>
+      </c>
+      <c r="D27">
+        <f ca="1">(Tracker!G27+Tracker!H27)/2</f>
+        <v>118</v>
+      </c>
+      <c r="E27" s="34">
+        <f>IF(OR(Tracker!F27="denied",Tracker!F27="on hold",Tracker!F27="No Response",Tracker!F27="pending"), 0.2, IF(Tracker!F27="interviewing", 0.4, IF(Tracker!F27="rejected", 0.3, IF(Tracker!F27="offer", 1, 0))))</f>
+        <v>0.2</v>
+      </c>
+      <c r="F27" s="35">
+        <f>IF(OR(Tracker!I27="linkedin", Tracker!I27="Indeed", Tracker!I27="linkedin dm"), 0.9, IF(Tracker!I27="Company Site", 1.1, 1))</f>
+        <v>0.9</v>
+      </c>
+      <c r="G27" s="35">
+        <f>IF(OR(Tracker!D27="analyst", Tracker!D27="project manager", Tracker!D27="consultant"), 1.1, IF(Tracker!D27="Product Manager", 0.9, 1))</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H27" s="34">
+        <v>12.95</v>
+      </c>
+      <c r="I27" s="35">
+        <f>10-(0.5*Tracker!J27)</f>
+        <v>10</v>
+      </c>
+      <c r="J27">
+        <f t="shared" ca="1" si="5"/>
+        <v>47.7273</v>
+      </c>
+      <c r="K27">
+        <f t="shared" ca="1" si="6"/>
+        <v>35.353555555555559</v>
+      </c>
+      <c r="M27" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N27">
+        <f t="shared" ca="1" si="8"/>
+        <v>47.7273</v>
+      </c>
+      <c r="O27">
+        <f t="shared" ca="1" si="9"/>
+        <v>35.353555555555559</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A28" t="str">
+        <f>Tracker!A28</f>
+        <v>Company 27</v>
+      </c>
+      <c r="B28" t="str">
+        <f>Tracker!B28</f>
+        <v>Title 27</v>
+      </c>
+      <c r="C28" t="str">
+        <f>Tracker!F28</f>
+        <v>Pending</v>
+      </c>
+      <c r="D28">
+        <f ca="1">(Tracker!G28+Tracker!H28)/2</f>
+        <v>99.5</v>
+      </c>
+      <c r="E28" s="34">
+        <f>IF(OR(Tracker!F28="denied",Tracker!F28="on hold",Tracker!F28="No Response",Tracker!F28="pending"), 0.2, IF(Tracker!F28="interviewing", 0.4, IF(Tracker!F28="rejected", 0.3, IF(Tracker!F28="offer", 1, 0))))</f>
+        <v>0.2</v>
+      </c>
+      <c r="F28" s="35">
+        <f>IF(OR(Tracker!I28="linkedin", Tracker!I28="Indeed", Tracker!I28="linkedin dm"), 0.9, IF(Tracker!I28="Company Site", 1.1, 1))</f>
+        <v>0.9</v>
+      </c>
+      <c r="G28" s="35">
+        <f>IF(OR(Tracker!D28="analyst", Tracker!D28="project manager", Tracker!D28="consultant"), 1.1, IF(Tracker!D28="Product Manager", 0.9, 1))</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H28" s="34">
+        <v>13.95</v>
+      </c>
+      <c r="I28" s="35">
+        <f>10-(0.5*Tracker!J28)</f>
+        <v>10</v>
+      </c>
+      <c r="J28">
+        <f t="shared" ca="1" si="5"/>
+        <v>43.104824999999998</v>
+      </c>
+      <c r="K28">
+        <f t="shared" ca="1" si="6"/>
+        <v>31.929500000000004</v>
+      </c>
+      <c r="M28" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N28">
+        <f t="shared" ca="1" si="8"/>
+        <v>43.104824999999998</v>
+      </c>
+      <c r="O28">
+        <f t="shared" ca="1" si="9"/>
+        <v>31.929500000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A29" t="str">
+        <f>Tracker!A29</f>
+        <v>Company 28</v>
+      </c>
+      <c r="B29" t="str">
+        <f>Tracker!B29</f>
+        <v>Title 28</v>
+      </c>
+      <c r="C29" t="str">
+        <f>Tracker!F29</f>
+        <v>Interviewing</v>
+      </c>
+      <c r="D29">
+        <f ca="1">(Tracker!G29+Tracker!H29)/2</f>
+        <v>118</v>
+      </c>
+      <c r="E29" s="34">
+        <f>IF(OR(Tracker!F29="denied",Tracker!F29="on hold",Tracker!F29="No Response",Tracker!F29="pending"), 0.2, IF(Tracker!F29="interviewing", 0.4, IF(Tracker!F29="rejected", 0.3, IF(Tracker!F29="offer", 1, 0))))</f>
+        <v>0.4</v>
+      </c>
+      <c r="F29" s="35">
+        <f>IF(OR(Tracker!I29="linkedin", Tracker!I29="Indeed", Tracker!I29="linkedin dm"), 0.9, IF(Tracker!I29="Company Site", 1.1, 1))</f>
+        <v>0.9</v>
+      </c>
+      <c r="G29" s="35">
+        <f>IF(OR(Tracker!D29="analyst", Tracker!D29="project manager", Tracker!D29="consultant"), 1.1, IF(Tracker!D29="Product Manager", 0.9, 1))</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H29" s="34">
+        <v>14.95</v>
+      </c>
+      <c r="I29" s="35">
+        <f>10-(0.5*Tracker!J29)</f>
+        <v>10</v>
+      </c>
+      <c r="J29">
+        <f t="shared" ca="1" si="5"/>
+        <v>55.515299999999996</v>
+      </c>
+      <c r="K29">
+        <f t="shared" ca="1" si="6"/>
+        <v>84.244888888888894</v>
+      </c>
+      <c r="M29" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N29">
+        <f t="shared" ca="1" si="8"/>
+        <v>55.515299999999996</v>
+      </c>
+      <c r="O29">
+        <f t="shared" ca="1" si="9"/>
+        <v>84.244888888888894</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A30" t="str">
+        <f>Tracker!A30</f>
+        <v>Company 29</v>
+      </c>
+      <c r="B30" t="str">
+        <f>Tracker!B30</f>
+        <v>Title 29</v>
+      </c>
+      <c r="C30" t="str">
+        <f>Tracker!F30</f>
+        <v>Interviewing</v>
+      </c>
+      <c r="D30">
+        <f ca="1">(Tracker!G30+Tracker!H30)/2</f>
+        <v>85.5</v>
+      </c>
+      <c r="E30" s="34">
+        <f>IF(OR(Tracker!F30="denied",Tracker!F30="on hold",Tracker!F30="No Response",Tracker!F30="pending"), 0.2, IF(Tracker!F30="interviewing", 0.4, IF(Tracker!F30="rejected", 0.3, IF(Tracker!F30="offer", 1, 0))))</f>
+        <v>0.4</v>
+      </c>
+      <c r="F30" s="35">
+        <f>IF(OR(Tracker!I30="linkedin", Tracker!I30="Indeed", Tracker!I30="linkedin dm"), 0.9, IF(Tracker!I30="Company Site", 1.1, 1))</f>
+        <v>0.9</v>
+      </c>
+      <c r="G30" s="35">
+        <f>IF(OR(Tracker!D30="analyst", Tracker!D30="project manager", Tracker!D30="consultant"), 1.1, IF(Tracker!D30="Product Manager", 0.9, 1))</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H30" s="34">
+        <v>15.95</v>
+      </c>
+      <c r="I30" s="35">
+        <f>10-(0.5*Tracker!J30)</f>
+        <v>10</v>
+      </c>
+      <c r="J30">
+        <f t="shared" ca="1" si="5"/>
+        <v>42.302924999999995</v>
+      </c>
+      <c r="K30">
+        <f t="shared" ca="1" si="6"/>
+        <v>64.671000000000006</v>
+      </c>
+      <c r="M30" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N30">
+        <f t="shared" ca="1" si="8"/>
+        <v>42.302924999999995</v>
+      </c>
+      <c r="O30">
+        <f t="shared" ca="1" si="9"/>
+        <v>64.671000000000006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A31" t="str">
+        <f>Tracker!A31</f>
+        <v>Company 30</v>
+      </c>
+      <c r="B31" t="str">
+        <f>Tracker!B31</f>
+        <v>Title 30</v>
+      </c>
+      <c r="C31" t="str">
+        <f>Tracker!F31</f>
+        <v>Interviewing</v>
+      </c>
+      <c r="D31">
+        <f ca="1">(Tracker!G31+Tracker!H31)/2</f>
+        <v>87</v>
+      </c>
+      <c r="E31" s="34">
+        <f>IF(OR(Tracker!F31="denied",Tracker!F31="on hold",Tracker!F31="No Response",Tracker!F31="pending"), 0.2, IF(Tracker!F31="interviewing", 0.4, IF(Tracker!F31="rejected", 0.3, IF(Tracker!F31="offer", 1, 0))))</f>
+        <v>0.4</v>
+      </c>
+      <c r="F31" s="35">
+        <f>IF(OR(Tracker!I31="linkedin", Tracker!I31="Indeed", Tracker!I31="linkedin dm"), 0.9, IF(Tracker!I31="Company Site", 1.1, 1))</f>
+        <v>0.9</v>
+      </c>
+      <c r="G31" s="35">
+        <f>IF(OR(Tracker!D31="analyst", Tracker!D31="project manager", Tracker!D31="consultant"), 1.1, IF(Tracker!D31="Product Manager", 0.9, 1))</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H31" s="34">
+        <v>16.95</v>
+      </c>
+      <c r="I31" s="35">
+        <f>10-(0.5*Tracker!J31)</f>
+        <v>10</v>
+      </c>
+      <c r="J31">
+        <f t="shared" ca="1" si="5"/>
+        <v>45.963449999999995</v>
+      </c>
+      <c r="K31">
+        <f t="shared" ca="1" si="6"/>
+        <v>70.094000000000008</v>
+      </c>
+      <c r="M31" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N31">
+        <f t="shared" ca="1" si="8"/>
+        <v>45.963449999999995</v>
+      </c>
+      <c r="O31">
+        <f t="shared" ca="1" si="9"/>
+        <v>70.094000000000008</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A32" t="str">
+        <f>Tracker!A32</f>
+        <v>Company 31</v>
+      </c>
+      <c r="B32" t="str">
+        <f>Tracker!B32</f>
+        <v>Title 31</v>
+      </c>
+      <c r="C32" t="str">
+        <f>Tracker!F32</f>
+        <v>Interviewing</v>
+      </c>
+      <c r="D32">
+        <f ca="1">(Tracker!G32+Tracker!H32)/2</f>
+        <v>108.5</v>
+      </c>
+      <c r="E32" s="34">
+        <f>IF(OR(Tracker!F32="denied",Tracker!F32="on hold",Tracker!F32="No Response",Tracker!F32="pending"), 0.2, IF(Tracker!F32="interviewing", 0.4, IF(Tracker!F32="rejected", 0.3, IF(Tracker!F32="offer", 1, 0))))</f>
+        <v>0.4</v>
+      </c>
+      <c r="F32" s="35">
+        <f>IF(OR(Tracker!I32="linkedin", Tracker!I32="Indeed", Tracker!I32="linkedin dm"), 0.9, IF(Tracker!I32="Company Site", 1.1, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="G32" s="35">
+        <f>IF(OR(Tracker!D32="analyst", Tracker!D32="project manager", Tracker!D32="consultant"), 1.1, IF(Tracker!D32="Product Manager", 0.9, 1))</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H32" s="34">
+        <v>17.95</v>
+      </c>
+      <c r="I32" s="35">
+        <f>10-(0.5*Tracker!J32)</f>
+        <v>10</v>
+      </c>
+      <c r="J32">
+        <f t="shared" ca="1" si="5"/>
+        <v>61.569974999999999</v>
+      </c>
+      <c r="K32">
+        <f t="shared" ca="1" si="6"/>
+        <v>83.693300000000008</v>
+      </c>
+      <c r="M32" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N32">
+        <f t="shared" ca="1" si="8"/>
+        <v>61.569974999999999</v>
+      </c>
+      <c r="O32">
+        <f t="shared" ca="1" si="9"/>
+        <v>83.693300000000008</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A33" t="str">
+        <f>Tracker!A33</f>
+        <v>Company 32</v>
+      </c>
+      <c r="B33" t="str">
+        <f>Tracker!B33</f>
+        <v>Title 32</v>
+      </c>
+      <c r="C33" t="str">
+        <f>Tracker!F33</f>
+        <v>Interviewing</v>
+      </c>
+      <c r="D33">
+        <f ca="1">(Tracker!G33+Tracker!H33)/2</f>
+        <v>88</v>
+      </c>
+      <c r="E33" s="34">
+        <f>IF(OR(Tracker!F33="denied",Tracker!F33="on hold",Tracker!F33="No Response",Tracker!F33="pending"), 0.2, IF(Tracker!F33="interviewing", 0.4, IF(Tracker!F33="rejected", 0.3, IF(Tracker!F33="offer", 1, 0))))</f>
+        <v>0.4</v>
+      </c>
+      <c r="F33" s="35">
+        <f>IF(OR(Tracker!I33="linkedin", Tracker!I33="Indeed", Tracker!I33="linkedin dm"), 0.9, IF(Tracker!I33="Company Site", 1.1, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="G33" s="35">
+        <f>IF(OR(Tracker!D33="analyst", Tracker!D33="project manager", Tracker!D33="consultant"), 1.1, IF(Tracker!D33="Product Manager", 0.9, 1))</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H33" s="34">
+        <v>18.95</v>
+      </c>
+      <c r="I33" s="35">
+        <f>10-(0.5*Tracker!J33)</f>
+        <v>10</v>
+      </c>
+      <c r="J33">
+        <f t="shared" ca="1" si="5"/>
+        <v>52.330799999999996</v>
+      </c>
+      <c r="K33">
+        <f t="shared" ca="1" si="6"/>
+        <v>71.374400000000009</v>
+      </c>
+      <c r="M33" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N33">
+        <f t="shared" ca="1" si="8"/>
+        <v>52.330799999999996</v>
+      </c>
+      <c r="O33">
+        <f t="shared" ca="1" si="9"/>
+        <v>71.374400000000009</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A34" t="str">
+        <f>Tracker!A34</f>
+        <v>Company 33</v>
+      </c>
+      <c r="B34" t="str">
+        <f>Tracker!B34</f>
+        <v>Title 33</v>
+      </c>
+      <c r="C34" t="str">
+        <f>Tracker!F34</f>
+        <v>Interviewing</v>
+      </c>
+      <c r="D34">
+        <f ca="1">(Tracker!G34+Tracker!H34)/2</f>
+        <v>102</v>
+      </c>
+      <c r="E34" s="34">
+        <f>IF(OR(Tracker!F34="denied",Tracker!F34="on hold",Tracker!F34="No Response",Tracker!F34="pending"), 0.2, IF(Tracker!F34="interviewing", 0.4, IF(Tracker!F34="rejected", 0.3, IF(Tracker!F34="offer", 1, 0))))</f>
+        <v>0.4</v>
+      </c>
+      <c r="F34" s="35">
+        <f>IF(OR(Tracker!I34="linkedin", Tracker!I34="Indeed", Tracker!I34="linkedin dm"), 0.9, IF(Tracker!I34="Company Site", 1.1, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="G34" s="35">
+        <f>IF(OR(Tracker!D34="analyst", Tracker!D34="project manager", Tracker!D34="consultant"), 1.1, IF(Tracker!D34="Product Manager", 0.9, 1))</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H34" s="34">
+        <v>19.95</v>
+      </c>
+      <c r="I34" s="35">
+        <f>10-(0.5*Tracker!J34)</f>
+        <v>10</v>
+      </c>
+      <c r="J34">
+        <f t="shared" ca="1" si="5"/>
+        <v>64.451700000000002</v>
+      </c>
+      <c r="K34">
+        <f t="shared" ca="1" si="6"/>
+        <v>87.535600000000017</v>
+      </c>
+      <c r="M34" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N34">
+        <f t="shared" ca="1" si="8"/>
+        <v>64.451700000000002</v>
+      </c>
+      <c r="O34">
+        <f t="shared" ca="1" si="9"/>
+        <v>87.535600000000017</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A35" t="str">
+        <f>Tracker!A35</f>
+        <v>Company 34</v>
+      </c>
+      <c r="B35" t="str">
+        <f>Tracker!B35</f>
+        <v>Title 34</v>
+      </c>
+      <c r="C35" t="str">
+        <f>Tracker!F35</f>
+        <v>Interviewing</v>
+      </c>
+      <c r="D35">
+        <f ca="1">(Tracker!G35+Tracker!H35)/2</f>
+        <v>85</v>
+      </c>
+      <c r="E35" s="34">
+        <f>IF(OR(Tracker!F35="denied",Tracker!F35="on hold",Tracker!F35="No Response",Tracker!F35="pending"), 0.2, IF(Tracker!F35="interviewing", 0.4, IF(Tracker!F35="rejected", 0.3, IF(Tracker!F35="offer", 1, 0))))</f>
+        <v>0.4</v>
+      </c>
+      <c r="F35" s="35">
+        <f>IF(OR(Tracker!I35="linkedin", Tracker!I35="Indeed", Tracker!I35="linkedin dm"), 0.9, IF(Tracker!I35="Company Site", 1.1, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="G35" s="35">
+        <f>IF(OR(Tracker!D35="analyst", Tracker!D35="project manager", Tracker!D35="consultant"), 1.1, IF(Tracker!D35="Product Manager", 0.9, 1))</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H35" s="34">
+        <v>20.95</v>
+      </c>
+      <c r="I35" s="35">
+        <f>10-(0.5*Tracker!J35)</f>
+        <v>8.5</v>
+      </c>
+      <c r="J35">
+        <f t="shared" ca="1" si="5"/>
+        <v>56.064750000000004</v>
+      </c>
+      <c r="K35">
+        <f t="shared" ca="1" si="6"/>
+        <v>90.18</v>
+      </c>
+      <c r="M35" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N35">
+        <f t="shared" ca="1" si="8"/>
+        <v>56.064750000000004</v>
+      </c>
+      <c r="O35">
+        <f t="shared" ca="1" si="9"/>
+        <v>90.18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A36" t="str">
+        <f>Tracker!A36</f>
+        <v>Company 35</v>
+      </c>
+      <c r="B36" t="str">
+        <f>Tracker!B36</f>
+        <v>Title 35</v>
+      </c>
+      <c r="C36" t="str">
+        <f>Tracker!F36</f>
+        <v>Interviewing</v>
+      </c>
+      <c r="D36">
+        <f ca="1">(Tracker!G36+Tracker!H36)/2</f>
+        <v>93</v>
+      </c>
+      <c r="E36" s="34">
+        <f>IF(OR(Tracker!F36="denied",Tracker!F36="on hold",Tracker!F36="No Response",Tracker!F36="pending"), 0.2, IF(Tracker!F36="interviewing", 0.4, IF(Tracker!F36="rejected", 0.3, IF(Tracker!F36="offer", 1, 0))))</f>
+        <v>0.4</v>
+      </c>
+      <c r="F36" s="35">
+        <f>IF(OR(Tracker!I36="linkedin", Tracker!I36="Indeed", Tracker!I36="linkedin dm"), 0.9, IF(Tracker!I36="Company Site", 1.1, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="G36" s="35">
+        <f>IF(OR(Tracker!D36="analyst", Tracker!D36="project manager", Tracker!D36="consultant"), 1.1, IF(Tracker!D36="Product Manager", 0.9, 1))</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H36" s="34">
+        <v>21.95</v>
+      </c>
+      <c r="I36" s="35">
+        <f>10-(0.5*Tracker!J36)</f>
+        <v>10</v>
+      </c>
+      <c r="J36">
+        <f t="shared" ca="1" si="5"/>
+        <v>64.664549999999991</v>
+      </c>
+      <c r="K36">
+        <f t="shared" ca="1" si="6"/>
+        <v>87.819400000000016</v>
+      </c>
+      <c r="M36" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N36">
+        <f t="shared" ca="1" si="8"/>
+        <v>64.664549999999991</v>
+      </c>
+      <c r="O36">
+        <f t="shared" ca="1" si="9"/>
+        <v>87.819400000000016</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A37" t="str">
+        <f>Tracker!A37</f>
+        <v>Company 36</v>
+      </c>
+      <c r="B37" t="str">
+        <f>Tracker!B37</f>
+        <v>Title 36</v>
+      </c>
+      <c r="C37" t="str">
+        <f>Tracker!F37</f>
+        <v>No Response</v>
+      </c>
+      <c r="D37">
+        <f ca="1">(Tracker!G37+Tracker!H37)/2</f>
+        <v>106</v>
+      </c>
+      <c r="E37" s="34">
+        <f>IF(OR(Tracker!F37="denied",Tracker!F37="on hold",Tracker!F37="No Response",Tracker!F37="pending"), 0.2, IF(Tracker!F37="interviewing", 0.4, IF(Tracker!F37="rejected", 0.3, IF(Tracker!F37="offer", 1, 0))))</f>
+        <v>0.2</v>
+      </c>
+      <c r="F37" s="35">
+        <f>IF(OR(Tracker!I37="linkedin", Tracker!I37="Indeed", Tracker!I37="linkedin dm"), 0.9, IF(Tracker!I37="Company Site", 1.1, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="G37" s="35">
+        <f>IF(OR(Tracker!D37="analyst", Tracker!D37="project manager", Tracker!D37="consultant"), 1.1, IF(Tracker!D37="Product Manager", 0.9, 1))</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H37" s="34">
+        <v>22.95</v>
+      </c>
+      <c r="I37" s="35">
+        <f>10-(0.5*Tracker!J37)</f>
+        <v>10</v>
+      </c>
+      <c r="J37">
+        <f t="shared" ca="1" si="5"/>
+        <v>77.579099999999997</v>
+      </c>
+      <c r="K37">
+        <f t="shared" ca="1" si="6"/>
+        <v>51.519400000000005</v>
+      </c>
+      <c r="M37" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N37">
+        <f t="shared" ca="1" si="8"/>
+        <v>77.579099999999997</v>
+      </c>
+      <c r="O37">
+        <f t="shared" ca="1" si="9"/>
+        <v>51.519400000000005</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A38" t="str">
+        <f>Tracker!A38</f>
+        <v>Company 37</v>
+      </c>
+      <c r="B38" t="str">
+        <f>Tracker!B38</f>
+        <v>Title 37</v>
+      </c>
+      <c r="C38" t="str">
+        <f>Tracker!F38</f>
+        <v>No Response</v>
+      </c>
+      <c r="D38">
+        <f ca="1">(Tracker!G38+Tracker!H38)/2</f>
+        <v>107</v>
+      </c>
+      <c r="E38" s="34">
+        <f>IF(OR(Tracker!F38="denied",Tracker!F38="on hold",Tracker!F38="No Response",Tracker!F38="pending"), 0.2, IF(Tracker!F38="interviewing", 0.4, IF(Tracker!F38="rejected", 0.3, IF(Tracker!F38="offer", 1, 0))))</f>
+        <v>0.2</v>
+      </c>
+      <c r="F38" s="35">
+        <f>IF(OR(Tracker!I38="linkedin", Tracker!I38="Indeed", Tracker!I38="linkedin dm"), 0.9, IF(Tracker!I38="Company Site", 1.1, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="G38" s="35">
+        <f>IF(OR(Tracker!D38="analyst", Tracker!D38="project manager", Tracker!D38="consultant"), 1.1, IF(Tracker!D38="Product Manager", 0.9, 1))</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H38" s="34">
+        <v>23.95</v>
+      </c>
+      <c r="I38" s="35">
+        <f>10-(0.5*Tracker!J38)</f>
+        <v>10</v>
+      </c>
+      <c r="J38">
+        <f t="shared" ca="1" si="5"/>
+        <v>81.867450000000005</v>
+      </c>
+      <c r="K38">
+        <f t="shared" ca="1" si="6"/>
+        <v>54.378300000000003</v>
+      </c>
+      <c r="M38" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N38">
+        <f t="shared" ca="1" si="8"/>
+        <v>81.867450000000005</v>
+      </c>
+      <c r="O38">
+        <f t="shared" ca="1" si="9"/>
+        <v>54.378300000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A39" t="str">
+        <f>Tracker!A39</f>
+        <v>Company 38</v>
+      </c>
+      <c r="B39" t="str">
+        <f>Tracker!B39</f>
+        <v>Title 38</v>
+      </c>
+      <c r="C39" t="str">
+        <f>Tracker!F39</f>
+        <v>No Response</v>
+      </c>
+      <c r="D39">
+        <f ca="1">(Tracker!G39+Tracker!H39)/2</f>
+        <v>108</v>
+      </c>
+      <c r="E39" s="34">
+        <f>IF(OR(Tracker!F39="denied",Tracker!F39="on hold",Tracker!F39="No Response",Tracker!F39="pending"), 0.2, IF(Tracker!F39="interviewing", 0.4, IF(Tracker!F39="rejected", 0.3, IF(Tracker!F39="offer", 1, 0))))</f>
+        <v>0.2</v>
+      </c>
+      <c r="F39" s="35">
+        <f>IF(OR(Tracker!I39="linkedin", Tracker!I39="Indeed", Tracker!I39="linkedin dm"), 0.9, IF(Tracker!I39="Company Site", 1.1, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="G39" s="35">
+        <f>IF(OR(Tracker!D39="analyst", Tracker!D39="project manager", Tracker!D39="consultant"), 1.1, IF(Tracker!D39="Product Manager", 0.9, 1))</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H39" s="34">
+        <v>24.95</v>
+      </c>
+      <c r="I39" s="35">
+        <f>10-(0.5*Tracker!J39)</f>
+        <v>9.5</v>
+      </c>
+      <c r="J39">
+        <f t="shared" ca="1" si="5"/>
+        <v>86.221799999999988</v>
+      </c>
+      <c r="K39">
+        <f t="shared" ca="1" si="6"/>
+        <v>60.401263157894753</v>
+      </c>
+      <c r="M39" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N39">
+        <f t="shared" ca="1" si="8"/>
+        <v>86.221799999999988</v>
+      </c>
+      <c r="O39">
+        <f t="shared" ca="1" si="9"/>
+        <v>60.401263157894753</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A40" t="str">
+        <f>Tracker!A40</f>
+        <v>Company 39</v>
+      </c>
+      <c r="B40" t="str">
+        <f>Tracker!B40</f>
+        <v>Title 39</v>
+      </c>
+      <c r="C40" t="str">
+        <f>Tracker!F40</f>
+        <v>No Response</v>
+      </c>
+      <c r="D40">
+        <f ca="1">(Tracker!G40+Tracker!H40)/2</f>
+        <v>114</v>
+      </c>
+      <c r="E40" s="34">
+        <f>IF(OR(Tracker!F40="denied",Tracker!F40="on hold",Tracker!F40="No Response",Tracker!F40="pending"), 0.2, IF(Tracker!F40="interviewing", 0.4, IF(Tracker!F40="rejected", 0.3, IF(Tracker!F40="offer", 1, 0))))</f>
+        <v>0.2</v>
+      </c>
+      <c r="F40" s="35">
+        <f>IF(OR(Tracker!I40="linkedin", Tracker!I40="Indeed", Tracker!I40="linkedin dm"), 0.9, IF(Tracker!I40="Company Site", 1.1, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="G40" s="35">
+        <f>IF(OR(Tracker!D40="analyst", Tracker!D40="project manager", Tracker!D40="consultant"), 1.1, IF(Tracker!D40="Product Manager", 0.9, 1))</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H40" s="34">
+        <v>25.95</v>
+      </c>
+      <c r="I40" s="35">
+        <f>10-(0.5*Tracker!J40)</f>
+        <v>10</v>
+      </c>
+      <c r="J40">
+        <f t="shared" ca="1" si="5"/>
+        <v>94.923899999999989</v>
+      </c>
+      <c r="K40">
+        <f t="shared" ca="1" si="6"/>
+        <v>63.082599999999999</v>
+      </c>
+      <c r="M40" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N40">
+        <f t="shared" ca="1" si="8"/>
+        <v>94.923899999999989</v>
+      </c>
+      <c r="O40">
+        <f t="shared" ca="1" si="9"/>
+        <v>63.082599999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A41" t="str">
+        <f>Tracker!A41</f>
+        <v>Company 40</v>
+      </c>
+      <c r="B41" t="str">
+        <f>Tracker!B41</f>
+        <v>Title 40</v>
+      </c>
+      <c r="C41" t="str">
+        <f>Tracker!F41</f>
+        <v>No Response</v>
+      </c>
+      <c r="D41">
+        <f ca="1">(Tracker!G41+Tracker!H41)/2</f>
+        <v>87</v>
+      </c>
+      <c r="E41" s="34">
+        <f>IF(OR(Tracker!F41="denied",Tracker!F41="on hold",Tracker!F41="No Response",Tracker!F41="pending"), 0.2, IF(Tracker!F41="interviewing", 0.4, IF(Tracker!F41="rejected", 0.3, IF(Tracker!F41="offer", 1, 0))))</f>
+        <v>0.2</v>
+      </c>
+      <c r="F41" s="35">
+        <f>IF(OR(Tracker!I41="linkedin", Tracker!I41="Indeed", Tracker!I41="linkedin dm"), 0.9, IF(Tracker!I41="Company Site", 1.1, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="G41" s="35">
+        <f>IF(OR(Tracker!D41="analyst", Tracker!D41="project manager", Tracker!D41="consultant"), 1.1, IF(Tracker!D41="Product Manager", 0.9, 1))</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H41" s="34">
+        <v>26.95</v>
+      </c>
+      <c r="I41" s="35">
+        <f>10-(0.5*Tracker!J41)</f>
+        <v>10</v>
+      </c>
+      <c r="J41">
+        <f t="shared" ca="1" si="5"/>
+        <v>74.673450000000003</v>
+      </c>
+      <c r="K41">
+        <f t="shared" ca="1" si="6"/>
+        <v>49.582300000000011</v>
+      </c>
+      <c r="M41" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N41">
+        <f t="shared" ca="1" si="8"/>
+        <v>74.673450000000003</v>
+      </c>
+      <c r="O41">
+        <f t="shared" ca="1" si="9"/>
+        <v>49.582300000000011</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A42" t="str">
+        <f>Tracker!A42</f>
+        <v>Company 41</v>
+      </c>
+      <c r="B42" t="str">
+        <f>Tracker!B42</f>
+        <v>Title 41</v>
+      </c>
+      <c r="C42" t="str">
+        <f>Tracker!F42</f>
+        <v>No Response</v>
+      </c>
+      <c r="D42">
+        <f ca="1">(Tracker!G42+Tracker!H42)/2</f>
+        <v>99</v>
+      </c>
+      <c r="E42" s="34">
+        <f>IF(OR(Tracker!F42="denied",Tracker!F42="on hold",Tracker!F42="No Response",Tracker!F42="pending"), 0.2, IF(Tracker!F42="interviewing", 0.4, IF(Tracker!F42="rejected", 0.3, IF(Tracker!F42="offer", 1, 0))))</f>
+        <v>0.2</v>
+      </c>
+      <c r="F42" s="35">
+        <f>IF(OR(Tracker!I42="linkedin", Tracker!I42="Indeed", Tracker!I42="linkedin dm"), 0.9, IF(Tracker!I42="Company Site", 1.1, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="G42" s="35">
+        <f>IF(OR(Tracker!D42="analyst", Tracker!D42="project manager", Tracker!D42="consultant"), 1.1, IF(Tracker!D42="Product Manager", 0.9, 1))</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H42" s="34">
+        <v>27.95</v>
+      </c>
+      <c r="I42" s="35">
+        <f>10-(0.5*Tracker!J42)</f>
+        <v>9</v>
+      </c>
+      <c r="J42">
+        <f t="shared" ca="1" si="5"/>
+        <v>88.612650000000002</v>
+      </c>
+      <c r="K42">
+        <f t="shared" ca="1" si="6"/>
+        <v>65.638999999999996</v>
+      </c>
+      <c r="M42" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N42">
+        <f t="shared" ca="1" si="8"/>
+        <v>88.612650000000002</v>
+      </c>
+      <c r="O42">
+        <f t="shared" ca="1" si="9"/>
+        <v>65.638999999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A43" t="str">
+        <f>Tracker!A43</f>
+        <v>Company 42</v>
+      </c>
+      <c r="B43" t="str">
+        <f>Tracker!B43</f>
+        <v>Title 42</v>
+      </c>
+      <c r="C43" t="str">
+        <f>Tracker!F43</f>
+        <v>No Response</v>
+      </c>
+      <c r="D43">
+        <f ca="1">(Tracker!G43+Tracker!H43)/2</f>
+        <v>95.5</v>
+      </c>
+      <c r="E43" s="34">
+        <f>IF(OR(Tracker!F43="denied",Tracker!F43="on hold",Tracker!F43="No Response",Tracker!F43="pending"), 0.2, IF(Tracker!F43="interviewing", 0.4, IF(Tracker!F43="rejected", 0.3, IF(Tracker!F43="offer", 1, 0))))</f>
+        <v>0.2</v>
+      </c>
+      <c r="F43" s="35">
+        <f>IF(OR(Tracker!I43="linkedin", Tracker!I43="Indeed", Tracker!I43="linkedin dm"), 0.9, IF(Tracker!I43="Company Site", 1.1, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="G43" s="35">
+        <f>IF(OR(Tracker!D43="analyst", Tracker!D43="project manager", Tracker!D43="consultant"), 1.1, IF(Tracker!D43="Product Manager", 0.9, 1))</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H43" s="34">
+        <v>28.95</v>
+      </c>
+      <c r="I43" s="35">
+        <f>10-(0.5*Tracker!J43)</f>
+        <v>10</v>
+      </c>
+      <c r="J43">
+        <f t="shared" ca="1" si="5"/>
+        <v>88.535924999999992</v>
+      </c>
+      <c r="K43">
+        <f t="shared" ca="1" si="6"/>
+        <v>58.823950000000004</v>
+      </c>
+      <c r="M43" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N43">
+        <f t="shared" ca="1" si="8"/>
+        <v>88.535924999999992</v>
+      </c>
+      <c r="O43">
+        <f t="shared" ca="1" si="9"/>
+        <v>58.823950000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A44" t="str">
+        <f>Tracker!A44</f>
+        <v>Company 43</v>
+      </c>
+      <c r="B44" t="str">
+        <f>Tracker!B44</f>
+        <v>Title 43</v>
+      </c>
+      <c r="C44" t="str">
+        <f>Tracker!F44</f>
+        <v>No Response</v>
+      </c>
+      <c r="D44">
+        <f ca="1">(Tracker!G44+Tracker!H44)/2</f>
+        <v>90</v>
+      </c>
+      <c r="E44" s="34">
+        <f>IF(OR(Tracker!F44="denied",Tracker!F44="on hold",Tracker!F44="No Response",Tracker!F44="pending"), 0.2, IF(Tracker!F44="interviewing", 0.4, IF(Tracker!F44="rejected", 0.3, IF(Tracker!F44="offer", 1, 0))))</f>
+        <v>0.2</v>
+      </c>
+      <c r="F44" s="35">
+        <f>IF(OR(Tracker!I44="linkedin", Tracker!I44="Indeed", Tracker!I44="linkedin dm"), 0.9, IF(Tracker!I44="Company Site", 1.1, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="G44" s="35">
+        <f>IF(OR(Tracker!D44="analyst", Tracker!D44="project manager", Tracker!D44="consultant"), 1.1, IF(Tracker!D44="Product Manager", 0.9, 1))</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H44" s="34">
+        <v>29.95</v>
+      </c>
+      <c r="I44" s="35">
+        <f>10-(0.5*Tracker!J44)</f>
+        <v>10</v>
+      </c>
+      <c r="J44">
+        <f t="shared" ca="1" si="5"/>
+        <v>86.251500000000007</v>
+      </c>
+      <c r="K44">
+        <f t="shared" ca="1" si="6"/>
+        <v>57.301000000000002</v>
+      </c>
+      <c r="M44" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N44">
+        <f t="shared" ca="1" si="8"/>
+        <v>86.251500000000007</v>
+      </c>
+      <c r="O44">
+        <f t="shared" ca="1" si="9"/>
+        <v>57.301000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A45" t="str">
+        <f>Tracker!A45</f>
+        <v>Company 44</v>
+      </c>
+      <c r="B45" t="str">
+        <f>Tracker!B45</f>
+        <v>Title 44</v>
+      </c>
+      <c r="C45" t="str">
+        <f>Tracker!F45</f>
+        <v>No Response</v>
+      </c>
+      <c r="D45">
+        <f ca="1">(Tracker!G45+Tracker!H45)/2</f>
+        <v>113</v>
+      </c>
+      <c r="E45" s="34">
+        <f>IF(OR(Tracker!F45="denied",Tracker!F45="on hold",Tracker!F45="No Response",Tracker!F45="pending"), 0.2, IF(Tracker!F45="interviewing", 0.4, IF(Tracker!F45="rejected", 0.3, IF(Tracker!F45="offer", 1, 0))))</f>
+        <v>0.2</v>
+      </c>
+      <c r="F45" s="35">
+        <f>IF(OR(Tracker!I45="linkedin", Tracker!I45="Indeed", Tracker!I45="linkedin dm"), 0.9, IF(Tracker!I45="Company Site", 1.1, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="G45" s="35">
+        <f>IF(OR(Tracker!D45="analyst", Tracker!D45="project manager", Tracker!D45="consultant"), 1.1, IF(Tracker!D45="Product Manager", 0.9, 1))</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H45" s="34">
+        <v>30.95</v>
+      </c>
+      <c r="I45" s="35">
+        <f>10-(0.5*Tracker!J45)</f>
+        <v>10</v>
+      </c>
+      <c r="J45">
+        <f t="shared" ca="1" si="5"/>
+        <v>112.71254999999998</v>
+      </c>
+      <c r="K45">
+        <f t="shared" ca="1" si="6"/>
+        <v>74.941699999999997</v>
+      </c>
+      <c r="M45" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N45">
+        <f t="shared" ca="1" si="8"/>
+        <v>112.71254999999998</v>
+      </c>
+      <c r="O45">
+        <f t="shared" ca="1" si="9"/>
+        <v>74.941699999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A46" t="str">
+        <f>Tracker!A46</f>
+        <v>Company 45</v>
+      </c>
+      <c r="B46" t="str">
+        <f>Tracker!B46</f>
+        <v>Title 45</v>
+      </c>
+      <c r="C46" t="str">
+        <f>Tracker!F46</f>
+        <v>No Response</v>
+      </c>
+      <c r="D46">
+        <f ca="1">(Tracker!G46+Tracker!H46)/2</f>
+        <v>110.5</v>
+      </c>
+      <c r="E46" s="34">
+        <f>IF(OR(Tracker!F46="denied",Tracker!F46="on hold",Tracker!F46="No Response",Tracker!F46="pending"), 0.2, IF(Tracker!F46="interviewing", 0.4, IF(Tracker!F46="rejected", 0.3, IF(Tracker!F46="offer", 1, 0))))</f>
+        <v>0.2</v>
+      </c>
+      <c r="F46" s="35">
+        <f>IF(OR(Tracker!I46="linkedin", Tracker!I46="Indeed", Tracker!I46="linkedin dm"), 0.9, IF(Tracker!I46="Company Site", 1.1, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="G46" s="35">
+        <f>IF(OR(Tracker!D46="analyst", Tracker!D46="project manager", Tracker!D46="consultant"), 1.1, IF(Tracker!D46="Product Manager", 0.9, 1))</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H46" s="34">
+        <v>31.95</v>
+      </c>
+      <c r="I46" s="35">
+        <f>10-(0.5*Tracker!J46)</f>
+        <v>10</v>
+      </c>
+      <c r="J46">
+        <f t="shared" ca="1" si="5"/>
+        <v>113.80567500000002</v>
+      </c>
+      <c r="K46">
+        <f t="shared" ca="1" si="6"/>
+        <v>75.670450000000002</v>
+      </c>
+      <c r="M46" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N46">
+        <f t="shared" ca="1" si="8"/>
+        <v>113.80567500000002</v>
+      </c>
+      <c r="O46">
+        <f t="shared" ca="1" si="9"/>
+        <v>75.670450000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A47" t="str">
+        <f>Tracker!A47</f>
+        <v>Company 46</v>
+      </c>
+      <c r="B47" t="str">
+        <f>Tracker!B47</f>
+        <v>Title 46</v>
+      </c>
+      <c r="C47" t="str">
+        <f>Tracker!F47</f>
+        <v>No Response</v>
+      </c>
+      <c r="D47">
+        <f ca="1">(Tracker!G47+Tracker!H47)/2</f>
+        <v>117.5</v>
+      </c>
+      <c r="E47" s="34">
+        <f>IF(OR(Tracker!F47="denied",Tracker!F47="on hold",Tracker!F47="No Response",Tracker!F47="pending"), 0.2, IF(Tracker!F47="interviewing", 0.4, IF(Tracker!F47="rejected", 0.3, IF(Tracker!F47="offer", 1, 0))))</f>
+        <v>0.2</v>
+      </c>
+      <c r="F47" s="35">
+        <f>IF(OR(Tracker!I47="linkedin", Tracker!I47="Indeed", Tracker!I47="linkedin dm"), 0.9, IF(Tracker!I47="Company Site", 1.1, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="G47" s="35">
+        <f>IF(OR(Tracker!D47="analyst", Tracker!D47="project manager", Tracker!D47="consultant"), 1.1, IF(Tracker!D47="Product Manager", 0.9, 1))</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H47" s="34">
+        <v>32.950000000000003</v>
+      </c>
+      <c r="I47" s="35">
+        <f>10-(0.5*Tracker!J47)</f>
+        <v>10</v>
+      </c>
+      <c r="J47">
+        <f t="shared" ca="1" si="5"/>
+        <v>125.06362500000002</v>
+      </c>
+      <c r="K47">
+        <f t="shared" ca="1" si="6"/>
+        <v>83.175750000000022</v>
+      </c>
+      <c r="M47" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N47">
+        <f t="shared" ca="1" si="8"/>
+        <v>125.06362500000002</v>
+      </c>
+      <c r="O47">
+        <f t="shared" ca="1" si="9"/>
+        <v>83.175750000000022</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A48" t="str">
+        <f>Tracker!A48</f>
+        <v>Company 47</v>
+      </c>
+      <c r="B48" t="str">
+        <f>Tracker!B48</f>
+        <v>Title 47</v>
+      </c>
+      <c r="C48" t="str">
+        <f>Tracker!F48</f>
+        <v>Rejected</v>
+      </c>
+      <c r="D48">
+        <f ca="1">(Tracker!G48+Tracker!H48)/2</f>
+        <v>81.5</v>
+      </c>
+      <c r="E48" s="34">
+        <f>IF(OR(Tracker!F48="denied",Tracker!F48="on hold",Tracker!F48="No Response",Tracker!F48="pending"), 0.2, IF(Tracker!F48="interviewing", 0.4, IF(Tracker!F48="rejected", 0.3, IF(Tracker!F48="offer", 1, 0))))</f>
+        <v>0.3</v>
+      </c>
+      <c r="F48" s="35">
+        <f>IF(OR(Tracker!I48="linkedin", Tracker!I48="Indeed", Tracker!I48="linkedin dm"), 0.9, IF(Tracker!I48="Company Site", 1.1, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="G48" s="35">
+        <f>IF(OR(Tracker!D48="analyst", Tracker!D48="project manager", Tracker!D48="consultant"), 1.1, IF(Tracker!D48="Product Manager", 0.9, 1))</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H48" s="34">
+        <v>33.950000000000003</v>
+      </c>
+      <c r="I48" s="35">
+        <f>10-(0.5*Tracker!J48)</f>
+        <v>10</v>
+      </c>
+      <c r="J48">
+        <f t="shared" ca="1" si="5"/>
+        <v>88.608525000000014</v>
+      </c>
+      <c r="K48">
+        <f t="shared" ca="1" si="6"/>
+        <v>89.308525000000017</v>
+      </c>
+      <c r="M48" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N48">
+        <f t="shared" ca="1" si="8"/>
+        <v>88.608525000000014</v>
+      </c>
+      <c r="O48">
+        <f t="shared" ca="1" si="9"/>
+        <v>89.308525000000017</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A49" t="str">
+        <f>Tracker!A49</f>
+        <v>Company 48</v>
+      </c>
+      <c r="B49" t="str">
+        <f>Tracker!B49</f>
+        <v>Title 48</v>
+      </c>
+      <c r="C49" t="str">
+        <f>Tracker!F49</f>
+        <v>Rejected</v>
+      </c>
+      <c r="D49">
+        <f ca="1">(Tracker!G49+Tracker!H49)/2</f>
+        <v>101.5</v>
+      </c>
+      <c r="E49" s="34">
+        <f>IF(OR(Tracker!F49="denied",Tracker!F49="on hold",Tracker!F49="No Response",Tracker!F49="pending"), 0.2, IF(Tracker!F49="interviewing", 0.4, IF(Tracker!F49="rejected", 0.3, IF(Tracker!F49="offer", 1, 0))))</f>
+        <v>0.3</v>
+      </c>
+      <c r="F49" s="35">
+        <f>IF(OR(Tracker!I49="linkedin", Tracker!I49="Indeed", Tracker!I49="linkedin dm"), 0.9, IF(Tracker!I49="Company Site", 1.1, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="G49" s="35">
+        <f>IF(OR(Tracker!D49="analyst", Tracker!D49="project manager", Tracker!D49="consultant"), 1.1, IF(Tracker!D49="Product Manager", 0.9, 1))</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H49" s="34">
+        <v>34.950000000000003</v>
+      </c>
+      <c r="I49" s="35">
+        <f>10-(0.5*Tracker!J49)</f>
+        <v>10</v>
+      </c>
+      <c r="J49">
+        <f t="shared" ca="1" si="5"/>
+        <v>114.36502500000002</v>
+      </c>
+      <c r="K49">
+        <f t="shared" ca="1" si="6"/>
+        <v>115.06502500000002</v>
+      </c>
+      <c r="M49" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N49">
+        <f t="shared" ca="1" si="8"/>
+        <v>114.36502500000002</v>
+      </c>
+      <c r="O49">
+        <f t="shared" ca="1" si="9"/>
+        <v>115.06502500000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A50" t="str">
+        <f>Tracker!A50</f>
+        <v>Company 49</v>
+      </c>
+      <c r="B50" t="str">
+        <f>Tracker!B50</f>
+        <v>Title 49</v>
+      </c>
+      <c r="C50" t="str">
+        <f>Tracker!F50</f>
+        <v>Rejected</v>
+      </c>
+      <c r="D50">
+        <f ca="1">(Tracker!G50+Tracker!H50)/2</f>
+        <v>115</v>
+      </c>
+      <c r="E50" s="34">
+        <f>IF(OR(Tracker!F50="denied",Tracker!F50="on hold",Tracker!F50="No Response",Tracker!F50="pending"), 0.2, IF(Tracker!F50="interviewing", 0.4, IF(Tracker!F50="rejected", 0.3, IF(Tracker!F50="offer", 1, 0))))</f>
+        <v>0.3</v>
+      </c>
+      <c r="F50" s="35">
+        <f>IF(OR(Tracker!I50="linkedin", Tracker!I50="Indeed", Tracker!I50="linkedin dm"), 0.9, IF(Tracker!I50="Company Site", 1.1, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="G50" s="35">
+        <f>IF(OR(Tracker!D50="analyst", Tracker!D50="project manager", Tracker!D50="consultant"), 1.1, IF(Tracker!D50="Product Manager", 0.9, 1))</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H50" s="34">
+        <v>35.950000000000003</v>
+      </c>
+      <c r="I50" s="35">
+        <f>10-(0.5*Tracker!J50)</f>
+        <v>10</v>
+      </c>
+      <c r="J50">
+        <f t="shared" ca="1" si="5"/>
+        <v>133.73025000000004</v>
+      </c>
+      <c r="K50">
+        <f t="shared" ca="1" si="6"/>
+        <v>134.43025000000003</v>
+      </c>
+      <c r="M50" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N50">
+        <f t="shared" ca="1" si="8"/>
+        <v>133.73025000000004</v>
+      </c>
+      <c r="O50">
+        <f t="shared" ca="1" si="9"/>
+        <v>134.43025000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A51" t="str">
+        <f>Tracker!A51</f>
+        <v>Company 50</v>
+      </c>
+      <c r="B51" t="str">
+        <f>Tracker!B51</f>
+        <v>Title 50</v>
+      </c>
+      <c r="C51" t="str">
+        <f>Tracker!F51</f>
+        <v>Rejected</v>
+      </c>
+      <c r="D51">
+        <f ca="1">(Tracker!G51+Tracker!H51)/2</f>
+        <v>77</v>
+      </c>
+      <c r="E51" s="34">
+        <f>IF(OR(Tracker!F51="denied",Tracker!F51="on hold",Tracker!F51="No Response",Tracker!F51="pending"), 0.2, IF(Tracker!F51="interviewing", 0.4, IF(Tracker!F51="rejected", 0.3, IF(Tracker!F51="offer", 1, 0))))</f>
+        <v>0.3</v>
+      </c>
+      <c r="F51" s="35">
+        <f>IF(OR(Tracker!I51="linkedin", Tracker!I51="Indeed", Tracker!I51="linkedin dm"), 0.9, IF(Tracker!I51="Company Site", 1.1, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="G51" s="35">
+        <f>IF(OR(Tracker!D51="analyst", Tracker!D51="project manager", Tracker!D51="consultant"), 1.1, IF(Tracker!D51="Product Manager", 0.9, 1))</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H51" s="34">
+        <v>36.950000000000003</v>
+      </c>
+      <c r="I51" s="35">
+        <f>10-(0.5*Tracker!J51)</f>
+        <v>10</v>
+      </c>
+      <c r="J51">
+        <f t="shared" ca="1" si="5"/>
+        <v>91.18995000000001</v>
+      </c>
+      <c r="K51">
+        <f t="shared" ca="1" si="6"/>
+        <v>91.889950000000013</v>
+      </c>
+      <c r="M51" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N51">
+        <f t="shared" ca="1" si="8"/>
+        <v>91.18995000000001</v>
+      </c>
+      <c r="O51">
+        <f t="shared" ca="1" si="9"/>
+        <v>91.889950000000013</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A52" t="str">
+        <f>Tracker!A52</f>
+        <v>Company 51</v>
+      </c>
+      <c r="B52" t="str">
+        <f>Tracker!B52</f>
+        <v>Title 51</v>
+      </c>
+      <c r="C52" t="str">
+        <f>Tracker!F52</f>
+        <v>Rejected</v>
+      </c>
+      <c r="D52">
+        <f ca="1">(Tracker!G52+Tracker!H52)/2</f>
+        <v>93</v>
+      </c>
+      <c r="E52" s="34">
+        <f>IF(OR(Tracker!F52="denied",Tracker!F52="on hold",Tracker!F52="No Response",Tracker!F52="pending"), 0.2, IF(Tracker!F52="interviewing", 0.4, IF(Tracker!F52="rejected", 0.3, IF(Tracker!F52="offer", 1, 0))))</f>
+        <v>0.3</v>
+      </c>
+      <c r="F52" s="35">
+        <f>IF(OR(Tracker!I52="linkedin", Tracker!I52="Indeed", Tracker!I52="linkedin dm"), 0.9, IF(Tracker!I52="Company Site", 1.1, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="G52" s="35">
+        <f>IF(OR(Tracker!D52="analyst", Tracker!D52="project manager", Tracker!D52="consultant"), 1.1, IF(Tracker!D52="Product Manager", 0.9, 1))</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H52" s="34">
+        <v>37.950000000000003</v>
+      </c>
+      <c r="I52" s="35">
+        <f>10-(0.5*Tracker!J52)</f>
+        <v>10</v>
+      </c>
+      <c r="J52">
+        <f t="shared" ca="1" si="5"/>
+        <v>113.76855</v>
+      </c>
+      <c r="K52">
+        <f t="shared" ca="1" si="6"/>
+        <v>114.46855000000001</v>
+      </c>
+      <c r="M52" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N52">
+        <f t="shared" ca="1" si="8"/>
+        <v>113.76855</v>
+      </c>
+      <c r="O52">
+        <f t="shared" ca="1" si="9"/>
+        <v>114.46855000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A53" t="str">
+        <f>Tracker!A53</f>
+        <v>Company 52</v>
+      </c>
+      <c r="B53" t="str">
+        <f>Tracker!B53</f>
+        <v>Title 52</v>
+      </c>
+      <c r="C53" t="str">
+        <f>Tracker!F53</f>
+        <v>Rejected</v>
+      </c>
+      <c r="D53">
+        <f ca="1">(Tracker!G53+Tracker!H53)/2</f>
+        <v>103.5</v>
+      </c>
+      <c r="E53" s="34">
+        <f>IF(OR(Tracker!F53="denied",Tracker!F53="on hold",Tracker!F53="No Response",Tracker!F53="pending"), 0.2, IF(Tracker!F53="interviewing", 0.4, IF(Tracker!F53="rejected", 0.3, IF(Tracker!F53="offer", 1, 0))))</f>
+        <v>0.3</v>
+      </c>
+      <c r="F53" s="35">
+        <f>IF(OR(Tracker!I53="linkedin", Tracker!I53="Indeed", Tracker!I53="linkedin dm"), 0.9, IF(Tracker!I53="Company Site", 1.1, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="G53" s="35">
+        <f>IF(OR(Tracker!D53="analyst", Tracker!D53="project manager", Tracker!D53="consultant"), 1.1, IF(Tracker!D53="Product Manager", 0.9, 1))</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H53" s="34">
+        <v>38.950000000000003</v>
+      </c>
+      <c r="I53" s="35">
+        <f>10-(0.5*Tracker!J53)</f>
+        <v>10</v>
+      </c>
+      <c r="J53">
+        <f t="shared" ca="1" si="5"/>
+        <v>130.33372500000002</v>
+      </c>
+      <c r="K53">
+        <f t="shared" ca="1" si="6"/>
+        <v>131.033725</v>
+      </c>
+      <c r="M53" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N53">
+        <f t="shared" ca="1" si="8"/>
+        <v>130.33372500000002</v>
+      </c>
+      <c r="O53">
+        <f t="shared" ca="1" si="9"/>
+        <v>131.033725</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A54" t="str">
+        <f>Tracker!A54</f>
+        <v>Company 53</v>
+      </c>
+      <c r="B54" t="str">
+        <f>Tracker!B54</f>
+        <v>Title 53</v>
+      </c>
+      <c r="C54" t="str">
+        <f>Tracker!F54</f>
+        <v>Rejected</v>
+      </c>
+      <c r="D54">
+        <f ca="1">(Tracker!G54+Tracker!H54)/2</f>
+        <v>98</v>
+      </c>
+      <c r="E54" s="34">
+        <f>IF(OR(Tracker!F54="denied",Tracker!F54="on hold",Tracker!F54="No Response",Tracker!F54="pending"), 0.2, IF(Tracker!F54="interviewing", 0.4, IF(Tracker!F54="rejected", 0.3, IF(Tracker!F54="offer", 1, 0))))</f>
+        <v>0.3</v>
+      </c>
+      <c r="F54" s="35">
+        <f>IF(OR(Tracker!I54="linkedin", Tracker!I54="Indeed", Tracker!I54="linkedin dm"), 0.9, IF(Tracker!I54="Company Site", 1.1, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="G54" s="35">
+        <f>IF(OR(Tracker!D54="analyst", Tracker!D54="project manager", Tracker!D54="consultant"), 1.1, IF(Tracker!D54="Product Manager", 0.9, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="H54" s="34">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="I54" s="35">
+        <f>10-(0.5*Tracker!J54)</f>
+        <v>7.5</v>
+      </c>
+      <c r="J54">
+        <f t="shared" ca="1" si="5"/>
+        <v>114.753</v>
+      </c>
+      <c r="K54">
+        <f t="shared" ca="1" si="6"/>
+        <v>154.60399999999998</v>
+      </c>
+      <c r="M54" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N54">
+        <f t="shared" ca="1" si="8"/>
+        <v>114.753</v>
+      </c>
+      <c r="O54">
+        <f t="shared" ca="1" si="9"/>
+        <v>154.60399999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A55" t="str">
+        <f>Tracker!A55</f>
+        <v>Company 54</v>
+      </c>
+      <c r="B55" t="str">
+        <f>Tracker!B55</f>
+        <v>Title 54</v>
+      </c>
+      <c r="C55" t="str">
+        <f>Tracker!F55</f>
+        <v>Rejected</v>
+      </c>
+      <c r="D55">
+        <f ca="1">(Tracker!G55+Tracker!H55)/2</f>
+        <v>83</v>
+      </c>
+      <c r="E55" s="34">
+        <f>IF(OR(Tracker!F55="denied",Tracker!F55="on hold",Tracker!F55="No Response",Tracker!F55="pending"), 0.2, IF(Tracker!F55="interviewing", 0.4, IF(Tracker!F55="rejected", 0.3, IF(Tracker!F55="offer", 1, 0))))</f>
+        <v>0.3</v>
+      </c>
+      <c r="F55" s="35">
+        <f>IF(OR(Tracker!I55="linkedin", Tracker!I55="Indeed", Tracker!I55="linkedin dm"), 0.9, IF(Tracker!I55="Company Site", 1.1, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="G55" s="35">
+        <f>IF(OR(Tracker!D55="analyst", Tracker!D55="project manager", Tracker!D55="consultant"), 1.1, IF(Tracker!D55="Product Manager", 0.9, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="H55" s="34">
+        <v>40.950000000000003</v>
+      </c>
+      <c r="I55" s="35">
+        <f>10-(0.5*Tracker!J55)</f>
+        <v>10</v>
+      </c>
+      <c r="J55">
+        <f t="shared" ca="1" si="5"/>
+        <v>99.265499999999989</v>
+      </c>
+      <c r="K55">
+        <f t="shared" ca="1" si="6"/>
+        <v>99.965499999999992</v>
+      </c>
+      <c r="M55" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N55">
+        <f t="shared" ca="1" si="8"/>
+        <v>99.265499999999989</v>
+      </c>
+      <c r="O55">
+        <f t="shared" ca="1" si="9"/>
+        <v>99.965499999999992</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A56" t="str">
+        <f>Tracker!A56</f>
+        <v>Company 55</v>
+      </c>
+      <c r="B56" t="str">
+        <f>Tracker!B56</f>
+        <v>Title 55</v>
+      </c>
+      <c r="C56" t="str">
+        <f>Tracker!F56</f>
+        <v>Pending</v>
+      </c>
+      <c r="D56">
+        <f ca="1">(Tracker!G56+Tracker!H56)/2</f>
+        <v>110.5</v>
+      </c>
+      <c r="E56" s="34">
+        <f>IF(OR(Tracker!F56="denied",Tracker!F56="on hold",Tracker!F56="No Response",Tracker!F56="pending"), 0.2, IF(Tracker!F56="interviewing", 0.4, IF(Tracker!F56="rejected", 0.3, IF(Tracker!F56="offer", 1, 0))))</f>
+        <v>0.2</v>
+      </c>
+      <c r="F56" s="35">
+        <f>IF(OR(Tracker!I56="linkedin", Tracker!I56="Indeed", Tracker!I56="linkedin dm"), 0.9, IF(Tracker!I56="Company Site", 1.1, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="G56" s="35">
+        <f>IF(OR(Tracker!D56="analyst", Tracker!D56="project manager", Tracker!D56="consultant"), 1.1, IF(Tracker!D56="Product Manager", 0.9, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="H56" s="34">
+        <v>41.95</v>
+      </c>
+      <c r="I56" s="35">
+        <f>10-(0.5*Tracker!J56)</f>
+        <v>10</v>
+      </c>
+      <c r="J56">
+        <f t="shared" ca="1" si="5"/>
+        <v>136.36425</v>
+      </c>
+      <c r="K56">
+        <f t="shared" ca="1" si="6"/>
+        <v>90.70950000000002</v>
+      </c>
+      <c r="M56" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N56">
+        <f t="shared" ca="1" si="8"/>
+        <v>136.36425</v>
+      </c>
+      <c r="O56">
+        <f t="shared" ca="1" si="9"/>
+        <v>90.70950000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A57" t="str">
+        <f>Tracker!A57</f>
+        <v>Company 56</v>
+      </c>
+      <c r="B57" t="str">
+        <f>Tracker!B57</f>
+        <v>Title 56</v>
+      </c>
+      <c r="C57" t="str">
+        <f>Tracker!F57</f>
+        <v>Pending</v>
+      </c>
+      <c r="D57">
+        <f ca="1">(Tracker!G57+Tracker!H57)/2</f>
+        <v>89.5</v>
+      </c>
+      <c r="E57" s="34">
+        <f>IF(OR(Tracker!F57="denied",Tracker!F57="on hold",Tracker!F57="No Response",Tracker!F57="pending"), 0.2, IF(Tracker!F57="interviewing", 0.4, IF(Tracker!F57="rejected", 0.3, IF(Tracker!F57="offer", 1, 0))))</f>
+        <v>0.2</v>
+      </c>
+      <c r="F57" s="35">
+        <f>IF(OR(Tracker!I57="linkedin", Tracker!I57="Indeed", Tracker!I57="linkedin dm"), 0.9, IF(Tracker!I57="Company Site", 1.1, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="G57" s="35">
+        <f>IF(OR(Tracker!D57="analyst", Tracker!D57="project manager", Tracker!D57="consultant"), 1.1, IF(Tracker!D57="Product Manager", 0.9, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="H57" s="34">
+        <v>42.95</v>
+      </c>
+      <c r="I57" s="35">
+        <f>10-(0.5*Tracker!J57)</f>
+        <v>10</v>
+      </c>
+      <c r="J57">
+        <f t="shared" ca="1" si="5"/>
+        <v>112.62075</v>
+      </c>
+      <c r="K57">
+        <f t="shared" ca="1" si="6"/>
+        <v>74.880500000000012</v>
+      </c>
+      <c r="M57" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N57">
+        <f t="shared" ca="1" si="8"/>
+        <v>112.62075</v>
+      </c>
+      <c r="O57">
+        <f t="shared" ca="1" si="9"/>
+        <v>74.880500000000012</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A58" t="str">
+        <f>Tracker!A58</f>
+        <v>Company 57</v>
+      </c>
+      <c r="B58" t="str">
+        <f>Tracker!B58</f>
+        <v>Title 57</v>
+      </c>
+      <c r="C58" t="str">
+        <f>Tracker!F58</f>
+        <v>Pending</v>
+      </c>
+      <c r="D58">
+        <f ca="1">(Tracker!G58+Tracker!H58)/2</f>
+        <v>103.5</v>
+      </c>
+      <c r="E58" s="34">
+        <f>IF(OR(Tracker!F58="denied",Tracker!F58="on hold",Tracker!F58="No Response",Tracker!F58="pending"), 0.2, IF(Tracker!F58="interviewing", 0.4, IF(Tracker!F58="rejected", 0.3, IF(Tracker!F58="offer", 1, 0))))</f>
+        <v>0.2</v>
+      </c>
+      <c r="F58" s="35">
+        <f>IF(OR(Tracker!I58="linkedin", Tracker!I58="Indeed", Tracker!I58="linkedin dm"), 0.9, IF(Tracker!I58="Company Site", 1.1, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="G58" s="35">
+        <f>IF(OR(Tracker!D58="analyst", Tracker!D58="project manager", Tracker!D58="consultant"), 1.1, IF(Tracker!D58="Product Manager", 0.9, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="H58" s="34">
+        <v>43.95</v>
+      </c>
+      <c r="I58" s="35">
+        <f>10-(0.5*Tracker!J58)</f>
+        <v>10</v>
+      </c>
+      <c r="J58">
+        <f t="shared" ca="1" si="5"/>
+        <v>133.76475000000002</v>
+      </c>
+      <c r="K58">
+        <f t="shared" ca="1" si="6"/>
+        <v>88.976500000000016</v>
+      </c>
+      <c r="M58" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N58">
+        <f t="shared" ca="1" si="8"/>
+        <v>133.76475000000002</v>
+      </c>
+      <c r="O58">
+        <f t="shared" ca="1" si="9"/>
+        <v>88.976500000000016</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A59" t="str">
+        <f>Tracker!A59</f>
+        <v>Company 58</v>
+      </c>
+      <c r="B59" t="str">
+        <f>Tracker!B59</f>
+        <v>Title 58</v>
+      </c>
+      <c r="C59" t="str">
+        <f>Tracker!F59</f>
+        <v>Pending</v>
+      </c>
+      <c r="D59">
+        <f ca="1">(Tracker!G59+Tracker!H59)/2</f>
+        <v>112.5</v>
+      </c>
+      <c r="E59" s="34">
+        <f>IF(OR(Tracker!F59="denied",Tracker!F59="on hold",Tracker!F59="No Response",Tracker!F59="pending"), 0.2, IF(Tracker!F59="interviewing", 0.4, IF(Tracker!F59="rejected", 0.3, IF(Tracker!F59="offer", 1, 0))))</f>
+        <v>0.2</v>
+      </c>
+      <c r="F59" s="35">
+        <f>IF(OR(Tracker!I59="linkedin", Tracker!I59="Indeed", Tracker!I59="linkedin dm"), 0.9, IF(Tracker!I59="Company Site", 1.1, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="G59" s="35">
+        <f>IF(OR(Tracker!D59="analyst", Tracker!D59="project manager", Tracker!D59="consultant"), 1.1, IF(Tracker!D59="Product Manager", 0.9, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="H59" s="34">
+        <v>44.95</v>
+      </c>
+      <c r="I59" s="35">
+        <f>10-(0.5*Tracker!J59)</f>
+        <v>10</v>
+      </c>
+      <c r="J59">
+        <f t="shared" ca="1" si="5"/>
+        <v>149.00625000000002</v>
+      </c>
+      <c r="K59">
+        <f t="shared" ca="1" si="6"/>
+        <v>99.137500000000017</v>
+      </c>
+      <c r="M59" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N59">
+        <f t="shared" ca="1" si="8"/>
+        <v>149.00625000000002</v>
+      </c>
+      <c r="O59">
+        <f t="shared" ca="1" si="9"/>
+        <v>99.137500000000017</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A60" t="str">
+        <f>Tracker!A60</f>
+        <v>Company 59</v>
+      </c>
+      <c r="B60" t="str">
+        <f>Tracker!B60</f>
+        <v>Title 59</v>
+      </c>
+      <c r="C60" t="str">
+        <f>Tracker!F60</f>
+        <v>Denied</v>
+      </c>
+      <c r="D60">
+        <f ca="1">(Tracker!G60+Tracker!H60)/2</f>
+        <v>97.5</v>
+      </c>
+      <c r="E60" s="34">
+        <f>IF(OR(Tracker!F60="denied",Tracker!F60="on hold",Tracker!F60="No Response",Tracker!F60="pending"), 0.2, IF(Tracker!F60="interviewing", 0.4, IF(Tracker!F60="rejected", 0.3, IF(Tracker!F60="offer", 1, 0))))</f>
+        <v>0.2</v>
+      </c>
+      <c r="F60" s="35">
+        <f>IF(OR(Tracker!I60="linkedin", Tracker!I60="Indeed", Tracker!I60="linkedin dm"), 0.9, IF(Tracker!I60="Company Site", 1.1, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="G60" s="35">
+        <f>IF(OR(Tracker!D60="analyst", Tracker!D60="project manager", Tracker!D60="consultant"), 1.1, IF(Tracker!D60="Product Manager", 0.9, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="H60" s="34">
+        <v>45.95</v>
+      </c>
+      <c r="I60" s="35">
+        <f>10-(0.5*Tracker!J60)</f>
+        <v>10</v>
+      </c>
+      <c r="J60">
+        <f t="shared" ca="1" si="5"/>
+        <v>131.70375000000001</v>
+      </c>
+      <c r="K60">
+        <f t="shared" ca="1" si="6"/>
+        <v>87.602500000000006</v>
+      </c>
+      <c r="M60" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N60">
+        <f t="shared" ca="1" si="8"/>
+        <v>131.70375000000001</v>
+      </c>
+      <c r="O60">
+        <f t="shared" ca="1" si="9"/>
+        <v>87.602500000000006</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A61" t="str">
+        <f>Tracker!A61</f>
+        <v>Company 60</v>
+      </c>
+      <c r="B61" t="str">
+        <f>Tracker!B61</f>
+        <v>Title 60</v>
+      </c>
+      <c r="C61" t="str">
+        <f>Tracker!F61</f>
+        <v>Denied</v>
+      </c>
+      <c r="D61">
+        <f ca="1">(Tracker!G61+Tracker!H61)/2</f>
+        <v>91.5</v>
+      </c>
+      <c r="E61" s="34">
+        <f>IF(OR(Tracker!F61="denied",Tracker!F61="on hold",Tracker!F61="No Response",Tracker!F61="pending"), 0.2, IF(Tracker!F61="interviewing", 0.4, IF(Tracker!F61="rejected", 0.3, IF(Tracker!F61="offer", 1, 0))))</f>
+        <v>0.2</v>
+      </c>
+      <c r="F61" s="35">
+        <f>IF(OR(Tracker!I61="linkedin", Tracker!I61="Indeed", Tracker!I61="linkedin dm"), 0.9, IF(Tracker!I61="Company Site", 1.1, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="G61" s="35">
+        <f>IF(OR(Tracker!D61="analyst", Tracker!D61="project manager", Tracker!D61="consultant"), 1.1, IF(Tracker!D61="Product Manager", 0.9, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="H61" s="34">
+        <v>46.95</v>
+      </c>
+      <c r="I61" s="35">
+        <f>10-(0.5*Tracker!J61)</f>
+        <v>10</v>
+      </c>
+      <c r="J61">
+        <f t="shared" ca="1" si="5"/>
+        <v>126.17775000000002</v>
+      </c>
+      <c r="K61">
+        <f t="shared" ca="1" si="6"/>
+        <v>83.918500000000009</v>
+      </c>
+      <c r="M61" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N61">
+        <f t="shared" ca="1" si="8"/>
+        <v>126.17775000000002</v>
+      </c>
+      <c r="O61">
+        <f t="shared" ca="1" si="9"/>
+        <v>83.918500000000009</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A62" t="str">
+        <f>Tracker!A62</f>
+        <v>Company 61</v>
+      </c>
+      <c r="B62" t="str">
+        <f>Tracker!B62</f>
+        <v>Title 61</v>
+      </c>
+      <c r="C62" t="str">
+        <f>Tracker!F62</f>
+        <v>Denied</v>
+      </c>
+      <c r="D62">
+        <f ca="1">(Tracker!G62+Tracker!H62)/2</f>
+        <v>85.5</v>
+      </c>
+      <c r="E62" s="34">
+        <f>IF(OR(Tracker!F62="denied",Tracker!F62="on hold",Tracker!F62="No Response",Tracker!F62="pending"), 0.2, IF(Tracker!F62="interviewing", 0.4, IF(Tracker!F62="rejected", 0.3, IF(Tracker!F62="offer", 1, 0))))</f>
+        <v>0.2</v>
+      </c>
+      <c r="F62" s="35">
+        <f>IF(OR(Tracker!I62="linkedin", Tracker!I62="Indeed", Tracker!I62="linkedin dm"), 0.9, IF(Tracker!I62="Company Site", 1.1, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="G62" s="35">
+        <f>IF(OR(Tracker!D62="analyst", Tracker!D62="project manager", Tracker!D62="consultant"), 1.1, IF(Tracker!D62="Product Manager", 0.9, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="H62" s="34">
+        <v>47.95</v>
+      </c>
+      <c r="I62" s="35">
+        <f>10-(0.5*Tracker!J62)</f>
+        <v>10</v>
+      </c>
+      <c r="J62">
+        <f t="shared" ca="1" si="5"/>
+        <v>120.29174999999999</v>
+      </c>
+      <c r="K62">
+        <f t="shared" ca="1" si="6"/>
+        <v>79.994500000000016</v>
+      </c>
+      <c r="M62" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N62">
+        <f t="shared" ca="1" si="8"/>
+        <v>120.29174999999999</v>
+      </c>
+      <c r="O62">
+        <f t="shared" ca="1" si="9"/>
+        <v>79.994500000000016</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A63" t="str">
+        <f>Tracker!A63</f>
+        <v>Company 62</v>
+      </c>
+      <c r="B63" t="str">
+        <f>Tracker!B63</f>
+        <v>Title 62</v>
+      </c>
+      <c r="C63" t="str">
+        <f>Tracker!F63</f>
+        <v>On Hold</v>
+      </c>
+      <c r="D63">
+        <f ca="1">(Tracker!G63+Tracker!H63)/2</f>
+        <v>82.5</v>
+      </c>
+      <c r="E63" s="34">
+        <f>IF(OR(Tracker!F63="denied",Tracker!F63="on hold",Tracker!F63="No Response",Tracker!F63="pending"), 0.2, IF(Tracker!F63="interviewing", 0.4, IF(Tracker!F63="rejected", 0.3, IF(Tracker!F63="offer", 1, 0))))</f>
+        <v>0.2</v>
+      </c>
+      <c r="F63" s="35">
+        <f>IF(OR(Tracker!I63="linkedin", Tracker!I63="Indeed", Tracker!I63="linkedin dm"), 0.9, IF(Tracker!I63="Company Site", 1.1, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="G63" s="35">
+        <f>IF(OR(Tracker!D63="analyst", Tracker!D63="project manager", Tracker!D63="consultant"), 1.1, IF(Tracker!D63="Product Manager", 0.9, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="H63" s="34">
+        <v>48.95</v>
+      </c>
+      <c r="I63" s="35">
+        <f>10-(0.5*Tracker!J63)</f>
+        <v>10</v>
+      </c>
+      <c r="J63">
+        <f t="shared" ca="1" si="5"/>
+        <v>118.45125</v>
+      </c>
+      <c r="K63">
+        <f t="shared" ca="1" si="6"/>
+        <v>78.767500000000013</v>
+      </c>
+      <c r="M63" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N63">
+        <f t="shared" ca="1" si="8"/>
+        <v>118.45125</v>
+      </c>
+      <c r="O63">
+        <f t="shared" ca="1" si="9"/>
+        <v>78.767500000000013</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A64" t="str">
+        <f>Tracker!A64</f>
+        <v>Company 63</v>
+      </c>
+      <c r="B64" t="str">
+        <f>Tracker!B64</f>
+        <v>Title 63</v>
+      </c>
+      <c r="C64" t="str">
+        <f>Tracker!F64</f>
+        <v>Pending</v>
+      </c>
+      <c r="D64">
+        <f ca="1">(Tracker!G64+Tracker!H64)/2</f>
+        <v>89.5</v>
+      </c>
+      <c r="E64" s="34">
+        <f>IF(OR(Tracker!F64="denied",Tracker!F64="on hold",Tracker!F64="No Response",Tracker!F64="pending"), 0.2, IF(Tracker!F64="interviewing", 0.4, IF(Tracker!F64="rejected", 0.3, IF(Tracker!F64="offer", 1, 0))))</f>
+        <v>0.2</v>
+      </c>
+      <c r="F64" s="35">
+        <f>IF(OR(Tracker!I64="linkedin", Tracker!I64="Indeed", Tracker!I64="linkedin dm"), 0.9, IF(Tracker!I64="Company Site", 1.1, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="G64" s="35">
+        <f>IF(OR(Tracker!D64="analyst", Tracker!D64="project manager", Tracker!D64="consultant"), 1.1, IF(Tracker!D64="Product Manager", 0.9, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="H64" s="34">
+        <v>49.95</v>
+      </c>
+      <c r="I64" s="35">
+        <f>10-(0.5*Tracker!J64)</f>
+        <v>10</v>
+      </c>
+      <c r="J64">
+        <f t="shared" ca="1" si="5"/>
+        <v>131.41575</v>
+      </c>
+      <c r="K64">
+        <f t="shared" ca="1" si="6"/>
+        <v>87.410500000000013</v>
+      </c>
+      <c r="M64" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N64">
+        <f t="shared" ca="1" si="8"/>
+        <v>131.41575</v>
+      </c>
+      <c r="O64">
+        <f t="shared" ca="1" si="9"/>
+        <v>87.410500000000013</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A65" t="str">
+        <f>Tracker!A65</f>
+        <v>Company 64</v>
+      </c>
+      <c r="B65" t="str">
+        <f>Tracker!B65</f>
+        <v>Title 64</v>
+      </c>
+      <c r="C65" t="str">
+        <f>Tracker!F65</f>
+        <v>Pending</v>
+      </c>
+      <c r="D65">
+        <f ca="1">(Tracker!G65+Tracker!H65)/2</f>
+        <v>97</v>
+      </c>
+      <c r="E65" s="34">
+        <f>IF(OR(Tracker!F65="denied",Tracker!F65="on hold",Tracker!F65="No Response",Tracker!F65="pending"), 0.2, IF(Tracker!F65="interviewing", 0.4, IF(Tracker!F65="rejected", 0.3, IF(Tracker!F65="offer", 1, 0))))</f>
+        <v>0.2</v>
+      </c>
+      <c r="F65" s="35">
+        <f>IF(OR(Tracker!I65="linkedin", Tracker!I65="Indeed", Tracker!I65="linkedin dm"), 0.9, IF(Tracker!I65="Company Site", 1.1, 1))</f>
+        <v>1</v>
+      </c>
+      <c r="G65" s="35">
+        <f>IF(OR(Tracker!D65="analyst", Tracker!D65="project manager", Tracker!D65="consultant"), 1.1, IF(Tracker!D65="Product Manager", 0.9, 1))</f>
+        <v>0.9</v>
+      </c>
+      <c r="H65" s="34">
+        <v>50.95</v>
+      </c>
+      <c r="I65" s="35">
+        <f>10-(0.5*Tracker!J65)</f>
+        <v>10</v>
+      </c>
+      <c r="J65">
+        <f t="shared" ca="1" si="5"/>
+        <v>130.73805000000002</v>
+      </c>
+      <c r="K65">
+        <f t="shared" ca="1" si="6"/>
+        <v>86.958700000000007</v>
+      </c>
+      <c r="M65" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N65">
+        <f t="shared" ca="1" si="8"/>
+        <v>130.73805000000002</v>
+      </c>
+      <c r="O65">
+        <f t="shared" ca="1" si="9"/>
+        <v>86.958700000000007</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A66" t="str">
+        <f>Tracker!A66</f>
+        <v>Company 65</v>
+      </c>
+      <c r="B66" t="str">
+        <f>Tracker!B66</f>
+        <v>Title 65</v>
+      </c>
+      <c r="C66" t="str">
+        <f>Tracker!F66</f>
+        <v>No Response</v>
+      </c>
+      <c r="D66">
+        <f ca="1">(Tracker!G66+Tracker!H66)/2</f>
+        <v>102</v>
+      </c>
+      <c r="E66" s="34">
+        <f>IF(OR(Tracker!F66="denied",Tracker!F66="on hold",Tracker!F66="No Response",Tracker!F66="pending"), 0.2, IF(Tracker!F66="interviewing", 0.4, IF(Tracker!F66="rejected", 0.3, IF(Tracker!F66="offer", 1, 0))))</f>
+        <v>0.2</v>
+      </c>
+      <c r="F66" s="35">
+        <f>IF(OR(Tracker!I66="linkedin", Tracker!I66="Indeed", Tracker!I66="linkedin dm"), 0.9, IF(Tracker!I66="Company Site", 1.1, 1))</f>
+        <v>0.9</v>
+      </c>
+      <c r="G66" s="35">
+        <f>IF(OR(Tracker!D66="analyst", Tracker!D66="project manager", Tracker!D66="consultant"), 1.1, IF(Tracker!D66="Product Manager", 0.9, 1))</f>
+        <v>0.9</v>
+      </c>
+      <c r="H66" s="34">
+        <v>51.95</v>
+      </c>
+      <c r="I66" s="35">
+        <f>10-(0.5*Tracker!J66)</f>
+        <v>7</v>
+      </c>
+      <c r="J66">
+        <f t="shared" ca="1" si="5"/>
+        <v>140.37030000000001</v>
+      </c>
+      <c r="K66">
+        <f t="shared" ca="1" si="6"/>
+        <v>149.39714285714291</v>
+      </c>
+      <c r="M66" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N66">
+        <f t="shared" ca="1" si="8"/>
+        <v>140.37030000000001</v>
+      </c>
+      <c r="O66">
+        <f t="shared" ca="1" si="9"/>
+        <v>149.39714285714291</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A67" t="str">
+        <f>Tracker!A67</f>
+        <v>Company 66</v>
+      </c>
+      <c r="B67" t="str">
+        <f>Tracker!B67</f>
+        <v>Title 66</v>
+      </c>
+      <c r="C67" t="str">
+        <f>Tracker!F67</f>
+        <v>No Response</v>
+      </c>
+      <c r="D67">
+        <f ca="1">(Tracker!G67+Tracker!H67)/2</f>
+        <v>107</v>
+      </c>
+      <c r="E67" s="34">
+        <f>IF(OR(Tracker!F67="denied",Tracker!F67="on hold",Tracker!F67="No Response",Tracker!F67="pending"), 0.2, IF(Tracker!F67="interviewing", 0.4, IF(Tracker!F67="rejected", 0.3, IF(Tracker!F67="offer", 1, 0))))</f>
+        <v>0.2</v>
+      </c>
+      <c r="F67" s="35">
+        <f>IF(OR(Tracker!I67="linkedin", Tracker!I67="Indeed", Tracker!I67="linkedin dm"), 0.9, IF(Tracker!I67="Company Site", 1.1, 1))</f>
+        <v>0.9</v>
+      </c>
+      <c r="G67" s="35">
+        <f>IF(OR(Tracker!D67="analyst", Tracker!D67="project manager", Tracker!D67="consultant"), 1.1, IF(Tracker!D67="Product Manager", 0.9, 1))</f>
+        <v>0.9</v>
+      </c>
+      <c r="H67" s="34">
+        <v>52.95</v>
+      </c>
+      <c r="I67" s="35">
+        <f>10-(0.5*Tracker!J67)</f>
+        <v>10</v>
+      </c>
+      <c r="J67">
+        <f t="shared" ca="1" si="5"/>
+        <v>150.27255000000002</v>
+      </c>
+      <c r="K67">
+        <f t="shared" ca="1" si="6"/>
+        <v>111.31300000000002</v>
+      </c>
+      <c r="M67" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N67">
+        <f t="shared" ca="1" si="8"/>
+        <v>150.27255000000002</v>
+      </c>
+      <c r="O67">
+        <f t="shared" ca="1" si="9"/>
+        <v>111.31300000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A68" t="str">
+        <f>Tracker!A68</f>
+        <v>Company 67</v>
+      </c>
+      <c r="B68" t="str">
+        <f>Tracker!B68</f>
+        <v>Title 67</v>
+      </c>
+      <c r="C68" t="str">
+        <f>Tracker!F68</f>
+        <v>No Response</v>
+      </c>
+      <c r="D68">
+        <f ca="1">(Tracker!G68+Tracker!H68)/2</f>
+        <v>103.5</v>
+      </c>
+      <c r="E68" s="34">
+        <f>IF(OR(Tracker!F68="denied",Tracker!F68="on hold",Tracker!F68="No Response",Tracker!F68="pending"), 0.2, IF(Tracker!F68="interviewing", 0.4, IF(Tracker!F68="rejected", 0.3, IF(Tracker!F68="offer", 1, 0))))</f>
+        <v>0.2</v>
+      </c>
+      <c r="F68" s="35">
+        <f>IF(OR(Tracker!I68="linkedin", Tracker!I68="Indeed", Tracker!I68="linkedin dm"), 0.9, IF(Tracker!I68="Company Site", 1.1, 1))</f>
+        <v>0.9</v>
+      </c>
+      <c r="G68" s="35">
+        <f>IF(OR(Tracker!D68="analyst", Tracker!D68="project manager", Tracker!D68="consultant"), 1.1, IF(Tracker!D68="Product Manager", 0.9, 1))</f>
+        <v>0.9</v>
+      </c>
+      <c r="H68" s="34">
+        <v>53.95</v>
+      </c>
+      <c r="I68" s="35">
+        <f>10-(0.5*Tracker!J68)</f>
+        <v>10</v>
+      </c>
+      <c r="J68">
+        <f t="shared" ca="1" si="5"/>
+        <v>148.063275</v>
+      </c>
+      <c r="K68">
+        <f t="shared" ca="1" si="6"/>
+        <v>109.67650000000002</v>
+      </c>
+      <c r="M68" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N68">
+        <f t="shared" ca="1" si="8"/>
+        <v>148.063275</v>
+      </c>
+      <c r="O68">
+        <f t="shared" ca="1" si="9"/>
+        <v>109.67650000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A69" t="str">
+        <f>Tracker!A69</f>
+        <v>Company 68</v>
+      </c>
+      <c r="B69" t="str">
+        <f>Tracker!B69</f>
+        <v>Title 68</v>
+      </c>
+      <c r="C69" t="str">
+        <f>Tracker!F69</f>
+        <v>No Response</v>
+      </c>
+      <c r="D69">
+        <f ca="1">(Tracker!G69+Tracker!H69)/2</f>
+        <v>84.5</v>
+      </c>
+      <c r="E69" s="34">
+        <f>IF(OR(Tracker!F69="denied",Tracker!F69="on hold",Tracker!F69="No Response",Tracker!F69="pending"), 0.2, IF(Tracker!F69="interviewing", 0.4, IF(Tracker!F69="rejected", 0.3, IF(Tracker!F69="offer", 1, 0))))</f>
+        <v>0.2</v>
+      </c>
+      <c r="F69" s="35">
+        <f>IF(OR(Tracker!I69="linkedin", Tracker!I69="Indeed", Tracker!I69="linkedin dm"), 0.9, IF(Tracker!I69="Company Site", 1.1, 1))</f>
+        <v>0.9</v>
+      </c>
+      <c r="G69" s="35">
+        <f>IF(OR(Tracker!D69="analyst", Tracker!D69="project manager", Tracker!D69="consultant"), 1.1, IF(Tracker!D69="Product Manager", 0.9, 1))</f>
+        <v>0.9</v>
+      </c>
+      <c r="H69" s="34">
+        <v>54.95</v>
+      </c>
+      <c r="I69" s="35">
+        <f>10-(0.5*Tracker!J69)</f>
+        <v>10</v>
+      </c>
+      <c r="J69">
+        <f t="shared" ca="1" si="5"/>
+        <v>122.668425</v>
+      </c>
+      <c r="K69">
+        <f t="shared" ca="1" si="6"/>
+        <v>90.865500000000026</v>
+      </c>
+      <c r="M69" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N69">
+        <f t="shared" ca="1" si="8"/>
+        <v>122.668425</v>
+      </c>
+      <c r="O69">
+        <f t="shared" ca="1" si="9"/>
+        <v>90.865500000000026</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A70" t="str">
+        <f>Tracker!A70</f>
+        <v>Company 69</v>
+      </c>
+      <c r="B70" t="str">
+        <f>Tracker!B70</f>
+        <v>Title 69</v>
+      </c>
+      <c r="C70" t="str">
+        <f>Tracker!F70</f>
+        <v>No Response</v>
+      </c>
+      <c r="D70">
+        <f ca="1">(Tracker!G70+Tracker!H70)/2</f>
+        <v>104</v>
+      </c>
+      <c r="E70" s="34">
+        <f>IF(OR(Tracker!F70="denied",Tracker!F70="on hold",Tracker!F70="No Response",Tracker!F70="pending"), 0.2, IF(Tracker!F70="interviewing", 0.4, IF(Tracker!F70="rejected", 0.3, IF(Tracker!F70="offer", 1, 0))))</f>
+        <v>0.2</v>
+      </c>
+      <c r="F70" s="35">
+        <f>IF(OR(Tracker!I70="linkedin", Tracker!I70="Indeed", Tracker!I70="linkedin dm"), 0.9, IF(Tracker!I70="Company Site", 1.1, 1))</f>
+        <v>0.9</v>
+      </c>
+      <c r="G70" s="35">
+        <f>IF(OR(Tracker!D70="analyst", Tracker!D70="project manager", Tracker!D70="consultant"), 1.1, IF(Tracker!D70="Product Manager", 0.9, 1))</f>
+        <v>0.9</v>
+      </c>
+      <c r="H70" s="34">
+        <v>55.95</v>
+      </c>
+      <c r="I70" s="35">
+        <f>10-(0.5*Tracker!J70)</f>
+        <v>10</v>
+      </c>
+      <c r="J70">
+        <f t="shared" ca="1" si="5"/>
+        <v>154.4076</v>
+      </c>
+      <c r="K70">
+        <f t="shared" ca="1" si="6"/>
+        <v>114.37600000000003</v>
+      </c>
+      <c r="M70" t="e">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N70">
+        <f t="shared" ca="1" si="8"/>
+        <v>154.4076</v>
+      </c>
+      <c r="O70">
+        <f t="shared" ca="1" si="9"/>
+        <v>114.37600000000003</v>
       </c>
     </row>
   </sheetData>
@@ -9014,64 +15056,64 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="41" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/example_app_tracker.xlsx
+++ b/example_app_tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\graha\OneDrive\Documents\GitHub\application_tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC65E256-C72D-4D4E-9FA3-5863D6AD00B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03A4572-5E40-424A-A2C0-B84A4D994AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17140" yWindow="4230" windowWidth="20200" windowHeight="15960" xr2:uid="{85E7A6A4-6F22-48D9-815F-FC03736B7AC4}"/>
+    <workbookView xWindow="17140" yWindow="4230" windowWidth="20200" windowHeight="15960" activeTab="3" xr2:uid="{85E7A6A4-6F22-48D9-815F-FC03736B7AC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
@@ -6834,8 +6834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2050F9-523E-4C88-ABEB-54BB5869DFA0}">
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
@@ -6910,11 +6910,11 @@
       </c>
       <c r="G2">
         <f ca="1">ROUND(RAND()*60+50,0)</f>
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H2">
         <f ca="1">ROUND(RAND()*40+100,0)</f>
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>11</v>
@@ -6948,11 +6948,11 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G66" ca="1" si="1">ROUND(RAND()*60+50,0)</f>
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H66" ca="1" si="2">ROUND(RAND()*40+100,0)</f>
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>11</v>
@@ -6986,11 +6986,11 @@
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="2"/>
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>11</v>
@@ -7024,11 +7024,11 @@
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="2"/>
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>10</v>
@@ -7062,11 +7062,11 @@
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="2"/>
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>11</v>
@@ -7100,11 +7100,11 @@
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="1"/>
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="2"/>
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>11</v>
@@ -7138,11 +7138,11 @@
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="2"/>
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>11</v>
@@ -7176,11 +7176,11 @@
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="2"/>
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>11</v>
@@ -7214,11 +7214,11 @@
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="2"/>
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>13</v>
@@ -7252,11 +7252,11 @@
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="1"/>
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="2"/>
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>11</v>
@@ -7290,11 +7290,11 @@
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="2"/>
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>11</v>
@@ -7328,11 +7328,11 @@
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="2"/>
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>10</v>
@@ -7366,11 +7366,11 @@
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="2"/>
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>10</v>
@@ -7404,11 +7404,11 @@
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="1"/>
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="2"/>
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>10</v>
@@ -7442,11 +7442,11 @@
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="2"/>
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>15</v>
@@ -7480,7 +7480,7 @@
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="2"/>
@@ -7518,11 +7518,11 @@
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="2"/>
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>15</v>
@@ -7556,11 +7556,11 @@
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="2"/>
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>15</v>
@@ -7594,11 +7594,11 @@
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="2"/>
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>15</v>
@@ -7632,11 +7632,11 @@
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="2"/>
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>239</v>
@@ -7670,7 +7670,7 @@
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="1"/>
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="2"/>
@@ -7712,7 +7712,7 @@
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="2"/>
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>239</v>
@@ -7746,11 +7746,11 @@
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="2"/>
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>9</v>
@@ -7784,11 +7784,11 @@
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="2"/>
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>9</v>
@@ -7822,11 +7822,11 @@
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="1"/>
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="2"/>
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>9</v>
@@ -7860,11 +7860,11 @@
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="2"/>
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>9</v>
@@ -7898,11 +7898,11 @@
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="2"/>
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>9</v>
@@ -7936,11 +7936,11 @@
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="1"/>
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="2"/>
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>9</v>
@@ -7974,7 +7974,7 @@
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="2"/>
@@ -8012,11 +8012,11 @@
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="2"/>
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>9</v>
@@ -8050,11 +8050,11 @@
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="1"/>
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="2"/>
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>15</v>
@@ -8088,11 +8088,11 @@
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="2"/>
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>17</v>
@@ -8126,11 +8126,11 @@
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="2"/>
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>17</v>
@@ -8164,11 +8164,11 @@
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="2"/>
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>17</v>
@@ -8202,11 +8202,11 @@
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="2"/>
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>17</v>
@@ -8240,11 +8240,11 @@
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="2"/>
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>19</v>
@@ -8278,11 +8278,11 @@
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="2"/>
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>19</v>
@@ -8316,11 +8316,11 @@
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="1"/>
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="2"/>
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>19</v>
@@ -8354,11 +8354,11 @@
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="1"/>
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="2"/>
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>19</v>
@@ -8392,11 +8392,11 @@
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="2"/>
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>19</v>
@@ -8430,11 +8430,11 @@
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="2"/>
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>19</v>
@@ -8468,7 +8468,7 @@
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="2"/>
@@ -8506,11 +8506,11 @@
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="2"/>
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>21</v>
@@ -8544,11 +8544,11 @@
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="2"/>
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>21</v>
@@ -8582,11 +8582,11 @@
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="1"/>
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="2"/>
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>21</v>
@@ -8620,11 +8620,11 @@
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="2"/>
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>21</v>
@@ -8662,7 +8662,7 @@
       </c>
       <c r="H48">
         <f t="shared" ca="1" si="2"/>
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>21</v>
@@ -8696,11 +8696,11 @@
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="2"/>
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>21</v>
@@ -8734,11 +8734,11 @@
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="1"/>
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="2"/>
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>21</v>
@@ -8772,11 +8772,11 @@
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="2"/>
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>39</v>
@@ -8810,11 +8810,11 @@
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="H52">
         <f t="shared" ca="1" si="2"/>
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>39</v>
@@ -8848,11 +8848,11 @@
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H53">
         <f t="shared" ca="1" si="2"/>
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>39</v>
@@ -8886,11 +8886,11 @@
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="2"/>
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>39</v>
@@ -8924,11 +8924,11 @@
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="2"/>
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>39</v>
@@ -8962,11 +8962,11 @@
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="1"/>
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="H56">
         <f t="shared" ca="1" si="2"/>
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>39</v>
@@ -9000,11 +9000,11 @@
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="H57">
         <f t="shared" ca="1" si="2"/>
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>39</v>
@@ -9042,7 +9042,7 @@
       </c>
       <c r="H58">
         <f t="shared" ca="1" si="2"/>
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>39</v>
@@ -9076,11 +9076,11 @@
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="H59">
         <f t="shared" ca="1" si="2"/>
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>39</v>
@@ -9114,11 +9114,11 @@
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="H60">
         <f t="shared" ca="1" si="2"/>
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>40</v>
@@ -9152,11 +9152,11 @@
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="H61">
         <f t="shared" ca="1" si="2"/>
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>40</v>
@@ -9190,11 +9190,11 @@
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="H62">
         <f t="shared" ca="1" si="2"/>
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>40</v>
@@ -9228,11 +9228,11 @@
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="H63">
         <f t="shared" ca="1" si="2"/>
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>40</v>
@@ -9266,11 +9266,11 @@
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="H64">
         <f t="shared" ca="1" si="2"/>
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>40</v>
@@ -9304,11 +9304,11 @@
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="H65">
         <f t="shared" ca="1" si="2"/>
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>40</v>
@@ -9342,11 +9342,11 @@
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H66">
         <f t="shared" ca="1" si="2"/>
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>11</v>
@@ -9380,11 +9380,11 @@
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G75" ca="1" si="5">ROUND(RAND()*60+50,0)</f>
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="H67">
         <f t="shared" ref="H67:H75" ca="1" si="6">ROUND(RAND()*40+100,0)</f>
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>11</v>
@@ -9418,11 +9418,11 @@
       </c>
       <c r="G68">
         <f t="shared" ca="1" si="5"/>
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="H68">
         <f t="shared" ca="1" si="6"/>
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>11</v>
@@ -9456,11 +9456,11 @@
       </c>
       <c r="G69">
         <f t="shared" ca="1" si="5"/>
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="H69">
         <f t="shared" ca="1" si="6"/>
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>11</v>
@@ -9494,11 +9494,11 @@
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="H70">
         <f t="shared" ca="1" si="6"/>
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>11</v>
@@ -9532,7 +9532,7 @@
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="5"/>
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="H71">
         <f t="shared" ca="1" si="6"/>
@@ -9570,11 +9570,11 @@
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="H72">
         <f t="shared" ca="1" si="6"/>
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>9</v>
@@ -9608,11 +9608,11 @@
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="5"/>
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H73">
         <f t="shared" ca="1" si="6"/>
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>9</v>
@@ -9646,11 +9646,11 @@
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="5"/>
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H74">
         <f t="shared" ca="1" si="6"/>
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>9</v>
@@ -9684,11 +9684,11 @@
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="H75">
         <f t="shared" ca="1" si="6"/>
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>9</v>
@@ -9737,7 +9737,7 @@
       <formula>NOT(ISERROR(SEARCH("On",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1048576 F1:I1048576">
+  <conditionalFormatting sqref="F1:I1048576 K1:K1048576">
     <cfRule type="containsText" dxfId="7" priority="14" operator="containsText" text="Ended">
       <formula>NOT(ISERROR(SEARCH("Ended",F1)))</formula>
     </cfRule>
@@ -9748,7 +9748,7 @@
       <formula>NOT(ISERROR(SEARCH("Interv",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1048576 E1:E1048576 I1:I1048576">
+  <conditionalFormatting sqref="I1:I1048576 K1:K1048576 E1:E1048576">
     <cfRule type="beginsWith" dxfId="4" priority="15" operator="beginsWith" text="?">
       <formula>LEFT(E1,LEN("?"))="?"</formula>
     </cfRule>
@@ -10007,12 +10007,12 @@
       </c>
       <c r="L6" s="38">
         <f ca="1">AVERAGE(Tracker!G2:G719)</f>
-        <v>81.351351351351354</v>
+        <v>80.878378378378372</v>
       </c>
       <c r="M6" s="38"/>
       <c r="N6" s="39">
         <f ca="1">AVERAGE(Tracker!H2:H719)</f>
-        <v>120.64864864864865</v>
+        <v>120.28378378378379</v>
       </c>
       <c r="Q6" s="18"/>
       <c r="R6" s="13"/>
@@ -10038,7 +10038,7 @@
       </c>
       <c r="L7" s="28">
         <f ca="1">(SUM(Tracker!G2:G719)+SUM(Tracker!H2:H721))/(COUNTA(Tracker!G2:G721)*2)</f>
-        <v>101</v>
+        <v>100.58108108108108</v>
       </c>
       <c r="M7" s="28"/>
       <c r="N7" s="21"/>
@@ -11036,9 +11036,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70590CAF-D2CD-443E-AE13-8F53684D3C03}">
   <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D69" sqref="D69"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11115,7 +11115,7 @@
       </c>
       <c r="D2">
         <f ca="1">(Tracker!G2+Tracker!H2)/2</f>
-        <v>99.5</v>
+        <v>95.5</v>
       </c>
       <c r="E2" s="34">
         <f>IF(OR(Tracker!F2="denied",Tracker!F2="on hold",Tracker!F2="No Response",Tracker!F2="pending"), 0.2, IF(Tracker!F2="interviewing", 0.4, IF(Tracker!F2="rejected", 0.3, IF(Tracker!F2="offer", 1, 0))))</f>
@@ -11138,11 +11138,11 @@
       </c>
       <c r="J2">
         <f t="shared" ref="J2:J15" ca="1" si="0">IF(D2=0,0,((0.3*D2*G2*H2)/10)-2.7)</f>
-        <v>0.41932499999999973</v>
+        <v>0.29392499999999977</v>
       </c>
       <c r="K2">
         <f t="shared" ref="K2:K15" ca="1" si="1">IF(D2=0, 0,((D2*E2*G2*H2)/(F2*I2)-2))</f>
-        <v>0.43222222222222229</v>
+        <v>0.33444444444444432</v>
       </c>
       <c r="M2" t="e">
         <f ca="1">IF(J2=0, 0, NA())</f>
@@ -11150,11 +11150,11 @@
       </c>
       <c r="N2">
         <f t="shared" ref="N2:N15" ca="1" si="2">IF(J2=0, NA(), J2)</f>
-        <v>0.41932499999999973</v>
+        <v>0.29392499999999977</v>
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O15" ca="1" si="3">IF(K2=0, NA(), K2)</f>
-        <v>0.43222222222222229</v>
+        <v>0.33444444444444432</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
@@ -11172,7 +11172,7 @@
       </c>
       <c r="D3">
         <f ca="1">(Tracker!G3+Tracker!H3)/2</f>
-        <v>88</v>
+        <v>89.5</v>
       </c>
       <c r="E3" s="34">
         <f>IF(OR(Tracker!F3="denied",Tracker!F3="on hold",Tracker!F3="No Response",Tracker!F3="pending"), 0.2, IF(Tracker!F3="interviewing", 0.4, IF(Tracker!F3="rejected", 0.3, IF(Tracker!F3="offer", 1, 0))))</f>
@@ -11195,11 +11195,11 @@
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8799999999999741E-2</v>
+        <v>0.10582499999999939</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6062745098039213</v>
+        <v>1.667745098039215</v>
       </c>
       <c r="M3" t="e">
         <f t="shared" ref="M3:M15" ca="1" si="4">IF(J3=0, 0, NA())</f>
@@ -11207,11 +11207,11 @@
       </c>
       <c r="N3">
         <f t="shared" ca="1" si="2"/>
-        <v>5.8799999999999741E-2</v>
+        <v>0.10582499999999939</v>
       </c>
       <c r="O3">
         <f t="shared" ca="1" si="3"/>
-        <v>1.6062745098039213</v>
+        <v>1.667745098039215</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
@@ -11229,7 +11229,7 @@
       </c>
       <c r="D4">
         <f ca="1">(Tracker!G4+Tracker!H4)/2</f>
-        <v>106</v>
+        <v>92.5</v>
       </c>
       <c r="E4" s="34">
         <f>IF(OR(Tracker!F4="denied",Tracker!F4="on hold",Tracker!F4="No Response",Tracker!F4="pending"), 0.2, IF(Tracker!F4="interviewing", 0.4, IF(Tracker!F4="rejected", 0.3, IF(Tracker!F4="offer", 1, 0))))</f>
@@ -11252,11 +11252,11 @@
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6230999999999991</v>
+        <v>0.19987500000000002</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46155555555555594</v>
+        <v>0.14805555555555561</v>
       </c>
       <c r="M4" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -11264,11 +11264,11 @@
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="2"/>
-        <v>0.6230999999999991</v>
+        <v>0.19987500000000002</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="3"/>
-        <v>0.46155555555555594</v>
+        <v>0.14805555555555561</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
@@ -11286,7 +11286,7 @@
       </c>
       <c r="D5">
         <f ca="1">(Tracker!G5+Tracker!H5)/2</f>
-        <v>100</v>
+        <v>109.5</v>
       </c>
       <c r="E5" s="34">
         <f>IF(OR(Tracker!F5="denied",Tracker!F5="on hold",Tracker!F5="No Response",Tracker!F5="pending"), 0.2, IF(Tracker!F5="interviewing", 0.4, IF(Tracker!F5="rejected", 0.3, IF(Tracker!F5="offer", 1, 0))))</f>
@@ -11309,11 +11309,11 @@
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14999999999999991</v>
+        <v>0.42074999999999996</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>1.2850000000000001</v>
       </c>
       <c r="M5" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -11321,11 +11321,11 @@
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.14999999999999991</v>
+        <v>0.42074999999999996</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>1.2850000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
@@ -11343,7 +11343,7 @@
       </c>
       <c r="D6">
         <f ca="1">(Tracker!G6+Tracker!H6)/2</f>
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="E6" s="34">
         <f>IF(OR(Tracker!F6="denied",Tracker!F6="on hold",Tracker!F6="No Response",Tracker!F6="pending"), 0.2, IF(Tracker!F6="interviewing", 0.4, IF(Tracker!F6="rejected", 0.3, IF(Tracker!F6="offer", 1, 0))))</f>
@@ -11366,11 +11366,11 @@
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59175000000000022</v>
+        <v>0.15285000000000037</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43833333333333346</v>
+        <v>0.11322222222222189</v>
       </c>
       <c r="M6" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -11378,11 +11378,11 @@
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="2"/>
-        <v>0.59175000000000022</v>
+        <v>0.15285000000000037</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43833333333333346</v>
+        <v>0.11322222222222189</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
@@ -11400,7 +11400,7 @@
       </c>
       <c r="D7">
         <f ca="1">(Tracker!G7+Tracker!H7)/2</f>
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E7" s="34">
         <f>IF(OR(Tracker!F7="denied",Tracker!F7="on hold",Tracker!F7="No Response",Tracker!F7="pending"), 0.2, IF(Tracker!F7="interviewing", 0.4, IF(Tracker!F7="rejected", 0.3, IF(Tracker!F7="offer", 1, 0))))</f>
@@ -11423,11 +11423,11 @@
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96795000000000009</v>
+        <v>0.71714999999999929</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86000000000000032</v>
+        <v>0.66444444444444439</v>
       </c>
       <c r="M7" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -11435,11 +11435,11 @@
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.96795000000000009</v>
+        <v>0.71714999999999929</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.86000000000000032</v>
+        <v>0.66444444444444439</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
@@ -11457,7 +11457,7 @@
       </c>
       <c r="D8">
         <f ca="1">(Tracker!G8+Tracker!H8)/2</f>
-        <v>96</v>
+        <v>90.5</v>
       </c>
       <c r="E8" s="34">
         <f>IF(OR(Tracker!F8="denied",Tracker!F8="on hold",Tracker!F8="No Response",Tracker!F8="pending"), 0.2, IF(Tracker!F8="interviewing", 0.4, IF(Tracker!F8="rejected", 0.3, IF(Tracker!F8="offer", 1, 0))))</f>
@@ -11480,11 +11480,11 @@
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30959999999999965</v>
+        <v>0.13717500000000005</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22933333333333383</v>
+        <v>0.10161111111111154</v>
       </c>
       <c r="M8" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -11492,11 +11492,11 @@
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.30959999999999965</v>
+        <v>0.13717500000000005</v>
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.22933333333333383</v>
+        <v>0.10161111111111154</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
@@ -11514,7 +11514,7 @@
       </c>
       <c r="D9">
         <f ca="1">(Tracker!G9+Tracker!H9)/2</f>
-        <v>91.5</v>
+        <v>116</v>
       </c>
       <c r="E9" s="34">
         <f>IF(OR(Tracker!F9="denied",Tracker!F9="on hold",Tracker!F9="No Response",Tracker!F9="pending"), 0.2, IF(Tracker!F9="interviewing", 0.4, IF(Tracker!F9="rejected", 0.3, IF(Tracker!F9="offer", 1, 0))))</f>
@@ -11537,11 +11537,11 @@
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16852499999999981</v>
+        <v>0.93659999999999988</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23666666666666636</v>
+        <v>0.83555555555555605</v>
       </c>
       <c r="M9" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -11549,11 +11549,11 @@
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="2"/>
-        <v>0.16852499999999981</v>
+        <v>0.93659999999999988</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="3"/>
-        <v>0.23666666666666636</v>
+        <v>0.83555555555555605</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
@@ -11571,7 +11571,7 @@
       </c>
       <c r="D10">
         <f ca="1">(Tracker!G10+Tracker!H10)/2</f>
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E10" s="34">
         <f>IF(OR(Tracker!F10="denied",Tracker!F10="on hold",Tracker!F10="No Response",Tracker!F10="pending"), 0.2, IF(Tracker!F10="interviewing", 0.4, IF(Tracker!F10="rejected", 0.3, IF(Tracker!F10="offer", 1, 0))))</f>
@@ -11594,11 +11594,11 @@
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.12930000000000064</v>
+        <v>9.0149999999999508E-2</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45999999999999952</v>
+        <v>0.66999999999999948</v>
       </c>
       <c r="M10" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -11606,11 +11606,11 @@
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.12930000000000064</v>
+        <v>9.0149999999999508E-2</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="3"/>
-        <v>0.45999999999999952</v>
+        <v>0.66999999999999948</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
@@ -11628,7 +11628,7 @@
       </c>
       <c r="D11">
         <f ca="1">(Tracker!G11+Tracker!H11)/2</f>
-        <v>123.5</v>
+        <v>79.5</v>
       </c>
       <c r="E11" s="34">
         <f>IF(OR(Tracker!F11="denied",Tracker!F11="on hold",Tracker!F11="No Response",Tracker!F11="pending"), 0.2, IF(Tracker!F11="interviewing", 0.4, IF(Tracker!F11="rejected", 0.3, IF(Tracker!F11="offer", 1, 0))))</f>
@@ -11651,11 +11651,11 @@
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1717249999999999</v>
+        <v>-0.20767500000000005</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86794444444444485</v>
+        <v>-0.15383333333333327</v>
       </c>
       <c r="M11" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -11663,11 +11663,11 @@
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="2"/>
-        <v>1.1717249999999999</v>
+        <v>-0.20767500000000005</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="3"/>
-        <v>0.86794444444444485</v>
+        <v>-0.15383333333333327</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
@@ -11685,7 +11685,7 @@
       </c>
       <c r="D12">
         <f ca="1">(Tracker!G12+Tracker!H12)/2</f>
-        <v>109.5</v>
+        <v>121</v>
       </c>
       <c r="E12" s="34">
         <f>IF(OR(Tracker!F12="denied",Tracker!F12="on hold",Tracker!F12="No Response",Tracker!F12="pending"), 0.2, IF(Tracker!F12="interviewing", 0.4, IF(Tracker!F12="rejected", 0.3, IF(Tracker!F12="offer", 1, 0))))</f>
@@ -11708,11 +11708,11 @@
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73282500000000006</v>
+        <v>1.0933499999999992</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8142500000000004</v>
+        <v>2.214833333333333</v>
       </c>
       <c r="M12" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -11720,11 +11720,11 @@
       </c>
       <c r="N12">
         <f t="shared" ca="1" si="2"/>
-        <v>0.73282500000000006</v>
+        <v>1.0933499999999992</v>
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="3"/>
-        <v>1.8142500000000004</v>
+        <v>2.214833333333333</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
@@ -11742,7 +11742,7 @@
       </c>
       <c r="D13">
         <f ca="1">(Tracker!G13+Tracker!H13)/2</f>
-        <v>103</v>
+        <v>102.5</v>
       </c>
       <c r="E13" s="34">
         <f>IF(OR(Tracker!F13="denied",Tracker!F13="on hold",Tracker!F13="No Response",Tracker!F13="pending"), 0.2, IF(Tracker!F13="interviewing", 0.4, IF(Tracker!F13="rejected", 0.3, IF(Tracker!F13="offer", 1, 0))))</f>
@@ -11765,11 +11765,11 @@
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5290499999999998</v>
+        <v>0.51337499999999991</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15270000000000028</v>
+        <v>0.14224999999999977</v>
       </c>
       <c r="M13" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -11777,11 +11777,11 @@
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.5290499999999998</v>
+        <v>0.51337499999999991</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="3"/>
-        <v>0.15270000000000028</v>
+        <v>0.14224999999999977</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
@@ -11799,7 +11799,7 @@
       </c>
       <c r="D14">
         <f ca="1">(Tracker!G14+Tracker!H14)/2</f>
-        <v>104</v>
+        <v>96.5</v>
       </c>
       <c r="E14" s="34">
         <f>IF(OR(Tracker!F14="denied",Tracker!F14="on hold",Tracker!F14="No Response",Tracker!F14="pending"), 0.2, IF(Tracker!F14="interviewing", 0.4, IF(Tracker!F14="rejected", 0.3, IF(Tracker!F14="offer", 1, 0))))</f>
@@ -11822,11 +11822,11 @@
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.2400000000000428E-2</v>
+        <v>-0.22477500000000017</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5568000000000004</v>
+        <v>1.3003</v>
       </c>
       <c r="M14" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -11834,11 +11834,11 @@
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="2"/>
-        <v>-3.2400000000000428E-2</v>
+        <v>-0.22477500000000017</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.5568000000000004</v>
+        <v>1.3003</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
@@ -11856,7 +11856,7 @@
       </c>
       <c r="D15">
         <f ca="1">(Tracker!G15+Tracker!H15)/2</f>
-        <v>113.5</v>
+        <v>97.5</v>
       </c>
       <c r="E15" s="34">
         <f>IF(OR(Tracker!F15="denied",Tracker!F15="on hold",Tracker!F15="No Response",Tracker!F15="pending"), 0.2, IF(Tracker!F15="interviewing", 0.4, IF(Tracker!F15="rejected", 0.3, IF(Tracker!F15="offer", 1, 0))))</f>
@@ -11879,11 +11879,11 @@
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21127499999999966</v>
+        <v>-0.19912500000000044</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="1"/>
-        <v>7.70425</v>
+        <v>6.3362499999999997</v>
       </c>
       <c r="M15" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -11891,11 +11891,11 @@
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.21127499999999966</v>
+        <v>-0.19912500000000044</v>
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="3"/>
-        <v>7.70425</v>
+        <v>6.3362499999999997</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
@@ -11913,7 +11913,7 @@
       </c>
       <c r="D16">
         <f ca="1">(Tracker!G16+Tracker!H16)/2</f>
-        <v>110.5</v>
+        <v>92.5</v>
       </c>
       <c r="E16" s="34">
         <f>IF(OR(Tracker!F16="denied",Tracker!F16="on hold",Tracker!F16="No Response",Tracker!F16="pending"), 0.2, IF(Tracker!F16="interviewing", 0.4, IF(Tracker!F16="rejected", 0.3, IF(Tracker!F16="offer", 1, 0))))</f>
@@ -11928,7 +11928,7 @@
         <v>0.9</v>
       </c>
       <c r="H16" s="34">
-        <v>1.95</v>
+        <v>0.95</v>
       </c>
       <c r="I16" s="35">
         <f>10-(0.5*Tracker!J16)</f>
@@ -11936,11 +11936,11 @@
       </c>
       <c r="J16">
         <f t="shared" ref="J16:J70" ca="1" si="5">IF(D16=0,0,((0.3*D16*G16*H16)/10)-2.7)</f>
-        <v>3.1178249999999998</v>
+        <v>-0.32737499999999997</v>
       </c>
       <c r="K16">
         <f t="shared" ref="K16:K70" ca="1" si="6">IF(D16=0, 0,((D16*E16*G16*H16)/(F16*I16)-2))</f>
-        <v>1.8785499999999997</v>
+        <v>-0.41825000000000001</v>
       </c>
       <c r="M16" t="e">
         <f t="shared" ref="M16:M70" ca="1" si="7">IF(J16=0, 0, NA())</f>
@@ -11948,11 +11948,11 @@
       </c>
       <c r="N16">
         <f t="shared" ref="N16:N70" ca="1" si="8">IF(J16=0, NA(), J16)</f>
-        <v>3.1178249999999998</v>
+        <v>-0.32737499999999997</v>
       </c>
       <c r="O16">
         <f t="shared" ref="O16:O70" ca="1" si="9">IF(K16=0, NA(), K16)</f>
-        <v>1.8785499999999997</v>
+        <v>-0.41825000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
@@ -11970,7 +11970,7 @@
       </c>
       <c r="D17">
         <f ca="1">(Tracker!G17+Tracker!H17)/2</f>
-        <v>94</v>
+        <v>95.5</v>
       </c>
       <c r="E17" s="34">
         <f>IF(OR(Tracker!F17="denied",Tracker!F17="on hold",Tracker!F17="No Response",Tracker!F17="pending"), 0.2, IF(Tracker!F17="interviewing", 0.4, IF(Tracker!F17="rejected", 0.3, IF(Tracker!F17="offer", 1, 0))))</f>
@@ -11985,7 +11985,7 @@
         <v>0.9</v>
       </c>
       <c r="H17" s="34">
-        <v>2.95</v>
+        <v>0.95</v>
       </c>
       <c r="I17" s="35">
         <f>10-(0.5*Tracker!J17)</f>
@@ -11993,11 +11993,11 @@
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="5"/>
-        <v>4.7870999999999997</v>
+        <v>-0.25042500000000034</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="6"/>
-        <v>2.9914000000000005</v>
+        <v>-0.36694999999999989</v>
       </c>
       <c r="M17" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12005,11 +12005,11 @@
       </c>
       <c r="N17">
         <f t="shared" ca="1" si="8"/>
-        <v>4.7870999999999997</v>
+        <v>-0.25042500000000034</v>
       </c>
       <c r="O17">
         <f t="shared" ca="1" si="9"/>
-        <v>2.9914000000000005</v>
+        <v>-0.36694999999999989</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
@@ -12027,7 +12027,7 @@
       </c>
       <c r="D18">
         <f ca="1">(Tracker!G18+Tracker!H18)/2</f>
-        <v>92</v>
+        <v>96.5</v>
       </c>
       <c r="E18" s="34">
         <f>IF(OR(Tracker!F18="denied",Tracker!F18="on hold",Tracker!F18="No Response",Tracker!F18="pending"), 0.2, IF(Tracker!F18="interviewing", 0.4, IF(Tracker!F18="rejected", 0.3, IF(Tracker!F18="offer", 1, 0))))</f>
@@ -12042,7 +12042,7 @@
         <v>0.9</v>
       </c>
       <c r="H18" s="34">
-        <v>3.95</v>
+        <v>0.95</v>
       </c>
       <c r="I18" s="35">
         <f>10-(0.5*Tracker!J18)</f>
@@ -12050,11 +12050,11 @@
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="5"/>
-        <v>7.1118000000000015</v>
+        <v>-0.22477500000000017</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="6"/>
-        <v>30.706000000000003</v>
+        <v>6.25075</v>
       </c>
       <c r="M18" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12062,11 +12062,11 @@
       </c>
       <c r="N18">
         <f t="shared" ca="1" si="8"/>
-        <v>7.1118000000000015</v>
+        <v>-0.22477500000000017</v>
       </c>
       <c r="O18">
         <f t="shared" ca="1" si="9"/>
-        <v>30.706000000000003</v>
+        <v>6.25075</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
@@ -12084,7 +12084,7 @@
       </c>
       <c r="D19">
         <f ca="1">(Tracker!G19+Tracker!H19)/2</f>
-        <v>117.5</v>
+        <v>111</v>
       </c>
       <c r="E19" s="34">
         <f>IF(OR(Tracker!F19="denied",Tracker!F19="on hold",Tracker!F19="No Response",Tracker!F19="pending"), 0.2, IF(Tracker!F19="interviewing", 0.4, IF(Tracker!F19="rejected", 0.3, IF(Tracker!F19="offer", 1, 0))))</f>
@@ -12099,7 +12099,7 @@
         <v>0.9</v>
       </c>
       <c r="H19" s="34">
-        <v>4.95</v>
+        <v>0.95</v>
       </c>
       <c r="I19" s="35">
         <f>10-(0.5*Tracker!J19)</f>
@@ -12107,11 +12107,11 @@
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="5"/>
-        <v>13.003875000000001</v>
+        <v>0.14714999999999989</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="6"/>
-        <v>9.6325000000000003</v>
+        <v>0.10899999999999999</v>
       </c>
       <c r="M19" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12119,11 +12119,11 @@
       </c>
       <c r="N19">
         <f t="shared" ca="1" si="8"/>
-        <v>13.003875000000001</v>
+        <v>0.14714999999999989</v>
       </c>
       <c r="O19">
         <f t="shared" ca="1" si="9"/>
-        <v>9.6325000000000003</v>
+        <v>0.10899999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
@@ -12141,7 +12141,7 @@
       </c>
       <c r="D20">
         <f ca="1">(Tracker!G20+Tracker!H20)/2</f>
-        <v>85.5</v>
+        <v>110</v>
       </c>
       <c r="E20" s="34">
         <f>IF(OR(Tracker!F20="denied",Tracker!F20="on hold",Tracker!F20="No Response",Tracker!F20="pending"), 0.2, IF(Tracker!F20="interviewing", 0.4, IF(Tracker!F20="rejected", 0.3, IF(Tracker!F20="offer", 1, 0))))</f>
@@ -12156,7 +12156,7 @@
         <v>0.9</v>
       </c>
       <c r="H20" s="34">
-        <v>5.95</v>
+        <v>0.95</v>
       </c>
       <c r="I20" s="35">
         <f>10-(0.5*Tracker!J20)</f>
@@ -12164,11 +12164,11 @@
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="5"/>
-        <v>11.035575000000001</v>
+        <v>0.12149999999999928</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="6"/>
-        <v>7.1570500000000017</v>
+        <v>-0.11900000000000022</v>
       </c>
       <c r="M20" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12176,11 +12176,11 @@
       </c>
       <c r="N20">
         <f t="shared" ca="1" si="8"/>
-        <v>11.035575000000001</v>
+        <v>0.12149999999999928</v>
       </c>
       <c r="O20">
         <f t="shared" ca="1" si="9"/>
-        <v>7.1570500000000017</v>
+        <v>-0.11900000000000022</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
@@ -12198,7 +12198,7 @@
       </c>
       <c r="D21">
         <f ca="1">(Tracker!G21+Tracker!H21)/2</f>
-        <v>117.5</v>
+        <v>84.5</v>
       </c>
       <c r="E21" s="34">
         <f>IF(OR(Tracker!F21="denied",Tracker!F21="on hold",Tracker!F21="No Response",Tracker!F21="pending"), 0.2, IF(Tracker!F21="interviewing", 0.4, IF(Tracker!F21="rejected", 0.3, IF(Tracker!F21="offer", 1, 0))))</f>
@@ -12213,7 +12213,7 @@
         <v>0.9</v>
       </c>
       <c r="H21" s="34">
-        <v>6.95</v>
+        <v>0.95</v>
       </c>
       <c r="I21" s="35">
         <f>10-(0.5*Tracker!J21)</f>
@@ -12221,11 +12221,11 @@
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="5"/>
-        <v>19.348875000000003</v>
+        <v>-0.53257500000000046</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="6"/>
-        <v>79.662499999999994</v>
+        <v>6.0274999999999981</v>
       </c>
       <c r="M21" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12233,11 +12233,11 @@
       </c>
       <c r="N21">
         <f t="shared" ca="1" si="8"/>
-        <v>19.348875000000003</v>
+        <v>-0.53257500000000046</v>
       </c>
       <c r="O21">
         <f t="shared" ca="1" si="9"/>
-        <v>79.662499999999994</v>
+        <v>6.0274999999999981</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
@@ -12255,7 +12255,7 @@
       </c>
       <c r="D22">
         <f ca="1">(Tracker!G22+Tracker!H22)/2</f>
-        <v>118</v>
+        <v>115.5</v>
       </c>
       <c r="E22" s="34">
         <f>IF(OR(Tracker!F22="denied",Tracker!F22="on hold",Tracker!F22="No Response",Tracker!F22="pending"), 0.2, IF(Tracker!F22="interviewing", 0.4, IF(Tracker!F22="rejected", 0.3, IF(Tracker!F22="offer", 1, 0))))</f>
@@ -12270,7 +12270,7 @@
         <v>0.9</v>
       </c>
       <c r="H22" s="34">
-        <v>7.95</v>
+        <v>0.95</v>
       </c>
       <c r="I22" s="35">
         <f>10-(0.5*Tracker!J22)</f>
@@ -12278,11 +12278,11 @@
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="5"/>
-        <v>22.628700000000002</v>
+        <v>0.26257499999999956</v>
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="6"/>
-        <v>16.762000000000004</v>
+        <v>0.19450000000000012</v>
       </c>
       <c r="M22" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12290,11 +12290,11 @@
       </c>
       <c r="N22">
         <f t="shared" ca="1" si="8"/>
-        <v>22.628700000000002</v>
+        <v>0.26257499999999956</v>
       </c>
       <c r="O22">
         <f t="shared" ca="1" si="9"/>
-        <v>16.762000000000004</v>
+        <v>0.19450000000000012</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
@@ -12312,7 +12312,7 @@
       </c>
       <c r="D23">
         <f ca="1">(Tracker!G23+Tracker!H23)/2</f>
-        <v>107.5</v>
+        <v>98</v>
       </c>
       <c r="E23" s="34">
         <f>IF(OR(Tracker!F23="denied",Tracker!F23="on hold",Tracker!F23="No Response",Tracker!F23="pending"), 0.2, IF(Tracker!F23="interviewing", 0.4, IF(Tracker!F23="rejected", 0.3, IF(Tracker!F23="offer", 1, 0))))</f>
@@ -12327,7 +12327,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H23" s="34">
-        <v>8.9499999999999993</v>
+        <v>0.95</v>
       </c>
       <c r="I23" s="35">
         <f>10-(0.5*Tracker!J23)</f>
@@ -12335,11 +12335,11 @@
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="5"/>
-        <v>29.050124999999998</v>
+        <v>0.37230000000000008</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="6"/>
-        <v>47.512865497076014</v>
+        <v>2.7911111111111113</v>
       </c>
       <c r="M23" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12347,11 +12347,11 @@
       </c>
       <c r="N23">
         <f t="shared" ca="1" si="8"/>
-        <v>29.050124999999998</v>
+        <v>0.37230000000000008</v>
       </c>
       <c r="O23">
         <f t="shared" ca="1" si="9"/>
-        <v>47.512865497076014</v>
+        <v>2.7911111111111113</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
@@ -12369,7 +12369,7 @@
       </c>
       <c r="D24">
         <f ca="1">(Tracker!G24+Tracker!H24)/2</f>
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E24" s="34">
         <f>IF(OR(Tracker!F24="denied",Tracker!F24="on hold",Tracker!F24="No Response",Tracker!F24="pending"), 0.2, IF(Tracker!F24="interviewing", 0.4, IF(Tracker!F24="rejected", 0.3, IF(Tracker!F24="offer", 1, 0))))</f>
@@ -12384,7 +12384,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H24" s="34">
-        <v>9.9499999999999993</v>
+        <v>0.95</v>
       </c>
       <c r="I24" s="35">
         <f>10-(0.5*Tracker!J24)</f>
@@ -12392,11 +12392,11 @@
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="5"/>
-        <v>24.224699999999995</v>
+        <v>5.8799999999999741E-2</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="6"/>
-        <v>17.944222222222223</v>
+        <v>4.3555555555555792E-2</v>
       </c>
       <c r="M24" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12404,11 +12404,11 @@
       </c>
       <c r="N24">
         <f t="shared" ca="1" si="8"/>
-        <v>24.224699999999995</v>
+        <v>5.8799999999999741E-2</v>
       </c>
       <c r="O24">
         <f t="shared" ca="1" si="9"/>
-        <v>17.944222222222223</v>
+        <v>4.3555555555555792E-2</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
@@ -12426,7 +12426,7 @@
       </c>
       <c r="D25">
         <f ca="1">(Tracker!G25+Tracker!H25)/2</f>
-        <v>99</v>
+        <v>94.5</v>
       </c>
       <c r="E25" s="34">
         <f>IF(OR(Tracker!F25="denied",Tracker!F25="on hold",Tracker!F25="No Response",Tracker!F25="pending"), 0.2, IF(Tracker!F25="interviewing", 0.4, IF(Tracker!F25="rejected", 0.3, IF(Tracker!F25="offer", 1, 0))))</f>
@@ -12441,7 +12441,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H25" s="34">
-        <v>10.95</v>
+        <v>0.95</v>
       </c>
       <c r="I25" s="35">
         <f>10-(0.5*Tracker!J25)</f>
@@ -12449,11 +12449,11 @@
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="5"/>
-        <v>33.073649999999994</v>
+        <v>0.26257499999999956</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="6"/>
-        <v>24.498999999999999</v>
+        <v>0.19450000000000012</v>
       </c>
       <c r="M25" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12461,11 +12461,11 @@
       </c>
       <c r="N25">
         <f t="shared" ca="1" si="8"/>
-        <v>33.073649999999994</v>
+        <v>0.26257499999999956</v>
       </c>
       <c r="O25">
         <f t="shared" ca="1" si="9"/>
-        <v>24.498999999999999</v>
+        <v>0.19450000000000012</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
@@ -12483,7 +12483,7 @@
       </c>
       <c r="D26">
         <f ca="1">(Tracker!G26+Tracker!H26)/2</f>
-        <v>109</v>
+        <v>106.5</v>
       </c>
       <c r="E26" s="34">
         <f>IF(OR(Tracker!F26="denied",Tracker!F26="on hold",Tracker!F26="No Response",Tracker!F26="pending"), 0.2, IF(Tracker!F26="interviewing", 0.4, IF(Tracker!F26="rejected", 0.3, IF(Tracker!F26="offer", 1, 0))))</f>
@@ -12498,7 +12498,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H26" s="34">
-        <v>11.95</v>
+        <v>0.95</v>
       </c>
       <c r="I26" s="35">
         <f>10-(0.5*Tracker!J26)</f>
@@ -12506,11 +12506,11 @@
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="5"/>
-        <v>40.28414999999999</v>
+        <v>0.63877500000000031</v>
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="6"/>
-        <v>29.840111111111113</v>
+        <v>0.47316666666666674</v>
       </c>
       <c r="M26" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12518,11 +12518,11 @@
       </c>
       <c r="N26">
         <f t="shared" ca="1" si="8"/>
-        <v>40.28414999999999</v>
+        <v>0.63877500000000031</v>
       </c>
       <c r="O26">
         <f t="shared" ca="1" si="9"/>
-        <v>29.840111111111113</v>
+        <v>0.47316666666666674</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
@@ -12540,7 +12540,7 @@
       </c>
       <c r="D27">
         <f ca="1">(Tracker!G27+Tracker!H27)/2</f>
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="E27" s="34">
         <f>IF(OR(Tracker!F27="denied",Tracker!F27="on hold",Tracker!F27="No Response",Tracker!F27="pending"), 0.2, IF(Tracker!F27="interviewing", 0.4, IF(Tracker!F27="rejected", 0.3, IF(Tracker!F27="offer", 1, 0))))</f>
@@ -12555,7 +12555,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H27" s="34">
-        <v>12.95</v>
+        <v>0.95</v>
       </c>
       <c r="I27" s="35">
         <f>10-(0.5*Tracker!J27)</f>
@@ -12563,11 +12563,11 @@
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="5"/>
-        <v>47.7273</v>
+        <v>0.5290499999999998</v>
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="6"/>
-        <v>35.353555555555559</v>
+        <v>0.39188888888888895</v>
       </c>
       <c r="M27" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12575,11 +12575,11 @@
       </c>
       <c r="N27">
         <f t="shared" ca="1" si="8"/>
-        <v>47.7273</v>
+        <v>0.5290499999999998</v>
       </c>
       <c r="O27">
         <f t="shared" ca="1" si="9"/>
-        <v>35.353555555555559</v>
+        <v>0.39188888888888895</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
@@ -12597,7 +12597,7 @@
       </c>
       <c r="D28">
         <f ca="1">(Tracker!G28+Tracker!H28)/2</f>
-        <v>99.5</v>
+        <v>94.5</v>
       </c>
       <c r="E28" s="34">
         <f>IF(OR(Tracker!F28="denied",Tracker!F28="on hold",Tracker!F28="No Response",Tracker!F28="pending"), 0.2, IF(Tracker!F28="interviewing", 0.4, IF(Tracker!F28="rejected", 0.3, IF(Tracker!F28="offer", 1, 0))))</f>
@@ -12612,7 +12612,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H28" s="34">
-        <v>13.95</v>
+        <v>0.95</v>
       </c>
       <c r="I28" s="35">
         <f>10-(0.5*Tracker!J28)</f>
@@ -12620,11 +12620,11 @@
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="5"/>
-        <v>43.104824999999998</v>
+        <v>0.26257499999999956</v>
       </c>
       <c r="K28">
         <f t="shared" ca="1" si="6"/>
-        <v>31.929500000000004</v>
+        <v>0.19450000000000012</v>
       </c>
       <c r="M28" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12632,11 +12632,11 @@
       </c>
       <c r="N28">
         <f t="shared" ca="1" si="8"/>
-        <v>43.104824999999998</v>
+        <v>0.26257499999999956</v>
       </c>
       <c r="O28">
         <f t="shared" ca="1" si="9"/>
-        <v>31.929500000000004</v>
+        <v>0.19450000000000012</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
@@ -12654,7 +12654,7 @@
       </c>
       <c r="D29">
         <f ca="1">(Tracker!G29+Tracker!H29)/2</f>
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="E29" s="34">
         <f>IF(OR(Tracker!F29="denied",Tracker!F29="on hold",Tracker!F29="No Response",Tracker!F29="pending"), 0.2, IF(Tracker!F29="interviewing", 0.4, IF(Tracker!F29="rejected", 0.3, IF(Tracker!F29="offer", 1, 0))))</f>
@@ -12669,7 +12669,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H29" s="34">
-        <v>14.95</v>
+        <v>0.95</v>
       </c>
       <c r="I29" s="35">
         <f>10-(0.5*Tracker!J29)</f>
@@ -12677,11 +12677,11 @@
       </c>
       <c r="J29">
         <f t="shared" ca="1" si="5"/>
-        <v>55.515299999999996</v>
+        <v>-0.22334999999999994</v>
       </c>
       <c r="K29">
         <f t="shared" ca="1" si="6"/>
-        <v>84.244888888888894</v>
+        <v>1.6691111111111119</v>
       </c>
       <c r="M29" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12689,11 +12689,11 @@
       </c>
       <c r="N29">
         <f t="shared" ca="1" si="8"/>
-        <v>55.515299999999996</v>
+        <v>-0.22334999999999994</v>
       </c>
       <c r="O29">
         <f t="shared" ca="1" si="9"/>
-        <v>84.244888888888894</v>
+        <v>1.6691111111111119</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
@@ -12711,7 +12711,7 @@
       </c>
       <c r="D30">
         <f ca="1">(Tracker!G30+Tracker!H30)/2</f>
-        <v>85.5</v>
+        <v>105.5</v>
       </c>
       <c r="E30" s="34">
         <f>IF(OR(Tracker!F30="denied",Tracker!F30="on hold",Tracker!F30="No Response",Tracker!F30="pending"), 0.2, IF(Tracker!F30="interviewing", 0.4, IF(Tracker!F30="rejected", 0.3, IF(Tracker!F30="offer", 1, 0))))</f>
@@ -12726,7 +12726,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H30" s="34">
-        <v>15.95</v>
+        <v>0.95</v>
       </c>
       <c r="I30" s="35">
         <f>10-(0.5*Tracker!J30)</f>
@@ -12734,11 +12734,11 @@
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="5"/>
-        <v>42.302924999999995</v>
+        <v>0.60742499999999966</v>
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="6"/>
-        <v>64.671000000000006</v>
+        <v>2.8998888888888894</v>
       </c>
       <c r="M30" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12746,11 +12746,11 @@
       </c>
       <c r="N30">
         <f t="shared" ca="1" si="8"/>
-        <v>42.302924999999995</v>
+        <v>0.60742499999999966</v>
       </c>
       <c r="O30">
         <f t="shared" ca="1" si="9"/>
-        <v>64.671000000000006</v>
+        <v>2.8998888888888894</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
@@ -12768,7 +12768,7 @@
       </c>
       <c r="D31">
         <f ca="1">(Tracker!G31+Tracker!H31)/2</f>
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E31" s="34">
         <f>IF(OR(Tracker!F31="denied",Tracker!F31="on hold",Tracker!F31="No Response",Tracker!F31="pending"), 0.2, IF(Tracker!F31="interviewing", 0.4, IF(Tracker!F31="rejected", 0.3, IF(Tracker!F31="offer", 1, 0))))</f>
@@ -12783,7 +12783,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H31" s="34">
-        <v>16.95</v>
+        <v>0.95</v>
       </c>
       <c r="I31" s="35">
         <f>10-(0.5*Tracker!J31)</f>
@@ -12791,11 +12791,11 @@
       </c>
       <c r="J31">
         <f t="shared" ca="1" si="5"/>
-        <v>45.963449999999995</v>
+        <v>0.15285000000000037</v>
       </c>
       <c r="K31">
         <f t="shared" ca="1" si="6"/>
-        <v>70.094000000000008</v>
+        <v>2.2264444444444438</v>
       </c>
       <c r="M31" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12803,11 +12803,11 @@
       </c>
       <c r="N31">
         <f t="shared" ca="1" si="8"/>
-        <v>45.963449999999995</v>
+        <v>0.15285000000000037</v>
       </c>
       <c r="O31">
         <f t="shared" ca="1" si="9"/>
-        <v>70.094000000000008</v>
+        <v>2.2264444444444438</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
@@ -12825,7 +12825,7 @@
       </c>
       <c r="D32">
         <f ca="1">(Tracker!G32+Tracker!H32)/2</f>
-        <v>108.5</v>
+        <v>115.5</v>
       </c>
       <c r="E32" s="34">
         <f>IF(OR(Tracker!F32="denied",Tracker!F32="on hold",Tracker!F32="No Response",Tracker!F32="pending"), 0.2, IF(Tracker!F32="interviewing", 0.4, IF(Tracker!F32="rejected", 0.3, IF(Tracker!F32="offer", 1, 0))))</f>
@@ -12840,7 +12840,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H32" s="34">
-        <v>17.95</v>
+        <v>0.95</v>
       </c>
       <c r="I32" s="35">
         <f>10-(0.5*Tracker!J32)</f>
@@ -12848,11 +12848,11 @@
       </c>
       <c r="J32">
         <f t="shared" ca="1" si="5"/>
-        <v>61.569974999999999</v>
+        <v>0.92092499999999955</v>
       </c>
       <c r="K32">
         <f t="shared" ca="1" si="6"/>
-        <v>83.693300000000008</v>
+        <v>2.8279000000000005</v>
       </c>
       <c r="M32" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12860,11 +12860,11 @@
       </c>
       <c r="N32">
         <f t="shared" ca="1" si="8"/>
-        <v>61.569974999999999</v>
+        <v>0.92092499999999955</v>
       </c>
       <c r="O32">
         <f t="shared" ca="1" si="9"/>
-        <v>83.693300000000008</v>
+        <v>2.8279000000000005</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
@@ -12882,7 +12882,7 @@
       </c>
       <c r="D33">
         <f ca="1">(Tracker!G33+Tracker!H33)/2</f>
-        <v>88</v>
+        <v>94.5</v>
       </c>
       <c r="E33" s="34">
         <f>IF(OR(Tracker!F33="denied",Tracker!F33="on hold",Tracker!F33="No Response",Tracker!F33="pending"), 0.2, IF(Tracker!F33="interviewing", 0.4, IF(Tracker!F33="rejected", 0.3, IF(Tracker!F33="offer", 1, 0))))</f>
@@ -12897,7 +12897,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H33" s="34">
-        <v>18.95</v>
+        <v>0.95</v>
       </c>
       <c r="I33" s="35">
         <f>10-(0.5*Tracker!J33)</f>
@@ -12905,11 +12905,11 @@
       </c>
       <c r="J33">
         <f t="shared" ca="1" si="5"/>
-        <v>52.330799999999996</v>
+        <v>0.26257499999999956</v>
       </c>
       <c r="K33">
         <f t="shared" ca="1" si="6"/>
-        <v>71.374400000000009</v>
+        <v>1.9501000000000004</v>
       </c>
       <c r="M33" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12917,11 +12917,11 @@
       </c>
       <c r="N33">
         <f t="shared" ca="1" si="8"/>
-        <v>52.330799999999996</v>
+        <v>0.26257499999999956</v>
       </c>
       <c r="O33">
         <f t="shared" ca="1" si="9"/>
-        <v>71.374400000000009</v>
+        <v>1.9501000000000004</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
@@ -12939,7 +12939,7 @@
       </c>
       <c r="D34">
         <f ca="1">(Tracker!G34+Tracker!H34)/2</f>
-        <v>102</v>
+        <v>87.5</v>
       </c>
       <c r="E34" s="34">
         <f>IF(OR(Tracker!F34="denied",Tracker!F34="on hold",Tracker!F34="No Response",Tracker!F34="pending"), 0.2, IF(Tracker!F34="interviewing", 0.4, IF(Tracker!F34="rejected", 0.3, IF(Tracker!F34="offer", 1, 0))))</f>
@@ -12954,7 +12954,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H34" s="34">
-        <v>19.95</v>
+        <v>0.95</v>
       </c>
       <c r="I34" s="35">
         <f>10-(0.5*Tracker!J34)</f>
@@ -12962,11 +12962,11 @@
       </c>
       <c r="J34">
         <f t="shared" ca="1" si="5"/>
-        <v>64.451700000000002</v>
+        <v>4.3124999999999858E-2</v>
       </c>
       <c r="K34">
         <f t="shared" ca="1" si="6"/>
-        <v>87.535600000000017</v>
+        <v>1.6574999999999998</v>
       </c>
       <c r="M34" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12974,11 +12974,11 @@
       </c>
       <c r="N34">
         <f t="shared" ca="1" si="8"/>
-        <v>64.451700000000002</v>
+        <v>4.3124999999999858E-2</v>
       </c>
       <c r="O34">
         <f t="shared" ca="1" si="9"/>
-        <v>87.535600000000017</v>
+        <v>1.6574999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
@@ -12996,7 +12996,7 @@
       </c>
       <c r="D35">
         <f ca="1">(Tracker!G35+Tracker!H35)/2</f>
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E35" s="34">
         <f>IF(OR(Tracker!F35="denied",Tracker!F35="on hold",Tracker!F35="No Response",Tracker!F35="pending"), 0.2, IF(Tracker!F35="interviewing", 0.4, IF(Tracker!F35="rejected", 0.3, IF(Tracker!F35="offer", 1, 0))))</f>
@@ -13011,7 +13011,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H35" s="34">
-        <v>20.95</v>
+        <v>0.95</v>
       </c>
       <c r="I35" s="35">
         <f>10-(0.5*Tracker!J35)</f>
@@ -13019,11 +13019,11 @@
       </c>
       <c r="J35">
         <f t="shared" ca="1" si="5"/>
-        <v>56.064750000000004</v>
+        <v>0.49770000000000003</v>
       </c>
       <c r="K35">
         <f t="shared" ca="1" si="6"/>
-        <v>90.18</v>
+        <v>3.0160000000000009</v>
       </c>
       <c r="M35" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13031,11 +13031,11 @@
       </c>
       <c r="N35">
         <f t="shared" ca="1" si="8"/>
-        <v>56.064750000000004</v>
+        <v>0.49770000000000003</v>
       </c>
       <c r="O35">
         <f t="shared" ca="1" si="9"/>
-        <v>90.18</v>
+        <v>3.0160000000000009</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
@@ -13053,7 +13053,7 @@
       </c>
       <c r="D36">
         <f ca="1">(Tracker!G36+Tracker!H36)/2</f>
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="E36" s="34">
         <f>IF(OR(Tracker!F36="denied",Tracker!F36="on hold",Tracker!F36="No Response",Tracker!F36="pending"), 0.2, IF(Tracker!F36="interviewing", 0.4, IF(Tracker!F36="rejected", 0.3, IF(Tracker!F36="offer", 1, 0))))</f>
@@ -13068,7 +13068,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H36" s="34">
-        <v>21.95</v>
+        <v>0.95</v>
       </c>
       <c r="I36" s="35">
         <f>10-(0.5*Tracker!J36)</f>
@@ -13076,11 +13076,11 @@
       </c>
       <c r="J36">
         <f t="shared" ca="1" si="5"/>
-        <v>64.664549999999991</v>
+        <v>0.71714999999999929</v>
       </c>
       <c r="K36">
         <f t="shared" ca="1" si="6"/>
-        <v>87.819400000000016</v>
+        <v>2.5562000000000005</v>
       </c>
       <c r="M36" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13088,11 +13088,11 @@
       </c>
       <c r="N36">
         <f t="shared" ca="1" si="8"/>
-        <v>64.664549999999991</v>
+        <v>0.71714999999999929</v>
       </c>
       <c r="O36">
         <f t="shared" ca="1" si="9"/>
-        <v>87.819400000000016</v>
+        <v>2.5562000000000005</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
@@ -13110,7 +13110,7 @@
       </c>
       <c r="D37">
         <f ca="1">(Tracker!G37+Tracker!H37)/2</f>
-        <v>106</v>
+        <v>110.5</v>
       </c>
       <c r="E37" s="34">
         <f>IF(OR(Tracker!F37="denied",Tracker!F37="on hold",Tracker!F37="No Response",Tracker!F37="pending"), 0.2, IF(Tracker!F37="interviewing", 0.4, IF(Tracker!F37="rejected", 0.3, IF(Tracker!F37="offer", 1, 0))))</f>
@@ -13125,7 +13125,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H37" s="34">
-        <v>22.95</v>
+        <v>0.95</v>
       </c>
       <c r="I37" s="35">
         <f>10-(0.5*Tracker!J37)</f>
@@ -13133,11 +13133,11 @@
       </c>
       <c r="J37">
         <f t="shared" ca="1" si="5"/>
-        <v>77.579099999999997</v>
+        <v>0.76417499999999983</v>
       </c>
       <c r="K37">
         <f t="shared" ca="1" si="6"/>
-        <v>51.519400000000005</v>
+        <v>0.30945</v>
       </c>
       <c r="M37" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13145,11 +13145,11 @@
       </c>
       <c r="N37">
         <f t="shared" ca="1" si="8"/>
-        <v>77.579099999999997</v>
+        <v>0.76417499999999983</v>
       </c>
       <c r="O37">
         <f t="shared" ca="1" si="9"/>
-        <v>51.519400000000005</v>
+        <v>0.30945</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
@@ -13167,7 +13167,7 @@
       </c>
       <c r="D38">
         <f ca="1">(Tracker!G38+Tracker!H38)/2</f>
-        <v>107</v>
+        <v>102.5</v>
       </c>
       <c r="E38" s="34">
         <f>IF(OR(Tracker!F38="denied",Tracker!F38="on hold",Tracker!F38="No Response",Tracker!F38="pending"), 0.2, IF(Tracker!F38="interviewing", 0.4, IF(Tracker!F38="rejected", 0.3, IF(Tracker!F38="offer", 1, 0))))</f>
@@ -13182,7 +13182,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H38" s="34">
-        <v>23.95</v>
+        <v>0.95</v>
       </c>
       <c r="I38" s="35">
         <f>10-(0.5*Tracker!J38)</f>
@@ -13190,11 +13190,11 @@
       </c>
       <c r="J38">
         <f t="shared" ca="1" si="5"/>
-        <v>81.867450000000005</v>
+        <v>0.51337499999999991</v>
       </c>
       <c r="K38">
         <f t="shared" ca="1" si="6"/>
-        <v>54.378300000000003</v>
+        <v>0.14224999999999977</v>
       </c>
       <c r="M38" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13202,11 +13202,11 @@
       </c>
       <c r="N38">
         <f t="shared" ca="1" si="8"/>
-        <v>81.867450000000005</v>
+        <v>0.51337499999999991</v>
       </c>
       <c r="O38">
         <f t="shared" ca="1" si="9"/>
-        <v>54.378300000000003</v>
+        <v>0.14224999999999977</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
@@ -13224,7 +13224,7 @@
       </c>
       <c r="D39">
         <f ca="1">(Tracker!G39+Tracker!H39)/2</f>
-        <v>108</v>
+        <v>101.5</v>
       </c>
       <c r="E39" s="34">
         <f>IF(OR(Tracker!F39="denied",Tracker!F39="on hold",Tracker!F39="No Response",Tracker!F39="pending"), 0.2, IF(Tracker!F39="interviewing", 0.4, IF(Tracker!F39="rejected", 0.3, IF(Tracker!F39="offer", 1, 0))))</f>
@@ -13239,7 +13239,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H39" s="34">
-        <v>24.95</v>
+        <v>0.95</v>
       </c>
       <c r="I39" s="35">
         <f>10-(0.5*Tracker!J39)</f>
@@ -13247,11 +13247,11 @@
       </c>
       <c r="J39">
         <f t="shared" ca="1" si="5"/>
-        <v>86.221799999999988</v>
+        <v>0.48202500000000015</v>
       </c>
       <c r="K39">
         <f t="shared" ca="1" si="6"/>
-        <v>60.401263157894753</v>
+        <v>0.2330000000000001</v>
       </c>
       <c r="M39" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13259,11 +13259,11 @@
       </c>
       <c r="N39">
         <f t="shared" ca="1" si="8"/>
-        <v>86.221799999999988</v>
+        <v>0.48202500000000015</v>
       </c>
       <c r="O39">
         <f t="shared" ca="1" si="9"/>
-        <v>60.401263157894753</v>
+        <v>0.2330000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
@@ -13281,7 +13281,7 @@
       </c>
       <c r="D40">
         <f ca="1">(Tracker!G40+Tracker!H40)/2</f>
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E40" s="34">
         <f>IF(OR(Tracker!F40="denied",Tracker!F40="on hold",Tracker!F40="No Response",Tracker!F40="pending"), 0.2, IF(Tracker!F40="interviewing", 0.4, IF(Tracker!F40="rejected", 0.3, IF(Tracker!F40="offer", 1, 0))))</f>
@@ -13296,7 +13296,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H40" s="34">
-        <v>25.95</v>
+        <v>0.95</v>
       </c>
       <c r="I40" s="35">
         <f>10-(0.5*Tracker!J40)</f>
@@ -13304,11 +13304,11 @@
       </c>
       <c r="J40">
         <f t="shared" ca="1" si="5"/>
-        <v>94.923899999999989</v>
+        <v>0.65444999999999975</v>
       </c>
       <c r="K40">
         <f t="shared" ca="1" si="6"/>
-        <v>63.082599999999999</v>
+        <v>0.2363000000000004</v>
       </c>
       <c r="M40" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13316,11 +13316,11 @@
       </c>
       <c r="N40">
         <f t="shared" ca="1" si="8"/>
-        <v>94.923899999999989</v>
+        <v>0.65444999999999975</v>
       </c>
       <c r="O40">
         <f t="shared" ca="1" si="9"/>
-        <v>63.082599999999999</v>
+        <v>0.2363000000000004</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
@@ -13338,7 +13338,7 @@
       </c>
       <c r="D41">
         <f ca="1">(Tracker!G41+Tracker!H41)/2</f>
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E41" s="34">
         <f>IF(OR(Tracker!F41="denied",Tracker!F41="on hold",Tracker!F41="No Response",Tracker!F41="pending"), 0.2, IF(Tracker!F41="interviewing", 0.4, IF(Tracker!F41="rejected", 0.3, IF(Tracker!F41="offer", 1, 0))))</f>
@@ -13353,7 +13353,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H41" s="34">
-        <v>26.95</v>
+        <v>0.95</v>
       </c>
       <c r="I41" s="35">
         <f>10-(0.5*Tracker!J41)</f>
@@ -13361,11 +13361,11 @@
       </c>
       <c r="J41">
         <f t="shared" ca="1" si="5"/>
-        <v>74.673450000000003</v>
+        <v>-3.8999999999997925E-3</v>
       </c>
       <c r="K41">
         <f t="shared" ca="1" si="6"/>
-        <v>49.582300000000011</v>
+        <v>-0.20259999999999989</v>
       </c>
       <c r="M41" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13373,11 +13373,11 @@
       </c>
       <c r="N41">
         <f t="shared" ca="1" si="8"/>
-        <v>74.673450000000003</v>
+        <v>-3.8999999999997925E-3</v>
       </c>
       <c r="O41">
         <f t="shared" ca="1" si="9"/>
-        <v>49.582300000000011</v>
+        <v>-0.20259999999999989</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
@@ -13395,7 +13395,7 @@
       </c>
       <c r="D42">
         <f ca="1">(Tracker!G42+Tracker!H42)/2</f>
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E42" s="34">
         <f>IF(OR(Tracker!F42="denied",Tracker!F42="on hold",Tracker!F42="No Response",Tracker!F42="pending"), 0.2, IF(Tracker!F42="interviewing", 0.4, IF(Tracker!F42="rejected", 0.3, IF(Tracker!F42="offer", 1, 0))))</f>
@@ -13410,7 +13410,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H42" s="34">
-        <v>27.95</v>
+        <v>0.95</v>
       </c>
       <c r="I42" s="35">
         <f>10-(0.5*Tracker!J42)</f>
@@ -13418,11 +13418,11 @@
       </c>
       <c r="J42">
         <f t="shared" ca="1" si="5"/>
-        <v>88.612650000000002</v>
+        <v>0.24690000000000012</v>
       </c>
       <c r="K42">
         <f t="shared" ca="1" si="6"/>
-        <v>65.638999999999996</v>
+        <v>0.18288888888888888</v>
       </c>
       <c r="M42" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13430,11 +13430,11 @@
       </c>
       <c r="N42">
         <f t="shared" ca="1" si="8"/>
-        <v>88.612650000000002</v>
+        <v>0.24690000000000012</v>
       </c>
       <c r="O42">
         <f t="shared" ca="1" si="9"/>
-        <v>65.638999999999996</v>
+        <v>0.18288888888888888</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
@@ -13452,7 +13452,7 @@
       </c>
       <c r="D43">
         <f ca="1">(Tracker!G43+Tracker!H43)/2</f>
-        <v>95.5</v>
+        <v>98.5</v>
       </c>
       <c r="E43" s="34">
         <f>IF(OR(Tracker!F43="denied",Tracker!F43="on hold",Tracker!F43="No Response",Tracker!F43="pending"), 0.2, IF(Tracker!F43="interviewing", 0.4, IF(Tracker!F43="rejected", 0.3, IF(Tracker!F43="offer", 1, 0))))</f>
@@ -13467,7 +13467,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H43" s="34">
-        <v>28.95</v>
+        <v>0.95</v>
       </c>
       <c r="I43" s="35">
         <f>10-(0.5*Tracker!J43)</f>
@@ -13475,11 +13475,11 @@
       </c>
       <c r="J43">
         <f t="shared" ca="1" si="5"/>
-        <v>88.535924999999992</v>
+        <v>0.38797499999999996</v>
       </c>
       <c r="K43">
         <f t="shared" ca="1" si="6"/>
-        <v>58.823950000000004</v>
+        <v>5.8650000000000535E-2</v>
       </c>
       <c r="M43" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13487,11 +13487,11 @@
       </c>
       <c r="N43">
         <f t="shared" ca="1" si="8"/>
-        <v>88.535924999999992</v>
+        <v>0.38797499999999996</v>
       </c>
       <c r="O43">
         <f t="shared" ca="1" si="9"/>
-        <v>58.823950000000004</v>
+        <v>5.8650000000000535E-2</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
@@ -13509,7 +13509,7 @@
       </c>
       <c r="D44">
         <f ca="1">(Tracker!G44+Tracker!H44)/2</f>
-        <v>90</v>
+        <v>113.5</v>
       </c>
       <c r="E44" s="34">
         <f>IF(OR(Tracker!F44="denied",Tracker!F44="on hold",Tracker!F44="No Response",Tracker!F44="pending"), 0.2, IF(Tracker!F44="interviewing", 0.4, IF(Tracker!F44="rejected", 0.3, IF(Tracker!F44="offer", 1, 0))))</f>
@@ -13524,7 +13524,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H44" s="34">
-        <v>29.95</v>
+        <v>0.95</v>
       </c>
       <c r="I44" s="35">
         <f>10-(0.5*Tracker!J44)</f>
@@ -13532,11 +13532,11 @@
       </c>
       <c r="J44">
         <f t="shared" ca="1" si="5"/>
-        <v>86.251500000000007</v>
+        <v>0.85822499999999913</v>
       </c>
       <c r="K44">
         <f t="shared" ca="1" si="6"/>
-        <v>57.301000000000002</v>
+        <v>0.37215000000000042</v>
       </c>
       <c r="M44" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13544,11 +13544,11 @@
       </c>
       <c r="N44">
         <f t="shared" ca="1" si="8"/>
-        <v>86.251500000000007</v>
+        <v>0.85822499999999913</v>
       </c>
       <c r="O44">
         <f t="shared" ca="1" si="9"/>
-        <v>57.301000000000002</v>
+        <v>0.37215000000000042</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
@@ -13566,7 +13566,7 @@
       </c>
       <c r="D45">
         <f ca="1">(Tracker!G45+Tracker!H45)/2</f>
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="E45" s="34">
         <f>IF(OR(Tracker!F45="denied",Tracker!F45="on hold",Tracker!F45="No Response",Tracker!F45="pending"), 0.2, IF(Tracker!F45="interviewing", 0.4, IF(Tracker!F45="rejected", 0.3, IF(Tracker!F45="offer", 1, 0))))</f>
@@ -13581,7 +13581,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H45" s="34">
-        <v>30.95</v>
+        <v>0.95</v>
       </c>
       <c r="I45" s="35">
         <f>10-(0.5*Tracker!J45)</f>
@@ -13589,11 +13589,11 @@
       </c>
       <c r="J45">
         <f t="shared" ca="1" si="5"/>
-        <v>112.71254999999998</v>
+        <v>0.27824999999999989</v>
       </c>
       <c r="K45">
         <f t="shared" ca="1" si="6"/>
-        <v>74.941699999999997</v>
+        <v>-1.4499999999999957E-2</v>
       </c>
       <c r="M45" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13601,11 +13601,11 @@
       </c>
       <c r="N45">
         <f t="shared" ca="1" si="8"/>
-        <v>112.71254999999998</v>
+        <v>0.27824999999999989</v>
       </c>
       <c r="O45">
         <f t="shared" ca="1" si="9"/>
-        <v>74.941699999999997</v>
+        <v>-1.4499999999999957E-2</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
@@ -13623,7 +13623,7 @@
       </c>
       <c r="D46">
         <f ca="1">(Tracker!G46+Tracker!H46)/2</f>
-        <v>110.5</v>
+        <v>101</v>
       </c>
       <c r="E46" s="34">
         <f>IF(OR(Tracker!F46="denied",Tracker!F46="on hold",Tracker!F46="No Response",Tracker!F46="pending"), 0.2, IF(Tracker!F46="interviewing", 0.4, IF(Tracker!F46="rejected", 0.3, IF(Tracker!F46="offer", 1, 0))))</f>
@@ -13638,7 +13638,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H46" s="34">
-        <v>31.95</v>
+        <v>0.95</v>
       </c>
       <c r="I46" s="35">
         <f>10-(0.5*Tracker!J46)</f>
@@ -13646,11 +13646,11 @@
       </c>
       <c r="J46">
         <f t="shared" ca="1" si="5"/>
-        <v>113.80567500000002</v>
+        <v>0.46634999999999938</v>
       </c>
       <c r="K46">
         <f t="shared" ca="1" si="6"/>
-        <v>75.670450000000002</v>
+        <v>0.11090000000000044</v>
       </c>
       <c r="M46" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13658,11 +13658,11 @@
       </c>
       <c r="N46">
         <f t="shared" ca="1" si="8"/>
-        <v>113.80567500000002</v>
+        <v>0.46634999999999938</v>
       </c>
       <c r="O46">
         <f t="shared" ca="1" si="9"/>
-        <v>75.670450000000002</v>
+        <v>0.11090000000000044</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
@@ -13680,7 +13680,7 @@
       </c>
       <c r="D47">
         <f ca="1">(Tracker!G47+Tracker!H47)/2</f>
-        <v>117.5</v>
+        <v>120.5</v>
       </c>
       <c r="E47" s="34">
         <f>IF(OR(Tracker!F47="denied",Tracker!F47="on hold",Tracker!F47="No Response",Tracker!F47="pending"), 0.2, IF(Tracker!F47="interviewing", 0.4, IF(Tracker!F47="rejected", 0.3, IF(Tracker!F47="offer", 1, 0))))</f>
@@ -13695,7 +13695,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H47" s="34">
-        <v>32.950000000000003</v>
+        <v>0.95</v>
       </c>
       <c r="I47" s="35">
         <f>10-(0.5*Tracker!J47)</f>
@@ -13703,11 +13703,11 @@
       </c>
       <c r="J47">
         <f t="shared" ca="1" si="5"/>
-        <v>125.06362500000002</v>
+        <v>1.0776749999999997</v>
       </c>
       <c r="K47">
         <f t="shared" ca="1" si="6"/>
-        <v>83.175750000000022</v>
+        <v>0.51845000000000052</v>
       </c>
       <c r="M47" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13715,11 +13715,11 @@
       </c>
       <c r="N47">
         <f t="shared" ca="1" si="8"/>
-        <v>125.06362500000002</v>
+        <v>1.0776749999999997</v>
       </c>
       <c r="O47">
         <f t="shared" ca="1" si="9"/>
-        <v>83.175750000000022</v>
+        <v>0.51845000000000052</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
@@ -13737,7 +13737,7 @@
       </c>
       <c r="D48">
         <f ca="1">(Tracker!G48+Tracker!H48)/2</f>
-        <v>81.5</v>
+        <v>80</v>
       </c>
       <c r="E48" s="34">
         <f>IF(OR(Tracker!F48="denied",Tracker!F48="on hold",Tracker!F48="No Response",Tracker!F48="pending"), 0.2, IF(Tracker!F48="interviewing", 0.4, IF(Tracker!F48="rejected", 0.3, IF(Tracker!F48="offer", 1, 0))))</f>
@@ -13752,7 +13752,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H48" s="34">
-        <v>33.950000000000003</v>
+        <v>0.95</v>
       </c>
       <c r="I48" s="35">
         <f>10-(0.5*Tracker!J48)</f>
@@ -13760,11 +13760,11 @@
       </c>
       <c r="J48">
         <f t="shared" ca="1" si="5"/>
-        <v>88.608525000000014</v>
+        <v>-0.19200000000000017</v>
       </c>
       <c r="K48">
         <f t="shared" ca="1" si="6"/>
-        <v>89.308525000000017</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="M48" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13772,11 +13772,11 @@
       </c>
       <c r="N48">
         <f t="shared" ca="1" si="8"/>
-        <v>88.608525000000014</v>
+        <v>-0.19200000000000017</v>
       </c>
       <c r="O48">
         <f t="shared" ca="1" si="9"/>
-        <v>89.308525000000017</v>
+        <v>0.50800000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
@@ -13794,7 +13794,7 @@
       </c>
       <c r="D49">
         <f ca="1">(Tracker!G49+Tracker!H49)/2</f>
-        <v>101.5</v>
+        <v>95.5</v>
       </c>
       <c r="E49" s="34">
         <f>IF(OR(Tracker!F49="denied",Tracker!F49="on hold",Tracker!F49="No Response",Tracker!F49="pending"), 0.2, IF(Tracker!F49="interviewing", 0.4, IF(Tracker!F49="rejected", 0.3, IF(Tracker!F49="offer", 1, 0))))</f>
@@ -13809,7 +13809,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H49" s="34">
-        <v>34.950000000000003</v>
+        <v>0.95</v>
       </c>
       <c r="I49" s="35">
         <f>10-(0.5*Tracker!J49)</f>
@@ -13817,11 +13817,11 @@
       </c>
       <c r="J49">
         <f t="shared" ca="1" si="5"/>
-        <v>114.36502500000002</v>
+        <v>0.29392499999999977</v>
       </c>
       <c r="K49">
         <f t="shared" ca="1" si="6"/>
-        <v>115.06502500000002</v>
+        <v>0.99392499999999995</v>
       </c>
       <c r="M49" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13829,11 +13829,11 @@
       </c>
       <c r="N49">
         <f t="shared" ca="1" si="8"/>
-        <v>114.36502500000002</v>
+        <v>0.29392499999999977</v>
       </c>
       <c r="O49">
         <f t="shared" ca="1" si="9"/>
-        <v>115.06502500000002</v>
+        <v>0.99392499999999995</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
@@ -13851,7 +13851,7 @@
       </c>
       <c r="D50">
         <f ca="1">(Tracker!G50+Tracker!H50)/2</f>
-        <v>115</v>
+        <v>99.5</v>
       </c>
       <c r="E50" s="34">
         <f>IF(OR(Tracker!F50="denied",Tracker!F50="on hold",Tracker!F50="No Response",Tracker!F50="pending"), 0.2, IF(Tracker!F50="interviewing", 0.4, IF(Tracker!F50="rejected", 0.3, IF(Tracker!F50="offer", 1, 0))))</f>
@@ -13866,7 +13866,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H50" s="34">
-        <v>35.950000000000003</v>
+        <v>0.95</v>
       </c>
       <c r="I50" s="35">
         <f>10-(0.5*Tracker!J50)</f>
@@ -13874,11 +13874,11 @@
       </c>
       <c r="J50">
         <f t="shared" ca="1" si="5"/>
-        <v>133.73025000000004</v>
+        <v>0.41932499999999973</v>
       </c>
       <c r="K50">
         <f t="shared" ca="1" si="6"/>
-        <v>134.43025000000003</v>
+        <v>1.1193249999999999</v>
       </c>
       <c r="M50" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13886,11 +13886,11 @@
       </c>
       <c r="N50">
         <f t="shared" ca="1" si="8"/>
-        <v>133.73025000000004</v>
+        <v>0.41932499999999973</v>
       </c>
       <c r="O50">
         <f t="shared" ca="1" si="9"/>
-        <v>134.43025000000003</v>
+        <v>1.1193249999999999</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
@@ -13908,7 +13908,7 @@
       </c>
       <c r="D51">
         <f ca="1">(Tracker!G51+Tracker!H51)/2</f>
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="E51" s="34">
         <f>IF(OR(Tracker!F51="denied",Tracker!F51="on hold",Tracker!F51="No Response",Tracker!F51="pending"), 0.2, IF(Tracker!F51="interviewing", 0.4, IF(Tracker!F51="rejected", 0.3, IF(Tracker!F51="offer", 1, 0))))</f>
@@ -13923,7 +13923,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H51" s="34">
-        <v>36.950000000000003</v>
+        <v>0.95</v>
       </c>
       <c r="I51" s="35">
         <f>10-(0.5*Tracker!J51)</f>
@@ -13931,11 +13931,11 @@
       </c>
       <c r="J51">
         <f t="shared" ca="1" si="5"/>
-        <v>91.18995000000001</v>
+        <v>0.56039999999999957</v>
       </c>
       <c r="K51">
         <f t="shared" ca="1" si="6"/>
-        <v>91.889950000000013</v>
+        <v>1.2603999999999997</v>
       </c>
       <c r="M51" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13943,11 +13943,11 @@
       </c>
       <c r="N51">
         <f t="shared" ca="1" si="8"/>
-        <v>91.18995000000001</v>
+        <v>0.56039999999999957</v>
       </c>
       <c r="O51">
         <f t="shared" ca="1" si="9"/>
-        <v>91.889950000000013</v>
+        <v>1.2603999999999997</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
@@ -13965,7 +13965,7 @@
       </c>
       <c r="D52">
         <f ca="1">(Tracker!G52+Tracker!H52)/2</f>
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E52" s="34">
         <f>IF(OR(Tracker!F52="denied",Tracker!F52="on hold",Tracker!F52="No Response",Tracker!F52="pending"), 0.2, IF(Tracker!F52="interviewing", 0.4, IF(Tracker!F52="rejected", 0.3, IF(Tracker!F52="offer", 1, 0))))</f>
@@ -13980,7 +13980,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H52" s="34">
-        <v>37.950000000000003</v>
+        <v>0.95</v>
       </c>
       <c r="I52" s="35">
         <f>10-(0.5*Tracker!J52)</f>
@@ -13988,11 +13988,11 @@
       </c>
       <c r="J52">
         <f t="shared" ca="1" si="5"/>
-        <v>113.76855</v>
+        <v>0.12149999999999972</v>
       </c>
       <c r="K52">
         <f t="shared" ca="1" si="6"/>
-        <v>114.46855000000001</v>
+        <v>0.8214999999999999</v>
       </c>
       <c r="M52" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14000,11 +14000,11 @@
       </c>
       <c r="N52">
         <f t="shared" ca="1" si="8"/>
-        <v>113.76855</v>
+        <v>0.12149999999999972</v>
       </c>
       <c r="O52">
         <f t="shared" ca="1" si="9"/>
-        <v>114.46855000000001</v>
+        <v>0.8214999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.35">
@@ -14022,7 +14022,7 @@
       </c>
       <c r="D53">
         <f ca="1">(Tracker!G53+Tracker!H53)/2</f>
-        <v>103.5</v>
+        <v>109.5</v>
       </c>
       <c r="E53" s="34">
         <f>IF(OR(Tracker!F53="denied",Tracker!F53="on hold",Tracker!F53="No Response",Tracker!F53="pending"), 0.2, IF(Tracker!F53="interviewing", 0.4, IF(Tracker!F53="rejected", 0.3, IF(Tracker!F53="offer", 1, 0))))</f>
@@ -14037,7 +14037,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H53" s="34">
-        <v>38.950000000000003</v>
+        <v>0.95</v>
       </c>
       <c r="I53" s="35">
         <f>10-(0.5*Tracker!J53)</f>
@@ -14045,11 +14045,11 @@
       </c>
       <c r="J53">
         <f t="shared" ca="1" si="5"/>
-        <v>130.33372500000002</v>
+        <v>0.73282500000000006</v>
       </c>
       <c r="K53">
         <f t="shared" ca="1" si="6"/>
-        <v>131.033725</v>
+        <v>1.4328250000000002</v>
       </c>
       <c r="M53" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14057,11 +14057,11 @@
       </c>
       <c r="N53">
         <f t="shared" ca="1" si="8"/>
-        <v>130.33372500000002</v>
+        <v>0.73282500000000006</v>
       </c>
       <c r="O53">
         <f t="shared" ca="1" si="9"/>
-        <v>131.033725</v>
+        <v>1.4328250000000002</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.35">
@@ -14079,7 +14079,7 @@
       </c>
       <c r="D54">
         <f ca="1">(Tracker!G54+Tracker!H54)/2</f>
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E54" s="34">
         <f>IF(OR(Tracker!F54="denied",Tracker!F54="on hold",Tracker!F54="No Response",Tracker!F54="pending"), 0.2, IF(Tracker!F54="interviewing", 0.4, IF(Tracker!F54="rejected", 0.3, IF(Tracker!F54="offer", 1, 0))))</f>
@@ -14094,7 +14094,7 @@
         <v>1</v>
       </c>
       <c r="H54" s="34">
-        <v>39.950000000000003</v>
+        <v>0.95</v>
       </c>
       <c r="I54" s="35">
         <f>10-(0.5*Tracker!J54)</f>
@@ -14102,11 +14102,11 @@
       </c>
       <c r="J54">
         <f t="shared" ca="1" si="5"/>
-        <v>114.753</v>
+        <v>-0.16350000000000042</v>
       </c>
       <c r="K54">
         <f t="shared" ca="1" si="6"/>
-        <v>154.60399999999998</v>
+        <v>1.3819999999999997</v>
       </c>
       <c r="M54" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14114,11 +14114,11 @@
       </c>
       <c r="N54">
         <f t="shared" ca="1" si="8"/>
-        <v>114.753</v>
+        <v>-0.16350000000000042</v>
       </c>
       <c r="O54">
         <f t="shared" ca="1" si="9"/>
-        <v>154.60399999999998</v>
+        <v>1.3819999999999997</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.35">
@@ -14136,7 +14136,7 @@
       </c>
       <c r="D55">
         <f ca="1">(Tracker!G55+Tracker!H55)/2</f>
-        <v>83</v>
+        <v>84.5</v>
       </c>
       <c r="E55" s="34">
         <f>IF(OR(Tracker!F55="denied",Tracker!F55="on hold",Tracker!F55="No Response",Tracker!F55="pending"), 0.2, IF(Tracker!F55="interviewing", 0.4, IF(Tracker!F55="rejected", 0.3, IF(Tracker!F55="offer", 1, 0))))</f>
@@ -14151,7 +14151,7 @@
         <v>1</v>
       </c>
       <c r="H55" s="34">
-        <v>40.950000000000003</v>
+        <v>0.95</v>
       </c>
       <c r="I55" s="35">
         <f>10-(0.5*Tracker!J55)</f>
@@ -14159,11 +14159,11 @@
       </c>
       <c r="J55">
         <f t="shared" ca="1" si="5"/>
-        <v>99.265499999999989</v>
+        <v>-0.2917500000000004</v>
       </c>
       <c r="K55">
         <f t="shared" ca="1" si="6"/>
-        <v>99.965499999999992</v>
+        <v>0.40824999999999978</v>
       </c>
       <c r="M55" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14171,11 +14171,11 @@
       </c>
       <c r="N55">
         <f t="shared" ca="1" si="8"/>
-        <v>99.265499999999989</v>
+        <v>-0.2917500000000004</v>
       </c>
       <c r="O55">
         <f t="shared" ca="1" si="9"/>
-        <v>99.965499999999992</v>
+        <v>0.40824999999999978</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
@@ -14193,7 +14193,7 @@
       </c>
       <c r="D56">
         <f ca="1">(Tracker!G56+Tracker!H56)/2</f>
-        <v>110.5</v>
+        <v>106</v>
       </c>
       <c r="E56" s="34">
         <f>IF(OR(Tracker!F56="denied",Tracker!F56="on hold",Tracker!F56="No Response",Tracker!F56="pending"), 0.2, IF(Tracker!F56="interviewing", 0.4, IF(Tracker!F56="rejected", 0.3, IF(Tracker!F56="offer", 1, 0))))</f>
@@ -14208,7 +14208,7 @@
         <v>1</v>
       </c>
       <c r="H56" s="34">
-        <v>41.95</v>
+        <v>0.95</v>
       </c>
       <c r="I56" s="35">
         <f>10-(0.5*Tracker!J56)</f>
@@ -14216,11 +14216,11 @@
       </c>
       <c r="J56">
         <f t="shared" ca="1" si="5"/>
-        <v>136.36425</v>
+        <v>0.32099999999999973</v>
       </c>
       <c r="K56">
         <f t="shared" ca="1" si="6"/>
-        <v>90.70950000000002</v>
+        <v>1.4000000000000234E-2</v>
       </c>
       <c r="M56" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14228,11 +14228,11 @@
       </c>
       <c r="N56">
         <f t="shared" ca="1" si="8"/>
-        <v>136.36425</v>
+        <v>0.32099999999999973</v>
       </c>
       <c r="O56">
         <f t="shared" ca="1" si="9"/>
-        <v>90.70950000000002</v>
+        <v>1.4000000000000234E-2</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.35">
@@ -14250,7 +14250,7 @@
       </c>
       <c r="D57">
         <f ca="1">(Tracker!G57+Tracker!H57)/2</f>
-        <v>89.5</v>
+        <v>89</v>
       </c>
       <c r="E57" s="34">
         <f>IF(OR(Tracker!F57="denied",Tracker!F57="on hold",Tracker!F57="No Response",Tracker!F57="pending"), 0.2, IF(Tracker!F57="interviewing", 0.4, IF(Tracker!F57="rejected", 0.3, IF(Tracker!F57="offer", 1, 0))))</f>
@@ -14265,7 +14265,7 @@
         <v>1</v>
       </c>
       <c r="H57" s="34">
-        <v>42.95</v>
+        <v>0.95</v>
       </c>
       <c r="I57" s="35">
         <f>10-(0.5*Tracker!J57)</f>
@@ -14273,11 +14273,11 @@
       </c>
       <c r="J57">
         <f t="shared" ca="1" si="5"/>
-        <v>112.62075</v>
+        <v>-0.16350000000000042</v>
       </c>
       <c r="K57">
         <f t="shared" ca="1" si="6"/>
-        <v>74.880500000000012</v>
+        <v>-0.30899999999999994</v>
       </c>
       <c r="M57" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14285,11 +14285,11 @@
       </c>
       <c r="N57">
         <f t="shared" ca="1" si="8"/>
-        <v>112.62075</v>
+        <v>-0.16350000000000042</v>
       </c>
       <c r="O57">
         <f t="shared" ca="1" si="9"/>
-        <v>74.880500000000012</v>
+        <v>-0.30899999999999994</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.35">
@@ -14307,7 +14307,7 @@
       </c>
       <c r="D58">
         <f ca="1">(Tracker!G58+Tracker!H58)/2</f>
-        <v>103.5</v>
+        <v>112.5</v>
       </c>
       <c r="E58" s="34">
         <f>IF(OR(Tracker!F58="denied",Tracker!F58="on hold",Tracker!F58="No Response",Tracker!F58="pending"), 0.2, IF(Tracker!F58="interviewing", 0.4, IF(Tracker!F58="rejected", 0.3, IF(Tracker!F58="offer", 1, 0))))</f>
@@ -14322,7 +14322,7 @@
         <v>1</v>
       </c>
       <c r="H58" s="34">
-        <v>43.95</v>
+        <v>0.95</v>
       </c>
       <c r="I58" s="35">
         <f>10-(0.5*Tracker!J58)</f>
@@ -14330,11 +14330,11 @@
       </c>
       <c r="J58">
         <f t="shared" ca="1" si="5"/>
-        <v>133.76475000000002</v>
+        <v>0.50624999999999964</v>
       </c>
       <c r="K58">
         <f t="shared" ca="1" si="6"/>
-        <v>88.976500000000016</v>
+        <v>0.13750000000000018</v>
       </c>
       <c r="M58" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14342,11 +14342,11 @@
       </c>
       <c r="N58">
         <f t="shared" ca="1" si="8"/>
-        <v>133.76475000000002</v>
+        <v>0.50624999999999964</v>
       </c>
       <c r="O58">
         <f t="shared" ca="1" si="9"/>
-        <v>88.976500000000016</v>
+        <v>0.13750000000000018</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.35">
@@ -14364,7 +14364,7 @@
       </c>
       <c r="D59">
         <f ca="1">(Tracker!G59+Tracker!H59)/2</f>
-        <v>112.5</v>
+        <v>99.5</v>
       </c>
       <c r="E59" s="34">
         <f>IF(OR(Tracker!F59="denied",Tracker!F59="on hold",Tracker!F59="No Response",Tracker!F59="pending"), 0.2, IF(Tracker!F59="interviewing", 0.4, IF(Tracker!F59="rejected", 0.3, IF(Tracker!F59="offer", 1, 0))))</f>
@@ -14379,7 +14379,7 @@
         <v>1</v>
       </c>
       <c r="H59" s="34">
-        <v>44.95</v>
+        <v>0.95</v>
       </c>
       <c r="I59" s="35">
         <f>10-(0.5*Tracker!J59)</f>
@@ -14387,11 +14387,11 @@
       </c>
       <c r="J59">
         <f t="shared" ca="1" si="5"/>
-        <v>149.00625000000002</v>
+        <v>0.13574999999999982</v>
       </c>
       <c r="K59">
         <f t="shared" ca="1" si="6"/>
-        <v>99.137500000000017</v>
+        <v>-0.10949999999999993</v>
       </c>
       <c r="M59" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14399,11 +14399,11 @@
       </c>
       <c r="N59">
         <f t="shared" ca="1" si="8"/>
-        <v>149.00625000000002</v>
+        <v>0.13574999999999982</v>
       </c>
       <c r="O59">
         <f t="shared" ca="1" si="9"/>
-        <v>99.137500000000017</v>
+        <v>-0.10949999999999993</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.35">
@@ -14421,7 +14421,7 @@
       </c>
       <c r="D60">
         <f ca="1">(Tracker!G60+Tracker!H60)/2</f>
-        <v>97.5</v>
+        <v>100.5</v>
       </c>
       <c r="E60" s="34">
         <f>IF(OR(Tracker!F60="denied",Tracker!F60="on hold",Tracker!F60="No Response",Tracker!F60="pending"), 0.2, IF(Tracker!F60="interviewing", 0.4, IF(Tracker!F60="rejected", 0.3, IF(Tracker!F60="offer", 1, 0))))</f>
@@ -14436,7 +14436,7 @@
         <v>1</v>
       </c>
       <c r="H60" s="34">
-        <v>45.95</v>
+        <v>0.95</v>
       </c>
       <c r="I60" s="35">
         <f>10-(0.5*Tracker!J60)</f>
@@ -14444,11 +14444,11 @@
       </c>
       <c r="J60">
         <f t="shared" ca="1" si="5"/>
-        <v>131.70375000000001</v>
+        <v>0.16424999999999956</v>
       </c>
       <c r="K60">
         <f t="shared" ca="1" si="6"/>
-        <v>87.602500000000006</v>
+        <v>-9.0500000000000025E-2</v>
       </c>
       <c r="M60" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14456,11 +14456,11 @@
       </c>
       <c r="N60">
         <f t="shared" ca="1" si="8"/>
-        <v>131.70375000000001</v>
+        <v>0.16424999999999956</v>
       </c>
       <c r="O60">
         <f t="shared" ca="1" si="9"/>
-        <v>87.602500000000006</v>
+        <v>-9.0500000000000025E-2</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.35">
@@ -14478,7 +14478,7 @@
       </c>
       <c r="D61">
         <f ca="1">(Tracker!G61+Tracker!H61)/2</f>
-        <v>91.5</v>
+        <v>113.5</v>
       </c>
       <c r="E61" s="34">
         <f>IF(OR(Tracker!F61="denied",Tracker!F61="on hold",Tracker!F61="No Response",Tracker!F61="pending"), 0.2, IF(Tracker!F61="interviewing", 0.4, IF(Tracker!F61="rejected", 0.3, IF(Tracker!F61="offer", 1, 0))))</f>
@@ -14493,7 +14493,7 @@
         <v>1</v>
       </c>
       <c r="H61" s="34">
-        <v>46.95</v>
+        <v>0.95</v>
       </c>
       <c r="I61" s="35">
         <f>10-(0.5*Tracker!J61)</f>
@@ -14501,11 +14501,11 @@
       </c>
       <c r="J61">
         <f t="shared" ca="1" si="5"/>
-        <v>126.17775000000002</v>
+        <v>0.53474999999999939</v>
       </c>
       <c r="K61">
         <f t="shared" ca="1" si="6"/>
-        <v>83.918500000000009</v>
+        <v>0.15650000000000031</v>
       </c>
       <c r="M61" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14513,11 +14513,11 @@
       </c>
       <c r="N61">
         <f t="shared" ca="1" si="8"/>
-        <v>126.17775000000002</v>
+        <v>0.53474999999999939</v>
       </c>
       <c r="O61">
         <f t="shared" ca="1" si="9"/>
-        <v>83.918500000000009</v>
+        <v>0.15650000000000031</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.35">
@@ -14535,7 +14535,7 @@
       </c>
       <c r="D62">
         <f ca="1">(Tracker!G62+Tracker!H62)/2</f>
-        <v>85.5</v>
+        <v>106</v>
       </c>
       <c r="E62" s="34">
         <f>IF(OR(Tracker!F62="denied",Tracker!F62="on hold",Tracker!F62="No Response",Tracker!F62="pending"), 0.2, IF(Tracker!F62="interviewing", 0.4, IF(Tracker!F62="rejected", 0.3, IF(Tracker!F62="offer", 1, 0))))</f>
@@ -14550,7 +14550,7 @@
         <v>1</v>
       </c>
       <c r="H62" s="34">
-        <v>47.95</v>
+        <v>0.95</v>
       </c>
       <c r="I62" s="35">
         <f>10-(0.5*Tracker!J62)</f>
@@ -14558,11 +14558,11 @@
       </c>
       <c r="J62">
         <f t="shared" ca="1" si="5"/>
-        <v>120.29174999999999</v>
+        <v>0.32099999999999973</v>
       </c>
       <c r="K62">
         <f t="shared" ca="1" si="6"/>
-        <v>79.994500000000016</v>
+        <v>1.4000000000000234E-2</v>
       </c>
       <c r="M62" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14570,11 +14570,11 @@
       </c>
       <c r="N62">
         <f t="shared" ca="1" si="8"/>
-        <v>120.29174999999999</v>
+        <v>0.32099999999999973</v>
       </c>
       <c r="O62">
         <f t="shared" ca="1" si="9"/>
-        <v>79.994500000000016</v>
+        <v>1.4000000000000234E-2</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.35">
@@ -14592,7 +14592,7 @@
       </c>
       <c r="D63">
         <f ca="1">(Tracker!G63+Tracker!H63)/2</f>
-        <v>82.5</v>
+        <v>113</v>
       </c>
       <c r="E63" s="34">
         <f>IF(OR(Tracker!F63="denied",Tracker!F63="on hold",Tracker!F63="No Response",Tracker!F63="pending"), 0.2, IF(Tracker!F63="interviewing", 0.4, IF(Tracker!F63="rejected", 0.3, IF(Tracker!F63="offer", 1, 0))))</f>
@@ -14607,7 +14607,7 @@
         <v>1</v>
       </c>
       <c r="H63" s="34">
-        <v>48.95</v>
+        <v>0.95</v>
       </c>
       <c r="I63" s="35">
         <f>10-(0.5*Tracker!J63)</f>
@@ -14615,11 +14615,11 @@
       </c>
       <c r="J63">
         <f t="shared" ca="1" si="5"/>
-        <v>118.45125</v>
+        <v>0.52049999999999974</v>
       </c>
       <c r="K63">
         <f t="shared" ca="1" si="6"/>
-        <v>78.767500000000013</v>
+        <v>0.1469999999999998</v>
       </c>
       <c r="M63" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14627,11 +14627,11 @@
       </c>
       <c r="N63">
         <f t="shared" ca="1" si="8"/>
-        <v>118.45125</v>
+        <v>0.52049999999999974</v>
       </c>
       <c r="O63">
         <f t="shared" ca="1" si="9"/>
-        <v>78.767500000000013</v>
+        <v>0.1469999999999998</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.35">
@@ -14649,7 +14649,7 @@
       </c>
       <c r="D64">
         <f ca="1">(Tracker!G64+Tracker!H64)/2</f>
-        <v>89.5</v>
+        <v>120.5</v>
       </c>
       <c r="E64" s="34">
         <f>IF(OR(Tracker!F64="denied",Tracker!F64="on hold",Tracker!F64="No Response",Tracker!F64="pending"), 0.2, IF(Tracker!F64="interviewing", 0.4, IF(Tracker!F64="rejected", 0.3, IF(Tracker!F64="offer", 1, 0))))</f>
@@ -14664,7 +14664,7 @@
         <v>1</v>
       </c>
       <c r="H64" s="34">
-        <v>49.95</v>
+        <v>0.95</v>
       </c>
       <c r="I64" s="35">
         <f>10-(0.5*Tracker!J64)</f>
@@ -14672,11 +14672,11 @@
       </c>
       <c r="J64">
         <f t="shared" ca="1" si="5"/>
-        <v>131.41575</v>
+        <v>0.7342499999999994</v>
       </c>
       <c r="K64">
         <f t="shared" ca="1" si="6"/>
-        <v>87.410500000000013</v>
+        <v>0.28949999999999987</v>
       </c>
       <c r="M64" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14684,11 +14684,11 @@
       </c>
       <c r="N64">
         <f t="shared" ca="1" si="8"/>
-        <v>131.41575</v>
+        <v>0.7342499999999994</v>
       </c>
       <c r="O64">
         <f t="shared" ca="1" si="9"/>
-        <v>87.410500000000013</v>
+        <v>0.28949999999999987</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.35">
@@ -14706,7 +14706,7 @@
       </c>
       <c r="D65">
         <f ca="1">(Tracker!G65+Tracker!H65)/2</f>
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E65" s="34">
         <f>IF(OR(Tracker!F65="denied",Tracker!F65="on hold",Tracker!F65="No Response",Tracker!F65="pending"), 0.2, IF(Tracker!F65="interviewing", 0.4, IF(Tracker!F65="rejected", 0.3, IF(Tracker!F65="offer", 1, 0))))</f>
@@ -14721,7 +14721,7 @@
         <v>0.9</v>
       </c>
       <c r="H65" s="34">
-        <v>50.95</v>
+        <v>0.95</v>
       </c>
       <c r="I65" s="35">
         <f>10-(0.5*Tracker!J65)</f>
@@ -14729,11 +14729,11 @@
       </c>
       <c r="J65">
         <f t="shared" ca="1" si="5"/>
-        <v>130.73805000000002</v>
+        <v>-0.23760000000000048</v>
       </c>
       <c r="K65">
         <f t="shared" ca="1" si="6"/>
-        <v>86.958700000000007</v>
+        <v>-0.35839999999999961</v>
       </c>
       <c r="M65" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14741,11 +14741,11 @@
       </c>
       <c r="N65">
         <f t="shared" ca="1" si="8"/>
-        <v>130.73805000000002</v>
+        <v>-0.23760000000000048</v>
       </c>
       <c r="O65">
         <f t="shared" ca="1" si="9"/>
-        <v>86.958700000000007</v>
+        <v>-0.35839999999999961</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.35">
@@ -14763,7 +14763,7 @@
       </c>
       <c r="D66">
         <f ca="1">(Tracker!G66+Tracker!H66)/2</f>
-        <v>102</v>
+        <v>105.5</v>
       </c>
       <c r="E66" s="34">
         <f>IF(OR(Tracker!F66="denied",Tracker!F66="on hold",Tracker!F66="No Response",Tracker!F66="pending"), 0.2, IF(Tracker!F66="interviewing", 0.4, IF(Tracker!F66="rejected", 0.3, IF(Tracker!F66="offer", 1, 0))))</f>
@@ -14778,7 +14778,7 @@
         <v>0.9</v>
       </c>
       <c r="H66" s="34">
-        <v>51.95</v>
+        <v>0.95</v>
       </c>
       <c r="I66" s="35">
         <f>10-(0.5*Tracker!J66)</f>
@@ -14786,11 +14786,11 @@
       </c>
       <c r="J66">
         <f t="shared" ca="1" si="5"/>
-        <v>140.37030000000001</v>
+        <v>6.0749999999996085E-3</v>
       </c>
       <c r="K66">
         <f t="shared" ca="1" si="6"/>
-        <v>149.39714285714291</v>
+        <v>0.86357142857142888</v>
       </c>
       <c r="M66" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14798,11 +14798,11 @@
       </c>
       <c r="N66">
         <f t="shared" ca="1" si="8"/>
-        <v>140.37030000000001</v>
+        <v>6.0749999999996085E-3</v>
       </c>
       <c r="O66">
         <f t="shared" ca="1" si="9"/>
-        <v>149.39714285714291</v>
+        <v>0.86357142857142888</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.35">
@@ -14820,7 +14820,7 @@
       </c>
       <c r="D67">
         <f ca="1">(Tracker!G67+Tracker!H67)/2</f>
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E67" s="34">
         <f>IF(OR(Tracker!F67="denied",Tracker!F67="on hold",Tracker!F67="No Response",Tracker!F67="pending"), 0.2, IF(Tracker!F67="interviewing", 0.4, IF(Tracker!F67="rejected", 0.3, IF(Tracker!F67="offer", 1, 0))))</f>
@@ -14835,7 +14835,7 @@
         <v>0.9</v>
       </c>
       <c r="H67" s="34">
-        <v>52.95</v>
+        <v>0.95</v>
       </c>
       <c r="I67" s="35">
         <f>10-(0.5*Tracker!J67)</f>
@@ -14843,11 +14843,11 @@
       </c>
       <c r="J67">
         <f t="shared" ca="1" si="5"/>
-        <v>150.27255000000002</v>
+        <v>-0.2119500000000003</v>
       </c>
       <c r="K67">
         <f t="shared" ca="1" si="6"/>
-        <v>111.31300000000002</v>
+        <v>-0.15700000000000003</v>
       </c>
       <c r="M67" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14855,11 +14855,11 @@
       </c>
       <c r="N67">
         <f t="shared" ca="1" si="8"/>
-        <v>150.27255000000002</v>
+        <v>-0.2119500000000003</v>
       </c>
       <c r="O67">
         <f t="shared" ca="1" si="9"/>
-        <v>111.31300000000002</v>
+        <v>-0.15700000000000003</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.35">
@@ -14877,7 +14877,7 @@
       </c>
       <c r="D68">
         <f ca="1">(Tracker!G68+Tracker!H68)/2</f>
-        <v>103.5</v>
+        <v>89</v>
       </c>
       <c r="E68" s="34">
         <f>IF(OR(Tracker!F68="denied",Tracker!F68="on hold",Tracker!F68="No Response",Tracker!F68="pending"), 0.2, IF(Tracker!F68="interviewing", 0.4, IF(Tracker!F68="rejected", 0.3, IF(Tracker!F68="offer", 1, 0))))</f>
@@ -14892,7 +14892,7 @@
         <v>0.9</v>
       </c>
       <c r="H68" s="34">
-        <v>53.95</v>
+        <v>0.95</v>
       </c>
       <c r="I68" s="35">
         <f>10-(0.5*Tracker!J68)</f>
@@ -14900,11 +14900,11 @@
       </c>
       <c r="J68">
         <f t="shared" ca="1" si="5"/>
-        <v>148.063275</v>
+        <v>-0.41715000000000035</v>
       </c>
       <c r="K68">
         <f t="shared" ca="1" si="6"/>
-        <v>109.67650000000002</v>
+        <v>-0.30900000000000016</v>
       </c>
       <c r="M68" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14912,11 +14912,11 @@
       </c>
       <c r="N68">
         <f t="shared" ca="1" si="8"/>
-        <v>148.063275</v>
+        <v>-0.41715000000000035</v>
       </c>
       <c r="O68">
         <f t="shared" ca="1" si="9"/>
-        <v>109.67650000000002</v>
+        <v>-0.30900000000000016</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.35">
@@ -14934,7 +14934,7 @@
       </c>
       <c r="D69">
         <f ca="1">(Tracker!G69+Tracker!H69)/2</f>
-        <v>84.5</v>
+        <v>106.5</v>
       </c>
       <c r="E69" s="34">
         <f>IF(OR(Tracker!F69="denied",Tracker!F69="on hold",Tracker!F69="No Response",Tracker!F69="pending"), 0.2, IF(Tracker!F69="interviewing", 0.4, IF(Tracker!F69="rejected", 0.3, IF(Tracker!F69="offer", 1, 0))))</f>
@@ -14949,7 +14949,7 @@
         <v>0.9</v>
       </c>
       <c r="H69" s="34">
-        <v>54.95</v>
+        <v>0.95</v>
       </c>
       <c r="I69" s="35">
         <f>10-(0.5*Tracker!J69)</f>
@@ -14957,11 +14957,11 @@
       </c>
       <c r="J69">
         <f t="shared" ca="1" si="5"/>
-        <v>122.668425</v>
+        <v>3.1724999999999781E-2</v>
       </c>
       <c r="K69">
         <f t="shared" ca="1" si="6"/>
-        <v>90.865500000000026</v>
+        <v>2.3500000000000298E-2</v>
       </c>
       <c r="M69" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14969,11 +14969,11 @@
       </c>
       <c r="N69">
         <f t="shared" ca="1" si="8"/>
-        <v>122.668425</v>
+        <v>3.1724999999999781E-2</v>
       </c>
       <c r="O69">
         <f t="shared" ca="1" si="9"/>
-        <v>90.865500000000026</v>
+        <v>2.3500000000000298E-2</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.35">
@@ -14991,7 +14991,7 @@
       </c>
       <c r="D70">
         <f ca="1">(Tracker!G70+Tracker!H70)/2</f>
-        <v>104</v>
+        <v>120.5</v>
       </c>
       <c r="E70" s="34">
         <f>IF(OR(Tracker!F70="denied",Tracker!F70="on hold",Tracker!F70="No Response",Tracker!F70="pending"), 0.2, IF(Tracker!F70="interviewing", 0.4, IF(Tracker!F70="rejected", 0.3, IF(Tracker!F70="offer", 1, 0))))</f>
@@ -15006,7 +15006,7 @@
         <v>0.9</v>
       </c>
       <c r="H70" s="34">
-        <v>55.95</v>
+        <v>0.95</v>
       </c>
       <c r="I70" s="35">
         <f>10-(0.5*Tracker!J70)</f>
@@ -15014,11 +15014,11 @@
       </c>
       <c r="J70">
         <f t="shared" ca="1" si="5"/>
-        <v>154.4076</v>
+        <v>0.39082499999999953</v>
       </c>
       <c r="K70">
         <f t="shared" ca="1" si="6"/>
-        <v>114.37600000000003</v>
+        <v>0.28949999999999987</v>
       </c>
       <c r="M70" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -15026,11 +15026,11 @@
       </c>
       <c r="N70">
         <f t="shared" ca="1" si="8"/>
-        <v>154.4076</v>
+        <v>0.39082499999999953</v>
       </c>
       <c r="O70">
         <f t="shared" ca="1" si="9"/>
-        <v>114.37600000000003</v>
+        <v>0.28949999999999987</v>
       </c>
     </row>
   </sheetData>

--- a/example_app_tracker.xlsx
+++ b/example_app_tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\graha\OneDrive\Documents\GitHub\application_tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03A4572-5E40-424A-A2C0-B84A4D994AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F240B07A-488B-4ED1-ADDD-B359D745603D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17140" yWindow="4230" windowWidth="20200" windowHeight="15960" activeTab="3" xr2:uid="{85E7A6A4-6F22-48D9-815F-FC03736B7AC4}"/>
+    <workbookView xWindow="17140" yWindow="4230" windowWidth="20200" windowHeight="15960" xr2:uid="{85E7A6A4-6F22-48D9-815F-FC03736B7AC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="241">
   <si>
     <t>Company</t>
   </si>
@@ -952,6 +952,9 @@
   </si>
   <si>
     <t>LinkedIn DM</t>
+  </si>
+  <si>
+    <t>Ghosted</t>
   </si>
 </sst>
 </file>
@@ -1686,25 +1689,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6834,9 +6837,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2050F9-523E-4C88-ABEB-54BB5869DFA0}">
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I64" sqref="I64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6910,11 +6913,11 @@
       </c>
       <c r="G2">
         <f ca="1">ROUND(RAND()*60+50,0)</f>
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="H2">
         <f ca="1">ROUND(RAND()*40+100,0)</f>
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>11</v>
@@ -6948,11 +6951,11 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G66" ca="1" si="1">ROUND(RAND()*60+50,0)</f>
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H66" ca="1" si="2">ROUND(RAND()*40+100,0)</f>
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>11</v>
@@ -6986,11 +6989,11 @@
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="2"/>
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>11</v>
@@ -7024,11 +7027,11 @@
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="2"/>
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>10</v>
@@ -7062,11 +7065,11 @@
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="2"/>
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>11</v>
@@ -7100,11 +7103,11 @@
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="2"/>
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>11</v>
@@ -7138,11 +7141,11 @@
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="2"/>
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>11</v>
@@ -7176,11 +7179,11 @@
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="1"/>
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="2"/>
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>11</v>
@@ -7214,11 +7217,11 @@
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>13</v>
@@ -7252,11 +7255,11 @@
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="2"/>
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>11</v>
@@ -7290,11 +7293,11 @@
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="1"/>
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="2"/>
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>11</v>
@@ -7328,11 +7331,11 @@
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="1"/>
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="2"/>
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>10</v>
@@ -7366,11 +7369,11 @@
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="2"/>
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>10</v>
@@ -7404,11 +7407,11 @@
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="2"/>
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>10</v>
@@ -7442,11 +7445,11 @@
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="2"/>
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>15</v>
@@ -7480,11 +7483,11 @@
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="2"/>
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>15</v>
@@ -7518,11 +7521,11 @@
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="2"/>
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>15</v>
@@ -7556,11 +7559,11 @@
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="2"/>
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>15</v>
@@ -7594,11 +7597,11 @@
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="2"/>
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>15</v>
@@ -7632,11 +7635,11 @@
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="2"/>
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>239</v>
@@ -7670,11 +7673,11 @@
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="2"/>
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>239</v>
@@ -7708,11 +7711,11 @@
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="2"/>
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>239</v>
@@ -7746,11 +7749,11 @@
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="2"/>
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>9</v>
@@ -7784,11 +7787,11 @@
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="2"/>
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>9</v>
@@ -7822,11 +7825,11 @@
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="2"/>
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>9</v>
@@ -7860,11 +7863,11 @@
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="2"/>
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>9</v>
@@ -7898,11 +7901,11 @@
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="2"/>
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>9</v>
@@ -7936,11 +7939,11 @@
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="2"/>
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>9</v>
@@ -7970,15 +7973,15 @@
         <v>45752</v>
       </c>
       <c r="F30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="1"/>
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="2"/>
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>9</v>
@@ -8008,15 +8011,15 @@
         <v>45752</v>
       </c>
       <c r="F31" t="s">
-        <v>3</v>
+        <v>240</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="2"/>
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>9</v>
@@ -8046,15 +8049,15 @@
         <v>45774</v>
       </c>
       <c r="F32" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="2"/>
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>15</v>
@@ -8084,15 +8087,15 @@
         <v>45775</v>
       </c>
       <c r="F33" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="2"/>
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>17</v>
@@ -8122,15 +8125,15 @@
         <v>45776</v>
       </c>
       <c r="F34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="2"/>
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>17</v>
@@ -8164,11 +8167,11 @@
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="1"/>
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>17</v>
@@ -8198,15 +8201,15 @@
         <v>45778</v>
       </c>
       <c r="F36" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="1"/>
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="2"/>
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>17</v>
@@ -8240,11 +8243,11 @@
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="2"/>
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>19</v>
@@ -8278,11 +8281,11 @@
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="2"/>
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>19</v>
@@ -8316,11 +8319,11 @@
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="2"/>
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>19</v>
@@ -8354,11 +8357,11 @@
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="2"/>
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>19</v>
@@ -8388,15 +8391,15 @@
         <v>45783</v>
       </c>
       <c r="F41" t="s">
-        <v>72</v>
+        <v>240</v>
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="2"/>
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>19</v>
@@ -8426,15 +8429,15 @@
         <v>45784</v>
       </c>
       <c r="F42" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="2"/>
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>19</v>
@@ -8464,15 +8467,15 @@
         <v>45785</v>
       </c>
       <c r="F43" t="s">
-        <v>72</v>
+        <v>240</v>
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="2"/>
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>19</v>
@@ -8506,11 +8509,11 @@
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="1"/>
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="2"/>
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>21</v>
@@ -8544,11 +8547,11 @@
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="2"/>
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>21</v>
@@ -8578,15 +8581,15 @@
         <v>45788</v>
       </c>
       <c r="F46" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="2"/>
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>21</v>
@@ -8620,11 +8623,11 @@
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="1"/>
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="2"/>
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>21</v>
@@ -8658,11 +8661,11 @@
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="H48">
         <f t="shared" ca="1" si="2"/>
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>21</v>
@@ -8692,15 +8695,15 @@
         <v>45791</v>
       </c>
       <c r="F49" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="2"/>
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>21</v>
@@ -8734,11 +8737,11 @@
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="2"/>
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>21</v>
@@ -8768,15 +8771,15 @@
         <v>45793</v>
       </c>
       <c r="F51" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="1"/>
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="2"/>
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>39</v>
@@ -8810,11 +8813,11 @@
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="H52">
         <f t="shared" ca="1" si="2"/>
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>39</v>
@@ -8844,15 +8847,15 @@
         <v>45795</v>
       </c>
       <c r="F53" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="H53">
         <f t="shared" ca="1" si="2"/>
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>39</v>
@@ -8886,11 +8889,11 @@
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="2"/>
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>39</v>
@@ -8924,11 +8927,11 @@
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="2"/>
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>39</v>
@@ -8962,11 +8965,11 @@
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="H56">
         <f t="shared" ca="1" si="2"/>
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>39</v>
@@ -9000,11 +9003,11 @@
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="H57">
         <f t="shared" ca="1" si="2"/>
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>39</v>
@@ -9034,15 +9037,15 @@
         <v>45800</v>
       </c>
       <c r="F58" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="H58">
         <f t="shared" ca="1" si="2"/>
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>39</v>
@@ -9076,11 +9079,11 @@
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H59">
         <f t="shared" ca="1" si="2"/>
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>39</v>
@@ -9114,11 +9117,11 @@
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="H60">
         <f t="shared" ca="1" si="2"/>
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>40</v>
@@ -9152,11 +9155,11 @@
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="1"/>
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="H61">
         <f t="shared" ca="1" si="2"/>
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>40</v>
@@ -9186,15 +9189,15 @@
         <v>45804</v>
       </c>
       <c r="F62" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="1"/>
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="H62">
         <f t="shared" ca="1" si="2"/>
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>40</v>
@@ -9228,11 +9231,11 @@
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H63">
         <f t="shared" ca="1" si="2"/>
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>40</v>
@@ -9266,7 +9269,7 @@
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="1"/>
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="H64">
         <f t="shared" ca="1" si="2"/>
@@ -9304,11 +9307,11 @@
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H65">
         <f t="shared" ca="1" si="2"/>
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>40</v>
@@ -9342,11 +9345,11 @@
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H66">
         <f t="shared" ca="1" si="2"/>
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>11</v>
@@ -9380,11 +9383,11 @@
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G75" ca="1" si="5">ROUND(RAND()*60+50,0)</f>
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="H67">
         <f t="shared" ref="H67:H75" ca="1" si="6">ROUND(RAND()*40+100,0)</f>
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>11</v>
@@ -9414,15 +9417,15 @@
         <v>45810</v>
       </c>
       <c r="F68" t="s">
-        <v>72</v>
+        <v>240</v>
       </c>
       <c r="G68">
         <f t="shared" ca="1" si="5"/>
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="H68">
         <f t="shared" ca="1" si="6"/>
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>11</v>
@@ -9452,15 +9455,15 @@
         <v>45811</v>
       </c>
       <c r="F69" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="G69">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H69">
         <f t="shared" ca="1" si="6"/>
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>11</v>
@@ -9494,11 +9497,11 @@
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="5"/>
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H70">
         <f t="shared" ca="1" si="6"/>
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>11</v>
@@ -9532,11 +9535,11 @@
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="5"/>
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="H71">
         <f t="shared" ca="1" si="6"/>
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>9</v>
@@ -9566,15 +9569,15 @@
         <v>45814</v>
       </c>
       <c r="F72" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="5"/>
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="H72">
         <f t="shared" ca="1" si="6"/>
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>9</v>
@@ -9608,11 +9611,11 @@
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="H73">
         <f t="shared" ca="1" si="6"/>
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>9</v>
@@ -9642,15 +9645,15 @@
         <v>45816</v>
       </c>
       <c r="F74" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="5"/>
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="H74">
         <f t="shared" ca="1" si="6"/>
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>9</v>
@@ -9684,11 +9687,11 @@
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="5"/>
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H75">
         <f t="shared" ca="1" si="6"/>
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>9</v>
@@ -9737,7 +9740,7 @@
       <formula>NOT(ISERROR(SEARCH("On",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:I1048576 K1:K1048576">
+  <conditionalFormatting sqref="K1:K1048576 F1:I1048576">
     <cfRule type="containsText" dxfId="7" priority="14" operator="containsText" text="Ended">
       <formula>NOT(ISERROR(SEARCH("Ended",F1)))</formula>
     </cfRule>
@@ -9759,7 +9762,7 @@
       <formula2>10</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{F09CCFA7-B907-4EDC-9E6C-DB73AAE9A528}">
-      <formula1>"Pending,Denied,Interviewing,No Response,On Hold,Rejected,Offer"</formula1>
+      <formula1>"Pending,Denied,Interviewing,No Response,Ghosted,On Hold,Rejected,Offer"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{A6492A70-2F97-4614-8C19-570E8591C842}">
       <formula1>"LinkedIn, LinkedIn DM, Company Site,Referral,Indeed,80000 Hours,Gaingels,Wellfound,YCombinator,BuiltIn,HiringCafe"</formula1>
@@ -9821,7 +9824,7 @@
       </c>
       <c r="L1" s="14">
         <f>SUM(B2:B10)</f>
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="M1" s="14"/>
       <c r="N1" s="14" t="s">
@@ -9846,7 +9849,7 @@
       </c>
       <c r="B2">
         <f>COUNTIF(Tracker!F2:F718, "Pending")</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -9868,7 +9871,7 @@
       </c>
       <c r="L2" s="24">
         <f>SUM(B7:B8)/L1 * 100</f>
-        <v>17.567567567567568</v>
+        <v>12.857142857142856</v>
       </c>
       <c r="M2" s="24"/>
       <c r="N2" s="25" t="s">
@@ -9885,7 +9888,7 @@
       </c>
       <c r="B3">
         <f>COUNTIF(Tracker!F2:F718, "No Response")</f>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -9907,7 +9910,7 @@
       </c>
       <c r="L3" s="28">
         <f>SUM(B4:B8)/L1 * 100</f>
-        <v>48.648648648648653</v>
+        <v>51.428571428571423</v>
       </c>
       <c r="M3" s="28"/>
       <c r="N3" s="33" t="s">
@@ -9924,7 +9927,7 @@
       </c>
       <c r="B4">
         <f>COUNTIF(Tracker!F2:F718, "Denied")</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -9948,7 +9951,7 @@
       </c>
       <c r="B5">
         <f>COUNTIF(Tracker!F2:F719, "Rejected")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
@@ -9985,7 +9988,7 @@
       </c>
       <c r="B6">
         <f>COUNTIF(Tracker!F2:F718, "On Hold")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>36</v>
@@ -10007,12 +10010,12 @@
       </c>
       <c r="L6" s="38">
         <f ca="1">AVERAGE(Tracker!G2:G719)</f>
-        <v>80.878378378378372</v>
+        <v>78.513513513513516</v>
       </c>
       <c r="M6" s="38"/>
       <c r="N6" s="39">
         <f ca="1">AVERAGE(Tracker!H2:H719)</f>
-        <v>120.28378378378379</v>
+        <v>116.97297297297297</v>
       </c>
       <c r="Q6" s="18"/>
       <c r="R6" s="13"/>
@@ -10023,7 +10026,7 @@
       </c>
       <c r="B7">
         <f>COUNTIF(Tracker!F2:F718, "Interviewing")</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
@@ -10038,7 +10041,7 @@
       </c>
       <c r="L7" s="28">
         <f ca="1">(SUM(Tracker!G2:G719)+SUM(Tracker!H2:H721))/(COUNTA(Tracker!G2:G721)*2)</f>
-        <v>100.58108108108108</v>
+        <v>97.743243243243242</v>
       </c>
       <c r="M7" s="28"/>
       <c r="N7" s="21"/>
@@ -10056,7 +10059,7 @@
       </c>
       <c r="B8">
         <f>COUNTIF(Tracker!F2:F719, "Offer")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
         <v>63</v>
@@ -11036,7 +11039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70590CAF-D2CD-443E-AE13-8F53684D3C03}">
   <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
@@ -11115,7 +11118,7 @@
       </c>
       <c r="D2">
         <f ca="1">(Tracker!G2+Tracker!H2)/2</f>
-        <v>95.5</v>
+        <v>123</v>
       </c>
       <c r="E2" s="34">
         <f>IF(OR(Tracker!F2="denied",Tracker!F2="on hold",Tracker!F2="No Response",Tracker!F2="pending"), 0.2, IF(Tracker!F2="interviewing", 0.4, IF(Tracker!F2="rejected", 0.3, IF(Tracker!F2="offer", 1, 0))))</f>
@@ -11138,11 +11141,11 @@
       </c>
       <c r="J2">
         <f t="shared" ref="J2:J15" ca="1" si="0">IF(D2=0,0,((0.3*D2*G2*H2)/10)-2.7)</f>
-        <v>0.29392499999999977</v>
+        <v>1.1560500000000005</v>
       </c>
       <c r="K2">
         <f t="shared" ref="K2:K15" ca="1" si="1">IF(D2=0, 0,((D2*E2*G2*H2)/(F2*I2)-2))</f>
-        <v>0.33444444444444432</v>
+        <v>1.0066666666666664</v>
       </c>
       <c r="M2" t="e">
         <f ca="1">IF(J2=0, 0, NA())</f>
@@ -11150,11 +11153,11 @@
       </c>
       <c r="N2">
         <f t="shared" ref="N2:N15" ca="1" si="2">IF(J2=0, NA(), J2)</f>
-        <v>0.29392499999999977</v>
+        <v>1.1560500000000005</v>
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O15" ca="1" si="3">IF(K2=0, NA(), K2)</f>
-        <v>0.33444444444444432</v>
+        <v>1.0066666666666664</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
@@ -11172,7 +11175,7 @@
       </c>
       <c r="D3">
         <f ca="1">(Tracker!G3+Tracker!H3)/2</f>
-        <v>89.5</v>
+        <v>86</v>
       </c>
       <c r="E3" s="34">
         <f>IF(OR(Tracker!F3="denied",Tracker!F3="on hold",Tracker!F3="No Response",Tracker!F3="pending"), 0.2, IF(Tracker!F3="interviewing", 0.4, IF(Tracker!F3="rejected", 0.3, IF(Tracker!F3="offer", 1, 0))))</f>
@@ -11195,11 +11198,11 @@
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10582499999999939</v>
+        <v>-3.8999999999997925E-3</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.667745098039215</v>
+        <v>1.5243137254901962</v>
       </c>
       <c r="M3" t="e">
         <f t="shared" ref="M3:M15" ca="1" si="4">IF(J3=0, 0, NA())</f>
@@ -11207,11 +11210,11 @@
       </c>
       <c r="N3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.10582499999999939</v>
+        <v>-3.8999999999997925E-3</v>
       </c>
       <c r="O3">
         <f t="shared" ca="1" si="3"/>
-        <v>1.667745098039215</v>
+        <v>1.5243137254901962</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
@@ -11229,7 +11232,7 @@
       </c>
       <c r="D4">
         <f ca="1">(Tracker!G4+Tracker!H4)/2</f>
-        <v>92.5</v>
+        <v>97</v>
       </c>
       <c r="E4" s="34">
         <f>IF(OR(Tracker!F4="denied",Tracker!F4="on hold",Tracker!F4="No Response",Tracker!F4="pending"), 0.2, IF(Tracker!F4="interviewing", 0.4, IF(Tracker!F4="rejected", 0.3, IF(Tracker!F4="offer", 1, 0))))</f>
@@ -11252,11 +11255,11 @@
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19987500000000002</v>
+        <v>0.34094999999999942</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14805555555555561</v>
+        <v>0.25255555555555587</v>
       </c>
       <c r="M4" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -11264,11 +11267,11 @@
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="2"/>
-        <v>0.19987500000000002</v>
+        <v>0.34094999999999942</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="3"/>
-        <v>0.14805555555555561</v>
+        <v>0.25255555555555587</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
@@ -11343,7 +11346,7 @@
       </c>
       <c r="D6">
         <f ca="1">(Tracker!G6+Tracker!H6)/2</f>
-        <v>91</v>
+        <v>105.5</v>
       </c>
       <c r="E6" s="34">
         <f>IF(OR(Tracker!F6="denied",Tracker!F6="on hold",Tracker!F6="No Response",Tracker!F6="pending"), 0.2, IF(Tracker!F6="interviewing", 0.4, IF(Tracker!F6="rejected", 0.3, IF(Tracker!F6="offer", 1, 0))))</f>
@@ -11366,11 +11369,11 @@
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15285000000000037</v>
+        <v>0.60742499999999966</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11322222222222189</v>
+        <v>0.4499444444444447</v>
       </c>
       <c r="M6" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -11378,11 +11381,11 @@
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15285000000000037</v>
+        <v>0.60742499999999966</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="3"/>
-        <v>0.11322222222222189</v>
+        <v>0.4499444444444447</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
@@ -11400,7 +11403,7 @@
       </c>
       <c r="D7">
         <f ca="1">(Tracker!G7+Tracker!H7)/2</f>
-        <v>109</v>
+        <v>101.5</v>
       </c>
       <c r="E7" s="34">
         <f>IF(OR(Tracker!F7="denied",Tracker!F7="on hold",Tracker!F7="No Response",Tracker!F7="pending"), 0.2, IF(Tracker!F7="interviewing", 0.4, IF(Tracker!F7="rejected", 0.3, IF(Tracker!F7="offer", 1, 0))))</f>
@@ -11423,11 +11426,11 @@
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71714999999999929</v>
+        <v>0.48202500000000015</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66444444444444439</v>
+        <v>0.48111111111111082</v>
       </c>
       <c r="M7" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -11435,11 +11438,11 @@
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.71714999999999929</v>
+        <v>0.48202500000000015</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.66444444444444439</v>
+        <v>0.48111111111111082</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
@@ -11457,7 +11460,7 @@
       </c>
       <c r="D8">
         <f ca="1">(Tracker!G8+Tracker!H8)/2</f>
-        <v>90.5</v>
+        <v>96.5</v>
       </c>
       <c r="E8" s="34">
         <f>IF(OR(Tracker!F8="denied",Tracker!F8="on hold",Tracker!F8="No Response",Tracker!F8="pending"), 0.2, IF(Tracker!F8="interviewing", 0.4, IF(Tracker!F8="rejected", 0.3, IF(Tracker!F8="offer", 1, 0))))</f>
@@ -11480,11 +11483,11 @@
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13717500000000005</v>
+        <v>0.32527499999999998</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10161111111111154</v>
+        <v>0.24094444444444463</v>
       </c>
       <c r="M8" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -11492,11 +11495,11 @@
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.13717500000000005</v>
+        <v>0.32527499999999998</v>
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.10161111111111154</v>
+        <v>0.24094444444444463</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
@@ -11514,7 +11517,7 @@
       </c>
       <c r="D9">
         <f ca="1">(Tracker!G9+Tracker!H9)/2</f>
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="E9" s="34">
         <f>IF(OR(Tracker!F9="denied",Tracker!F9="on hold",Tracker!F9="No Response",Tracker!F9="pending"), 0.2, IF(Tracker!F9="interviewing", 0.4, IF(Tracker!F9="rejected", 0.3, IF(Tracker!F9="offer", 1, 0))))</f>
@@ -11537,11 +11540,11 @@
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93659999999999988</v>
+        <v>0.1841999999999997</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83555555555555605</v>
+        <v>0.24888888888888916</v>
       </c>
       <c r="M9" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -11549,11 +11552,11 @@
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="2"/>
-        <v>0.93659999999999988</v>
+        <v>0.1841999999999997</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="3"/>
-        <v>0.83555555555555605</v>
+        <v>0.24888888888888916</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
@@ -11571,7 +11574,7 @@
       </c>
       <c r="D10">
         <f ca="1">(Tracker!G10+Tracker!H10)/2</f>
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E10" s="34">
         <f>IF(OR(Tracker!F10="denied",Tracker!F10="on hold",Tracker!F10="No Response",Tracker!F10="pending"), 0.2, IF(Tracker!F10="interviewing", 0.4, IF(Tracker!F10="rejected", 0.3, IF(Tracker!F10="offer", 1, 0))))</f>
@@ -11594,11 +11597,11 @@
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>9.0149999999999508E-2</v>
+        <v>-0.12930000000000064</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66999999999999948</v>
+        <v>0.45999999999999952</v>
       </c>
       <c r="M10" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -11606,11 +11609,11 @@
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="2"/>
-        <v>9.0149999999999508E-2</v>
+        <v>-0.12930000000000064</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="3"/>
-        <v>0.66999999999999948</v>
+        <v>0.45999999999999952</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
@@ -11628,7 +11631,7 @@
       </c>
       <c r="D11">
         <f ca="1">(Tracker!G11+Tracker!H11)/2</f>
-        <v>79.5</v>
+        <v>104.5</v>
       </c>
       <c r="E11" s="34">
         <f>IF(OR(Tracker!F11="denied",Tracker!F11="on hold",Tracker!F11="No Response",Tracker!F11="pending"), 0.2, IF(Tracker!F11="interviewing", 0.4, IF(Tracker!F11="rejected", 0.3, IF(Tracker!F11="offer", 1, 0))))</f>
@@ -11651,11 +11654,11 @@
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.20767500000000005</v>
+        <v>0.57607499999999945</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.15383333333333327</v>
+        <v>0.42672222222222267</v>
       </c>
       <c r="M11" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -11663,11 +11666,11 @@
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.20767500000000005</v>
+        <v>0.57607499999999945</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.15383333333333327</v>
+        <v>0.42672222222222267</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
@@ -11685,7 +11688,7 @@
       </c>
       <c r="D12">
         <f ca="1">(Tracker!G12+Tracker!H12)/2</f>
-        <v>121</v>
+        <v>92.5</v>
       </c>
       <c r="E12" s="34">
         <f>IF(OR(Tracker!F12="denied",Tracker!F12="on hold",Tracker!F12="No Response",Tracker!F12="pending"), 0.2, IF(Tracker!F12="interviewing", 0.4, IF(Tracker!F12="rejected", 0.3, IF(Tracker!F12="offer", 1, 0))))</f>
@@ -11708,11 +11711,11 @@
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0933499999999992</v>
+        <v>0.19987500000000002</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="1"/>
-        <v>2.214833333333333</v>
+        <v>1.2220833333333334</v>
       </c>
       <c r="M12" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -11720,11 +11723,11 @@
       </c>
       <c r="N12">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0933499999999992</v>
+        <v>0.19987500000000002</v>
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="3"/>
-        <v>2.214833333333333</v>
+        <v>1.2220833333333334</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
@@ -11742,7 +11745,7 @@
       </c>
       <c r="D13">
         <f ca="1">(Tracker!G13+Tracker!H13)/2</f>
-        <v>102.5</v>
+        <v>107</v>
       </c>
       <c r="E13" s="34">
         <f>IF(OR(Tracker!F13="denied",Tracker!F13="on hold",Tracker!F13="No Response",Tracker!F13="pending"), 0.2, IF(Tracker!F13="interviewing", 0.4, IF(Tracker!F13="rejected", 0.3, IF(Tracker!F13="offer", 1, 0))))</f>
@@ -11765,11 +11768,11 @@
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51337499999999991</v>
+        <v>0.65444999999999975</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14224999999999977</v>
+        <v>0.2363000000000004</v>
       </c>
       <c r="M13" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -11777,11 +11780,11 @@
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.51337499999999991</v>
+        <v>0.65444999999999975</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="3"/>
-        <v>0.14224999999999977</v>
+        <v>0.2363000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
@@ -11799,7 +11802,7 @@
       </c>
       <c r="D14">
         <f ca="1">(Tracker!G14+Tracker!H14)/2</f>
-        <v>96.5</v>
+        <v>117.5</v>
       </c>
       <c r="E14" s="34">
         <f>IF(OR(Tracker!F14="denied",Tracker!F14="on hold",Tracker!F14="No Response",Tracker!F14="pending"), 0.2, IF(Tracker!F14="interviewing", 0.4, IF(Tracker!F14="rejected", 0.3, IF(Tracker!F14="offer", 1, 0))))</f>
@@ -11822,11 +11825,11 @@
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.22477500000000017</v>
+        <v>0.3138749999999999</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3003</v>
+        <v>2.0185000000000004</v>
       </c>
       <c r="M14" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -11834,11 +11837,11 @@
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.22477500000000017</v>
+        <v>0.3138749999999999</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3003</v>
+        <v>2.0185000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
@@ -11856,7 +11859,7 @@
       </c>
       <c r="D15">
         <f ca="1">(Tracker!G15+Tracker!H15)/2</f>
-        <v>97.5</v>
+        <v>79</v>
       </c>
       <c r="E15" s="34">
         <f>IF(OR(Tracker!F15="denied",Tracker!F15="on hold",Tracker!F15="No Response",Tracker!F15="pending"), 0.2, IF(Tracker!F15="interviewing", 0.4, IF(Tracker!F15="rejected", 0.3, IF(Tracker!F15="offer", 1, 0))))</f>
@@ -11879,11 +11882,11 @@
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.19912500000000044</v>
+        <v>-0.6736500000000003</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="1"/>
-        <v>6.3362499999999997</v>
+        <v>4.7545000000000002</v>
       </c>
       <c r="M15" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -11891,11 +11894,11 @@
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.19912500000000044</v>
+        <v>-0.6736500000000003</v>
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="3"/>
-        <v>6.3362499999999997</v>
+        <v>4.7545000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
@@ -11913,7 +11916,7 @@
       </c>
       <c r="D16">
         <f ca="1">(Tracker!G16+Tracker!H16)/2</f>
-        <v>92.5</v>
+        <v>79</v>
       </c>
       <c r="E16" s="34">
         <f>IF(OR(Tracker!F16="denied",Tracker!F16="on hold",Tracker!F16="No Response",Tracker!F16="pending"), 0.2, IF(Tracker!F16="interviewing", 0.4, IF(Tracker!F16="rejected", 0.3, IF(Tracker!F16="offer", 1, 0))))</f>
@@ -11936,11 +11939,11 @@
       </c>
       <c r="J16">
         <f t="shared" ref="J16:J70" ca="1" si="5">IF(D16=0,0,((0.3*D16*G16*H16)/10)-2.7)</f>
-        <v>-0.32737499999999997</v>
+        <v>-0.6736500000000003</v>
       </c>
       <c r="K16">
         <f t="shared" ref="K16:K70" ca="1" si="6">IF(D16=0, 0,((D16*E16*G16*H16)/(F16*I16)-2))</f>
-        <v>-0.41825000000000001</v>
+        <v>-0.64910000000000001</v>
       </c>
       <c r="M16" t="e">
         <f t="shared" ref="M16:M70" ca="1" si="7">IF(J16=0, 0, NA())</f>
@@ -11948,11 +11951,11 @@
       </c>
       <c r="N16">
         <f t="shared" ref="N16:N70" ca="1" si="8">IF(J16=0, NA(), J16)</f>
-        <v>-0.32737499999999997</v>
+        <v>-0.6736500000000003</v>
       </c>
       <c r="O16">
         <f t="shared" ref="O16:O70" ca="1" si="9">IF(K16=0, NA(), K16)</f>
-        <v>-0.41825000000000001</v>
+        <v>-0.64910000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
@@ -11970,7 +11973,7 @@
       </c>
       <c r="D17">
         <f ca="1">(Tracker!G17+Tracker!H17)/2</f>
-        <v>95.5</v>
+        <v>102.5</v>
       </c>
       <c r="E17" s="34">
         <f>IF(OR(Tracker!F17="denied",Tracker!F17="on hold",Tracker!F17="No Response",Tracker!F17="pending"), 0.2, IF(Tracker!F17="interviewing", 0.4, IF(Tracker!F17="rejected", 0.3, IF(Tracker!F17="offer", 1, 0))))</f>
@@ -11993,11 +11996,11 @@
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.25042500000000034</v>
+        <v>-7.0875000000000465E-2</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.36694999999999989</v>
+        <v>-0.24724999999999997</v>
       </c>
       <c r="M17" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12005,11 +12008,11 @@
       </c>
       <c r="N17">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.25042500000000034</v>
+        <v>-7.0875000000000465E-2</v>
       </c>
       <c r="O17">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.36694999999999989</v>
+        <v>-0.24724999999999997</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
@@ -12027,7 +12030,7 @@
       </c>
       <c r="D18">
         <f ca="1">(Tracker!G18+Tracker!H18)/2</f>
-        <v>96.5</v>
+        <v>94</v>
       </c>
       <c r="E18" s="34">
         <f>IF(OR(Tracker!F18="denied",Tracker!F18="on hold",Tracker!F18="No Response",Tracker!F18="pending"), 0.2, IF(Tracker!F18="interviewing", 0.4, IF(Tracker!F18="rejected", 0.3, IF(Tracker!F18="offer", 1, 0))))</f>
@@ -12050,11 +12053,11 @@
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.22477500000000017</v>
+        <v>-0.28890000000000038</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="6"/>
-        <v>6.25075</v>
+        <v>6.0370000000000008</v>
       </c>
       <c r="M18" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12062,11 +12065,11 @@
       </c>
       <c r="N18">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.22477500000000017</v>
+        <v>-0.28890000000000038</v>
       </c>
       <c r="O18">
         <f t="shared" ca="1" si="9"/>
-        <v>6.25075</v>
+        <v>6.0370000000000008</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
@@ -12084,7 +12087,7 @@
       </c>
       <c r="D19">
         <f ca="1">(Tracker!G19+Tracker!H19)/2</f>
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="E19" s="34">
         <f>IF(OR(Tracker!F19="denied",Tracker!F19="on hold",Tracker!F19="No Response",Tracker!F19="pending"), 0.2, IF(Tracker!F19="interviewing", 0.4, IF(Tracker!F19="rejected", 0.3, IF(Tracker!F19="offer", 1, 0))))</f>
@@ -12107,11 +12110,11 @@
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.14714999999999989</v>
+        <v>-0.31455000000000055</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.10899999999999999</v>
+        <v>-0.23299999999999987</v>
       </c>
       <c r="M19" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12119,11 +12122,11 @@
       </c>
       <c r="N19">
         <f t="shared" ca="1" si="8"/>
-        <v>0.14714999999999989</v>
+        <v>-0.31455000000000055</v>
       </c>
       <c r="O19">
         <f t="shared" ca="1" si="9"/>
-        <v>0.10899999999999999</v>
+        <v>-0.23299999999999987</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
@@ -12141,7 +12144,7 @@
       </c>
       <c r="D20">
         <f ca="1">(Tracker!G20+Tracker!H20)/2</f>
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="E20" s="34">
         <f>IF(OR(Tracker!F20="denied",Tracker!F20="on hold",Tracker!F20="No Response",Tracker!F20="pending"), 0.2, IF(Tracker!F20="interviewing", 0.4, IF(Tracker!F20="rejected", 0.3, IF(Tracker!F20="offer", 1, 0))))</f>
@@ -12164,11 +12167,11 @@
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="5"/>
-        <v>0.12149999999999928</v>
+        <v>-0.57105000000000006</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.11900000000000022</v>
+        <v>-0.58069999999999977</v>
       </c>
       <c r="M20" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12176,11 +12179,11 @@
       </c>
       <c r="N20">
         <f t="shared" ca="1" si="8"/>
-        <v>0.12149999999999928</v>
+        <v>-0.57105000000000006</v>
       </c>
       <c r="O20">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.11900000000000022</v>
+        <v>-0.58069999999999977</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
@@ -12198,7 +12201,7 @@
       </c>
       <c r="D21">
         <f ca="1">(Tracker!G21+Tracker!H21)/2</f>
-        <v>84.5</v>
+        <v>113</v>
       </c>
       <c r="E21" s="34">
         <f>IF(OR(Tracker!F21="denied",Tracker!F21="on hold",Tracker!F21="No Response",Tracker!F21="pending"), 0.2, IF(Tracker!F21="interviewing", 0.4, IF(Tracker!F21="rejected", 0.3, IF(Tracker!F21="offer", 1, 0))))</f>
@@ -12221,11 +12224,11 @@
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.53257500000000046</v>
+        <v>0.19844999999999935</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="6"/>
-        <v>6.0274999999999981</v>
+        <v>8.7349999999999994</v>
       </c>
       <c r="M21" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12233,11 +12236,11 @@
       </c>
       <c r="N21">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.53257500000000046</v>
+        <v>0.19844999999999935</v>
       </c>
       <c r="O21">
         <f t="shared" ca="1" si="9"/>
-        <v>6.0274999999999981</v>
+        <v>8.7349999999999994</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
@@ -12255,7 +12258,7 @@
       </c>
       <c r="D22">
         <f ca="1">(Tracker!G22+Tracker!H22)/2</f>
-        <v>115.5</v>
+        <v>81.5</v>
       </c>
       <c r="E22" s="34">
         <f>IF(OR(Tracker!F22="denied",Tracker!F22="on hold",Tracker!F22="No Response",Tracker!F22="pending"), 0.2, IF(Tracker!F22="interviewing", 0.4, IF(Tracker!F22="rejected", 0.3, IF(Tracker!F22="offer", 1, 0))))</f>
@@ -12278,11 +12281,11 @@
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="5"/>
-        <v>0.26257499999999956</v>
+        <v>-0.60952500000000054</v>
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="6"/>
-        <v>0.19450000000000012</v>
+        <v>-0.45150000000000001</v>
       </c>
       <c r="M22" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12290,11 +12293,11 @@
       </c>
       <c r="N22">
         <f t="shared" ca="1" si="8"/>
-        <v>0.26257499999999956</v>
+        <v>-0.60952500000000054</v>
       </c>
       <c r="O22">
         <f t="shared" ca="1" si="9"/>
-        <v>0.19450000000000012</v>
+        <v>-0.45150000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
@@ -12312,7 +12315,7 @@
       </c>
       <c r="D23">
         <f ca="1">(Tracker!G23+Tracker!H23)/2</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E23" s="34">
         <f>IF(OR(Tracker!F23="denied",Tracker!F23="on hold",Tracker!F23="No Response",Tracker!F23="pending"), 0.2, IF(Tracker!F23="interviewing", 0.4, IF(Tracker!F23="rejected", 0.3, IF(Tracker!F23="offer", 1, 0))))</f>
@@ -12335,11 +12338,11 @@
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="5"/>
-        <v>0.37230000000000008</v>
+        <v>0.40364999999999984</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="6"/>
-        <v>2.7911111111111113</v>
+        <v>2.839999999999999</v>
       </c>
       <c r="M23" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12347,11 +12350,11 @@
       </c>
       <c r="N23">
         <f t="shared" ca="1" si="8"/>
-        <v>0.37230000000000008</v>
+        <v>0.40364999999999984</v>
       </c>
       <c r="O23">
         <f t="shared" ca="1" si="9"/>
-        <v>2.7911111111111113</v>
+        <v>2.839999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
@@ -12369,7 +12372,7 @@
       </c>
       <c r="D24">
         <f ca="1">(Tracker!G24+Tracker!H24)/2</f>
-        <v>88</v>
+        <v>81.5</v>
       </c>
       <c r="E24" s="34">
         <f>IF(OR(Tracker!F24="denied",Tracker!F24="on hold",Tracker!F24="No Response",Tracker!F24="pending"), 0.2, IF(Tracker!F24="interviewing", 0.4, IF(Tracker!F24="rejected", 0.3, IF(Tracker!F24="offer", 1, 0))))</f>
@@ -12392,11 +12395,11 @@
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="5"/>
-        <v>5.8799999999999741E-2</v>
+        <v>-0.14497500000000008</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="6"/>
-        <v>4.3555555555555792E-2</v>
+        <v>-0.10738888888888853</v>
       </c>
       <c r="M24" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12404,11 +12407,11 @@
       </c>
       <c r="N24">
         <f t="shared" ca="1" si="8"/>
-        <v>5.8799999999999741E-2</v>
+        <v>-0.14497500000000008</v>
       </c>
       <c r="O24">
         <f t="shared" ca="1" si="9"/>
-        <v>4.3555555555555792E-2</v>
+        <v>-0.10738888888888853</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
@@ -12426,7 +12429,7 @@
       </c>
       <c r="D25">
         <f ca="1">(Tracker!G25+Tracker!H25)/2</f>
-        <v>94.5</v>
+        <v>101</v>
       </c>
       <c r="E25" s="34">
         <f>IF(OR(Tracker!F25="denied",Tracker!F25="on hold",Tracker!F25="No Response",Tracker!F25="pending"), 0.2, IF(Tracker!F25="interviewing", 0.4, IF(Tracker!F25="rejected", 0.3, IF(Tracker!F25="offer", 1, 0))))</f>
@@ -12449,11 +12452,11 @@
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="5"/>
-        <v>0.26257499999999956</v>
+        <v>0.46634999999999938</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="6"/>
-        <v>0.19450000000000012</v>
+        <v>0.34544444444444489</v>
       </c>
       <c r="M25" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12461,11 +12464,11 @@
       </c>
       <c r="N25">
         <f t="shared" ca="1" si="8"/>
-        <v>0.26257499999999956</v>
+        <v>0.46634999999999938</v>
       </c>
       <c r="O25">
         <f t="shared" ca="1" si="9"/>
-        <v>0.19450000000000012</v>
+        <v>0.34544444444444489</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
@@ -12483,7 +12486,7 @@
       </c>
       <c r="D26">
         <f ca="1">(Tracker!G26+Tracker!H26)/2</f>
-        <v>106.5</v>
+        <v>94.5</v>
       </c>
       <c r="E26" s="34">
         <f>IF(OR(Tracker!F26="denied",Tracker!F26="on hold",Tracker!F26="No Response",Tracker!F26="pending"), 0.2, IF(Tracker!F26="interviewing", 0.4, IF(Tracker!F26="rejected", 0.3, IF(Tracker!F26="offer", 1, 0))))</f>
@@ -12506,11 +12509,11 @@
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="5"/>
-        <v>0.63877500000000031</v>
+        <v>0.26257499999999956</v>
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="6"/>
-        <v>0.47316666666666674</v>
+        <v>0.19450000000000012</v>
       </c>
       <c r="M26" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12518,11 +12521,11 @@
       </c>
       <c r="N26">
         <f t="shared" ca="1" si="8"/>
-        <v>0.63877500000000031</v>
+        <v>0.26257499999999956</v>
       </c>
       <c r="O26">
         <f t="shared" ca="1" si="9"/>
-        <v>0.47316666666666674</v>
+        <v>0.19450000000000012</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
@@ -12540,7 +12543,7 @@
       </c>
       <c r="D27">
         <f ca="1">(Tracker!G27+Tracker!H27)/2</f>
-        <v>103</v>
+        <v>109.5</v>
       </c>
       <c r="E27" s="34">
         <f>IF(OR(Tracker!F27="denied",Tracker!F27="on hold",Tracker!F27="No Response",Tracker!F27="pending"), 0.2, IF(Tracker!F27="interviewing", 0.4, IF(Tracker!F27="rejected", 0.3, IF(Tracker!F27="offer", 1, 0))))</f>
@@ -12563,11 +12566,11 @@
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="5"/>
-        <v>0.5290499999999998</v>
+        <v>0.73282500000000006</v>
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="6"/>
-        <v>0.39188888888888895</v>
+        <v>0.54283333333333328</v>
       </c>
       <c r="M27" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12575,11 +12578,11 @@
       </c>
       <c r="N27">
         <f t="shared" ca="1" si="8"/>
-        <v>0.5290499999999998</v>
+        <v>0.73282500000000006</v>
       </c>
       <c r="O27">
         <f t="shared" ca="1" si="9"/>
-        <v>0.39188888888888895</v>
+        <v>0.54283333333333328</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
@@ -12597,7 +12600,7 @@
       </c>
       <c r="D28">
         <f ca="1">(Tracker!G28+Tracker!H28)/2</f>
-        <v>94.5</v>
+        <v>110</v>
       </c>
       <c r="E28" s="34">
         <f>IF(OR(Tracker!F28="denied",Tracker!F28="on hold",Tracker!F28="No Response",Tracker!F28="pending"), 0.2, IF(Tracker!F28="interviewing", 0.4, IF(Tracker!F28="rejected", 0.3, IF(Tracker!F28="offer", 1, 0))))</f>
@@ -12620,11 +12623,11 @@
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="5"/>
-        <v>0.26257499999999956</v>
+        <v>0.74849999999999994</v>
       </c>
       <c r="K28">
         <f t="shared" ca="1" si="6"/>
-        <v>0.19450000000000012</v>
+        <v>0.55444444444444452</v>
       </c>
       <c r="M28" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12632,11 +12635,11 @@
       </c>
       <c r="N28">
         <f t="shared" ca="1" si="8"/>
-        <v>0.26257499999999956</v>
+        <v>0.74849999999999994</v>
       </c>
       <c r="O28">
         <f t="shared" ca="1" si="9"/>
-        <v>0.19450000000000012</v>
+        <v>0.55444444444444452</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
@@ -12654,7 +12657,7 @@
       </c>
       <c r="D29">
         <f ca="1">(Tracker!G29+Tracker!H29)/2</f>
-        <v>79</v>
+        <v>77.5</v>
       </c>
       <c r="E29" s="34">
         <f>IF(OR(Tracker!F29="denied",Tracker!F29="on hold",Tracker!F29="No Response",Tracker!F29="pending"), 0.2, IF(Tracker!F29="interviewing", 0.4, IF(Tracker!F29="rejected", 0.3, IF(Tracker!F29="offer", 1, 0))))</f>
@@ -12677,11 +12680,11 @@
       </c>
       <c r="J29">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.22334999999999994</v>
+        <v>-0.27037500000000003</v>
       </c>
       <c r="K29">
         <f t="shared" ca="1" si="6"/>
-        <v>1.6691111111111119</v>
+        <v>1.5994444444444449</v>
       </c>
       <c r="M29" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12689,11 +12692,11 @@
       </c>
       <c r="N29">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.22334999999999994</v>
+        <v>-0.27037500000000003</v>
       </c>
       <c r="O29">
         <f t="shared" ca="1" si="9"/>
-        <v>1.6691111111111119</v>
+        <v>1.5994444444444449</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
@@ -12707,15 +12710,15 @@
       </c>
       <c r="C30" t="str">
         <f>Tracker!F30</f>
-        <v>Interviewing</v>
+        <v>Pending</v>
       </c>
       <c r="D30">
         <f ca="1">(Tracker!G30+Tracker!H30)/2</f>
-        <v>105.5</v>
+        <v>96</v>
       </c>
       <c r="E30" s="34">
         <f>IF(OR(Tracker!F30="denied",Tracker!F30="on hold",Tracker!F30="No Response",Tracker!F30="pending"), 0.2, IF(Tracker!F30="interviewing", 0.4, IF(Tracker!F30="rejected", 0.3, IF(Tracker!F30="offer", 1, 0))))</f>
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="F30" s="35">
         <f>IF(OR(Tracker!I30="linkedin", Tracker!I30="Indeed", Tracker!I30="linkedin dm"), 0.9, IF(Tracker!I30="Company Site", 1.1, 1))</f>
@@ -12734,11 +12737,11 @@
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="5"/>
-        <v>0.60742499999999966</v>
+        <v>0.30959999999999965</v>
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="6"/>
-        <v>2.8998888888888894</v>
+        <v>0.22933333333333383</v>
       </c>
       <c r="M30" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12746,11 +12749,11 @@
       </c>
       <c r="N30">
         <f t="shared" ca="1" si="8"/>
-        <v>0.60742499999999966</v>
+        <v>0.30959999999999965</v>
       </c>
       <c r="O30">
         <f t="shared" ca="1" si="9"/>
-        <v>2.8998888888888894</v>
+        <v>0.22933333333333383</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
@@ -12764,15 +12767,15 @@
       </c>
       <c r="C31" t="str">
         <f>Tracker!F31</f>
-        <v>Interviewing</v>
+        <v>Ghosted</v>
       </c>
       <c r="D31">
         <f ca="1">(Tracker!G31+Tracker!H31)/2</f>
-        <v>91</v>
+        <v>93.5</v>
       </c>
       <c r="E31" s="34">
         <f>IF(OR(Tracker!F31="denied",Tracker!F31="on hold",Tracker!F31="No Response",Tracker!F31="pending"), 0.2, IF(Tracker!F31="interviewing", 0.4, IF(Tracker!F31="rejected", 0.3, IF(Tracker!F31="offer", 1, 0))))</f>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F31" s="35">
         <f>IF(OR(Tracker!I31="linkedin", Tracker!I31="Indeed", Tracker!I31="linkedin dm"), 0.9, IF(Tracker!I31="Company Site", 1.1, 1))</f>
@@ -12791,11 +12794,11 @@
       </c>
       <c r="J31">
         <f t="shared" ca="1" si="5"/>
-        <v>0.15285000000000037</v>
+        <v>0.23122500000000024</v>
       </c>
       <c r="K31">
         <f t="shared" ca="1" si="6"/>
-        <v>2.2264444444444438</v>
+        <v>-2</v>
       </c>
       <c r="M31" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12803,11 +12806,11 @@
       </c>
       <c r="N31">
         <f t="shared" ca="1" si="8"/>
-        <v>0.15285000000000037</v>
+        <v>0.23122500000000024</v>
       </c>
       <c r="O31">
         <f t="shared" ca="1" si="9"/>
-        <v>2.2264444444444438</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
@@ -12821,15 +12824,15 @@
       </c>
       <c r="C32" t="str">
         <f>Tracker!F32</f>
-        <v>Interviewing</v>
+        <v>Pending</v>
       </c>
       <c r="D32">
         <f ca="1">(Tracker!G32+Tracker!H32)/2</f>
-        <v>115.5</v>
+        <v>91</v>
       </c>
       <c r="E32" s="34">
         <f>IF(OR(Tracker!F32="denied",Tracker!F32="on hold",Tracker!F32="No Response",Tracker!F32="pending"), 0.2, IF(Tracker!F32="interviewing", 0.4, IF(Tracker!F32="rejected", 0.3, IF(Tracker!F32="offer", 1, 0))))</f>
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="F32" s="35">
         <f>IF(OR(Tracker!I32="linkedin", Tracker!I32="Indeed", Tracker!I32="linkedin dm"), 0.9, IF(Tracker!I32="Company Site", 1.1, 1))</f>
@@ -12848,11 +12851,11 @@
       </c>
       <c r="J32">
         <f t="shared" ca="1" si="5"/>
-        <v>0.92092499999999955</v>
+        <v>0.15285000000000037</v>
       </c>
       <c r="K32">
         <f t="shared" ca="1" si="6"/>
-        <v>2.8279000000000005</v>
+        <v>-9.8100000000000076E-2</v>
       </c>
       <c r="M32" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12860,11 +12863,11 @@
       </c>
       <c r="N32">
         <f t="shared" ca="1" si="8"/>
-        <v>0.92092499999999955</v>
+        <v>0.15285000000000037</v>
       </c>
       <c r="O32">
         <f t="shared" ca="1" si="9"/>
-        <v>2.8279000000000005</v>
+        <v>-9.8100000000000076E-2</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
@@ -12878,15 +12881,15 @@
       </c>
       <c r="C33" t="str">
         <f>Tracker!F33</f>
-        <v>Interviewing</v>
+        <v>Rejected</v>
       </c>
       <c r="D33">
         <f ca="1">(Tracker!G33+Tracker!H33)/2</f>
-        <v>94.5</v>
+        <v>124.5</v>
       </c>
       <c r="E33" s="34">
         <f>IF(OR(Tracker!F33="denied",Tracker!F33="on hold",Tracker!F33="No Response",Tracker!F33="pending"), 0.2, IF(Tracker!F33="interviewing", 0.4, IF(Tracker!F33="rejected", 0.3, IF(Tracker!F33="offer", 1, 0))))</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="F33" s="35">
         <f>IF(OR(Tracker!I33="linkedin", Tracker!I33="Indeed", Tracker!I33="linkedin dm"), 0.9, IF(Tracker!I33="Company Site", 1.1, 1))</f>
@@ -12905,11 +12908,11 @@
       </c>
       <c r="J33">
         <f t="shared" ca="1" si="5"/>
-        <v>0.26257499999999956</v>
+        <v>1.2030750000000001</v>
       </c>
       <c r="K33">
         <f t="shared" ca="1" si="6"/>
-        <v>1.9501000000000004</v>
+        <v>1.9030750000000003</v>
       </c>
       <c r="M33" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12917,11 +12920,11 @@
       </c>
       <c r="N33">
         <f t="shared" ca="1" si="8"/>
-        <v>0.26257499999999956</v>
+        <v>1.2030750000000001</v>
       </c>
       <c r="O33">
         <f t="shared" ca="1" si="9"/>
-        <v>1.9501000000000004</v>
+        <v>1.9030750000000003</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
@@ -12935,15 +12938,15 @@
       </c>
       <c r="C34" t="str">
         <f>Tracker!F34</f>
-        <v>Interviewing</v>
+        <v>Pending</v>
       </c>
       <c r="D34">
         <f ca="1">(Tracker!G34+Tracker!H34)/2</f>
-        <v>87.5</v>
+        <v>92.5</v>
       </c>
       <c r="E34" s="34">
         <f>IF(OR(Tracker!F34="denied",Tracker!F34="on hold",Tracker!F34="No Response",Tracker!F34="pending"), 0.2, IF(Tracker!F34="interviewing", 0.4, IF(Tracker!F34="rejected", 0.3, IF(Tracker!F34="offer", 1, 0))))</f>
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="F34" s="35">
         <f>IF(OR(Tracker!I34="linkedin", Tracker!I34="Indeed", Tracker!I34="linkedin dm"), 0.9, IF(Tracker!I34="Company Site", 1.1, 1))</f>
@@ -12962,11 +12965,11 @@
       </c>
       <c r="J34">
         <f t="shared" ca="1" si="5"/>
-        <v>4.3124999999999858E-2</v>
+        <v>0.19987500000000002</v>
       </c>
       <c r="K34">
         <f t="shared" ca="1" si="6"/>
-        <v>1.6574999999999998</v>
+        <v>-6.6750000000000087E-2</v>
       </c>
       <c r="M34" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12974,11 +12977,11 @@
       </c>
       <c r="N34">
         <f t="shared" ca="1" si="8"/>
-        <v>4.3124999999999858E-2</v>
+        <v>0.19987500000000002</v>
       </c>
       <c r="O34">
         <f t="shared" ca="1" si="9"/>
-        <v>1.6574999999999998</v>
+        <v>-6.6750000000000087E-2</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
@@ -12996,7 +12999,7 @@
       </c>
       <c r="D35">
         <f ca="1">(Tracker!G35+Tracker!H35)/2</f>
-        <v>102</v>
+        <v>96.5</v>
       </c>
       <c r="E35" s="34">
         <f>IF(OR(Tracker!F35="denied",Tracker!F35="on hold",Tracker!F35="No Response",Tracker!F35="pending"), 0.2, IF(Tracker!F35="interviewing", 0.4, IF(Tracker!F35="rejected", 0.3, IF(Tracker!F35="offer", 1, 0))))</f>
@@ -13019,11 +13022,11 @@
       </c>
       <c r="J35">
         <f t="shared" ca="1" si="5"/>
-        <v>0.49770000000000003</v>
+        <v>0.32527499999999998</v>
       </c>
       <c r="K35">
         <f t="shared" ca="1" si="6"/>
-        <v>3.0160000000000009</v>
+        <v>2.7455294117647062</v>
       </c>
       <c r="M35" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13031,11 +13034,11 @@
       </c>
       <c r="N35">
         <f t="shared" ca="1" si="8"/>
-        <v>0.49770000000000003</v>
+        <v>0.32527499999999998</v>
       </c>
       <c r="O35">
         <f t="shared" ca="1" si="9"/>
-        <v>3.0160000000000009</v>
+        <v>2.7455294117647062</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
@@ -13049,7 +13052,7 @@
       </c>
       <c r="C36" t="str">
         <f>Tracker!F36</f>
-        <v>Interviewing</v>
+        <v>Denied</v>
       </c>
       <c r="D36">
         <f ca="1">(Tracker!G36+Tracker!H36)/2</f>
@@ -13057,7 +13060,7 @@
       </c>
       <c r="E36" s="34">
         <f>IF(OR(Tracker!F36="denied",Tracker!F36="on hold",Tracker!F36="No Response",Tracker!F36="pending"), 0.2, IF(Tracker!F36="interviewing", 0.4, IF(Tracker!F36="rejected", 0.3, IF(Tracker!F36="offer", 1, 0))))</f>
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="F36" s="35">
         <f>IF(OR(Tracker!I36="linkedin", Tracker!I36="Indeed", Tracker!I36="linkedin dm"), 0.9, IF(Tracker!I36="Company Site", 1.1, 1))</f>
@@ -13080,7 +13083,7 @@
       </c>
       <c r="K36">
         <f t="shared" ca="1" si="6"/>
-        <v>2.5562000000000005</v>
+        <v>0.27810000000000024</v>
       </c>
       <c r="M36" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13092,7 +13095,7 @@
       </c>
       <c r="O36">
         <f t="shared" ca="1" si="9"/>
-        <v>2.5562000000000005</v>
+        <v>0.27810000000000024</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
@@ -13110,7 +13113,7 @@
       </c>
       <c r="D37">
         <f ca="1">(Tracker!G37+Tracker!H37)/2</f>
-        <v>110.5</v>
+        <v>97</v>
       </c>
       <c r="E37" s="34">
         <f>IF(OR(Tracker!F37="denied",Tracker!F37="on hold",Tracker!F37="No Response",Tracker!F37="pending"), 0.2, IF(Tracker!F37="interviewing", 0.4, IF(Tracker!F37="rejected", 0.3, IF(Tracker!F37="offer", 1, 0))))</f>
@@ -13133,11 +13136,11 @@
       </c>
       <c r="J37">
         <f t="shared" ca="1" si="5"/>
-        <v>0.76417499999999983</v>
+        <v>0.34094999999999942</v>
       </c>
       <c r="K37">
         <f t="shared" ca="1" si="6"/>
-        <v>0.30945</v>
+        <v>2.7300000000000324E-2</v>
       </c>
       <c r="M37" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13145,11 +13148,11 @@
       </c>
       <c r="N37">
         <f t="shared" ca="1" si="8"/>
-        <v>0.76417499999999983</v>
+        <v>0.34094999999999942</v>
       </c>
       <c r="O37">
         <f t="shared" ca="1" si="9"/>
-        <v>0.30945</v>
+        <v>2.7300000000000324E-2</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
@@ -13167,7 +13170,7 @@
       </c>
       <c r="D38">
         <f ca="1">(Tracker!G38+Tracker!H38)/2</f>
-        <v>102.5</v>
+        <v>101.5</v>
       </c>
       <c r="E38" s="34">
         <f>IF(OR(Tracker!F38="denied",Tracker!F38="on hold",Tracker!F38="No Response",Tracker!F38="pending"), 0.2, IF(Tracker!F38="interviewing", 0.4, IF(Tracker!F38="rejected", 0.3, IF(Tracker!F38="offer", 1, 0))))</f>
@@ -13190,11 +13193,11 @@
       </c>
       <c r="J38">
         <f t="shared" ca="1" si="5"/>
-        <v>0.51337499999999991</v>
+        <v>0.48202500000000015</v>
       </c>
       <c r="K38">
         <f t="shared" ca="1" si="6"/>
-        <v>0.14224999999999977</v>
+        <v>0.12135000000000007</v>
       </c>
       <c r="M38" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13202,11 +13205,11 @@
       </c>
       <c r="N38">
         <f t="shared" ca="1" si="8"/>
-        <v>0.51337499999999991</v>
+        <v>0.48202500000000015</v>
       </c>
       <c r="O38">
         <f t="shared" ca="1" si="9"/>
-        <v>0.14224999999999977</v>
+        <v>0.12135000000000007</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
@@ -13224,7 +13227,7 @@
       </c>
       <c r="D39">
         <f ca="1">(Tracker!G39+Tracker!H39)/2</f>
-        <v>101.5</v>
+        <v>106.5</v>
       </c>
       <c r="E39" s="34">
         <f>IF(OR(Tracker!F39="denied",Tracker!F39="on hold",Tracker!F39="No Response",Tracker!F39="pending"), 0.2, IF(Tracker!F39="interviewing", 0.4, IF(Tracker!F39="rejected", 0.3, IF(Tracker!F39="offer", 1, 0))))</f>
@@ -13247,11 +13250,11 @@
       </c>
       <c r="J39">
         <f t="shared" ca="1" si="5"/>
-        <v>0.48202500000000015</v>
+        <v>0.63877500000000031</v>
       </c>
       <c r="K39">
         <f t="shared" ca="1" si="6"/>
-        <v>0.2330000000000001</v>
+        <v>0.34299999999999997</v>
       </c>
       <c r="M39" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13259,11 +13262,11 @@
       </c>
       <c r="N39">
         <f t="shared" ca="1" si="8"/>
-        <v>0.48202500000000015</v>
+        <v>0.63877500000000031</v>
       </c>
       <c r="O39">
         <f t="shared" ca="1" si="9"/>
-        <v>0.2330000000000001</v>
+        <v>0.34299999999999997</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
@@ -13281,7 +13284,7 @@
       </c>
       <c r="D40">
         <f ca="1">(Tracker!G40+Tracker!H40)/2</f>
-        <v>107</v>
+        <v>99.5</v>
       </c>
       <c r="E40" s="34">
         <f>IF(OR(Tracker!F40="denied",Tracker!F40="on hold",Tracker!F40="No Response",Tracker!F40="pending"), 0.2, IF(Tracker!F40="interviewing", 0.4, IF(Tracker!F40="rejected", 0.3, IF(Tracker!F40="offer", 1, 0))))</f>
@@ -13304,11 +13307,11 @@
       </c>
       <c r="J40">
         <f t="shared" ca="1" si="5"/>
-        <v>0.65444999999999975</v>
+        <v>0.41932499999999973</v>
       </c>
       <c r="K40">
         <f t="shared" ca="1" si="6"/>
-        <v>0.2363000000000004</v>
+        <v>7.9550000000000232E-2</v>
       </c>
       <c r="M40" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13316,11 +13319,11 @@
       </c>
       <c r="N40">
         <f t="shared" ca="1" si="8"/>
-        <v>0.65444999999999975</v>
+        <v>0.41932499999999973</v>
       </c>
       <c r="O40">
         <f t="shared" ca="1" si="9"/>
-        <v>0.2363000000000004</v>
+        <v>7.9550000000000232E-2</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
@@ -13334,15 +13337,15 @@
       </c>
       <c r="C41" t="str">
         <f>Tracker!F41</f>
-        <v>No Response</v>
+        <v>Ghosted</v>
       </c>
       <c r="D41">
         <f ca="1">(Tracker!G41+Tracker!H41)/2</f>
-        <v>86</v>
+        <v>95.5</v>
       </c>
       <c r="E41" s="34">
         <f>IF(OR(Tracker!F41="denied",Tracker!F41="on hold",Tracker!F41="No Response",Tracker!F41="pending"), 0.2, IF(Tracker!F41="interviewing", 0.4, IF(Tracker!F41="rejected", 0.3, IF(Tracker!F41="offer", 1, 0))))</f>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F41" s="35">
         <f>IF(OR(Tracker!I41="linkedin", Tracker!I41="Indeed", Tracker!I41="linkedin dm"), 0.9, IF(Tracker!I41="Company Site", 1.1, 1))</f>
@@ -13361,11 +13364,11 @@
       </c>
       <c r="J41">
         <f t="shared" ca="1" si="5"/>
-        <v>-3.8999999999997925E-3</v>
+        <v>0.29392499999999977</v>
       </c>
       <c r="K41">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.20259999999999989</v>
+        <v>-2</v>
       </c>
       <c r="M41" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13373,11 +13376,11 @@
       </c>
       <c r="N41">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.8999999999997925E-3</v>
+        <v>0.29392499999999977</v>
       </c>
       <c r="O41">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.20259999999999989</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
@@ -13391,15 +13394,15 @@
       </c>
       <c r="C42" t="str">
         <f>Tracker!F42</f>
-        <v>No Response</v>
+        <v>Rejected</v>
       </c>
       <c r="D42">
         <f ca="1">(Tracker!G42+Tracker!H42)/2</f>
-        <v>94</v>
+        <v>102.5</v>
       </c>
       <c r="E42" s="34">
         <f>IF(OR(Tracker!F42="denied",Tracker!F42="on hold",Tracker!F42="No Response",Tracker!F42="pending"), 0.2, IF(Tracker!F42="interviewing", 0.4, IF(Tracker!F42="rejected", 0.3, IF(Tracker!F42="offer", 1, 0))))</f>
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F42" s="35">
         <f>IF(OR(Tracker!I42="linkedin", Tracker!I42="Indeed", Tracker!I42="linkedin dm"), 0.9, IF(Tracker!I42="Company Site", 1.1, 1))</f>
@@ -13418,11 +13421,11 @@
       </c>
       <c r="J42">
         <f t="shared" ca="1" si="5"/>
-        <v>0.24690000000000012</v>
+        <v>0.51337499999999991</v>
       </c>
       <c r="K42">
         <f t="shared" ca="1" si="6"/>
-        <v>0.18288888888888888</v>
+        <v>1.5704166666666666</v>
       </c>
       <c r="M42" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13430,11 +13433,11 @@
       </c>
       <c r="N42">
         <f t="shared" ca="1" si="8"/>
-        <v>0.24690000000000012</v>
+        <v>0.51337499999999991</v>
       </c>
       <c r="O42">
         <f t="shared" ca="1" si="9"/>
-        <v>0.18288888888888888</v>
+        <v>1.5704166666666666</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
@@ -13448,15 +13451,15 @@
       </c>
       <c r="C43" t="str">
         <f>Tracker!F43</f>
-        <v>No Response</v>
+        <v>Ghosted</v>
       </c>
       <c r="D43">
         <f ca="1">(Tracker!G43+Tracker!H43)/2</f>
-        <v>98.5</v>
+        <v>92.5</v>
       </c>
       <c r="E43" s="34">
         <f>IF(OR(Tracker!F43="denied",Tracker!F43="on hold",Tracker!F43="No Response",Tracker!F43="pending"), 0.2, IF(Tracker!F43="interviewing", 0.4, IF(Tracker!F43="rejected", 0.3, IF(Tracker!F43="offer", 1, 0))))</f>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F43" s="35">
         <f>IF(OR(Tracker!I43="linkedin", Tracker!I43="Indeed", Tracker!I43="linkedin dm"), 0.9, IF(Tracker!I43="Company Site", 1.1, 1))</f>
@@ -13475,11 +13478,11 @@
       </c>
       <c r="J43">
         <f t="shared" ca="1" si="5"/>
-        <v>0.38797499999999996</v>
+        <v>0.19987500000000002</v>
       </c>
       <c r="K43">
         <f t="shared" ca="1" si="6"/>
-        <v>5.8650000000000535E-2</v>
+        <v>-2</v>
       </c>
       <c r="M43" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13487,11 +13490,11 @@
       </c>
       <c r="N43">
         <f t="shared" ca="1" si="8"/>
-        <v>0.38797499999999996</v>
+        <v>0.19987500000000002</v>
       </c>
       <c r="O43">
         <f t="shared" ca="1" si="9"/>
-        <v>5.8650000000000535E-2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
@@ -13509,7 +13512,7 @@
       </c>
       <c r="D44">
         <f ca="1">(Tracker!G44+Tracker!H44)/2</f>
-        <v>113.5</v>
+        <v>99.5</v>
       </c>
       <c r="E44" s="34">
         <f>IF(OR(Tracker!F44="denied",Tracker!F44="on hold",Tracker!F44="No Response",Tracker!F44="pending"), 0.2, IF(Tracker!F44="interviewing", 0.4, IF(Tracker!F44="rejected", 0.3, IF(Tracker!F44="offer", 1, 0))))</f>
@@ -13532,11 +13535,11 @@
       </c>
       <c r="J44">
         <f t="shared" ca="1" si="5"/>
-        <v>0.85822499999999913</v>
+        <v>0.41932499999999973</v>
       </c>
       <c r="K44">
         <f t="shared" ca="1" si="6"/>
-        <v>0.37215000000000042</v>
+        <v>7.9550000000000232E-2</v>
       </c>
       <c r="M44" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13544,11 +13547,11 @@
       </c>
       <c r="N44">
         <f t="shared" ca="1" si="8"/>
-        <v>0.85822499999999913</v>
+        <v>0.41932499999999973</v>
       </c>
       <c r="O44">
         <f t="shared" ca="1" si="9"/>
-        <v>0.37215000000000042</v>
+        <v>7.9550000000000232E-2</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
@@ -13566,7 +13569,7 @@
       </c>
       <c r="D45">
         <f ca="1">(Tracker!G45+Tracker!H45)/2</f>
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E45" s="34">
         <f>IF(OR(Tracker!F45="denied",Tracker!F45="on hold",Tracker!F45="No Response",Tracker!F45="pending"), 0.2, IF(Tracker!F45="interviewing", 0.4, IF(Tracker!F45="rejected", 0.3, IF(Tracker!F45="offer", 1, 0))))</f>
@@ -13589,11 +13592,11 @@
       </c>
       <c r="J45">
         <f t="shared" ca="1" si="5"/>
-        <v>0.27824999999999989</v>
+        <v>0.43499999999999961</v>
       </c>
       <c r="K45">
         <f t="shared" ca="1" si="6"/>
-        <v>-1.4499999999999957E-2</v>
+        <v>8.9999999999999858E-2</v>
       </c>
       <c r="M45" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13601,11 +13604,11 @@
       </c>
       <c r="N45">
         <f t="shared" ca="1" si="8"/>
-        <v>0.27824999999999989</v>
+        <v>0.43499999999999961</v>
       </c>
       <c r="O45">
         <f t="shared" ca="1" si="9"/>
-        <v>-1.4499999999999957E-2</v>
+        <v>8.9999999999999858E-2</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
@@ -13619,11 +13622,11 @@
       </c>
       <c r="C46" t="str">
         <f>Tracker!F46</f>
-        <v>No Response</v>
+        <v>Denied</v>
       </c>
       <c r="D46">
         <f ca="1">(Tracker!G46+Tracker!H46)/2</f>
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="E46" s="34">
         <f>IF(OR(Tracker!F46="denied",Tracker!F46="on hold",Tracker!F46="No Response",Tracker!F46="pending"), 0.2, IF(Tracker!F46="interviewing", 0.4, IF(Tracker!F46="rejected", 0.3, IF(Tracker!F46="offer", 1, 0))))</f>
@@ -13646,11 +13649,11 @@
       </c>
       <c r="J46">
         <f t="shared" ca="1" si="5"/>
-        <v>0.46634999999999938</v>
+        <v>5.8799999999999741E-2</v>
       </c>
       <c r="K46">
         <f t="shared" ca="1" si="6"/>
-        <v>0.11090000000000044</v>
+        <v>-0.16079999999999961</v>
       </c>
       <c r="M46" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13658,11 +13661,11 @@
       </c>
       <c r="N46">
         <f t="shared" ca="1" si="8"/>
-        <v>0.46634999999999938</v>
+        <v>5.8799999999999741E-2</v>
       </c>
       <c r="O46">
         <f t="shared" ca="1" si="9"/>
-        <v>0.11090000000000044</v>
+        <v>-0.16079999999999961</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
@@ -13680,7 +13683,7 @@
       </c>
       <c r="D47">
         <f ca="1">(Tracker!G47+Tracker!H47)/2</f>
-        <v>120.5</v>
+        <v>90.5</v>
       </c>
       <c r="E47" s="34">
         <f>IF(OR(Tracker!F47="denied",Tracker!F47="on hold",Tracker!F47="No Response",Tracker!F47="pending"), 0.2, IF(Tracker!F47="interviewing", 0.4, IF(Tracker!F47="rejected", 0.3, IF(Tracker!F47="offer", 1, 0))))</f>
@@ -13703,11 +13706,11 @@
       </c>
       <c r="J47">
         <f t="shared" ca="1" si="5"/>
-        <v>1.0776749999999997</v>
+        <v>0.13717500000000005</v>
       </c>
       <c r="K47">
         <f t="shared" ca="1" si="6"/>
-        <v>0.51845000000000052</v>
+        <v>-0.1085499999999997</v>
       </c>
       <c r="M47" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13715,11 +13718,11 @@
       </c>
       <c r="N47">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0776749999999997</v>
+        <v>0.13717500000000005</v>
       </c>
       <c r="O47">
         <f t="shared" ca="1" si="9"/>
-        <v>0.51845000000000052</v>
+        <v>-0.1085499999999997</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
@@ -13737,7 +13740,7 @@
       </c>
       <c r="D48">
         <f ca="1">(Tracker!G48+Tracker!H48)/2</f>
-        <v>80</v>
+        <v>114.5</v>
       </c>
       <c r="E48" s="34">
         <f>IF(OR(Tracker!F48="denied",Tracker!F48="on hold",Tracker!F48="No Response",Tracker!F48="pending"), 0.2, IF(Tracker!F48="interviewing", 0.4, IF(Tracker!F48="rejected", 0.3, IF(Tracker!F48="offer", 1, 0))))</f>
@@ -13760,11 +13763,11 @@
       </c>
       <c r="J48">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.19200000000000017</v>
+        <v>0.88957499999999978</v>
       </c>
       <c r="K48">
         <f t="shared" ca="1" si="6"/>
-        <v>0.50800000000000001</v>
+        <v>1.589575</v>
       </c>
       <c r="M48" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13772,11 +13775,11 @@
       </c>
       <c r="N48">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.19200000000000017</v>
+        <v>0.88957499999999978</v>
       </c>
       <c r="O48">
         <f t="shared" ca="1" si="9"/>
-        <v>0.50800000000000001</v>
+        <v>1.589575</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
@@ -13790,15 +13793,15 @@
       </c>
       <c r="C49" t="str">
         <f>Tracker!F49</f>
-        <v>Rejected</v>
+        <v>Pending</v>
       </c>
       <c r="D49">
         <f ca="1">(Tracker!G49+Tracker!H49)/2</f>
-        <v>95.5</v>
+        <v>100.5</v>
       </c>
       <c r="E49" s="34">
         <f>IF(OR(Tracker!F49="denied",Tracker!F49="on hold",Tracker!F49="No Response",Tracker!F49="pending"), 0.2, IF(Tracker!F49="interviewing", 0.4, IF(Tracker!F49="rejected", 0.3, IF(Tracker!F49="offer", 1, 0))))</f>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F49" s="35">
         <f>IF(OR(Tracker!I49="linkedin", Tracker!I49="Indeed", Tracker!I49="linkedin dm"), 0.9, IF(Tracker!I49="Company Site", 1.1, 1))</f>
@@ -13817,11 +13820,11 @@
       </c>
       <c r="J49">
         <f t="shared" ca="1" si="5"/>
-        <v>0.29392499999999977</v>
+        <v>0.45067499999999949</v>
       </c>
       <c r="K49">
         <f t="shared" ca="1" si="6"/>
-        <v>0.99392499999999995</v>
+        <v>0.10044999999999993</v>
       </c>
       <c r="M49" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13829,11 +13832,11 @@
       </c>
       <c r="N49">
         <f t="shared" ca="1" si="8"/>
-        <v>0.29392499999999977</v>
+        <v>0.45067499999999949</v>
       </c>
       <c r="O49">
         <f t="shared" ca="1" si="9"/>
-        <v>0.99392499999999995</v>
+        <v>0.10044999999999993</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
@@ -13851,7 +13854,7 @@
       </c>
       <c r="D50">
         <f ca="1">(Tracker!G50+Tracker!H50)/2</f>
-        <v>99.5</v>
+        <v>92.5</v>
       </c>
       <c r="E50" s="34">
         <f>IF(OR(Tracker!F50="denied",Tracker!F50="on hold",Tracker!F50="No Response",Tracker!F50="pending"), 0.2, IF(Tracker!F50="interviewing", 0.4, IF(Tracker!F50="rejected", 0.3, IF(Tracker!F50="offer", 1, 0))))</f>
@@ -13874,11 +13877,11 @@
       </c>
       <c r="J50">
         <f t="shared" ca="1" si="5"/>
-        <v>0.41932499999999973</v>
+        <v>0.19987500000000002</v>
       </c>
       <c r="K50">
         <f t="shared" ca="1" si="6"/>
-        <v>1.1193249999999999</v>
+        <v>0.8998750000000002</v>
       </c>
       <c r="M50" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13886,11 +13889,11 @@
       </c>
       <c r="N50">
         <f t="shared" ca="1" si="8"/>
-        <v>0.41932499999999973</v>
+        <v>0.19987500000000002</v>
       </c>
       <c r="O50">
         <f t="shared" ca="1" si="9"/>
-        <v>1.1193249999999999</v>
+        <v>0.8998750000000002</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
@@ -13904,15 +13907,15 @@
       </c>
       <c r="C51" t="str">
         <f>Tracker!F51</f>
-        <v>Rejected</v>
+        <v>No Response</v>
       </c>
       <c r="D51">
         <f ca="1">(Tracker!G51+Tracker!H51)/2</f>
-        <v>104</v>
+        <v>87.5</v>
       </c>
       <c r="E51" s="34">
         <f>IF(OR(Tracker!F51="denied",Tracker!F51="on hold",Tracker!F51="No Response",Tracker!F51="pending"), 0.2, IF(Tracker!F51="interviewing", 0.4, IF(Tracker!F51="rejected", 0.3, IF(Tracker!F51="offer", 1, 0))))</f>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F51" s="35">
         <f>IF(OR(Tracker!I51="linkedin", Tracker!I51="Indeed", Tracker!I51="linkedin dm"), 0.9, IF(Tracker!I51="Company Site", 1.1, 1))</f>
@@ -13931,11 +13934,11 @@
       </c>
       <c r="J51">
         <f t="shared" ca="1" si="5"/>
-        <v>0.56039999999999957</v>
+        <v>4.3124999999999858E-2</v>
       </c>
       <c r="K51">
         <f t="shared" ca="1" si="6"/>
-        <v>1.2603999999999997</v>
+        <v>-0.17125000000000012</v>
       </c>
       <c r="M51" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13943,11 +13946,11 @@
       </c>
       <c r="N51">
         <f t="shared" ca="1" si="8"/>
-        <v>0.56039999999999957</v>
+        <v>4.3124999999999858E-2</v>
       </c>
       <c r="O51">
         <f t="shared" ca="1" si="9"/>
-        <v>1.2603999999999997</v>
+        <v>-0.17125000000000012</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
@@ -13965,7 +13968,7 @@
       </c>
       <c r="D52">
         <f ca="1">(Tracker!G52+Tracker!H52)/2</f>
-        <v>90</v>
+        <v>97.5</v>
       </c>
       <c r="E52" s="34">
         <f>IF(OR(Tracker!F52="denied",Tracker!F52="on hold",Tracker!F52="No Response",Tracker!F52="pending"), 0.2, IF(Tracker!F52="interviewing", 0.4, IF(Tracker!F52="rejected", 0.3, IF(Tracker!F52="offer", 1, 0))))</f>
@@ -13988,11 +13991,11 @@
       </c>
       <c r="J52">
         <f t="shared" ca="1" si="5"/>
-        <v>0.12149999999999972</v>
+        <v>0.35662500000000019</v>
       </c>
       <c r="K52">
         <f t="shared" ca="1" si="6"/>
-        <v>0.8214999999999999</v>
+        <v>1.0566250000000004</v>
       </c>
       <c r="M52" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14000,11 +14003,11 @@
       </c>
       <c r="N52">
         <f t="shared" ca="1" si="8"/>
-        <v>0.12149999999999972</v>
+        <v>0.35662500000000019</v>
       </c>
       <c r="O52">
         <f t="shared" ca="1" si="9"/>
-        <v>0.8214999999999999</v>
+        <v>1.0566250000000004</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.35">
@@ -14018,15 +14021,15 @@
       </c>
       <c r="C53" t="str">
         <f>Tracker!F53</f>
-        <v>Rejected</v>
+        <v>Interviewing</v>
       </c>
       <c r="D53">
         <f ca="1">(Tracker!G53+Tracker!H53)/2</f>
-        <v>109.5</v>
+        <v>85</v>
       </c>
       <c r="E53" s="34">
         <f>IF(OR(Tracker!F53="denied",Tracker!F53="on hold",Tracker!F53="No Response",Tracker!F53="pending"), 0.2, IF(Tracker!F53="interviewing", 0.4, IF(Tracker!F53="rejected", 0.3, IF(Tracker!F53="offer", 1, 0))))</f>
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="F53" s="35">
         <f>IF(OR(Tracker!I53="linkedin", Tracker!I53="Indeed", Tracker!I53="linkedin dm"), 0.9, IF(Tracker!I53="Company Site", 1.1, 1))</f>
@@ -14045,11 +14048,11 @@
       </c>
       <c r="J53">
         <f t="shared" ca="1" si="5"/>
-        <v>0.73282500000000006</v>
+        <v>-3.5250000000000004E-2</v>
       </c>
       <c r="K53">
         <f t="shared" ca="1" si="6"/>
-        <v>1.4328250000000002</v>
+        <v>1.5529999999999999</v>
       </c>
       <c r="M53" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14057,11 +14060,11 @@
       </c>
       <c r="N53">
         <f t="shared" ca="1" si="8"/>
-        <v>0.73282500000000006</v>
+        <v>-3.5250000000000004E-2</v>
       </c>
       <c r="O53">
         <f t="shared" ca="1" si="9"/>
-        <v>1.4328250000000002</v>
+        <v>1.5529999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.35">
@@ -14079,7 +14082,7 @@
       </c>
       <c r="D54">
         <f ca="1">(Tracker!G54+Tracker!H54)/2</f>
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="E54" s="34">
         <f>IF(OR(Tracker!F54="denied",Tracker!F54="on hold",Tracker!F54="No Response",Tracker!F54="pending"), 0.2, IF(Tracker!F54="interviewing", 0.4, IF(Tracker!F54="rejected", 0.3, IF(Tracker!F54="offer", 1, 0))))</f>
@@ -14102,11 +14105,11 @@
       </c>
       <c r="J54">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.16350000000000042</v>
+        <v>0.54899999999999949</v>
       </c>
       <c r="K54">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3819999999999997</v>
+        <v>2.331999999999999</v>
       </c>
       <c r="M54" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14114,11 +14117,11 @@
       </c>
       <c r="N54">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.16350000000000042</v>
+        <v>0.54899999999999949</v>
       </c>
       <c r="O54">
         <f t="shared" ca="1" si="9"/>
-        <v>1.3819999999999997</v>
+        <v>2.331999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.35">
@@ -14136,7 +14139,7 @@
       </c>
       <c r="D55">
         <f ca="1">(Tracker!G55+Tracker!H55)/2</f>
-        <v>84.5</v>
+        <v>110.5</v>
       </c>
       <c r="E55" s="34">
         <f>IF(OR(Tracker!F55="denied",Tracker!F55="on hold",Tracker!F55="No Response",Tracker!F55="pending"), 0.2, IF(Tracker!F55="interviewing", 0.4, IF(Tracker!F55="rejected", 0.3, IF(Tracker!F55="offer", 1, 0))))</f>
@@ -14159,11 +14162,11 @@
       </c>
       <c r="J55">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.2917500000000004</v>
+        <v>0.44924999999999926</v>
       </c>
       <c r="K55">
         <f t="shared" ca="1" si="6"/>
-        <v>0.40824999999999978</v>
+        <v>1.1492499999999994</v>
       </c>
       <c r="M55" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14171,11 +14174,11 @@
       </c>
       <c r="N55">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.2917500000000004</v>
+        <v>0.44924999999999926</v>
       </c>
       <c r="O55">
         <f t="shared" ca="1" si="9"/>
-        <v>0.40824999999999978</v>
+        <v>1.1492499999999994</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
@@ -14193,7 +14196,7 @@
       </c>
       <c r="D56">
         <f ca="1">(Tracker!G56+Tracker!H56)/2</f>
-        <v>106</v>
+        <v>105.5</v>
       </c>
       <c r="E56" s="34">
         <f>IF(OR(Tracker!F56="denied",Tracker!F56="on hold",Tracker!F56="No Response",Tracker!F56="pending"), 0.2, IF(Tracker!F56="interviewing", 0.4, IF(Tracker!F56="rejected", 0.3, IF(Tracker!F56="offer", 1, 0))))</f>
@@ -14216,11 +14219,11 @@
       </c>
       <c r="J56">
         <f t="shared" ca="1" si="5"/>
-        <v>0.32099999999999973</v>
+        <v>0.30674999999999963</v>
       </c>
       <c r="K56">
         <f t="shared" ca="1" si="6"/>
-        <v>1.4000000000000234E-2</v>
+        <v>4.5000000000001705E-3</v>
       </c>
       <c r="M56" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14228,11 +14231,11 @@
       </c>
       <c r="N56">
         <f t="shared" ca="1" si="8"/>
-        <v>0.32099999999999973</v>
+        <v>0.30674999999999963</v>
       </c>
       <c r="O56">
         <f t="shared" ca="1" si="9"/>
-        <v>1.4000000000000234E-2</v>
+        <v>4.5000000000001705E-3</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.35">
@@ -14250,7 +14253,7 @@
       </c>
       <c r="D57">
         <f ca="1">(Tracker!G57+Tracker!H57)/2</f>
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="E57" s="34">
         <f>IF(OR(Tracker!F57="denied",Tracker!F57="on hold",Tracker!F57="No Response",Tracker!F57="pending"), 0.2, IF(Tracker!F57="interviewing", 0.4, IF(Tracker!F57="rejected", 0.3, IF(Tracker!F57="offer", 1, 0))))</f>
@@ -14273,11 +14276,11 @@
       </c>
       <c r="J57">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.16350000000000042</v>
+        <v>0.32099999999999973</v>
       </c>
       <c r="K57">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.30899999999999994</v>
+        <v>1.4000000000000234E-2</v>
       </c>
       <c r="M57" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14285,11 +14288,11 @@
       </c>
       <c r="N57">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.16350000000000042</v>
+        <v>0.32099999999999973</v>
       </c>
       <c r="O57">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.30899999999999994</v>
+        <v>1.4000000000000234E-2</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.35">
@@ -14303,11 +14306,11 @@
       </c>
       <c r="C58" t="str">
         <f>Tracker!F58</f>
-        <v>Pending</v>
+        <v>On Hold</v>
       </c>
       <c r="D58">
         <f ca="1">(Tracker!G58+Tracker!H58)/2</f>
-        <v>112.5</v>
+        <v>98</v>
       </c>
       <c r="E58" s="34">
         <f>IF(OR(Tracker!F58="denied",Tracker!F58="on hold",Tracker!F58="No Response",Tracker!F58="pending"), 0.2, IF(Tracker!F58="interviewing", 0.4, IF(Tracker!F58="rejected", 0.3, IF(Tracker!F58="offer", 1, 0))))</f>
@@ -14330,11 +14333,11 @@
       </c>
       <c r="J58">
         <f t="shared" ca="1" si="5"/>
-        <v>0.50624999999999964</v>
+        <v>9.2999999999999527E-2</v>
       </c>
       <c r="K58">
         <f t="shared" ca="1" si="6"/>
-        <v>0.13750000000000018</v>
+        <v>-0.1379999999999999</v>
       </c>
       <c r="M58" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14342,11 +14345,11 @@
       </c>
       <c r="N58">
         <f t="shared" ca="1" si="8"/>
-        <v>0.50624999999999964</v>
+        <v>9.2999999999999527E-2</v>
       </c>
       <c r="O58">
         <f t="shared" ca="1" si="9"/>
-        <v>0.13750000000000018</v>
+        <v>-0.1379999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.35">
@@ -14364,7 +14367,7 @@
       </c>
       <c r="D59">
         <f ca="1">(Tracker!G59+Tracker!H59)/2</f>
-        <v>99.5</v>
+        <v>96</v>
       </c>
       <c r="E59" s="34">
         <f>IF(OR(Tracker!F59="denied",Tracker!F59="on hold",Tracker!F59="No Response",Tracker!F59="pending"), 0.2, IF(Tracker!F59="interviewing", 0.4, IF(Tracker!F59="rejected", 0.3, IF(Tracker!F59="offer", 1, 0))))</f>
@@ -14387,11 +14390,11 @@
       </c>
       <c r="J59">
         <f t="shared" ca="1" si="5"/>
-        <v>0.13574999999999982</v>
+        <v>3.5999999999999588E-2</v>
       </c>
       <c r="K59">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.10949999999999993</v>
+        <v>-0.17599999999999971</v>
       </c>
       <c r="M59" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14399,11 +14402,11 @@
       </c>
       <c r="N59">
         <f t="shared" ca="1" si="8"/>
-        <v>0.13574999999999982</v>
+        <v>3.5999999999999588E-2</v>
       </c>
       <c r="O59">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.10949999999999993</v>
+        <v>-0.17599999999999971</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.35">
@@ -14421,7 +14424,7 @@
       </c>
       <c r="D60">
         <f ca="1">(Tracker!G60+Tracker!H60)/2</f>
-        <v>100.5</v>
+        <v>88.5</v>
       </c>
       <c r="E60" s="34">
         <f>IF(OR(Tracker!F60="denied",Tracker!F60="on hold",Tracker!F60="No Response",Tracker!F60="pending"), 0.2, IF(Tracker!F60="interviewing", 0.4, IF(Tracker!F60="rejected", 0.3, IF(Tracker!F60="offer", 1, 0))))</f>
@@ -14444,11 +14447,11 @@
       </c>
       <c r="J60">
         <f t="shared" ca="1" si="5"/>
-        <v>0.16424999999999956</v>
+        <v>-0.17775000000000007</v>
       </c>
       <c r="K60">
         <f t="shared" ca="1" si="6"/>
-        <v>-9.0500000000000025E-2</v>
+        <v>-0.31850000000000023</v>
       </c>
       <c r="M60" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14456,11 +14459,11 @@
       </c>
       <c r="N60">
         <f t="shared" ca="1" si="8"/>
-        <v>0.16424999999999956</v>
+        <v>-0.17775000000000007</v>
       </c>
       <c r="O60">
         <f t="shared" ca="1" si="9"/>
-        <v>-9.0500000000000025E-2</v>
+        <v>-0.31850000000000023</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.35">
@@ -14478,7 +14481,7 @@
       </c>
       <c r="D61">
         <f ca="1">(Tracker!G61+Tracker!H61)/2</f>
-        <v>113.5</v>
+        <v>88</v>
       </c>
       <c r="E61" s="34">
         <f>IF(OR(Tracker!F61="denied",Tracker!F61="on hold",Tracker!F61="No Response",Tracker!F61="pending"), 0.2, IF(Tracker!F61="interviewing", 0.4, IF(Tracker!F61="rejected", 0.3, IF(Tracker!F61="offer", 1, 0))))</f>
@@ -14501,11 +14504,11 @@
       </c>
       <c r="J61">
         <f t="shared" ca="1" si="5"/>
-        <v>0.53474999999999939</v>
+        <v>-0.19200000000000017</v>
       </c>
       <c r="K61">
         <f t="shared" ca="1" si="6"/>
-        <v>0.15650000000000031</v>
+        <v>-0.32800000000000007</v>
       </c>
       <c r="M61" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14513,11 +14516,11 @@
       </c>
       <c r="N61">
         <f t="shared" ca="1" si="8"/>
-        <v>0.53474999999999939</v>
+        <v>-0.19200000000000017</v>
       </c>
       <c r="O61">
         <f t="shared" ca="1" si="9"/>
-        <v>0.15650000000000031</v>
+        <v>-0.32800000000000007</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.35">
@@ -14531,15 +14534,15 @@
       </c>
       <c r="C62" t="str">
         <f>Tracker!F62</f>
-        <v>Denied</v>
+        <v>Rejected</v>
       </c>
       <c r="D62">
         <f ca="1">(Tracker!G62+Tracker!H62)/2</f>
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E62" s="34">
         <f>IF(OR(Tracker!F62="denied",Tracker!F62="on hold",Tracker!F62="No Response",Tracker!F62="pending"), 0.2, IF(Tracker!F62="interviewing", 0.4, IF(Tracker!F62="rejected", 0.3, IF(Tracker!F62="offer", 1, 0))))</f>
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F62" s="35">
         <f>IF(OR(Tracker!I62="linkedin", Tracker!I62="Indeed", Tracker!I62="linkedin dm"), 0.9, IF(Tracker!I62="Company Site", 1.1, 1))</f>
@@ -14558,11 +14561,11 @@
       </c>
       <c r="J62">
         <f t="shared" ca="1" si="5"/>
-        <v>0.32099999999999973</v>
+        <v>0.14999999999999991</v>
       </c>
       <c r="K62">
         <f t="shared" ca="1" si="6"/>
-        <v>1.4000000000000234E-2</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="M62" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14570,11 +14573,11 @@
       </c>
       <c r="N62">
         <f t="shared" ca="1" si="8"/>
-        <v>0.32099999999999973</v>
+        <v>0.14999999999999991</v>
       </c>
       <c r="O62">
         <f t="shared" ca="1" si="9"/>
-        <v>1.4000000000000234E-2</v>
+        <v>0.85000000000000009</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.35">
@@ -14592,7 +14595,7 @@
       </c>
       <c r="D63">
         <f ca="1">(Tracker!G63+Tracker!H63)/2</f>
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="E63" s="34">
         <f>IF(OR(Tracker!F63="denied",Tracker!F63="on hold",Tracker!F63="No Response",Tracker!F63="pending"), 0.2, IF(Tracker!F63="interviewing", 0.4, IF(Tracker!F63="rejected", 0.3, IF(Tracker!F63="offer", 1, 0))))</f>
@@ -14615,11 +14618,11 @@
       </c>
       <c r="J63">
         <f t="shared" ca="1" si="5"/>
-        <v>0.52049999999999974</v>
+        <v>0.17849999999999966</v>
       </c>
       <c r="K63">
         <f t="shared" ca="1" si="6"/>
-        <v>0.1469999999999998</v>
+        <v>-8.0999999999999961E-2</v>
       </c>
       <c r="M63" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14627,11 +14630,11 @@
       </c>
       <c r="N63">
         <f t="shared" ca="1" si="8"/>
-        <v>0.52049999999999974</v>
+        <v>0.17849999999999966</v>
       </c>
       <c r="O63">
         <f t="shared" ca="1" si="9"/>
-        <v>0.1469999999999998</v>
+        <v>-8.0999999999999961E-2</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.35">
@@ -14649,7 +14652,7 @@
       </c>
       <c r="D64">
         <f ca="1">(Tracker!G64+Tracker!H64)/2</f>
-        <v>120.5</v>
+        <v>100</v>
       </c>
       <c r="E64" s="34">
         <f>IF(OR(Tracker!F64="denied",Tracker!F64="on hold",Tracker!F64="No Response",Tracker!F64="pending"), 0.2, IF(Tracker!F64="interviewing", 0.4, IF(Tracker!F64="rejected", 0.3, IF(Tracker!F64="offer", 1, 0))))</f>
@@ -14672,11 +14675,11 @@
       </c>
       <c r="J64">
         <f t="shared" ca="1" si="5"/>
-        <v>0.7342499999999994</v>
+        <v>0.14999999999999991</v>
       </c>
       <c r="K64">
         <f t="shared" ca="1" si="6"/>
-        <v>0.28949999999999987</v>
+        <v>-0.10000000000000009</v>
       </c>
       <c r="M64" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14684,11 +14687,11 @@
       </c>
       <c r="N64">
         <f t="shared" ca="1" si="8"/>
-        <v>0.7342499999999994</v>
+        <v>0.14999999999999991</v>
       </c>
       <c r="O64">
         <f t="shared" ca="1" si="9"/>
-        <v>0.28949999999999987</v>
+        <v>-0.10000000000000009</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.35">
@@ -14763,7 +14766,7 @@
       </c>
       <c r="D66">
         <f ca="1">(Tracker!G66+Tracker!H66)/2</f>
-        <v>105.5</v>
+        <v>108</v>
       </c>
       <c r="E66" s="34">
         <f>IF(OR(Tracker!F66="denied",Tracker!F66="on hold",Tracker!F66="No Response",Tracker!F66="pending"), 0.2, IF(Tracker!F66="interviewing", 0.4, IF(Tracker!F66="rejected", 0.3, IF(Tracker!F66="offer", 1, 0))))</f>
@@ -14786,11 +14789,11 @@
       </c>
       <c r="J66">
         <f t="shared" ca="1" si="5"/>
-        <v>6.0749999999996085E-3</v>
+        <v>7.0199999999999818E-2</v>
       </c>
       <c r="K66">
         <f t="shared" ca="1" si="6"/>
-        <v>0.86357142857142888</v>
+        <v>0.93142857142857149</v>
       </c>
       <c r="M66" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14798,11 +14801,11 @@
       </c>
       <c r="N66">
         <f t="shared" ca="1" si="8"/>
-        <v>6.0749999999996085E-3</v>
+        <v>7.0199999999999818E-2</v>
       </c>
       <c r="O66">
         <f t="shared" ca="1" si="9"/>
-        <v>0.86357142857142888</v>
+        <v>0.93142857142857149</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.35">
@@ -14873,15 +14876,15 @@
       </c>
       <c r="C68" t="str">
         <f>Tracker!F68</f>
-        <v>No Response</v>
+        <v>Ghosted</v>
       </c>
       <c r="D68">
         <f ca="1">(Tracker!G68+Tracker!H68)/2</f>
-        <v>89</v>
+        <v>105.5</v>
       </c>
       <c r="E68" s="34">
         <f>IF(OR(Tracker!F68="denied",Tracker!F68="on hold",Tracker!F68="No Response",Tracker!F68="pending"), 0.2, IF(Tracker!F68="interviewing", 0.4, IF(Tracker!F68="rejected", 0.3, IF(Tracker!F68="offer", 1, 0))))</f>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F68" s="35">
         <f>IF(OR(Tracker!I68="linkedin", Tracker!I68="Indeed", Tracker!I68="linkedin dm"), 0.9, IF(Tracker!I68="Company Site", 1.1, 1))</f>
@@ -14900,11 +14903,11 @@
       </c>
       <c r="J68">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.41715000000000035</v>
+        <v>6.0749999999996085E-3</v>
       </c>
       <c r="K68">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.30900000000000016</v>
+        <v>-2</v>
       </c>
       <c r="M68" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14912,11 +14915,11 @@
       </c>
       <c r="N68">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.41715000000000035</v>
+        <v>6.0749999999996085E-3</v>
       </c>
       <c r="O68">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.30900000000000016</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.35">
@@ -14930,11 +14933,11 @@
       </c>
       <c r="C69" t="str">
         <f>Tracker!F69</f>
-        <v>No Response</v>
+        <v>Denied</v>
       </c>
       <c r="D69">
         <f ca="1">(Tracker!G69+Tracker!H69)/2</f>
-        <v>106.5</v>
+        <v>89.5</v>
       </c>
       <c r="E69" s="34">
         <f>IF(OR(Tracker!F69="denied",Tracker!F69="on hold",Tracker!F69="No Response",Tracker!F69="pending"), 0.2, IF(Tracker!F69="interviewing", 0.4, IF(Tracker!F69="rejected", 0.3, IF(Tracker!F69="offer", 1, 0))))</f>
@@ -14957,11 +14960,11 @@
       </c>
       <c r="J69">
         <f t="shared" ca="1" si="5"/>
-        <v>3.1724999999999781E-2</v>
+        <v>-0.40432500000000005</v>
       </c>
       <c r="K69">
         <f t="shared" ca="1" si="6"/>
-        <v>2.3500000000000298E-2</v>
+        <v>-0.29949999999999966</v>
       </c>
       <c r="M69" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14969,11 +14972,11 @@
       </c>
       <c r="N69">
         <f t="shared" ca="1" si="8"/>
-        <v>3.1724999999999781E-2</v>
+        <v>-0.40432500000000005</v>
       </c>
       <c r="O69">
         <f t="shared" ca="1" si="9"/>
-        <v>2.3500000000000298E-2</v>
+        <v>-0.29949999999999966</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.35">
@@ -14991,7 +14994,7 @@
       </c>
       <c r="D70">
         <f ca="1">(Tracker!G70+Tracker!H70)/2</f>
-        <v>120.5</v>
+        <v>109</v>
       </c>
       <c r="E70" s="34">
         <f>IF(OR(Tracker!F70="denied",Tracker!F70="on hold",Tracker!F70="No Response",Tracker!F70="pending"), 0.2, IF(Tracker!F70="interviewing", 0.4, IF(Tracker!F70="rejected", 0.3, IF(Tracker!F70="offer", 1, 0))))</f>
@@ -15014,11 +15017,11 @@
       </c>
       <c r="J70">
         <f t="shared" ca="1" si="5"/>
-        <v>0.39082499999999953</v>
+        <v>9.5849999999999103E-2</v>
       </c>
       <c r="K70">
         <f t="shared" ca="1" si="6"/>
-        <v>0.28949999999999987</v>
+        <v>7.099999999999973E-2</v>
       </c>
       <c r="M70" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -15026,11 +15029,11 @@
       </c>
       <c r="N70">
         <f t="shared" ca="1" si="8"/>
-        <v>0.39082499999999953</v>
+        <v>9.5849999999999103E-2</v>
       </c>
       <c r="O70">
         <f t="shared" ca="1" si="9"/>
-        <v>0.28949999999999987</v>
+        <v>7.099999999999973E-2</v>
       </c>
     </row>
   </sheetData>

--- a/example_app_tracker.xlsx
+++ b/example_app_tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\graha\OneDrive\Documents\GitHub\application_tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F240B07A-488B-4ED1-ADDD-B359D745603D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BEE707-B511-4632-A4FD-435A8D32105E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17140" yWindow="4230" windowWidth="20200" windowHeight="15960" xr2:uid="{85E7A6A4-6F22-48D9-815F-FC03736B7AC4}"/>
   </bookViews>
@@ -6838,8 +6838,8 @@
   <dimension ref="A1:K75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6854,7 +6854,7 @@
     <col min="8" max="8" width="4.7265625" customWidth="1"/>
     <col min="9" max="9" width="12.36328125" style="1" customWidth="1"/>
     <col min="10" max="10" width="5.08984375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="3.7265625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="8.26953125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="11" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
@@ -6913,11 +6913,11 @@
       </c>
       <c r="G2">
         <f ca="1">ROUND(RAND()*60+50,0)</f>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H2">
         <f ca="1">ROUND(RAND()*40+100,0)</f>
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>11</v>
@@ -6951,11 +6951,11 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G66" ca="1" si="1">ROUND(RAND()*60+50,0)</f>
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H66" ca="1" si="2">ROUND(RAND()*40+100,0)</f>
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>11</v>
@@ -6989,11 +6989,11 @@
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="2"/>
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>11</v>
@@ -7027,11 +7027,11 @@
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="2"/>
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>10</v>
@@ -7065,11 +7065,11 @@
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="2"/>
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>11</v>
@@ -7103,11 +7103,11 @@
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="2"/>
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>11</v>
@@ -7141,11 +7141,11 @@
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="2"/>
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>11</v>
@@ -7179,11 +7179,11 @@
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="2"/>
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>11</v>
@@ -7217,11 +7217,11 @@
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="2"/>
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>13</v>
@@ -7255,11 +7255,11 @@
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="1"/>
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="2"/>
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>11</v>
@@ -7293,11 +7293,11 @@
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="2"/>
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>11</v>
@@ -7331,11 +7331,11 @@
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="1"/>
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="2"/>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>10</v>
@@ -7369,11 +7369,11 @@
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="2"/>
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>10</v>
@@ -7407,11 +7407,11 @@
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>10</v>
@@ -7445,11 +7445,11 @@
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="2"/>
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>15</v>
@@ -7483,11 +7483,11 @@
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="2"/>
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>15</v>
@@ -7521,11 +7521,11 @@
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="2"/>
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>15</v>
@@ -7559,11 +7559,11 @@
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="2"/>
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>15</v>
@@ -7597,11 +7597,11 @@
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="2"/>
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>15</v>
@@ -7635,11 +7635,11 @@
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="1"/>
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="2"/>
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>239</v>
@@ -7673,11 +7673,11 @@
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="2"/>
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>239</v>
@@ -7711,11 +7711,11 @@
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="2"/>
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>239</v>
@@ -7749,11 +7749,11 @@
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>9</v>
@@ -7787,11 +7787,11 @@
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="2"/>
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>9</v>
@@ -7825,11 +7825,11 @@
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="2"/>
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>9</v>
@@ -7863,7 +7863,7 @@
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="2"/>
@@ -7901,11 +7901,11 @@
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="2"/>
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>9</v>
@@ -7939,11 +7939,11 @@
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="2"/>
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>9</v>
@@ -7977,11 +7977,11 @@
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="2"/>
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>9</v>
@@ -8015,11 +8015,11 @@
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="2"/>
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>9</v>
@@ -8053,11 +8053,11 @@
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="2"/>
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>15</v>
@@ -8091,11 +8091,11 @@
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="1"/>
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="2"/>
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>17</v>
@@ -8129,11 +8129,11 @@
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>17</v>
@@ -8167,11 +8167,11 @@
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="2"/>
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>17</v>
@@ -8205,11 +8205,11 @@
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="1"/>
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="2"/>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>17</v>
@@ -8243,11 +8243,11 @@
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="2"/>
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>19</v>
@@ -8281,11 +8281,11 @@
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="2"/>
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>19</v>
@@ -8319,11 +8319,11 @@
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="1"/>
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="2"/>
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>19</v>
@@ -8357,11 +8357,11 @@
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="2"/>
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>19</v>
@@ -8395,11 +8395,11 @@
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="2"/>
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>19</v>
@@ -8433,11 +8433,11 @@
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="1"/>
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="2"/>
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>19</v>
@@ -8471,11 +8471,11 @@
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="2"/>
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>19</v>
@@ -8509,11 +8509,11 @@
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="2"/>
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>21</v>
@@ -8547,11 +8547,11 @@
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="2"/>
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>21</v>
@@ -8585,11 +8585,11 @@
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="2"/>
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>21</v>
@@ -8623,11 +8623,11 @@
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="2"/>
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>21</v>
@@ -8661,11 +8661,11 @@
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="1"/>
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="H48">
         <f t="shared" ca="1" si="2"/>
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>21</v>
@@ -8699,11 +8699,11 @@
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="2"/>
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>21</v>
@@ -8737,11 +8737,11 @@
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="2"/>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>21</v>
@@ -8775,11 +8775,11 @@
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="2"/>
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>39</v>
@@ -8813,11 +8813,11 @@
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="H52">
         <f t="shared" ca="1" si="2"/>
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>39</v>
@@ -8851,11 +8851,11 @@
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="H53">
         <f t="shared" ca="1" si="2"/>
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>39</v>
@@ -8889,11 +8889,11 @@
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="1"/>
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="2"/>
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>39</v>
@@ -8927,11 +8927,11 @@
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="1"/>
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="2"/>
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>39</v>
@@ -8965,11 +8965,11 @@
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="1"/>
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="H56">
         <f t="shared" ca="1" si="2"/>
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>39</v>
@@ -9003,11 +9003,11 @@
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="H57">
         <f t="shared" ca="1" si="2"/>
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>39</v>
@@ -9041,11 +9041,11 @@
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="H58">
         <f t="shared" ca="1" si="2"/>
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>39</v>
@@ -9079,11 +9079,11 @@
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="H59">
         <f t="shared" ca="1" si="2"/>
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>39</v>
@@ -9117,11 +9117,11 @@
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="H60">
         <f t="shared" ca="1" si="2"/>
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>40</v>
@@ -9155,11 +9155,11 @@
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="H61">
         <f t="shared" ca="1" si="2"/>
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>40</v>
@@ -9193,11 +9193,11 @@
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H62">
         <f t="shared" ca="1" si="2"/>
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>40</v>
@@ -9231,11 +9231,11 @@
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H63">
         <f t="shared" ca="1" si="2"/>
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>40</v>
@@ -9269,11 +9269,11 @@
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H64">
         <f t="shared" ca="1" si="2"/>
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>40</v>
@@ -9307,11 +9307,11 @@
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="H65">
         <f t="shared" ca="1" si="2"/>
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>40</v>
@@ -9345,11 +9345,11 @@
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="H66">
         <f t="shared" ca="1" si="2"/>
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>11</v>
@@ -9383,11 +9383,11 @@
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G75" ca="1" si="5">ROUND(RAND()*60+50,0)</f>
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="H67">
         <f t="shared" ref="H67:H75" ca="1" si="6">ROUND(RAND()*40+100,0)</f>
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>11</v>
@@ -9421,11 +9421,11 @@
       </c>
       <c r="G68">
         <f t="shared" ca="1" si="5"/>
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="H68">
         <f t="shared" ca="1" si="6"/>
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>11</v>
@@ -9459,11 +9459,11 @@
       </c>
       <c r="G69">
         <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="H69">
         <f t="shared" ca="1" si="6"/>
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>11</v>
@@ -9497,11 +9497,11 @@
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="5"/>
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="H70">
         <f t="shared" ca="1" si="6"/>
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>11</v>
@@ -9535,11 +9535,11 @@
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="H71">
         <f t="shared" ca="1" si="6"/>
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>9</v>
@@ -9573,11 +9573,11 @@
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="5"/>
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H72">
         <f t="shared" ca="1" si="6"/>
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>9</v>
@@ -9611,11 +9611,11 @@
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H73">
         <f t="shared" ca="1" si="6"/>
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>9</v>
@@ -9649,11 +9649,11 @@
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="H74">
         <f t="shared" ca="1" si="6"/>
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>9</v>
@@ -9687,11 +9687,11 @@
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="H75">
         <f t="shared" ca="1" si="6"/>
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>9</v>
@@ -9740,7 +9740,7 @@
       <formula>NOT(ISERROR(SEARCH("On",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1048576 F1:I1048576">
+  <conditionalFormatting sqref="F1:I1048576 K1:K1048576">
     <cfRule type="containsText" dxfId="7" priority="14" operator="containsText" text="Ended">
       <formula>NOT(ISERROR(SEARCH("Ended",F1)))</formula>
     </cfRule>
@@ -10010,12 +10010,12 @@
       </c>
       <c r="L6" s="38">
         <f ca="1">AVERAGE(Tracker!G2:G719)</f>
-        <v>78.513513513513516</v>
+        <v>77.743243243243242</v>
       </c>
       <c r="M6" s="38"/>
       <c r="N6" s="39">
         <f ca="1">AVERAGE(Tracker!H2:H719)</f>
-        <v>116.97297297297297</v>
+        <v>122.20270270270271</v>
       </c>
       <c r="Q6" s="18"/>
       <c r="R6" s="13"/>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="L7" s="28">
         <f ca="1">(SUM(Tracker!G2:G719)+SUM(Tracker!H2:H721))/(COUNTA(Tracker!G2:G721)*2)</f>
-        <v>97.743243243243242</v>
+        <v>99.972972972972968</v>
       </c>
       <c r="M7" s="28"/>
       <c r="N7" s="21"/>
@@ -11118,7 +11118,7 @@
       </c>
       <c r="D2">
         <f ca="1">(Tracker!G2+Tracker!H2)/2</f>
-        <v>123</v>
+        <v>112.5</v>
       </c>
       <c r="E2" s="34">
         <f>IF(OR(Tracker!F2="denied",Tracker!F2="on hold",Tracker!F2="No Response",Tracker!F2="pending"), 0.2, IF(Tracker!F2="interviewing", 0.4, IF(Tracker!F2="rejected", 0.3, IF(Tracker!F2="offer", 1, 0))))</f>
@@ -11141,11 +11141,11 @@
       </c>
       <c r="J2">
         <f t="shared" ref="J2:J15" ca="1" si="0">IF(D2=0,0,((0.3*D2*G2*H2)/10)-2.7)</f>
-        <v>1.1560500000000005</v>
+        <v>0.82687499999999936</v>
       </c>
       <c r="K2">
         <f t="shared" ref="K2:K15" ca="1" si="1">IF(D2=0, 0,((D2*E2*G2*H2)/(F2*I2)-2))</f>
-        <v>1.0066666666666664</v>
+        <v>0.75</v>
       </c>
       <c r="M2" t="e">
         <f ca="1">IF(J2=0, 0, NA())</f>
@@ -11153,11 +11153,11 @@
       </c>
       <c r="N2">
         <f t="shared" ref="N2:N15" ca="1" si="2">IF(J2=0, NA(), J2)</f>
-        <v>1.1560500000000005</v>
+        <v>0.82687499999999936</v>
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O15" ca="1" si="3">IF(K2=0, NA(), K2)</f>
-        <v>1.0066666666666664</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
@@ -11175,7 +11175,7 @@
       </c>
       <c r="D3">
         <f ca="1">(Tracker!G3+Tracker!H3)/2</f>
-        <v>86</v>
+        <v>95.5</v>
       </c>
       <c r="E3" s="34">
         <f>IF(OR(Tracker!F3="denied",Tracker!F3="on hold",Tracker!F3="No Response",Tracker!F3="pending"), 0.2, IF(Tracker!F3="interviewing", 0.4, IF(Tracker!F3="rejected", 0.3, IF(Tracker!F3="offer", 1, 0))))</f>
@@ -11198,11 +11198,11 @@
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.8999999999997925E-3</v>
+        <v>0.29392499999999977</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5243137254901962</v>
+        <v>1.9136274509803917</v>
       </c>
       <c r="M3" t="e">
         <f t="shared" ref="M3:M15" ca="1" si="4">IF(J3=0, 0, NA())</f>
@@ -11210,11 +11210,11 @@
       </c>
       <c r="N3">
         <f t="shared" ca="1" si="2"/>
-        <v>-3.8999999999997925E-3</v>
+        <v>0.29392499999999977</v>
       </c>
       <c r="O3">
         <f t="shared" ca="1" si="3"/>
-        <v>1.5243137254901962</v>
+        <v>1.9136274509803917</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
@@ -11232,7 +11232,7 @@
       </c>
       <c r="D4">
         <f ca="1">(Tracker!G4+Tracker!H4)/2</f>
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="E4" s="34">
         <f>IF(OR(Tracker!F4="denied",Tracker!F4="on hold",Tracker!F4="No Response",Tracker!F4="pending"), 0.2, IF(Tracker!F4="interviewing", 0.4, IF(Tracker!F4="rejected", 0.3, IF(Tracker!F4="offer", 1, 0))))</f>
@@ -11255,11 +11255,11 @@
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34094999999999942</v>
+        <v>1.0306499999999992</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25255555555555587</v>
+        <v>0.76344444444444459</v>
       </c>
       <c r="M4" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -11267,11 +11267,11 @@
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="2"/>
-        <v>0.34094999999999942</v>
+        <v>1.0306499999999992</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="3"/>
-        <v>0.25255555555555587</v>
+        <v>0.76344444444444459</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
@@ -11289,7 +11289,7 @@
       </c>
       <c r="D5">
         <f ca="1">(Tracker!G5+Tracker!H5)/2</f>
-        <v>109.5</v>
+        <v>88</v>
       </c>
       <c r="E5" s="34">
         <f>IF(OR(Tracker!F5="denied",Tracker!F5="on hold",Tracker!F5="No Response",Tracker!F5="pending"), 0.2, IF(Tracker!F5="interviewing", 0.4, IF(Tracker!F5="rejected", 0.3, IF(Tracker!F5="offer", 1, 0))))</f>
@@ -11312,11 +11312,11 @@
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42074999999999996</v>
+        <v>-0.19200000000000017</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2850000000000001</v>
+        <v>0.63999999999999968</v>
       </c>
       <c r="M5" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -11324,11 +11324,11 @@
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42074999999999996</v>
+        <v>-0.19200000000000017</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2850000000000001</v>
+        <v>0.63999999999999968</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
@@ -11346,7 +11346,7 @@
       </c>
       <c r="D6">
         <f ca="1">(Tracker!G6+Tracker!H6)/2</f>
-        <v>105.5</v>
+        <v>101.5</v>
       </c>
       <c r="E6" s="34">
         <f>IF(OR(Tracker!F6="denied",Tracker!F6="on hold",Tracker!F6="No Response",Tracker!F6="pending"), 0.2, IF(Tracker!F6="interviewing", 0.4, IF(Tracker!F6="rejected", 0.3, IF(Tracker!F6="offer", 1, 0))))</f>
@@ -11369,11 +11369,11 @@
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60742499999999966</v>
+        <v>0.48202500000000015</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4499444444444447</v>
+        <v>0.35705555555555568</v>
       </c>
       <c r="M6" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -11381,11 +11381,11 @@
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="2"/>
-        <v>0.60742499999999966</v>
+        <v>0.48202500000000015</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="3"/>
-        <v>0.4499444444444447</v>
+        <v>0.35705555555555568</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
@@ -11403,7 +11403,7 @@
       </c>
       <c r="D7">
         <f ca="1">(Tracker!G7+Tracker!H7)/2</f>
-        <v>101.5</v>
+        <v>93</v>
       </c>
       <c r="E7" s="34">
         <f>IF(OR(Tracker!F7="denied",Tracker!F7="on hold",Tracker!F7="No Response",Tracker!F7="pending"), 0.2, IF(Tracker!F7="interviewing", 0.4, IF(Tracker!F7="rejected", 0.3, IF(Tracker!F7="offer", 1, 0))))</f>
@@ -11426,11 +11426,11 @@
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48202500000000015</v>
+        <v>0.21554999999999991</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48111111111111082</v>
+        <v>0.27333333333333387</v>
       </c>
       <c r="M7" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -11438,11 +11438,11 @@
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.48202500000000015</v>
+        <v>0.21554999999999991</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.48111111111111082</v>
+        <v>0.27333333333333387</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
@@ -11460,7 +11460,7 @@
       </c>
       <c r="D8">
         <f ca="1">(Tracker!G8+Tracker!H8)/2</f>
-        <v>96.5</v>
+        <v>118.5</v>
       </c>
       <c r="E8" s="34">
         <f>IF(OR(Tracker!F8="denied",Tracker!F8="on hold",Tracker!F8="No Response",Tracker!F8="pending"), 0.2, IF(Tracker!F8="interviewing", 0.4, IF(Tracker!F8="rejected", 0.3, IF(Tracker!F8="offer", 1, 0))))</f>
@@ -11483,11 +11483,11 @@
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32527499999999998</v>
+        <v>1.0149749999999997</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24094444444444463</v>
+        <v>0.7518333333333338</v>
       </c>
       <c r="M8" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -11495,11 +11495,11 @@
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32527499999999998</v>
+        <v>1.0149749999999997</v>
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.24094444444444463</v>
+        <v>0.7518333333333338</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
@@ -11517,7 +11517,7 @@
       </c>
       <c r="D9">
         <f ca="1">(Tracker!G9+Tracker!H9)/2</f>
-        <v>92</v>
+        <v>92.5</v>
       </c>
       <c r="E9" s="34">
         <f>IF(OR(Tracker!F9="denied",Tracker!F9="on hold",Tracker!F9="No Response",Tracker!F9="pending"), 0.2, IF(Tracker!F9="interviewing", 0.4, IF(Tracker!F9="rejected", 0.3, IF(Tracker!F9="offer", 1, 0))))</f>
@@ -11540,11 +11540,11 @@
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1841999999999997</v>
+        <v>0.19987500000000002</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24888888888888916</v>
+        <v>0.26111111111111107</v>
       </c>
       <c r="M9" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -11552,11 +11552,11 @@
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="2"/>
-        <v>0.1841999999999997</v>
+        <v>0.19987500000000002</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="3"/>
-        <v>0.24888888888888916</v>
+        <v>0.26111111111111107</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
@@ -11574,7 +11574,7 @@
       </c>
       <c r="D10">
         <f ca="1">(Tracker!G10+Tracker!H10)/2</f>
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="E10" s="34">
         <f>IF(OR(Tracker!F10="denied",Tracker!F10="on hold",Tracker!F10="No Response",Tracker!F10="pending"), 0.2, IF(Tracker!F10="interviewing", 0.4, IF(Tracker!F10="rejected", 0.3, IF(Tracker!F10="offer", 1, 0))))</f>
@@ -11597,11 +11597,11 @@
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.12930000000000064</v>
+        <v>0.5290499999999998</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45999999999999952</v>
+        <v>1.0899999999999999</v>
       </c>
       <c r="M10" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -11609,11 +11609,11 @@
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.12930000000000064</v>
+        <v>0.5290499999999998</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="3"/>
-        <v>0.45999999999999952</v>
+        <v>1.0899999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
@@ -11631,7 +11631,7 @@
       </c>
       <c r="D11">
         <f ca="1">(Tracker!G11+Tracker!H11)/2</f>
-        <v>104.5</v>
+        <v>111</v>
       </c>
       <c r="E11" s="34">
         <f>IF(OR(Tracker!F11="denied",Tracker!F11="on hold",Tracker!F11="No Response",Tracker!F11="pending"), 0.2, IF(Tracker!F11="interviewing", 0.4, IF(Tracker!F11="rejected", 0.3, IF(Tracker!F11="offer", 1, 0))))</f>
@@ -11654,11 +11654,11 @@
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57607499999999945</v>
+        <v>0.77985000000000015</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42672222222222267</v>
+        <v>0.57766666666666744</v>
       </c>
       <c r="M11" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -11666,11 +11666,11 @@
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="2"/>
-        <v>0.57607499999999945</v>
+        <v>0.77985000000000015</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="3"/>
-        <v>0.42672222222222267</v>
+        <v>0.57766666666666744</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
@@ -11688,7 +11688,7 @@
       </c>
       <c r="D12">
         <f ca="1">(Tracker!G12+Tracker!H12)/2</f>
-        <v>92.5</v>
+        <v>81</v>
       </c>
       <c r="E12" s="34">
         <f>IF(OR(Tracker!F12="denied",Tracker!F12="on hold",Tracker!F12="No Response",Tracker!F12="pending"), 0.2, IF(Tracker!F12="interviewing", 0.4, IF(Tracker!F12="rejected", 0.3, IF(Tracker!F12="offer", 1, 0))))</f>
@@ -11711,11 +11711,11 @@
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19987500000000002</v>
+        <v>-0.16064999999999996</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2220833333333334</v>
+        <v>0.82150000000000034</v>
       </c>
       <c r="M12" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -11723,11 +11723,11 @@
       </c>
       <c r="N12">
         <f t="shared" ca="1" si="2"/>
-        <v>0.19987500000000002</v>
+        <v>-0.16064999999999996</v>
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2220833333333334</v>
+        <v>0.82150000000000034</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
@@ -11745,7 +11745,7 @@
       </c>
       <c r="D13">
         <f ca="1">(Tracker!G13+Tracker!H13)/2</f>
-        <v>107</v>
+        <v>78.5</v>
       </c>
       <c r="E13" s="34">
         <f>IF(OR(Tracker!F13="denied",Tracker!F13="on hold",Tracker!F13="No Response",Tracker!F13="pending"), 0.2, IF(Tracker!F13="interviewing", 0.4, IF(Tracker!F13="rejected", 0.3, IF(Tracker!F13="offer", 1, 0))))</f>
@@ -11768,11 +11768,11 @@
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65444999999999975</v>
+        <v>-0.23902500000000027</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2363000000000004</v>
+        <v>-0.35934999999999984</v>
       </c>
       <c r="M13" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -11780,11 +11780,11 @@
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.65444999999999975</v>
+        <v>-0.23902500000000027</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2363000000000004</v>
+        <v>-0.35934999999999984</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
@@ -11802,7 +11802,7 @@
       </c>
       <c r="D14">
         <f ca="1">(Tracker!G14+Tracker!H14)/2</f>
-        <v>117.5</v>
+        <v>109</v>
       </c>
       <c r="E14" s="34">
         <f>IF(OR(Tracker!F14="denied",Tracker!F14="on hold",Tracker!F14="No Response",Tracker!F14="pending"), 0.2, IF(Tracker!F14="interviewing", 0.4, IF(Tracker!F14="rejected", 0.3, IF(Tracker!F14="offer", 1, 0))))</f>
@@ -11825,11 +11825,11 @@
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3138749999999999</v>
+        <v>9.5849999999999103E-2</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="1"/>
-        <v>2.0185000000000004</v>
+        <v>1.7277999999999998</v>
       </c>
       <c r="M14" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -11837,11 +11837,11 @@
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3138749999999999</v>
+        <v>9.5849999999999103E-2</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="3"/>
-        <v>2.0185000000000004</v>
+        <v>1.7277999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
@@ -11859,7 +11859,7 @@
       </c>
       <c r="D15">
         <f ca="1">(Tracker!G15+Tracker!H15)/2</f>
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="E15" s="34">
         <f>IF(OR(Tracker!F15="denied",Tracker!F15="on hold",Tracker!F15="No Response",Tracker!F15="pending"), 0.2, IF(Tracker!F15="interviewing", 0.4, IF(Tracker!F15="rejected", 0.3, IF(Tracker!F15="offer", 1, 0))))</f>
@@ -11882,11 +11882,11 @@
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.6736500000000003</v>
+        <v>-0.39150000000000018</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="1"/>
-        <v>4.7545000000000002</v>
+        <v>5.6950000000000003</v>
       </c>
       <c r="M15" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -11894,11 +11894,11 @@
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.6736500000000003</v>
+        <v>-0.39150000000000018</v>
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="3"/>
-        <v>4.7545000000000002</v>
+        <v>5.6950000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
@@ -11916,7 +11916,7 @@
       </c>
       <c r="D16">
         <f ca="1">(Tracker!G16+Tracker!H16)/2</f>
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="E16" s="34">
         <f>IF(OR(Tracker!F16="denied",Tracker!F16="on hold",Tracker!F16="No Response",Tracker!F16="pending"), 0.2, IF(Tracker!F16="interviewing", 0.4, IF(Tracker!F16="rejected", 0.3, IF(Tracker!F16="offer", 1, 0))))</f>
@@ -11939,11 +11939,11 @@
       </c>
       <c r="J16">
         <f t="shared" ref="J16:J70" ca="1" si="5">IF(D16=0,0,((0.3*D16*G16*H16)/10)-2.7)</f>
-        <v>-0.6736500000000003</v>
+        <v>-0.18630000000000013</v>
       </c>
       <c r="K16">
         <f t="shared" ref="K16:K70" ca="1" si="6">IF(D16=0, 0,((D16*E16*G16*H16)/(F16*I16)-2))</f>
-        <v>-0.64910000000000001</v>
+        <v>-0.32420000000000004</v>
       </c>
       <c r="M16" t="e">
         <f t="shared" ref="M16:M70" ca="1" si="7">IF(J16=0, 0, NA())</f>
@@ -11951,11 +11951,11 @@
       </c>
       <c r="N16">
         <f t="shared" ref="N16:N70" ca="1" si="8">IF(J16=0, NA(), J16)</f>
-        <v>-0.6736500000000003</v>
+        <v>-0.18630000000000013</v>
       </c>
       <c r="O16">
         <f t="shared" ref="O16:O70" ca="1" si="9">IF(K16=0, NA(), K16)</f>
-        <v>-0.64910000000000001</v>
+        <v>-0.32420000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
@@ -11973,7 +11973,7 @@
       </c>
       <c r="D17">
         <f ca="1">(Tracker!G17+Tracker!H17)/2</f>
-        <v>102.5</v>
+        <v>106</v>
       </c>
       <c r="E17" s="34">
         <f>IF(OR(Tracker!F17="denied",Tracker!F17="on hold",Tracker!F17="No Response",Tracker!F17="pending"), 0.2, IF(Tracker!F17="interviewing", 0.4, IF(Tracker!F17="rejected", 0.3, IF(Tracker!F17="offer", 1, 0))))</f>
@@ -11996,11 +11996,11 @@
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="5"/>
-        <v>-7.0875000000000465E-2</v>
+        <v>1.8899999999999473E-2</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.24724999999999997</v>
+        <v>-0.18739999999999979</v>
       </c>
       <c r="M17" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12008,11 +12008,11 @@
       </c>
       <c r="N17">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.0875000000000465E-2</v>
+        <v>1.8899999999999473E-2</v>
       </c>
       <c r="O17">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.24724999999999997</v>
+        <v>-0.18739999999999979</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
@@ -12030,7 +12030,7 @@
       </c>
       <c r="D18">
         <f ca="1">(Tracker!G18+Tracker!H18)/2</f>
-        <v>94</v>
+        <v>115.5</v>
       </c>
       <c r="E18" s="34">
         <f>IF(OR(Tracker!F18="denied",Tracker!F18="on hold",Tracker!F18="No Response",Tracker!F18="pending"), 0.2, IF(Tracker!F18="interviewing", 0.4, IF(Tracker!F18="rejected", 0.3, IF(Tracker!F18="offer", 1, 0))))</f>
@@ -12053,11 +12053,11 @@
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.28890000000000038</v>
+        <v>0.26257499999999956</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="6"/>
-        <v>6.0370000000000008</v>
+        <v>7.8752499999999994</v>
       </c>
       <c r="M18" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12065,11 +12065,11 @@
       </c>
       <c r="N18">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.28890000000000038</v>
+        <v>0.26257499999999956</v>
       </c>
       <c r="O18">
         <f t="shared" ca="1" si="9"/>
-        <v>6.0370000000000008</v>
+        <v>7.8752499999999994</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
@@ -12087,7 +12087,7 @@
       </c>
       <c r="D19">
         <f ca="1">(Tracker!G19+Tracker!H19)/2</f>
-        <v>93</v>
+        <v>105.5</v>
       </c>
       <c r="E19" s="34">
         <f>IF(OR(Tracker!F19="denied",Tracker!F19="on hold",Tracker!F19="No Response",Tracker!F19="pending"), 0.2, IF(Tracker!F19="interviewing", 0.4, IF(Tracker!F19="rejected", 0.3, IF(Tracker!F19="offer", 1, 0))))</f>
@@ -12110,11 +12110,11 @@
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.31455000000000055</v>
+        <v>6.0749999999996085E-3</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.23299999999999987</v>
+        <v>4.5000000000001705E-3</v>
       </c>
       <c r="M19" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12122,11 +12122,11 @@
       </c>
       <c r="N19">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.31455000000000055</v>
+        <v>6.0749999999996085E-3</v>
       </c>
       <c r="O19">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.23299999999999987</v>
+        <v>4.5000000000001705E-3</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
@@ -12144,7 +12144,7 @@
       </c>
       <c r="D20">
         <f ca="1">(Tracker!G20+Tracker!H20)/2</f>
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="E20" s="34">
         <f>IF(OR(Tracker!F20="denied",Tracker!F20="on hold",Tracker!F20="No Response",Tracker!F20="pending"), 0.2, IF(Tracker!F20="interviewing", 0.4, IF(Tracker!F20="rejected", 0.3, IF(Tracker!F20="offer", 1, 0))))</f>
@@ -12167,11 +12167,11 @@
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.57105000000000006</v>
+        <v>-0.28890000000000038</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.58069999999999977</v>
+        <v>-0.39259999999999984</v>
       </c>
       <c r="M20" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12179,11 +12179,11 @@
       </c>
       <c r="N20">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.57105000000000006</v>
+        <v>-0.28890000000000038</v>
       </c>
       <c r="O20">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.58069999999999977</v>
+        <v>-0.39259999999999984</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
@@ -12201,7 +12201,7 @@
       </c>
       <c r="D21">
         <f ca="1">(Tracker!G21+Tracker!H21)/2</f>
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E21" s="34">
         <f>IF(OR(Tracker!F21="denied",Tracker!F21="on hold",Tracker!F21="No Response",Tracker!F21="pending"), 0.2, IF(Tracker!F21="interviewing", 0.4, IF(Tracker!F21="rejected", 0.3, IF(Tracker!F21="offer", 1, 0))))</f>
@@ -12224,11 +12224,11 @@
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="5"/>
-        <v>0.19844999999999935</v>
+        <v>0.12149999999999928</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="6"/>
-        <v>8.7349999999999994</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="M21" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12236,11 +12236,11 @@
       </c>
       <c r="N21">
         <f t="shared" ca="1" si="8"/>
-        <v>0.19844999999999935</v>
+        <v>0.12149999999999928</v>
       </c>
       <c r="O21">
         <f t="shared" ca="1" si="9"/>
-        <v>8.7349999999999994</v>
+        <v>8.4499999999999993</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
@@ -12258,7 +12258,7 @@
       </c>
       <c r="D22">
         <f ca="1">(Tracker!G22+Tracker!H22)/2</f>
-        <v>81.5</v>
+        <v>98.5</v>
       </c>
       <c r="E22" s="34">
         <f>IF(OR(Tracker!F22="denied",Tracker!F22="on hold",Tracker!F22="No Response",Tracker!F22="pending"), 0.2, IF(Tracker!F22="interviewing", 0.4, IF(Tracker!F22="rejected", 0.3, IF(Tracker!F22="offer", 1, 0))))</f>
@@ -12281,11 +12281,11 @@
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.60952500000000054</v>
+        <v>-0.17347500000000027</v>
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.45150000000000001</v>
+        <v>-0.12849999999999984</v>
       </c>
       <c r="M22" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12293,11 +12293,11 @@
       </c>
       <c r="N22">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.60952500000000054</v>
+        <v>-0.17347500000000027</v>
       </c>
       <c r="O22">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.45150000000000001</v>
+        <v>-0.12849999999999984</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
@@ -12315,7 +12315,7 @@
       </c>
       <c r="D23">
         <f ca="1">(Tracker!G23+Tracker!H23)/2</f>
-        <v>99</v>
+        <v>100.5</v>
       </c>
       <c r="E23" s="34">
         <f>IF(OR(Tracker!F23="denied",Tracker!F23="on hold",Tracker!F23="No Response",Tracker!F23="pending"), 0.2, IF(Tracker!F23="interviewing", 0.4, IF(Tracker!F23="rejected", 0.3, IF(Tracker!F23="offer", 1, 0))))</f>
@@ -12338,11 +12338,11 @@
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="5"/>
-        <v>0.40364999999999984</v>
+        <v>0.45067499999999949</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="6"/>
-        <v>2.839999999999999</v>
+        <v>2.9133333333333331</v>
       </c>
       <c r="M23" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12350,11 +12350,11 @@
       </c>
       <c r="N23">
         <f t="shared" ca="1" si="8"/>
-        <v>0.40364999999999984</v>
+        <v>0.45067499999999949</v>
       </c>
       <c r="O23">
         <f t="shared" ca="1" si="9"/>
-        <v>2.839999999999999</v>
+        <v>2.9133333333333331</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
@@ -12372,7 +12372,7 @@
       </c>
       <c r="D24">
         <f ca="1">(Tracker!G24+Tracker!H24)/2</f>
-        <v>81.5</v>
+        <v>111</v>
       </c>
       <c r="E24" s="34">
         <f>IF(OR(Tracker!F24="denied",Tracker!F24="on hold",Tracker!F24="No Response",Tracker!F24="pending"), 0.2, IF(Tracker!F24="interviewing", 0.4, IF(Tracker!F24="rejected", 0.3, IF(Tracker!F24="offer", 1, 0))))</f>
@@ -12395,11 +12395,11 @@
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.14497500000000008</v>
+        <v>0.77985000000000015</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.10738888888888853</v>
+        <v>0.57766666666666744</v>
       </c>
       <c r="M24" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12407,11 +12407,11 @@
       </c>
       <c r="N24">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.14497500000000008</v>
+        <v>0.77985000000000015</v>
       </c>
       <c r="O24">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.10738888888888853</v>
+        <v>0.57766666666666744</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
@@ -12429,7 +12429,7 @@
       </c>
       <c r="D25">
         <f ca="1">(Tracker!G25+Tracker!H25)/2</f>
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="E25" s="34">
         <f>IF(OR(Tracker!F25="denied",Tracker!F25="on hold",Tracker!F25="No Response",Tracker!F25="pending"), 0.2, IF(Tracker!F25="interviewing", 0.4, IF(Tracker!F25="rejected", 0.3, IF(Tracker!F25="offer", 1, 0))))</f>
@@ -12452,11 +12452,11 @@
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="5"/>
-        <v>0.46634999999999938</v>
+        <v>1.0619999999999994</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="6"/>
-        <v>0.34544444444444489</v>
+        <v>0.78666666666666707</v>
       </c>
       <c r="M25" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12464,11 +12464,11 @@
       </c>
       <c r="N25">
         <f t="shared" ca="1" si="8"/>
-        <v>0.46634999999999938</v>
+        <v>1.0619999999999994</v>
       </c>
       <c r="O25">
         <f t="shared" ca="1" si="9"/>
-        <v>0.34544444444444489</v>
+        <v>0.78666666666666707</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
@@ -12486,7 +12486,7 @@
       </c>
       <c r="D26">
         <f ca="1">(Tracker!G26+Tracker!H26)/2</f>
-        <v>94.5</v>
+        <v>91</v>
       </c>
       <c r="E26" s="34">
         <f>IF(OR(Tracker!F26="denied",Tracker!F26="on hold",Tracker!F26="No Response",Tracker!F26="pending"), 0.2, IF(Tracker!F26="interviewing", 0.4, IF(Tracker!F26="rejected", 0.3, IF(Tracker!F26="offer", 1, 0))))</f>
@@ -12509,11 +12509,11 @@
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="5"/>
-        <v>0.26257499999999956</v>
+        <v>0.15285000000000037</v>
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="6"/>
-        <v>0.19450000000000012</v>
+        <v>0.11322222222222189</v>
       </c>
       <c r="M26" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12521,11 +12521,11 @@
       </c>
       <c r="N26">
         <f t="shared" ca="1" si="8"/>
-        <v>0.26257499999999956</v>
+        <v>0.15285000000000037</v>
       </c>
       <c r="O26">
         <f t="shared" ca="1" si="9"/>
-        <v>0.19450000000000012</v>
+        <v>0.11322222222222189</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
@@ -12543,7 +12543,7 @@
       </c>
       <c r="D27">
         <f ca="1">(Tracker!G27+Tracker!H27)/2</f>
-        <v>109.5</v>
+        <v>100</v>
       </c>
       <c r="E27" s="34">
         <f>IF(OR(Tracker!F27="denied",Tracker!F27="on hold",Tracker!F27="No Response",Tracker!F27="pending"), 0.2, IF(Tracker!F27="interviewing", 0.4, IF(Tracker!F27="rejected", 0.3, IF(Tracker!F27="offer", 1, 0))))</f>
@@ -12566,11 +12566,11 @@
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="5"/>
-        <v>0.73282500000000006</v>
+        <v>0.43499999999999961</v>
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="6"/>
-        <v>0.54283333333333328</v>
+        <v>0.32222222222222197</v>
       </c>
       <c r="M27" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12578,11 +12578,11 @@
       </c>
       <c r="N27">
         <f t="shared" ca="1" si="8"/>
-        <v>0.73282500000000006</v>
+        <v>0.43499999999999961</v>
       </c>
       <c r="O27">
         <f t="shared" ca="1" si="9"/>
-        <v>0.54283333333333328</v>
+        <v>0.32222222222222197</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
@@ -12600,7 +12600,7 @@
       </c>
       <c r="D28">
         <f ca="1">(Tracker!G28+Tracker!H28)/2</f>
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="E28" s="34">
         <f>IF(OR(Tracker!F28="denied",Tracker!F28="on hold",Tracker!F28="No Response",Tracker!F28="pending"), 0.2, IF(Tracker!F28="interviewing", 0.4, IF(Tracker!F28="rejected", 0.3, IF(Tracker!F28="offer", 1, 0))))</f>
@@ -12623,11 +12623,11 @@
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="5"/>
-        <v>0.74849999999999994</v>
+        <v>0.15285000000000037</v>
       </c>
       <c r="K28">
         <f t="shared" ca="1" si="6"/>
-        <v>0.55444444444444452</v>
+        <v>0.11322222222222189</v>
       </c>
       <c r="M28" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12635,11 +12635,11 @@
       </c>
       <c r="N28">
         <f t="shared" ca="1" si="8"/>
-        <v>0.74849999999999994</v>
+        <v>0.15285000000000037</v>
       </c>
       <c r="O28">
         <f t="shared" ca="1" si="9"/>
-        <v>0.55444444444444452</v>
+        <v>0.11322222222222189</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
@@ -12657,7 +12657,7 @@
       </c>
       <c r="D29">
         <f ca="1">(Tracker!G29+Tracker!H29)/2</f>
-        <v>77.5</v>
+        <v>90</v>
       </c>
       <c r="E29" s="34">
         <f>IF(OR(Tracker!F29="denied",Tracker!F29="on hold",Tracker!F29="No Response",Tracker!F29="pending"), 0.2, IF(Tracker!F29="interviewing", 0.4, IF(Tracker!F29="rejected", 0.3, IF(Tracker!F29="offer", 1, 0))))</f>
@@ -12680,11 +12680,11 @@
       </c>
       <c r="J29">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.27037500000000003</v>
+        <v>0.12149999999999972</v>
       </c>
       <c r="K29">
         <f t="shared" ca="1" si="6"/>
-        <v>1.5994444444444449</v>
+        <v>2.1799999999999997</v>
       </c>
       <c r="M29" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12692,11 +12692,11 @@
       </c>
       <c r="N29">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.27037500000000003</v>
+        <v>0.12149999999999972</v>
       </c>
       <c r="O29">
         <f t="shared" ca="1" si="9"/>
-        <v>1.5994444444444449</v>
+        <v>2.1799999999999997</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
@@ -12714,7 +12714,7 @@
       </c>
       <c r="D30">
         <f ca="1">(Tracker!G30+Tracker!H30)/2</f>
-        <v>96</v>
+        <v>85.5</v>
       </c>
       <c r="E30" s="34">
         <f>IF(OR(Tracker!F30="denied",Tracker!F30="on hold",Tracker!F30="No Response",Tracker!F30="pending"), 0.2, IF(Tracker!F30="interviewing", 0.4, IF(Tracker!F30="rejected", 0.3, IF(Tracker!F30="offer", 1, 0))))</f>
@@ -12737,11 +12737,11 @@
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="5"/>
-        <v>0.30959999999999965</v>
+        <v>-1.957500000000012E-2</v>
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="6"/>
-        <v>0.22933333333333383</v>
+        <v>-1.4499999999999735E-2</v>
       </c>
       <c r="M30" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12749,11 +12749,11 @@
       </c>
       <c r="N30">
         <f t="shared" ca="1" si="8"/>
-        <v>0.30959999999999965</v>
+        <v>-1.957500000000012E-2</v>
       </c>
       <c r="O30">
         <f t="shared" ca="1" si="9"/>
-        <v>0.22933333333333383</v>
+        <v>-1.4499999999999735E-2</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
@@ -12771,7 +12771,7 @@
       </c>
       <c r="D31">
         <f ca="1">(Tracker!G31+Tracker!H31)/2</f>
-        <v>93.5</v>
+        <v>100.5</v>
       </c>
       <c r="E31" s="34">
         <f>IF(OR(Tracker!F31="denied",Tracker!F31="on hold",Tracker!F31="No Response",Tracker!F31="pending"), 0.2, IF(Tracker!F31="interviewing", 0.4, IF(Tracker!F31="rejected", 0.3, IF(Tracker!F31="offer", 1, 0))))</f>
@@ -12794,7 +12794,7 @@
       </c>
       <c r="J31">
         <f t="shared" ca="1" si="5"/>
-        <v>0.23122500000000024</v>
+        <v>0.45067499999999949</v>
       </c>
       <c r="K31">
         <f t="shared" ca="1" si="6"/>
@@ -12806,7 +12806,7 @@
       </c>
       <c r="N31">
         <f t="shared" ca="1" si="8"/>
-        <v>0.23122500000000024</v>
+        <v>0.45067499999999949</v>
       </c>
       <c r="O31">
         <f t="shared" ca="1" si="9"/>
@@ -12828,7 +12828,7 @@
       </c>
       <c r="D32">
         <f ca="1">(Tracker!G32+Tracker!H32)/2</f>
-        <v>91</v>
+        <v>109.5</v>
       </c>
       <c r="E32" s="34">
         <f>IF(OR(Tracker!F32="denied",Tracker!F32="on hold",Tracker!F32="No Response",Tracker!F32="pending"), 0.2, IF(Tracker!F32="interviewing", 0.4, IF(Tracker!F32="rejected", 0.3, IF(Tracker!F32="offer", 1, 0))))</f>
@@ -12851,11 +12851,11 @@
       </c>
       <c r="J32">
         <f t="shared" ca="1" si="5"/>
-        <v>0.15285000000000037</v>
+        <v>0.73282500000000006</v>
       </c>
       <c r="K32">
         <f t="shared" ca="1" si="6"/>
-        <v>-9.8100000000000076E-2</v>
+        <v>0.28854999999999986</v>
       </c>
       <c r="M32" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12863,11 +12863,11 @@
       </c>
       <c r="N32">
         <f t="shared" ca="1" si="8"/>
-        <v>0.15285000000000037</v>
+        <v>0.73282500000000006</v>
       </c>
       <c r="O32">
         <f t="shared" ca="1" si="9"/>
-        <v>-9.8100000000000076E-2</v>
+        <v>0.28854999999999986</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
@@ -12885,7 +12885,7 @@
       </c>
       <c r="D33">
         <f ca="1">(Tracker!G33+Tracker!H33)/2</f>
-        <v>124.5</v>
+        <v>97</v>
       </c>
       <c r="E33" s="34">
         <f>IF(OR(Tracker!F33="denied",Tracker!F33="on hold",Tracker!F33="No Response",Tracker!F33="pending"), 0.2, IF(Tracker!F33="interviewing", 0.4, IF(Tracker!F33="rejected", 0.3, IF(Tracker!F33="offer", 1, 0))))</f>
@@ -12908,11 +12908,11 @@
       </c>
       <c r="J33">
         <f t="shared" ca="1" si="5"/>
-        <v>1.2030750000000001</v>
+        <v>0.34094999999999942</v>
       </c>
       <c r="K33">
         <f t="shared" ca="1" si="6"/>
-        <v>1.9030750000000003</v>
+        <v>1.0409499999999996</v>
       </c>
       <c r="M33" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12920,11 +12920,11 @@
       </c>
       <c r="N33">
         <f t="shared" ca="1" si="8"/>
-        <v>1.2030750000000001</v>
+        <v>0.34094999999999942</v>
       </c>
       <c r="O33">
         <f t="shared" ca="1" si="9"/>
-        <v>1.9030750000000003</v>
+        <v>1.0409499999999996</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
@@ -12942,7 +12942,7 @@
       </c>
       <c r="D34">
         <f ca="1">(Tracker!G34+Tracker!H34)/2</f>
-        <v>92.5</v>
+        <v>96</v>
       </c>
       <c r="E34" s="34">
         <f>IF(OR(Tracker!F34="denied",Tracker!F34="on hold",Tracker!F34="No Response",Tracker!F34="pending"), 0.2, IF(Tracker!F34="interviewing", 0.4, IF(Tracker!F34="rejected", 0.3, IF(Tracker!F34="offer", 1, 0))))</f>
@@ -12965,11 +12965,11 @@
       </c>
       <c r="J34">
         <f t="shared" ca="1" si="5"/>
-        <v>0.19987500000000002</v>
+        <v>0.30959999999999965</v>
       </c>
       <c r="K34">
         <f t="shared" ca="1" si="6"/>
-        <v>-6.6750000000000087E-2</v>
+        <v>6.4000000000001833E-3</v>
       </c>
       <c r="M34" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12977,11 +12977,11 @@
       </c>
       <c r="N34">
         <f t="shared" ca="1" si="8"/>
-        <v>0.19987500000000002</v>
+        <v>0.30959999999999965</v>
       </c>
       <c r="O34">
         <f t="shared" ca="1" si="9"/>
-        <v>-6.6750000000000087E-2</v>
+        <v>6.4000000000001833E-3</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
@@ -12999,7 +12999,7 @@
       </c>
       <c r="D35">
         <f ca="1">(Tracker!G35+Tracker!H35)/2</f>
-        <v>96.5</v>
+        <v>102</v>
       </c>
       <c r="E35" s="34">
         <f>IF(OR(Tracker!F35="denied",Tracker!F35="on hold",Tracker!F35="No Response",Tracker!F35="pending"), 0.2, IF(Tracker!F35="interviewing", 0.4, IF(Tracker!F35="rejected", 0.3, IF(Tracker!F35="offer", 1, 0))))</f>
@@ -13022,11 +13022,11 @@
       </c>
       <c r="J35">
         <f t="shared" ca="1" si="5"/>
-        <v>0.32527499999999998</v>
+        <v>0.49770000000000003</v>
       </c>
       <c r="K35">
         <f t="shared" ca="1" si="6"/>
-        <v>2.7455294117647062</v>
+        <v>3.0160000000000009</v>
       </c>
       <c r="M35" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13034,11 +13034,11 @@
       </c>
       <c r="N35">
         <f t="shared" ca="1" si="8"/>
-        <v>0.32527499999999998</v>
+        <v>0.49770000000000003</v>
       </c>
       <c r="O35">
         <f t="shared" ca="1" si="9"/>
-        <v>2.7455294117647062</v>
+        <v>3.0160000000000009</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
@@ -13056,7 +13056,7 @@
       </c>
       <c r="D36">
         <f ca="1">(Tracker!G36+Tracker!H36)/2</f>
-        <v>109</v>
+        <v>104.5</v>
       </c>
       <c r="E36" s="34">
         <f>IF(OR(Tracker!F36="denied",Tracker!F36="on hold",Tracker!F36="No Response",Tracker!F36="pending"), 0.2, IF(Tracker!F36="interviewing", 0.4, IF(Tracker!F36="rejected", 0.3, IF(Tracker!F36="offer", 1, 0))))</f>
@@ -13079,11 +13079,11 @@
       </c>
       <c r="J36">
         <f t="shared" ca="1" si="5"/>
-        <v>0.71714999999999929</v>
+        <v>0.57607499999999945</v>
       </c>
       <c r="K36">
         <f t="shared" ca="1" si="6"/>
-        <v>0.27810000000000024</v>
+        <v>0.18405000000000049</v>
       </c>
       <c r="M36" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13091,11 +13091,11 @@
       </c>
       <c r="N36">
         <f t="shared" ca="1" si="8"/>
-        <v>0.71714999999999929</v>
+        <v>0.57607499999999945</v>
       </c>
       <c r="O36">
         <f t="shared" ca="1" si="9"/>
-        <v>0.27810000000000024</v>
+        <v>0.18405000000000049</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
@@ -13113,7 +13113,7 @@
       </c>
       <c r="D37">
         <f ca="1">(Tracker!G37+Tracker!H37)/2</f>
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="E37" s="34">
         <f>IF(OR(Tracker!F37="denied",Tracker!F37="on hold",Tracker!F37="No Response",Tracker!F37="pending"), 0.2, IF(Tracker!F37="interviewing", 0.4, IF(Tracker!F37="rejected", 0.3, IF(Tracker!F37="offer", 1, 0))))</f>
@@ -13136,11 +13136,11 @@
       </c>
       <c r="J37">
         <f t="shared" ca="1" si="5"/>
-        <v>0.34094999999999942</v>
+        <v>0.71714999999999929</v>
       </c>
       <c r="K37">
         <f t="shared" ca="1" si="6"/>
-        <v>2.7300000000000324E-2</v>
+        <v>0.27810000000000024</v>
       </c>
       <c r="M37" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13148,11 +13148,11 @@
       </c>
       <c r="N37">
         <f t="shared" ca="1" si="8"/>
-        <v>0.34094999999999942</v>
+        <v>0.71714999999999929</v>
       </c>
       <c r="O37">
         <f t="shared" ca="1" si="9"/>
-        <v>2.7300000000000324E-2</v>
+        <v>0.27810000000000024</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
@@ -13170,7 +13170,7 @@
       </c>
       <c r="D38">
         <f ca="1">(Tracker!G38+Tracker!H38)/2</f>
-        <v>101.5</v>
+        <v>113.5</v>
       </c>
       <c r="E38" s="34">
         <f>IF(OR(Tracker!F38="denied",Tracker!F38="on hold",Tracker!F38="No Response",Tracker!F38="pending"), 0.2, IF(Tracker!F38="interviewing", 0.4, IF(Tracker!F38="rejected", 0.3, IF(Tracker!F38="offer", 1, 0))))</f>
@@ -13193,11 +13193,11 @@
       </c>
       <c r="J38">
         <f t="shared" ca="1" si="5"/>
-        <v>0.48202500000000015</v>
+        <v>0.85822499999999913</v>
       </c>
       <c r="K38">
         <f t="shared" ca="1" si="6"/>
-        <v>0.12135000000000007</v>
+        <v>0.37215000000000042</v>
       </c>
       <c r="M38" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13205,11 +13205,11 @@
       </c>
       <c r="N38">
         <f t="shared" ca="1" si="8"/>
-        <v>0.48202500000000015</v>
+        <v>0.85822499999999913</v>
       </c>
       <c r="O38">
         <f t="shared" ca="1" si="9"/>
-        <v>0.12135000000000007</v>
+        <v>0.37215000000000042</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
@@ -13227,7 +13227,7 @@
       </c>
       <c r="D39">
         <f ca="1">(Tracker!G39+Tracker!H39)/2</f>
-        <v>106.5</v>
+        <v>90</v>
       </c>
       <c r="E39" s="34">
         <f>IF(OR(Tracker!F39="denied",Tracker!F39="on hold",Tracker!F39="No Response",Tracker!F39="pending"), 0.2, IF(Tracker!F39="interviewing", 0.4, IF(Tracker!F39="rejected", 0.3, IF(Tracker!F39="offer", 1, 0))))</f>
@@ -13250,11 +13250,11 @@
       </c>
       <c r="J39">
         <f t="shared" ca="1" si="5"/>
-        <v>0.63877500000000031</v>
+        <v>0.12149999999999972</v>
       </c>
       <c r="K39">
         <f t="shared" ca="1" si="6"/>
-        <v>0.34299999999999997</v>
+        <v>-2.000000000000024E-2</v>
       </c>
       <c r="M39" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13262,11 +13262,11 @@
       </c>
       <c r="N39">
         <f t="shared" ca="1" si="8"/>
-        <v>0.63877500000000031</v>
+        <v>0.12149999999999972</v>
       </c>
       <c r="O39">
         <f t="shared" ca="1" si="9"/>
-        <v>0.34299999999999997</v>
+        <v>-2.000000000000024E-2</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
@@ -13284,7 +13284,7 @@
       </c>
       <c r="D40">
         <f ca="1">(Tracker!G40+Tracker!H40)/2</f>
-        <v>99.5</v>
+        <v>120</v>
       </c>
       <c r="E40" s="34">
         <f>IF(OR(Tracker!F40="denied",Tracker!F40="on hold",Tracker!F40="No Response",Tracker!F40="pending"), 0.2, IF(Tracker!F40="interviewing", 0.4, IF(Tracker!F40="rejected", 0.3, IF(Tracker!F40="offer", 1, 0))))</f>
@@ -13307,11 +13307,11 @@
       </c>
       <c r="J40">
         <f t="shared" ca="1" si="5"/>
-        <v>0.41932499999999973</v>
+        <v>1.0619999999999994</v>
       </c>
       <c r="K40">
         <f t="shared" ca="1" si="6"/>
-        <v>7.9550000000000232E-2</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="M40" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13319,11 +13319,11 @@
       </c>
       <c r="N40">
         <f t="shared" ca="1" si="8"/>
-        <v>0.41932499999999973</v>
+        <v>1.0619999999999994</v>
       </c>
       <c r="O40">
         <f t="shared" ca="1" si="9"/>
-        <v>7.9550000000000232E-2</v>
+        <v>0.50800000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
@@ -13341,7 +13341,7 @@
       </c>
       <c r="D41">
         <f ca="1">(Tracker!G41+Tracker!H41)/2</f>
-        <v>95.5</v>
+        <v>101.5</v>
       </c>
       <c r="E41" s="34">
         <f>IF(OR(Tracker!F41="denied",Tracker!F41="on hold",Tracker!F41="No Response",Tracker!F41="pending"), 0.2, IF(Tracker!F41="interviewing", 0.4, IF(Tracker!F41="rejected", 0.3, IF(Tracker!F41="offer", 1, 0))))</f>
@@ -13364,7 +13364,7 @@
       </c>
       <c r="J41">
         <f t="shared" ca="1" si="5"/>
-        <v>0.29392499999999977</v>
+        <v>0.48202500000000015</v>
       </c>
       <c r="K41">
         <f t="shared" ca="1" si="6"/>
@@ -13376,7 +13376,7 @@
       </c>
       <c r="N41">
         <f t="shared" ca="1" si="8"/>
-        <v>0.29392499999999977</v>
+        <v>0.48202500000000015</v>
       </c>
       <c r="O41">
         <f t="shared" ca="1" si="9"/>
@@ -13398,7 +13398,7 @@
       </c>
       <c r="D42">
         <f ca="1">(Tracker!G42+Tracker!H42)/2</f>
-        <v>102.5</v>
+        <v>99.5</v>
       </c>
       <c r="E42" s="34">
         <f>IF(OR(Tracker!F42="denied",Tracker!F42="on hold",Tracker!F42="No Response",Tracker!F42="pending"), 0.2, IF(Tracker!F42="interviewing", 0.4, IF(Tracker!F42="rejected", 0.3, IF(Tracker!F42="offer", 1, 0))))</f>
@@ -13421,11 +13421,11 @@
       </c>
       <c r="J42">
         <f t="shared" ca="1" si="5"/>
-        <v>0.51337499999999991</v>
+        <v>0.41932499999999973</v>
       </c>
       <c r="K42">
         <f t="shared" ca="1" si="6"/>
-        <v>1.5704166666666666</v>
+        <v>1.4659166666666668</v>
       </c>
       <c r="M42" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13433,11 +13433,11 @@
       </c>
       <c r="N42">
         <f t="shared" ca="1" si="8"/>
-        <v>0.51337499999999991</v>
+        <v>0.41932499999999973</v>
       </c>
       <c r="O42">
         <f t="shared" ca="1" si="9"/>
-        <v>1.5704166666666666</v>
+        <v>1.4659166666666668</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
@@ -13455,7 +13455,7 @@
       </c>
       <c r="D43">
         <f ca="1">(Tracker!G43+Tracker!H43)/2</f>
-        <v>92.5</v>
+        <v>116</v>
       </c>
       <c r="E43" s="34">
         <f>IF(OR(Tracker!F43="denied",Tracker!F43="on hold",Tracker!F43="No Response",Tracker!F43="pending"), 0.2, IF(Tracker!F43="interviewing", 0.4, IF(Tracker!F43="rejected", 0.3, IF(Tracker!F43="offer", 1, 0))))</f>
@@ -13478,7 +13478,7 @@
       </c>
       <c r="J43">
         <f t="shared" ca="1" si="5"/>
-        <v>0.19987500000000002</v>
+        <v>0.93659999999999988</v>
       </c>
       <c r="K43">
         <f t="shared" ca="1" si="6"/>
@@ -13490,7 +13490,7 @@
       </c>
       <c r="N43">
         <f t="shared" ca="1" si="8"/>
-        <v>0.19987500000000002</v>
+        <v>0.93659999999999988</v>
       </c>
       <c r="O43">
         <f t="shared" ca="1" si="9"/>
@@ -13512,7 +13512,7 @@
       </c>
       <c r="D44">
         <f ca="1">(Tracker!G44+Tracker!H44)/2</f>
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="E44" s="34">
         <f>IF(OR(Tracker!F44="denied",Tracker!F44="on hold",Tracker!F44="No Response",Tracker!F44="pending"), 0.2, IF(Tracker!F44="interviewing", 0.4, IF(Tracker!F44="rejected", 0.3, IF(Tracker!F44="offer", 1, 0))))</f>
@@ -13535,11 +13535,11 @@
       </c>
       <c r="J44">
         <f t="shared" ca="1" si="5"/>
-        <v>0.41932499999999973</v>
+        <v>0.43499999999999961</v>
       </c>
       <c r="K44">
         <f t="shared" ca="1" si="6"/>
-        <v>7.9550000000000232E-2</v>
+        <v>8.9999999999999858E-2</v>
       </c>
       <c r="M44" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13547,11 +13547,11 @@
       </c>
       <c r="N44">
         <f t="shared" ca="1" si="8"/>
-        <v>0.41932499999999973</v>
+        <v>0.43499999999999961</v>
       </c>
       <c r="O44">
         <f t="shared" ca="1" si="9"/>
-        <v>7.9550000000000232E-2</v>
+        <v>8.9999999999999858E-2</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
@@ -13569,7 +13569,7 @@
       </c>
       <c r="D45">
         <f ca="1">(Tracker!G45+Tracker!H45)/2</f>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E45" s="34">
         <f>IF(OR(Tracker!F45="denied",Tracker!F45="on hold",Tracker!F45="No Response",Tracker!F45="pending"), 0.2, IF(Tracker!F45="interviewing", 0.4, IF(Tracker!F45="rejected", 0.3, IF(Tracker!F45="offer", 1, 0))))</f>
@@ -13592,11 +13592,11 @@
       </c>
       <c r="J45">
         <f t="shared" ca="1" si="5"/>
-        <v>0.43499999999999961</v>
+        <v>0.46634999999999938</v>
       </c>
       <c r="K45">
         <f t="shared" ca="1" si="6"/>
-        <v>8.9999999999999858E-2</v>
+        <v>0.11090000000000044</v>
       </c>
       <c r="M45" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13604,11 +13604,11 @@
       </c>
       <c r="N45">
         <f t="shared" ca="1" si="8"/>
-        <v>0.43499999999999961</v>
+        <v>0.46634999999999938</v>
       </c>
       <c r="O45">
         <f t="shared" ca="1" si="9"/>
-        <v>8.9999999999999858E-2</v>
+        <v>0.11090000000000044</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
@@ -13626,7 +13626,7 @@
       </c>
       <c r="D46">
         <f ca="1">(Tracker!G46+Tracker!H46)/2</f>
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E46" s="34">
         <f>IF(OR(Tracker!F46="denied",Tracker!F46="on hold",Tracker!F46="No Response",Tracker!F46="pending"), 0.2, IF(Tracker!F46="interviewing", 0.4, IF(Tracker!F46="rejected", 0.3, IF(Tracker!F46="offer", 1, 0))))</f>
@@ -13649,11 +13649,11 @@
       </c>
       <c r="J46">
         <f t="shared" ca="1" si="5"/>
-        <v>5.8799999999999741E-2</v>
+        <v>0.34094999999999942</v>
       </c>
       <c r="K46">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.16079999999999961</v>
+        <v>2.7300000000000324E-2</v>
       </c>
       <c r="M46" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13661,11 +13661,11 @@
       </c>
       <c r="N46">
         <f t="shared" ca="1" si="8"/>
-        <v>5.8799999999999741E-2</v>
+        <v>0.34094999999999942</v>
       </c>
       <c r="O46">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.16079999999999961</v>
+        <v>2.7300000000000324E-2</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
@@ -13683,7 +13683,7 @@
       </c>
       <c r="D47">
         <f ca="1">(Tracker!G47+Tracker!H47)/2</f>
-        <v>90.5</v>
+        <v>111</v>
       </c>
       <c r="E47" s="34">
         <f>IF(OR(Tracker!F47="denied",Tracker!F47="on hold",Tracker!F47="No Response",Tracker!F47="pending"), 0.2, IF(Tracker!F47="interviewing", 0.4, IF(Tracker!F47="rejected", 0.3, IF(Tracker!F47="offer", 1, 0))))</f>
@@ -13706,11 +13706,11 @@
       </c>
       <c r="J47">
         <f t="shared" ca="1" si="5"/>
-        <v>0.13717500000000005</v>
+        <v>0.77985000000000015</v>
       </c>
       <c r="K47">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.1085499999999997</v>
+        <v>0.31990000000000052</v>
       </c>
       <c r="M47" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13718,11 +13718,11 @@
       </c>
       <c r="N47">
         <f t="shared" ca="1" si="8"/>
-        <v>0.13717500000000005</v>
+        <v>0.77985000000000015</v>
       </c>
       <c r="O47">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.1085499999999997</v>
+        <v>0.31990000000000052</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
@@ -13740,7 +13740,7 @@
       </c>
       <c r="D48">
         <f ca="1">(Tracker!G48+Tracker!H48)/2</f>
-        <v>114.5</v>
+        <v>101</v>
       </c>
       <c r="E48" s="34">
         <f>IF(OR(Tracker!F48="denied",Tracker!F48="on hold",Tracker!F48="No Response",Tracker!F48="pending"), 0.2, IF(Tracker!F48="interviewing", 0.4, IF(Tracker!F48="rejected", 0.3, IF(Tracker!F48="offer", 1, 0))))</f>
@@ -13763,11 +13763,11 @@
       </c>
       <c r="J48">
         <f t="shared" ca="1" si="5"/>
-        <v>0.88957499999999978</v>
+        <v>0.46634999999999938</v>
       </c>
       <c r="K48">
         <f t="shared" ca="1" si="6"/>
-        <v>1.589575</v>
+        <v>1.1663499999999996</v>
       </c>
       <c r="M48" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13775,11 +13775,11 @@
       </c>
       <c r="N48">
         <f t="shared" ca="1" si="8"/>
-        <v>0.88957499999999978</v>
+        <v>0.46634999999999938</v>
       </c>
       <c r="O48">
         <f t="shared" ca="1" si="9"/>
-        <v>1.589575</v>
+        <v>1.1663499999999996</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
@@ -13797,7 +13797,7 @@
       </c>
       <c r="D49">
         <f ca="1">(Tracker!G49+Tracker!H49)/2</f>
-        <v>100.5</v>
+        <v>104.5</v>
       </c>
       <c r="E49" s="34">
         <f>IF(OR(Tracker!F49="denied",Tracker!F49="on hold",Tracker!F49="No Response",Tracker!F49="pending"), 0.2, IF(Tracker!F49="interviewing", 0.4, IF(Tracker!F49="rejected", 0.3, IF(Tracker!F49="offer", 1, 0))))</f>
@@ -13820,11 +13820,11 @@
       </c>
       <c r="J49">
         <f t="shared" ca="1" si="5"/>
-        <v>0.45067499999999949</v>
+        <v>0.57607499999999945</v>
       </c>
       <c r="K49">
         <f t="shared" ca="1" si="6"/>
-        <v>0.10044999999999993</v>
+        <v>0.18405000000000049</v>
       </c>
       <c r="M49" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13832,11 +13832,11 @@
       </c>
       <c r="N49">
         <f t="shared" ca="1" si="8"/>
-        <v>0.45067499999999949</v>
+        <v>0.57607499999999945</v>
       </c>
       <c r="O49">
         <f t="shared" ca="1" si="9"/>
-        <v>0.10044999999999993</v>
+        <v>0.18405000000000049</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
@@ -13854,7 +13854,7 @@
       </c>
       <c r="D50">
         <f ca="1">(Tracker!G50+Tracker!H50)/2</f>
-        <v>92.5</v>
+        <v>82</v>
       </c>
       <c r="E50" s="34">
         <f>IF(OR(Tracker!F50="denied",Tracker!F50="on hold",Tracker!F50="No Response",Tracker!F50="pending"), 0.2, IF(Tracker!F50="interviewing", 0.4, IF(Tracker!F50="rejected", 0.3, IF(Tracker!F50="offer", 1, 0))))</f>
@@ -13877,11 +13877,11 @@
       </c>
       <c r="J50">
         <f t="shared" ca="1" si="5"/>
-        <v>0.19987500000000002</v>
+        <v>-0.12930000000000064</v>
       </c>
       <c r="K50">
         <f t="shared" ca="1" si="6"/>
-        <v>0.8998750000000002</v>
+        <v>0.57069999999999954</v>
       </c>
       <c r="M50" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13889,11 +13889,11 @@
       </c>
       <c r="N50">
         <f t="shared" ca="1" si="8"/>
-        <v>0.19987500000000002</v>
+        <v>-0.12930000000000064</v>
       </c>
       <c r="O50">
         <f t="shared" ca="1" si="9"/>
-        <v>0.8998750000000002</v>
+        <v>0.57069999999999954</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
@@ -13911,7 +13911,7 @@
       </c>
       <c r="D51">
         <f ca="1">(Tracker!G51+Tracker!H51)/2</f>
-        <v>87.5</v>
+        <v>103.5</v>
       </c>
       <c r="E51" s="34">
         <f>IF(OR(Tracker!F51="denied",Tracker!F51="on hold",Tracker!F51="No Response",Tracker!F51="pending"), 0.2, IF(Tracker!F51="interviewing", 0.4, IF(Tracker!F51="rejected", 0.3, IF(Tracker!F51="offer", 1, 0))))</f>
@@ -13934,11 +13934,11 @@
       </c>
       <c r="J51">
         <f t="shared" ca="1" si="5"/>
-        <v>4.3124999999999858E-2</v>
+        <v>0.54472499999999968</v>
       </c>
       <c r="K51">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.17125000000000012</v>
+        <v>0.16315000000000079</v>
       </c>
       <c r="M51" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13946,11 +13946,11 @@
       </c>
       <c r="N51">
         <f t="shared" ca="1" si="8"/>
-        <v>4.3124999999999858E-2</v>
+        <v>0.54472499999999968</v>
       </c>
       <c r="O51">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.17125000000000012</v>
+        <v>0.16315000000000079</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
@@ -13968,7 +13968,7 @@
       </c>
       <c r="D52">
         <f ca="1">(Tracker!G52+Tracker!H52)/2</f>
-        <v>97.5</v>
+        <v>85</v>
       </c>
       <c r="E52" s="34">
         <f>IF(OR(Tracker!F52="denied",Tracker!F52="on hold",Tracker!F52="No Response",Tracker!F52="pending"), 0.2, IF(Tracker!F52="interviewing", 0.4, IF(Tracker!F52="rejected", 0.3, IF(Tracker!F52="offer", 1, 0))))</f>
@@ -13991,11 +13991,11 @@
       </c>
       <c r="J52">
         <f t="shared" ca="1" si="5"/>
-        <v>0.35662500000000019</v>
+        <v>-3.5250000000000004E-2</v>
       </c>
       <c r="K52">
         <f t="shared" ca="1" si="6"/>
-        <v>1.0566250000000004</v>
+        <v>0.66475000000000017</v>
       </c>
       <c r="M52" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14003,11 +14003,11 @@
       </c>
       <c r="N52">
         <f t="shared" ca="1" si="8"/>
-        <v>0.35662500000000019</v>
+        <v>-3.5250000000000004E-2</v>
       </c>
       <c r="O52">
         <f t="shared" ca="1" si="9"/>
-        <v>1.0566250000000004</v>
+        <v>0.66475000000000017</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.35">
@@ -14025,7 +14025,7 @@
       </c>
       <c r="D53">
         <f ca="1">(Tracker!G53+Tracker!H53)/2</f>
-        <v>85</v>
+        <v>114.5</v>
       </c>
       <c r="E53" s="34">
         <f>IF(OR(Tracker!F53="denied",Tracker!F53="on hold",Tracker!F53="No Response",Tracker!F53="pending"), 0.2, IF(Tracker!F53="interviewing", 0.4, IF(Tracker!F53="rejected", 0.3, IF(Tracker!F53="offer", 1, 0))))</f>
@@ -14048,11 +14048,11 @@
       </c>
       <c r="J53">
         <f t="shared" ca="1" si="5"/>
-        <v>-3.5250000000000004E-2</v>
+        <v>0.88957499999999978</v>
       </c>
       <c r="K53">
         <f t="shared" ca="1" si="6"/>
-        <v>1.5529999999999999</v>
+        <v>2.7861000000000002</v>
       </c>
       <c r="M53" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14060,11 +14060,11 @@
       </c>
       <c r="N53">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.5250000000000004E-2</v>
+        <v>0.88957499999999978</v>
       </c>
       <c r="O53">
         <f t="shared" ca="1" si="9"/>
-        <v>1.5529999999999999</v>
+        <v>2.7861000000000002</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.35">
@@ -14082,7 +14082,7 @@
       </c>
       <c r="D54">
         <f ca="1">(Tracker!G54+Tracker!H54)/2</f>
-        <v>114</v>
+        <v>96.5</v>
       </c>
       <c r="E54" s="34">
         <f>IF(OR(Tracker!F54="denied",Tracker!F54="on hold",Tracker!F54="No Response",Tracker!F54="pending"), 0.2, IF(Tracker!F54="interviewing", 0.4, IF(Tracker!F54="rejected", 0.3, IF(Tracker!F54="offer", 1, 0))))</f>
@@ -14105,11 +14105,11 @@
       </c>
       <c r="J54">
         <f t="shared" ca="1" si="5"/>
-        <v>0.54899999999999949</v>
+        <v>5.0249999999999684E-2</v>
       </c>
       <c r="K54">
         <f t="shared" ca="1" si="6"/>
-        <v>2.331999999999999</v>
+        <v>1.6669999999999998</v>
       </c>
       <c r="M54" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14117,11 +14117,11 @@
       </c>
       <c r="N54">
         <f t="shared" ca="1" si="8"/>
-        <v>0.54899999999999949</v>
+        <v>5.0249999999999684E-2</v>
       </c>
       <c r="O54">
         <f t="shared" ca="1" si="9"/>
-        <v>2.331999999999999</v>
+        <v>1.6669999999999998</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.35">
@@ -14139,7 +14139,7 @@
       </c>
       <c r="D55">
         <f ca="1">(Tracker!G55+Tracker!H55)/2</f>
-        <v>110.5</v>
+        <v>104.5</v>
       </c>
       <c r="E55" s="34">
         <f>IF(OR(Tracker!F55="denied",Tracker!F55="on hold",Tracker!F55="No Response",Tracker!F55="pending"), 0.2, IF(Tracker!F55="interviewing", 0.4, IF(Tracker!F55="rejected", 0.3, IF(Tracker!F55="offer", 1, 0))))</f>
@@ -14162,11 +14162,11 @@
       </c>
       <c r="J55">
         <f t="shared" ca="1" si="5"/>
-        <v>0.44924999999999926</v>
+        <v>0.27824999999999944</v>
       </c>
       <c r="K55">
         <f t="shared" ca="1" si="6"/>
-        <v>1.1492499999999994</v>
+        <v>0.97824999999999962</v>
       </c>
       <c r="M55" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14174,11 +14174,11 @@
       </c>
       <c r="N55">
         <f t="shared" ca="1" si="8"/>
-        <v>0.44924999999999926</v>
+        <v>0.27824999999999944</v>
       </c>
       <c r="O55">
         <f t="shared" ca="1" si="9"/>
-        <v>1.1492499999999994</v>
+        <v>0.97824999999999962</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
@@ -14196,7 +14196,7 @@
       </c>
       <c r="D56">
         <f ca="1">(Tracker!G56+Tracker!H56)/2</f>
-        <v>105.5</v>
+        <v>80.5</v>
       </c>
       <c r="E56" s="34">
         <f>IF(OR(Tracker!F56="denied",Tracker!F56="on hold",Tracker!F56="No Response",Tracker!F56="pending"), 0.2, IF(Tracker!F56="interviewing", 0.4, IF(Tracker!F56="rejected", 0.3, IF(Tracker!F56="offer", 1, 0))))</f>
@@ -14219,11 +14219,11 @@
       </c>
       <c r="J56">
         <f t="shared" ca="1" si="5"/>
-        <v>0.30674999999999963</v>
+        <v>-0.40575000000000028</v>
       </c>
       <c r="K56">
         <f t="shared" ca="1" si="6"/>
-        <v>4.5000000000001705E-3</v>
+        <v>-0.47049999999999992</v>
       </c>
       <c r="M56" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14231,11 +14231,11 @@
       </c>
       <c r="N56">
         <f t="shared" ca="1" si="8"/>
-        <v>0.30674999999999963</v>
+        <v>-0.40575000000000028</v>
       </c>
       <c r="O56">
         <f t="shared" ca="1" si="9"/>
-        <v>4.5000000000001705E-3</v>
+        <v>-0.47049999999999992</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.35">
@@ -14253,7 +14253,7 @@
       </c>
       <c r="D57">
         <f ca="1">(Tracker!G57+Tracker!H57)/2</f>
-        <v>106</v>
+        <v>100.5</v>
       </c>
       <c r="E57" s="34">
         <f>IF(OR(Tracker!F57="denied",Tracker!F57="on hold",Tracker!F57="No Response",Tracker!F57="pending"), 0.2, IF(Tracker!F57="interviewing", 0.4, IF(Tracker!F57="rejected", 0.3, IF(Tracker!F57="offer", 1, 0))))</f>
@@ -14276,11 +14276,11 @@
       </c>
       <c r="J57">
         <f t="shared" ca="1" si="5"/>
-        <v>0.32099999999999973</v>
+        <v>0.16424999999999956</v>
       </c>
       <c r="K57">
         <f t="shared" ca="1" si="6"/>
-        <v>1.4000000000000234E-2</v>
+        <v>-9.0500000000000025E-2</v>
       </c>
       <c r="M57" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14288,11 +14288,11 @@
       </c>
       <c r="N57">
         <f t="shared" ca="1" si="8"/>
-        <v>0.32099999999999973</v>
+        <v>0.16424999999999956</v>
       </c>
       <c r="O57">
         <f t="shared" ca="1" si="9"/>
-        <v>1.4000000000000234E-2</v>
+        <v>-9.0500000000000025E-2</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.35">
@@ -14310,7 +14310,7 @@
       </c>
       <c r="D58">
         <f ca="1">(Tracker!G58+Tracker!H58)/2</f>
-        <v>98</v>
+        <v>85.5</v>
       </c>
       <c r="E58" s="34">
         <f>IF(OR(Tracker!F58="denied",Tracker!F58="on hold",Tracker!F58="No Response",Tracker!F58="pending"), 0.2, IF(Tracker!F58="interviewing", 0.4, IF(Tracker!F58="rejected", 0.3, IF(Tracker!F58="offer", 1, 0))))</f>
@@ -14333,11 +14333,11 @@
       </c>
       <c r="J58">
         <f t="shared" ca="1" si="5"/>
-        <v>9.2999999999999527E-2</v>
+        <v>-0.26325000000000065</v>
       </c>
       <c r="K58">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.1379999999999999</v>
+        <v>-0.37549999999999994</v>
       </c>
       <c r="M58" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14345,11 +14345,11 @@
       </c>
       <c r="N58">
         <f t="shared" ca="1" si="8"/>
-        <v>9.2999999999999527E-2</v>
+        <v>-0.26325000000000065</v>
       </c>
       <c r="O58">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.1379999999999999</v>
+        <v>-0.37549999999999994</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.35">
@@ -14367,7 +14367,7 @@
       </c>
       <c r="D59">
         <f ca="1">(Tracker!G59+Tracker!H59)/2</f>
-        <v>96</v>
+        <v>101.5</v>
       </c>
       <c r="E59" s="34">
         <f>IF(OR(Tracker!F59="denied",Tracker!F59="on hold",Tracker!F59="No Response",Tracker!F59="pending"), 0.2, IF(Tracker!F59="interviewing", 0.4, IF(Tracker!F59="rejected", 0.3, IF(Tracker!F59="offer", 1, 0))))</f>
@@ -14390,11 +14390,11 @@
       </c>
       <c r="J59">
         <f t="shared" ca="1" si="5"/>
-        <v>3.5999999999999588E-2</v>
+        <v>0.19274999999999975</v>
       </c>
       <c r="K59">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.17599999999999971</v>
+        <v>-7.1499999999999897E-2</v>
       </c>
       <c r="M59" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14402,11 +14402,11 @@
       </c>
       <c r="N59">
         <f t="shared" ca="1" si="8"/>
-        <v>3.5999999999999588E-2</v>
+        <v>0.19274999999999975</v>
       </c>
       <c r="O59">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.17599999999999971</v>
+        <v>-7.1499999999999897E-2</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.35">
@@ -14424,7 +14424,7 @@
       </c>
       <c r="D60">
         <f ca="1">(Tracker!G60+Tracker!H60)/2</f>
-        <v>88.5</v>
+        <v>96</v>
       </c>
       <c r="E60" s="34">
         <f>IF(OR(Tracker!F60="denied",Tracker!F60="on hold",Tracker!F60="No Response",Tracker!F60="pending"), 0.2, IF(Tracker!F60="interviewing", 0.4, IF(Tracker!F60="rejected", 0.3, IF(Tracker!F60="offer", 1, 0))))</f>
@@ -14447,11 +14447,11 @@
       </c>
       <c r="J60">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.17775000000000007</v>
+        <v>3.5999999999999588E-2</v>
       </c>
       <c r="K60">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.31850000000000023</v>
+        <v>-0.17599999999999971</v>
       </c>
       <c r="M60" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14459,11 +14459,11 @@
       </c>
       <c r="N60">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.17775000000000007</v>
+        <v>3.5999999999999588E-2</v>
       </c>
       <c r="O60">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.31850000000000023</v>
+        <v>-0.17599999999999971</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.35">
@@ -14481,7 +14481,7 @@
       </c>
       <c r="D61">
         <f ca="1">(Tracker!G61+Tracker!H61)/2</f>
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="E61" s="34">
         <f>IF(OR(Tracker!F61="denied",Tracker!F61="on hold",Tracker!F61="No Response",Tracker!F61="pending"), 0.2, IF(Tracker!F61="interviewing", 0.4, IF(Tracker!F61="rejected", 0.3, IF(Tracker!F61="offer", 1, 0))))</f>
@@ -14504,11 +14504,11 @@
       </c>
       <c r="J61">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.19200000000000017</v>
+        <v>0.69149999999999912</v>
       </c>
       <c r="K61">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.32800000000000007</v>
+        <v>0.26100000000000012</v>
       </c>
       <c r="M61" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14516,11 +14516,11 @@
       </c>
       <c r="N61">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.19200000000000017</v>
+        <v>0.69149999999999912</v>
       </c>
       <c r="O61">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.32800000000000007</v>
+        <v>0.26100000000000012</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.35">
@@ -14538,7 +14538,7 @@
       </c>
       <c r="D62">
         <f ca="1">(Tracker!G62+Tracker!H62)/2</f>
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E62" s="34">
         <f>IF(OR(Tracker!F62="denied",Tracker!F62="on hold",Tracker!F62="No Response",Tracker!F62="pending"), 0.2, IF(Tracker!F62="interviewing", 0.4, IF(Tracker!F62="rejected", 0.3, IF(Tracker!F62="offer", 1, 0))))</f>
@@ -14561,11 +14561,11 @@
       </c>
       <c r="J62">
         <f t="shared" ca="1" si="5"/>
-        <v>0.14999999999999991</v>
+        <v>0.20699999999999941</v>
       </c>
       <c r="K62">
         <f t="shared" ca="1" si="6"/>
-        <v>0.85000000000000009</v>
+        <v>0.90699999999999958</v>
       </c>
       <c r="M62" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14573,11 +14573,11 @@
       </c>
       <c r="N62">
         <f t="shared" ca="1" si="8"/>
-        <v>0.14999999999999991</v>
+        <v>0.20699999999999941</v>
       </c>
       <c r="O62">
         <f t="shared" ca="1" si="9"/>
-        <v>0.85000000000000009</v>
+        <v>0.90699999999999958</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.35">
@@ -14595,7 +14595,7 @@
       </c>
       <c r="D63">
         <f ca="1">(Tracker!G63+Tracker!H63)/2</f>
-        <v>101</v>
+        <v>100.5</v>
       </c>
       <c r="E63" s="34">
         <f>IF(OR(Tracker!F63="denied",Tracker!F63="on hold",Tracker!F63="No Response",Tracker!F63="pending"), 0.2, IF(Tracker!F63="interviewing", 0.4, IF(Tracker!F63="rejected", 0.3, IF(Tracker!F63="offer", 1, 0))))</f>
@@ -14618,11 +14618,11 @@
       </c>
       <c r="J63">
         <f t="shared" ca="1" si="5"/>
-        <v>0.17849999999999966</v>
+        <v>0.16424999999999956</v>
       </c>
       <c r="K63">
         <f t="shared" ca="1" si="6"/>
-        <v>-8.0999999999999961E-2</v>
+        <v>-9.0500000000000025E-2</v>
       </c>
       <c r="M63" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14630,11 +14630,11 @@
       </c>
       <c r="N63">
         <f t="shared" ca="1" si="8"/>
-        <v>0.17849999999999966</v>
+        <v>0.16424999999999956</v>
       </c>
       <c r="O63">
         <f t="shared" ca="1" si="9"/>
-        <v>-8.0999999999999961E-2</v>
+        <v>-9.0500000000000025E-2</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.35">
@@ -14652,7 +14652,7 @@
       </c>
       <c r="D64">
         <f ca="1">(Tracker!G64+Tracker!H64)/2</f>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E64" s="34">
         <f>IF(OR(Tracker!F64="denied",Tracker!F64="on hold",Tracker!F64="No Response",Tracker!F64="pending"), 0.2, IF(Tracker!F64="interviewing", 0.4, IF(Tracker!F64="rejected", 0.3, IF(Tracker!F64="offer", 1, 0))))</f>
@@ -14675,11 +14675,11 @@
       </c>
       <c r="J64">
         <f t="shared" ca="1" si="5"/>
-        <v>0.14999999999999991</v>
+        <v>-0.13500000000000023</v>
       </c>
       <c r="K64">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.10000000000000009</v>
+        <v>-0.29000000000000026</v>
       </c>
       <c r="M64" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14687,11 +14687,11 @@
       </c>
       <c r="N64">
         <f t="shared" ca="1" si="8"/>
-        <v>0.14999999999999991</v>
+        <v>-0.13500000000000023</v>
       </c>
       <c r="O64">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.10000000000000009</v>
+        <v>-0.29000000000000026</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.35">
@@ -14709,7 +14709,7 @@
       </c>
       <c r="D65">
         <f ca="1">(Tracker!G65+Tracker!H65)/2</f>
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E65" s="34">
         <f>IF(OR(Tracker!F65="denied",Tracker!F65="on hold",Tracker!F65="No Response",Tracker!F65="pending"), 0.2, IF(Tracker!F65="interviewing", 0.4, IF(Tracker!F65="rejected", 0.3, IF(Tracker!F65="offer", 1, 0))))</f>
@@ -14732,11 +14732,11 @@
       </c>
       <c r="J65">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.23760000000000048</v>
+        <v>-8.370000000000033E-2</v>
       </c>
       <c r="K65">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.35839999999999961</v>
+        <v>-0.25579999999999958</v>
       </c>
       <c r="M65" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14744,11 +14744,11 @@
       </c>
       <c r="N65">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.23760000000000048</v>
+        <v>-8.370000000000033E-2</v>
       </c>
       <c r="O65">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.35839999999999961</v>
+        <v>-0.25579999999999958</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.35">
@@ -14766,7 +14766,7 @@
       </c>
       <c r="D66">
         <f ca="1">(Tracker!G66+Tracker!H66)/2</f>
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="E66" s="34">
         <f>IF(OR(Tracker!F66="denied",Tracker!F66="on hold",Tracker!F66="No Response",Tracker!F66="pending"), 0.2, IF(Tracker!F66="interviewing", 0.4, IF(Tracker!F66="rejected", 0.3, IF(Tracker!F66="offer", 1, 0))))</f>
@@ -14789,11 +14789,11 @@
       </c>
       <c r="J66">
         <f t="shared" ca="1" si="5"/>
-        <v>7.0199999999999818E-2</v>
+        <v>-0.34020000000000028</v>
       </c>
       <c r="K66">
         <f t="shared" ca="1" si="6"/>
-        <v>0.93142857142857149</v>
+        <v>0.49714285714285733</v>
       </c>
       <c r="M66" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14801,11 +14801,11 @@
       </c>
       <c r="N66">
         <f t="shared" ca="1" si="8"/>
-        <v>7.0199999999999818E-2</v>
+        <v>-0.34020000000000028</v>
       </c>
       <c r="O66">
         <f t="shared" ca="1" si="9"/>
-        <v>0.93142857142857149</v>
+        <v>0.49714285714285733</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.35">
@@ -14823,7 +14823,7 @@
       </c>
       <c r="D67">
         <f ca="1">(Tracker!G67+Tracker!H67)/2</f>
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="E67" s="34">
         <f>IF(OR(Tracker!F67="denied",Tracker!F67="on hold",Tracker!F67="No Response",Tracker!F67="pending"), 0.2, IF(Tracker!F67="interviewing", 0.4, IF(Tracker!F67="rejected", 0.3, IF(Tracker!F67="offer", 1, 0))))</f>
@@ -14846,11 +14846,11 @@
       </c>
       <c r="J67">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.2119500000000003</v>
+        <v>-0.6223500000000004</v>
       </c>
       <c r="K67">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.15700000000000003</v>
+        <v>-0.46100000000000008</v>
       </c>
       <c r="M67" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14858,11 +14858,11 @@
       </c>
       <c r="N67">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.2119500000000003</v>
+        <v>-0.6223500000000004</v>
       </c>
       <c r="O67">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.15700000000000003</v>
+        <v>-0.46100000000000008</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.35">
@@ -14880,7 +14880,7 @@
       </c>
       <c r="D68">
         <f ca="1">(Tracker!G68+Tracker!H68)/2</f>
-        <v>105.5</v>
+        <v>89</v>
       </c>
       <c r="E68" s="34">
         <f>IF(OR(Tracker!F68="denied",Tracker!F68="on hold",Tracker!F68="No Response",Tracker!F68="pending"), 0.2, IF(Tracker!F68="interviewing", 0.4, IF(Tracker!F68="rejected", 0.3, IF(Tracker!F68="offer", 1, 0))))</f>
@@ -14903,7 +14903,7 @@
       </c>
       <c r="J68">
         <f t="shared" ca="1" si="5"/>
-        <v>6.0749999999996085E-3</v>
+        <v>-0.41715000000000035</v>
       </c>
       <c r="K68">
         <f t="shared" ca="1" si="6"/>
@@ -14915,7 +14915,7 @@
       </c>
       <c r="N68">
         <f t="shared" ca="1" si="8"/>
-        <v>6.0749999999996085E-3</v>
+        <v>-0.41715000000000035</v>
       </c>
       <c r="O68">
         <f t="shared" ca="1" si="9"/>
@@ -14937,7 +14937,7 @@
       </c>
       <c r="D69">
         <f ca="1">(Tracker!G69+Tracker!H69)/2</f>
-        <v>89.5</v>
+        <v>113.5</v>
       </c>
       <c r="E69" s="34">
         <f>IF(OR(Tracker!F69="denied",Tracker!F69="on hold",Tracker!F69="No Response",Tracker!F69="pending"), 0.2, IF(Tracker!F69="interviewing", 0.4, IF(Tracker!F69="rejected", 0.3, IF(Tracker!F69="offer", 1, 0))))</f>
@@ -14960,11 +14960,11 @@
       </c>
       <c r="J69">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.40432500000000005</v>
+        <v>0.21127499999999966</v>
       </c>
       <c r="K69">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.29949999999999966</v>
+        <v>0.15650000000000031</v>
       </c>
       <c r="M69" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14972,11 +14972,11 @@
       </c>
       <c r="N69">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.40432500000000005</v>
+        <v>0.21127499999999966</v>
       </c>
       <c r="O69">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.29949999999999966</v>
+        <v>0.15650000000000031</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.35">
@@ -14994,7 +14994,7 @@
       </c>
       <c r="D70">
         <f ca="1">(Tracker!G70+Tracker!H70)/2</f>
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="E70" s="34">
         <f>IF(OR(Tracker!F70="denied",Tracker!F70="on hold",Tracker!F70="No Response",Tracker!F70="pending"), 0.2, IF(Tracker!F70="interviewing", 0.4, IF(Tracker!F70="rejected", 0.3, IF(Tracker!F70="offer", 1, 0))))</f>
@@ -15017,11 +15017,11 @@
       </c>
       <c r="J70">
         <f t="shared" ca="1" si="5"/>
-        <v>9.5849999999999103E-2</v>
+        <v>-0.34020000000000028</v>
       </c>
       <c r="K70">
         <f t="shared" ca="1" si="6"/>
-        <v>7.099999999999973E-2</v>
+        <v>-0.25199999999999978</v>
       </c>
       <c r="M70" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -15029,11 +15029,11 @@
       </c>
       <c r="N70">
         <f t="shared" ca="1" si="8"/>
-        <v>9.5849999999999103E-2</v>
+        <v>-0.34020000000000028</v>
       </c>
       <c r="O70">
         <f t="shared" ca="1" si="9"/>
-        <v>7.099999999999973E-2</v>
+        <v>-0.25199999999999978</v>
       </c>
     </row>
   </sheetData>

--- a/example_app_tracker.xlsx
+++ b/example_app_tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\graha\OneDrive\Documents\GitHub\application_tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BEE707-B511-4632-A4FD-435A8D32105E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE30F25-3399-4B7C-98D4-BB1F5E2E1B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17140" yWindow="4230" windowWidth="20200" windowHeight="15960" xr2:uid="{85E7A6A4-6F22-48D9-815F-FC03736B7AC4}"/>
+    <workbookView xWindow="17180" yWindow="3840" windowWidth="20200" windowHeight="15960" activeTab="3" xr2:uid="{85E7A6A4-6F22-48D9-815F-FC03736B7AC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
@@ -6837,9 +6837,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2050F9-523E-4C88-ABEB-54BB5869DFA0}">
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6913,11 +6913,11 @@
       </c>
       <c r="G2">
         <f ca="1">ROUND(RAND()*60+50,0)</f>
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="H2">
         <f ca="1">ROUND(RAND()*40+100,0)</f>
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>11</v>
@@ -6951,11 +6951,11 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G66" ca="1" si="1">ROUND(RAND()*60+50,0)</f>
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H66" ca="1" si="2">ROUND(RAND()*40+100,0)</f>
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>11</v>
@@ -6989,11 +6989,11 @@
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="1"/>
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="2"/>
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>11</v>
@@ -7027,11 +7027,11 @@
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="2"/>
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>10</v>
@@ -7065,7 +7065,7 @@
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="2"/>
@@ -7103,11 +7103,11 @@
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="2"/>
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>11</v>
@@ -7141,11 +7141,11 @@
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="1"/>
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="2"/>
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>11</v>
@@ -7179,11 +7179,11 @@
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="2"/>
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>11</v>
@@ -7217,11 +7217,11 @@
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="2"/>
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>13</v>
@@ -7255,11 +7255,11 @@
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="2"/>
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>11</v>
@@ -7293,11 +7293,11 @@
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="2"/>
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>11</v>
@@ -7331,11 +7331,11 @@
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="2"/>
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>10</v>
@@ -7369,11 +7369,11 @@
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="1"/>
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="2"/>
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>10</v>
@@ -7407,11 +7407,11 @@
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="2"/>
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>10</v>
@@ -7445,11 +7445,11 @@
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="2"/>
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>15</v>
@@ -7483,11 +7483,11 @@
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="2"/>
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>15</v>
@@ -7521,11 +7521,11 @@
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="2"/>
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>15</v>
@@ -7559,11 +7559,11 @@
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="2"/>
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>15</v>
@@ -7597,11 +7597,11 @@
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="2"/>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>15</v>
@@ -7635,11 +7635,11 @@
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="2"/>
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>239</v>
@@ -7673,11 +7673,11 @@
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="2"/>
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>239</v>
@@ -7711,11 +7711,11 @@
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="2"/>
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>239</v>
@@ -7749,11 +7749,11 @@
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="2"/>
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>9</v>
@@ -7787,11 +7787,11 @@
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="1"/>
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="2"/>
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>9</v>
@@ -7825,11 +7825,11 @@
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="2"/>
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>9</v>
@@ -7863,11 +7863,11 @@
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="2"/>
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>9</v>
@@ -7901,11 +7901,11 @@
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="2"/>
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>9</v>
@@ -7939,11 +7939,11 @@
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>9</v>
@@ -7977,11 +7977,11 @@
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="2"/>
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>9</v>
@@ -8015,11 +8015,11 @@
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="2"/>
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>9</v>
@@ -8053,11 +8053,11 @@
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="2"/>
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>15</v>
@@ -8091,11 +8091,11 @@
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="2"/>
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>17</v>
@@ -8129,11 +8129,11 @@
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="2"/>
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>17</v>
@@ -8167,11 +8167,11 @@
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="2"/>
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>17</v>
@@ -8205,11 +8205,11 @@
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="2"/>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>17</v>
@@ -8243,11 +8243,11 @@
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="2"/>
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>19</v>
@@ -8281,11 +8281,11 @@
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="2"/>
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>19</v>
@@ -8319,11 +8319,11 @@
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="2"/>
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>19</v>
@@ -8357,11 +8357,11 @@
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="1"/>
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="2"/>
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>19</v>
@@ -8395,11 +8395,11 @@
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="2"/>
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>19</v>
@@ -8433,11 +8433,11 @@
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="2"/>
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>19</v>
@@ -8471,11 +8471,11 @@
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="2"/>
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>19</v>
@@ -8509,11 +8509,11 @@
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="2"/>
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>21</v>
@@ -8547,11 +8547,11 @@
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="1"/>
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="2"/>
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>21</v>
@@ -8585,11 +8585,11 @@
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="2"/>
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>21</v>
@@ -8623,11 +8623,11 @@
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="2"/>
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>21</v>
@@ -8661,11 +8661,11 @@
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H48">
         <f t="shared" ca="1" si="2"/>
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>21</v>
@@ -8699,11 +8699,11 @@
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="2"/>
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>21</v>
@@ -8737,11 +8737,11 @@
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="2"/>
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>21</v>
@@ -8775,11 +8775,11 @@
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="2"/>
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>39</v>
@@ -8813,11 +8813,11 @@
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="H52">
         <f t="shared" ca="1" si="2"/>
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>39</v>
@@ -8851,11 +8851,11 @@
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="H53">
         <f t="shared" ca="1" si="2"/>
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>39</v>
@@ -8889,11 +8889,11 @@
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="2"/>
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>39</v>
@@ -8927,11 +8927,11 @@
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="1"/>
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="2"/>
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>39</v>
@@ -8965,11 +8965,11 @@
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="H56">
         <f t="shared" ca="1" si="2"/>
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>39</v>
@@ -9003,11 +9003,11 @@
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="H57">
         <f t="shared" ca="1" si="2"/>
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>39</v>
@@ -9041,11 +9041,11 @@
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="H58">
         <f t="shared" ca="1" si="2"/>
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>39</v>
@@ -9079,11 +9079,11 @@
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="H59">
         <f t="shared" ca="1" si="2"/>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>39</v>
@@ -9117,11 +9117,11 @@
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H60">
         <f t="shared" ca="1" si="2"/>
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>40</v>
@@ -9155,11 +9155,11 @@
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="1"/>
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="H61">
         <f t="shared" ca="1" si="2"/>
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>40</v>
@@ -9193,11 +9193,11 @@
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="H62">
         <f t="shared" ca="1" si="2"/>
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>40</v>
@@ -9231,11 +9231,11 @@
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="H63">
         <f t="shared" ca="1" si="2"/>
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>40</v>
@@ -9269,11 +9269,11 @@
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="H64">
         <f t="shared" ca="1" si="2"/>
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>40</v>
@@ -9307,11 +9307,11 @@
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H65">
         <f t="shared" ca="1" si="2"/>
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>40</v>
@@ -9345,11 +9345,11 @@
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="H66">
         <f t="shared" ca="1" si="2"/>
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>11</v>
@@ -9383,11 +9383,11 @@
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G75" ca="1" si="5">ROUND(RAND()*60+50,0)</f>
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="H67">
         <f t="shared" ref="H67:H75" ca="1" si="6">ROUND(RAND()*40+100,0)</f>
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>11</v>
@@ -9421,11 +9421,11 @@
       </c>
       <c r="G68">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H68">
         <f t="shared" ca="1" si="6"/>
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>11</v>
@@ -9459,11 +9459,11 @@
       </c>
       <c r="G69">
         <f t="shared" ca="1" si="5"/>
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H69">
         <f t="shared" ca="1" si="6"/>
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>11</v>
@@ -9497,11 +9497,11 @@
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="H70">
         <f t="shared" ca="1" si="6"/>
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>11</v>
@@ -9535,11 +9535,11 @@
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="5"/>
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="H71">
         <f t="shared" ca="1" si="6"/>
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>9</v>
@@ -9573,11 +9573,11 @@
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="H72">
         <f t="shared" ca="1" si="6"/>
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>9</v>
@@ -9611,11 +9611,11 @@
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="5"/>
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="H73">
         <f t="shared" ca="1" si="6"/>
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>9</v>
@@ -9649,11 +9649,11 @@
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="5"/>
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74">
         <f t="shared" ca="1" si="6"/>
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>9</v>
@@ -9687,11 +9687,11 @@
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="5"/>
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="H75">
         <f t="shared" ca="1" si="6"/>
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>9</v>
@@ -10010,12 +10010,12 @@
       </c>
       <c r="L6" s="38">
         <f ca="1">AVERAGE(Tracker!G2:G719)</f>
-        <v>77.743243243243242</v>
+        <v>81.675675675675677</v>
       </c>
       <c r="M6" s="38"/>
       <c r="N6" s="39">
         <f ca="1">AVERAGE(Tracker!H2:H719)</f>
-        <v>122.20270270270271</v>
+        <v>119.91891891891892</v>
       </c>
       <c r="Q6" s="18"/>
       <c r="R6" s="13"/>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="L7" s="28">
         <f ca="1">(SUM(Tracker!G2:G719)+SUM(Tracker!H2:H721))/(COUNTA(Tracker!G2:G721)*2)</f>
-        <v>99.972972972972968</v>
+        <v>100.79729729729729</v>
       </c>
       <c r="M7" s="28"/>
       <c r="N7" s="21"/>
@@ -11039,8 +11039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70590CAF-D2CD-443E-AE13-8F53684D3C03}">
   <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -11118,7 +11118,7 @@
       </c>
       <c r="D2">
         <f ca="1">(Tracker!G2+Tracker!H2)/2</f>
-        <v>112.5</v>
+        <v>114.5</v>
       </c>
       <c r="E2" s="34">
         <f>IF(OR(Tracker!F2="denied",Tracker!F2="on hold",Tracker!F2="No Response",Tracker!F2="pending"), 0.2, IF(Tracker!F2="interviewing", 0.4, IF(Tracker!F2="rejected", 0.3, IF(Tracker!F2="offer", 1, 0))))</f>
@@ -11141,11 +11141,11 @@
       </c>
       <c r="J2">
         <f t="shared" ref="J2:J15" ca="1" si="0">IF(D2=0,0,((0.3*D2*G2*H2)/10)-2.7)</f>
-        <v>0.82687499999999936</v>
+        <v>0.88957499999999978</v>
       </c>
       <c r="K2">
         <f t="shared" ref="K2:K15" ca="1" si="1">IF(D2=0, 0,((D2*E2*G2*H2)/(F2*I2)-2))</f>
-        <v>0.75</v>
+        <v>0.79888888888888898</v>
       </c>
       <c r="M2" t="e">
         <f ca="1">IF(J2=0, 0, NA())</f>
@@ -11153,11 +11153,11 @@
       </c>
       <c r="N2">
         <f t="shared" ref="N2:N15" ca="1" si="2">IF(J2=0, NA(), J2)</f>
-        <v>0.82687499999999936</v>
+        <v>0.88957499999999978</v>
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O15" ca="1" si="3">IF(K2=0, NA(), K2)</f>
-        <v>0.75</v>
+        <v>0.79888888888888898</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
@@ -11175,7 +11175,7 @@
       </c>
       <c r="D3">
         <f ca="1">(Tracker!G3+Tracker!H3)/2</f>
-        <v>95.5</v>
+        <v>96.5</v>
       </c>
       <c r="E3" s="34">
         <f>IF(OR(Tracker!F3="denied",Tracker!F3="on hold",Tracker!F3="No Response",Tracker!F3="pending"), 0.2, IF(Tracker!F3="interviewing", 0.4, IF(Tracker!F3="rejected", 0.3, IF(Tracker!F3="offer", 1, 0))))</f>
@@ -11198,11 +11198,11 @@
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29392499999999977</v>
+        <v>0.32527499999999998</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9136274509803917</v>
+        <v>1.9546078431372549</v>
       </c>
       <c r="M3" t="e">
         <f t="shared" ref="M3:M15" ca="1" si="4">IF(J3=0, 0, NA())</f>
@@ -11210,11 +11210,11 @@
       </c>
       <c r="N3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.29392499999999977</v>
+        <v>0.32527499999999998</v>
       </c>
       <c r="O3">
         <f t="shared" ca="1" si="3"/>
-        <v>1.9136274509803917</v>
+        <v>1.9546078431372549</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
@@ -11232,7 +11232,7 @@
       </c>
       <c r="D4">
         <f ca="1">(Tracker!G4+Tracker!H4)/2</f>
-        <v>119</v>
+        <v>104.5</v>
       </c>
       <c r="E4" s="34">
         <f>IF(OR(Tracker!F4="denied",Tracker!F4="on hold",Tracker!F4="No Response",Tracker!F4="pending"), 0.2, IF(Tracker!F4="interviewing", 0.4, IF(Tracker!F4="rejected", 0.3, IF(Tracker!F4="offer", 1, 0))))</f>
@@ -11255,11 +11255,11 @@
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0306499999999992</v>
+        <v>0.57607499999999945</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76344444444444459</v>
+        <v>0.42672222222222267</v>
       </c>
       <c r="M4" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -11267,11 +11267,11 @@
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0306499999999992</v>
+        <v>0.57607499999999945</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="3"/>
-        <v>0.76344444444444459</v>
+        <v>0.42672222222222267</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
@@ -11289,7 +11289,7 @@
       </c>
       <c r="D5">
         <f ca="1">(Tracker!G5+Tracker!H5)/2</f>
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E5" s="34">
         <f>IF(OR(Tracker!F5="denied",Tracker!F5="on hold",Tracker!F5="No Response",Tracker!F5="pending"), 0.2, IF(Tracker!F5="interviewing", 0.4, IF(Tracker!F5="rejected", 0.3, IF(Tracker!F5="offer", 1, 0))))</f>
@@ -11312,11 +11312,11 @@
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.19200000000000017</v>
+        <v>3.5999999999999588E-2</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63999999999999968</v>
+        <v>0.87999999999999945</v>
       </c>
       <c r="M5" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -11324,11 +11324,11 @@
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.19200000000000017</v>
+        <v>3.5999999999999588E-2</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.63999999999999968</v>
+        <v>0.87999999999999945</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
@@ -11346,7 +11346,7 @@
       </c>
       <c r="D6">
         <f ca="1">(Tracker!G6+Tracker!H6)/2</f>
-        <v>101.5</v>
+        <v>114.5</v>
       </c>
       <c r="E6" s="34">
         <f>IF(OR(Tracker!F6="denied",Tracker!F6="on hold",Tracker!F6="No Response",Tracker!F6="pending"), 0.2, IF(Tracker!F6="interviewing", 0.4, IF(Tracker!F6="rejected", 0.3, IF(Tracker!F6="offer", 1, 0))))</f>
@@ -11369,11 +11369,11 @@
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48202500000000015</v>
+        <v>0.88957499999999978</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35705555555555568</v>
+        <v>0.65894444444444478</v>
       </c>
       <c r="M6" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -11381,11 +11381,11 @@
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="2"/>
-        <v>0.48202500000000015</v>
+        <v>0.88957499999999978</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="3"/>
-        <v>0.35705555555555568</v>
+        <v>0.65894444444444478</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
@@ -11403,7 +11403,7 @@
       </c>
       <c r="D7">
         <f ca="1">(Tracker!G7+Tracker!H7)/2</f>
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E7" s="34">
         <f>IF(OR(Tracker!F7="denied",Tracker!F7="on hold",Tracker!F7="No Response",Tracker!F7="pending"), 0.2, IF(Tracker!F7="interviewing", 0.4, IF(Tracker!F7="rejected", 0.3, IF(Tracker!F7="offer", 1, 0))))</f>
@@ -11426,11 +11426,11 @@
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21554999999999991</v>
+        <v>0.15285000000000037</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27333333333333387</v>
+        <v>0.224444444444444</v>
       </c>
       <c r="M7" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -11438,11 +11438,11 @@
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.21554999999999991</v>
+        <v>0.15285000000000037</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.27333333333333387</v>
+        <v>0.224444444444444</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
@@ -11460,7 +11460,7 @@
       </c>
       <c r="D8">
         <f ca="1">(Tracker!G8+Tracker!H8)/2</f>
-        <v>118.5</v>
+        <v>75.5</v>
       </c>
       <c r="E8" s="34">
         <f>IF(OR(Tracker!F8="denied",Tracker!F8="on hold",Tracker!F8="No Response",Tracker!F8="pending"), 0.2, IF(Tracker!F8="interviewing", 0.4, IF(Tracker!F8="rejected", 0.3, IF(Tracker!F8="offer", 1, 0))))</f>
@@ -11483,11 +11483,11 @@
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0149749999999997</v>
+        <v>-0.33307500000000045</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7518333333333338</v>
+        <v>-0.24672222222222207</v>
       </c>
       <c r="M8" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -11495,11 +11495,11 @@
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0149749999999997</v>
+        <v>-0.33307500000000045</v>
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.7518333333333338</v>
+        <v>-0.24672222222222207</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
@@ -11517,7 +11517,7 @@
       </c>
       <c r="D9">
         <f ca="1">(Tracker!G9+Tracker!H9)/2</f>
-        <v>92.5</v>
+        <v>99</v>
       </c>
       <c r="E9" s="34">
         <f>IF(OR(Tracker!F9="denied",Tracker!F9="on hold",Tracker!F9="No Response",Tracker!F9="pending"), 0.2, IF(Tracker!F9="interviewing", 0.4, IF(Tracker!F9="rejected", 0.3, IF(Tracker!F9="offer", 1, 0))))</f>
@@ -11540,11 +11540,11 @@
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19987500000000002</v>
+        <v>0.40364999999999984</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26111111111111107</v>
+        <v>0.41999999999999948</v>
       </c>
       <c r="M9" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -11552,11 +11552,11 @@
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="2"/>
-        <v>0.19987500000000002</v>
+        <v>0.40364999999999984</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="3"/>
-        <v>0.26111111111111107</v>
+        <v>0.41999999999999948</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
@@ -11574,7 +11574,7 @@
       </c>
       <c r="D10">
         <f ca="1">(Tracker!G10+Tracker!H10)/2</f>
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E10" s="34">
         <f>IF(OR(Tracker!F10="denied",Tracker!F10="on hold",Tracker!F10="No Response",Tracker!F10="pending"), 0.2, IF(Tracker!F10="interviewing", 0.4, IF(Tracker!F10="rejected", 0.3, IF(Tracker!F10="offer", 1, 0))))</f>
@@ -11597,11 +11597,11 @@
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5290499999999998</v>
+        <v>0.30959999999999965</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0899999999999999</v>
+        <v>0.87999999999999989</v>
       </c>
       <c r="M10" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -11609,11 +11609,11 @@
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="2"/>
-        <v>0.5290499999999998</v>
+        <v>0.30959999999999965</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0899999999999999</v>
+        <v>0.87999999999999989</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
@@ -11631,7 +11631,7 @@
       </c>
       <c r="D11">
         <f ca="1">(Tracker!G11+Tracker!H11)/2</f>
-        <v>111</v>
+        <v>89.5</v>
       </c>
       <c r="E11" s="34">
         <f>IF(OR(Tracker!F11="denied",Tracker!F11="on hold",Tracker!F11="No Response",Tracker!F11="pending"), 0.2, IF(Tracker!F11="interviewing", 0.4, IF(Tracker!F11="rejected", 0.3, IF(Tracker!F11="offer", 1, 0))))</f>
@@ -11654,11 +11654,11 @@
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77985000000000015</v>
+        <v>0.10582499999999939</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57766666666666744</v>
+        <v>7.8388888888889507E-2</v>
       </c>
       <c r="M11" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -11666,11 +11666,11 @@
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="2"/>
-        <v>0.77985000000000015</v>
+        <v>0.10582499999999939</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="3"/>
-        <v>0.57766666666666744</v>
+        <v>7.8388888888889507E-2</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
@@ -11688,7 +11688,7 @@
       </c>
       <c r="D12">
         <f ca="1">(Tracker!G12+Tracker!H12)/2</f>
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="E12" s="34">
         <f>IF(OR(Tracker!F12="denied",Tracker!F12="on hold",Tracker!F12="No Response",Tracker!F12="pending"), 0.2, IF(Tracker!F12="interviewing", 0.4, IF(Tracker!F12="rejected", 0.3, IF(Tracker!F12="offer", 1, 0))))</f>
@@ -11711,11 +11711,11 @@
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.16064999999999996</v>
+        <v>0.21554999999999991</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82150000000000034</v>
+        <v>1.2395</v>
       </c>
       <c r="M12" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -11723,11 +11723,11 @@
       </c>
       <c r="N12">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.16064999999999996</v>
+        <v>0.21554999999999991</v>
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="3"/>
-        <v>0.82150000000000034</v>
+        <v>1.2395</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
@@ -11745,7 +11745,7 @@
       </c>
       <c r="D13">
         <f ca="1">(Tracker!G13+Tracker!H13)/2</f>
-        <v>78.5</v>
+        <v>86.5</v>
       </c>
       <c r="E13" s="34">
         <f>IF(OR(Tracker!F13="denied",Tracker!F13="on hold",Tracker!F13="No Response",Tracker!F13="pending"), 0.2, IF(Tracker!F13="interviewing", 0.4, IF(Tracker!F13="rejected", 0.3, IF(Tracker!F13="offer", 1, 0))))</f>
@@ -11768,11 +11768,11 @@
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.23902500000000027</v>
+        <v>1.1775000000000091E-2</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.35934999999999984</v>
+        <v>-0.19214999999999982</v>
       </c>
       <c r="M13" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -11780,11 +11780,11 @@
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.23902500000000027</v>
+        <v>1.1775000000000091E-2</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.35934999999999984</v>
+        <v>-0.19214999999999982</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
@@ -11802,7 +11802,7 @@
       </c>
       <c r="D14">
         <f ca="1">(Tracker!G14+Tracker!H14)/2</f>
-        <v>109</v>
+        <v>99.5</v>
       </c>
       <c r="E14" s="34">
         <f>IF(OR(Tracker!F14="denied",Tracker!F14="on hold",Tracker!F14="No Response",Tracker!F14="pending"), 0.2, IF(Tracker!F14="interviewing", 0.4, IF(Tracker!F14="rejected", 0.3, IF(Tracker!F14="offer", 1, 0))))</f>
@@ -11825,11 +11825,11 @@
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5849999999999103E-2</v>
+        <v>-0.14782500000000054</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7277999999999998</v>
+        <v>1.4029000000000003</v>
       </c>
       <c r="M14" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -11837,11 +11837,11 @@
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="2"/>
-        <v>9.5849999999999103E-2</v>
+        <v>-0.14782500000000054</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.7277999999999998</v>
+        <v>1.4029000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
@@ -11859,7 +11859,7 @@
       </c>
       <c r="D15">
         <f ca="1">(Tracker!G15+Tracker!H15)/2</f>
-        <v>90</v>
+        <v>85.5</v>
       </c>
       <c r="E15" s="34">
         <f>IF(OR(Tracker!F15="denied",Tracker!F15="on hold",Tracker!F15="No Response",Tracker!F15="pending"), 0.2, IF(Tracker!F15="interviewing", 0.4, IF(Tracker!F15="rejected", 0.3, IF(Tracker!F15="offer", 1, 0))))</f>
@@ -11882,11 +11882,11 @@
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.39150000000000018</v>
+        <v>-0.50692500000000029</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="1"/>
-        <v>5.6950000000000003</v>
+        <v>5.3102500000000008</v>
       </c>
       <c r="M15" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -11894,11 +11894,11 @@
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.39150000000000018</v>
+        <v>-0.50692500000000029</v>
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="3"/>
-        <v>5.6950000000000003</v>
+        <v>5.3102500000000008</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
@@ -11916,7 +11916,7 @@
       </c>
       <c r="D16">
         <f ca="1">(Tracker!G16+Tracker!H16)/2</f>
-        <v>98</v>
+        <v>87.5</v>
       </c>
       <c r="E16" s="34">
         <f>IF(OR(Tracker!F16="denied",Tracker!F16="on hold",Tracker!F16="No Response",Tracker!F16="pending"), 0.2, IF(Tracker!F16="interviewing", 0.4, IF(Tracker!F16="rejected", 0.3, IF(Tracker!F16="offer", 1, 0))))</f>
@@ -11939,11 +11939,11 @@
       </c>
       <c r="J16">
         <f t="shared" ref="J16:J70" ca="1" si="5">IF(D16=0,0,((0.3*D16*G16*H16)/10)-2.7)</f>
-        <v>-0.18630000000000013</v>
+        <v>-0.45562500000000039</v>
       </c>
       <c r="K16">
         <f t="shared" ref="K16:K70" ca="1" si="6">IF(D16=0, 0,((D16*E16*G16*H16)/(F16*I16)-2))</f>
-        <v>-0.32420000000000004</v>
+        <v>-0.50375000000000014</v>
       </c>
       <c r="M16" t="e">
         <f t="shared" ref="M16:M70" ca="1" si="7">IF(J16=0, 0, NA())</f>
@@ -11951,11 +11951,11 @@
       </c>
       <c r="N16">
         <f t="shared" ref="N16:N70" ca="1" si="8">IF(J16=0, NA(), J16)</f>
-        <v>-0.18630000000000013</v>
+        <v>-0.45562500000000039</v>
       </c>
       <c r="O16">
         <f t="shared" ref="O16:O70" ca="1" si="9">IF(K16=0, NA(), K16)</f>
-        <v>-0.32420000000000004</v>
+        <v>-0.50375000000000014</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
@@ -11973,7 +11973,7 @@
       </c>
       <c r="D17">
         <f ca="1">(Tracker!G17+Tracker!H17)/2</f>
-        <v>106</v>
+        <v>82.5</v>
       </c>
       <c r="E17" s="34">
         <f>IF(OR(Tracker!F17="denied",Tracker!F17="on hold",Tracker!F17="No Response",Tracker!F17="pending"), 0.2, IF(Tracker!F17="interviewing", 0.4, IF(Tracker!F17="rejected", 0.3, IF(Tracker!F17="offer", 1, 0))))</f>
@@ -11996,11 +11996,11 @@
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="5"/>
-        <v>1.8899999999999473E-2</v>
+        <v>-0.58387499999999992</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.18739999999999979</v>
+        <v>-0.58925000000000027</v>
       </c>
       <c r="M17" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12008,11 +12008,11 @@
       </c>
       <c r="N17">
         <f t="shared" ca="1" si="8"/>
-        <v>1.8899999999999473E-2</v>
+        <v>-0.58387499999999992</v>
       </c>
       <c r="O17">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.18739999999999979</v>
+        <v>-0.58925000000000027</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
@@ -12030,7 +12030,7 @@
       </c>
       <c r="D18">
         <f ca="1">(Tracker!G18+Tracker!H18)/2</f>
-        <v>115.5</v>
+        <v>112.5</v>
       </c>
       <c r="E18" s="34">
         <f>IF(OR(Tracker!F18="denied",Tracker!F18="on hold",Tracker!F18="No Response",Tracker!F18="pending"), 0.2, IF(Tracker!F18="interviewing", 0.4, IF(Tracker!F18="rejected", 0.3, IF(Tracker!F18="offer", 1, 0))))</f>
@@ -12053,11 +12053,11 @@
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="5"/>
-        <v>0.26257499999999956</v>
+        <v>0.18562499999999993</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="6"/>
-        <v>7.8752499999999994</v>
+        <v>7.6187500000000004</v>
       </c>
       <c r="M18" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12065,11 +12065,11 @@
       </c>
       <c r="N18">
         <f t="shared" ca="1" si="8"/>
-        <v>0.26257499999999956</v>
+        <v>0.18562499999999993</v>
       </c>
       <c r="O18">
         <f t="shared" ca="1" si="9"/>
-        <v>7.8752499999999994</v>
+        <v>7.6187500000000004</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
@@ -12087,7 +12087,7 @@
       </c>
       <c r="D19">
         <f ca="1">(Tracker!G19+Tracker!H19)/2</f>
-        <v>105.5</v>
+        <v>110</v>
       </c>
       <c r="E19" s="34">
         <f>IF(OR(Tracker!F19="denied",Tracker!F19="on hold",Tracker!F19="No Response",Tracker!F19="pending"), 0.2, IF(Tracker!F19="interviewing", 0.4, IF(Tracker!F19="rejected", 0.3, IF(Tracker!F19="offer", 1, 0))))</f>
@@ -12110,11 +12110,11 @@
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="5"/>
-        <v>6.0749999999996085E-3</v>
+        <v>0.12149999999999928</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="6"/>
-        <v>4.5000000000001705E-3</v>
+        <v>8.9999999999999858E-2</v>
       </c>
       <c r="M19" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12122,11 +12122,11 @@
       </c>
       <c r="N19">
         <f t="shared" ca="1" si="8"/>
-        <v>6.0749999999996085E-3</v>
+        <v>0.12149999999999928</v>
       </c>
       <c r="O19">
         <f t="shared" ca="1" si="9"/>
-        <v>4.5000000000001705E-3</v>
+        <v>8.9999999999999858E-2</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
@@ -12144,7 +12144,7 @@
       </c>
       <c r="D20">
         <f ca="1">(Tracker!G20+Tracker!H20)/2</f>
-        <v>94</v>
+        <v>94.5</v>
       </c>
       <c r="E20" s="34">
         <f>IF(OR(Tracker!F20="denied",Tracker!F20="on hold",Tracker!F20="No Response",Tracker!F20="pending"), 0.2, IF(Tracker!F20="interviewing", 0.4, IF(Tracker!F20="rejected", 0.3, IF(Tracker!F20="offer", 1, 0))))</f>
@@ -12167,11 +12167,11 @@
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.28890000000000038</v>
+        <v>-0.27607500000000051</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.39259999999999984</v>
+        <v>-0.38404999999999978</v>
       </c>
       <c r="M20" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12179,11 +12179,11 @@
       </c>
       <c r="N20">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.28890000000000038</v>
+        <v>-0.27607500000000051</v>
       </c>
       <c r="O20">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.39259999999999984</v>
+        <v>-0.38404999999999978</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
@@ -12201,7 +12201,7 @@
       </c>
       <c r="D21">
         <f ca="1">(Tracker!G21+Tracker!H21)/2</f>
-        <v>110</v>
+        <v>91.5</v>
       </c>
       <c r="E21" s="34">
         <f>IF(OR(Tracker!F21="denied",Tracker!F21="on hold",Tracker!F21="No Response",Tracker!F21="pending"), 0.2, IF(Tracker!F21="interviewing", 0.4, IF(Tracker!F21="rejected", 0.3, IF(Tracker!F21="offer", 1, 0))))</f>
@@ -12224,11 +12224,11 @@
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="5"/>
-        <v>0.12149999999999928</v>
+        <v>-0.35302500000000059</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="6"/>
-        <v>8.4499999999999993</v>
+        <v>6.6925000000000008</v>
       </c>
       <c r="M21" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12236,11 +12236,11 @@
       </c>
       <c r="N21">
         <f t="shared" ca="1" si="8"/>
-        <v>0.12149999999999928</v>
+        <v>-0.35302500000000059</v>
       </c>
       <c r="O21">
         <f t="shared" ca="1" si="9"/>
-        <v>8.4499999999999993</v>
+        <v>6.6925000000000008</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
@@ -12258,7 +12258,7 @@
       </c>
       <c r="D22">
         <f ca="1">(Tracker!G22+Tracker!H22)/2</f>
-        <v>98.5</v>
+        <v>82</v>
       </c>
       <c r="E22" s="34">
         <f>IF(OR(Tracker!F22="denied",Tracker!F22="on hold",Tracker!F22="No Response",Tracker!F22="pending"), 0.2, IF(Tracker!F22="interviewing", 0.4, IF(Tracker!F22="rejected", 0.3, IF(Tracker!F22="offer", 1, 0))))</f>
@@ -12281,11 +12281,11 @@
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.17347500000000027</v>
+        <v>-0.59670000000000023</v>
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.12849999999999984</v>
+        <v>-0.44199999999999995</v>
       </c>
       <c r="M22" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12293,11 +12293,11 @@
       </c>
       <c r="N22">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.17347500000000027</v>
+        <v>-0.59670000000000023</v>
       </c>
       <c r="O22">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.12849999999999984</v>
+        <v>-0.44199999999999995</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
@@ -12315,7 +12315,7 @@
       </c>
       <c r="D23">
         <f ca="1">(Tracker!G23+Tracker!H23)/2</f>
-        <v>100.5</v>
+        <v>104.5</v>
       </c>
       <c r="E23" s="34">
         <f>IF(OR(Tracker!F23="denied",Tracker!F23="on hold",Tracker!F23="No Response",Tracker!F23="pending"), 0.2, IF(Tracker!F23="interviewing", 0.4, IF(Tracker!F23="rejected", 0.3, IF(Tracker!F23="offer", 1, 0))))</f>
@@ -12338,11 +12338,11 @@
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="5"/>
-        <v>0.45067499999999949</v>
+        <v>0.57607499999999945</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="6"/>
-        <v>2.9133333333333331</v>
+        <v>3.1088888888888899</v>
       </c>
       <c r="M23" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12350,11 +12350,11 @@
       </c>
       <c r="N23">
         <f t="shared" ca="1" si="8"/>
-        <v>0.45067499999999949</v>
+        <v>0.57607499999999945</v>
       </c>
       <c r="O23">
         <f t="shared" ca="1" si="9"/>
-        <v>2.9133333333333331</v>
+        <v>3.1088888888888899</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
@@ -12372,7 +12372,7 @@
       </c>
       <c r="D24">
         <f ca="1">(Tracker!G24+Tracker!H24)/2</f>
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="E24" s="34">
         <f>IF(OR(Tracker!F24="denied",Tracker!F24="on hold",Tracker!F24="No Response",Tracker!F24="pending"), 0.2, IF(Tracker!F24="interviewing", 0.4, IF(Tracker!F24="rejected", 0.3, IF(Tracker!F24="offer", 1, 0))))</f>
@@ -12395,11 +12395,11 @@
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="5"/>
-        <v>0.77985000000000015</v>
+        <v>-3.8999999999997925E-3</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="6"/>
-        <v>0.57766666666666744</v>
+        <v>-2.8888888888889408E-3</v>
       </c>
       <c r="M24" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12407,11 +12407,11 @@
       </c>
       <c r="N24">
         <f t="shared" ca="1" si="8"/>
-        <v>0.77985000000000015</v>
+        <v>-3.8999999999997925E-3</v>
       </c>
       <c r="O24">
         <f t="shared" ca="1" si="9"/>
-        <v>0.57766666666666744</v>
+        <v>-2.8888888888889408E-3</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
@@ -12429,7 +12429,7 @@
       </c>
       <c r="D25">
         <f ca="1">(Tracker!G25+Tracker!H25)/2</f>
-        <v>120</v>
+        <v>104.5</v>
       </c>
       <c r="E25" s="34">
         <f>IF(OR(Tracker!F25="denied",Tracker!F25="on hold",Tracker!F25="No Response",Tracker!F25="pending"), 0.2, IF(Tracker!F25="interviewing", 0.4, IF(Tracker!F25="rejected", 0.3, IF(Tracker!F25="offer", 1, 0))))</f>
@@ -12452,11 +12452,11 @@
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="5"/>
-        <v>1.0619999999999994</v>
+        <v>0.57607499999999945</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="6"/>
-        <v>0.78666666666666707</v>
+        <v>0.42672222222222267</v>
       </c>
       <c r="M25" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12464,11 +12464,11 @@
       </c>
       <c r="N25">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0619999999999994</v>
+        <v>0.57607499999999945</v>
       </c>
       <c r="O25">
         <f t="shared" ca="1" si="9"/>
-        <v>0.78666666666666707</v>
+        <v>0.42672222222222267</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
@@ -12486,7 +12486,7 @@
       </c>
       <c r="D26">
         <f ca="1">(Tracker!G26+Tracker!H26)/2</f>
-        <v>91</v>
+        <v>93.5</v>
       </c>
       <c r="E26" s="34">
         <f>IF(OR(Tracker!F26="denied",Tracker!F26="on hold",Tracker!F26="No Response",Tracker!F26="pending"), 0.2, IF(Tracker!F26="interviewing", 0.4, IF(Tracker!F26="rejected", 0.3, IF(Tracker!F26="offer", 1, 0))))</f>
@@ -12509,11 +12509,11 @@
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="5"/>
-        <v>0.15285000000000037</v>
+        <v>0.23122500000000024</v>
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="6"/>
-        <v>0.11322222222222189</v>
+        <v>0.17127777777777764</v>
       </c>
       <c r="M26" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12521,11 +12521,11 @@
       </c>
       <c r="N26">
         <f t="shared" ca="1" si="8"/>
-        <v>0.15285000000000037</v>
+        <v>0.23122500000000024</v>
       </c>
       <c r="O26">
         <f t="shared" ca="1" si="9"/>
-        <v>0.11322222222222189</v>
+        <v>0.17127777777777764</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
@@ -12543,7 +12543,7 @@
       </c>
       <c r="D27">
         <f ca="1">(Tracker!G27+Tracker!H27)/2</f>
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="E27" s="34">
         <f>IF(OR(Tracker!F27="denied",Tracker!F27="on hold",Tracker!F27="No Response",Tracker!F27="pending"), 0.2, IF(Tracker!F27="interviewing", 0.4, IF(Tracker!F27="rejected", 0.3, IF(Tracker!F27="offer", 1, 0))))</f>
@@ -12566,11 +12566,11 @@
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="5"/>
-        <v>0.43499999999999961</v>
+        <v>0.71714999999999929</v>
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="6"/>
-        <v>0.32222222222222197</v>
+        <v>0.53122222222222248</v>
       </c>
       <c r="M27" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12578,11 +12578,11 @@
       </c>
       <c r="N27">
         <f t="shared" ca="1" si="8"/>
-        <v>0.43499999999999961</v>
+        <v>0.71714999999999929</v>
       </c>
       <c r="O27">
         <f t="shared" ca="1" si="9"/>
-        <v>0.32222222222222197</v>
+        <v>0.53122222222222248</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
@@ -12600,7 +12600,7 @@
       </c>
       <c r="D28">
         <f ca="1">(Tracker!G28+Tracker!H28)/2</f>
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E28" s="34">
         <f>IF(OR(Tracker!F28="denied",Tracker!F28="on hold",Tracker!F28="No Response",Tracker!F28="pending"), 0.2, IF(Tracker!F28="interviewing", 0.4, IF(Tracker!F28="rejected", 0.3, IF(Tracker!F28="offer", 1, 0))))</f>
@@ -12623,11 +12623,11 @@
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="5"/>
-        <v>0.15285000000000037</v>
+        <v>0.27824999999999989</v>
       </c>
       <c r="K28">
         <f t="shared" ca="1" si="6"/>
-        <v>0.11322222222222189</v>
+        <v>0.20611111111111136</v>
       </c>
       <c r="M28" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12635,11 +12635,11 @@
       </c>
       <c r="N28">
         <f t="shared" ca="1" si="8"/>
-        <v>0.15285000000000037</v>
+        <v>0.27824999999999989</v>
       </c>
       <c r="O28">
         <f t="shared" ca="1" si="9"/>
-        <v>0.11322222222222189</v>
+        <v>0.20611111111111136</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
@@ -12657,7 +12657,7 @@
       </c>
       <c r="D29">
         <f ca="1">(Tracker!G29+Tracker!H29)/2</f>
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="E29" s="34">
         <f>IF(OR(Tracker!F29="denied",Tracker!F29="on hold",Tracker!F29="No Response",Tracker!F29="pending"), 0.2, IF(Tracker!F29="interviewing", 0.4, IF(Tracker!F29="rejected", 0.3, IF(Tracker!F29="offer", 1, 0))))</f>
@@ -12680,11 +12680,11 @@
       </c>
       <c r="J29">
         <f t="shared" ca="1" si="5"/>
-        <v>0.12149999999999972</v>
+        <v>0.84254999999999969</v>
       </c>
       <c r="K29">
         <f t="shared" ca="1" si="6"/>
-        <v>2.1799999999999997</v>
+        <v>3.2482222222222221</v>
       </c>
       <c r="M29" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12692,11 +12692,11 @@
       </c>
       <c r="N29">
         <f t="shared" ca="1" si="8"/>
-        <v>0.12149999999999972</v>
+        <v>0.84254999999999969</v>
       </c>
       <c r="O29">
         <f t="shared" ca="1" si="9"/>
-        <v>2.1799999999999997</v>
+        <v>3.2482222222222221</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
@@ -12714,7 +12714,7 @@
       </c>
       <c r="D30">
         <f ca="1">(Tracker!G30+Tracker!H30)/2</f>
-        <v>85.5</v>
+        <v>115.5</v>
       </c>
       <c r="E30" s="34">
         <f>IF(OR(Tracker!F30="denied",Tracker!F30="on hold",Tracker!F30="No Response",Tracker!F30="pending"), 0.2, IF(Tracker!F30="interviewing", 0.4, IF(Tracker!F30="rejected", 0.3, IF(Tracker!F30="offer", 1, 0))))</f>
@@ -12737,11 +12737,11 @@
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="5"/>
-        <v>-1.957500000000012E-2</v>
+        <v>0.92092499999999955</v>
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="6"/>
-        <v>-1.4499999999999735E-2</v>
+        <v>0.68216666666666681</v>
       </c>
       <c r="M30" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12749,11 +12749,11 @@
       </c>
       <c r="N30">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.957500000000012E-2</v>
+        <v>0.92092499999999955</v>
       </c>
       <c r="O30">
         <f t="shared" ca="1" si="9"/>
-        <v>-1.4499999999999735E-2</v>
+        <v>0.68216666666666681</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
@@ -12771,7 +12771,7 @@
       </c>
       <c r="D31">
         <f ca="1">(Tracker!G31+Tracker!H31)/2</f>
-        <v>100.5</v>
+        <v>110</v>
       </c>
       <c r="E31" s="34">
         <f>IF(OR(Tracker!F31="denied",Tracker!F31="on hold",Tracker!F31="No Response",Tracker!F31="pending"), 0.2, IF(Tracker!F31="interviewing", 0.4, IF(Tracker!F31="rejected", 0.3, IF(Tracker!F31="offer", 1, 0))))</f>
@@ -12794,7 +12794,7 @@
       </c>
       <c r="J31">
         <f t="shared" ca="1" si="5"/>
-        <v>0.45067499999999949</v>
+        <v>0.74849999999999994</v>
       </c>
       <c r="K31">
         <f t="shared" ca="1" si="6"/>
@@ -12806,7 +12806,7 @@
       </c>
       <c r="N31">
         <f t="shared" ca="1" si="8"/>
-        <v>0.45067499999999949</v>
+        <v>0.74849999999999994</v>
       </c>
       <c r="O31">
         <f t="shared" ca="1" si="9"/>
@@ -12828,7 +12828,7 @@
       </c>
       <c r="D32">
         <f ca="1">(Tracker!G32+Tracker!H32)/2</f>
-        <v>109.5</v>
+        <v>103</v>
       </c>
       <c r="E32" s="34">
         <f>IF(OR(Tracker!F32="denied",Tracker!F32="on hold",Tracker!F32="No Response",Tracker!F32="pending"), 0.2, IF(Tracker!F32="interviewing", 0.4, IF(Tracker!F32="rejected", 0.3, IF(Tracker!F32="offer", 1, 0))))</f>
@@ -12851,11 +12851,11 @@
       </c>
       <c r="J32">
         <f t="shared" ca="1" si="5"/>
-        <v>0.73282500000000006</v>
+        <v>0.5290499999999998</v>
       </c>
       <c r="K32">
         <f t="shared" ca="1" si="6"/>
-        <v>0.28854999999999986</v>
+        <v>0.15270000000000028</v>
       </c>
       <c r="M32" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12863,11 +12863,11 @@
       </c>
       <c r="N32">
         <f t="shared" ca="1" si="8"/>
-        <v>0.73282500000000006</v>
+        <v>0.5290499999999998</v>
       </c>
       <c r="O32">
         <f t="shared" ca="1" si="9"/>
-        <v>0.28854999999999986</v>
+        <v>0.15270000000000028</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
@@ -12885,7 +12885,7 @@
       </c>
       <c r="D33">
         <f ca="1">(Tracker!G33+Tracker!H33)/2</f>
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E33" s="34">
         <f>IF(OR(Tracker!F33="denied",Tracker!F33="on hold",Tracker!F33="No Response",Tracker!F33="pending"), 0.2, IF(Tracker!F33="interviewing", 0.4, IF(Tracker!F33="rejected", 0.3, IF(Tracker!F33="offer", 1, 0))))</f>
@@ -12908,11 +12908,11 @@
       </c>
       <c r="J33">
         <f t="shared" ca="1" si="5"/>
-        <v>0.34094999999999942</v>
+        <v>0.27824999999999989</v>
       </c>
       <c r="K33">
         <f t="shared" ca="1" si="6"/>
-        <v>1.0409499999999996</v>
+        <v>0.97825000000000006</v>
       </c>
       <c r="M33" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12920,11 +12920,11 @@
       </c>
       <c r="N33">
         <f t="shared" ca="1" si="8"/>
-        <v>0.34094999999999942</v>
+        <v>0.27824999999999989</v>
       </c>
       <c r="O33">
         <f t="shared" ca="1" si="9"/>
-        <v>1.0409499999999996</v>
+        <v>0.97825000000000006</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
@@ -12942,7 +12942,7 @@
       </c>
       <c r="D34">
         <f ca="1">(Tracker!G34+Tracker!H34)/2</f>
-        <v>96</v>
+        <v>108.5</v>
       </c>
       <c r="E34" s="34">
         <f>IF(OR(Tracker!F34="denied",Tracker!F34="on hold",Tracker!F34="No Response",Tracker!F34="pending"), 0.2, IF(Tracker!F34="interviewing", 0.4, IF(Tracker!F34="rejected", 0.3, IF(Tracker!F34="offer", 1, 0))))</f>
@@ -12965,11 +12965,11 @@
       </c>
       <c r="J34">
         <f t="shared" ca="1" si="5"/>
-        <v>0.30959999999999965</v>
+        <v>0.70147499999999985</v>
       </c>
       <c r="K34">
         <f t="shared" ca="1" si="6"/>
-        <v>6.4000000000001833E-3</v>
+        <v>0.26765000000000061</v>
       </c>
       <c r="M34" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12977,11 +12977,11 @@
       </c>
       <c r="N34">
         <f t="shared" ca="1" si="8"/>
-        <v>0.30959999999999965</v>
+        <v>0.70147499999999985</v>
       </c>
       <c r="O34">
         <f t="shared" ca="1" si="9"/>
-        <v>6.4000000000001833E-3</v>
+        <v>0.26765000000000061</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
@@ -12999,7 +12999,7 @@
       </c>
       <c r="D35">
         <f ca="1">(Tracker!G35+Tracker!H35)/2</f>
-        <v>102</v>
+        <v>114.5</v>
       </c>
       <c r="E35" s="34">
         <f>IF(OR(Tracker!F35="denied",Tracker!F35="on hold",Tracker!F35="No Response",Tracker!F35="pending"), 0.2, IF(Tracker!F35="interviewing", 0.4, IF(Tracker!F35="rejected", 0.3, IF(Tracker!F35="offer", 1, 0))))</f>
@@ -13022,11 +13022,11 @@
       </c>
       <c r="J35">
         <f t="shared" ca="1" si="5"/>
-        <v>0.49770000000000003</v>
+        <v>0.88957499999999978</v>
       </c>
       <c r="K35">
         <f t="shared" ca="1" si="6"/>
-        <v>3.0160000000000009</v>
+        <v>3.6307058823529417</v>
       </c>
       <c r="M35" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13034,11 +13034,11 @@
       </c>
       <c r="N35">
         <f t="shared" ca="1" si="8"/>
-        <v>0.49770000000000003</v>
+        <v>0.88957499999999978</v>
       </c>
       <c r="O35">
         <f t="shared" ca="1" si="9"/>
-        <v>3.0160000000000009</v>
+        <v>3.6307058823529417</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
@@ -13056,7 +13056,7 @@
       </c>
       <c r="D36">
         <f ca="1">(Tracker!G36+Tracker!H36)/2</f>
-        <v>104.5</v>
+        <v>100</v>
       </c>
       <c r="E36" s="34">
         <f>IF(OR(Tracker!F36="denied",Tracker!F36="on hold",Tracker!F36="No Response",Tracker!F36="pending"), 0.2, IF(Tracker!F36="interviewing", 0.4, IF(Tracker!F36="rejected", 0.3, IF(Tracker!F36="offer", 1, 0))))</f>
@@ -13079,11 +13079,11 @@
       </c>
       <c r="J36">
         <f t="shared" ca="1" si="5"/>
-        <v>0.57607499999999945</v>
+        <v>0.43499999999999961</v>
       </c>
       <c r="K36">
         <f t="shared" ca="1" si="6"/>
-        <v>0.18405000000000049</v>
+        <v>8.9999999999999858E-2</v>
       </c>
       <c r="M36" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13091,11 +13091,11 @@
       </c>
       <c r="N36">
         <f t="shared" ca="1" si="8"/>
-        <v>0.57607499999999945</v>
+        <v>0.43499999999999961</v>
       </c>
       <c r="O36">
         <f t="shared" ca="1" si="9"/>
-        <v>0.18405000000000049</v>
+        <v>8.9999999999999858E-2</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
@@ -13113,7 +13113,7 @@
       </c>
       <c r="D37">
         <f ca="1">(Tracker!G37+Tracker!H37)/2</f>
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E37" s="34">
         <f>IF(OR(Tracker!F37="denied",Tracker!F37="on hold",Tracker!F37="No Response",Tracker!F37="pending"), 0.2, IF(Tracker!F37="interviewing", 0.4, IF(Tracker!F37="rejected", 0.3, IF(Tracker!F37="offer", 1, 0))))</f>
@@ -13136,11 +13136,11 @@
       </c>
       <c r="J37">
         <f t="shared" ca="1" si="5"/>
-        <v>0.71714999999999929</v>
+        <v>0.96795000000000009</v>
       </c>
       <c r="K37">
         <f t="shared" ca="1" si="6"/>
-        <v>0.27810000000000024</v>
+        <v>0.44530000000000047</v>
       </c>
       <c r="M37" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13148,11 +13148,11 @@
       </c>
       <c r="N37">
         <f t="shared" ca="1" si="8"/>
-        <v>0.71714999999999929</v>
+        <v>0.96795000000000009</v>
       </c>
       <c r="O37">
         <f t="shared" ca="1" si="9"/>
-        <v>0.27810000000000024</v>
+        <v>0.44530000000000047</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
@@ -13170,7 +13170,7 @@
       </c>
       <c r="D38">
         <f ca="1">(Tracker!G38+Tracker!H38)/2</f>
-        <v>113.5</v>
+        <v>108</v>
       </c>
       <c r="E38" s="34">
         <f>IF(OR(Tracker!F38="denied",Tracker!F38="on hold",Tracker!F38="No Response",Tracker!F38="pending"), 0.2, IF(Tracker!F38="interviewing", 0.4, IF(Tracker!F38="rejected", 0.3, IF(Tracker!F38="offer", 1, 0))))</f>
@@ -13193,11 +13193,11 @@
       </c>
       <c r="J38">
         <f t="shared" ca="1" si="5"/>
-        <v>0.85822499999999913</v>
+        <v>0.68579999999999952</v>
       </c>
       <c r="K38">
         <f t="shared" ca="1" si="6"/>
-        <v>0.37215000000000042</v>
+        <v>0.2572000000000001</v>
       </c>
       <c r="M38" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13205,11 +13205,11 @@
       </c>
       <c r="N38">
         <f t="shared" ca="1" si="8"/>
-        <v>0.85822499999999913</v>
+        <v>0.68579999999999952</v>
       </c>
       <c r="O38">
         <f t="shared" ca="1" si="9"/>
-        <v>0.37215000000000042</v>
+        <v>0.2572000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
@@ -13227,7 +13227,7 @@
       </c>
       <c r="D39">
         <f ca="1">(Tracker!G39+Tracker!H39)/2</f>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E39" s="34">
         <f>IF(OR(Tracker!F39="denied",Tracker!F39="on hold",Tracker!F39="No Response",Tracker!F39="pending"), 0.2, IF(Tracker!F39="interviewing", 0.4, IF(Tracker!F39="rejected", 0.3, IF(Tracker!F39="offer", 1, 0))))</f>
@@ -13250,11 +13250,11 @@
       </c>
       <c r="J39">
         <f t="shared" ca="1" si="5"/>
-        <v>0.12149999999999972</v>
+        <v>0.43499999999999961</v>
       </c>
       <c r="K39">
         <f t="shared" ca="1" si="6"/>
-        <v>-2.000000000000024E-2</v>
+        <v>0.19999999999999973</v>
       </c>
       <c r="M39" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13262,11 +13262,11 @@
       </c>
       <c r="N39">
         <f t="shared" ca="1" si="8"/>
-        <v>0.12149999999999972</v>
+        <v>0.43499999999999961</v>
       </c>
       <c r="O39">
         <f t="shared" ca="1" si="9"/>
-        <v>-2.000000000000024E-2</v>
+        <v>0.19999999999999973</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
@@ -13284,7 +13284,7 @@
       </c>
       <c r="D40">
         <f ca="1">(Tracker!G40+Tracker!H40)/2</f>
-        <v>120</v>
+        <v>96.5</v>
       </c>
       <c r="E40" s="34">
         <f>IF(OR(Tracker!F40="denied",Tracker!F40="on hold",Tracker!F40="No Response",Tracker!F40="pending"), 0.2, IF(Tracker!F40="interviewing", 0.4, IF(Tracker!F40="rejected", 0.3, IF(Tracker!F40="offer", 1, 0))))</f>
@@ -13307,11 +13307,11 @@
       </c>
       <c r="J40">
         <f t="shared" ca="1" si="5"/>
-        <v>1.0619999999999994</v>
+        <v>0.32527499999999998</v>
       </c>
       <c r="K40">
         <f t="shared" ca="1" si="6"/>
-        <v>0.50800000000000001</v>
+        <v>1.6850000000000254E-2</v>
       </c>
       <c r="M40" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13319,11 +13319,11 @@
       </c>
       <c r="N40">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0619999999999994</v>
+        <v>0.32527499999999998</v>
       </c>
       <c r="O40">
         <f t="shared" ca="1" si="9"/>
-        <v>0.50800000000000001</v>
+        <v>1.6850000000000254E-2</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
@@ -13341,7 +13341,7 @@
       </c>
       <c r="D41">
         <f ca="1">(Tracker!G41+Tracker!H41)/2</f>
-        <v>101.5</v>
+        <v>104</v>
       </c>
       <c r="E41" s="34">
         <f>IF(OR(Tracker!F41="denied",Tracker!F41="on hold",Tracker!F41="No Response",Tracker!F41="pending"), 0.2, IF(Tracker!F41="interviewing", 0.4, IF(Tracker!F41="rejected", 0.3, IF(Tracker!F41="offer", 1, 0))))</f>
@@ -13364,7 +13364,7 @@
       </c>
       <c r="J41">
         <f t="shared" ca="1" si="5"/>
-        <v>0.48202500000000015</v>
+        <v>0.56039999999999957</v>
       </c>
       <c r="K41">
         <f t="shared" ca="1" si="6"/>
@@ -13376,7 +13376,7 @@
       </c>
       <c r="N41">
         <f t="shared" ca="1" si="8"/>
-        <v>0.48202500000000015</v>
+        <v>0.56039999999999957</v>
       </c>
       <c r="O41">
         <f t="shared" ca="1" si="9"/>
@@ -13398,7 +13398,7 @@
       </c>
       <c r="D42">
         <f ca="1">(Tracker!G42+Tracker!H42)/2</f>
-        <v>99.5</v>
+        <v>91.5</v>
       </c>
       <c r="E42" s="34">
         <f>IF(OR(Tracker!F42="denied",Tracker!F42="on hold",Tracker!F42="No Response",Tracker!F42="pending"), 0.2, IF(Tracker!F42="interviewing", 0.4, IF(Tracker!F42="rejected", 0.3, IF(Tracker!F42="offer", 1, 0))))</f>
@@ -13421,11 +13421,11 @@
       </c>
       <c r="J42">
         <f t="shared" ca="1" si="5"/>
-        <v>0.41932499999999973</v>
+        <v>0.16852499999999981</v>
       </c>
       <c r="K42">
         <f t="shared" ca="1" si="6"/>
-        <v>1.4659166666666668</v>
+        <v>1.1872500000000001</v>
       </c>
       <c r="M42" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13433,11 +13433,11 @@
       </c>
       <c r="N42">
         <f t="shared" ca="1" si="8"/>
-        <v>0.41932499999999973</v>
+        <v>0.16852499999999981</v>
       </c>
       <c r="O42">
         <f t="shared" ca="1" si="9"/>
-        <v>1.4659166666666668</v>
+        <v>1.1872500000000001</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
@@ -13455,7 +13455,7 @@
       </c>
       <c r="D43">
         <f ca="1">(Tracker!G43+Tracker!H43)/2</f>
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="E43" s="34">
         <f>IF(OR(Tracker!F43="denied",Tracker!F43="on hold",Tracker!F43="No Response",Tracker!F43="pending"), 0.2, IF(Tracker!F43="interviewing", 0.4, IF(Tracker!F43="rejected", 0.3, IF(Tracker!F43="offer", 1, 0))))</f>
@@ -13478,7 +13478,7 @@
       </c>
       <c r="J43">
         <f t="shared" ca="1" si="5"/>
-        <v>0.93659999999999988</v>
+        <v>0.56039999999999957</v>
       </c>
       <c r="K43">
         <f t="shared" ca="1" si="6"/>
@@ -13490,7 +13490,7 @@
       </c>
       <c r="N43">
         <f t="shared" ca="1" si="8"/>
-        <v>0.93659999999999988</v>
+        <v>0.56039999999999957</v>
       </c>
       <c r="O43">
         <f t="shared" ca="1" si="9"/>
@@ -13512,7 +13512,7 @@
       </c>
       <c r="D44">
         <f ca="1">(Tracker!G44+Tracker!H44)/2</f>
-        <v>100</v>
+        <v>89.5</v>
       </c>
       <c r="E44" s="34">
         <f>IF(OR(Tracker!F44="denied",Tracker!F44="on hold",Tracker!F44="No Response",Tracker!F44="pending"), 0.2, IF(Tracker!F44="interviewing", 0.4, IF(Tracker!F44="rejected", 0.3, IF(Tracker!F44="offer", 1, 0))))</f>
@@ -13535,11 +13535,11 @@
       </c>
       <c r="J44">
         <f t="shared" ca="1" si="5"/>
-        <v>0.43499999999999961</v>
+        <v>0.10582499999999939</v>
       </c>
       <c r="K44">
         <f t="shared" ca="1" si="6"/>
-        <v>8.9999999999999858E-2</v>
+        <v>-0.12944999999999962</v>
       </c>
       <c r="M44" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13547,11 +13547,11 @@
       </c>
       <c r="N44">
         <f t="shared" ca="1" si="8"/>
-        <v>0.43499999999999961</v>
+        <v>0.10582499999999939</v>
       </c>
       <c r="O44">
         <f t="shared" ca="1" si="9"/>
-        <v>8.9999999999999858E-2</v>
+        <v>-0.12944999999999962</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
@@ -13569,7 +13569,7 @@
       </c>
       <c r="D45">
         <f ca="1">(Tracker!G45+Tracker!H45)/2</f>
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E45" s="34">
         <f>IF(OR(Tracker!F45="denied",Tracker!F45="on hold",Tracker!F45="No Response",Tracker!F45="pending"), 0.2, IF(Tracker!F45="interviewing", 0.4, IF(Tracker!F45="rejected", 0.3, IF(Tracker!F45="offer", 1, 0))))</f>
@@ -13592,11 +13592,11 @@
       </c>
       <c r="J45">
         <f t="shared" ca="1" si="5"/>
-        <v>0.46634999999999938</v>
+        <v>0.15285000000000037</v>
       </c>
       <c r="K45">
         <f t="shared" ca="1" si="6"/>
-        <v>0.11090000000000044</v>
+        <v>-9.8100000000000076E-2</v>
       </c>
       <c r="M45" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13604,11 +13604,11 @@
       </c>
       <c r="N45">
         <f t="shared" ca="1" si="8"/>
-        <v>0.46634999999999938</v>
+        <v>0.15285000000000037</v>
       </c>
       <c r="O45">
         <f t="shared" ca="1" si="9"/>
-        <v>0.11090000000000044</v>
+        <v>-9.8100000000000076E-2</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
@@ -13626,7 +13626,7 @@
       </c>
       <c r="D46">
         <f ca="1">(Tracker!G46+Tracker!H46)/2</f>
-        <v>97</v>
+        <v>113.5</v>
       </c>
       <c r="E46" s="34">
         <f>IF(OR(Tracker!F46="denied",Tracker!F46="on hold",Tracker!F46="No Response",Tracker!F46="pending"), 0.2, IF(Tracker!F46="interviewing", 0.4, IF(Tracker!F46="rejected", 0.3, IF(Tracker!F46="offer", 1, 0))))</f>
@@ -13649,11 +13649,11 @@
       </c>
       <c r="J46">
         <f t="shared" ca="1" si="5"/>
-        <v>0.34094999999999942</v>
+        <v>0.85822499999999913</v>
       </c>
       <c r="K46">
         <f t="shared" ca="1" si="6"/>
-        <v>2.7300000000000324E-2</v>
+        <v>0.37215000000000042</v>
       </c>
       <c r="M46" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13661,11 +13661,11 @@
       </c>
       <c r="N46">
         <f t="shared" ca="1" si="8"/>
-        <v>0.34094999999999942</v>
+        <v>0.85822499999999913</v>
       </c>
       <c r="O46">
         <f t="shared" ca="1" si="9"/>
-        <v>2.7300000000000324E-2</v>
+        <v>0.37215000000000042</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
@@ -13683,7 +13683,7 @@
       </c>
       <c r="D47">
         <f ca="1">(Tracker!G47+Tracker!H47)/2</f>
-        <v>111</v>
+        <v>95.5</v>
       </c>
       <c r="E47" s="34">
         <f>IF(OR(Tracker!F47="denied",Tracker!F47="on hold",Tracker!F47="No Response",Tracker!F47="pending"), 0.2, IF(Tracker!F47="interviewing", 0.4, IF(Tracker!F47="rejected", 0.3, IF(Tracker!F47="offer", 1, 0))))</f>
@@ -13706,11 +13706,11 @@
       </c>
       <c r="J47">
         <f t="shared" ca="1" si="5"/>
-        <v>0.77985000000000015</v>
+        <v>0.29392499999999977</v>
       </c>
       <c r="K47">
         <f t="shared" ca="1" si="6"/>
-        <v>0.31990000000000052</v>
+        <v>-4.049999999999887E-3</v>
       </c>
       <c r="M47" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13718,11 +13718,11 @@
       </c>
       <c r="N47">
         <f t="shared" ca="1" si="8"/>
-        <v>0.77985000000000015</v>
+        <v>0.29392499999999977</v>
       </c>
       <c r="O47">
         <f t="shared" ca="1" si="9"/>
-        <v>0.31990000000000052</v>
+        <v>-4.049999999999887E-3</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
@@ -13740,7 +13740,7 @@
       </c>
       <c r="D48">
         <f ca="1">(Tracker!G48+Tracker!H48)/2</f>
-        <v>101</v>
+        <v>104.5</v>
       </c>
       <c r="E48" s="34">
         <f>IF(OR(Tracker!F48="denied",Tracker!F48="on hold",Tracker!F48="No Response",Tracker!F48="pending"), 0.2, IF(Tracker!F48="interviewing", 0.4, IF(Tracker!F48="rejected", 0.3, IF(Tracker!F48="offer", 1, 0))))</f>
@@ -13763,11 +13763,11 @@
       </c>
       <c r="J48">
         <f t="shared" ca="1" si="5"/>
-        <v>0.46634999999999938</v>
+        <v>0.57607499999999945</v>
       </c>
       <c r="K48">
         <f t="shared" ca="1" si="6"/>
-        <v>1.1663499999999996</v>
+        <v>1.2760749999999996</v>
       </c>
       <c r="M48" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13775,11 +13775,11 @@
       </c>
       <c r="N48">
         <f t="shared" ca="1" si="8"/>
-        <v>0.46634999999999938</v>
+        <v>0.57607499999999945</v>
       </c>
       <c r="O48">
         <f t="shared" ca="1" si="9"/>
-        <v>1.1663499999999996</v>
+        <v>1.2760749999999996</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
@@ -13797,7 +13797,7 @@
       </c>
       <c r="D49">
         <f ca="1">(Tracker!G49+Tracker!H49)/2</f>
-        <v>104.5</v>
+        <v>103.5</v>
       </c>
       <c r="E49" s="34">
         <f>IF(OR(Tracker!F49="denied",Tracker!F49="on hold",Tracker!F49="No Response",Tracker!F49="pending"), 0.2, IF(Tracker!F49="interviewing", 0.4, IF(Tracker!F49="rejected", 0.3, IF(Tracker!F49="offer", 1, 0))))</f>
@@ -13820,11 +13820,11 @@
       </c>
       <c r="J49">
         <f t="shared" ca="1" si="5"/>
-        <v>0.57607499999999945</v>
+        <v>0.54472499999999968</v>
       </c>
       <c r="K49">
         <f t="shared" ca="1" si="6"/>
-        <v>0.18405000000000049</v>
+        <v>0.16315000000000079</v>
       </c>
       <c r="M49" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13832,11 +13832,11 @@
       </c>
       <c r="N49">
         <f t="shared" ca="1" si="8"/>
-        <v>0.57607499999999945</v>
+        <v>0.54472499999999968</v>
       </c>
       <c r="O49">
         <f t="shared" ca="1" si="9"/>
-        <v>0.18405000000000049</v>
+        <v>0.16315000000000079</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
@@ -13854,7 +13854,7 @@
       </c>
       <c r="D50">
         <f ca="1">(Tracker!G50+Tracker!H50)/2</f>
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="E50" s="34">
         <f>IF(OR(Tracker!F50="denied",Tracker!F50="on hold",Tracker!F50="No Response",Tracker!F50="pending"), 0.2, IF(Tracker!F50="interviewing", 0.4, IF(Tracker!F50="rejected", 0.3, IF(Tracker!F50="offer", 1, 0))))</f>
@@ -13877,11 +13877,11 @@
       </c>
       <c r="J50">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.12930000000000064</v>
+        <v>0.43499999999999961</v>
       </c>
       <c r="K50">
         <f t="shared" ca="1" si="6"/>
-        <v>0.57069999999999954</v>
+        <v>1.1349999999999998</v>
       </c>
       <c r="M50" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13889,11 +13889,11 @@
       </c>
       <c r="N50">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.12930000000000064</v>
+        <v>0.43499999999999961</v>
       </c>
       <c r="O50">
         <f t="shared" ca="1" si="9"/>
-        <v>0.57069999999999954</v>
+        <v>1.1349999999999998</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
@@ -13911,7 +13911,7 @@
       </c>
       <c r="D51">
         <f ca="1">(Tracker!G51+Tracker!H51)/2</f>
-        <v>103.5</v>
+        <v>91</v>
       </c>
       <c r="E51" s="34">
         <f>IF(OR(Tracker!F51="denied",Tracker!F51="on hold",Tracker!F51="No Response",Tracker!F51="pending"), 0.2, IF(Tracker!F51="interviewing", 0.4, IF(Tracker!F51="rejected", 0.3, IF(Tracker!F51="offer", 1, 0))))</f>
@@ -13934,11 +13934,11 @@
       </c>
       <c r="J51">
         <f t="shared" ca="1" si="5"/>
-        <v>0.54472499999999968</v>
+        <v>0.15285000000000037</v>
       </c>
       <c r="K51">
         <f t="shared" ca="1" si="6"/>
-        <v>0.16315000000000079</v>
+        <v>-9.8100000000000076E-2</v>
       </c>
       <c r="M51" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13946,11 +13946,11 @@
       </c>
       <c r="N51">
         <f t="shared" ca="1" si="8"/>
-        <v>0.54472499999999968</v>
+        <v>0.15285000000000037</v>
       </c>
       <c r="O51">
         <f t="shared" ca="1" si="9"/>
-        <v>0.16315000000000079</v>
+        <v>-9.8100000000000076E-2</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
@@ -13968,7 +13968,7 @@
       </c>
       <c r="D52">
         <f ca="1">(Tracker!G52+Tracker!H52)/2</f>
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="E52" s="34">
         <f>IF(OR(Tracker!F52="denied",Tracker!F52="on hold",Tracker!F52="No Response",Tracker!F52="pending"), 0.2, IF(Tracker!F52="interviewing", 0.4, IF(Tracker!F52="rejected", 0.3, IF(Tracker!F52="offer", 1, 0))))</f>
@@ -13991,11 +13991,11 @@
       </c>
       <c r="J52">
         <f t="shared" ca="1" si="5"/>
-        <v>-3.5250000000000004E-2</v>
+        <v>1.0306499999999992</v>
       </c>
       <c r="K52">
         <f t="shared" ca="1" si="6"/>
-        <v>0.66475000000000017</v>
+        <v>1.7306499999999994</v>
       </c>
       <c r="M52" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14003,11 +14003,11 @@
       </c>
       <c r="N52">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.5250000000000004E-2</v>
+        <v>1.0306499999999992</v>
       </c>
       <c r="O52">
         <f t="shared" ca="1" si="9"/>
-        <v>0.66475000000000017</v>
+        <v>1.7306499999999994</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.35">
@@ -14025,7 +14025,7 @@
       </c>
       <c r="D53">
         <f ca="1">(Tracker!G53+Tracker!H53)/2</f>
-        <v>114.5</v>
+        <v>107</v>
       </c>
       <c r="E53" s="34">
         <f>IF(OR(Tracker!F53="denied",Tracker!F53="on hold",Tracker!F53="No Response",Tracker!F53="pending"), 0.2, IF(Tracker!F53="interviewing", 0.4, IF(Tracker!F53="rejected", 0.3, IF(Tracker!F53="offer", 1, 0))))</f>
@@ -14048,11 +14048,11 @@
       </c>
       <c r="J53">
         <f t="shared" ca="1" si="5"/>
-        <v>0.88957499999999978</v>
+        <v>0.65444999999999975</v>
       </c>
       <c r="K53">
         <f t="shared" ca="1" si="6"/>
-        <v>2.7861000000000002</v>
+        <v>2.4726000000000008</v>
       </c>
       <c r="M53" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14060,11 +14060,11 @@
       </c>
       <c r="N53">
         <f t="shared" ca="1" si="8"/>
-        <v>0.88957499999999978</v>
+        <v>0.65444999999999975</v>
       </c>
       <c r="O53">
         <f t="shared" ca="1" si="9"/>
-        <v>2.7861000000000002</v>
+        <v>2.4726000000000008</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.35">
@@ -14082,7 +14082,7 @@
       </c>
       <c r="D54">
         <f ca="1">(Tracker!G54+Tracker!H54)/2</f>
-        <v>96.5</v>
+        <v>111.5</v>
       </c>
       <c r="E54" s="34">
         <f>IF(OR(Tracker!F54="denied",Tracker!F54="on hold",Tracker!F54="No Response",Tracker!F54="pending"), 0.2, IF(Tracker!F54="interviewing", 0.4, IF(Tracker!F54="rejected", 0.3, IF(Tracker!F54="offer", 1, 0))))</f>
@@ -14105,11 +14105,11 @@
       </c>
       <c r="J54">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0249999999999684E-2</v>
+        <v>0.47774999999999901</v>
       </c>
       <c r="K54">
         <f t="shared" ca="1" si="6"/>
-        <v>1.6669999999999998</v>
+        <v>2.2369999999999992</v>
       </c>
       <c r="M54" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14117,11 +14117,11 @@
       </c>
       <c r="N54">
         <f t="shared" ca="1" si="8"/>
-        <v>5.0249999999999684E-2</v>
+        <v>0.47774999999999901</v>
       </c>
       <c r="O54">
         <f t="shared" ca="1" si="9"/>
-        <v>1.6669999999999998</v>
+        <v>2.2369999999999992</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.35">
@@ -14139,7 +14139,7 @@
       </c>
       <c r="D55">
         <f ca="1">(Tracker!G55+Tracker!H55)/2</f>
-        <v>104.5</v>
+        <v>108.5</v>
       </c>
       <c r="E55" s="34">
         <f>IF(OR(Tracker!F55="denied",Tracker!F55="on hold",Tracker!F55="No Response",Tracker!F55="pending"), 0.2, IF(Tracker!F55="interviewing", 0.4, IF(Tracker!F55="rejected", 0.3, IF(Tracker!F55="offer", 1, 0))))</f>
@@ -14162,11 +14162,11 @@
       </c>
       <c r="J55">
         <f t="shared" ca="1" si="5"/>
-        <v>0.27824999999999944</v>
+        <v>0.39224999999999932</v>
       </c>
       <c r="K55">
         <f t="shared" ca="1" si="6"/>
-        <v>0.97824999999999962</v>
+        <v>1.0922499999999995</v>
       </c>
       <c r="M55" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14174,11 +14174,11 @@
       </c>
       <c r="N55">
         <f t="shared" ca="1" si="8"/>
-        <v>0.27824999999999944</v>
+        <v>0.39224999999999932</v>
       </c>
       <c r="O55">
         <f t="shared" ca="1" si="9"/>
-        <v>0.97824999999999962</v>
+        <v>1.0922499999999995</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
@@ -14196,7 +14196,7 @@
       </c>
       <c r="D56">
         <f ca="1">(Tracker!G56+Tracker!H56)/2</f>
-        <v>80.5</v>
+        <v>97.5</v>
       </c>
       <c r="E56" s="34">
         <f>IF(OR(Tracker!F56="denied",Tracker!F56="on hold",Tracker!F56="No Response",Tracker!F56="pending"), 0.2, IF(Tracker!F56="interviewing", 0.4, IF(Tracker!F56="rejected", 0.3, IF(Tracker!F56="offer", 1, 0))))</f>
@@ -14219,11 +14219,11 @@
       </c>
       <c r="J56">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.40575000000000028</v>
+        <v>7.8749999999999432E-2</v>
       </c>
       <c r="K56">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.47049999999999992</v>
+        <v>-0.14750000000000019</v>
       </c>
       <c r="M56" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14231,11 +14231,11 @@
       </c>
       <c r="N56">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.40575000000000028</v>
+        <v>7.8749999999999432E-2</v>
       </c>
       <c r="O56">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.47049999999999992</v>
+        <v>-0.14750000000000019</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.35">
@@ -14253,7 +14253,7 @@
       </c>
       <c r="D57">
         <f ca="1">(Tracker!G57+Tracker!H57)/2</f>
-        <v>100.5</v>
+        <v>97.5</v>
       </c>
       <c r="E57" s="34">
         <f>IF(OR(Tracker!F57="denied",Tracker!F57="on hold",Tracker!F57="No Response",Tracker!F57="pending"), 0.2, IF(Tracker!F57="interviewing", 0.4, IF(Tracker!F57="rejected", 0.3, IF(Tracker!F57="offer", 1, 0))))</f>
@@ -14276,11 +14276,11 @@
       </c>
       <c r="J57">
         <f t="shared" ca="1" si="5"/>
-        <v>0.16424999999999956</v>
+        <v>7.8749999999999432E-2</v>
       </c>
       <c r="K57">
         <f t="shared" ca="1" si="6"/>
-        <v>-9.0500000000000025E-2</v>
+        <v>-0.14750000000000019</v>
       </c>
       <c r="M57" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14288,11 +14288,11 @@
       </c>
       <c r="N57">
         <f t="shared" ca="1" si="8"/>
-        <v>0.16424999999999956</v>
+        <v>7.8749999999999432E-2</v>
       </c>
       <c r="O57">
         <f t="shared" ca="1" si="9"/>
-        <v>-9.0500000000000025E-2</v>
+        <v>-0.14750000000000019</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.35">
@@ -14310,7 +14310,7 @@
       </c>
       <c r="D58">
         <f ca="1">(Tracker!G58+Tracker!H58)/2</f>
-        <v>85.5</v>
+        <v>104.5</v>
       </c>
       <c r="E58" s="34">
         <f>IF(OR(Tracker!F58="denied",Tracker!F58="on hold",Tracker!F58="No Response",Tracker!F58="pending"), 0.2, IF(Tracker!F58="interviewing", 0.4, IF(Tracker!F58="rejected", 0.3, IF(Tracker!F58="offer", 1, 0))))</f>
@@ -14333,11 +14333,11 @@
       </c>
       <c r="J58">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.26325000000000065</v>
+        <v>0.27824999999999944</v>
       </c>
       <c r="K58">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.37549999999999994</v>
+        <v>-1.4499999999999957E-2</v>
       </c>
       <c r="M58" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14345,11 +14345,11 @@
       </c>
       <c r="N58">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.26325000000000065</v>
+        <v>0.27824999999999944</v>
       </c>
       <c r="O58">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.37549999999999994</v>
+        <v>-1.4499999999999957E-2</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.35">
@@ -14367,7 +14367,7 @@
       </c>
       <c r="D59">
         <f ca="1">(Tracker!G59+Tracker!H59)/2</f>
-        <v>101.5</v>
+        <v>106.5</v>
       </c>
       <c r="E59" s="34">
         <f>IF(OR(Tracker!F59="denied",Tracker!F59="on hold",Tracker!F59="No Response",Tracker!F59="pending"), 0.2, IF(Tracker!F59="interviewing", 0.4, IF(Tracker!F59="rejected", 0.3, IF(Tracker!F59="offer", 1, 0))))</f>
@@ -14390,11 +14390,11 @@
       </c>
       <c r="J59">
         <f t="shared" ca="1" si="5"/>
-        <v>0.19274999999999975</v>
+        <v>0.33524999999999983</v>
       </c>
       <c r="K59">
         <f t="shared" ca="1" si="6"/>
-        <v>-7.1499999999999897E-2</v>
+        <v>2.3499999999999854E-2</v>
       </c>
       <c r="M59" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14402,11 +14402,11 @@
       </c>
       <c r="N59">
         <f t="shared" ca="1" si="8"/>
-        <v>0.19274999999999975</v>
+        <v>0.33524999999999983</v>
       </c>
       <c r="O59">
         <f t="shared" ca="1" si="9"/>
-        <v>-7.1499999999999897E-2</v>
+        <v>2.3499999999999854E-2</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.35">
@@ -14424,7 +14424,7 @@
       </c>
       <c r="D60">
         <f ca="1">(Tracker!G60+Tracker!H60)/2</f>
-        <v>96</v>
+        <v>89.5</v>
       </c>
       <c r="E60" s="34">
         <f>IF(OR(Tracker!F60="denied",Tracker!F60="on hold",Tracker!F60="No Response",Tracker!F60="pending"), 0.2, IF(Tracker!F60="interviewing", 0.4, IF(Tracker!F60="rejected", 0.3, IF(Tracker!F60="offer", 1, 0))))</f>
@@ -14447,11 +14447,11 @@
       </c>
       <c r="J60">
         <f t="shared" ca="1" si="5"/>
-        <v>3.5999999999999588E-2</v>
+        <v>-0.14925000000000033</v>
       </c>
       <c r="K60">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.17599999999999971</v>
+        <v>-0.29949999999999966</v>
       </c>
       <c r="M60" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14459,11 +14459,11 @@
       </c>
       <c r="N60">
         <f t="shared" ca="1" si="8"/>
-        <v>3.5999999999999588E-2</v>
+        <v>-0.14925000000000033</v>
       </c>
       <c r="O60">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.17599999999999971</v>
+        <v>-0.29949999999999966</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.35">
@@ -14481,7 +14481,7 @@
       </c>
       <c r="D61">
         <f ca="1">(Tracker!G61+Tracker!H61)/2</f>
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="E61" s="34">
         <f>IF(OR(Tracker!F61="denied",Tracker!F61="on hold",Tracker!F61="No Response",Tracker!F61="pending"), 0.2, IF(Tracker!F61="interviewing", 0.4, IF(Tracker!F61="rejected", 0.3, IF(Tracker!F61="offer", 1, 0))))</f>
@@ -14504,11 +14504,11 @@
       </c>
       <c r="J61">
         <f t="shared" ca="1" si="5"/>
-        <v>0.69149999999999912</v>
+        <v>-0.13500000000000023</v>
       </c>
       <c r="K61">
         <f t="shared" ca="1" si="6"/>
-        <v>0.26100000000000012</v>
+        <v>-0.29000000000000026</v>
       </c>
       <c r="M61" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14516,11 +14516,11 @@
       </c>
       <c r="N61">
         <f t="shared" ca="1" si="8"/>
-        <v>0.69149999999999912</v>
+        <v>-0.13500000000000023</v>
       </c>
       <c r="O61">
         <f t="shared" ca="1" si="9"/>
-        <v>0.26100000000000012</v>
+        <v>-0.29000000000000026</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.35">
@@ -14538,7 +14538,7 @@
       </c>
       <c r="D62">
         <f ca="1">(Tracker!G62+Tracker!H62)/2</f>
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E62" s="34">
         <f>IF(OR(Tracker!F62="denied",Tracker!F62="on hold",Tracker!F62="No Response",Tracker!F62="pending"), 0.2, IF(Tracker!F62="interviewing", 0.4, IF(Tracker!F62="rejected", 0.3, IF(Tracker!F62="offer", 1, 0))))</f>
@@ -14561,11 +14561,11 @@
       </c>
       <c r="J62">
         <f t="shared" ca="1" si="5"/>
-        <v>0.20699999999999941</v>
+        <v>0.14999999999999991</v>
       </c>
       <c r="K62">
         <f t="shared" ca="1" si="6"/>
-        <v>0.90699999999999958</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="M62" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14573,11 +14573,11 @@
       </c>
       <c r="N62">
         <f t="shared" ca="1" si="8"/>
-        <v>0.20699999999999941</v>
+        <v>0.14999999999999991</v>
       </c>
       <c r="O62">
         <f t="shared" ca="1" si="9"/>
-        <v>0.90699999999999958</v>
+        <v>0.85000000000000009</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.35">
@@ -14595,7 +14595,7 @@
       </c>
       <c r="D63">
         <f ca="1">(Tracker!G63+Tracker!H63)/2</f>
-        <v>100.5</v>
+        <v>112</v>
       </c>
       <c r="E63" s="34">
         <f>IF(OR(Tracker!F63="denied",Tracker!F63="on hold",Tracker!F63="No Response",Tracker!F63="pending"), 0.2, IF(Tracker!F63="interviewing", 0.4, IF(Tracker!F63="rejected", 0.3, IF(Tracker!F63="offer", 1, 0))))</f>
@@ -14618,11 +14618,11 @@
       </c>
       <c r="J63">
         <f t="shared" ca="1" si="5"/>
-        <v>0.16424999999999956</v>
+        <v>0.49199999999999955</v>
       </c>
       <c r="K63">
         <f t="shared" ca="1" si="6"/>
-        <v>-9.0500000000000025E-2</v>
+        <v>0.12800000000000011</v>
       </c>
       <c r="M63" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14630,11 +14630,11 @@
       </c>
       <c r="N63">
         <f t="shared" ca="1" si="8"/>
-        <v>0.16424999999999956</v>
+        <v>0.49199999999999955</v>
       </c>
       <c r="O63">
         <f t="shared" ca="1" si="9"/>
-        <v>-9.0500000000000025E-2</v>
+        <v>0.12800000000000011</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.35">
@@ -14652,7 +14652,7 @@
       </c>
       <c r="D64">
         <f ca="1">(Tracker!G64+Tracker!H64)/2</f>
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E64" s="34">
         <f>IF(OR(Tracker!F64="denied",Tracker!F64="on hold",Tracker!F64="No Response",Tracker!F64="pending"), 0.2, IF(Tracker!F64="interviewing", 0.4, IF(Tracker!F64="rejected", 0.3, IF(Tracker!F64="offer", 1, 0))))</f>
@@ -14675,11 +14675,11 @@
       </c>
       <c r="J64">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.13500000000000023</v>
+        <v>6.4499999999999336E-2</v>
       </c>
       <c r="K64">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.29000000000000026</v>
+        <v>-0.15700000000000003</v>
       </c>
       <c r="M64" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14687,11 +14687,11 @@
       </c>
       <c r="N64">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.13500000000000023</v>
+        <v>6.4499999999999336E-2</v>
       </c>
       <c r="O64">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.29000000000000026</v>
+        <v>-0.15700000000000003</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.35">
@@ -14709,7 +14709,7 @@
       </c>
       <c r="D65">
         <f ca="1">(Tracker!G65+Tracker!H65)/2</f>
-        <v>102</v>
+        <v>93.5</v>
       </c>
       <c r="E65" s="34">
         <f>IF(OR(Tracker!F65="denied",Tracker!F65="on hold",Tracker!F65="No Response",Tracker!F65="pending"), 0.2, IF(Tracker!F65="interviewing", 0.4, IF(Tracker!F65="rejected", 0.3, IF(Tracker!F65="offer", 1, 0))))</f>
@@ -14732,11 +14732,11 @@
       </c>
       <c r="J65">
         <f t="shared" ca="1" si="5"/>
-        <v>-8.370000000000033E-2</v>
+        <v>-0.30172500000000024</v>
       </c>
       <c r="K65">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.25579999999999958</v>
+        <v>-0.40115000000000012</v>
       </c>
       <c r="M65" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14744,11 +14744,11 @@
       </c>
       <c r="N65">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.370000000000033E-2</v>
+        <v>-0.30172500000000024</v>
       </c>
       <c r="O65">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.25579999999999958</v>
+        <v>-0.40115000000000012</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.35">
@@ -14766,7 +14766,7 @@
       </c>
       <c r="D66">
         <f ca="1">(Tracker!G66+Tracker!H66)/2</f>
-        <v>92</v>
+        <v>92.5</v>
       </c>
       <c r="E66" s="34">
         <f>IF(OR(Tracker!F66="denied",Tracker!F66="on hold",Tracker!F66="No Response",Tracker!F66="pending"), 0.2, IF(Tracker!F66="interviewing", 0.4, IF(Tracker!F66="rejected", 0.3, IF(Tracker!F66="offer", 1, 0))))</f>
@@ -14789,11 +14789,11 @@
       </c>
       <c r="J66">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.34020000000000028</v>
+        <v>-0.32737499999999997</v>
       </c>
       <c r="K66">
         <f t="shared" ca="1" si="6"/>
-        <v>0.49714285714285733</v>
+        <v>0.51071428571428612</v>
       </c>
       <c r="M66" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14801,11 +14801,11 @@
       </c>
       <c r="N66">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.34020000000000028</v>
+        <v>-0.32737499999999997</v>
       </c>
       <c r="O66">
         <f t="shared" ca="1" si="9"/>
-        <v>0.49714285714285733</v>
+        <v>0.51071428571428612</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.35">
@@ -14823,7 +14823,7 @@
       </c>
       <c r="D67">
         <f ca="1">(Tracker!G67+Tracker!H67)/2</f>
-        <v>81</v>
+        <v>99.5</v>
       </c>
       <c r="E67" s="34">
         <f>IF(OR(Tracker!F67="denied",Tracker!F67="on hold",Tracker!F67="No Response",Tracker!F67="pending"), 0.2, IF(Tracker!F67="interviewing", 0.4, IF(Tracker!F67="rejected", 0.3, IF(Tracker!F67="offer", 1, 0))))</f>
@@ -14846,11 +14846,11 @@
       </c>
       <c r="J67">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.6223500000000004</v>
+        <v>-0.14782500000000054</v>
       </c>
       <c r="K67">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.46100000000000008</v>
+        <v>-0.10949999999999971</v>
       </c>
       <c r="M67" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14858,11 +14858,11 @@
       </c>
       <c r="N67">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.6223500000000004</v>
+        <v>-0.14782500000000054</v>
       </c>
       <c r="O67">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.46100000000000008</v>
+        <v>-0.10949999999999971</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.35">
@@ -14880,7 +14880,7 @@
       </c>
       <c r="D68">
         <f ca="1">(Tracker!G68+Tracker!H68)/2</f>
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E68" s="34">
         <f>IF(OR(Tracker!F68="denied",Tracker!F68="on hold",Tracker!F68="No Response",Tracker!F68="pending"), 0.2, IF(Tracker!F68="interviewing", 0.4, IF(Tracker!F68="rejected", 0.3, IF(Tracker!F68="offer", 1, 0))))</f>
@@ -14903,7 +14903,7 @@
       </c>
       <c r="J68">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.41715000000000035</v>
+        <v>-0.34020000000000028</v>
       </c>
       <c r="K68">
         <f t="shared" ca="1" si="6"/>
@@ -14915,7 +14915,7 @@
       </c>
       <c r="N68">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.41715000000000035</v>
+        <v>-0.34020000000000028</v>
       </c>
       <c r="O68">
         <f t="shared" ca="1" si="9"/>
@@ -14937,7 +14937,7 @@
       </c>
       <c r="D69">
         <f ca="1">(Tracker!G69+Tracker!H69)/2</f>
-        <v>113.5</v>
+        <v>115.5</v>
       </c>
       <c r="E69" s="34">
         <f>IF(OR(Tracker!F69="denied",Tracker!F69="on hold",Tracker!F69="No Response",Tracker!F69="pending"), 0.2, IF(Tracker!F69="interviewing", 0.4, IF(Tracker!F69="rejected", 0.3, IF(Tracker!F69="offer", 1, 0))))</f>
@@ -14960,11 +14960,11 @@
       </c>
       <c r="J69">
         <f t="shared" ca="1" si="5"/>
-        <v>0.21127499999999966</v>
+        <v>0.26257499999999956</v>
       </c>
       <c r="K69">
         <f t="shared" ca="1" si="6"/>
-        <v>0.15650000000000031</v>
+        <v>0.19450000000000012</v>
       </c>
       <c r="M69" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14972,11 +14972,11 @@
       </c>
       <c r="N69">
         <f t="shared" ca="1" si="8"/>
-        <v>0.21127499999999966</v>
+        <v>0.26257499999999956</v>
       </c>
       <c r="O69">
         <f t="shared" ca="1" si="9"/>
-        <v>0.15650000000000031</v>
+        <v>0.19450000000000012</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.35">
@@ -14994,7 +14994,7 @@
       </c>
       <c r="D70">
         <f ca="1">(Tracker!G70+Tracker!H70)/2</f>
-        <v>92</v>
+        <v>109.5</v>
       </c>
       <c r="E70" s="34">
         <f>IF(OR(Tracker!F70="denied",Tracker!F70="on hold",Tracker!F70="No Response",Tracker!F70="pending"), 0.2, IF(Tracker!F70="interviewing", 0.4, IF(Tracker!F70="rejected", 0.3, IF(Tracker!F70="offer", 1, 0))))</f>
@@ -15017,11 +15017,11 @@
       </c>
       <c r="J70">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.34020000000000028</v>
+        <v>0.10867499999999986</v>
       </c>
       <c r="K70">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.25199999999999978</v>
+        <v>8.0499999999999794E-2</v>
       </c>
       <c r="M70" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -15029,11 +15029,11 @@
       </c>
       <c r="N70">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.34020000000000028</v>
+        <v>0.10867499999999986</v>
       </c>
       <c r="O70">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.25199999999999978</v>
+        <v>8.0499999999999794E-2</v>
       </c>
     </row>
   </sheetData>

--- a/example_app_tracker.xlsx
+++ b/example_app_tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\graha\OneDrive\Documents\GitHub\application_tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE30F25-3399-4B7C-98D4-BB1F5E2E1B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88418E68-F0B2-4FF4-9761-772D37C558B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17180" yWindow="3840" windowWidth="20200" windowHeight="15960" activeTab="3" xr2:uid="{85E7A6A4-6F22-48D9-815F-FC03736B7AC4}"/>
+    <workbookView xWindow="17180" yWindow="3840" windowWidth="20200" windowHeight="15960" xr2:uid="{85E7A6A4-6F22-48D9-815F-FC03736B7AC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="240">
   <si>
     <t>Company</t>
   </si>
@@ -952,9 +952,6 @@
   </si>
   <si>
     <t>LinkedIn DM</t>
-  </si>
-  <si>
-    <t>Ghosted</t>
   </si>
 </sst>
 </file>
@@ -1689,10 +1686,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>11</c:v>
@@ -6837,9 +6834,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2050F9-523E-4C88-ABEB-54BB5869DFA0}">
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6913,11 +6910,11 @@
       </c>
       <c r="G2">
         <f ca="1">ROUND(RAND()*60+50,0)</f>
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="H2">
         <f ca="1">ROUND(RAND()*40+100,0)</f>
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>11</v>
@@ -6951,11 +6948,11 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G66" ca="1" si="1">ROUND(RAND()*60+50,0)</f>
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H66" ca="1" si="2">ROUND(RAND()*40+100,0)</f>
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>11</v>
@@ -6989,11 +6986,11 @@
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="2"/>
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>11</v>
@@ -7027,11 +7024,11 @@
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="2"/>
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>10</v>
@@ -7065,11 +7062,11 @@
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="2"/>
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>11</v>
@@ -7107,7 +7104,7 @@
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="2"/>
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>11</v>
@@ -7141,11 +7138,11 @@
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="2"/>
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>11</v>
@@ -7179,11 +7176,11 @@
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="2"/>
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>11</v>
@@ -7217,11 +7214,11 @@
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="2"/>
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>13</v>
@@ -7255,11 +7252,11 @@
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="2"/>
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>11</v>
@@ -7293,11 +7290,11 @@
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="2"/>
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>11</v>
@@ -7331,11 +7328,11 @@
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="2"/>
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>10</v>
@@ -7369,11 +7366,11 @@
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="2"/>
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>10</v>
@@ -7407,11 +7404,11 @@
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="2"/>
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>10</v>
@@ -7445,11 +7442,11 @@
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="2"/>
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>15</v>
@@ -7483,7 +7480,7 @@
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="2"/>
@@ -7521,11 +7518,11 @@
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="2"/>
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>15</v>
@@ -7559,11 +7556,11 @@
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="2"/>
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>15</v>
@@ -7597,11 +7594,11 @@
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="2"/>
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>15</v>
@@ -7635,11 +7632,11 @@
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="2"/>
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>239</v>
@@ -7673,11 +7670,11 @@
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="2"/>
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>239</v>
@@ -7711,11 +7708,11 @@
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="2"/>
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>239</v>
@@ -7749,11 +7746,11 @@
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="2"/>
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>9</v>
@@ -7787,11 +7784,11 @@
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="2"/>
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>9</v>
@@ -7825,11 +7822,11 @@
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="2"/>
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>9</v>
@@ -7863,11 +7860,11 @@
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="2"/>
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>9</v>
@@ -7901,11 +7898,11 @@
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="2"/>
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>9</v>
@@ -7939,11 +7936,11 @@
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="2"/>
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>9</v>
@@ -7977,11 +7974,11 @@
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="1"/>
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="2"/>
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>9</v>
@@ -8011,15 +8008,15 @@
         <v>45752</v>
       </c>
       <c r="F31" t="s">
-        <v>240</v>
+        <v>72</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="1"/>
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="2"/>
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>9</v>
@@ -8057,7 +8054,7 @@
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="2"/>
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>15</v>
@@ -8091,11 +8088,11 @@
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="2"/>
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>17</v>
@@ -8129,11 +8126,11 @@
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="2"/>
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>17</v>
@@ -8167,11 +8164,11 @@
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="2"/>
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>17</v>
@@ -8205,11 +8202,11 @@
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="2"/>
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>17</v>
@@ -8243,11 +8240,11 @@
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="1"/>
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="2"/>
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>19</v>
@@ -8281,11 +8278,11 @@
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="2"/>
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>19</v>
@@ -8319,11 +8316,11 @@
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="2"/>
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>19</v>
@@ -8357,11 +8354,11 @@
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="2"/>
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>19</v>
@@ -8391,15 +8388,15 @@
         <v>45783</v>
       </c>
       <c r="F41" t="s">
-        <v>240</v>
+        <v>2</v>
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="2"/>
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>19</v>
@@ -8433,11 +8430,11 @@
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="2"/>
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>19</v>
@@ -8467,15 +8464,15 @@
         <v>45785</v>
       </c>
       <c r="F43" t="s">
-        <v>240</v>
+        <v>2</v>
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="2"/>
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>19</v>
@@ -8509,11 +8506,11 @@
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="2"/>
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>21</v>
@@ -8547,11 +8544,11 @@
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="2"/>
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>21</v>
@@ -8585,11 +8582,11 @@
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="2"/>
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>21</v>
@@ -8623,11 +8620,11 @@
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="2"/>
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>21</v>
@@ -8661,11 +8658,11 @@
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H48">
         <f t="shared" ca="1" si="2"/>
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>21</v>
@@ -8699,11 +8696,11 @@
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="2"/>
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>21</v>
@@ -8741,7 +8738,7 @@
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="2"/>
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>21</v>
@@ -8775,11 +8772,11 @@
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="2"/>
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>39</v>
@@ -8813,11 +8810,11 @@
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="1"/>
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="H52">
         <f t="shared" ca="1" si="2"/>
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>39</v>
@@ -8851,11 +8848,11 @@
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="1"/>
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="H53">
         <f t="shared" ca="1" si="2"/>
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>39</v>
@@ -8889,11 +8886,11 @@
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="2"/>
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>39</v>
@@ -8927,11 +8924,11 @@
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="1"/>
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="2"/>
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>39</v>
@@ -8965,11 +8962,11 @@
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H56">
         <f t="shared" ca="1" si="2"/>
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>39</v>
@@ -9003,11 +9000,11 @@
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="H57">
         <f t="shared" ca="1" si="2"/>
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>39</v>
@@ -9041,11 +9038,11 @@
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="1"/>
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="H58">
         <f t="shared" ca="1" si="2"/>
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>39</v>
@@ -9079,11 +9076,11 @@
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="1"/>
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="H59">
         <f t="shared" ca="1" si="2"/>
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>39</v>
@@ -9117,11 +9114,11 @@
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="H60">
         <f t="shared" ca="1" si="2"/>
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>40</v>
@@ -9155,11 +9152,11 @@
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="H61">
         <f t="shared" ca="1" si="2"/>
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>40</v>
@@ -9193,11 +9190,11 @@
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="H62">
         <f t="shared" ca="1" si="2"/>
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>40</v>
@@ -9231,11 +9228,11 @@
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H63">
         <f t="shared" ca="1" si="2"/>
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>40</v>
@@ -9269,11 +9266,11 @@
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H64">
         <f t="shared" ca="1" si="2"/>
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>40</v>
@@ -9307,11 +9304,11 @@
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="H65">
         <f t="shared" ca="1" si="2"/>
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>40</v>
@@ -9345,11 +9342,11 @@
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H66">
         <f t="shared" ca="1" si="2"/>
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>11</v>
@@ -9383,11 +9380,11 @@
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G75" ca="1" si="5">ROUND(RAND()*60+50,0)</f>
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="H67">
         <f t="shared" ref="H67:H75" ca="1" si="6">ROUND(RAND()*40+100,0)</f>
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>11</v>
@@ -9417,15 +9414,15 @@
         <v>45810</v>
       </c>
       <c r="F68" t="s">
-        <v>240</v>
+        <v>2</v>
       </c>
       <c r="G68">
         <f t="shared" ca="1" si="5"/>
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H68">
         <f t="shared" ca="1" si="6"/>
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>11</v>
@@ -9459,11 +9456,11 @@
       </c>
       <c r="G69">
         <f t="shared" ca="1" si="5"/>
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="H69">
         <f t="shared" ca="1" si="6"/>
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>11</v>
@@ -9497,11 +9494,11 @@
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="5"/>
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="H70">
         <f t="shared" ca="1" si="6"/>
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>11</v>
@@ -9535,11 +9532,11 @@
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="5"/>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H71">
         <f t="shared" ca="1" si="6"/>
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>9</v>
@@ -9573,11 +9570,11 @@
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="5"/>
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="H72">
         <f t="shared" ca="1" si="6"/>
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>9</v>
@@ -9611,11 +9608,11 @@
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="5"/>
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H73">
         <f t="shared" ca="1" si="6"/>
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>9</v>
@@ -9649,11 +9646,11 @@
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H74">
         <f t="shared" ca="1" si="6"/>
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>9</v>
@@ -9687,11 +9684,11 @@
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H75">
         <f t="shared" ca="1" si="6"/>
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>9</v>
@@ -9824,7 +9821,7 @@
       </c>
       <c r="L1" s="14">
         <f>SUM(B2:B10)</f>
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M1" s="14"/>
       <c r="N1" s="14" t="s">
@@ -9849,7 +9846,7 @@
       </c>
       <c r="B2">
         <f>COUNTIF(Tracker!F2:F718, "Pending")</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -9871,7 +9868,7 @@
       </c>
       <c r="L2" s="24">
         <f>SUM(B7:B8)/L1 * 100</f>
-        <v>12.857142857142856</v>
+        <v>12.162162162162163</v>
       </c>
       <c r="M2" s="24"/>
       <c r="N2" s="25" t="s">
@@ -9888,7 +9885,7 @@
       </c>
       <c r="B3">
         <f>COUNTIF(Tracker!F2:F718, "No Response")</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -9910,7 +9907,7 @@
       </c>
       <c r="L3" s="28">
         <f>SUM(B4:B8)/L1 * 100</f>
-        <v>51.428571428571423</v>
+        <v>48.648648648648653</v>
       </c>
       <c r="M3" s="28"/>
       <c r="N3" s="33" t="s">
@@ -10010,12 +10007,12 @@
       </c>
       <c r="L6" s="38">
         <f ca="1">AVERAGE(Tracker!G2:G719)</f>
-        <v>81.675675675675677</v>
+        <v>78.472972972972968</v>
       </c>
       <c r="M6" s="38"/>
       <c r="N6" s="39">
         <f ca="1">AVERAGE(Tracker!H2:H719)</f>
-        <v>119.91891891891892</v>
+        <v>118.64864864864865</v>
       </c>
       <c r="Q6" s="18"/>
       <c r="R6" s="13"/>
@@ -10041,7 +10038,7 @@
       </c>
       <c r="L7" s="28">
         <f ca="1">(SUM(Tracker!G2:G719)+SUM(Tracker!H2:H721))/(COUNTA(Tracker!G2:G721)*2)</f>
-        <v>100.79729729729729</v>
+        <v>98.560810810810807</v>
       </c>
       <c r="M7" s="28"/>
       <c r="N7" s="21"/>
@@ -11039,7 +11036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70590CAF-D2CD-443E-AE13-8F53684D3C03}">
   <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
@@ -11118,7 +11115,7 @@
       </c>
       <c r="D2">
         <f ca="1">(Tracker!G2+Tracker!H2)/2</f>
-        <v>114.5</v>
+        <v>98</v>
       </c>
       <c r="E2" s="34">
         <f>IF(OR(Tracker!F2="denied",Tracker!F2="on hold",Tracker!F2="No Response",Tracker!F2="pending"), 0.2, IF(Tracker!F2="interviewing", 0.4, IF(Tracker!F2="rejected", 0.3, IF(Tracker!F2="offer", 1, 0))))</f>
@@ -11141,11 +11138,11 @@
       </c>
       <c r="J2">
         <f t="shared" ref="J2:J15" ca="1" si="0">IF(D2=0,0,((0.3*D2*G2*H2)/10)-2.7)</f>
-        <v>0.88957499999999978</v>
+        <v>0.37230000000000008</v>
       </c>
       <c r="K2">
         <f t="shared" ref="K2:K15" ca="1" si="1">IF(D2=0, 0,((D2*E2*G2*H2)/(F2*I2)-2))</f>
-        <v>0.79888888888888898</v>
+        <v>0.39555555555555566</v>
       </c>
       <c r="M2" t="e">
         <f ca="1">IF(J2=0, 0, NA())</f>
@@ -11153,11 +11150,11 @@
       </c>
       <c r="N2">
         <f t="shared" ref="N2:N15" ca="1" si="2">IF(J2=0, NA(), J2)</f>
-        <v>0.88957499999999978</v>
+        <v>0.37230000000000008</v>
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O15" ca="1" si="3">IF(K2=0, NA(), K2)</f>
-        <v>0.79888888888888898</v>
+        <v>0.39555555555555566</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
@@ -11175,7 +11172,7 @@
       </c>
       <c r="D3">
         <f ca="1">(Tracker!G3+Tracker!H3)/2</f>
-        <v>96.5</v>
+        <v>97.5</v>
       </c>
       <c r="E3" s="34">
         <f>IF(OR(Tracker!F3="denied",Tracker!F3="on hold",Tracker!F3="No Response",Tracker!F3="pending"), 0.2, IF(Tracker!F3="interviewing", 0.4, IF(Tracker!F3="rejected", 0.3, IF(Tracker!F3="offer", 1, 0))))</f>
@@ -11198,11 +11195,11 @@
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32527499999999998</v>
+        <v>0.35662500000000019</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9546078431372549</v>
+        <v>1.9955882352941181</v>
       </c>
       <c r="M3" t="e">
         <f t="shared" ref="M3:M15" ca="1" si="4">IF(J3=0, 0, NA())</f>
@@ -11210,11 +11207,11 @@
       </c>
       <c r="N3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32527499999999998</v>
+        <v>0.35662500000000019</v>
       </c>
       <c r="O3">
         <f t="shared" ca="1" si="3"/>
-        <v>1.9546078431372549</v>
+        <v>1.9955882352941181</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
@@ -11232,7 +11229,7 @@
       </c>
       <c r="D4">
         <f ca="1">(Tracker!G4+Tracker!H4)/2</f>
-        <v>104.5</v>
+        <v>93</v>
       </c>
       <c r="E4" s="34">
         <f>IF(OR(Tracker!F4="denied",Tracker!F4="on hold",Tracker!F4="No Response",Tracker!F4="pending"), 0.2, IF(Tracker!F4="interviewing", 0.4, IF(Tracker!F4="rejected", 0.3, IF(Tracker!F4="offer", 1, 0))))</f>
@@ -11255,11 +11252,11 @@
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57607499999999945</v>
+        <v>0.21554999999999991</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42672222222222267</v>
+        <v>0.15966666666666729</v>
       </c>
       <c r="M4" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -11267,11 +11264,11 @@
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="2"/>
-        <v>0.57607499999999945</v>
+        <v>0.21554999999999991</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="3"/>
-        <v>0.42672222222222267</v>
+        <v>0.15966666666666729</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
@@ -11289,7 +11286,7 @@
       </c>
       <c r="D5">
         <f ca="1">(Tracker!G5+Tracker!H5)/2</f>
-        <v>96</v>
+        <v>90.5</v>
       </c>
       <c r="E5" s="34">
         <f>IF(OR(Tracker!F5="denied",Tracker!F5="on hold",Tracker!F5="No Response",Tracker!F5="pending"), 0.2, IF(Tracker!F5="interviewing", 0.4, IF(Tracker!F5="rejected", 0.3, IF(Tracker!F5="offer", 1, 0))))</f>
@@ -11312,11 +11309,11 @@
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5999999999999588E-2</v>
+        <v>-0.12075000000000058</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87999999999999945</v>
+        <v>0.71499999999999986</v>
       </c>
       <c r="M5" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -11324,11 +11321,11 @@
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="2"/>
-        <v>3.5999999999999588E-2</v>
+        <v>-0.12075000000000058</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.87999999999999945</v>
+        <v>0.71499999999999986</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
@@ -11346,7 +11343,7 @@
       </c>
       <c r="D6">
         <f ca="1">(Tracker!G6+Tracker!H6)/2</f>
-        <v>114.5</v>
+        <v>104</v>
       </c>
       <c r="E6" s="34">
         <f>IF(OR(Tracker!F6="denied",Tracker!F6="on hold",Tracker!F6="No Response",Tracker!F6="pending"), 0.2, IF(Tracker!F6="interviewing", 0.4, IF(Tracker!F6="rejected", 0.3, IF(Tracker!F6="offer", 1, 0))))</f>
@@ -11369,11 +11366,11 @@
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88957499999999978</v>
+        <v>0.56039999999999957</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65894444444444478</v>
+        <v>0.41511111111111099</v>
       </c>
       <c r="M6" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -11381,11 +11378,11 @@
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="2"/>
-        <v>0.88957499999999978</v>
+        <v>0.56039999999999957</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="3"/>
-        <v>0.65894444444444478</v>
+        <v>0.41511111111111099</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
@@ -11403,7 +11400,7 @@
       </c>
       <c r="D7">
         <f ca="1">(Tracker!G7+Tracker!H7)/2</f>
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E7" s="34">
         <f>IF(OR(Tracker!F7="denied",Tracker!F7="on hold",Tracker!F7="No Response",Tracker!F7="pending"), 0.2, IF(Tracker!F7="interviewing", 0.4, IF(Tracker!F7="rejected", 0.3, IF(Tracker!F7="offer", 1, 0))))</f>
@@ -11426,11 +11423,11 @@
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15285000000000037</v>
+        <v>0.30959999999999965</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.224444444444444</v>
+        <v>0.34666666666666668</v>
       </c>
       <c r="M7" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -11438,11 +11435,11 @@
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15285000000000037</v>
+        <v>0.30959999999999965</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.224444444444444</v>
+        <v>0.34666666666666668</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
@@ -11460,7 +11457,7 @@
       </c>
       <c r="D8">
         <f ca="1">(Tracker!G8+Tracker!H8)/2</f>
-        <v>75.5</v>
+        <v>82.5</v>
       </c>
       <c r="E8" s="34">
         <f>IF(OR(Tracker!F8="denied",Tracker!F8="on hold",Tracker!F8="No Response",Tracker!F8="pending"), 0.2, IF(Tracker!F8="interviewing", 0.4, IF(Tracker!F8="rejected", 0.3, IF(Tracker!F8="offer", 1, 0))))</f>
@@ -11483,11 +11480,11 @@
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.33307500000000045</v>
+        <v>-0.11362500000000031</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.24672222222222207</v>
+        <v>-8.4166666666666723E-2</v>
       </c>
       <c r="M8" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -11495,11 +11492,11 @@
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.33307500000000045</v>
+        <v>-0.11362500000000031</v>
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.24672222222222207</v>
+        <v>-8.4166666666666723E-2</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
@@ -11517,7 +11514,7 @@
       </c>
       <c r="D9">
         <f ca="1">(Tracker!G9+Tracker!H9)/2</f>
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E9" s="34">
         <f>IF(OR(Tracker!F9="denied",Tracker!F9="on hold",Tracker!F9="No Response",Tracker!F9="pending"), 0.2, IF(Tracker!F9="interviewing", 0.4, IF(Tracker!F9="rejected", 0.3, IF(Tracker!F9="offer", 1, 0))))</f>
@@ -11540,11 +11537,11 @@
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40364999999999984</v>
+        <v>0.30959999999999965</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41999999999999948</v>
+        <v>0.34666666666666668</v>
       </c>
       <c r="M9" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -11552,11 +11549,11 @@
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="2"/>
-        <v>0.40364999999999984</v>
+        <v>0.30959999999999965</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="3"/>
-        <v>0.41999999999999948</v>
+        <v>0.34666666666666668</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
@@ -11574,7 +11571,7 @@
       </c>
       <c r="D10">
         <f ca="1">(Tracker!G10+Tracker!H10)/2</f>
-        <v>96</v>
+        <v>104.5</v>
       </c>
       <c r="E10" s="34">
         <f>IF(OR(Tracker!F10="denied",Tracker!F10="on hold",Tracker!F10="No Response",Tracker!F10="pending"), 0.2, IF(Tracker!F10="interviewing", 0.4, IF(Tracker!F10="rejected", 0.3, IF(Tracker!F10="offer", 1, 0))))</f>
@@ -11597,11 +11594,11 @@
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30959999999999965</v>
+        <v>0.57607499999999945</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87999999999999989</v>
+        <v>1.1349999999999993</v>
       </c>
       <c r="M10" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -11609,11 +11606,11 @@
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="2"/>
-        <v>0.30959999999999965</v>
+        <v>0.57607499999999945</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="3"/>
-        <v>0.87999999999999989</v>
+        <v>1.1349999999999993</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
@@ -11631,7 +11628,7 @@
       </c>
       <c r="D11">
         <f ca="1">(Tracker!G11+Tracker!H11)/2</f>
-        <v>89.5</v>
+        <v>104</v>
       </c>
       <c r="E11" s="34">
         <f>IF(OR(Tracker!F11="denied",Tracker!F11="on hold",Tracker!F11="No Response",Tracker!F11="pending"), 0.2, IF(Tracker!F11="interviewing", 0.4, IF(Tracker!F11="rejected", 0.3, IF(Tracker!F11="offer", 1, 0))))</f>
@@ -11654,11 +11651,11 @@
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10582499999999939</v>
+        <v>0.56039999999999957</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8388888888889507E-2</v>
+        <v>0.41511111111111099</v>
       </c>
       <c r="M11" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -11666,11 +11663,11 @@
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="2"/>
-        <v>0.10582499999999939</v>
+        <v>0.56039999999999957</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="3"/>
-        <v>7.8388888888889507E-2</v>
+        <v>0.41511111111111099</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
@@ -11688,7 +11685,7 @@
       </c>
       <c r="D12">
         <f ca="1">(Tracker!G12+Tracker!H12)/2</f>
-        <v>93</v>
+        <v>93.5</v>
       </c>
       <c r="E12" s="34">
         <f>IF(OR(Tracker!F12="denied",Tracker!F12="on hold",Tracker!F12="No Response",Tracker!F12="pending"), 0.2, IF(Tracker!F12="interviewing", 0.4, IF(Tracker!F12="rejected", 0.3, IF(Tracker!F12="offer", 1, 0))))</f>
@@ -11711,11 +11708,11 @@
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21554999999999991</v>
+        <v>0.23122500000000024</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2395</v>
+        <v>1.2569166666666671</v>
       </c>
       <c r="M12" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -11723,11 +11720,11 @@
       </c>
       <c r="N12">
         <f t="shared" ca="1" si="2"/>
-        <v>0.21554999999999991</v>
+        <v>0.23122500000000024</v>
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2395</v>
+        <v>1.2569166666666671</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
@@ -11745,7 +11742,7 @@
       </c>
       <c r="D13">
         <f ca="1">(Tracker!G13+Tracker!H13)/2</f>
-        <v>86.5</v>
+        <v>82</v>
       </c>
       <c r="E13" s="34">
         <f>IF(OR(Tracker!F13="denied",Tracker!F13="on hold",Tracker!F13="No Response",Tracker!F13="pending"), 0.2, IF(Tracker!F13="interviewing", 0.4, IF(Tracker!F13="rejected", 0.3, IF(Tracker!F13="offer", 1, 0))))</f>
@@ -11768,11 +11765,11 @@
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1775000000000091E-2</v>
+        <v>-0.12930000000000064</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.19214999999999982</v>
+        <v>-0.28619999999999979</v>
       </c>
       <c r="M13" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -11780,11 +11777,11 @@
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="2"/>
-        <v>1.1775000000000091E-2</v>
+        <v>-0.12930000000000064</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.19214999999999982</v>
+        <v>-0.28619999999999979</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
@@ -11802,7 +11799,7 @@
       </c>
       <c r="D14">
         <f ca="1">(Tracker!G14+Tracker!H14)/2</f>
-        <v>99.5</v>
+        <v>91.5</v>
       </c>
       <c r="E14" s="34">
         <f>IF(OR(Tracker!F14="denied",Tracker!F14="on hold",Tracker!F14="No Response",Tracker!F14="pending"), 0.2, IF(Tracker!F14="interviewing", 0.4, IF(Tracker!F14="rejected", 0.3, IF(Tracker!F14="offer", 1, 0))))</f>
@@ -11825,11 +11822,11 @@
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.14782500000000054</v>
+        <v>-0.35302500000000059</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4029000000000003</v>
+        <v>1.1293000000000002</v>
       </c>
       <c r="M14" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -11837,11 +11834,11 @@
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.14782500000000054</v>
+        <v>-0.35302500000000059</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.4029000000000003</v>
+        <v>1.1293000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
@@ -11859,7 +11856,7 @@
       </c>
       <c r="D15">
         <f ca="1">(Tracker!G15+Tracker!H15)/2</f>
-        <v>85.5</v>
+        <v>113</v>
       </c>
       <c r="E15" s="34">
         <f>IF(OR(Tracker!F15="denied",Tracker!F15="on hold",Tracker!F15="No Response",Tracker!F15="pending"), 0.2, IF(Tracker!F15="interviewing", 0.4, IF(Tracker!F15="rejected", 0.3, IF(Tracker!F15="offer", 1, 0))))</f>
@@ -11882,11 +11879,11 @@
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.50692500000000029</v>
+        <v>0.19844999999999935</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="1"/>
-        <v>5.3102500000000008</v>
+        <v>7.6615000000000002</v>
       </c>
       <c r="M15" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -11894,11 +11891,11 @@
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.50692500000000029</v>
+        <v>0.19844999999999935</v>
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3102500000000008</v>
+        <v>7.6615000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
@@ -11916,7 +11913,7 @@
       </c>
       <c r="D16">
         <f ca="1">(Tracker!G16+Tracker!H16)/2</f>
-        <v>87.5</v>
+        <v>89.5</v>
       </c>
       <c r="E16" s="34">
         <f>IF(OR(Tracker!F16="denied",Tracker!F16="on hold",Tracker!F16="No Response",Tracker!F16="pending"), 0.2, IF(Tracker!F16="interviewing", 0.4, IF(Tracker!F16="rejected", 0.3, IF(Tracker!F16="offer", 1, 0))))</f>
@@ -11939,11 +11936,11 @@
       </c>
       <c r="J16">
         <f t="shared" ref="J16:J70" ca="1" si="5">IF(D16=0,0,((0.3*D16*G16*H16)/10)-2.7)</f>
-        <v>-0.45562500000000039</v>
+        <v>-0.40432500000000005</v>
       </c>
       <c r="K16">
         <f t="shared" ref="K16:K70" ca="1" si="6">IF(D16=0, 0,((D16*E16*G16*H16)/(F16*I16)-2))</f>
-        <v>-0.50375000000000014</v>
+        <v>-0.46954999999999969</v>
       </c>
       <c r="M16" t="e">
         <f t="shared" ref="M16:M70" ca="1" si="7">IF(J16=0, 0, NA())</f>
@@ -11951,11 +11948,11 @@
       </c>
       <c r="N16">
         <f t="shared" ref="N16:N70" ca="1" si="8">IF(J16=0, NA(), J16)</f>
-        <v>-0.45562500000000039</v>
+        <v>-0.40432500000000005</v>
       </c>
       <c r="O16">
         <f t="shared" ref="O16:O70" ca="1" si="9">IF(K16=0, NA(), K16)</f>
-        <v>-0.50375000000000014</v>
+        <v>-0.46954999999999969</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
@@ -11973,7 +11970,7 @@
       </c>
       <c r="D17">
         <f ca="1">(Tracker!G17+Tracker!H17)/2</f>
-        <v>82.5</v>
+        <v>104</v>
       </c>
       <c r="E17" s="34">
         <f>IF(OR(Tracker!F17="denied",Tracker!F17="on hold",Tracker!F17="No Response",Tracker!F17="pending"), 0.2, IF(Tracker!F17="interviewing", 0.4, IF(Tracker!F17="rejected", 0.3, IF(Tracker!F17="offer", 1, 0))))</f>
@@ -11996,11 +11993,11 @@
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.58387499999999992</v>
+        <v>-3.2400000000000428E-2</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.58925000000000027</v>
+        <v>-0.2215999999999998</v>
       </c>
       <c r="M17" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12008,11 +12005,11 @@
       </c>
       <c r="N17">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.58387499999999992</v>
+        <v>-3.2400000000000428E-2</v>
       </c>
       <c r="O17">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.58925000000000027</v>
+        <v>-0.2215999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
@@ -12030,7 +12027,7 @@
       </c>
       <c r="D18">
         <f ca="1">(Tracker!G18+Tracker!H18)/2</f>
-        <v>112.5</v>
+        <v>81</v>
       </c>
       <c r="E18" s="34">
         <f>IF(OR(Tracker!F18="denied",Tracker!F18="on hold",Tracker!F18="No Response",Tracker!F18="pending"), 0.2, IF(Tracker!F18="interviewing", 0.4, IF(Tracker!F18="rejected", 0.3, IF(Tracker!F18="offer", 1, 0))))</f>
@@ -12053,11 +12050,11 @@
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="5"/>
-        <v>0.18562499999999993</v>
+        <v>-0.6223500000000004</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="6"/>
-        <v>7.6187500000000004</v>
+        <v>4.9254999999999995</v>
       </c>
       <c r="M18" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12065,11 +12062,11 @@
       </c>
       <c r="N18">
         <f t="shared" ca="1" si="8"/>
-        <v>0.18562499999999993</v>
+        <v>-0.6223500000000004</v>
       </c>
       <c r="O18">
         <f t="shared" ca="1" si="9"/>
-        <v>7.6187500000000004</v>
+        <v>4.9254999999999995</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
@@ -12087,7 +12084,7 @@
       </c>
       <c r="D19">
         <f ca="1">(Tracker!G19+Tracker!H19)/2</f>
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E19" s="34">
         <f>IF(OR(Tracker!F19="denied",Tracker!F19="on hold",Tracker!F19="No Response",Tracker!F19="pending"), 0.2, IF(Tracker!F19="interviewing", 0.4, IF(Tracker!F19="rejected", 0.3, IF(Tracker!F19="offer", 1, 0))))</f>
@@ -12110,11 +12107,11 @@
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.12149999999999928</v>
+        <v>-6.7500000000002558E-3</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="6"/>
-        <v>8.9999999999999858E-2</v>
+        <v>-4.9999999999998934E-3</v>
       </c>
       <c r="M19" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12122,11 +12119,11 @@
       </c>
       <c r="N19">
         <f t="shared" ca="1" si="8"/>
-        <v>0.12149999999999928</v>
+        <v>-6.7500000000002558E-3</v>
       </c>
       <c r="O19">
         <f t="shared" ca="1" si="9"/>
-        <v>8.9999999999999858E-2</v>
+        <v>-4.9999999999998934E-3</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
@@ -12144,7 +12141,7 @@
       </c>
       <c r="D20">
         <f ca="1">(Tracker!G20+Tracker!H20)/2</f>
-        <v>94.5</v>
+        <v>93.5</v>
       </c>
       <c r="E20" s="34">
         <f>IF(OR(Tracker!F20="denied",Tracker!F20="on hold",Tracker!F20="No Response",Tracker!F20="pending"), 0.2, IF(Tracker!F20="interviewing", 0.4, IF(Tracker!F20="rejected", 0.3, IF(Tracker!F20="offer", 1, 0))))</f>
@@ -12167,11 +12164,11 @@
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.27607500000000051</v>
+        <v>-0.30172500000000024</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.38404999999999978</v>
+        <v>-0.40115000000000012</v>
       </c>
       <c r="M20" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12179,11 +12176,11 @@
       </c>
       <c r="N20">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.27607500000000051</v>
+        <v>-0.30172500000000024</v>
       </c>
       <c r="O20">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.38404999999999978</v>
+        <v>-0.40115000000000012</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
@@ -12201,7 +12198,7 @@
       </c>
       <c r="D21">
         <f ca="1">(Tracker!G21+Tracker!H21)/2</f>
-        <v>91.5</v>
+        <v>101</v>
       </c>
       <c r="E21" s="34">
         <f>IF(OR(Tracker!F21="denied",Tracker!F21="on hold",Tracker!F21="No Response",Tracker!F21="pending"), 0.2, IF(Tracker!F21="interviewing", 0.4, IF(Tracker!F21="rejected", 0.3, IF(Tracker!F21="offer", 1, 0))))</f>
@@ -12224,11 +12221,11 @@
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.35302500000000059</v>
+        <v>-0.1093500000000005</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="6"/>
-        <v>6.6925000000000008</v>
+        <v>7.5950000000000006</v>
       </c>
       <c r="M21" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12236,11 +12233,11 @@
       </c>
       <c r="N21">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.35302500000000059</v>
+        <v>-0.1093500000000005</v>
       </c>
       <c r="O21">
         <f t="shared" ca="1" si="9"/>
-        <v>6.6925000000000008</v>
+        <v>7.5950000000000006</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
@@ -12258,7 +12255,7 @@
       </c>
       <c r="D22">
         <f ca="1">(Tracker!G22+Tracker!H22)/2</f>
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="E22" s="34">
         <f>IF(OR(Tracker!F22="denied",Tracker!F22="on hold",Tracker!F22="No Response",Tracker!F22="pending"), 0.2, IF(Tracker!F22="interviewing", 0.4, IF(Tracker!F22="rejected", 0.3, IF(Tracker!F22="offer", 1, 0))))</f>
@@ -12281,11 +12278,11 @@
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.59670000000000023</v>
+        <v>-0.13500000000000023</v>
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.44199999999999995</v>
+        <v>-0.10000000000000031</v>
       </c>
       <c r="M22" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12293,11 +12290,11 @@
       </c>
       <c r="N22">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.59670000000000023</v>
+        <v>-0.13500000000000023</v>
       </c>
       <c r="O22">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.44199999999999995</v>
+        <v>-0.10000000000000031</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
@@ -12315,7 +12312,7 @@
       </c>
       <c r="D23">
         <f ca="1">(Tracker!G23+Tracker!H23)/2</f>
-        <v>104.5</v>
+        <v>102.5</v>
       </c>
       <c r="E23" s="34">
         <f>IF(OR(Tracker!F23="denied",Tracker!F23="on hold",Tracker!F23="No Response",Tracker!F23="pending"), 0.2, IF(Tracker!F23="interviewing", 0.4, IF(Tracker!F23="rejected", 0.3, IF(Tracker!F23="offer", 1, 0))))</f>
@@ -12338,11 +12335,11 @@
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="5"/>
-        <v>0.57607499999999945</v>
+        <v>0.51337499999999991</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="6"/>
-        <v>3.1088888888888899</v>
+        <v>3.0111111111111102</v>
       </c>
       <c r="M23" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12350,11 +12347,11 @@
       </c>
       <c r="N23">
         <f t="shared" ca="1" si="8"/>
-        <v>0.57607499999999945</v>
+        <v>0.51337499999999991</v>
       </c>
       <c r="O23">
         <f t="shared" ca="1" si="9"/>
-        <v>3.1088888888888899</v>
+        <v>3.0111111111111102</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
@@ -12372,7 +12369,7 @@
       </c>
       <c r="D24">
         <f ca="1">(Tracker!G24+Tracker!H24)/2</f>
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="E24" s="34">
         <f>IF(OR(Tracker!F24="denied",Tracker!F24="on hold",Tracker!F24="No Response",Tracker!F24="pending"), 0.2, IF(Tracker!F24="interviewing", 0.4, IF(Tracker!F24="rejected", 0.3, IF(Tracker!F24="offer", 1, 0))))</f>
@@ -12395,11 +12392,11 @@
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="5"/>
-        <v>-3.8999999999997925E-3</v>
+        <v>0.6230999999999991</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="6"/>
-        <v>-2.8888888888889408E-3</v>
+        <v>0.46155555555555594</v>
       </c>
       <c r="M24" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12407,11 +12404,11 @@
       </c>
       <c r="N24">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.8999999999997925E-3</v>
+        <v>0.6230999999999991</v>
       </c>
       <c r="O24">
         <f t="shared" ca="1" si="9"/>
-        <v>-2.8888888888889408E-3</v>
+        <v>0.46155555555555594</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
@@ -12429,7 +12426,7 @@
       </c>
       <c r="D25">
         <f ca="1">(Tracker!G25+Tracker!H25)/2</f>
-        <v>104.5</v>
+        <v>88</v>
       </c>
       <c r="E25" s="34">
         <f>IF(OR(Tracker!F25="denied",Tracker!F25="on hold",Tracker!F25="No Response",Tracker!F25="pending"), 0.2, IF(Tracker!F25="interviewing", 0.4, IF(Tracker!F25="rejected", 0.3, IF(Tracker!F25="offer", 1, 0))))</f>
@@ -12452,11 +12449,11 @@
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="5"/>
-        <v>0.57607499999999945</v>
+        <v>5.8799999999999741E-2</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="6"/>
-        <v>0.42672222222222267</v>
+        <v>4.3555555555555792E-2</v>
       </c>
       <c r="M25" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12464,11 +12461,11 @@
       </c>
       <c r="N25">
         <f t="shared" ca="1" si="8"/>
-        <v>0.57607499999999945</v>
+        <v>5.8799999999999741E-2</v>
       </c>
       <c r="O25">
         <f t="shared" ca="1" si="9"/>
-        <v>0.42672222222222267</v>
+        <v>4.3555555555555792E-2</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
@@ -12486,7 +12483,7 @@
       </c>
       <c r="D26">
         <f ca="1">(Tracker!G26+Tracker!H26)/2</f>
-        <v>93.5</v>
+        <v>99</v>
       </c>
       <c r="E26" s="34">
         <f>IF(OR(Tracker!F26="denied",Tracker!F26="on hold",Tracker!F26="No Response",Tracker!F26="pending"), 0.2, IF(Tracker!F26="interviewing", 0.4, IF(Tracker!F26="rejected", 0.3, IF(Tracker!F26="offer", 1, 0))))</f>
@@ -12509,11 +12506,11 @@
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="5"/>
-        <v>0.23122500000000024</v>
+        <v>0.40364999999999984</v>
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="6"/>
-        <v>0.17127777777777764</v>
+        <v>0.29899999999999993</v>
       </c>
       <c r="M26" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12521,11 +12518,11 @@
       </c>
       <c r="N26">
         <f t="shared" ca="1" si="8"/>
-        <v>0.23122500000000024</v>
+        <v>0.40364999999999984</v>
       </c>
       <c r="O26">
         <f t="shared" ca="1" si="9"/>
-        <v>0.17127777777777764</v>
+        <v>0.29899999999999993</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
@@ -12543,7 +12540,7 @@
       </c>
       <c r="D27">
         <f ca="1">(Tracker!G27+Tracker!H27)/2</f>
-        <v>109</v>
+        <v>110.5</v>
       </c>
       <c r="E27" s="34">
         <f>IF(OR(Tracker!F27="denied",Tracker!F27="on hold",Tracker!F27="No Response",Tracker!F27="pending"), 0.2, IF(Tracker!F27="interviewing", 0.4, IF(Tracker!F27="rejected", 0.3, IF(Tracker!F27="offer", 1, 0))))</f>
@@ -12566,11 +12563,11 @@
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="5"/>
-        <v>0.71714999999999929</v>
+        <v>0.76417499999999983</v>
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="6"/>
-        <v>0.53122222222222248</v>
+        <v>0.56605555555555576</v>
       </c>
       <c r="M27" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12578,11 +12575,11 @@
       </c>
       <c r="N27">
         <f t="shared" ca="1" si="8"/>
-        <v>0.71714999999999929</v>
+        <v>0.76417499999999983</v>
       </c>
       <c r="O27">
         <f t="shared" ca="1" si="9"/>
-        <v>0.53122222222222248</v>
+        <v>0.56605555555555576</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
@@ -12600,7 +12597,7 @@
       </c>
       <c r="D28">
         <f ca="1">(Tracker!G28+Tracker!H28)/2</f>
-        <v>95</v>
+        <v>104.5</v>
       </c>
       <c r="E28" s="34">
         <f>IF(OR(Tracker!F28="denied",Tracker!F28="on hold",Tracker!F28="No Response",Tracker!F28="pending"), 0.2, IF(Tracker!F28="interviewing", 0.4, IF(Tracker!F28="rejected", 0.3, IF(Tracker!F28="offer", 1, 0))))</f>
@@ -12623,11 +12620,11 @@
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="5"/>
-        <v>0.27824999999999989</v>
+        <v>0.57607499999999945</v>
       </c>
       <c r="K28">
         <f t="shared" ca="1" si="6"/>
-        <v>0.20611111111111136</v>
+        <v>0.42672222222222267</v>
       </c>
       <c r="M28" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12635,11 +12632,11 @@
       </c>
       <c r="N28">
         <f t="shared" ca="1" si="8"/>
-        <v>0.27824999999999989</v>
+        <v>0.57607499999999945</v>
       </c>
       <c r="O28">
         <f t="shared" ca="1" si="9"/>
-        <v>0.20611111111111136</v>
+        <v>0.42672222222222267</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
@@ -12657,7 +12654,7 @@
       </c>
       <c r="D29">
         <f ca="1">(Tracker!G29+Tracker!H29)/2</f>
-        <v>113</v>
+        <v>82.5</v>
       </c>
       <c r="E29" s="34">
         <f>IF(OR(Tracker!F29="denied",Tracker!F29="on hold",Tracker!F29="No Response",Tracker!F29="pending"), 0.2, IF(Tracker!F29="interviewing", 0.4, IF(Tracker!F29="rejected", 0.3, IF(Tracker!F29="offer", 1, 0))))</f>
@@ -12680,11 +12677,11 @@
       </c>
       <c r="J29">
         <f t="shared" ca="1" si="5"/>
-        <v>0.84254999999999969</v>
+        <v>-0.11362500000000031</v>
       </c>
       <c r="K29">
         <f t="shared" ca="1" si="6"/>
-        <v>3.2482222222222221</v>
+        <v>1.8316666666666666</v>
       </c>
       <c r="M29" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12692,11 +12689,11 @@
       </c>
       <c r="N29">
         <f t="shared" ca="1" si="8"/>
-        <v>0.84254999999999969</v>
+        <v>-0.11362500000000031</v>
       </c>
       <c r="O29">
         <f t="shared" ca="1" si="9"/>
-        <v>3.2482222222222221</v>
+        <v>1.8316666666666666</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
@@ -12714,7 +12711,7 @@
       </c>
       <c r="D30">
         <f ca="1">(Tracker!G30+Tracker!H30)/2</f>
-        <v>115.5</v>
+        <v>91</v>
       </c>
       <c r="E30" s="34">
         <f>IF(OR(Tracker!F30="denied",Tracker!F30="on hold",Tracker!F30="No Response",Tracker!F30="pending"), 0.2, IF(Tracker!F30="interviewing", 0.4, IF(Tracker!F30="rejected", 0.3, IF(Tracker!F30="offer", 1, 0))))</f>
@@ -12737,11 +12734,11 @@
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="5"/>
-        <v>0.92092499999999955</v>
+        <v>0.15285000000000037</v>
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="6"/>
-        <v>0.68216666666666681</v>
+        <v>0.11322222222222189</v>
       </c>
       <c r="M30" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12749,11 +12746,11 @@
       </c>
       <c r="N30">
         <f t="shared" ca="1" si="8"/>
-        <v>0.92092499999999955</v>
+        <v>0.15285000000000037</v>
       </c>
       <c r="O30">
         <f t="shared" ca="1" si="9"/>
-        <v>0.68216666666666681</v>
+        <v>0.11322222222222189</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
@@ -12767,15 +12764,15 @@
       </c>
       <c r="C31" t="str">
         <f>Tracker!F31</f>
-        <v>Ghosted</v>
+        <v>No Response</v>
       </c>
       <c r="D31">
         <f ca="1">(Tracker!G31+Tracker!H31)/2</f>
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E31" s="34">
         <f>IF(OR(Tracker!F31="denied",Tracker!F31="on hold",Tracker!F31="No Response",Tracker!F31="pending"), 0.2, IF(Tracker!F31="interviewing", 0.4, IF(Tracker!F31="rejected", 0.3, IF(Tracker!F31="offer", 1, 0))))</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F31" s="35">
         <f>IF(OR(Tracker!I31="linkedin", Tracker!I31="Indeed", Tracker!I31="linkedin dm"), 0.9, IF(Tracker!I31="Company Site", 1.1, 1))</f>
@@ -12794,11 +12791,11 @@
       </c>
       <c r="J31">
         <f t="shared" ca="1" si="5"/>
-        <v>0.74849999999999994</v>
+        <v>0.68579999999999952</v>
       </c>
       <c r="K31">
         <f t="shared" ca="1" si="6"/>
-        <v>-2</v>
+        <v>0.50800000000000045</v>
       </c>
       <c r="M31" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12806,11 +12803,11 @@
       </c>
       <c r="N31">
         <f t="shared" ca="1" si="8"/>
-        <v>0.74849999999999994</v>
+        <v>0.68579999999999952</v>
       </c>
       <c r="O31">
         <f t="shared" ca="1" si="9"/>
-        <v>-2</v>
+        <v>0.50800000000000045</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
@@ -12828,7 +12825,7 @@
       </c>
       <c r="D32">
         <f ca="1">(Tracker!G32+Tracker!H32)/2</f>
-        <v>103</v>
+        <v>104.5</v>
       </c>
       <c r="E32" s="34">
         <f>IF(OR(Tracker!F32="denied",Tracker!F32="on hold",Tracker!F32="No Response",Tracker!F32="pending"), 0.2, IF(Tracker!F32="interviewing", 0.4, IF(Tracker!F32="rejected", 0.3, IF(Tracker!F32="offer", 1, 0))))</f>
@@ -12851,11 +12848,11 @@
       </c>
       <c r="J32">
         <f t="shared" ca="1" si="5"/>
-        <v>0.5290499999999998</v>
+        <v>0.57607499999999945</v>
       </c>
       <c r="K32">
         <f t="shared" ca="1" si="6"/>
-        <v>0.15270000000000028</v>
+        <v>0.18405000000000049</v>
       </c>
       <c r="M32" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12863,11 +12860,11 @@
       </c>
       <c r="N32">
         <f t="shared" ca="1" si="8"/>
-        <v>0.5290499999999998</v>
+        <v>0.57607499999999945</v>
       </c>
       <c r="O32">
         <f t="shared" ca="1" si="9"/>
-        <v>0.15270000000000028</v>
+        <v>0.18405000000000049</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
@@ -12885,7 +12882,7 @@
       </c>
       <c r="D33">
         <f ca="1">(Tracker!G33+Tracker!H33)/2</f>
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E33" s="34">
         <f>IF(OR(Tracker!F33="denied",Tracker!F33="on hold",Tracker!F33="No Response",Tracker!F33="pending"), 0.2, IF(Tracker!F33="interviewing", 0.4, IF(Tracker!F33="rejected", 0.3, IF(Tracker!F33="offer", 1, 0))))</f>
@@ -12908,11 +12905,11 @@
       </c>
       <c r="J33">
         <f t="shared" ca="1" si="5"/>
-        <v>0.27824999999999989</v>
+        <v>0.5290499999999998</v>
       </c>
       <c r="K33">
         <f t="shared" ca="1" si="6"/>
-        <v>0.97825000000000006</v>
+        <v>1.22905</v>
       </c>
       <c r="M33" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12920,11 +12917,11 @@
       </c>
       <c r="N33">
         <f t="shared" ca="1" si="8"/>
-        <v>0.27824999999999989</v>
+        <v>0.5290499999999998</v>
       </c>
       <c r="O33">
         <f t="shared" ca="1" si="9"/>
-        <v>0.97825000000000006</v>
+        <v>1.22905</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
@@ -12942,7 +12939,7 @@
       </c>
       <c r="D34">
         <f ca="1">(Tracker!G34+Tracker!H34)/2</f>
-        <v>108.5</v>
+        <v>88</v>
       </c>
       <c r="E34" s="34">
         <f>IF(OR(Tracker!F34="denied",Tracker!F34="on hold",Tracker!F34="No Response",Tracker!F34="pending"), 0.2, IF(Tracker!F34="interviewing", 0.4, IF(Tracker!F34="rejected", 0.3, IF(Tracker!F34="offer", 1, 0))))</f>
@@ -12965,11 +12962,11 @@
       </c>
       <c r="J34">
         <f t="shared" ca="1" si="5"/>
-        <v>0.70147499999999985</v>
+        <v>5.8799999999999741E-2</v>
       </c>
       <c r="K34">
         <f t="shared" ca="1" si="6"/>
-        <v>0.26765000000000061</v>
+        <v>-0.16079999999999961</v>
       </c>
       <c r="M34" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -12977,11 +12974,11 @@
       </c>
       <c r="N34">
         <f t="shared" ca="1" si="8"/>
-        <v>0.70147499999999985</v>
+        <v>5.8799999999999741E-2</v>
       </c>
       <c r="O34">
         <f t="shared" ca="1" si="9"/>
-        <v>0.26765000000000061</v>
+        <v>-0.16079999999999961</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
@@ -12999,7 +12996,7 @@
       </c>
       <c r="D35">
         <f ca="1">(Tracker!G35+Tracker!H35)/2</f>
-        <v>114.5</v>
+        <v>112.5</v>
       </c>
       <c r="E35" s="34">
         <f>IF(OR(Tracker!F35="denied",Tracker!F35="on hold",Tracker!F35="No Response",Tracker!F35="pending"), 0.2, IF(Tracker!F35="interviewing", 0.4, IF(Tracker!F35="rejected", 0.3, IF(Tracker!F35="offer", 1, 0))))</f>
@@ -13022,11 +13019,11 @@
       </c>
       <c r="J35">
         <f t="shared" ca="1" si="5"/>
-        <v>0.88957499999999978</v>
+        <v>0.82687499999999936</v>
       </c>
       <c r="K35">
         <f t="shared" ca="1" si="6"/>
-        <v>3.6307058823529417</v>
+        <v>3.5323529411764714</v>
       </c>
       <c r="M35" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13034,11 +13031,11 @@
       </c>
       <c r="N35">
         <f t="shared" ca="1" si="8"/>
-        <v>0.88957499999999978</v>
+        <v>0.82687499999999936</v>
       </c>
       <c r="O35">
         <f t="shared" ca="1" si="9"/>
-        <v>3.6307058823529417</v>
+        <v>3.5323529411764714</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
@@ -13056,7 +13053,7 @@
       </c>
       <c r="D36">
         <f ca="1">(Tracker!G36+Tracker!H36)/2</f>
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E36" s="34">
         <f>IF(OR(Tracker!F36="denied",Tracker!F36="on hold",Tracker!F36="No Response",Tracker!F36="pending"), 0.2, IF(Tracker!F36="interviewing", 0.4, IF(Tracker!F36="rejected", 0.3, IF(Tracker!F36="offer", 1, 0))))</f>
@@ -13079,11 +13076,11 @@
       </c>
       <c r="J36">
         <f t="shared" ca="1" si="5"/>
-        <v>0.43499999999999961</v>
+        <v>0.27824999999999989</v>
       </c>
       <c r="K36">
         <f t="shared" ca="1" si="6"/>
-        <v>8.9999999999999858E-2</v>
+        <v>-1.4499999999999957E-2</v>
       </c>
       <c r="M36" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13091,11 +13088,11 @@
       </c>
       <c r="N36">
         <f t="shared" ca="1" si="8"/>
-        <v>0.43499999999999961</v>
+        <v>0.27824999999999989</v>
       </c>
       <c r="O36">
         <f t="shared" ca="1" si="9"/>
-        <v>8.9999999999999858E-2</v>
+        <v>-1.4499999999999957E-2</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
@@ -13113,7 +13110,7 @@
       </c>
       <c r="D37">
         <f ca="1">(Tracker!G37+Tracker!H37)/2</f>
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="E37" s="34">
         <f>IF(OR(Tracker!F37="denied",Tracker!F37="on hold",Tracker!F37="No Response",Tracker!F37="pending"), 0.2, IF(Tracker!F37="interviewing", 0.4, IF(Tracker!F37="rejected", 0.3, IF(Tracker!F37="offer", 1, 0))))</f>
@@ -13136,11 +13133,11 @@
       </c>
       <c r="J37">
         <f t="shared" ca="1" si="5"/>
-        <v>0.96795000000000009</v>
+        <v>9.0149999999999508E-2</v>
       </c>
       <c r="K37">
         <f t="shared" ca="1" si="6"/>
-        <v>0.44530000000000047</v>
+        <v>-0.13989999999999969</v>
       </c>
       <c r="M37" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13148,11 +13145,11 @@
       </c>
       <c r="N37">
         <f t="shared" ca="1" si="8"/>
-        <v>0.96795000000000009</v>
+        <v>9.0149999999999508E-2</v>
       </c>
       <c r="O37">
         <f t="shared" ca="1" si="9"/>
-        <v>0.44530000000000047</v>
+        <v>-0.13989999999999969</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
@@ -13170,7 +13167,7 @@
       </c>
       <c r="D38">
         <f ca="1">(Tracker!G38+Tracker!H38)/2</f>
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="E38" s="34">
         <f>IF(OR(Tracker!F38="denied",Tracker!F38="on hold",Tracker!F38="No Response",Tracker!F38="pending"), 0.2, IF(Tracker!F38="interviewing", 0.4, IF(Tracker!F38="rejected", 0.3, IF(Tracker!F38="offer", 1, 0))))</f>
@@ -13193,11 +13190,11 @@
       </c>
       <c r="J38">
         <f t="shared" ca="1" si="5"/>
-        <v>0.68579999999999952</v>
+        <v>0.12149999999999972</v>
       </c>
       <c r="K38">
         <f t="shared" ca="1" si="6"/>
-        <v>0.2572000000000001</v>
+        <v>-0.11900000000000022</v>
       </c>
       <c r="M38" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13205,11 +13202,11 @@
       </c>
       <c r="N38">
         <f t="shared" ca="1" si="8"/>
-        <v>0.68579999999999952</v>
+        <v>0.12149999999999972</v>
       </c>
       <c r="O38">
         <f t="shared" ca="1" si="9"/>
-        <v>0.2572000000000001</v>
+        <v>-0.11900000000000022</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
@@ -13227,7 +13224,7 @@
       </c>
       <c r="D39">
         <f ca="1">(Tracker!G39+Tracker!H39)/2</f>
-        <v>100</v>
+        <v>107.5</v>
       </c>
       <c r="E39" s="34">
         <f>IF(OR(Tracker!F39="denied",Tracker!F39="on hold",Tracker!F39="No Response",Tracker!F39="pending"), 0.2, IF(Tracker!F39="interviewing", 0.4, IF(Tracker!F39="rejected", 0.3, IF(Tracker!F39="offer", 1, 0))))</f>
@@ -13250,11 +13247,11 @@
       </c>
       <c r="J39">
         <f t="shared" ca="1" si="5"/>
-        <v>0.43499999999999961</v>
+        <v>0.67012500000000008</v>
       </c>
       <c r="K39">
         <f t="shared" ca="1" si="6"/>
-        <v>0.19999999999999973</v>
+        <v>0.36500000000000021</v>
       </c>
       <c r="M39" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13262,11 +13259,11 @@
       </c>
       <c r="N39">
         <f t="shared" ca="1" si="8"/>
-        <v>0.43499999999999961</v>
+        <v>0.67012500000000008</v>
       </c>
       <c r="O39">
         <f t="shared" ca="1" si="9"/>
-        <v>0.19999999999999973</v>
+        <v>0.36500000000000021</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
@@ -13284,7 +13281,7 @@
       </c>
       <c r="D40">
         <f ca="1">(Tracker!G40+Tracker!H40)/2</f>
-        <v>96.5</v>
+        <v>105</v>
       </c>
       <c r="E40" s="34">
         <f>IF(OR(Tracker!F40="denied",Tracker!F40="on hold",Tracker!F40="No Response",Tracker!F40="pending"), 0.2, IF(Tracker!F40="interviewing", 0.4, IF(Tracker!F40="rejected", 0.3, IF(Tracker!F40="offer", 1, 0))))</f>
@@ -13307,11 +13304,11 @@
       </c>
       <c r="J40">
         <f t="shared" ca="1" si="5"/>
-        <v>0.32527499999999998</v>
+        <v>0.59175000000000022</v>
       </c>
       <c r="K40">
         <f t="shared" ca="1" si="6"/>
-        <v>1.6850000000000254E-2</v>
+        <v>0.19450000000000012</v>
       </c>
       <c r="M40" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13319,11 +13316,11 @@
       </c>
       <c r="N40">
         <f t="shared" ca="1" si="8"/>
-        <v>0.32527499999999998</v>
+        <v>0.59175000000000022</v>
       </c>
       <c r="O40">
         <f t="shared" ca="1" si="9"/>
-        <v>1.6850000000000254E-2</v>
+        <v>0.19450000000000012</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
@@ -13337,15 +13334,15 @@
       </c>
       <c r="C41" t="str">
         <f>Tracker!F41</f>
-        <v>Ghosted</v>
+        <v>Pending</v>
       </c>
       <c r="D41">
         <f ca="1">(Tracker!G41+Tracker!H41)/2</f>
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E41" s="34">
         <f>IF(OR(Tracker!F41="denied",Tracker!F41="on hold",Tracker!F41="No Response",Tracker!F41="pending"), 0.2, IF(Tracker!F41="interviewing", 0.4, IF(Tracker!F41="rejected", 0.3, IF(Tracker!F41="offer", 1, 0))))</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F41" s="35">
         <f>IF(OR(Tracker!I41="linkedin", Tracker!I41="Indeed", Tracker!I41="linkedin dm"), 0.9, IF(Tracker!I41="Company Site", 1.1, 1))</f>
@@ -13364,11 +13361,11 @@
       </c>
       <c r="J41">
         <f t="shared" ca="1" si="5"/>
-        <v>0.56039999999999957</v>
+        <v>0.6230999999999991</v>
       </c>
       <c r="K41">
         <f t="shared" ca="1" si="6"/>
-        <v>-2</v>
+        <v>0.21540000000000026</v>
       </c>
       <c r="M41" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13376,11 +13373,11 @@
       </c>
       <c r="N41">
         <f t="shared" ca="1" si="8"/>
-        <v>0.56039999999999957</v>
+        <v>0.6230999999999991</v>
       </c>
       <c r="O41">
         <f t="shared" ca="1" si="9"/>
-        <v>-2</v>
+        <v>0.21540000000000026</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
@@ -13398,7 +13395,7 @@
       </c>
       <c r="D42">
         <f ca="1">(Tracker!G42+Tracker!H42)/2</f>
-        <v>91.5</v>
+        <v>113.5</v>
       </c>
       <c r="E42" s="34">
         <f>IF(OR(Tracker!F42="denied",Tracker!F42="on hold",Tracker!F42="No Response",Tracker!F42="pending"), 0.2, IF(Tracker!F42="interviewing", 0.4, IF(Tracker!F42="rejected", 0.3, IF(Tracker!F42="offer", 1, 0))))</f>
@@ -13421,11 +13418,11 @@
       </c>
       <c r="J42">
         <f t="shared" ca="1" si="5"/>
-        <v>0.16852499999999981</v>
+        <v>0.85822499999999913</v>
       </c>
       <c r="K42">
         <f t="shared" ca="1" si="6"/>
-        <v>1.1872500000000001</v>
+        <v>1.9535833333333326</v>
       </c>
       <c r="M42" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13433,11 +13430,11 @@
       </c>
       <c r="N42">
         <f t="shared" ca="1" si="8"/>
-        <v>0.16852499999999981</v>
+        <v>0.85822499999999913</v>
       </c>
       <c r="O42">
         <f t="shared" ca="1" si="9"/>
-        <v>1.1872500000000001</v>
+        <v>1.9535833333333326</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
@@ -13451,15 +13448,15 @@
       </c>
       <c r="C43" t="str">
         <f>Tracker!F43</f>
-        <v>Ghosted</v>
+        <v>Pending</v>
       </c>
       <c r="D43">
         <f ca="1">(Tracker!G43+Tracker!H43)/2</f>
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E43" s="34">
         <f>IF(OR(Tracker!F43="denied",Tracker!F43="on hold",Tracker!F43="No Response",Tracker!F43="pending"), 0.2, IF(Tracker!F43="interviewing", 0.4, IF(Tracker!F43="rejected", 0.3, IF(Tracker!F43="offer", 1, 0))))</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F43" s="35">
         <f>IF(OR(Tracker!I43="linkedin", Tracker!I43="Indeed", Tracker!I43="linkedin dm"), 0.9, IF(Tracker!I43="Company Site", 1.1, 1))</f>
@@ -13478,11 +13475,11 @@
       </c>
       <c r="J43">
         <f t="shared" ca="1" si="5"/>
-        <v>0.56039999999999957</v>
+        <v>-3.5250000000000004E-2</v>
       </c>
       <c r="K43">
         <f t="shared" ca="1" si="6"/>
-        <v>-2</v>
+        <v>-0.22350000000000003</v>
       </c>
       <c r="M43" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13490,11 +13487,11 @@
       </c>
       <c r="N43">
         <f t="shared" ca="1" si="8"/>
-        <v>0.56039999999999957</v>
+        <v>-3.5250000000000004E-2</v>
       </c>
       <c r="O43">
         <f t="shared" ca="1" si="9"/>
-        <v>-2</v>
+        <v>-0.22350000000000003</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
@@ -13512,7 +13509,7 @@
       </c>
       <c r="D44">
         <f ca="1">(Tracker!G44+Tracker!H44)/2</f>
-        <v>89.5</v>
+        <v>95.5</v>
       </c>
       <c r="E44" s="34">
         <f>IF(OR(Tracker!F44="denied",Tracker!F44="on hold",Tracker!F44="No Response",Tracker!F44="pending"), 0.2, IF(Tracker!F44="interviewing", 0.4, IF(Tracker!F44="rejected", 0.3, IF(Tracker!F44="offer", 1, 0))))</f>
@@ -13535,11 +13532,11 @@
       </c>
       <c r="J44">
         <f t="shared" ca="1" si="5"/>
-        <v>0.10582499999999939</v>
+        <v>0.29392499999999977</v>
       </c>
       <c r="K44">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.12944999999999962</v>
+        <v>-4.049999999999887E-3</v>
       </c>
       <c r="M44" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13547,11 +13544,11 @@
       </c>
       <c r="N44">
         <f t="shared" ca="1" si="8"/>
-        <v>0.10582499999999939</v>
+        <v>0.29392499999999977</v>
       </c>
       <c r="O44">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.12944999999999962</v>
+        <v>-4.049999999999887E-3</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
@@ -13569,7 +13566,7 @@
       </c>
       <c r="D45">
         <f ca="1">(Tracker!G45+Tracker!H45)/2</f>
-        <v>91</v>
+        <v>107.5</v>
       </c>
       <c r="E45" s="34">
         <f>IF(OR(Tracker!F45="denied",Tracker!F45="on hold",Tracker!F45="No Response",Tracker!F45="pending"), 0.2, IF(Tracker!F45="interviewing", 0.4, IF(Tracker!F45="rejected", 0.3, IF(Tracker!F45="offer", 1, 0))))</f>
@@ -13592,11 +13589,11 @@
       </c>
       <c r="J45">
         <f t="shared" ca="1" si="5"/>
-        <v>0.15285000000000037</v>
+        <v>0.67012500000000008</v>
       </c>
       <c r="K45">
         <f t="shared" ca="1" si="6"/>
-        <v>-9.8100000000000076E-2</v>
+        <v>0.24675000000000002</v>
       </c>
       <c r="M45" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13604,11 +13601,11 @@
       </c>
       <c r="N45">
         <f t="shared" ca="1" si="8"/>
-        <v>0.15285000000000037</v>
+        <v>0.67012500000000008</v>
       </c>
       <c r="O45">
         <f t="shared" ca="1" si="9"/>
-        <v>-9.8100000000000076E-2</v>
+        <v>0.24675000000000002</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
@@ -13626,7 +13623,7 @@
       </c>
       <c r="D46">
         <f ca="1">(Tracker!G46+Tracker!H46)/2</f>
-        <v>113.5</v>
+        <v>97</v>
       </c>
       <c r="E46" s="34">
         <f>IF(OR(Tracker!F46="denied",Tracker!F46="on hold",Tracker!F46="No Response",Tracker!F46="pending"), 0.2, IF(Tracker!F46="interviewing", 0.4, IF(Tracker!F46="rejected", 0.3, IF(Tracker!F46="offer", 1, 0))))</f>
@@ -13649,11 +13646,11 @@
       </c>
       <c r="J46">
         <f t="shared" ca="1" si="5"/>
-        <v>0.85822499999999913</v>
+        <v>0.34094999999999942</v>
       </c>
       <c r="K46">
         <f t="shared" ca="1" si="6"/>
-        <v>0.37215000000000042</v>
+        <v>2.7300000000000324E-2</v>
       </c>
       <c r="M46" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13661,11 +13658,11 @@
       </c>
       <c r="N46">
         <f t="shared" ca="1" si="8"/>
-        <v>0.85822499999999913</v>
+        <v>0.34094999999999942</v>
       </c>
       <c r="O46">
         <f t="shared" ca="1" si="9"/>
-        <v>0.37215000000000042</v>
+        <v>2.7300000000000324E-2</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
@@ -13683,7 +13680,7 @@
       </c>
       <c r="D47">
         <f ca="1">(Tracker!G47+Tracker!H47)/2</f>
-        <v>95.5</v>
+        <v>103.5</v>
       </c>
       <c r="E47" s="34">
         <f>IF(OR(Tracker!F47="denied",Tracker!F47="on hold",Tracker!F47="No Response",Tracker!F47="pending"), 0.2, IF(Tracker!F47="interviewing", 0.4, IF(Tracker!F47="rejected", 0.3, IF(Tracker!F47="offer", 1, 0))))</f>
@@ -13706,11 +13703,11 @@
       </c>
       <c r="J47">
         <f t="shared" ca="1" si="5"/>
-        <v>0.29392499999999977</v>
+        <v>0.54472499999999968</v>
       </c>
       <c r="K47">
         <f t="shared" ca="1" si="6"/>
-        <v>-4.049999999999887E-3</v>
+        <v>0.16315000000000079</v>
       </c>
       <c r="M47" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13718,11 +13715,11 @@
       </c>
       <c r="N47">
         <f t="shared" ca="1" si="8"/>
-        <v>0.29392499999999977</v>
+        <v>0.54472499999999968</v>
       </c>
       <c r="O47">
         <f t="shared" ca="1" si="9"/>
-        <v>-4.049999999999887E-3</v>
+        <v>0.16315000000000079</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
@@ -13740,7 +13737,7 @@
       </c>
       <c r="D48">
         <f ca="1">(Tracker!G48+Tracker!H48)/2</f>
-        <v>104.5</v>
+        <v>100</v>
       </c>
       <c r="E48" s="34">
         <f>IF(OR(Tracker!F48="denied",Tracker!F48="on hold",Tracker!F48="No Response",Tracker!F48="pending"), 0.2, IF(Tracker!F48="interviewing", 0.4, IF(Tracker!F48="rejected", 0.3, IF(Tracker!F48="offer", 1, 0))))</f>
@@ -13763,11 +13760,11 @@
       </c>
       <c r="J48">
         <f t="shared" ca="1" si="5"/>
-        <v>0.57607499999999945</v>
+        <v>0.43499999999999961</v>
       </c>
       <c r="K48">
         <f t="shared" ca="1" si="6"/>
-        <v>1.2760749999999996</v>
+        <v>1.1349999999999998</v>
       </c>
       <c r="M48" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13775,11 +13772,11 @@
       </c>
       <c r="N48">
         <f t="shared" ca="1" si="8"/>
-        <v>0.57607499999999945</v>
+        <v>0.43499999999999961</v>
       </c>
       <c r="O48">
         <f t="shared" ca="1" si="9"/>
-        <v>1.2760749999999996</v>
+        <v>1.1349999999999998</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
@@ -13797,7 +13794,7 @@
       </c>
       <c r="D49">
         <f ca="1">(Tracker!G49+Tracker!H49)/2</f>
-        <v>103.5</v>
+        <v>100</v>
       </c>
       <c r="E49" s="34">
         <f>IF(OR(Tracker!F49="denied",Tracker!F49="on hold",Tracker!F49="No Response",Tracker!F49="pending"), 0.2, IF(Tracker!F49="interviewing", 0.4, IF(Tracker!F49="rejected", 0.3, IF(Tracker!F49="offer", 1, 0))))</f>
@@ -13820,11 +13817,11 @@
       </c>
       <c r="J49">
         <f t="shared" ca="1" si="5"/>
-        <v>0.54472499999999968</v>
+        <v>0.43499999999999961</v>
       </c>
       <c r="K49">
         <f t="shared" ca="1" si="6"/>
-        <v>0.16315000000000079</v>
+        <v>8.9999999999999858E-2</v>
       </c>
       <c r="M49" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13832,11 +13829,11 @@
       </c>
       <c r="N49">
         <f t="shared" ca="1" si="8"/>
-        <v>0.54472499999999968</v>
+        <v>0.43499999999999961</v>
       </c>
       <c r="O49">
         <f t="shared" ca="1" si="9"/>
-        <v>0.16315000000000079</v>
+        <v>8.9999999999999858E-2</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
@@ -13854,7 +13851,7 @@
       </c>
       <c r="D50">
         <f ca="1">(Tracker!G50+Tracker!H50)/2</f>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E50" s="34">
         <f>IF(OR(Tracker!F50="denied",Tracker!F50="on hold",Tracker!F50="No Response",Tracker!F50="pending"), 0.2, IF(Tracker!F50="interviewing", 0.4, IF(Tracker!F50="rejected", 0.3, IF(Tracker!F50="offer", 1, 0))))</f>
@@ -13877,11 +13874,11 @@
       </c>
       <c r="J50">
         <f t="shared" ca="1" si="5"/>
-        <v>0.43499999999999961</v>
+        <v>0.12149999999999972</v>
       </c>
       <c r="K50">
         <f t="shared" ca="1" si="6"/>
-        <v>1.1349999999999998</v>
+        <v>0.8214999999999999</v>
       </c>
       <c r="M50" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13889,11 +13886,11 @@
       </c>
       <c r="N50">
         <f t="shared" ca="1" si="8"/>
-        <v>0.43499999999999961</v>
+        <v>0.12149999999999972</v>
       </c>
       <c r="O50">
         <f t="shared" ca="1" si="9"/>
-        <v>1.1349999999999998</v>
+        <v>0.8214999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
@@ -13911,7 +13908,7 @@
       </c>
       <c r="D51">
         <f ca="1">(Tracker!G51+Tracker!H51)/2</f>
-        <v>91</v>
+        <v>86.5</v>
       </c>
       <c r="E51" s="34">
         <f>IF(OR(Tracker!F51="denied",Tracker!F51="on hold",Tracker!F51="No Response",Tracker!F51="pending"), 0.2, IF(Tracker!F51="interviewing", 0.4, IF(Tracker!F51="rejected", 0.3, IF(Tracker!F51="offer", 1, 0))))</f>
@@ -13934,11 +13931,11 @@
       </c>
       <c r="J51">
         <f t="shared" ca="1" si="5"/>
-        <v>0.15285000000000037</v>
+        <v>1.1775000000000091E-2</v>
       </c>
       <c r="K51">
         <f t="shared" ca="1" si="6"/>
-        <v>-9.8100000000000076E-2</v>
+        <v>-0.19214999999999982</v>
       </c>
       <c r="M51" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -13946,11 +13943,11 @@
       </c>
       <c r="N51">
         <f t="shared" ca="1" si="8"/>
-        <v>0.15285000000000037</v>
+        <v>1.1775000000000091E-2</v>
       </c>
       <c r="O51">
         <f t="shared" ca="1" si="9"/>
-        <v>-9.8100000000000076E-2</v>
+        <v>-0.19214999999999982</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
@@ -13968,7 +13965,7 @@
       </c>
       <c r="D52">
         <f ca="1">(Tracker!G52+Tracker!H52)/2</f>
-        <v>119</v>
+        <v>117.5</v>
       </c>
       <c r="E52" s="34">
         <f>IF(OR(Tracker!F52="denied",Tracker!F52="on hold",Tracker!F52="No Response",Tracker!F52="pending"), 0.2, IF(Tracker!F52="interviewing", 0.4, IF(Tracker!F52="rejected", 0.3, IF(Tracker!F52="offer", 1, 0))))</f>
@@ -13991,11 +13988,11 @@
       </c>
       <c r="J52">
         <f t="shared" ca="1" si="5"/>
-        <v>1.0306499999999992</v>
+        <v>0.98362500000000042</v>
       </c>
       <c r="K52">
         <f t="shared" ca="1" si="6"/>
-        <v>1.7306499999999994</v>
+        <v>1.6836250000000006</v>
       </c>
       <c r="M52" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14003,11 +14000,11 @@
       </c>
       <c r="N52">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0306499999999992</v>
+        <v>0.98362500000000042</v>
       </c>
       <c r="O52">
         <f t="shared" ca="1" si="9"/>
-        <v>1.7306499999999994</v>
+        <v>1.6836250000000006</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.35">
@@ -14025,7 +14022,7 @@
       </c>
       <c r="D53">
         <f ca="1">(Tracker!G53+Tracker!H53)/2</f>
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="E53" s="34">
         <f>IF(OR(Tracker!F53="denied",Tracker!F53="on hold",Tracker!F53="No Response",Tracker!F53="pending"), 0.2, IF(Tracker!F53="interviewing", 0.4, IF(Tracker!F53="rejected", 0.3, IF(Tracker!F53="offer", 1, 0))))</f>
@@ -14048,11 +14045,11 @@
       </c>
       <c r="J53">
         <f t="shared" ca="1" si="5"/>
-        <v>0.65444999999999975</v>
+        <v>0.24690000000000012</v>
       </c>
       <c r="K53">
         <f t="shared" ca="1" si="6"/>
-        <v>2.4726000000000008</v>
+        <v>1.9292000000000002</v>
       </c>
       <c r="M53" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14060,11 +14057,11 @@
       </c>
       <c r="N53">
         <f t="shared" ca="1" si="8"/>
-        <v>0.65444999999999975</v>
+        <v>0.24690000000000012</v>
       </c>
       <c r="O53">
         <f t="shared" ca="1" si="9"/>
-        <v>2.4726000000000008</v>
+        <v>1.9292000000000002</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.35">
@@ -14082,7 +14079,7 @@
       </c>
       <c r="D54">
         <f ca="1">(Tracker!G54+Tracker!H54)/2</f>
-        <v>111.5</v>
+        <v>106.5</v>
       </c>
       <c r="E54" s="34">
         <f>IF(OR(Tracker!F54="denied",Tracker!F54="on hold",Tracker!F54="No Response",Tracker!F54="pending"), 0.2, IF(Tracker!F54="interviewing", 0.4, IF(Tracker!F54="rejected", 0.3, IF(Tracker!F54="offer", 1, 0))))</f>
@@ -14105,11 +14102,11 @@
       </c>
       <c r="J54">
         <f t="shared" ca="1" si="5"/>
-        <v>0.47774999999999901</v>
+        <v>0.33524999999999983</v>
       </c>
       <c r="K54">
         <f t="shared" ca="1" si="6"/>
-        <v>2.2369999999999992</v>
+        <v>2.0469999999999997</v>
       </c>
       <c r="M54" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14117,11 +14114,11 @@
       </c>
       <c r="N54">
         <f t="shared" ca="1" si="8"/>
-        <v>0.47774999999999901</v>
+        <v>0.33524999999999983</v>
       </c>
       <c r="O54">
         <f t="shared" ca="1" si="9"/>
-        <v>2.2369999999999992</v>
+        <v>2.0469999999999997</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.35">
@@ -14139,7 +14136,7 @@
       </c>
       <c r="D55">
         <f ca="1">(Tracker!G55+Tracker!H55)/2</f>
-        <v>108.5</v>
+        <v>102</v>
       </c>
       <c r="E55" s="34">
         <f>IF(OR(Tracker!F55="denied",Tracker!F55="on hold",Tracker!F55="No Response",Tracker!F55="pending"), 0.2, IF(Tracker!F55="interviewing", 0.4, IF(Tracker!F55="rejected", 0.3, IF(Tracker!F55="offer", 1, 0))))</f>
@@ -14162,11 +14159,11 @@
       </c>
       <c r="J55">
         <f t="shared" ca="1" si="5"/>
-        <v>0.39224999999999932</v>
+        <v>0.20699999999999941</v>
       </c>
       <c r="K55">
         <f t="shared" ca="1" si="6"/>
-        <v>1.0922499999999995</v>
+        <v>0.90699999999999958</v>
       </c>
       <c r="M55" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14174,11 +14171,11 @@
       </c>
       <c r="N55">
         <f t="shared" ca="1" si="8"/>
-        <v>0.39224999999999932</v>
+        <v>0.20699999999999941</v>
       </c>
       <c r="O55">
         <f t="shared" ca="1" si="9"/>
-        <v>1.0922499999999995</v>
+        <v>0.90699999999999958</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
@@ -14196,7 +14193,7 @@
       </c>
       <c r="D56">
         <f ca="1">(Tracker!G56+Tracker!H56)/2</f>
-        <v>97.5</v>
+        <v>95.5</v>
       </c>
       <c r="E56" s="34">
         <f>IF(OR(Tracker!F56="denied",Tracker!F56="on hold",Tracker!F56="No Response",Tracker!F56="pending"), 0.2, IF(Tracker!F56="interviewing", 0.4, IF(Tracker!F56="rejected", 0.3, IF(Tracker!F56="offer", 1, 0))))</f>
@@ -14219,11 +14216,11 @@
       </c>
       <c r="J56">
         <f t="shared" ca="1" si="5"/>
-        <v>7.8749999999999432E-2</v>
+        <v>2.1749999999999492E-2</v>
       </c>
       <c r="K56">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.14750000000000019</v>
+        <v>-0.1855</v>
       </c>
       <c r="M56" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14231,11 +14228,11 @@
       </c>
       <c r="N56">
         <f t="shared" ca="1" si="8"/>
-        <v>7.8749999999999432E-2</v>
+        <v>2.1749999999999492E-2</v>
       </c>
       <c r="O56">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.14750000000000019</v>
+        <v>-0.1855</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.35">
@@ -14253,7 +14250,7 @@
       </c>
       <c r="D57">
         <f ca="1">(Tracker!G57+Tracker!H57)/2</f>
-        <v>97.5</v>
+        <v>95</v>
       </c>
       <c r="E57" s="34">
         <f>IF(OR(Tracker!F57="denied",Tracker!F57="on hold",Tracker!F57="No Response",Tracker!F57="pending"), 0.2, IF(Tracker!F57="interviewing", 0.4, IF(Tracker!F57="rejected", 0.3, IF(Tracker!F57="offer", 1, 0))))</f>
@@ -14276,11 +14273,11 @@
       </c>
       <c r="J57">
         <f t="shared" ca="1" si="5"/>
-        <v>7.8749999999999432E-2</v>
+        <v>7.4999999999998401E-3</v>
       </c>
       <c r="K57">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.14750000000000019</v>
+        <v>-0.19499999999999984</v>
       </c>
       <c r="M57" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14288,11 +14285,11 @@
       </c>
       <c r="N57">
         <f t="shared" ca="1" si="8"/>
-        <v>7.8749999999999432E-2</v>
+        <v>7.4999999999998401E-3</v>
       </c>
       <c r="O57">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.14750000000000019</v>
+        <v>-0.19499999999999984</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.35">
@@ -14310,7 +14307,7 @@
       </c>
       <c r="D58">
         <f ca="1">(Tracker!G58+Tracker!H58)/2</f>
-        <v>104.5</v>
+        <v>90.5</v>
       </c>
       <c r="E58" s="34">
         <f>IF(OR(Tracker!F58="denied",Tracker!F58="on hold",Tracker!F58="No Response",Tracker!F58="pending"), 0.2, IF(Tracker!F58="interviewing", 0.4, IF(Tracker!F58="rejected", 0.3, IF(Tracker!F58="offer", 1, 0))))</f>
@@ -14333,11 +14330,11 @@
       </c>
       <c r="J58">
         <f t="shared" ca="1" si="5"/>
-        <v>0.27824999999999944</v>
+        <v>-0.12075000000000058</v>
       </c>
       <c r="K58">
         <f t="shared" ca="1" si="6"/>
-        <v>-1.4499999999999957E-2</v>
+        <v>-0.28049999999999997</v>
       </c>
       <c r="M58" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14345,11 +14342,11 @@
       </c>
       <c r="N58">
         <f t="shared" ca="1" si="8"/>
-        <v>0.27824999999999944</v>
+        <v>-0.12075000000000058</v>
       </c>
       <c r="O58">
         <f t="shared" ca="1" si="9"/>
-        <v>-1.4499999999999957E-2</v>
+        <v>-0.28049999999999997</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.35">
@@ -14367,7 +14364,7 @@
       </c>
       <c r="D59">
         <f ca="1">(Tracker!G59+Tracker!H59)/2</f>
-        <v>106.5</v>
+        <v>98.5</v>
       </c>
       <c r="E59" s="34">
         <f>IF(OR(Tracker!F59="denied",Tracker!F59="on hold",Tracker!F59="No Response",Tracker!F59="pending"), 0.2, IF(Tracker!F59="interviewing", 0.4, IF(Tracker!F59="rejected", 0.3, IF(Tracker!F59="offer", 1, 0))))</f>
@@ -14390,11 +14387,11 @@
       </c>
       <c r="J59">
         <f t="shared" ca="1" si="5"/>
-        <v>0.33524999999999983</v>
+        <v>0.10724999999999918</v>
       </c>
       <c r="K59">
         <f t="shared" ca="1" si="6"/>
-        <v>2.3499999999999854E-2</v>
+        <v>-0.12849999999999961</v>
       </c>
       <c r="M59" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14402,11 +14399,11 @@
       </c>
       <c r="N59">
         <f t="shared" ca="1" si="8"/>
-        <v>0.33524999999999983</v>
+        <v>0.10724999999999918</v>
       </c>
       <c r="O59">
         <f t="shared" ca="1" si="9"/>
-        <v>2.3499999999999854E-2</v>
+        <v>-0.12849999999999961</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.35">
@@ -14424,7 +14421,7 @@
       </c>
       <c r="D60">
         <f ca="1">(Tracker!G60+Tracker!H60)/2</f>
-        <v>89.5</v>
+        <v>115</v>
       </c>
       <c r="E60" s="34">
         <f>IF(OR(Tracker!F60="denied",Tracker!F60="on hold",Tracker!F60="No Response",Tracker!F60="pending"), 0.2, IF(Tracker!F60="interviewing", 0.4, IF(Tracker!F60="rejected", 0.3, IF(Tracker!F60="offer", 1, 0))))</f>
@@ -14447,11 +14444,11 @@
       </c>
       <c r="J60">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.14925000000000033</v>
+        <v>0.57749999999999968</v>
       </c>
       <c r="K60">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.29949999999999966</v>
+        <v>0.18499999999999961</v>
       </c>
       <c r="M60" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14459,11 +14456,11 @@
       </c>
       <c r="N60">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.14925000000000033</v>
+        <v>0.57749999999999968</v>
       </c>
       <c r="O60">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.29949999999999966</v>
+        <v>0.18499999999999961</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.35">
@@ -14481,7 +14478,7 @@
       </c>
       <c r="D61">
         <f ca="1">(Tracker!G61+Tracker!H61)/2</f>
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E61" s="34">
         <f>IF(OR(Tracker!F61="denied",Tracker!F61="on hold",Tracker!F61="No Response",Tracker!F61="pending"), 0.2, IF(Tracker!F61="interviewing", 0.4, IF(Tracker!F61="rejected", 0.3, IF(Tracker!F61="offer", 1, 0))))</f>
@@ -14504,11 +14501,11 @@
       </c>
       <c r="J61">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.13500000000000023</v>
+        <v>-4.9500000000000099E-2</v>
       </c>
       <c r="K61">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.29000000000000026</v>
+        <v>-0.23299999999999987</v>
       </c>
       <c r="M61" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14516,11 +14513,11 @@
       </c>
       <c r="N61">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.13500000000000023</v>
+        <v>-4.9500000000000099E-2</v>
       </c>
       <c r="O61">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.29000000000000026</v>
+        <v>-0.23299999999999987</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.35">
@@ -14538,7 +14535,7 @@
       </c>
       <c r="D62">
         <f ca="1">(Tracker!G62+Tracker!H62)/2</f>
-        <v>100</v>
+        <v>82.5</v>
       </c>
       <c r="E62" s="34">
         <f>IF(OR(Tracker!F62="denied",Tracker!F62="on hold",Tracker!F62="No Response",Tracker!F62="pending"), 0.2, IF(Tracker!F62="interviewing", 0.4, IF(Tracker!F62="rejected", 0.3, IF(Tracker!F62="offer", 1, 0))))</f>
@@ -14561,11 +14558,11 @@
       </c>
       <c r="J62">
         <f t="shared" ca="1" si="5"/>
-        <v>0.14999999999999991</v>
+        <v>-0.34875000000000034</v>
       </c>
       <c r="K62">
         <f t="shared" ca="1" si="6"/>
-        <v>0.85000000000000009</v>
+        <v>0.35124999999999984</v>
       </c>
       <c r="M62" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14573,11 +14570,11 @@
       </c>
       <c r="N62">
         <f t="shared" ca="1" si="8"/>
-        <v>0.14999999999999991</v>
+        <v>-0.34875000000000034</v>
       </c>
       <c r="O62">
         <f t="shared" ca="1" si="9"/>
-        <v>0.85000000000000009</v>
+        <v>0.35124999999999984</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.35">
@@ -14595,7 +14592,7 @@
       </c>
       <c r="D63">
         <f ca="1">(Tracker!G63+Tracker!H63)/2</f>
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E63" s="34">
         <f>IF(OR(Tracker!F63="denied",Tracker!F63="on hold",Tracker!F63="No Response",Tracker!F63="pending"), 0.2, IF(Tracker!F63="interviewing", 0.4, IF(Tracker!F63="rejected", 0.3, IF(Tracker!F63="offer", 1, 0))))</f>
@@ -14618,11 +14615,11 @@
       </c>
       <c r="J63">
         <f t="shared" ca="1" si="5"/>
-        <v>0.49199999999999955</v>
+        <v>0.37799999999999967</v>
       </c>
       <c r="K63">
         <f t="shared" ca="1" si="6"/>
-        <v>0.12800000000000011</v>
+        <v>5.2000000000000046E-2</v>
       </c>
       <c r="M63" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14630,11 +14627,11 @@
       </c>
       <c r="N63">
         <f t="shared" ca="1" si="8"/>
-        <v>0.49199999999999955</v>
+        <v>0.37799999999999967</v>
       </c>
       <c r="O63">
         <f t="shared" ca="1" si="9"/>
-        <v>0.12800000000000011</v>
+        <v>5.2000000000000046E-2</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.35">
@@ -14709,7 +14706,7 @@
       </c>
       <c r="D65">
         <f ca="1">(Tracker!G65+Tracker!H65)/2</f>
-        <v>93.5</v>
+        <v>117</v>
       </c>
       <c r="E65" s="34">
         <f>IF(OR(Tracker!F65="denied",Tracker!F65="on hold",Tracker!F65="No Response",Tracker!F65="pending"), 0.2, IF(Tracker!F65="interviewing", 0.4, IF(Tracker!F65="rejected", 0.3, IF(Tracker!F65="offer", 1, 0))))</f>
@@ -14732,11 +14729,11 @@
       </c>
       <c r="J65">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.30172500000000024</v>
+        <v>0.30105000000000004</v>
       </c>
       <c r="K65">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.40115000000000012</v>
+        <v>7.0000000000014495E-4</v>
       </c>
       <c r="M65" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14744,11 +14741,11 @@
       </c>
       <c r="N65">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.30172500000000024</v>
+        <v>0.30105000000000004</v>
       </c>
       <c r="O65">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.40115000000000012</v>
+        <v>7.0000000000014495E-4</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.35">
@@ -14766,7 +14763,7 @@
       </c>
       <c r="D66">
         <f ca="1">(Tracker!G66+Tracker!H66)/2</f>
-        <v>92.5</v>
+        <v>101</v>
       </c>
       <c r="E66" s="34">
         <f>IF(OR(Tracker!F66="denied",Tracker!F66="on hold",Tracker!F66="No Response",Tracker!F66="pending"), 0.2, IF(Tracker!F66="interviewing", 0.4, IF(Tracker!F66="rejected", 0.3, IF(Tracker!F66="offer", 1, 0))))</f>
@@ -14789,11 +14786,11 @@
       </c>
       <c r="J66">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.32737499999999997</v>
+        <v>-0.1093500000000005</v>
       </c>
       <c r="K66">
         <f t="shared" ca="1" si="6"/>
-        <v>0.51071428571428612</v>
+        <v>0.74142857142857155</v>
       </c>
       <c r="M66" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14801,11 +14798,11 @@
       </c>
       <c r="N66">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.32737499999999997</v>
+        <v>-0.1093500000000005</v>
       </c>
       <c r="O66">
         <f t="shared" ca="1" si="9"/>
-        <v>0.51071428571428612</v>
+        <v>0.74142857142857155</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.35">
@@ -14823,7 +14820,7 @@
       </c>
       <c r="D67">
         <f ca="1">(Tracker!G67+Tracker!H67)/2</f>
-        <v>99.5</v>
+        <v>98</v>
       </c>
       <c r="E67" s="34">
         <f>IF(OR(Tracker!F67="denied",Tracker!F67="on hold",Tracker!F67="No Response",Tracker!F67="pending"), 0.2, IF(Tracker!F67="interviewing", 0.4, IF(Tracker!F67="rejected", 0.3, IF(Tracker!F67="offer", 1, 0))))</f>
@@ -14846,11 +14843,11 @@
       </c>
       <c r="J67">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.14782500000000054</v>
+        <v>-0.18630000000000013</v>
       </c>
       <c r="K67">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.10949999999999971</v>
+        <v>-0.13800000000000012</v>
       </c>
       <c r="M67" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14858,11 +14855,11 @@
       </c>
       <c r="N67">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.14782500000000054</v>
+        <v>-0.18630000000000013</v>
       </c>
       <c r="O67">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.10949999999999971</v>
+        <v>-0.13800000000000012</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.35">
@@ -14876,15 +14873,15 @@
       </c>
       <c r="C68" t="str">
         <f>Tracker!F68</f>
-        <v>Ghosted</v>
+        <v>Pending</v>
       </c>
       <c r="D68">
         <f ca="1">(Tracker!G68+Tracker!H68)/2</f>
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="E68" s="34">
         <f>IF(OR(Tracker!F68="denied",Tracker!F68="on hold",Tracker!F68="No Response",Tracker!F68="pending"), 0.2, IF(Tracker!F68="interviewing", 0.4, IF(Tracker!F68="rejected", 0.3, IF(Tracker!F68="offer", 1, 0))))</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F68" s="35">
         <f>IF(OR(Tracker!I68="linkedin", Tracker!I68="Indeed", Tracker!I68="linkedin dm"), 0.9, IF(Tracker!I68="Company Site", 1.1, 1))</f>
@@ -14903,11 +14900,11 @@
       </c>
       <c r="J68">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.34020000000000028</v>
+        <v>-0.6736500000000003</v>
       </c>
       <c r="K68">
         <f t="shared" ca="1" si="6"/>
-        <v>-2</v>
+        <v>-0.49899999999999989</v>
       </c>
       <c r="M68" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14915,11 +14912,11 @@
       </c>
       <c r="N68">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.34020000000000028</v>
+        <v>-0.6736500000000003</v>
       </c>
       <c r="O68">
         <f t="shared" ca="1" si="9"/>
-        <v>-2</v>
+        <v>-0.49899999999999989</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.35">
@@ -14937,7 +14934,7 @@
       </c>
       <c r="D69">
         <f ca="1">(Tracker!G69+Tracker!H69)/2</f>
-        <v>115.5</v>
+        <v>88</v>
       </c>
       <c r="E69" s="34">
         <f>IF(OR(Tracker!F69="denied",Tracker!F69="on hold",Tracker!F69="No Response",Tracker!F69="pending"), 0.2, IF(Tracker!F69="interviewing", 0.4, IF(Tracker!F69="rejected", 0.3, IF(Tracker!F69="offer", 1, 0))))</f>
@@ -14960,11 +14957,11 @@
       </c>
       <c r="J69">
         <f t="shared" ca="1" si="5"/>
-        <v>0.26257499999999956</v>
+        <v>-0.44280000000000053</v>
       </c>
       <c r="K69">
         <f t="shared" ca="1" si="6"/>
-        <v>0.19450000000000012</v>
+        <v>-0.32800000000000007</v>
       </c>
       <c r="M69" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -14972,11 +14969,11 @@
       </c>
       <c r="N69">
         <f t="shared" ca="1" si="8"/>
-        <v>0.26257499999999956</v>
+        <v>-0.44280000000000053</v>
       </c>
       <c r="O69">
         <f t="shared" ca="1" si="9"/>
-        <v>0.19450000000000012</v>
+        <v>-0.32800000000000007</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.35">
@@ -14994,7 +14991,7 @@
       </c>
       <c r="D70">
         <f ca="1">(Tracker!G70+Tracker!H70)/2</f>
-        <v>109.5</v>
+        <v>104.5</v>
       </c>
       <c r="E70" s="34">
         <f>IF(OR(Tracker!F70="denied",Tracker!F70="on hold",Tracker!F70="No Response",Tracker!F70="pending"), 0.2, IF(Tracker!F70="interviewing", 0.4, IF(Tracker!F70="rejected", 0.3, IF(Tracker!F70="offer", 1, 0))))</f>
@@ -15017,11 +15014,11 @@
       </c>
       <c r="J70">
         <f t="shared" ca="1" si="5"/>
-        <v>0.10867499999999986</v>
+        <v>-1.957500000000012E-2</v>
       </c>
       <c r="K70">
         <f t="shared" ca="1" si="6"/>
-        <v>8.0499999999999794E-2</v>
+        <v>-1.4499999999999735E-2</v>
       </c>
       <c r="M70" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -15029,11 +15026,11 @@
       </c>
       <c r="N70">
         <f t="shared" ca="1" si="8"/>
-        <v>0.10867499999999986</v>
+        <v>-1.957500000000012E-2</v>
       </c>
       <c r="O70">
         <f t="shared" ca="1" si="9"/>
-        <v>8.0499999999999794E-2</v>
+        <v>-1.4499999999999735E-2</v>
       </c>
     </row>
   </sheetData>

--- a/example_app_tracker.xlsx
+++ b/example_app_tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\graha\OneDrive\Documents\GitHub\application_tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C4DAB6-6F32-4E30-8375-8885C2461832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C41C96-9F27-4B63-A6E8-7BEA85FB506B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17840" yWindow="3510" windowWidth="20070" windowHeight="15190" activeTab="1" xr2:uid="{85E7A6A4-6F22-48D9-815F-FC03736B7AC4}"/>
+    <workbookView xWindow="17670" yWindow="3640" windowWidth="20070" windowHeight="15190" activeTab="1" xr2:uid="{85E7A6A4-6F22-48D9-815F-FC03736B7AC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
@@ -1482,11 +1482,11 @@
       </c>
       <c r="G2">
         <f ca="1">ROUND(RAND()*60+50,0)</f>
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H2">
         <f ca="1">ROUND(RAND()*40+100,0)</f>
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>11</v>
@@ -1520,11 +1520,11 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G66" ca="1" si="1">ROUND(RAND()*60+50,0)</f>
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H66" ca="1" si="2">ROUND(RAND()*40+100,0)</f>
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>11</v>
@@ -1558,11 +1558,11 @@
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="1"/>
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="2"/>
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>11</v>
@@ -1596,11 +1596,11 @@
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="1"/>
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="2"/>
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>10</v>
@@ -1634,11 +1634,11 @@
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="2"/>
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>11</v>
@@ -1672,11 +1672,11 @@
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="2"/>
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>11</v>
@@ -1710,11 +1710,11 @@
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="2"/>
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>11</v>
@@ -1748,11 +1748,11 @@
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="2"/>
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>11</v>
@@ -1786,11 +1786,11 @@
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="1"/>
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="2"/>
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>13</v>
@@ -1824,11 +1824,11 @@
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="2"/>
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>11</v>
@@ -1862,11 +1862,11 @@
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="2"/>
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>11</v>
@@ -1900,11 +1900,11 @@
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="2"/>
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>10</v>
@@ -1938,11 +1938,11 @@
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="2"/>
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>10</v>
@@ -1976,11 +1976,11 @@
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="2"/>
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>10</v>
@@ -2014,11 +2014,11 @@
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="2"/>
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>14</v>
@@ -2052,11 +2052,11 @@
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="2"/>
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>14</v>
@@ -2090,11 +2090,11 @@
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="2"/>
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>14</v>
@@ -2128,11 +2128,11 @@
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="2"/>
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>14</v>
@@ -2166,11 +2166,11 @@
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="2"/>
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>14</v>
@@ -2204,11 +2204,11 @@
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="2"/>
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>217</v>
@@ -2242,11 +2242,11 @@
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="2"/>
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>217</v>
@@ -2280,11 +2280,11 @@
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="2"/>
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>217</v>
@@ -2318,11 +2318,11 @@
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="2"/>
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>9</v>
@@ -2356,11 +2356,11 @@
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="2"/>
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>9</v>
@@ -2394,11 +2394,11 @@
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="2"/>
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>9</v>
@@ -2432,11 +2432,11 @@
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="2"/>
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>9</v>
@@ -2470,11 +2470,11 @@
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="2"/>
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>9</v>
@@ -2508,11 +2508,11 @@
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="2"/>
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>9</v>
@@ -2546,7 +2546,7 @@
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="2"/>
@@ -2584,11 +2584,11 @@
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="2"/>
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>9</v>
@@ -2622,11 +2622,11 @@
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="2"/>
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>14</v>
@@ -2660,11 +2660,11 @@
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="2"/>
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>15</v>
@@ -2698,11 +2698,11 @@
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="2"/>
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>15</v>
@@ -2736,11 +2736,11 @@
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="2"/>
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>15</v>
@@ -2774,11 +2774,11 @@
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="2"/>
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>15</v>
@@ -2812,11 +2812,11 @@
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="2"/>
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>17</v>
@@ -2850,11 +2850,11 @@
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="2"/>
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>17</v>
@@ -2888,11 +2888,11 @@
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="2"/>
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>17</v>
@@ -2926,7 +2926,7 @@
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="2"/>
@@ -2964,11 +2964,11 @@
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="2"/>
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>17</v>
@@ -3002,11 +3002,11 @@
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="2"/>
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>17</v>
@@ -3040,11 +3040,11 @@
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="2"/>
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>17</v>
@@ -3078,11 +3078,11 @@
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="2"/>
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>18</v>
@@ -3116,11 +3116,11 @@
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="1"/>
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="2"/>
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>18</v>
@@ -3154,11 +3154,11 @@
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="2"/>
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>18</v>
@@ -3192,11 +3192,11 @@
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="1"/>
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="2"/>
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>18</v>
@@ -3230,11 +3230,11 @@
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="H48">
         <f t="shared" ca="1" si="2"/>
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>18</v>
@@ -3272,7 +3272,7 @@
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="2"/>
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>18</v>
@@ -3306,11 +3306,11 @@
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="2"/>
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>18</v>
@@ -3344,11 +3344,11 @@
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>33</v>
@@ -3382,11 +3382,11 @@
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="H52">
         <f t="shared" ca="1" si="2"/>
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>33</v>
@@ -3420,11 +3420,11 @@
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="H53">
         <f t="shared" ca="1" si="2"/>
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>33</v>
@@ -3458,11 +3458,11 @@
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="2"/>
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>33</v>
@@ -3496,11 +3496,11 @@
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="1"/>
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="2"/>
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>33</v>
@@ -3534,11 +3534,11 @@
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="H56">
         <f t="shared" ca="1" si="2"/>
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>33</v>
@@ -3572,7 +3572,7 @@
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H57">
         <f t="shared" ca="1" si="2"/>
@@ -3610,11 +3610,11 @@
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H58">
         <f t="shared" ca="1" si="2"/>
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>33</v>
@@ -3648,11 +3648,11 @@
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="H59">
         <f t="shared" ca="1" si="2"/>
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>33</v>
@@ -3686,11 +3686,11 @@
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="H60">
         <f t="shared" ca="1" si="2"/>
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>34</v>
@@ -3724,11 +3724,11 @@
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="H61">
         <f t="shared" ca="1" si="2"/>
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>34</v>
@@ -3762,11 +3762,11 @@
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="H62">
         <f t="shared" ca="1" si="2"/>
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>34</v>
@@ -3800,11 +3800,11 @@
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="H63">
         <f t="shared" ca="1" si="2"/>
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>34</v>
@@ -3838,11 +3838,11 @@
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="H64">
         <f t="shared" ca="1" si="2"/>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>34</v>
@@ -3876,11 +3876,11 @@
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="1"/>
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="H65">
         <f t="shared" ca="1" si="2"/>
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>34</v>
@@ -3914,11 +3914,11 @@
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H66">
         <f t="shared" ca="1" si="2"/>
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>11</v>
@@ -3952,11 +3952,11 @@
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G75" ca="1" si="5">ROUND(RAND()*60+50,0)</f>
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H67">
         <f t="shared" ref="H67:H75" ca="1" si="6">ROUND(RAND()*40+100,0)</f>
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>11</v>
@@ -3990,11 +3990,11 @@
       </c>
       <c r="G68">
         <f t="shared" ca="1" si="5"/>
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="H68">
         <f t="shared" ca="1" si="6"/>
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>11</v>
@@ -4028,11 +4028,11 @@
       </c>
       <c r="G69">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="H69">
         <f t="shared" ca="1" si="6"/>
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>11</v>
@@ -4066,11 +4066,11 @@
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="5"/>
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="H70">
         <f t="shared" ca="1" si="6"/>
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>11</v>
@@ -4104,11 +4104,11 @@
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="5"/>
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H71">
         <f t="shared" ca="1" si="6"/>
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>9</v>
@@ -4142,11 +4142,11 @@
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H72">
         <f t="shared" ca="1" si="6"/>
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>9</v>
@@ -4180,11 +4180,11 @@
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H73">
         <f t="shared" ca="1" si="6"/>
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>9</v>
@@ -4218,11 +4218,11 @@
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H74">
         <f t="shared" ca="1" si="6"/>
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>9</v>
@@ -4256,11 +4256,11 @@
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="H75">
         <f t="shared" ca="1" si="6"/>
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>9</v>
@@ -4354,7 +4354,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4431,7 +4431,7 @@
       </c>
       <c r="D2">
         <f ca="1">(Tracker!G2+Tracker!H2)/2</f>
-        <v>108</v>
+        <v>98.5</v>
       </c>
       <c r="E2" s="11">
         <f>IF(OR(Tracker!F2="denied",Tracker!F2="on hold",Tracker!F2="No Response",Tracker!F2="pending"), 0.2, IF(Tracker!F2="interviewing", 0.4, IF(Tracker!F2="rejected", 0.3, IF(Tracker!F2="offer", 1, 0))))</f>
@@ -4454,11 +4454,11 @@
       </c>
       <c r="J2">
         <f t="shared" ref="J2:J15" ca="1" si="0">IF(D2=0,0,((0.3*D2*G2*H2)/10)-2.7)</f>
-        <v>0.68579999999999952</v>
+        <v>0.38797499999999996</v>
       </c>
       <c r="K2">
         <f t="shared" ref="K2:K15" ca="1" si="1">IF(D2=0, 0,((D2*E2*G2*H2)/(F2*I2)-2))</f>
-        <v>0.64000000000000012</v>
+        <v>0.40777777777777802</v>
       </c>
       <c r="M2" t="e">
         <f ca="1">IF(J2=0, 0, NA())</f>
@@ -4466,11 +4466,11 @@
       </c>
       <c r="N2">
         <f t="shared" ref="N2:N15" ca="1" si="2">IF(J2=0, NA(), J2)</f>
-        <v>0.68579999999999952</v>
+        <v>0.38797499999999996</v>
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O15" ca="1" si="3">IF(K2=0, NA(), K2)</f>
-        <v>0.64000000000000012</v>
+        <v>0.40777777777777802</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
@@ -4488,7 +4488,7 @@
       </c>
       <c r="D3">
         <f ca="1">(Tracker!G3+Tracker!H3)/2</f>
-        <v>116</v>
+        <v>115.5</v>
       </c>
       <c r="E3" s="11">
         <f>IF(OR(Tracker!F3="denied",Tracker!F3="on hold",Tracker!F3="No Response",Tracker!F3="pending"), 0.2, IF(Tracker!F3="interviewing", 0.4, IF(Tracker!F3="rejected", 0.3, IF(Tracker!F3="offer", 1, 0))))</f>
@@ -4511,11 +4511,11 @@
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93659999999999988</v>
+        <v>0.92092499999999955</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7537254901960786</v>
+        <v>2.7332352941176463</v>
       </c>
       <c r="M3" t="e">
         <f t="shared" ref="M3:M15" ca="1" si="4">IF(J3=0, 0, NA())</f>
@@ -4523,11 +4523,11 @@
       </c>
       <c r="N3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.93659999999999988</v>
+        <v>0.92092499999999955</v>
       </c>
       <c r="O3">
         <f t="shared" ca="1" si="3"/>
-        <v>2.7537254901960786</v>
+        <v>2.7332352941176463</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
@@ -4545,7 +4545,7 @@
       </c>
       <c r="D4">
         <f ca="1">(Tracker!G4+Tracker!H4)/2</f>
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E4" s="11">
         <f>IF(OR(Tracker!F4="denied",Tracker!F4="on hold",Tracker!F4="No Response",Tracker!F4="pending"), 0.2, IF(Tracker!F4="interviewing", 0.4, IF(Tracker!F4="rejected", 0.3, IF(Tracker!F4="offer", 1, 0))))</f>
@@ -4568,11 +4568,11 @@
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77985000000000015</v>
+        <v>0.46634999999999938</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57766666666666744</v>
+        <v>0.34544444444444489</v>
       </c>
       <c r="M4" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -4580,11 +4580,11 @@
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="2"/>
-        <v>0.77985000000000015</v>
+        <v>0.46634999999999938</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="3"/>
-        <v>0.57766666666666744</v>
+        <v>0.34544444444444489</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
@@ -4602,7 +4602,7 @@
       </c>
       <c r="D5">
         <f ca="1">(Tracker!G5+Tracker!H5)/2</f>
-        <v>105</v>
+        <v>106.5</v>
       </c>
       <c r="E5" s="11">
         <f>IF(OR(Tracker!F5="denied",Tracker!F5="on hold",Tracker!F5="No Response",Tracker!F5="pending"), 0.2, IF(Tracker!F5="interviewing", 0.4, IF(Tracker!F5="rejected", 0.3, IF(Tracker!F5="offer", 1, 0))))</f>
@@ -4625,11 +4625,11 @@
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29249999999999954</v>
+        <v>0.33524999999999983</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1499999999999999</v>
+        <v>1.1949999999999998</v>
       </c>
       <c r="M5" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -4637,11 +4637,11 @@
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.29249999999999954</v>
+        <v>0.33524999999999983</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1499999999999999</v>
+        <v>1.1949999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
@@ -4659,7 +4659,7 @@
       </c>
       <c r="D6">
         <f ca="1">(Tracker!G6+Tracker!H6)/2</f>
-        <v>95.5</v>
+        <v>109.5</v>
       </c>
       <c r="E6" s="11">
         <f>IF(OR(Tracker!F6="denied",Tracker!F6="on hold",Tracker!F6="No Response",Tracker!F6="pending"), 0.2, IF(Tracker!F6="interviewing", 0.4, IF(Tracker!F6="rejected", 0.3, IF(Tracker!F6="offer", 1, 0))))</f>
@@ -4682,11 +4682,11 @@
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29392499999999977</v>
+        <v>0.73282500000000006</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21772222222222259</v>
+        <v>0.54283333333333328</v>
       </c>
       <c r="M6" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -4694,11 +4694,11 @@
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="2"/>
-        <v>0.29392499999999977</v>
+        <v>0.73282500000000006</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="3"/>
-        <v>0.21772222222222259</v>
+        <v>0.54283333333333328</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
@@ -4773,7 +4773,7 @@
       </c>
       <c r="D8">
         <f ca="1">(Tracker!G8+Tracker!H8)/2</f>
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E8" s="11">
         <f>IF(OR(Tracker!F8="denied",Tracker!F8="on hold",Tracker!F8="No Response",Tracker!F8="pending"), 0.2, IF(Tracker!F8="interviewing", 0.4, IF(Tracker!F8="rejected", 0.3, IF(Tracker!F8="offer", 1, 0))))</f>
@@ -4796,11 +4796,11 @@
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46634999999999938</v>
+        <v>0.27824999999999989</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34544444444444489</v>
+        <v>0.20611111111111136</v>
       </c>
       <c r="M8" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -4808,11 +4808,11 @@
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.46634999999999938</v>
+        <v>0.27824999999999989</v>
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.34544444444444489</v>
+        <v>0.20611111111111136</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
@@ -4830,7 +4830,7 @@
       </c>
       <c r="D9">
         <f ca="1">(Tracker!G9+Tracker!H9)/2</f>
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E9" s="11">
         <f>IF(OR(Tracker!F9="denied",Tracker!F9="on hold",Tracker!F9="No Response",Tracker!F9="pending"), 0.2, IF(Tracker!F9="interviewing", 0.4, IF(Tracker!F9="rejected", 0.3, IF(Tracker!F9="offer", 1, 0))))</f>
@@ -4853,11 +4853,11 @@
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40364999999999984</v>
+        <v>0.34094999999999942</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41999999999999948</v>
+        <v>0.37111111111111139</v>
       </c>
       <c r="M9" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -4865,11 +4865,11 @@
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="2"/>
-        <v>0.40364999999999984</v>
+        <v>0.34094999999999942</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="3"/>
-        <v>0.41999999999999948</v>
+        <v>0.37111111111111139</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
@@ -4887,7 +4887,7 @@
       </c>
       <c r="D10">
         <f ca="1">(Tracker!G10+Tracker!H10)/2</f>
-        <v>106.5</v>
+        <v>89</v>
       </c>
       <c r="E10" s="11">
         <f>IF(OR(Tracker!F10="denied",Tracker!F10="on hold",Tracker!F10="No Response",Tracker!F10="pending"), 0.2, IF(Tracker!F10="interviewing", 0.4, IF(Tracker!F10="rejected", 0.3, IF(Tracker!F10="offer", 1, 0))))</f>
@@ -4910,11 +4910,11 @@
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63877500000000031</v>
+        <v>9.0149999999999508E-2</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1949999999999998</v>
+        <v>0.66999999999999948</v>
       </c>
       <c r="M10" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -4922,11 +4922,11 @@
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="2"/>
-        <v>0.63877500000000031</v>
+        <v>9.0149999999999508E-2</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1949999999999998</v>
+        <v>0.66999999999999948</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
@@ -4944,7 +4944,7 @@
       </c>
       <c r="D11">
         <f ca="1">(Tracker!G11+Tracker!H11)/2</f>
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="E11" s="11">
         <f>IF(OR(Tracker!F11="denied",Tracker!F11="on hold",Tracker!F11="No Response",Tracker!F11="pending"), 0.2, IF(Tracker!F11="interviewing", 0.4, IF(Tracker!F11="rejected", 0.3, IF(Tracker!F11="offer", 1, 0))))</f>
@@ -4967,11 +4967,11 @@
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.22334999999999994</v>
+        <v>0.74849999999999994</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.16544444444444406</v>
+        <v>0.55444444444444452</v>
       </c>
       <c r="M11" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -4979,11 +4979,11 @@
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.22334999999999994</v>
+        <v>0.74849999999999994</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.16544444444444406</v>
+        <v>0.55444444444444452</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
@@ -5001,7 +5001,7 @@
       </c>
       <c r="D12">
         <f ca="1">(Tracker!G12+Tracker!H12)/2</f>
-        <v>86.5</v>
+        <v>88</v>
       </c>
       <c r="E12" s="11">
         <f>IF(OR(Tracker!F12="denied",Tracker!F12="on hold",Tracker!F12="No Response",Tracker!F12="pending"), 0.2, IF(Tracker!F12="interviewing", 0.4, IF(Tracker!F12="rejected", 0.3, IF(Tracker!F12="offer", 1, 0))))</f>
@@ -5024,11 +5024,11 @@
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1775000000000091E-2</v>
+        <v>5.8799999999999741E-2</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0130833333333333</v>
+        <v>1.0653333333333332</v>
       </c>
       <c r="M12" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -5036,11 +5036,11 @@
       </c>
       <c r="N12">
         <f t="shared" ca="1" si="2"/>
-        <v>1.1775000000000091E-2</v>
+        <v>5.8799999999999741E-2</v>
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0130833333333333</v>
+        <v>1.0653333333333332</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
@@ -5058,7 +5058,7 @@
       </c>
       <c r="D13">
         <f ca="1">(Tracker!G13+Tracker!H13)/2</f>
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="E13" s="11">
         <f>IF(OR(Tracker!F13="denied",Tracker!F13="on hold",Tracker!F13="No Response",Tracker!F13="pending"), 0.2, IF(Tracker!F13="interviewing", 0.4, IF(Tracker!F13="rejected", 0.3, IF(Tracker!F13="offer", 1, 0))))</f>
@@ -5081,11 +5081,11 @@
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5290499999999998</v>
+        <v>-0.16064999999999996</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15270000000000028</v>
+        <v>-0.30710000000000015</v>
       </c>
       <c r="M13" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -5093,11 +5093,11 @@
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.5290499999999998</v>
+        <v>-0.16064999999999996</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="3"/>
-        <v>0.15270000000000028</v>
+        <v>-0.30710000000000015</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="D14">
         <f ca="1">(Tracker!G14+Tracker!H14)/2</f>
-        <v>97</v>
+        <v>93.5</v>
       </c>
       <c r="E14" s="11">
         <f>IF(OR(Tracker!F14="denied",Tracker!F14="on hold",Tracker!F14="No Response",Tracker!F14="pending"), 0.2, IF(Tracker!F14="interviewing", 0.4, IF(Tracker!F14="rejected", 0.3, IF(Tracker!F14="offer", 1, 0))))</f>
@@ -5138,11 +5138,11 @@
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.2119500000000003</v>
+        <v>-0.30172500000000024</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3174000000000001</v>
+        <v>1.1976999999999998</v>
       </c>
       <c r="M14" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -5150,11 +5150,11 @@
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.2119500000000003</v>
+        <v>-0.30172500000000024</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3174000000000001</v>
+        <v>1.1976999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="D15">
         <f ca="1">(Tracker!G15+Tracker!H15)/2</f>
-        <v>107.5</v>
+        <v>103.5</v>
       </c>
       <c r="E15" s="11">
         <f>IF(OR(Tracker!F15="denied",Tracker!F15="on hold",Tracker!F15="No Response",Tracker!F15="pending"), 0.2, IF(Tracker!F15="interviewing", 0.4, IF(Tracker!F15="rejected", 0.3, IF(Tracker!F15="offer", 1, 0))))</f>
@@ -5195,11 +5195,11 @@
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7374999999999954E-2</v>
+        <v>-4.5225000000000293E-2</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="1"/>
-        <v>7.1912500000000001</v>
+        <v>6.8492500000000014</v>
       </c>
       <c r="M15" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -5207,11 +5207,11 @@
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="2"/>
-        <v>5.7374999999999954E-2</v>
+        <v>-4.5225000000000293E-2</v>
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="3"/>
-        <v>7.1912500000000001</v>
+        <v>6.8492500000000014</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
@@ -5229,7 +5229,7 @@
       </c>
       <c r="D16">
         <f ca="1">(Tracker!G16+Tracker!H16)/2</f>
-        <v>94.5</v>
+        <v>86</v>
       </c>
       <c r="E16" s="11">
         <f>IF(OR(Tracker!F16="denied",Tracker!F16="on hold",Tracker!F16="No Response",Tracker!F16="pending"), 0.2, IF(Tracker!F16="interviewing", 0.4, IF(Tracker!F16="rejected", 0.3, IF(Tracker!F16="offer", 1, 0))))</f>
@@ -5252,11 +5252,11 @@
       </c>
       <c r="J16">
         <f t="shared" ref="J16:J70" ca="1" si="5">IF(D16=0,0,((0.3*D16*G16*H16)/10)-2.7)</f>
-        <v>-0.27607500000000051</v>
+        <v>-0.49409999999999998</v>
       </c>
       <c r="K16">
         <f t="shared" ref="K16:K70" ca="1" si="6">IF(D16=0, 0,((D16*E16*G16*H16)/(F16*I16)-2))</f>
-        <v>-0.38404999999999978</v>
+        <v>-0.52940000000000009</v>
       </c>
       <c r="M16" t="e">
         <f t="shared" ref="M16:M70" ca="1" si="7">IF(J16=0, 0, NA())</f>
@@ -5264,11 +5264,11 @@
       </c>
       <c r="N16">
         <f t="shared" ref="N16:N70" ca="1" si="8">IF(J16=0, NA(), J16)</f>
-        <v>-0.27607500000000051</v>
+        <v>-0.49409999999999998</v>
       </c>
       <c r="O16">
         <f t="shared" ref="O16:O70" ca="1" si="9">IF(K16=0, NA(), K16)</f>
-        <v>-0.38404999999999978</v>
+        <v>-0.52940000000000009</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
@@ -5286,7 +5286,7 @@
       </c>
       <c r="D17">
         <f ca="1">(Tracker!G17+Tracker!H17)/2</f>
-        <v>108.5</v>
+        <v>87</v>
       </c>
       <c r="E17" s="11">
         <f>IF(OR(Tracker!F17="denied",Tracker!F17="on hold",Tracker!F17="No Response",Tracker!F17="pending"), 0.2, IF(Tracker!F17="interviewing", 0.4, IF(Tracker!F17="rejected", 0.3, IF(Tracker!F17="offer", 1, 0))))</f>
@@ -5309,11 +5309,11 @@
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="5"/>
-        <v>8.3024999999999238E-2</v>
+        <v>-0.4684500000000007</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.14464999999999972</v>
+        <v>-0.51229999999999998</v>
       </c>
       <c r="M17" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -5321,11 +5321,11 @@
       </c>
       <c r="N17">
         <f t="shared" ca="1" si="8"/>
-        <v>8.3024999999999238E-2</v>
+        <v>-0.4684500000000007</v>
       </c>
       <c r="O17">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.14464999999999972</v>
+        <v>-0.51229999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
@@ -5343,7 +5343,7 @@
       </c>
       <c r="D18">
         <f ca="1">(Tracker!G18+Tracker!H18)/2</f>
-        <v>87.5</v>
+        <v>112</v>
       </c>
       <c r="E18" s="11">
         <f>IF(OR(Tracker!F18="denied",Tracker!F18="on hold",Tracker!F18="No Response",Tracker!F18="pending"), 0.2, IF(Tracker!F18="interviewing", 0.4, IF(Tracker!F18="rejected", 0.3, IF(Tracker!F18="offer", 1, 0))))</f>
@@ -5366,11 +5366,11 @@
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.45562500000000039</v>
+        <v>0.17280000000000006</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="6"/>
-        <v>5.4812500000000002</v>
+        <v>7.5759999999999987</v>
       </c>
       <c r="M18" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -5378,11 +5378,11 @@
       </c>
       <c r="N18">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.45562500000000039</v>
+        <v>0.17280000000000006</v>
       </c>
       <c r="O18">
         <f t="shared" ca="1" si="9"/>
-        <v>5.4812500000000002</v>
+        <v>7.5759999999999987</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
@@ -5400,7 +5400,7 @@
       </c>
       <c r="D19">
         <f ca="1">(Tracker!G19+Tracker!H19)/2</f>
-        <v>97</v>
+        <v>105.5</v>
       </c>
       <c r="E19" s="11">
         <f>IF(OR(Tracker!F19="denied",Tracker!F19="on hold",Tracker!F19="No Response",Tracker!F19="pending"), 0.2, IF(Tracker!F19="interviewing", 0.4, IF(Tracker!F19="rejected", 0.3, IF(Tracker!F19="offer", 1, 0))))</f>
@@ -5423,11 +5423,11 @@
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.2119500000000003</v>
+        <v>6.0749999999996085E-3</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.15700000000000003</v>
+        <v>4.5000000000001705E-3</v>
       </c>
       <c r="M19" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -5435,11 +5435,11 @@
       </c>
       <c r="N19">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.2119500000000003</v>
+        <v>6.0749999999996085E-3</v>
       </c>
       <c r="O19">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.15700000000000003</v>
+        <v>4.5000000000001705E-3</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
@@ -5457,7 +5457,7 @@
       </c>
       <c r="D20">
         <f ca="1">(Tracker!G20+Tracker!H20)/2</f>
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="E20" s="11">
         <f>IF(OR(Tracker!F20="denied",Tracker!F20="on hold",Tracker!F20="No Response",Tracker!F20="pending"), 0.2, IF(Tracker!F20="interviewing", 0.4, IF(Tracker!F20="rejected", 0.3, IF(Tracker!F20="offer", 1, 0))))</f>
@@ -5480,11 +5480,11 @@
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.1093500000000005</v>
+        <v>-0.49409999999999998</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.27289999999999992</v>
+        <v>-0.52940000000000009</v>
       </c>
       <c r="M20" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -5492,11 +5492,11 @@
       </c>
       <c r="N20">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.1093500000000005</v>
+        <v>-0.49409999999999998</v>
       </c>
       <c r="O20">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.27289999999999992</v>
+        <v>-0.52940000000000009</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
@@ -5514,7 +5514,7 @@
       </c>
       <c r="D21">
         <f ca="1">(Tracker!G21+Tracker!H21)/2</f>
-        <v>99</v>
+        <v>102.5</v>
       </c>
       <c r="E21" s="11">
         <f>IF(OR(Tracker!F21="denied",Tracker!F21="on hold",Tracker!F21="No Response",Tracker!F21="pending"), 0.2, IF(Tracker!F21="interviewing", 0.4, IF(Tracker!F21="rejected", 0.3, IF(Tracker!F21="offer", 1, 0))))</f>
@@ -5537,11 +5537,11 @@
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.1606500000000004</v>
+        <v>-7.0875000000000465E-2</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="6"/>
-        <v>7.4050000000000011</v>
+        <v>7.7375000000000007</v>
       </c>
       <c r="M21" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -5549,11 +5549,11 @@
       </c>
       <c r="N21">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.1606500000000004</v>
+        <v>-7.0875000000000465E-2</v>
       </c>
       <c r="O21">
         <f t="shared" ca="1" si="9"/>
-        <v>7.4050000000000011</v>
+        <v>7.7375000000000007</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
@@ -5571,7 +5571,7 @@
       </c>
       <c r="D22">
         <f ca="1">(Tracker!G22+Tracker!H22)/2</f>
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="E22" s="11">
         <f>IF(OR(Tracker!F22="denied",Tracker!F22="on hold",Tracker!F22="No Response",Tracker!F22="pending"), 0.2, IF(Tracker!F22="interviewing", 0.4, IF(Tracker!F22="rejected", 0.3, IF(Tracker!F22="offer", 1, 0))))</f>
@@ -5594,11 +5594,11 @@
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.36585000000000001</v>
+        <v>0.12149999999999928</v>
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.27100000000000013</v>
+        <v>8.9999999999999858E-2</v>
       </c>
       <c r="M22" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -5606,11 +5606,11 @@
       </c>
       <c r="N22">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.36585000000000001</v>
+        <v>0.12149999999999928</v>
       </c>
       <c r="O22">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.27100000000000013</v>
+        <v>8.9999999999999858E-2</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
@@ -5628,7 +5628,7 @@
       </c>
       <c r="D23">
         <f ca="1">(Tracker!G23+Tracker!H23)/2</f>
-        <v>98.5</v>
+        <v>110</v>
       </c>
       <c r="E23" s="11">
         <f>IF(OR(Tracker!F23="denied",Tracker!F23="on hold",Tracker!F23="No Response",Tracker!F23="pending"), 0.2, IF(Tracker!F23="interviewing", 0.4, IF(Tracker!F23="rejected", 0.3, IF(Tracker!F23="offer", 1, 0))))</f>
@@ -5651,11 +5651,11 @@
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="5"/>
-        <v>0.38797499999999996</v>
+        <v>0.74849999999999994</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="6"/>
-        <v>2.815555555555556</v>
+        <v>3.3777777777777782</v>
       </c>
       <c r="M23" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -5663,11 +5663,11 @@
       </c>
       <c r="N23">
         <f t="shared" ca="1" si="8"/>
-        <v>0.38797499999999996</v>
+        <v>0.74849999999999994</v>
       </c>
       <c r="O23">
         <f t="shared" ca="1" si="9"/>
-        <v>2.815555555555556</v>
+        <v>3.3777777777777782</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
@@ -5685,7 +5685,7 @@
       </c>
       <c r="D24">
         <f ca="1">(Tracker!G24+Tracker!H24)/2</f>
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E24" s="11">
         <f>IF(OR(Tracker!F24="denied",Tracker!F24="on hold",Tracker!F24="No Response",Tracker!F24="pending"), 0.2, IF(Tracker!F24="interviewing", 0.4, IF(Tracker!F24="rejected", 0.3, IF(Tracker!F24="offer", 1, 0))))</f>
@@ -5708,11 +5708,11 @@
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="5"/>
-        <v>0.5290499999999998</v>
+        <v>0.68579999999999952</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="6"/>
-        <v>0.39188888888888895</v>
+        <v>0.50800000000000045</v>
       </c>
       <c r="M24" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -5720,11 +5720,11 @@
       </c>
       <c r="N24">
         <f t="shared" ca="1" si="8"/>
-        <v>0.5290499999999998</v>
+        <v>0.68579999999999952</v>
       </c>
       <c r="O24">
         <f t="shared" ca="1" si="9"/>
-        <v>0.39188888888888895</v>
+        <v>0.50800000000000045</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
@@ -5742,7 +5742,7 @@
       </c>
       <c r="D25">
         <f ca="1">(Tracker!G25+Tracker!H25)/2</f>
-        <v>104.5</v>
+        <v>88.5</v>
       </c>
       <c r="E25" s="11">
         <f>IF(OR(Tracker!F25="denied",Tracker!F25="on hold",Tracker!F25="No Response",Tracker!F25="pending"), 0.2, IF(Tracker!F25="interviewing", 0.4, IF(Tracker!F25="rejected", 0.3, IF(Tracker!F25="offer", 1, 0))))</f>
@@ -5765,11 +5765,11 @@
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="5"/>
-        <v>0.57607499999999945</v>
+        <v>7.4474999999999625E-2</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="6"/>
-        <v>0.42672222222222267</v>
+        <v>5.5166666666666586E-2</v>
       </c>
       <c r="M25" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -5777,11 +5777,11 @@
       </c>
       <c r="N25">
         <f t="shared" ca="1" si="8"/>
-        <v>0.57607499999999945</v>
+        <v>7.4474999999999625E-2</v>
       </c>
       <c r="O25">
         <f t="shared" ca="1" si="9"/>
-        <v>0.42672222222222267</v>
+        <v>5.5166666666666586E-2</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="D26">
         <f ca="1">(Tracker!G26+Tracker!H26)/2</f>
-        <v>113.5</v>
+        <v>101</v>
       </c>
       <c r="E26" s="11">
         <f>IF(OR(Tracker!F26="denied",Tracker!F26="on hold",Tracker!F26="No Response",Tracker!F26="pending"), 0.2, IF(Tracker!F26="interviewing", 0.4, IF(Tracker!F26="rejected", 0.3, IF(Tracker!F26="offer", 1, 0))))</f>
@@ -5822,11 +5822,11 @@
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="5"/>
-        <v>0.85822499999999913</v>
+        <v>0.46634999999999938</v>
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="6"/>
-        <v>0.63572222222222274</v>
+        <v>0.34544444444444489</v>
       </c>
       <c r="M26" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -5834,11 +5834,11 @@
       </c>
       <c r="N26">
         <f t="shared" ca="1" si="8"/>
-        <v>0.85822499999999913</v>
+        <v>0.46634999999999938</v>
       </c>
       <c r="O26">
         <f t="shared" ca="1" si="9"/>
-        <v>0.63572222222222274</v>
+        <v>0.34544444444444489</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
@@ -5856,7 +5856,7 @@
       </c>
       <c r="D27">
         <f ca="1">(Tracker!G27+Tracker!H27)/2</f>
-        <v>83</v>
+        <v>87.5</v>
       </c>
       <c r="E27" s="11">
         <f>IF(OR(Tracker!F27="denied",Tracker!F27="on hold",Tracker!F27="No Response",Tracker!F27="pending"), 0.2, IF(Tracker!F27="interviewing", 0.4, IF(Tracker!F27="rejected", 0.3, IF(Tracker!F27="offer", 1, 0))))</f>
@@ -5879,11 +5879,11 @@
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="5"/>
-        <v>-9.7950000000000426E-2</v>
+        <v>4.3124999999999858E-2</v>
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="6"/>
-        <v>-7.2555555555555484E-2</v>
+        <v>3.1944444444444109E-2</v>
       </c>
       <c r="M27" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -5891,11 +5891,11 @@
       </c>
       <c r="N27">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.7950000000000426E-2</v>
+        <v>4.3124999999999858E-2</v>
       </c>
       <c r="O27">
         <f t="shared" ca="1" si="9"/>
-        <v>-7.2555555555555484E-2</v>
+        <v>3.1944444444444109E-2</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
@@ -5913,7 +5913,7 @@
       </c>
       <c r="D28">
         <f ca="1">(Tracker!G28+Tracker!H28)/2</f>
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E28" s="11">
         <f>IF(OR(Tracker!F28="denied",Tracker!F28="on hold",Tracker!F28="No Response",Tracker!F28="pending"), 0.2, IF(Tracker!F28="interviewing", 0.4, IF(Tracker!F28="rejected", 0.3, IF(Tracker!F28="offer", 1, 0))))</f>
@@ -5936,11 +5936,11 @@
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="5"/>
-        <v>0.59175000000000022</v>
+        <v>0.81120000000000081</v>
       </c>
       <c r="K28">
         <f t="shared" ca="1" si="6"/>
-        <v>0.43833333333333346</v>
+        <v>0.60088888888888903</v>
       </c>
       <c r="M28" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -5948,11 +5948,11 @@
       </c>
       <c r="N28">
         <f t="shared" ca="1" si="8"/>
-        <v>0.59175000000000022</v>
+        <v>0.81120000000000081</v>
       </c>
       <c r="O28">
         <f t="shared" ca="1" si="9"/>
-        <v>0.43833333333333346</v>
+        <v>0.60088888888888903</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
@@ -6027,7 +6027,7 @@
       </c>
       <c r="D30">
         <f ca="1">(Tracker!G30+Tracker!H30)/2</f>
-        <v>97.5</v>
+        <v>105.5</v>
       </c>
       <c r="E30" s="11">
         <f>IF(OR(Tracker!F30="denied",Tracker!F30="on hold",Tracker!F30="No Response",Tracker!F30="pending"), 0.2, IF(Tracker!F30="interviewing", 0.4, IF(Tracker!F30="rejected", 0.3, IF(Tracker!F30="offer", 1, 0))))</f>
@@ -6050,11 +6050,11 @@
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="5"/>
-        <v>0.35662500000000019</v>
+        <v>0.60742499999999966</v>
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="6"/>
-        <v>0.26416666666666666</v>
+        <v>0.4499444444444447</v>
       </c>
       <c r="M30" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -6062,11 +6062,11 @@
       </c>
       <c r="N30">
         <f t="shared" ca="1" si="8"/>
-        <v>0.35662500000000019</v>
+        <v>0.60742499999999966</v>
       </c>
       <c r="O30">
         <f t="shared" ca="1" si="9"/>
-        <v>0.26416666666666666</v>
+        <v>0.4499444444444447</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
@@ -6084,7 +6084,7 @@
       </c>
       <c r="D31">
         <f ca="1">(Tracker!G31+Tracker!H31)/2</f>
-        <v>89</v>
+        <v>94.5</v>
       </c>
       <c r="E31" s="11">
         <f>IF(OR(Tracker!F31="denied",Tracker!F31="on hold",Tracker!F31="No Response",Tracker!F31="pending"), 0.2, IF(Tracker!F31="interviewing", 0.4, IF(Tracker!F31="rejected", 0.3, IF(Tracker!F31="offer", 1, 0))))</f>
@@ -6107,11 +6107,11 @@
       </c>
       <c r="J31">
         <f t="shared" ca="1" si="5"/>
-        <v>9.0149999999999508E-2</v>
+        <v>0.26257499999999956</v>
       </c>
       <c r="K31">
         <f t="shared" ca="1" si="6"/>
-        <v>6.6777777777778269E-2</v>
+        <v>0.19450000000000012</v>
       </c>
       <c r="M31" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -6119,11 +6119,11 @@
       </c>
       <c r="N31">
         <f t="shared" ca="1" si="8"/>
-        <v>9.0149999999999508E-2</v>
+        <v>0.26257499999999956</v>
       </c>
       <c r="O31">
         <f t="shared" ca="1" si="9"/>
-        <v>6.6777777777778269E-2</v>
+        <v>0.19450000000000012</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
@@ -6141,7 +6141,7 @@
       </c>
       <c r="D32">
         <f ca="1">(Tracker!G32+Tracker!H32)/2</f>
-        <v>98</v>
+        <v>111.5</v>
       </c>
       <c r="E32" s="11">
         <f>IF(OR(Tracker!F32="denied",Tracker!F32="on hold",Tracker!F32="No Response",Tracker!F32="pending"), 0.2, IF(Tracker!F32="interviewing", 0.4, IF(Tracker!F32="rejected", 0.3, IF(Tracker!F32="offer", 1, 0))))</f>
@@ -6164,11 +6164,11 @@
       </c>
       <c r="J32">
         <f t="shared" ca="1" si="5"/>
-        <v>0.37230000000000008</v>
+        <v>0.79552499999999959</v>
       </c>
       <c r="K32">
         <f t="shared" ca="1" si="6"/>
-        <v>4.8200000000000465E-2</v>
+        <v>0.33035000000000014</v>
       </c>
       <c r="M32" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -6176,11 +6176,11 @@
       </c>
       <c r="N32">
         <f t="shared" ca="1" si="8"/>
-        <v>0.37230000000000008</v>
+        <v>0.79552499999999959</v>
       </c>
       <c r="O32">
         <f t="shared" ca="1" si="9"/>
-        <v>4.8200000000000465E-2</v>
+        <v>0.33035000000000014</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
@@ -6198,7 +6198,7 @@
       </c>
       <c r="D33">
         <f ca="1">(Tracker!G33+Tracker!H33)/2</f>
-        <v>82.5</v>
+        <v>98</v>
       </c>
       <c r="E33" s="11">
         <f>IF(OR(Tracker!F33="denied",Tracker!F33="on hold",Tracker!F33="No Response",Tracker!F33="pending"), 0.2, IF(Tracker!F33="interviewing", 0.4, IF(Tracker!F33="rejected", 0.3, IF(Tracker!F33="offer", 1, 0))))</f>
@@ -6221,11 +6221,11 @@
       </c>
       <c r="J33">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.11362500000000031</v>
+        <v>0.37230000000000008</v>
       </c>
       <c r="K33">
         <f t="shared" ca="1" si="6"/>
-        <v>0.58637499999999987</v>
+        <v>1.0723000000000003</v>
       </c>
       <c r="M33" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -6233,11 +6233,11 @@
       </c>
       <c r="N33">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.11362500000000031</v>
+        <v>0.37230000000000008</v>
       </c>
       <c r="O33">
         <f t="shared" ca="1" si="9"/>
-        <v>0.58637499999999987</v>
+        <v>1.0723000000000003</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
@@ -6255,7 +6255,7 @@
       </c>
       <c r="D34">
         <f ca="1">(Tracker!G34+Tracker!H34)/2</f>
-        <v>86.5</v>
+        <v>113.5</v>
       </c>
       <c r="E34" s="11">
         <f>IF(OR(Tracker!F34="denied",Tracker!F34="on hold",Tracker!F34="No Response",Tracker!F34="pending"), 0.2, IF(Tracker!F34="interviewing", 0.4, IF(Tracker!F34="rejected", 0.3, IF(Tracker!F34="offer", 1, 0))))</f>
@@ -6278,11 +6278,11 @@
       </c>
       <c r="J34">
         <f t="shared" ca="1" si="5"/>
-        <v>1.1775000000000091E-2</v>
+        <v>0.85822499999999913</v>
       </c>
       <c r="K34">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.19214999999999982</v>
+        <v>0.37215000000000042</v>
       </c>
       <c r="M34" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -6290,11 +6290,11 @@
       </c>
       <c r="N34">
         <f t="shared" ca="1" si="8"/>
-        <v>1.1775000000000091E-2</v>
+        <v>0.85822499999999913</v>
       </c>
       <c r="O34">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.19214999999999982</v>
+        <v>0.37215000000000042</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
@@ -6312,7 +6312,7 @@
       </c>
       <c r="D35">
         <f ca="1">(Tracker!G35+Tracker!H35)/2</f>
-        <v>108.5</v>
+        <v>124</v>
       </c>
       <c r="E35" s="11">
         <f>IF(OR(Tracker!F35="denied",Tracker!F35="on hold",Tracker!F35="No Response",Tracker!F35="pending"), 0.2, IF(Tracker!F35="interviewing", 0.4, IF(Tracker!F35="rejected", 0.3, IF(Tracker!F35="offer", 1, 0))))</f>
@@ -6335,11 +6335,11 @@
       </c>
       <c r="J35">
         <f t="shared" ca="1" si="5"/>
-        <v>0.70147499999999985</v>
+        <v>1.1874000000000002</v>
       </c>
       <c r="K35">
         <f t="shared" ca="1" si="6"/>
-        <v>3.3356470588235307</v>
+        <v>4.097882352941177</v>
       </c>
       <c r="M35" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -6347,11 +6347,11 @@
       </c>
       <c r="N35">
         <f t="shared" ca="1" si="8"/>
-        <v>0.70147499999999985</v>
+        <v>1.1874000000000002</v>
       </c>
       <c r="O35">
         <f t="shared" ca="1" si="9"/>
-        <v>3.3356470588235307</v>
+        <v>4.097882352941177</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
@@ -6369,7 +6369,7 @@
       </c>
       <c r="D36">
         <f ca="1">(Tracker!G36+Tracker!H36)/2</f>
-        <v>88</v>
+        <v>86.5</v>
       </c>
       <c r="E36" s="11">
         <f>IF(OR(Tracker!F36="denied",Tracker!F36="on hold",Tracker!F36="No Response",Tracker!F36="pending"), 0.2, IF(Tracker!F36="interviewing", 0.4, IF(Tracker!F36="rejected", 0.3, IF(Tracker!F36="offer", 1, 0))))</f>
@@ -6392,11 +6392,11 @@
       </c>
       <c r="J36">
         <f t="shared" ca="1" si="5"/>
-        <v>5.8799999999999741E-2</v>
+        <v>1.1775000000000091E-2</v>
       </c>
       <c r="K36">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.16079999999999961</v>
+        <v>-0.19214999999999982</v>
       </c>
       <c r="M36" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -6404,11 +6404,11 @@
       </c>
       <c r="N36">
         <f t="shared" ca="1" si="8"/>
-        <v>5.8799999999999741E-2</v>
+        <v>1.1775000000000091E-2</v>
       </c>
       <c r="O36">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.16079999999999961</v>
+        <v>-0.19214999999999982</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
@@ -6426,7 +6426,7 @@
       </c>
       <c r="D37">
         <f ca="1">(Tracker!G37+Tracker!H37)/2</f>
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E37" s="11">
         <f>IF(OR(Tracker!F37="denied",Tracker!F37="on hold",Tracker!F37="No Response",Tracker!F37="pending"), 0.2, IF(Tracker!F37="interviewing", 0.4, IF(Tracker!F37="rejected", 0.3, IF(Tracker!F37="offer", 1, 0))))</f>
@@ -6449,11 +6449,11 @@
       </c>
       <c r="J37">
         <f t="shared" ca="1" si="5"/>
-        <v>0.30959999999999965</v>
+        <v>0.37230000000000008</v>
       </c>
       <c r="K37">
         <f t="shared" ca="1" si="6"/>
-        <v>6.4000000000001833E-3</v>
+        <v>4.8200000000000465E-2</v>
       </c>
       <c r="M37" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -6461,11 +6461,11 @@
       </c>
       <c r="N37">
         <f t="shared" ca="1" si="8"/>
-        <v>0.30959999999999965</v>
+        <v>0.37230000000000008</v>
       </c>
       <c r="O37">
         <f t="shared" ca="1" si="9"/>
-        <v>6.4000000000001833E-3</v>
+        <v>4.8200000000000465E-2</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
@@ -6483,7 +6483,7 @@
       </c>
       <c r="D38">
         <f ca="1">(Tracker!G38+Tracker!H38)/2</f>
-        <v>99</v>
+        <v>100.5</v>
       </c>
       <c r="E38" s="11">
         <f>IF(OR(Tracker!F38="denied",Tracker!F38="on hold",Tracker!F38="No Response",Tracker!F38="pending"), 0.2, IF(Tracker!F38="interviewing", 0.4, IF(Tracker!F38="rejected", 0.3, IF(Tracker!F38="offer", 1, 0))))</f>
@@ -6506,11 +6506,11 @@
       </c>
       <c r="J38">
         <f t="shared" ca="1" si="5"/>
-        <v>0.40364999999999984</v>
+        <v>0.45067499999999949</v>
       </c>
       <c r="K38">
         <f t="shared" ca="1" si="6"/>
-        <v>6.9099999999999717E-2</v>
+        <v>0.10044999999999993</v>
       </c>
       <c r="M38" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -6518,11 +6518,11 @@
       </c>
       <c r="N38">
         <f t="shared" ca="1" si="8"/>
-        <v>0.40364999999999984</v>
+        <v>0.45067499999999949</v>
       </c>
       <c r="O38">
         <f t="shared" ca="1" si="9"/>
-        <v>6.9099999999999717E-2</v>
+        <v>0.10044999999999993</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
@@ -6540,7 +6540,7 @@
       </c>
       <c r="D39">
         <f ca="1">(Tracker!G39+Tracker!H39)/2</f>
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="E39" s="11">
         <f>IF(OR(Tracker!F39="denied",Tracker!F39="on hold",Tracker!F39="No Response",Tracker!F39="pending"), 0.2, IF(Tracker!F39="interviewing", 0.4, IF(Tracker!F39="rejected", 0.3, IF(Tracker!F39="offer", 1, 0))))</f>
@@ -6563,11 +6563,11 @@
       </c>
       <c r="J39">
         <f t="shared" ca="1" si="5"/>
-        <v>0.5290499999999998</v>
+        <v>0.1841999999999997</v>
       </c>
       <c r="K39">
         <f t="shared" ca="1" si="6"/>
-        <v>0.26600000000000001</v>
+        <v>2.4000000000000465E-2</v>
       </c>
       <c r="M39" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -6575,11 +6575,11 @@
       </c>
       <c r="N39">
         <f t="shared" ca="1" si="8"/>
-        <v>0.5290499999999998</v>
+        <v>0.1841999999999997</v>
       </c>
       <c r="O39">
         <f t="shared" ca="1" si="9"/>
-        <v>0.26600000000000001</v>
+        <v>2.4000000000000465E-2</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
@@ -6597,7 +6597,7 @@
       </c>
       <c r="D40">
         <f ca="1">(Tracker!G40+Tracker!H40)/2</f>
-        <v>104.5</v>
+        <v>87</v>
       </c>
       <c r="E40" s="11">
         <f>IF(OR(Tracker!F40="denied",Tracker!F40="on hold",Tracker!F40="No Response",Tracker!F40="pending"), 0.2, IF(Tracker!F40="interviewing", 0.4, IF(Tracker!F40="rejected", 0.3, IF(Tracker!F40="offer", 1, 0))))</f>
@@ -6620,11 +6620,11 @@
       </c>
       <c r="J40">
         <f t="shared" ca="1" si="5"/>
-        <v>0.57607499999999945</v>
+        <v>2.7449999999999974E-2</v>
       </c>
       <c r="K40">
         <f t="shared" ca="1" si="6"/>
-        <v>0.18405000000000049</v>
+        <v>-0.18169999999999975</v>
       </c>
       <c r="M40" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -6632,11 +6632,11 @@
       </c>
       <c r="N40">
         <f t="shared" ca="1" si="8"/>
-        <v>0.57607499999999945</v>
+        <v>2.7449999999999974E-2</v>
       </c>
       <c r="O40">
         <f t="shared" ca="1" si="9"/>
-        <v>0.18405000000000049</v>
+        <v>-0.18169999999999975</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
@@ -6654,7 +6654,7 @@
       </c>
       <c r="D41">
         <f ca="1">(Tracker!G41+Tracker!H41)/2</f>
-        <v>105.5</v>
+        <v>92</v>
       </c>
       <c r="E41" s="11">
         <f>IF(OR(Tracker!F41="denied",Tracker!F41="on hold",Tracker!F41="No Response",Tracker!F41="pending"), 0.2, IF(Tracker!F41="interviewing", 0.4, IF(Tracker!F41="rejected", 0.3, IF(Tracker!F41="offer", 1, 0))))</f>
@@ -6677,11 +6677,11 @@
       </c>
       <c r="J41">
         <f t="shared" ca="1" si="5"/>
-        <v>0.60742499999999966</v>
+        <v>0.1841999999999997</v>
       </c>
       <c r="K41">
         <f t="shared" ca="1" si="6"/>
-        <v>0.20495000000000019</v>
+        <v>-7.7199999999999491E-2</v>
       </c>
       <c r="M41" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -6689,11 +6689,11 @@
       </c>
       <c r="N41">
         <f t="shared" ca="1" si="8"/>
-        <v>0.60742499999999966</v>
+        <v>0.1841999999999997</v>
       </c>
       <c r="O41">
         <f t="shared" ca="1" si="9"/>
-        <v>0.20495000000000019</v>
+        <v>-7.7199999999999491E-2</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
@@ -6711,7 +6711,7 @@
       </c>
       <c r="D42">
         <f ca="1">(Tracker!G42+Tracker!H42)/2</f>
-        <v>84.5</v>
+        <v>97.5</v>
       </c>
       <c r="E42" s="11">
         <f>IF(OR(Tracker!F42="denied",Tracker!F42="on hold",Tracker!F42="No Response",Tracker!F42="pending"), 0.2, IF(Tracker!F42="interviewing", 0.4, IF(Tracker!F42="rejected", 0.3, IF(Tracker!F42="offer", 1, 0))))</f>
@@ -6734,11 +6734,11 @@
       </c>
       <c r="J42">
         <f t="shared" ca="1" si="5"/>
-        <v>-5.0924999999999887E-2</v>
+        <v>0.35662500000000019</v>
       </c>
       <c r="K42">
         <f t="shared" ca="1" si="6"/>
-        <v>0.94341666666666679</v>
+        <v>1.3962500000000002</v>
       </c>
       <c r="M42" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -6746,11 +6746,11 @@
       </c>
       <c r="N42">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.0924999999999887E-2</v>
+        <v>0.35662500000000019</v>
       </c>
       <c r="O42">
         <f t="shared" ca="1" si="9"/>
-        <v>0.94341666666666679</v>
+        <v>1.3962500000000002</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
@@ -6768,7 +6768,7 @@
       </c>
       <c r="D43">
         <f ca="1">(Tracker!G43+Tracker!H43)/2</f>
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E43" s="11">
         <f>IF(OR(Tracker!F43="denied",Tracker!F43="on hold",Tracker!F43="No Response",Tracker!F43="pending"), 0.2, IF(Tracker!F43="interviewing", 0.4, IF(Tracker!F43="rejected", 0.3, IF(Tracker!F43="offer", 1, 0))))</f>
@@ -6791,11 +6791,11 @@
       </c>
       <c r="J43">
         <f t="shared" ca="1" si="5"/>
-        <v>0.6230999999999991</v>
+        <v>0.65444999999999975</v>
       </c>
       <c r="K43">
         <f t="shared" ca="1" si="6"/>
-        <v>0.21540000000000026</v>
+        <v>0.2363000000000004</v>
       </c>
       <c r="M43" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -6803,11 +6803,11 @@
       </c>
       <c r="N43">
         <f t="shared" ca="1" si="8"/>
-        <v>0.6230999999999991</v>
+        <v>0.65444999999999975</v>
       </c>
       <c r="O43">
         <f t="shared" ca="1" si="9"/>
-        <v>0.21540000000000026</v>
+        <v>0.2363000000000004</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
@@ -6825,7 +6825,7 @@
       </c>
       <c r="D44">
         <f ca="1">(Tracker!G44+Tracker!H44)/2</f>
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="E44" s="11">
         <f>IF(OR(Tracker!F44="denied",Tracker!F44="on hold",Tracker!F44="No Response",Tracker!F44="pending"), 0.2, IF(Tracker!F44="interviewing", 0.4, IF(Tracker!F44="rejected", 0.3, IF(Tracker!F44="offer", 1, 0))))</f>
@@ -6848,11 +6848,11 @@
       </c>
       <c r="J44">
         <f t="shared" ca="1" si="5"/>
-        <v>0.71714999999999929</v>
+        <v>2.7449999999999974E-2</v>
       </c>
       <c r="K44">
         <f t="shared" ca="1" si="6"/>
-        <v>0.27810000000000024</v>
+        <v>-0.18169999999999975</v>
       </c>
       <c r="M44" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -6860,11 +6860,11 @@
       </c>
       <c r="N44">
         <f t="shared" ca="1" si="8"/>
-        <v>0.71714999999999929</v>
+        <v>2.7449999999999974E-2</v>
       </c>
       <c r="O44">
         <f t="shared" ca="1" si="9"/>
-        <v>0.27810000000000024</v>
+        <v>-0.18169999999999975</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
@@ -6882,7 +6882,7 @@
       </c>
       <c r="D45">
         <f ca="1">(Tracker!G45+Tracker!H45)/2</f>
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="E45" s="11">
         <f>IF(OR(Tracker!F45="denied",Tracker!F45="on hold",Tracker!F45="No Response",Tracker!F45="pending"), 0.2, IF(Tracker!F45="interviewing", 0.4, IF(Tracker!F45="rejected", 0.3, IF(Tracker!F45="offer", 1, 0))))</f>
@@ -6905,11 +6905,11 @@
       </c>
       <c r="J45">
         <f t="shared" ca="1" si="5"/>
-        <v>0.5290499999999998</v>
+        <v>1.0306499999999992</v>
       </c>
       <c r="K45">
         <f t="shared" ca="1" si="6"/>
-        <v>0.15270000000000028</v>
+        <v>0.48710000000000031</v>
       </c>
       <c r="M45" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -6917,11 +6917,11 @@
       </c>
       <c r="N45">
         <f t="shared" ca="1" si="8"/>
-        <v>0.5290499999999998</v>
+        <v>1.0306499999999992</v>
       </c>
       <c r="O45">
         <f t="shared" ca="1" si="9"/>
-        <v>0.15270000000000028</v>
+        <v>0.48710000000000031</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
@@ -6939,7 +6939,7 @@
       </c>
       <c r="D46">
         <f ca="1">(Tracker!G46+Tracker!H46)/2</f>
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E46" s="11">
         <f>IF(OR(Tracker!F46="denied",Tracker!F46="on hold",Tracker!F46="No Response",Tracker!F46="pending"), 0.2, IF(Tracker!F46="interviewing", 0.4, IF(Tracker!F46="rejected", 0.3, IF(Tracker!F46="offer", 1, 0))))</f>
@@ -6962,11 +6962,11 @@
       </c>
       <c r="J46">
         <f t="shared" ca="1" si="5"/>
-        <v>0.5290499999999998</v>
+        <v>0.46634999999999938</v>
       </c>
       <c r="K46">
         <f t="shared" ca="1" si="6"/>
-        <v>0.15270000000000028</v>
+        <v>0.11090000000000044</v>
       </c>
       <c r="M46" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -6974,11 +6974,11 @@
       </c>
       <c r="N46">
         <f t="shared" ca="1" si="8"/>
-        <v>0.5290499999999998</v>
+        <v>0.46634999999999938</v>
       </c>
       <c r="O46">
         <f t="shared" ca="1" si="9"/>
-        <v>0.15270000000000028</v>
+        <v>0.11090000000000044</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
@@ -6996,7 +6996,7 @@
       </c>
       <c r="D47">
         <f ca="1">(Tracker!G47+Tracker!H47)/2</f>
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="E47" s="11">
         <f>IF(OR(Tracker!F47="denied",Tracker!F47="on hold",Tracker!F47="No Response",Tracker!F47="pending"), 0.2, IF(Tracker!F47="interviewing", 0.4, IF(Tracker!F47="rejected", 0.3, IF(Tracker!F47="offer", 1, 0))))</f>
@@ -7019,11 +7019,11 @@
       </c>
       <c r="J47">
         <f t="shared" ca="1" si="5"/>
-        <v>0.84254999999999969</v>
+        <v>0.30959999999999965</v>
       </c>
       <c r="K47">
         <f t="shared" ca="1" si="6"/>
-        <v>0.36169999999999991</v>
+        <v>6.4000000000001833E-3</v>
       </c>
       <c r="M47" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -7031,11 +7031,11 @@
       </c>
       <c r="N47">
         <f t="shared" ca="1" si="8"/>
-        <v>0.84254999999999969</v>
+        <v>0.30959999999999965</v>
       </c>
       <c r="O47">
         <f t="shared" ca="1" si="9"/>
-        <v>0.36169999999999991</v>
+        <v>6.4000000000001833E-3</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
@@ -7053,7 +7053,7 @@
       </c>
       <c r="D48">
         <f ca="1">(Tracker!G48+Tracker!H48)/2</f>
-        <v>111.5</v>
+        <v>122</v>
       </c>
       <c r="E48" s="11">
         <f>IF(OR(Tracker!F48="denied",Tracker!F48="on hold",Tracker!F48="No Response",Tracker!F48="pending"), 0.2, IF(Tracker!F48="interviewing", 0.4, IF(Tracker!F48="rejected", 0.3, IF(Tracker!F48="offer", 1, 0))))</f>
@@ -7076,11 +7076,11 @@
       </c>
       <c r="J48">
         <f t="shared" ca="1" si="5"/>
-        <v>0.79552499999999959</v>
+        <v>1.1246999999999998</v>
       </c>
       <c r="K48">
         <f t="shared" ca="1" si="6"/>
-        <v>1.4955249999999998</v>
+        <v>1.8247</v>
       </c>
       <c r="M48" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -7088,11 +7088,11 @@
       </c>
       <c r="N48">
         <f t="shared" ca="1" si="8"/>
-        <v>0.79552499999999959</v>
+        <v>1.1246999999999998</v>
       </c>
       <c r="O48">
         <f t="shared" ca="1" si="9"/>
-        <v>1.4955249999999998</v>
+        <v>1.8247</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
@@ -7110,7 +7110,7 @@
       </c>
       <c r="D49">
         <f ca="1">(Tracker!G49+Tracker!H49)/2</f>
-        <v>120.5</v>
+        <v>117</v>
       </c>
       <c r="E49" s="11">
         <f>IF(OR(Tracker!F49="denied",Tracker!F49="on hold",Tracker!F49="No Response",Tracker!F49="pending"), 0.2, IF(Tracker!F49="interviewing", 0.4, IF(Tracker!F49="rejected", 0.3, IF(Tracker!F49="offer", 1, 0))))</f>
@@ -7133,11 +7133,11 @@
       </c>
       <c r="J49">
         <f t="shared" ca="1" si="5"/>
-        <v>1.0776749999999997</v>
+        <v>0.96795000000000009</v>
       </c>
       <c r="K49">
         <f t="shared" ca="1" si="6"/>
-        <v>0.51845000000000052</v>
+        <v>0.44530000000000047</v>
       </c>
       <c r="M49" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -7145,11 +7145,11 @@
       </c>
       <c r="N49">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0776749999999997</v>
+        <v>0.96795000000000009</v>
       </c>
       <c r="O49">
         <f t="shared" ca="1" si="9"/>
-        <v>0.51845000000000052</v>
+        <v>0.44530000000000047</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
@@ -7167,7 +7167,7 @@
       </c>
       <c r="D50">
         <f ca="1">(Tracker!G50+Tracker!H50)/2</f>
-        <v>85</v>
+        <v>86.5</v>
       </c>
       <c r="E50" s="11">
         <f>IF(OR(Tracker!F50="denied",Tracker!F50="on hold",Tracker!F50="No Response",Tracker!F50="pending"), 0.2, IF(Tracker!F50="interviewing", 0.4, IF(Tracker!F50="rejected", 0.3, IF(Tracker!F50="offer", 1, 0))))</f>
@@ -7190,11 +7190,11 @@
       </c>
       <c r="J50">
         <f t="shared" ca="1" si="5"/>
-        <v>-3.5250000000000004E-2</v>
+        <v>1.1775000000000091E-2</v>
       </c>
       <c r="K50">
         <f t="shared" ca="1" si="6"/>
-        <v>0.66475000000000017</v>
+        <v>0.71177500000000027</v>
       </c>
       <c r="M50" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -7202,11 +7202,11 @@
       </c>
       <c r="N50">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.5250000000000004E-2</v>
+        <v>1.1775000000000091E-2</v>
       </c>
       <c r="O50">
         <f t="shared" ca="1" si="9"/>
-        <v>0.66475000000000017</v>
+        <v>0.71177500000000027</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
@@ -7224,7 +7224,7 @@
       </c>
       <c r="D51">
         <f ca="1">(Tracker!G51+Tracker!H51)/2</f>
-        <v>85.5</v>
+        <v>106.5</v>
       </c>
       <c r="E51" s="11">
         <f>IF(OR(Tracker!F51="denied",Tracker!F51="on hold",Tracker!F51="No Response",Tracker!F51="pending"), 0.2, IF(Tracker!F51="interviewing", 0.4, IF(Tracker!F51="rejected", 0.3, IF(Tracker!F51="offer", 1, 0))))</f>
@@ -7247,11 +7247,11 @@
       </c>
       <c r="J51">
         <f t="shared" ca="1" si="5"/>
-        <v>-1.957500000000012E-2</v>
+        <v>0.63877500000000031</v>
       </c>
       <c r="K51">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.21304999999999974</v>
+        <v>0.22585000000000033</v>
       </c>
       <c r="M51" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -7259,11 +7259,11 @@
       </c>
       <c r="N51">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.957500000000012E-2</v>
+        <v>0.63877500000000031</v>
       </c>
       <c r="O51">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.21304999999999974</v>
+        <v>0.22585000000000033</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
@@ -7281,7 +7281,7 @@
       </c>
       <c r="D52">
         <f ca="1">(Tracker!G52+Tracker!H52)/2</f>
-        <v>101.5</v>
+        <v>85.5</v>
       </c>
       <c r="E52" s="11">
         <f>IF(OR(Tracker!F52="denied",Tracker!F52="on hold",Tracker!F52="No Response",Tracker!F52="pending"), 0.2, IF(Tracker!F52="interviewing", 0.4, IF(Tracker!F52="rejected", 0.3, IF(Tracker!F52="offer", 1, 0))))</f>
@@ -7304,11 +7304,11 @@
       </c>
       <c r="J52">
         <f t="shared" ca="1" si="5"/>
-        <v>0.48202500000000015</v>
+        <v>-1.957500000000012E-2</v>
       </c>
       <c r="K52">
         <f t="shared" ca="1" si="6"/>
-        <v>1.1820250000000003</v>
+        <v>0.68042500000000006</v>
       </c>
       <c r="M52" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -7316,11 +7316,11 @@
       </c>
       <c r="N52">
         <f t="shared" ca="1" si="8"/>
-        <v>0.48202500000000015</v>
+        <v>-1.957500000000012E-2</v>
       </c>
       <c r="O52">
         <f t="shared" ca="1" si="9"/>
-        <v>1.1820250000000003</v>
+        <v>0.68042500000000006</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.35">
@@ -7395,7 +7395,7 @@
       </c>
       <c r="D54">
         <f ca="1">(Tracker!G54+Tracker!H54)/2</f>
-        <v>90.5</v>
+        <v>116</v>
       </c>
       <c r="E54" s="11">
         <f>IF(OR(Tracker!F54="denied",Tracker!F54="on hold",Tracker!F54="No Response",Tracker!F54="pending"), 0.2, IF(Tracker!F54="interviewing", 0.4, IF(Tracker!F54="rejected", 0.3, IF(Tracker!F54="offer", 1, 0))))</f>
@@ -7418,11 +7418,11 @@
       </c>
       <c r="J54">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.12075000000000058</v>
+        <v>0.60599999999999943</v>
       </c>
       <c r="K54">
         <f t="shared" ca="1" si="6"/>
-        <v>1.4389999999999996</v>
+        <v>2.4079999999999995</v>
       </c>
       <c r="M54" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -7430,11 +7430,11 @@
       </c>
       <c r="N54">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.12075000000000058</v>
+        <v>0.60599999999999943</v>
       </c>
       <c r="O54">
         <f t="shared" ca="1" si="9"/>
-        <v>1.4389999999999996</v>
+        <v>2.4079999999999995</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.35">
@@ -7452,7 +7452,7 @@
       </c>
       <c r="D55">
         <f ca="1">(Tracker!G55+Tracker!H55)/2</f>
-        <v>111.5</v>
+        <v>115</v>
       </c>
       <c r="E55" s="11">
         <f>IF(OR(Tracker!F55="denied",Tracker!F55="on hold",Tracker!F55="No Response",Tracker!F55="pending"), 0.2, IF(Tracker!F55="interviewing", 0.4, IF(Tracker!F55="rejected", 0.3, IF(Tracker!F55="offer", 1, 0))))</f>
@@ -7475,11 +7475,11 @@
       </c>
       <c r="J55">
         <f t="shared" ca="1" si="5"/>
-        <v>0.47774999999999901</v>
+        <v>0.57749999999999968</v>
       </c>
       <c r="K55">
         <f t="shared" ca="1" si="6"/>
-        <v>1.1777499999999992</v>
+        <v>1.2774999999999999</v>
       </c>
       <c r="M55" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -7487,11 +7487,11 @@
       </c>
       <c r="N55">
         <f t="shared" ca="1" si="8"/>
-        <v>0.47774999999999901</v>
+        <v>0.57749999999999968</v>
       </c>
       <c r="O55">
         <f t="shared" ca="1" si="9"/>
-        <v>1.1777499999999992</v>
+        <v>1.2774999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
@@ -7509,7 +7509,7 @@
       </c>
       <c r="D56">
         <f ca="1">(Tracker!G56+Tracker!H56)/2</f>
-        <v>82.5</v>
+        <v>103.5</v>
       </c>
       <c r="E56" s="11">
         <f>IF(OR(Tracker!F56="denied",Tracker!F56="on hold",Tracker!F56="No Response",Tracker!F56="pending"), 0.2, IF(Tracker!F56="interviewing", 0.4, IF(Tracker!F56="rejected", 0.3, IF(Tracker!F56="offer", 1, 0))))</f>
@@ -7532,11 +7532,11 @@
       </c>
       <c r="J56">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.34875000000000034</v>
+        <v>0.24974999999999925</v>
       </c>
       <c r="K56">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.43250000000000011</v>
+        <v>-3.3499999999999641E-2</v>
       </c>
       <c r="M56" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -7544,11 +7544,11 @@
       </c>
       <c r="N56">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.34875000000000034</v>
+        <v>0.24974999999999925</v>
       </c>
       <c r="O56">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.43250000000000011</v>
+        <v>-3.3499999999999641E-2</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.35">
@@ -7566,7 +7566,7 @@
       </c>
       <c r="D57">
         <f ca="1">(Tracker!G57+Tracker!H57)/2</f>
-        <v>98</v>
+        <v>103.5</v>
       </c>
       <c r="E57" s="11">
         <f>IF(OR(Tracker!F57="denied",Tracker!F57="on hold",Tracker!F57="No Response",Tracker!F57="pending"), 0.2, IF(Tracker!F57="interviewing", 0.4, IF(Tracker!F57="rejected", 0.3, IF(Tracker!F57="offer", 1, 0))))</f>
@@ -7589,11 +7589,11 @@
       </c>
       <c r="J57">
         <f t="shared" ca="1" si="5"/>
-        <v>9.2999999999999527E-2</v>
+        <v>0.24974999999999925</v>
       </c>
       <c r="K57">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.1379999999999999</v>
+        <v>-3.3499999999999641E-2</v>
       </c>
       <c r="M57" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -7601,11 +7601,11 @@
       </c>
       <c r="N57">
         <f t="shared" ca="1" si="8"/>
-        <v>9.2999999999999527E-2</v>
+        <v>0.24974999999999925</v>
       </c>
       <c r="O57">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.1379999999999999</v>
+        <v>-3.3499999999999641E-2</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.35">
@@ -7623,7 +7623,7 @@
       </c>
       <c r="D58">
         <f ca="1">(Tracker!G58+Tracker!H58)/2</f>
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="E58" s="11">
         <f>IF(OR(Tracker!F58="denied",Tracker!F58="on hold",Tracker!F58="No Response",Tracker!F58="pending"), 0.2, IF(Tracker!F58="interviewing", 0.4, IF(Tracker!F58="rejected", 0.3, IF(Tracker!F58="offer", 1, 0))))</f>
@@ -7646,11 +7646,11 @@
       </c>
       <c r="J58">
         <f t="shared" ca="1" si="5"/>
-        <v>0.63449999999999962</v>
+        <v>0.2354999999999996</v>
       </c>
       <c r="K58">
         <f t="shared" ca="1" si="6"/>
-        <v>0.22299999999999986</v>
+        <v>-4.2999999999999927E-2</v>
       </c>
       <c r="M58" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -7658,11 +7658,11 @@
       </c>
       <c r="N58">
         <f t="shared" ca="1" si="8"/>
-        <v>0.63449999999999962</v>
+        <v>0.2354999999999996</v>
       </c>
       <c r="O58">
         <f t="shared" ca="1" si="9"/>
-        <v>0.22299999999999986</v>
+        <v>-4.2999999999999927E-2</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.35">
@@ -7680,7 +7680,7 @@
       </c>
       <c r="D59">
         <f ca="1">(Tracker!G59+Tracker!H59)/2</f>
-        <v>92.5</v>
+        <v>94</v>
       </c>
       <c r="E59" s="11">
         <f>IF(OR(Tracker!F59="denied",Tracker!F59="on hold",Tracker!F59="No Response",Tracker!F59="pending"), 0.2, IF(Tracker!F59="interviewing", 0.4, IF(Tracker!F59="rejected", 0.3, IF(Tracker!F59="offer", 1, 0))))</f>
@@ -7703,11 +7703,11 @@
       </c>
       <c r="J59">
         <f t="shared" ca="1" si="5"/>
-        <v>-6.3750000000000639E-2</v>
+        <v>-2.1000000000000352E-2</v>
       </c>
       <c r="K59">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.24250000000000016</v>
+        <v>-0.21399999999999997</v>
       </c>
       <c r="M59" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -7715,11 +7715,11 @@
       </c>
       <c r="N59">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.3750000000000639E-2</v>
+        <v>-2.1000000000000352E-2</v>
       </c>
       <c r="O59">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.24250000000000016</v>
+        <v>-0.21399999999999997</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.35">
@@ -7737,7 +7737,7 @@
       </c>
       <c r="D60">
         <f ca="1">(Tracker!G60+Tracker!H60)/2</f>
-        <v>102.5</v>
+        <v>115</v>
       </c>
       <c r="E60" s="11">
         <f>IF(OR(Tracker!F60="denied",Tracker!F60="on hold",Tracker!F60="No Response",Tracker!F60="pending"), 0.2, IF(Tracker!F60="interviewing", 0.4, IF(Tracker!F60="rejected", 0.3, IF(Tracker!F60="offer", 1, 0))))</f>
@@ -7760,11 +7760,11 @@
       </c>
       <c r="J60">
         <f t="shared" ca="1" si="5"/>
-        <v>0.2212499999999995</v>
+        <v>0.57749999999999968</v>
       </c>
       <c r="K60">
         <f t="shared" ca="1" si="6"/>
-        <v>-5.2500000000000213E-2</v>
+        <v>0.18499999999999961</v>
       </c>
       <c r="M60" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -7772,11 +7772,11 @@
       </c>
       <c r="N60">
         <f t="shared" ca="1" si="8"/>
-        <v>0.2212499999999995</v>
+        <v>0.57749999999999968</v>
       </c>
       <c r="O60">
         <f t="shared" ca="1" si="9"/>
-        <v>-5.2500000000000213E-2</v>
+        <v>0.18499999999999961</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.35">
@@ -7794,7 +7794,7 @@
       </c>
       <c r="D61">
         <f ca="1">(Tracker!G61+Tracker!H61)/2</f>
-        <v>103</v>
+        <v>86.5</v>
       </c>
       <c r="E61" s="11">
         <f>IF(OR(Tracker!F61="denied",Tracker!F61="on hold",Tracker!F61="No Response",Tracker!F61="pending"), 0.2, IF(Tracker!F61="interviewing", 0.4, IF(Tracker!F61="rejected", 0.3, IF(Tracker!F61="offer", 1, 0))))</f>
@@ -7817,11 +7817,11 @@
       </c>
       <c r="J61">
         <f t="shared" ca="1" si="5"/>
-        <v>0.2354999999999996</v>
+        <v>-0.23475000000000001</v>
       </c>
       <c r="K61">
         <f t="shared" ca="1" si="6"/>
-        <v>-4.2999999999999927E-2</v>
+        <v>-0.35650000000000004</v>
       </c>
       <c r="M61" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -7829,11 +7829,11 @@
       </c>
       <c r="N61">
         <f t="shared" ca="1" si="8"/>
-        <v>0.2354999999999996</v>
+        <v>-0.23475000000000001</v>
       </c>
       <c r="O61">
         <f t="shared" ca="1" si="9"/>
-        <v>-4.2999999999999927E-2</v>
+        <v>-0.35650000000000004</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.35">
@@ -7851,7 +7851,7 @@
       </c>
       <c r="D62">
         <f ca="1">(Tracker!G62+Tracker!H62)/2</f>
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="E62" s="11">
         <f>IF(OR(Tracker!F62="denied",Tracker!F62="on hold",Tracker!F62="No Response",Tracker!F62="pending"), 0.2, IF(Tracker!F62="interviewing", 0.4, IF(Tracker!F62="rejected", 0.3, IF(Tracker!F62="offer", 1, 0))))</f>
@@ -7874,11 +7874,11 @@
       </c>
       <c r="J62">
         <f t="shared" ca="1" si="5"/>
-        <v>0.20699999999999941</v>
+        <v>0.57749999999999968</v>
       </c>
       <c r="K62">
         <f t="shared" ca="1" si="6"/>
-        <v>0.90699999999999958</v>
+        <v>1.2774999999999999</v>
       </c>
       <c r="M62" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -7886,11 +7886,11 @@
       </c>
       <c r="N62">
         <f t="shared" ca="1" si="8"/>
-        <v>0.20699999999999941</v>
+        <v>0.57749999999999968</v>
       </c>
       <c r="O62">
         <f t="shared" ca="1" si="9"/>
-        <v>0.90699999999999958</v>
+        <v>1.2774999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.35">
@@ -7908,7 +7908,7 @@
       </c>
       <c r="D63">
         <f ca="1">(Tracker!G63+Tracker!H63)/2</f>
-        <v>92.5</v>
+        <v>94</v>
       </c>
       <c r="E63" s="11">
         <f>IF(OR(Tracker!F63="denied",Tracker!F63="on hold",Tracker!F63="No Response",Tracker!F63="pending"), 0.2, IF(Tracker!F63="interviewing", 0.4, IF(Tracker!F63="rejected", 0.3, IF(Tracker!F63="offer", 1, 0))))</f>
@@ -7931,11 +7931,11 @@
       </c>
       <c r="J63">
         <f t="shared" ca="1" si="5"/>
-        <v>-6.3750000000000639E-2</v>
+        <v>-2.1000000000000352E-2</v>
       </c>
       <c r="K63">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.24250000000000016</v>
+        <v>-0.21399999999999997</v>
       </c>
       <c r="M63" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -7943,11 +7943,11 @@
       </c>
       <c r="N63">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.3750000000000639E-2</v>
+        <v>-2.1000000000000352E-2</v>
       </c>
       <c r="O63">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.24250000000000016</v>
+        <v>-0.21399999999999997</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.35">
@@ -7965,7 +7965,7 @@
       </c>
       <c r="D64">
         <f ca="1">(Tracker!G64+Tracker!H64)/2</f>
-        <v>80</v>
+        <v>88.5</v>
       </c>
       <c r="E64" s="11">
         <f>IF(OR(Tracker!F64="denied",Tracker!F64="on hold",Tracker!F64="No Response",Tracker!F64="pending"), 0.2, IF(Tracker!F64="interviewing", 0.4, IF(Tracker!F64="rejected", 0.3, IF(Tracker!F64="offer", 1, 0))))</f>
@@ -7988,11 +7988,11 @@
       </c>
       <c r="J64">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.42000000000000037</v>
+        <v>-0.17775000000000007</v>
       </c>
       <c r="K64">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.48</v>
+        <v>-0.31850000000000023</v>
       </c>
       <c r="M64" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -8000,11 +8000,11 @@
       </c>
       <c r="N64">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.42000000000000037</v>
+        <v>-0.17775000000000007</v>
       </c>
       <c r="O64">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.48</v>
+        <v>-0.31850000000000023</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.35">
@@ -8022,7 +8022,7 @@
       </c>
       <c r="D65">
         <f ca="1">(Tracker!G65+Tracker!H65)/2</f>
-        <v>120</v>
+        <v>95.5</v>
       </c>
       <c r="E65" s="11">
         <f>IF(OR(Tracker!F65="denied",Tracker!F65="on hold",Tracker!F65="No Response",Tracker!F65="pending"), 0.2, IF(Tracker!F65="interviewing", 0.4, IF(Tracker!F65="rejected", 0.3, IF(Tracker!F65="offer", 1, 0))))</f>
@@ -8045,11 +8045,11 @@
       </c>
       <c r="J65">
         <f t="shared" ca="1" si="5"/>
-        <v>0.37799999999999967</v>
+        <v>-0.25042500000000034</v>
       </c>
       <c r="K65">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2000000000000046E-2</v>
+        <v>-0.36694999999999989</v>
       </c>
       <c r="M65" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -8057,11 +8057,11 @@
       </c>
       <c r="N65">
         <f t="shared" ca="1" si="8"/>
-        <v>0.37799999999999967</v>
+        <v>-0.25042500000000034</v>
       </c>
       <c r="O65">
         <f t="shared" ca="1" si="9"/>
-        <v>5.2000000000000046E-2</v>
+        <v>-0.36694999999999989</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.35">
@@ -8079,7 +8079,7 @@
       </c>
       <c r="D66">
         <f ca="1">(Tracker!G66+Tracker!H66)/2</f>
-        <v>82.5</v>
+        <v>101</v>
       </c>
       <c r="E66" s="11">
         <f>IF(OR(Tracker!F66="denied",Tracker!F66="on hold",Tracker!F66="No Response",Tracker!F66="pending"), 0.2, IF(Tracker!F66="interviewing", 0.4, IF(Tracker!F66="rejected", 0.3, IF(Tracker!F66="offer", 1, 0))))</f>
@@ -8102,11 +8102,11 @@
       </c>
       <c r="J66">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.58387499999999992</v>
+        <v>-0.1093500000000005</v>
       </c>
       <c r="K66">
         <f t="shared" ca="1" si="6"/>
-        <v>0.23928571428571388</v>
+        <v>0.74142857142857155</v>
       </c>
       <c r="M66" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -8114,11 +8114,11 @@
       </c>
       <c r="N66">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.58387499999999992</v>
+        <v>-0.1093500000000005</v>
       </c>
       <c r="O66">
         <f t="shared" ca="1" si="9"/>
-        <v>0.23928571428571388</v>
+        <v>0.74142857142857155</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.35">
@@ -8136,7 +8136,7 @@
       </c>
       <c r="D67">
         <f ca="1">(Tracker!G67+Tracker!H67)/2</f>
-        <v>113.5</v>
+        <v>117</v>
       </c>
       <c r="E67" s="11">
         <f>IF(OR(Tracker!F67="denied",Tracker!F67="on hold",Tracker!F67="No Response",Tracker!F67="pending"), 0.2, IF(Tracker!F67="interviewing", 0.4, IF(Tracker!F67="rejected", 0.3, IF(Tracker!F67="offer", 1, 0))))</f>
@@ -8159,11 +8159,11 @@
       </c>
       <c r="J67">
         <f t="shared" ca="1" si="5"/>
-        <v>0.21127499999999966</v>
+        <v>0.30105000000000004</v>
       </c>
       <c r="K67">
         <f t="shared" ca="1" si="6"/>
-        <v>0.15650000000000031</v>
+        <v>0.22300000000000031</v>
       </c>
       <c r="M67" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -8171,11 +8171,11 @@
       </c>
       <c r="N67">
         <f t="shared" ca="1" si="8"/>
-        <v>0.21127499999999966</v>
+        <v>0.30105000000000004</v>
       </c>
       <c r="O67">
         <f t="shared" ca="1" si="9"/>
-        <v>0.15650000000000031</v>
+        <v>0.22300000000000031</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.35">
@@ -8193,7 +8193,7 @@
       </c>
       <c r="D68">
         <f ca="1">(Tracker!G68+Tracker!H68)/2</f>
-        <v>99.5</v>
+        <v>77.5</v>
       </c>
       <c r="E68" s="11">
         <f>IF(OR(Tracker!F68="denied",Tracker!F68="on hold",Tracker!F68="No Response",Tracker!F68="pending"), 0.2, IF(Tracker!F68="interviewing", 0.4, IF(Tracker!F68="rejected", 0.3, IF(Tracker!F68="offer", 1, 0))))</f>
@@ -8216,11 +8216,11 @@
       </c>
       <c r="J68">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.14782500000000054</v>
+        <v>-0.71212500000000012</v>
       </c>
       <c r="K68">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.10949999999999971</v>
+        <v>-0.52749999999999986</v>
       </c>
       <c r="M68" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -8228,11 +8228,11 @@
       </c>
       <c r="N68">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.14782500000000054</v>
+        <v>-0.71212500000000012</v>
       </c>
       <c r="O68">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.10949999999999971</v>
+        <v>-0.52749999999999986</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.35">
@@ -8250,7 +8250,7 @@
       </c>
       <c r="D69">
         <f ca="1">(Tracker!G69+Tracker!H69)/2</f>
-        <v>109.5</v>
+        <v>83.5</v>
       </c>
       <c r="E69" s="11">
         <f>IF(OR(Tracker!F69="denied",Tracker!F69="on hold",Tracker!F69="No Response",Tracker!F69="pending"), 0.2, IF(Tracker!F69="interviewing", 0.4, IF(Tracker!F69="rejected", 0.3, IF(Tracker!F69="offer", 1, 0))))</f>
@@ -8273,11 +8273,11 @@
       </c>
       <c r="J69">
         <f t="shared" ca="1" si="5"/>
-        <v>0.10867499999999986</v>
+        <v>-0.55822500000000019</v>
       </c>
       <c r="K69">
         <f t="shared" ca="1" si="6"/>
-        <v>8.0499999999999794E-2</v>
+        <v>-0.41349999999999998</v>
       </c>
       <c r="M69" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -8285,11 +8285,11 @@
       </c>
       <c r="N69">
         <f t="shared" ca="1" si="8"/>
-        <v>0.10867499999999986</v>
+        <v>-0.55822500000000019</v>
       </c>
       <c r="O69">
         <f t="shared" ca="1" si="9"/>
-        <v>8.0499999999999794E-2</v>
+        <v>-0.41349999999999998</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.35">
@@ -8307,7 +8307,7 @@
       </c>
       <c r="D70">
         <f ca="1">(Tracker!G70+Tracker!H70)/2</f>
-        <v>88.5</v>
+        <v>102.5</v>
       </c>
       <c r="E70" s="11">
         <f>IF(OR(Tracker!F70="denied",Tracker!F70="on hold",Tracker!F70="No Response",Tracker!F70="pending"), 0.2, IF(Tracker!F70="interviewing", 0.4, IF(Tracker!F70="rejected", 0.3, IF(Tracker!F70="offer", 1, 0))))</f>
@@ -8330,11 +8330,11 @@
       </c>
       <c r="J70">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.42997500000000066</v>
+        <v>-7.0875000000000465E-2</v>
       </c>
       <c r="K70">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.31850000000000001</v>
+        <v>-5.2499999999999991E-2</v>
       </c>
       <c r="M70" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -8342,11 +8342,11 @@
       </c>
       <c r="N70">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.42997500000000066</v>
+        <v>-7.0875000000000465E-2</v>
       </c>
       <c r="O70">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.31850000000000001</v>
+        <v>-5.2499999999999991E-2</v>
       </c>
     </row>
   </sheetData>

--- a/example_app_tracker.xlsx
+++ b/example_app_tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\graha\OneDrive\Documents\GitHub\application_tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C41C96-9F27-4B63-A6E8-7BEA85FB506B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F8E351-D052-49EC-986B-E6326B89B5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17670" yWindow="3640" windowWidth="20070" windowHeight="15190" activeTab="1" xr2:uid="{85E7A6A4-6F22-48D9-815F-FC03736B7AC4}"/>
+    <workbookView xWindow="17670" yWindow="3640" windowWidth="20070" windowHeight="15190" xr2:uid="{85E7A6A4-6F22-48D9-815F-FC03736B7AC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="219">
   <si>
     <t>Company</t>
   </si>
@@ -862,6 +862,9 @@
   </si>
   <si>
     <t>LinkedIn DM</t>
+  </si>
+  <si>
+    <t>Ghosted</t>
   </si>
 </sst>
 </file>
@@ -1406,9 +1409,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2050F9-523E-4C88-ABEB-54BB5869DFA0}">
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F68" sqref="F68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1482,11 +1485,11 @@
       </c>
       <c r="G2">
         <f ca="1">ROUND(RAND()*60+50,0)</f>
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="H2">
         <f ca="1">ROUND(RAND()*40+100,0)</f>
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>11</v>
@@ -1520,11 +1523,11 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G66" ca="1" si="1">ROUND(RAND()*60+50,0)</f>
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H66" ca="1" si="2">ROUND(RAND()*40+100,0)</f>
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>11</v>
@@ -1558,11 +1561,11 @@
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="2"/>
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>11</v>
@@ -1596,11 +1599,11 @@
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="2"/>
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>10</v>
@@ -1634,11 +1637,11 @@
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="2"/>
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>11</v>
@@ -1672,11 +1675,11 @@
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="2"/>
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>11</v>
@@ -1710,11 +1713,11 @@
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="2"/>
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>11</v>
@@ -1748,11 +1751,11 @@
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="2"/>
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>11</v>
@@ -1786,11 +1789,11 @@
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="2"/>
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>13</v>
@@ -1824,11 +1827,11 @@
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="2"/>
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>11</v>
@@ -1862,11 +1865,11 @@
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="2"/>
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>11</v>
@@ -1900,11 +1903,11 @@
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="2"/>
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>10</v>
@@ -1938,11 +1941,11 @@
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="2"/>
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>10</v>
@@ -1976,11 +1979,11 @@
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="2"/>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>10</v>
@@ -2014,11 +2017,11 @@
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="2"/>
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>14</v>
@@ -2048,15 +2051,15 @@
         <v>45814</v>
       </c>
       <c r="F17" t="s">
-        <v>2</v>
+        <v>218</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="2"/>
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>14</v>
@@ -2090,11 +2093,11 @@
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="2"/>
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>14</v>
@@ -2128,11 +2131,11 @@
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="2"/>
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>14</v>
@@ -2166,11 +2169,11 @@
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="2"/>
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>14</v>
@@ -2204,11 +2207,11 @@
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="2"/>
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>217</v>
@@ -2242,11 +2245,11 @@
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="1"/>
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="2"/>
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>217</v>
@@ -2280,11 +2283,11 @@
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="2"/>
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>217</v>
@@ -2318,11 +2321,11 @@
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="1"/>
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="2"/>
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>9</v>
@@ -2356,11 +2359,11 @@
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="2"/>
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>9</v>
@@ -2390,15 +2393,15 @@
         <v>45768</v>
       </c>
       <c r="F26" t="s">
-        <v>4</v>
+        <v>218</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="2"/>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>9</v>
@@ -2432,11 +2435,11 @@
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="2"/>
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>9</v>
@@ -2470,11 +2473,11 @@
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="2"/>
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>9</v>
@@ -2508,11 +2511,11 @@
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="2"/>
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>9</v>
@@ -2546,11 +2549,11 @@
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="2"/>
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>9</v>
@@ -2584,11 +2587,11 @@
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="2"/>
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>9</v>
@@ -2622,11 +2625,11 @@
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="1"/>
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="2"/>
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>14</v>
@@ -2660,11 +2663,11 @@
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="2"/>
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>15</v>
@@ -2698,11 +2701,11 @@
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="2"/>
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>15</v>
@@ -2736,7 +2739,7 @@
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="1"/>
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="2"/>
@@ -2774,11 +2777,11 @@
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="2"/>
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>15</v>
@@ -2812,7 +2815,7 @@
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="2"/>
@@ -2846,15 +2849,15 @@
         <v>45780</v>
       </c>
       <c r="F38" t="s">
-        <v>56</v>
+        <v>218</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="2"/>
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>17</v>
@@ -2888,11 +2891,11 @@
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="2"/>
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>17</v>
@@ -2926,11 +2929,11 @@
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="2"/>
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>17</v>
@@ -2964,11 +2967,11 @@
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="2"/>
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>17</v>
@@ -3002,11 +3005,11 @@
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="2"/>
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>17</v>
@@ -3040,11 +3043,11 @@
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="1"/>
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="2"/>
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>17</v>
@@ -3078,11 +3081,11 @@
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="2"/>
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>18</v>
@@ -3116,11 +3119,11 @@
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="1"/>
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="2"/>
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>18</v>
@@ -3154,11 +3157,11 @@
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="2"/>
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>18</v>
@@ -3192,7 +3195,7 @@
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="2"/>
@@ -3230,11 +3233,11 @@
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="1"/>
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="H48">
         <f t="shared" ca="1" si="2"/>
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>18</v>
@@ -3268,11 +3271,11 @@
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="1"/>
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="2"/>
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>18</v>
@@ -3306,11 +3309,11 @@
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="2"/>
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>18</v>
@@ -3344,11 +3347,11 @@
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="2"/>
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>33</v>
@@ -3382,11 +3385,11 @@
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="H52">
         <f t="shared" ca="1" si="2"/>
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>33</v>
@@ -3420,11 +3423,11 @@
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="H53">
         <f t="shared" ca="1" si="2"/>
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>33</v>
@@ -3458,11 +3461,11 @@
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="1"/>
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="2"/>
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>33</v>
@@ -3496,11 +3499,11 @@
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="2"/>
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>33</v>
@@ -3534,11 +3537,11 @@
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="H56">
         <f t="shared" ca="1" si="2"/>
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>33</v>
@@ -3572,11 +3575,11 @@
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="H57">
         <f t="shared" ca="1" si="2"/>
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>33</v>
@@ -3610,7 +3613,7 @@
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="H58">
         <f t="shared" ca="1" si="2"/>
@@ -3648,11 +3651,11 @@
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="H59">
         <f t="shared" ca="1" si="2"/>
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>33</v>
@@ -3686,11 +3689,11 @@
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="1"/>
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H60">
         <f t="shared" ca="1" si="2"/>
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>34</v>
@@ -3724,11 +3727,11 @@
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H61">
         <f t="shared" ca="1" si="2"/>
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>34</v>
@@ -3762,11 +3765,11 @@
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="H62">
         <f t="shared" ca="1" si="2"/>
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>34</v>
@@ -3800,11 +3803,11 @@
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="H63">
         <f t="shared" ca="1" si="2"/>
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>34</v>
@@ -3838,11 +3841,11 @@
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="H64">
         <f t="shared" ca="1" si="2"/>
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>34</v>
@@ -3876,11 +3879,11 @@
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="H65">
         <f t="shared" ca="1" si="2"/>
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>34</v>
@@ -3914,11 +3917,11 @@
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="H66">
         <f t="shared" ca="1" si="2"/>
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>11</v>
@@ -3952,11 +3955,11 @@
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G75" ca="1" si="5">ROUND(RAND()*60+50,0)</f>
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H67">
         <f t="shared" ref="H67:H75" ca="1" si="6">ROUND(RAND()*40+100,0)</f>
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>11</v>
@@ -3990,11 +3993,11 @@
       </c>
       <c r="G68">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H68">
         <f t="shared" ca="1" si="6"/>
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>11</v>
@@ -4028,11 +4031,11 @@
       </c>
       <c r="G69">
         <f t="shared" ca="1" si="5"/>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H69">
         <f t="shared" ca="1" si="6"/>
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>11</v>
@@ -4066,11 +4069,11 @@
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="5"/>
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H70">
         <f t="shared" ca="1" si="6"/>
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>11</v>
@@ -4104,7 +4107,7 @@
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="5"/>
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="H71">
         <f t="shared" ca="1" si="6"/>
@@ -4142,11 +4145,11 @@
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="5"/>
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="H72">
         <f t="shared" ca="1" si="6"/>
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>9</v>
@@ -4180,11 +4183,11 @@
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="H73">
         <f t="shared" ca="1" si="6"/>
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>9</v>
@@ -4218,11 +4221,11 @@
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="H74">
         <f t="shared" ca="1" si="6"/>
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>9</v>
@@ -4256,11 +4259,11 @@
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="H75">
         <f t="shared" ca="1" si="6"/>
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>9</v>
@@ -4352,7 +4355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70590CAF-D2CD-443E-AE13-8F53684D3C03}">
   <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
@@ -4431,7 +4434,7 @@
       </c>
       <c r="D2">
         <f ca="1">(Tracker!G2+Tracker!H2)/2</f>
-        <v>98.5</v>
+        <v>113</v>
       </c>
       <c r="E2" s="11">
         <f>IF(OR(Tracker!F2="denied",Tracker!F2="on hold",Tracker!F2="No Response",Tracker!F2="pending"), 0.2, IF(Tracker!F2="interviewing", 0.4, IF(Tracker!F2="rejected", 0.3, IF(Tracker!F2="offer", 1, 0))))</f>
@@ -4454,11 +4457,11 @@
       </c>
       <c r="J2">
         <f t="shared" ref="J2:J15" ca="1" si="0">IF(D2=0,0,((0.3*D2*G2*H2)/10)-2.7)</f>
-        <v>0.38797499999999996</v>
+        <v>0.84254999999999969</v>
       </c>
       <c r="K2">
         <f t="shared" ref="K2:K15" ca="1" si="1">IF(D2=0, 0,((D2*E2*G2*H2)/(F2*I2)-2))</f>
-        <v>0.40777777777777802</v>
+        <v>0.76222222222222191</v>
       </c>
       <c r="M2" t="e">
         <f ca="1">IF(J2=0, 0, NA())</f>
@@ -4466,11 +4469,11 @@
       </c>
       <c r="N2">
         <f t="shared" ref="N2:N15" ca="1" si="2">IF(J2=0, NA(), J2)</f>
-        <v>0.38797499999999996</v>
+        <v>0.84254999999999969</v>
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O15" ca="1" si="3">IF(K2=0, NA(), K2)</f>
-        <v>0.40777777777777802</v>
+        <v>0.76222222222222191</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
@@ -4488,7 +4491,7 @@
       </c>
       <c r="D3">
         <f ca="1">(Tracker!G3+Tracker!H3)/2</f>
-        <v>115.5</v>
+        <v>101.5</v>
       </c>
       <c r="E3" s="11">
         <f>IF(OR(Tracker!F3="denied",Tracker!F3="on hold",Tracker!F3="No Response",Tracker!F3="pending"), 0.2, IF(Tracker!F3="interviewing", 0.4, IF(Tracker!F3="rejected", 0.3, IF(Tracker!F3="offer", 1, 0))))</f>
@@ -4511,11 +4514,11 @@
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92092499999999955</v>
+        <v>0.48202500000000015</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7332352941176463</v>
+        <v>2.1595098039215683</v>
       </c>
       <c r="M3" t="e">
         <f t="shared" ref="M3:M15" ca="1" si="4">IF(J3=0, 0, NA())</f>
@@ -4523,11 +4526,11 @@
       </c>
       <c r="N3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.92092499999999955</v>
+        <v>0.48202500000000015</v>
       </c>
       <c r="O3">
         <f t="shared" ca="1" si="3"/>
-        <v>2.7332352941176463</v>
+        <v>2.1595098039215683</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
@@ -4545,7 +4548,7 @@
       </c>
       <c r="D4">
         <f ca="1">(Tracker!G4+Tracker!H4)/2</f>
-        <v>101</v>
+        <v>111.5</v>
       </c>
       <c r="E4" s="11">
         <f>IF(OR(Tracker!F4="denied",Tracker!F4="on hold",Tracker!F4="No Response",Tracker!F4="pending"), 0.2, IF(Tracker!F4="interviewing", 0.4, IF(Tracker!F4="rejected", 0.3, IF(Tracker!F4="offer", 1, 0))))</f>
@@ -4568,11 +4571,11 @@
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46634999999999938</v>
+        <v>0.79552499999999959</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34544444444444489</v>
+        <v>0.58927777777777779</v>
       </c>
       <c r="M4" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -4580,11 +4583,11 @@
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="2"/>
-        <v>0.46634999999999938</v>
+        <v>0.79552499999999959</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="3"/>
-        <v>0.34544444444444489</v>
+        <v>0.58927777777777779</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
@@ -4602,7 +4605,7 @@
       </c>
       <c r="D5">
         <f ca="1">(Tracker!G5+Tracker!H5)/2</f>
-        <v>106.5</v>
+        <v>79</v>
       </c>
       <c r="E5" s="11">
         <f>IF(OR(Tracker!F5="denied",Tracker!F5="on hold",Tracker!F5="No Response",Tracker!F5="pending"), 0.2, IF(Tracker!F5="interviewing", 0.4, IF(Tracker!F5="rejected", 0.3, IF(Tracker!F5="offer", 1, 0))))</f>
@@ -4625,11 +4628,11 @@
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33524999999999983</v>
+        <v>-0.44850000000000056</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1949999999999998</v>
+        <v>0.36999999999999966</v>
       </c>
       <c r="M5" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -4637,11 +4640,11 @@
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33524999999999983</v>
+        <v>-0.44850000000000056</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1949999999999998</v>
+        <v>0.36999999999999966</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
@@ -4659,7 +4662,7 @@
       </c>
       <c r="D6">
         <f ca="1">(Tracker!G6+Tracker!H6)/2</f>
-        <v>109.5</v>
+        <v>121.5</v>
       </c>
       <c r="E6" s="11">
         <f>IF(OR(Tracker!F6="denied",Tracker!F6="on hold",Tracker!F6="No Response",Tracker!F6="pending"), 0.2, IF(Tracker!F6="interviewing", 0.4, IF(Tracker!F6="rejected", 0.3, IF(Tracker!F6="offer", 1, 0))))</f>
@@ -4682,11 +4685,11 @@
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73282500000000006</v>
+        <v>1.1090249999999995</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54283333333333328</v>
+        <v>0.82150000000000034</v>
       </c>
       <c r="M6" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -4694,11 +4697,11 @@
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="2"/>
-        <v>0.73282500000000006</v>
+        <v>1.1090249999999995</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="3"/>
-        <v>0.54283333333333328</v>
+        <v>0.82150000000000034</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
@@ -4716,7 +4719,7 @@
       </c>
       <c r="D7">
         <f ca="1">(Tracker!G7+Tracker!H7)/2</f>
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="E7" s="11">
         <f>IF(OR(Tracker!F7="denied",Tracker!F7="on hold",Tracker!F7="No Response",Tracker!F7="pending"), 0.2, IF(Tracker!F7="interviewing", 0.4, IF(Tracker!F7="rejected", 0.3, IF(Tracker!F7="offer", 1, 0))))</f>
@@ -4739,11 +4742,11 @@
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>9.0149999999999508E-2</v>
+        <v>0.74849999999999994</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17555555555555546</v>
+        <v>0.68888888888888911</v>
       </c>
       <c r="M7" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -4751,11 +4754,11 @@
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="2"/>
-        <v>9.0149999999999508E-2</v>
+        <v>0.74849999999999994</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.17555555555555546</v>
+        <v>0.68888888888888911</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
@@ -4773,7 +4776,7 @@
       </c>
       <c r="D8">
         <f ca="1">(Tracker!G8+Tracker!H8)/2</f>
-        <v>95</v>
+        <v>109.5</v>
       </c>
       <c r="E8" s="11">
         <f>IF(OR(Tracker!F8="denied",Tracker!F8="on hold",Tracker!F8="No Response",Tracker!F8="pending"), 0.2, IF(Tracker!F8="interviewing", 0.4, IF(Tracker!F8="rejected", 0.3, IF(Tracker!F8="offer", 1, 0))))</f>
@@ -4796,11 +4799,11 @@
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27824999999999989</v>
+        <v>0.73282500000000006</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20611111111111136</v>
+        <v>0.54283333333333328</v>
       </c>
       <c r="M8" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -4808,11 +4811,11 @@
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.27824999999999989</v>
+        <v>0.73282500000000006</v>
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.20611111111111136</v>
+        <v>0.54283333333333328</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
@@ -4830,7 +4833,7 @@
       </c>
       <c r="D9">
         <f ca="1">(Tracker!G9+Tracker!H9)/2</f>
-        <v>97</v>
+        <v>103.5</v>
       </c>
       <c r="E9" s="11">
         <f>IF(OR(Tracker!F9="denied",Tracker!F9="on hold",Tracker!F9="No Response",Tracker!F9="pending"), 0.2, IF(Tracker!F9="interviewing", 0.4, IF(Tracker!F9="rejected", 0.3, IF(Tracker!F9="offer", 1, 0))))</f>
@@ -4853,11 +4856,11 @@
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34094999999999942</v>
+        <v>0.54472499999999968</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37111111111111139</v>
+        <v>0.53000000000000069</v>
       </c>
       <c r="M9" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -4865,11 +4868,11 @@
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="2"/>
-        <v>0.34094999999999942</v>
+        <v>0.54472499999999968</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="3"/>
-        <v>0.37111111111111139</v>
+        <v>0.53000000000000069</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
@@ -4887,7 +4890,7 @@
       </c>
       <c r="D10">
         <f ca="1">(Tracker!G10+Tracker!H10)/2</f>
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E10" s="11">
         <f>IF(OR(Tracker!F10="denied",Tracker!F10="on hold",Tracker!F10="No Response",Tracker!F10="pending"), 0.2, IF(Tracker!F10="interviewing", 0.4, IF(Tracker!F10="rejected", 0.3, IF(Tracker!F10="offer", 1, 0))))</f>
@@ -4910,11 +4913,11 @@
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>9.0149999999999508E-2</v>
+        <v>0.1841999999999997</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66999999999999948</v>
+        <v>0.75999999999999979</v>
       </c>
       <c r="M10" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -4922,11 +4925,11 @@
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="2"/>
-        <v>9.0149999999999508E-2</v>
+        <v>0.1841999999999997</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="3"/>
-        <v>0.66999999999999948</v>
+        <v>0.75999999999999979</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
@@ -4944,7 +4947,7 @@
       </c>
       <c r="D11">
         <f ca="1">(Tracker!G11+Tracker!H11)/2</f>
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="E11" s="11">
         <f>IF(OR(Tracker!F11="denied",Tracker!F11="on hold",Tracker!F11="No Response",Tracker!F11="pending"), 0.2, IF(Tracker!F11="interviewing", 0.4, IF(Tracker!F11="rejected", 0.3, IF(Tracker!F11="offer", 1, 0))))</f>
@@ -4967,11 +4970,11 @@
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74849999999999994</v>
+        <v>-3.5250000000000004E-2</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55444444444444452</v>
+        <v>-2.6111111111110974E-2</v>
       </c>
       <c r="M11" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -4979,11 +4982,11 @@
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="2"/>
-        <v>0.74849999999999994</v>
+        <v>-3.5250000000000004E-2</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="3"/>
-        <v>0.55444444444444452</v>
+        <v>-2.6111111111110974E-2</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
@@ -5001,7 +5004,7 @@
       </c>
       <c r="D12">
         <f ca="1">(Tracker!G12+Tracker!H12)/2</f>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E12" s="11">
         <f>IF(OR(Tracker!F12="denied",Tracker!F12="on hold",Tracker!F12="No Response",Tracker!F12="pending"), 0.2, IF(Tracker!F12="interviewing", 0.4, IF(Tracker!F12="rejected", 0.3, IF(Tracker!F12="offer", 1, 0))))</f>
@@ -5024,11 +5027,11 @@
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8799999999999741E-2</v>
+        <v>2.7449999999999974E-2</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0653333333333332</v>
+        <v>1.0305</v>
       </c>
       <c r="M12" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -5036,11 +5039,11 @@
       </c>
       <c r="N12">
         <f t="shared" ca="1" si="2"/>
-        <v>5.8799999999999741E-2</v>
+        <v>2.7449999999999974E-2</v>
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0653333333333332</v>
+        <v>1.0305</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
@@ -5058,7 +5061,7 @@
       </c>
       <c r="D13">
         <f ca="1">(Tracker!G13+Tracker!H13)/2</f>
-        <v>81</v>
+        <v>88.5</v>
       </c>
       <c r="E13" s="11">
         <f>IF(OR(Tracker!F13="denied",Tracker!F13="on hold",Tracker!F13="No Response",Tracker!F13="pending"), 0.2, IF(Tracker!F13="interviewing", 0.4, IF(Tracker!F13="rejected", 0.3, IF(Tracker!F13="offer", 1, 0))))</f>
@@ -5081,11 +5084,11 @@
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.16064999999999996</v>
+        <v>7.4474999999999625E-2</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.30710000000000015</v>
+        <v>-0.15034999999999998</v>
       </c>
       <c r="M13" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -5093,11 +5096,11 @@
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.16064999999999996</v>
+        <v>7.4474999999999625E-2</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.30710000000000015</v>
+        <v>-0.15034999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
@@ -5115,7 +5118,7 @@
       </c>
       <c r="D14">
         <f ca="1">(Tracker!G14+Tracker!H14)/2</f>
-        <v>93.5</v>
+        <v>85</v>
       </c>
       <c r="E14" s="11">
         <f>IF(OR(Tracker!F14="denied",Tracker!F14="on hold",Tracker!F14="No Response",Tracker!F14="pending"), 0.2, IF(Tracker!F14="interviewing", 0.4, IF(Tracker!F14="rejected", 0.3, IF(Tracker!F14="offer", 1, 0))))</f>
@@ -5138,11 +5141,11 @@
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.30172500000000024</v>
+        <v>-0.51975000000000016</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1976999999999998</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="M14" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -5150,11 +5153,11 @@
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.30172500000000024</v>
+        <v>-0.51975000000000016</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1976999999999998</v>
+        <v>0.90700000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
@@ -5172,7 +5175,7 @@
       </c>
       <c r="D15">
         <f ca="1">(Tracker!G15+Tracker!H15)/2</f>
-        <v>103.5</v>
+        <v>92</v>
       </c>
       <c r="E15" s="11">
         <f>IF(OR(Tracker!F15="denied",Tracker!F15="on hold",Tracker!F15="No Response",Tracker!F15="pending"), 0.2, IF(Tracker!F15="interviewing", 0.4, IF(Tracker!F15="rejected", 0.3, IF(Tracker!F15="offer", 1, 0))))</f>
@@ -5195,11 +5198,11 @@
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.5225000000000293E-2</v>
+        <v>-0.34020000000000028</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="1"/>
-        <v>6.8492500000000014</v>
+        <v>5.8659999999999997</v>
       </c>
       <c r="M15" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -5207,11 +5210,11 @@
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="2"/>
-        <v>-4.5225000000000293E-2</v>
+        <v>-0.34020000000000028</v>
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="3"/>
-        <v>6.8492500000000014</v>
+        <v>5.8659999999999997</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
@@ -5229,7 +5232,7 @@
       </c>
       <c r="D16">
         <f ca="1">(Tracker!G16+Tracker!H16)/2</f>
-        <v>86</v>
+        <v>95.5</v>
       </c>
       <c r="E16" s="11">
         <f>IF(OR(Tracker!F16="denied",Tracker!F16="on hold",Tracker!F16="No Response",Tracker!F16="pending"), 0.2, IF(Tracker!F16="interviewing", 0.4, IF(Tracker!F16="rejected", 0.3, IF(Tracker!F16="offer", 1, 0))))</f>
@@ -5252,11 +5255,11 @@
       </c>
       <c r="J16">
         <f t="shared" ref="J16:J70" ca="1" si="5">IF(D16=0,0,((0.3*D16*G16*H16)/10)-2.7)</f>
-        <v>-0.49409999999999998</v>
+        <v>-0.25042500000000034</v>
       </c>
       <c r="K16">
         <f t="shared" ref="K16:K70" ca="1" si="6">IF(D16=0, 0,((D16*E16*G16*H16)/(F16*I16)-2))</f>
-        <v>-0.52940000000000009</v>
+        <v>-0.36694999999999989</v>
       </c>
       <c r="M16" t="e">
         <f t="shared" ref="M16:M70" ca="1" si="7">IF(J16=0, 0, NA())</f>
@@ -5264,11 +5267,11 @@
       </c>
       <c r="N16">
         <f t="shared" ref="N16:N70" ca="1" si="8">IF(J16=0, NA(), J16)</f>
-        <v>-0.49409999999999998</v>
+        <v>-0.25042500000000034</v>
       </c>
       <c r="O16">
         <f t="shared" ref="O16:O70" ca="1" si="9">IF(K16=0, NA(), K16)</f>
-        <v>-0.52940000000000009</v>
+        <v>-0.36694999999999989</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
@@ -5282,15 +5285,15 @@
       </c>
       <c r="C17" t="str">
         <f>Tracker!F17</f>
-        <v>Pending</v>
+        <v>Ghosted</v>
       </c>
       <c r="D17">
         <f ca="1">(Tracker!G17+Tracker!H17)/2</f>
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E17" s="11">
         <f>IF(OR(Tracker!F17="denied",Tracker!F17="on hold",Tracker!F17="No Response",Tracker!F17="pending"), 0.2, IF(Tracker!F17="interviewing", 0.4, IF(Tracker!F17="rejected", 0.3, IF(Tracker!F17="offer", 1, 0))))</f>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F17" s="12">
         <f>IF(OR(Tracker!I17="linkedin", Tracker!I17="Indeed", Tracker!I17="linkedin dm"), 0.9, IF(Tracker!I17="Company Site", 1.1, 1))</f>
@@ -5309,11 +5312,11 @@
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.4684500000000007</v>
+        <v>-0.6223500000000004</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.51229999999999998</v>
+        <v>-2</v>
       </c>
       <c r="M17" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -5321,11 +5324,11 @@
       </c>
       <c r="N17">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.4684500000000007</v>
+        <v>-0.6223500000000004</v>
       </c>
       <c r="O17">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.51229999999999998</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
@@ -5343,7 +5346,7 @@
       </c>
       <c r="D18">
         <f ca="1">(Tracker!G18+Tracker!H18)/2</f>
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E18" s="11">
         <f>IF(OR(Tracker!F18="denied",Tracker!F18="on hold",Tracker!F18="No Response",Tracker!F18="pending"), 0.2, IF(Tracker!F18="interviewing", 0.4, IF(Tracker!F18="rejected", 0.3, IF(Tracker!F18="offer", 1, 0))))</f>
@@ -5366,11 +5369,11 @@
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="5"/>
-        <v>0.17280000000000006</v>
+        <v>-6.7500000000002558E-3</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="6"/>
-        <v>7.5759999999999987</v>
+        <v>6.9774999999999991</v>
       </c>
       <c r="M18" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -5378,11 +5381,11 @@
       </c>
       <c r="N18">
         <f t="shared" ca="1" si="8"/>
-        <v>0.17280000000000006</v>
+        <v>-6.7500000000002558E-3</v>
       </c>
       <c r="O18">
         <f t="shared" ca="1" si="9"/>
-        <v>7.5759999999999987</v>
+        <v>6.9774999999999991</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
@@ -5400,7 +5403,7 @@
       </c>
       <c r="D19">
         <f ca="1">(Tracker!G19+Tracker!H19)/2</f>
-        <v>105.5</v>
+        <v>102.5</v>
       </c>
       <c r="E19" s="11">
         <f>IF(OR(Tracker!F19="denied",Tracker!F19="on hold",Tracker!F19="No Response",Tracker!F19="pending"), 0.2, IF(Tracker!F19="interviewing", 0.4, IF(Tracker!F19="rejected", 0.3, IF(Tracker!F19="offer", 1, 0))))</f>
@@ -5423,11 +5426,11 @@
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="5"/>
-        <v>6.0749999999996085E-3</v>
+        <v>-7.0875000000000465E-2</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="6"/>
-        <v>4.5000000000001705E-3</v>
+        <v>-5.2499999999999991E-2</v>
       </c>
       <c r="M19" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -5435,11 +5438,11 @@
       </c>
       <c r="N19">
         <f t="shared" ca="1" si="8"/>
-        <v>6.0749999999996085E-3</v>
+        <v>-7.0875000000000465E-2</v>
       </c>
       <c r="O19">
         <f t="shared" ca="1" si="9"/>
-        <v>4.5000000000001705E-3</v>
+        <v>-5.2499999999999991E-2</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
@@ -5457,7 +5460,7 @@
       </c>
       <c r="D20">
         <f ca="1">(Tracker!G20+Tracker!H20)/2</f>
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="E20" s="11">
         <f>IF(OR(Tracker!F20="denied",Tracker!F20="on hold",Tracker!F20="No Response",Tracker!F20="pending"), 0.2, IF(Tracker!F20="interviewing", 0.4, IF(Tracker!F20="rejected", 0.3, IF(Tracker!F20="offer", 1, 0))))</f>
@@ -5480,11 +5483,11 @@
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.49409999999999998</v>
+        <v>-6.7500000000002558E-3</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.52940000000000009</v>
+        <v>-0.2044999999999999</v>
       </c>
       <c r="M20" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -5492,11 +5495,11 @@
       </c>
       <c r="N20">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.49409999999999998</v>
+        <v>-6.7500000000002558E-3</v>
       </c>
       <c r="O20">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.52940000000000009</v>
+        <v>-0.2044999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
@@ -5514,7 +5517,7 @@
       </c>
       <c r="D21">
         <f ca="1">(Tracker!G21+Tracker!H21)/2</f>
-        <v>102.5</v>
+        <v>101.5</v>
       </c>
       <c r="E21" s="11">
         <f>IF(OR(Tracker!F21="denied",Tracker!F21="on hold",Tracker!F21="No Response",Tracker!F21="pending"), 0.2, IF(Tracker!F21="interviewing", 0.4, IF(Tracker!F21="rejected", 0.3, IF(Tracker!F21="offer", 1, 0))))</f>
@@ -5537,11 +5540,11 @@
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="5"/>
-        <v>-7.0875000000000465E-2</v>
+        <v>-9.6525000000000194E-2</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="6"/>
-        <v>7.7375000000000007</v>
+        <v>7.6425000000000001</v>
       </c>
       <c r="M21" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -5549,11 +5552,11 @@
       </c>
       <c r="N21">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.0875000000000465E-2</v>
+        <v>-9.6525000000000194E-2</v>
       </c>
       <c r="O21">
         <f t="shared" ca="1" si="9"/>
-        <v>7.7375000000000007</v>
+        <v>7.6425000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
@@ -5571,7 +5574,7 @@
       </c>
       <c r="D22">
         <f ca="1">(Tracker!G22+Tracker!H22)/2</f>
-        <v>110</v>
+        <v>103.5</v>
       </c>
       <c r="E22" s="11">
         <f>IF(OR(Tracker!F22="denied",Tracker!F22="on hold",Tracker!F22="No Response",Tracker!F22="pending"), 0.2, IF(Tracker!F22="interviewing", 0.4, IF(Tracker!F22="rejected", 0.3, IF(Tracker!F22="offer", 1, 0))))</f>
@@ -5594,11 +5597,11 @@
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="5"/>
-        <v>0.12149999999999928</v>
+        <v>-4.5225000000000293E-2</v>
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="6"/>
-        <v>8.9999999999999858E-2</v>
+        <v>-3.3499999999999641E-2</v>
       </c>
       <c r="M22" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -5606,11 +5609,11 @@
       </c>
       <c r="N22">
         <f t="shared" ca="1" si="8"/>
-        <v>0.12149999999999928</v>
+        <v>-4.5225000000000293E-2</v>
       </c>
       <c r="O22">
         <f t="shared" ca="1" si="9"/>
-        <v>8.9999999999999858E-2</v>
+        <v>-3.3499999999999641E-2</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
@@ -5628,7 +5631,7 @@
       </c>
       <c r="D23">
         <f ca="1">(Tracker!G23+Tracker!H23)/2</f>
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E23" s="11">
         <f>IF(OR(Tracker!F23="denied",Tracker!F23="on hold",Tracker!F23="No Response",Tracker!F23="pending"), 0.2, IF(Tracker!F23="interviewing", 0.4, IF(Tracker!F23="rejected", 0.3, IF(Tracker!F23="offer", 1, 0))))</f>
@@ -5651,11 +5654,11 @@
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="5"/>
-        <v>0.74849999999999994</v>
+        <v>0.84254999999999969</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="6"/>
-        <v>3.3777777777777782</v>
+        <v>3.5244444444444438</v>
       </c>
       <c r="M23" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -5663,11 +5666,11 @@
       </c>
       <c r="N23">
         <f t="shared" ca="1" si="8"/>
-        <v>0.74849999999999994</v>
+        <v>0.84254999999999969</v>
       </c>
       <c r="O23">
         <f t="shared" ca="1" si="9"/>
-        <v>3.3777777777777782</v>
+        <v>3.5244444444444438</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
@@ -5685,7 +5688,7 @@
       </c>
       <c r="D24">
         <f ca="1">(Tracker!G24+Tracker!H24)/2</f>
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="E24" s="11">
         <f>IF(OR(Tracker!F24="denied",Tracker!F24="on hold",Tracker!F24="No Response",Tracker!F24="pending"), 0.2, IF(Tracker!F24="interviewing", 0.4, IF(Tracker!F24="rejected", 0.3, IF(Tracker!F24="offer", 1, 0))))</f>
@@ -5708,11 +5711,11 @@
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="5"/>
-        <v>0.68579999999999952</v>
+        <v>1.1246999999999998</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="6"/>
-        <v>0.50800000000000045</v>
+        <v>0.83311111111111114</v>
       </c>
       <c r="M24" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -5720,11 +5723,11 @@
       </c>
       <c r="N24">
         <f t="shared" ca="1" si="8"/>
-        <v>0.68579999999999952</v>
+        <v>1.1246999999999998</v>
       </c>
       <c r="O24">
         <f t="shared" ca="1" si="9"/>
-        <v>0.50800000000000045</v>
+        <v>0.83311111111111114</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
@@ -5742,7 +5745,7 @@
       </c>
       <c r="D25">
         <f ca="1">(Tracker!G25+Tracker!H25)/2</f>
-        <v>88.5</v>
+        <v>97</v>
       </c>
       <c r="E25" s="11">
         <f>IF(OR(Tracker!F25="denied",Tracker!F25="on hold",Tracker!F25="No Response",Tracker!F25="pending"), 0.2, IF(Tracker!F25="interviewing", 0.4, IF(Tracker!F25="rejected", 0.3, IF(Tracker!F25="offer", 1, 0))))</f>
@@ -5765,11 +5768,11 @@
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="5"/>
-        <v>7.4474999999999625E-2</v>
+        <v>0.34094999999999942</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="6"/>
-        <v>5.5166666666666586E-2</v>
+        <v>0.25255555555555587</v>
       </c>
       <c r="M25" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -5777,11 +5780,11 @@
       </c>
       <c r="N25">
         <f t="shared" ca="1" si="8"/>
-        <v>7.4474999999999625E-2</v>
+        <v>0.34094999999999942</v>
       </c>
       <c r="O25">
         <f t="shared" ca="1" si="9"/>
-        <v>5.5166666666666586E-2</v>
+        <v>0.25255555555555587</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
@@ -5795,15 +5798,15 @@
       </c>
       <c r="C26" t="str">
         <f>Tracker!F26</f>
-        <v>Denied</v>
+        <v>Ghosted</v>
       </c>
       <c r="D26">
         <f ca="1">(Tracker!G26+Tracker!H26)/2</f>
-        <v>101</v>
+        <v>93.5</v>
       </c>
       <c r="E26" s="11">
         <f>IF(OR(Tracker!F26="denied",Tracker!F26="on hold",Tracker!F26="No Response",Tracker!F26="pending"), 0.2, IF(Tracker!F26="interviewing", 0.4, IF(Tracker!F26="rejected", 0.3, IF(Tracker!F26="offer", 1, 0))))</f>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F26" s="12">
         <f>IF(OR(Tracker!I26="linkedin", Tracker!I26="Indeed", Tracker!I26="linkedin dm"), 0.9, IF(Tracker!I26="Company Site", 1.1, 1))</f>
@@ -5822,11 +5825,11 @@
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="5"/>
-        <v>0.46634999999999938</v>
+        <v>0.23122500000000024</v>
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="6"/>
-        <v>0.34544444444444489</v>
+        <v>-2</v>
       </c>
       <c r="M26" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -5834,11 +5837,11 @@
       </c>
       <c r="N26">
         <f t="shared" ca="1" si="8"/>
-        <v>0.46634999999999938</v>
+        <v>0.23122500000000024</v>
       </c>
       <c r="O26">
         <f t="shared" ca="1" si="9"/>
-        <v>0.34544444444444489</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
@@ -5856,7 +5859,7 @@
       </c>
       <c r="D27">
         <f ca="1">(Tracker!G27+Tracker!H27)/2</f>
-        <v>87.5</v>
+        <v>108</v>
       </c>
       <c r="E27" s="11">
         <f>IF(OR(Tracker!F27="denied",Tracker!F27="on hold",Tracker!F27="No Response",Tracker!F27="pending"), 0.2, IF(Tracker!F27="interviewing", 0.4, IF(Tracker!F27="rejected", 0.3, IF(Tracker!F27="offer", 1, 0))))</f>
@@ -5879,11 +5882,11 @@
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="5"/>
-        <v>4.3124999999999858E-2</v>
+        <v>0.68579999999999952</v>
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="6"/>
-        <v>3.1944444444444109E-2</v>
+        <v>0.50800000000000045</v>
       </c>
       <c r="M27" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -5891,11 +5894,11 @@
       </c>
       <c r="N27">
         <f t="shared" ca="1" si="8"/>
-        <v>4.3124999999999858E-2</v>
+        <v>0.68579999999999952</v>
       </c>
       <c r="O27">
         <f t="shared" ca="1" si="9"/>
-        <v>3.1944444444444109E-2</v>
+        <v>0.50800000000000045</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
@@ -5913,7 +5916,7 @@
       </c>
       <c r="D28">
         <f ca="1">(Tracker!G28+Tracker!H28)/2</f>
-        <v>112</v>
+        <v>109.5</v>
       </c>
       <c r="E28" s="11">
         <f>IF(OR(Tracker!F28="denied",Tracker!F28="on hold",Tracker!F28="No Response",Tracker!F28="pending"), 0.2, IF(Tracker!F28="interviewing", 0.4, IF(Tracker!F28="rejected", 0.3, IF(Tracker!F28="offer", 1, 0))))</f>
@@ -5936,11 +5939,11 @@
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="5"/>
-        <v>0.81120000000000081</v>
+        <v>0.73282500000000006</v>
       </c>
       <c r="K28">
         <f t="shared" ca="1" si="6"/>
-        <v>0.60088888888888903</v>
+        <v>0.54283333333333328</v>
       </c>
       <c r="M28" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -5948,11 +5951,11 @@
       </c>
       <c r="N28">
         <f t="shared" ca="1" si="8"/>
-        <v>0.81120000000000081</v>
+        <v>0.73282500000000006</v>
       </c>
       <c r="O28">
         <f t="shared" ca="1" si="9"/>
-        <v>0.60088888888888903</v>
+        <v>0.54283333333333328</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
@@ -5970,7 +5973,7 @@
       </c>
       <c r="D29">
         <f ca="1">(Tracker!G29+Tracker!H29)/2</f>
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="E29" s="11">
         <f>IF(OR(Tracker!F29="denied",Tracker!F29="on hold",Tracker!F29="No Response",Tracker!F29="pending"), 0.2, IF(Tracker!F29="interviewing", 0.4, IF(Tracker!F29="rejected", 0.3, IF(Tracker!F29="offer", 1, 0))))</f>
@@ -5993,11 +5996,11 @@
       </c>
       <c r="J29">
         <f t="shared" ca="1" si="5"/>
-        <v>0.30959999999999965</v>
+        <v>0.71714999999999929</v>
       </c>
       <c r="K29">
         <f t="shared" ca="1" si="6"/>
-        <v>2.4586666666666677</v>
+        <v>3.062444444444445</v>
       </c>
       <c r="M29" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -6005,11 +6008,11 @@
       </c>
       <c r="N29">
         <f t="shared" ca="1" si="8"/>
-        <v>0.30959999999999965</v>
+        <v>0.71714999999999929</v>
       </c>
       <c r="O29">
         <f t="shared" ca="1" si="9"/>
-        <v>2.4586666666666677</v>
+        <v>3.062444444444445</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
@@ -6027,7 +6030,7 @@
       </c>
       <c r="D30">
         <f ca="1">(Tracker!G30+Tracker!H30)/2</f>
-        <v>105.5</v>
+        <v>108.5</v>
       </c>
       <c r="E30" s="11">
         <f>IF(OR(Tracker!F30="denied",Tracker!F30="on hold",Tracker!F30="No Response",Tracker!F30="pending"), 0.2, IF(Tracker!F30="interviewing", 0.4, IF(Tracker!F30="rejected", 0.3, IF(Tracker!F30="offer", 1, 0))))</f>
@@ -6050,11 +6053,11 @@
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="5"/>
-        <v>0.60742499999999966</v>
+        <v>0.70147499999999985</v>
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="6"/>
-        <v>0.4499444444444447</v>
+        <v>0.51961111111111169</v>
       </c>
       <c r="M30" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -6062,11 +6065,11 @@
       </c>
       <c r="N30">
         <f t="shared" ca="1" si="8"/>
-        <v>0.60742499999999966</v>
+        <v>0.70147499999999985</v>
       </c>
       <c r="O30">
         <f t="shared" ca="1" si="9"/>
-        <v>0.4499444444444447</v>
+        <v>0.51961111111111169</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
@@ -6084,7 +6087,7 @@
       </c>
       <c r="D31">
         <f ca="1">(Tracker!G31+Tracker!H31)/2</f>
-        <v>94.5</v>
+        <v>101</v>
       </c>
       <c r="E31" s="11">
         <f>IF(OR(Tracker!F31="denied",Tracker!F31="on hold",Tracker!F31="No Response",Tracker!F31="pending"), 0.2, IF(Tracker!F31="interviewing", 0.4, IF(Tracker!F31="rejected", 0.3, IF(Tracker!F31="offer", 1, 0))))</f>
@@ -6107,11 +6110,11 @@
       </c>
       <c r="J31">
         <f t="shared" ca="1" si="5"/>
-        <v>0.26257499999999956</v>
+        <v>0.46634999999999938</v>
       </c>
       <c r="K31">
         <f t="shared" ca="1" si="6"/>
-        <v>0.19450000000000012</v>
+        <v>0.34544444444444489</v>
       </c>
       <c r="M31" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -6119,11 +6122,11 @@
       </c>
       <c r="N31">
         <f t="shared" ca="1" si="8"/>
-        <v>0.26257499999999956</v>
+        <v>0.46634999999999938</v>
       </c>
       <c r="O31">
         <f t="shared" ca="1" si="9"/>
-        <v>0.19450000000000012</v>
+        <v>0.34544444444444489</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
@@ -6141,7 +6144,7 @@
       </c>
       <c r="D32">
         <f ca="1">(Tracker!G32+Tracker!H32)/2</f>
-        <v>111.5</v>
+        <v>123</v>
       </c>
       <c r="E32" s="11">
         <f>IF(OR(Tracker!F32="denied",Tracker!F32="on hold",Tracker!F32="No Response",Tracker!F32="pending"), 0.2, IF(Tracker!F32="interviewing", 0.4, IF(Tracker!F32="rejected", 0.3, IF(Tracker!F32="offer", 1, 0))))</f>
@@ -6164,11 +6167,11 @@
       </c>
       <c r="J32">
         <f t="shared" ca="1" si="5"/>
-        <v>0.79552499999999959</v>
+        <v>1.1560500000000005</v>
       </c>
       <c r="K32">
         <f t="shared" ca="1" si="6"/>
-        <v>0.33035000000000014</v>
+        <v>0.57069999999999999</v>
       </c>
       <c r="M32" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -6176,11 +6179,11 @@
       </c>
       <c r="N32">
         <f t="shared" ca="1" si="8"/>
-        <v>0.79552499999999959</v>
+        <v>1.1560500000000005</v>
       </c>
       <c r="O32">
         <f t="shared" ca="1" si="9"/>
-        <v>0.33035000000000014</v>
+        <v>0.57069999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
@@ -6198,7 +6201,7 @@
       </c>
       <c r="D33">
         <f ca="1">(Tracker!G33+Tracker!H33)/2</f>
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E33" s="11">
         <f>IF(OR(Tracker!F33="denied",Tracker!F33="on hold",Tracker!F33="No Response",Tracker!F33="pending"), 0.2, IF(Tracker!F33="interviewing", 0.4, IF(Tracker!F33="rejected", 0.3, IF(Tracker!F33="offer", 1, 0))))</f>
@@ -6221,11 +6224,11 @@
       </c>
       <c r="J33">
         <f t="shared" ca="1" si="5"/>
-        <v>0.37230000000000008</v>
+        <v>0.49770000000000003</v>
       </c>
       <c r="K33">
         <f t="shared" ca="1" si="6"/>
-        <v>1.0723000000000003</v>
+        <v>1.1977000000000002</v>
       </c>
       <c r="M33" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -6233,11 +6236,11 @@
       </c>
       <c r="N33">
         <f t="shared" ca="1" si="8"/>
-        <v>0.37230000000000008</v>
+        <v>0.49770000000000003</v>
       </c>
       <c r="O33">
         <f t="shared" ca="1" si="9"/>
-        <v>1.0723000000000003</v>
+        <v>1.1977000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
@@ -6255,7 +6258,7 @@
       </c>
       <c r="D34">
         <f ca="1">(Tracker!G34+Tracker!H34)/2</f>
-        <v>113.5</v>
+        <v>95</v>
       </c>
       <c r="E34" s="11">
         <f>IF(OR(Tracker!F34="denied",Tracker!F34="on hold",Tracker!F34="No Response",Tracker!F34="pending"), 0.2, IF(Tracker!F34="interviewing", 0.4, IF(Tracker!F34="rejected", 0.3, IF(Tracker!F34="offer", 1, 0))))</f>
@@ -6278,11 +6281,11 @@
       </c>
       <c r="J34">
         <f t="shared" ca="1" si="5"/>
-        <v>0.85822499999999913</v>
+        <v>0.27824999999999989</v>
       </c>
       <c r="K34">
         <f t="shared" ca="1" si="6"/>
-        <v>0.37215000000000042</v>
+        <v>-1.4499999999999957E-2</v>
       </c>
       <c r="M34" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -6290,11 +6293,11 @@
       </c>
       <c r="N34">
         <f t="shared" ca="1" si="8"/>
-        <v>0.85822499999999913</v>
+        <v>0.27824999999999989</v>
       </c>
       <c r="O34">
         <f t="shared" ca="1" si="9"/>
-        <v>0.37215000000000042</v>
+        <v>-1.4499999999999957E-2</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
@@ -6312,7 +6315,7 @@
       </c>
       <c r="D35">
         <f ca="1">(Tracker!G35+Tracker!H35)/2</f>
-        <v>124</v>
+        <v>100.5</v>
       </c>
       <c r="E35" s="11">
         <f>IF(OR(Tracker!F35="denied",Tracker!F35="on hold",Tracker!F35="No Response",Tracker!F35="pending"), 0.2, IF(Tracker!F35="interviewing", 0.4, IF(Tracker!F35="rejected", 0.3, IF(Tracker!F35="offer", 1, 0))))</f>
@@ -6335,11 +6338,11 @@
       </c>
       <c r="J35">
         <f t="shared" ca="1" si="5"/>
-        <v>1.1874000000000002</v>
+        <v>0.45067499999999949</v>
       </c>
       <c r="K35">
         <f t="shared" ca="1" si="6"/>
-        <v>4.097882352941177</v>
+        <v>2.9422352941176468</v>
       </c>
       <c r="M35" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -6347,11 +6350,11 @@
       </c>
       <c r="N35">
         <f t="shared" ca="1" si="8"/>
-        <v>1.1874000000000002</v>
+        <v>0.45067499999999949</v>
       </c>
       <c r="O35">
         <f t="shared" ca="1" si="9"/>
-        <v>4.097882352941177</v>
+        <v>2.9422352941176468</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
@@ -6369,7 +6372,7 @@
       </c>
       <c r="D36">
         <f ca="1">(Tracker!G36+Tracker!H36)/2</f>
-        <v>86.5</v>
+        <v>104.5</v>
       </c>
       <c r="E36" s="11">
         <f>IF(OR(Tracker!F36="denied",Tracker!F36="on hold",Tracker!F36="No Response",Tracker!F36="pending"), 0.2, IF(Tracker!F36="interviewing", 0.4, IF(Tracker!F36="rejected", 0.3, IF(Tracker!F36="offer", 1, 0))))</f>
@@ -6392,11 +6395,11 @@
       </c>
       <c r="J36">
         <f t="shared" ca="1" si="5"/>
-        <v>1.1775000000000091E-2</v>
+        <v>0.57607499999999945</v>
       </c>
       <c r="K36">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.19214999999999982</v>
+        <v>0.18405000000000049</v>
       </c>
       <c r="M36" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -6404,11 +6407,11 @@
       </c>
       <c r="N36">
         <f t="shared" ca="1" si="8"/>
-        <v>1.1775000000000091E-2</v>
+        <v>0.57607499999999945</v>
       </c>
       <c r="O36">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.19214999999999982</v>
+        <v>0.18405000000000049</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
@@ -6426,7 +6429,7 @@
       </c>
       <c r="D37">
         <f ca="1">(Tracker!G37+Tracker!H37)/2</f>
-        <v>98</v>
+        <v>101.5</v>
       </c>
       <c r="E37" s="11">
         <f>IF(OR(Tracker!F37="denied",Tracker!F37="on hold",Tracker!F37="No Response",Tracker!F37="pending"), 0.2, IF(Tracker!F37="interviewing", 0.4, IF(Tracker!F37="rejected", 0.3, IF(Tracker!F37="offer", 1, 0))))</f>
@@ -6449,11 +6452,11 @@
       </c>
       <c r="J37">
         <f t="shared" ca="1" si="5"/>
-        <v>0.37230000000000008</v>
+        <v>0.48202500000000015</v>
       </c>
       <c r="K37">
         <f t="shared" ca="1" si="6"/>
-        <v>4.8200000000000465E-2</v>
+        <v>0.12135000000000007</v>
       </c>
       <c r="M37" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -6461,11 +6464,11 @@
       </c>
       <c r="N37">
         <f t="shared" ca="1" si="8"/>
-        <v>0.37230000000000008</v>
+        <v>0.48202500000000015</v>
       </c>
       <c r="O37">
         <f t="shared" ca="1" si="9"/>
-        <v>4.8200000000000465E-2</v>
+        <v>0.12135000000000007</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
@@ -6479,15 +6482,15 @@
       </c>
       <c r="C38" t="str">
         <f>Tracker!F38</f>
-        <v>No Response</v>
+        <v>Ghosted</v>
       </c>
       <c r="D38">
         <f ca="1">(Tracker!G38+Tracker!H38)/2</f>
-        <v>100.5</v>
+        <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>IF(OR(Tracker!F38="denied",Tracker!F38="on hold",Tracker!F38="No Response",Tracker!F38="pending"), 0.2, IF(Tracker!F38="interviewing", 0.4, IF(Tracker!F38="rejected", 0.3, IF(Tracker!F38="offer", 1, 0))))</f>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F38" s="12">
         <f>IF(OR(Tracker!I38="linkedin", Tracker!I38="Indeed", Tracker!I38="linkedin dm"), 0.9, IF(Tracker!I38="Company Site", 1.1, 1))</f>
@@ -6506,11 +6509,11 @@
       </c>
       <c r="J38">
         <f t="shared" ca="1" si="5"/>
-        <v>0.45067499999999949</v>
+        <v>0.43499999999999961</v>
       </c>
       <c r="K38">
         <f t="shared" ca="1" si="6"/>
-        <v>0.10044999999999993</v>
+        <v>-2</v>
       </c>
       <c r="M38" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -6518,11 +6521,11 @@
       </c>
       <c r="N38">
         <f t="shared" ca="1" si="8"/>
-        <v>0.45067499999999949</v>
+        <v>0.43499999999999961</v>
       </c>
       <c r="O38">
         <f t="shared" ca="1" si="9"/>
-        <v>0.10044999999999993</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
@@ -6540,7 +6543,7 @@
       </c>
       <c r="D39">
         <f ca="1">(Tracker!G39+Tracker!H39)/2</f>
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E39" s="11">
         <f>IF(OR(Tracker!F39="denied",Tracker!F39="on hold",Tracker!F39="No Response",Tracker!F39="pending"), 0.2, IF(Tracker!F39="interviewing", 0.4, IF(Tracker!F39="rejected", 0.3, IF(Tracker!F39="offer", 1, 0))))</f>
@@ -6563,11 +6566,11 @@
       </c>
       <c r="J39">
         <f t="shared" ca="1" si="5"/>
-        <v>0.1841999999999997</v>
+        <v>-6.6600000000000215E-2</v>
       </c>
       <c r="K39">
         <f t="shared" ca="1" si="6"/>
-        <v>2.4000000000000465E-2</v>
+        <v>-0.15199999999999947</v>
       </c>
       <c r="M39" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -6575,11 +6578,11 @@
       </c>
       <c r="N39">
         <f t="shared" ca="1" si="8"/>
-        <v>0.1841999999999997</v>
+        <v>-6.6600000000000215E-2</v>
       </c>
       <c r="O39">
         <f t="shared" ca="1" si="9"/>
-        <v>2.4000000000000465E-2</v>
+        <v>-0.15199999999999947</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
@@ -6597,7 +6600,7 @@
       </c>
       <c r="D40">
         <f ca="1">(Tracker!G40+Tracker!H40)/2</f>
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E40" s="11">
         <f>IF(OR(Tracker!F40="denied",Tracker!F40="on hold",Tracker!F40="No Response",Tracker!F40="pending"), 0.2, IF(Tracker!F40="interviewing", 0.4, IF(Tracker!F40="rejected", 0.3, IF(Tracker!F40="offer", 1, 0))))</f>
@@ -6620,11 +6623,11 @@
       </c>
       <c r="J40">
         <f t="shared" ca="1" si="5"/>
-        <v>2.7449999999999974E-2</v>
+        <v>0.30959999999999965</v>
       </c>
       <c r="K40">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.18169999999999975</v>
+        <v>6.4000000000001833E-3</v>
       </c>
       <c r="M40" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -6632,11 +6635,11 @@
       </c>
       <c r="N40">
         <f t="shared" ca="1" si="8"/>
-        <v>2.7449999999999974E-2</v>
+        <v>0.30959999999999965</v>
       </c>
       <c r="O40">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.18169999999999975</v>
+        <v>6.4000000000001833E-3</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
@@ -6654,7 +6657,7 @@
       </c>
       <c r="D41">
         <f ca="1">(Tracker!G41+Tracker!H41)/2</f>
-        <v>92</v>
+        <v>80.5</v>
       </c>
       <c r="E41" s="11">
         <f>IF(OR(Tracker!F41="denied",Tracker!F41="on hold",Tracker!F41="No Response",Tracker!F41="pending"), 0.2, IF(Tracker!F41="interviewing", 0.4, IF(Tracker!F41="rejected", 0.3, IF(Tracker!F41="offer", 1, 0))))</f>
@@ -6677,11 +6680,11 @@
       </c>
       <c r="J41">
         <f t="shared" ca="1" si="5"/>
-        <v>0.1841999999999997</v>
+        <v>-0.17632500000000029</v>
       </c>
       <c r="K41">
         <f t="shared" ca="1" si="6"/>
-        <v>-7.7199999999999491E-2</v>
+        <v>-0.31754999999999955</v>
       </c>
       <c r="M41" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -6689,11 +6692,11 @@
       </c>
       <c r="N41">
         <f t="shared" ca="1" si="8"/>
-        <v>0.1841999999999997</v>
+        <v>-0.17632500000000029</v>
       </c>
       <c r="O41">
         <f t="shared" ca="1" si="9"/>
-        <v>-7.7199999999999491E-2</v>
+        <v>-0.31754999999999955</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
@@ -6711,7 +6714,7 @@
       </c>
       <c r="D42">
         <f ca="1">(Tracker!G42+Tracker!H42)/2</f>
-        <v>97.5</v>
+        <v>99.5</v>
       </c>
       <c r="E42" s="11">
         <f>IF(OR(Tracker!F42="denied",Tracker!F42="on hold",Tracker!F42="No Response",Tracker!F42="pending"), 0.2, IF(Tracker!F42="interviewing", 0.4, IF(Tracker!F42="rejected", 0.3, IF(Tracker!F42="offer", 1, 0))))</f>
@@ -6734,11 +6737,11 @@
       </c>
       <c r="J42">
         <f t="shared" ca="1" si="5"/>
-        <v>0.35662500000000019</v>
+        <v>0.41932499999999973</v>
       </c>
       <c r="K42">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3962500000000002</v>
+        <v>1.4659166666666668</v>
       </c>
       <c r="M42" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -6746,11 +6749,11 @@
       </c>
       <c r="N42">
         <f t="shared" ca="1" si="8"/>
-        <v>0.35662500000000019</v>
+        <v>0.41932499999999973</v>
       </c>
       <c r="O42">
         <f t="shared" ca="1" si="9"/>
-        <v>1.3962500000000002</v>
+        <v>1.4659166666666668</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
@@ -6768,7 +6771,7 @@
       </c>
       <c r="D43">
         <f ca="1">(Tracker!G43+Tracker!H43)/2</f>
-        <v>107</v>
+        <v>106.5</v>
       </c>
       <c r="E43" s="11">
         <f>IF(OR(Tracker!F43="denied",Tracker!F43="on hold",Tracker!F43="No Response",Tracker!F43="pending"), 0.2, IF(Tracker!F43="interviewing", 0.4, IF(Tracker!F43="rejected", 0.3, IF(Tracker!F43="offer", 1, 0))))</f>
@@ -6791,11 +6794,11 @@
       </c>
       <c r="J43">
         <f t="shared" ca="1" si="5"/>
-        <v>0.65444999999999975</v>
+        <v>0.63877500000000031</v>
       </c>
       <c r="K43">
         <f t="shared" ca="1" si="6"/>
-        <v>0.2363000000000004</v>
+        <v>0.22585000000000033</v>
       </c>
       <c r="M43" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -6803,11 +6806,11 @@
       </c>
       <c r="N43">
         <f t="shared" ca="1" si="8"/>
-        <v>0.65444999999999975</v>
+        <v>0.63877500000000031</v>
       </c>
       <c r="O43">
         <f t="shared" ca="1" si="9"/>
-        <v>0.2363000000000004</v>
+        <v>0.22585000000000033</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
@@ -6825,7 +6828,7 @@
       </c>
       <c r="D44">
         <f ca="1">(Tracker!G44+Tracker!H44)/2</f>
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="E44" s="11">
         <f>IF(OR(Tracker!F44="denied",Tracker!F44="on hold",Tracker!F44="No Response",Tracker!F44="pending"), 0.2, IF(Tracker!F44="interviewing", 0.4, IF(Tracker!F44="rejected", 0.3, IF(Tracker!F44="offer", 1, 0))))</f>
@@ -6848,11 +6851,11 @@
       </c>
       <c r="J44">
         <f t="shared" ca="1" si="5"/>
-        <v>2.7449999999999974E-2</v>
+        <v>0.49770000000000003</v>
       </c>
       <c r="K44">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.18169999999999975</v>
+        <v>0.13180000000000058</v>
       </c>
       <c r="M44" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -6860,11 +6863,11 @@
       </c>
       <c r="N44">
         <f t="shared" ca="1" si="8"/>
-        <v>2.7449999999999974E-2</v>
+        <v>0.49770000000000003</v>
       </c>
       <c r="O44">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.18169999999999975</v>
+        <v>0.13180000000000058</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
@@ -6882,7 +6885,7 @@
       </c>
       <c r="D45">
         <f ca="1">(Tracker!G45+Tracker!H45)/2</f>
-        <v>119</v>
+        <v>116.5</v>
       </c>
       <c r="E45" s="11">
         <f>IF(OR(Tracker!F45="denied",Tracker!F45="on hold",Tracker!F45="No Response",Tracker!F45="pending"), 0.2, IF(Tracker!F45="interviewing", 0.4, IF(Tracker!F45="rejected", 0.3, IF(Tracker!F45="offer", 1, 0))))</f>
@@ -6905,11 +6908,11 @@
       </c>
       <c r="J45">
         <f t="shared" ca="1" si="5"/>
-        <v>1.0306499999999992</v>
+        <v>0.9522750000000002</v>
       </c>
       <c r="K45">
         <f t="shared" ca="1" si="6"/>
-        <v>0.48710000000000031</v>
+        <v>0.43484999999999996</v>
       </c>
       <c r="M45" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -6917,11 +6920,11 @@
       </c>
       <c r="N45">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0306499999999992</v>
+        <v>0.9522750000000002</v>
       </c>
       <c r="O45">
         <f t="shared" ca="1" si="9"/>
-        <v>0.48710000000000031</v>
+        <v>0.43484999999999996</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
@@ -6939,7 +6942,7 @@
       </c>
       <c r="D46">
         <f ca="1">(Tracker!G46+Tracker!H46)/2</f>
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="E46" s="11">
         <f>IF(OR(Tracker!F46="denied",Tracker!F46="on hold",Tracker!F46="No Response",Tracker!F46="pending"), 0.2, IF(Tracker!F46="interviewing", 0.4, IF(Tracker!F46="rejected", 0.3, IF(Tracker!F46="offer", 1, 0))))</f>
@@ -6962,11 +6965,11 @@
       </c>
       <c r="J46">
         <f t="shared" ca="1" si="5"/>
-        <v>0.46634999999999938</v>
+        <v>-6.6600000000000215E-2</v>
       </c>
       <c r="K46">
         <f t="shared" ca="1" si="6"/>
-        <v>0.11090000000000044</v>
+        <v>-0.24439999999999951</v>
       </c>
       <c r="M46" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -6974,11 +6977,11 @@
       </c>
       <c r="N46">
         <f t="shared" ca="1" si="8"/>
-        <v>0.46634999999999938</v>
+        <v>-6.6600000000000215E-2</v>
       </c>
       <c r="O46">
         <f t="shared" ca="1" si="9"/>
-        <v>0.11090000000000044</v>
+        <v>-0.24439999999999951</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
@@ -6996,7 +6999,7 @@
       </c>
       <c r="D47">
         <f ca="1">(Tracker!G47+Tracker!H47)/2</f>
-        <v>96</v>
+        <v>115.5</v>
       </c>
       <c r="E47" s="11">
         <f>IF(OR(Tracker!F47="denied",Tracker!F47="on hold",Tracker!F47="No Response",Tracker!F47="pending"), 0.2, IF(Tracker!F47="interviewing", 0.4, IF(Tracker!F47="rejected", 0.3, IF(Tracker!F47="offer", 1, 0))))</f>
@@ -7019,11 +7022,11 @@
       </c>
       <c r="J47">
         <f t="shared" ca="1" si="5"/>
-        <v>0.30959999999999965</v>
+        <v>0.92092499999999955</v>
       </c>
       <c r="K47">
         <f t="shared" ca="1" si="6"/>
-        <v>6.4000000000001833E-3</v>
+        <v>0.41395000000000026</v>
       </c>
       <c r="M47" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -7031,11 +7034,11 @@
       </c>
       <c r="N47">
         <f t="shared" ca="1" si="8"/>
-        <v>0.30959999999999965</v>
+        <v>0.92092499999999955</v>
       </c>
       <c r="O47">
         <f t="shared" ca="1" si="9"/>
-        <v>6.4000000000001833E-3</v>
+        <v>0.41395000000000026</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
@@ -7053,7 +7056,7 @@
       </c>
       <c r="D48">
         <f ca="1">(Tracker!G48+Tracker!H48)/2</f>
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="E48" s="11">
         <f>IF(OR(Tracker!F48="denied",Tracker!F48="on hold",Tracker!F48="No Response",Tracker!F48="pending"), 0.2, IF(Tracker!F48="interviewing", 0.4, IF(Tracker!F48="rejected", 0.3, IF(Tracker!F48="offer", 1, 0))))</f>
@@ -7076,11 +7079,11 @@
       </c>
       <c r="J48">
         <f t="shared" ca="1" si="5"/>
-        <v>1.1246999999999998</v>
+        <v>-6.6600000000000215E-2</v>
       </c>
       <c r="K48">
         <f t="shared" ca="1" si="6"/>
-        <v>1.8247</v>
+        <v>0.63339999999999996</v>
       </c>
       <c r="M48" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -7088,11 +7091,11 @@
       </c>
       <c r="N48">
         <f t="shared" ca="1" si="8"/>
-        <v>1.1246999999999998</v>
+        <v>-6.6600000000000215E-2</v>
       </c>
       <c r="O48">
         <f t="shared" ca="1" si="9"/>
-        <v>1.8247</v>
+        <v>0.63339999999999996</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
@@ -7110,7 +7113,7 @@
       </c>
       <c r="D49">
         <f ca="1">(Tracker!G49+Tracker!H49)/2</f>
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="E49" s="11">
         <f>IF(OR(Tracker!F49="denied",Tracker!F49="on hold",Tracker!F49="No Response",Tracker!F49="pending"), 0.2, IF(Tracker!F49="interviewing", 0.4, IF(Tracker!F49="rejected", 0.3, IF(Tracker!F49="offer", 1, 0))))</f>
@@ -7133,11 +7136,11 @@
       </c>
       <c r="J49">
         <f t="shared" ca="1" si="5"/>
-        <v>0.96795000000000009</v>
+        <v>0.21554999999999991</v>
       </c>
       <c r="K49">
         <f t="shared" ca="1" si="6"/>
-        <v>0.44530000000000047</v>
+        <v>-5.6299999999999573E-2</v>
       </c>
       <c r="M49" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -7145,11 +7148,11 @@
       </c>
       <c r="N49">
         <f t="shared" ca="1" si="8"/>
-        <v>0.96795000000000009</v>
+        <v>0.21554999999999991</v>
       </c>
       <c r="O49">
         <f t="shared" ca="1" si="9"/>
-        <v>0.44530000000000047</v>
+        <v>-5.6299999999999573E-2</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
@@ -7167,7 +7170,7 @@
       </c>
       <c r="D50">
         <f ca="1">(Tracker!G50+Tracker!H50)/2</f>
-        <v>86.5</v>
+        <v>108.5</v>
       </c>
       <c r="E50" s="11">
         <f>IF(OR(Tracker!F50="denied",Tracker!F50="on hold",Tracker!F50="No Response",Tracker!F50="pending"), 0.2, IF(Tracker!F50="interviewing", 0.4, IF(Tracker!F50="rejected", 0.3, IF(Tracker!F50="offer", 1, 0))))</f>
@@ -7190,11 +7193,11 @@
       </c>
       <c r="J50">
         <f t="shared" ca="1" si="5"/>
-        <v>1.1775000000000091E-2</v>
+        <v>0.70147499999999985</v>
       </c>
       <c r="K50">
         <f t="shared" ca="1" si="6"/>
-        <v>0.71177500000000027</v>
+        <v>1.401475</v>
       </c>
       <c r="M50" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -7202,11 +7205,11 @@
       </c>
       <c r="N50">
         <f t="shared" ca="1" si="8"/>
-        <v>1.1775000000000091E-2</v>
+        <v>0.70147499999999985</v>
       </c>
       <c r="O50">
         <f t="shared" ca="1" si="9"/>
-        <v>0.71177500000000027</v>
+        <v>1.401475</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
@@ -7224,7 +7227,7 @@
       </c>
       <c r="D51">
         <f ca="1">(Tracker!G51+Tracker!H51)/2</f>
-        <v>106.5</v>
+        <v>88</v>
       </c>
       <c r="E51" s="11">
         <f>IF(OR(Tracker!F51="denied",Tracker!F51="on hold",Tracker!F51="No Response",Tracker!F51="pending"), 0.2, IF(Tracker!F51="interviewing", 0.4, IF(Tracker!F51="rejected", 0.3, IF(Tracker!F51="offer", 1, 0))))</f>
@@ -7247,11 +7250,11 @@
       </c>
       <c r="J51">
         <f t="shared" ca="1" si="5"/>
-        <v>0.63877500000000031</v>
+        <v>5.8799999999999741E-2</v>
       </c>
       <c r="K51">
         <f t="shared" ca="1" si="6"/>
-        <v>0.22585000000000033</v>
+        <v>-0.16079999999999961</v>
       </c>
       <c r="M51" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -7259,11 +7262,11 @@
       </c>
       <c r="N51">
         <f t="shared" ca="1" si="8"/>
-        <v>0.63877500000000031</v>
+        <v>5.8799999999999741E-2</v>
       </c>
       <c r="O51">
         <f t="shared" ca="1" si="9"/>
-        <v>0.22585000000000033</v>
+        <v>-0.16079999999999961</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
@@ -7281,7 +7284,7 @@
       </c>
       <c r="D52">
         <f ca="1">(Tracker!G52+Tracker!H52)/2</f>
-        <v>85.5</v>
+        <v>106</v>
       </c>
       <c r="E52" s="11">
         <f>IF(OR(Tracker!F52="denied",Tracker!F52="on hold",Tracker!F52="No Response",Tracker!F52="pending"), 0.2, IF(Tracker!F52="interviewing", 0.4, IF(Tracker!F52="rejected", 0.3, IF(Tracker!F52="offer", 1, 0))))</f>
@@ -7304,11 +7307,11 @@
       </c>
       <c r="J52">
         <f t="shared" ca="1" si="5"/>
-        <v>-1.957500000000012E-2</v>
+        <v>0.6230999999999991</v>
       </c>
       <c r="K52">
         <f t="shared" ca="1" si="6"/>
-        <v>0.68042500000000006</v>
+        <v>1.3230999999999993</v>
       </c>
       <c r="M52" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -7316,11 +7319,11 @@
       </c>
       <c r="N52">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.957500000000012E-2</v>
+        <v>0.6230999999999991</v>
       </c>
       <c r="O52">
         <f t="shared" ca="1" si="9"/>
-        <v>0.68042500000000006</v>
+        <v>1.3230999999999993</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.35">
@@ -7338,7 +7341,7 @@
       </c>
       <c r="D53">
         <f ca="1">(Tracker!G53+Tracker!H53)/2</f>
-        <v>91.5</v>
+        <v>115</v>
       </c>
       <c r="E53" s="11">
         <f>IF(OR(Tracker!F53="denied",Tracker!F53="on hold",Tracker!F53="No Response",Tracker!F53="pending"), 0.2, IF(Tracker!F53="interviewing", 0.4, IF(Tracker!F53="rejected", 0.3, IF(Tracker!F53="offer", 1, 0))))</f>
@@ -7361,11 +7364,11 @@
       </c>
       <c r="J53">
         <f t="shared" ca="1" si="5"/>
-        <v>0.16852499999999981</v>
+        <v>0.90525000000000011</v>
       </c>
       <c r="K53">
         <f t="shared" ca="1" si="6"/>
-        <v>1.8247</v>
+        <v>2.8070000000000004</v>
       </c>
       <c r="M53" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -7373,11 +7376,11 @@
       </c>
       <c r="N53">
         <f t="shared" ca="1" si="8"/>
-        <v>0.16852499999999981</v>
+        <v>0.90525000000000011</v>
       </c>
       <c r="O53">
         <f t="shared" ca="1" si="9"/>
-        <v>1.8247</v>
+        <v>2.8070000000000004</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.35">
@@ -7395,7 +7398,7 @@
       </c>
       <c r="D54">
         <f ca="1">(Tracker!G54+Tracker!H54)/2</f>
-        <v>116</v>
+        <v>116.5</v>
       </c>
       <c r="E54" s="11">
         <f>IF(OR(Tracker!F54="denied",Tracker!F54="on hold",Tracker!F54="No Response",Tracker!F54="pending"), 0.2, IF(Tracker!F54="interviewing", 0.4, IF(Tracker!F54="rejected", 0.3, IF(Tracker!F54="offer", 1, 0))))</f>
@@ -7418,11 +7421,11 @@
       </c>
       <c r="J54">
         <f t="shared" ca="1" si="5"/>
-        <v>0.60599999999999943</v>
+        <v>0.62024999999999908</v>
       </c>
       <c r="K54">
         <f t="shared" ca="1" si="6"/>
-        <v>2.4079999999999995</v>
+        <v>2.4269999999999987</v>
       </c>
       <c r="M54" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -7430,11 +7433,11 @@
       </c>
       <c r="N54">
         <f t="shared" ca="1" si="8"/>
-        <v>0.60599999999999943</v>
+        <v>0.62024999999999908</v>
       </c>
       <c r="O54">
         <f t="shared" ca="1" si="9"/>
-        <v>2.4079999999999995</v>
+        <v>2.4269999999999987</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.35">
@@ -7452,7 +7455,7 @@
       </c>
       <c r="D55">
         <f ca="1">(Tracker!G55+Tracker!H55)/2</f>
-        <v>115</v>
+        <v>89.5</v>
       </c>
       <c r="E55" s="11">
         <f>IF(OR(Tracker!F55="denied",Tracker!F55="on hold",Tracker!F55="No Response",Tracker!F55="pending"), 0.2, IF(Tracker!F55="interviewing", 0.4, IF(Tracker!F55="rejected", 0.3, IF(Tracker!F55="offer", 1, 0))))</f>
@@ -7475,11 +7478,11 @@
       </c>
       <c r="J55">
         <f t="shared" ca="1" si="5"/>
-        <v>0.57749999999999968</v>
+        <v>-0.14925000000000033</v>
       </c>
       <c r="K55">
         <f t="shared" ca="1" si="6"/>
-        <v>1.2774999999999999</v>
+        <v>0.55074999999999985</v>
       </c>
       <c r="M55" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -7487,11 +7490,11 @@
       </c>
       <c r="N55">
         <f t="shared" ca="1" si="8"/>
-        <v>0.57749999999999968</v>
+        <v>-0.14925000000000033</v>
       </c>
       <c r="O55">
         <f t="shared" ca="1" si="9"/>
-        <v>1.2774999999999999</v>
+        <v>0.55074999999999985</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
@@ -7509,7 +7512,7 @@
       </c>
       <c r="D56">
         <f ca="1">(Tracker!G56+Tracker!H56)/2</f>
-        <v>103.5</v>
+        <v>92.5</v>
       </c>
       <c r="E56" s="11">
         <f>IF(OR(Tracker!F56="denied",Tracker!F56="on hold",Tracker!F56="No Response",Tracker!F56="pending"), 0.2, IF(Tracker!F56="interviewing", 0.4, IF(Tracker!F56="rejected", 0.3, IF(Tracker!F56="offer", 1, 0))))</f>
@@ -7532,11 +7535,11 @@
       </c>
       <c r="J56">
         <f t="shared" ca="1" si="5"/>
-        <v>0.24974999999999925</v>
+        <v>-6.3750000000000639E-2</v>
       </c>
       <c r="K56">
         <f t="shared" ca="1" si="6"/>
-        <v>-3.3499999999999641E-2</v>
+        <v>-0.24250000000000016</v>
       </c>
       <c r="M56" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -7544,11 +7547,11 @@
       </c>
       <c r="N56">
         <f t="shared" ca="1" si="8"/>
-        <v>0.24974999999999925</v>
+        <v>-6.3750000000000639E-2</v>
       </c>
       <c r="O56">
         <f t="shared" ca="1" si="9"/>
-        <v>-3.3499999999999641E-2</v>
+        <v>-0.24250000000000016</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.35">
@@ -7566,7 +7569,7 @@
       </c>
       <c r="D57">
         <f ca="1">(Tracker!G57+Tracker!H57)/2</f>
-        <v>103.5</v>
+        <v>92.5</v>
       </c>
       <c r="E57" s="11">
         <f>IF(OR(Tracker!F57="denied",Tracker!F57="on hold",Tracker!F57="No Response",Tracker!F57="pending"), 0.2, IF(Tracker!F57="interviewing", 0.4, IF(Tracker!F57="rejected", 0.3, IF(Tracker!F57="offer", 1, 0))))</f>
@@ -7589,11 +7592,11 @@
       </c>
       <c r="J57">
         <f t="shared" ca="1" si="5"/>
-        <v>0.24974999999999925</v>
+        <v>-6.3750000000000639E-2</v>
       </c>
       <c r="K57">
         <f t="shared" ca="1" si="6"/>
-        <v>-3.3499999999999641E-2</v>
+        <v>-0.24250000000000016</v>
       </c>
       <c r="M57" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -7601,11 +7604,11 @@
       </c>
       <c r="N57">
         <f t="shared" ca="1" si="8"/>
-        <v>0.24974999999999925</v>
+        <v>-6.3750000000000639E-2</v>
       </c>
       <c r="O57">
         <f t="shared" ca="1" si="9"/>
-        <v>-3.3499999999999641E-2</v>
+        <v>-0.24250000000000016</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.35">
@@ -7623,7 +7626,7 @@
       </c>
       <c r="D58">
         <f ca="1">(Tracker!G58+Tracker!H58)/2</f>
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E58" s="11">
         <f>IF(OR(Tracker!F58="denied",Tracker!F58="on hold",Tracker!F58="No Response",Tracker!F58="pending"), 0.2, IF(Tracker!F58="interviewing", 0.4, IF(Tracker!F58="rejected", 0.3, IF(Tracker!F58="offer", 1, 0))))</f>
@@ -7646,11 +7649,11 @@
       </c>
       <c r="J58">
         <f t="shared" ca="1" si="5"/>
-        <v>0.2354999999999996</v>
+        <v>3.5999999999999588E-2</v>
       </c>
       <c r="K58">
         <f t="shared" ca="1" si="6"/>
-        <v>-4.2999999999999927E-2</v>
+        <v>-0.17599999999999971</v>
       </c>
       <c r="M58" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -7658,11 +7661,11 @@
       </c>
       <c r="N58">
         <f t="shared" ca="1" si="8"/>
-        <v>0.2354999999999996</v>
+        <v>3.5999999999999588E-2</v>
       </c>
       <c r="O58">
         <f t="shared" ca="1" si="9"/>
-        <v>-4.2999999999999927E-2</v>
+        <v>-0.17599999999999971</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.35">
@@ -7680,7 +7683,7 @@
       </c>
       <c r="D59">
         <f ca="1">(Tracker!G59+Tracker!H59)/2</f>
-        <v>94</v>
+        <v>95.5</v>
       </c>
       <c r="E59" s="11">
         <f>IF(OR(Tracker!F59="denied",Tracker!F59="on hold",Tracker!F59="No Response",Tracker!F59="pending"), 0.2, IF(Tracker!F59="interviewing", 0.4, IF(Tracker!F59="rejected", 0.3, IF(Tracker!F59="offer", 1, 0))))</f>
@@ -7703,11 +7706,11 @@
       </c>
       <c r="J59">
         <f t="shared" ca="1" si="5"/>
-        <v>-2.1000000000000352E-2</v>
+        <v>2.1749999999999492E-2</v>
       </c>
       <c r="K59">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.21399999999999997</v>
+        <v>-0.1855</v>
       </c>
       <c r="M59" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -7715,11 +7718,11 @@
       </c>
       <c r="N59">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.1000000000000352E-2</v>
+        <v>2.1749999999999492E-2</v>
       </c>
       <c r="O59">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.21399999999999997</v>
+        <v>-0.1855</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.35">
@@ -7737,7 +7740,7 @@
       </c>
       <c r="D60">
         <f ca="1">(Tracker!G60+Tracker!H60)/2</f>
-        <v>115</v>
+        <v>112.5</v>
       </c>
       <c r="E60" s="11">
         <f>IF(OR(Tracker!F60="denied",Tracker!F60="on hold",Tracker!F60="No Response",Tracker!F60="pending"), 0.2, IF(Tracker!F60="interviewing", 0.4, IF(Tracker!F60="rejected", 0.3, IF(Tracker!F60="offer", 1, 0))))</f>
@@ -7760,11 +7763,11 @@
       </c>
       <c r="J60">
         <f t="shared" ca="1" si="5"/>
-        <v>0.57749999999999968</v>
+        <v>0.50624999999999964</v>
       </c>
       <c r="K60">
         <f t="shared" ca="1" si="6"/>
-        <v>0.18499999999999961</v>
+        <v>0.13750000000000018</v>
       </c>
       <c r="M60" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -7772,11 +7775,11 @@
       </c>
       <c r="N60">
         <f t="shared" ca="1" si="8"/>
-        <v>0.57749999999999968</v>
+        <v>0.50624999999999964</v>
       </c>
       <c r="O60">
         <f t="shared" ca="1" si="9"/>
-        <v>0.18499999999999961</v>
+        <v>0.13750000000000018</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.35">
@@ -7794,7 +7797,7 @@
       </c>
       <c r="D61">
         <f ca="1">(Tracker!G61+Tracker!H61)/2</f>
-        <v>86.5</v>
+        <v>95</v>
       </c>
       <c r="E61" s="11">
         <f>IF(OR(Tracker!F61="denied",Tracker!F61="on hold",Tracker!F61="No Response",Tracker!F61="pending"), 0.2, IF(Tracker!F61="interviewing", 0.4, IF(Tracker!F61="rejected", 0.3, IF(Tracker!F61="offer", 1, 0))))</f>
@@ -7817,11 +7820,11 @@
       </c>
       <c r="J61">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.23475000000000001</v>
+        <v>7.4999999999998401E-3</v>
       </c>
       <c r="K61">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.35650000000000004</v>
+        <v>-0.19499999999999984</v>
       </c>
       <c r="M61" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -7829,11 +7832,11 @@
       </c>
       <c r="N61">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.23475000000000001</v>
+        <v>7.4999999999998401E-3</v>
       </c>
       <c r="O61">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.35650000000000004</v>
+        <v>-0.19499999999999984</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.35">
@@ -7851,7 +7854,7 @@
       </c>
       <c r="D62">
         <f ca="1">(Tracker!G62+Tracker!H62)/2</f>
-        <v>115</v>
+        <v>102.5</v>
       </c>
       <c r="E62" s="11">
         <f>IF(OR(Tracker!F62="denied",Tracker!F62="on hold",Tracker!F62="No Response",Tracker!F62="pending"), 0.2, IF(Tracker!F62="interviewing", 0.4, IF(Tracker!F62="rejected", 0.3, IF(Tracker!F62="offer", 1, 0))))</f>
@@ -7874,11 +7877,11 @@
       </c>
       <c r="J62">
         <f t="shared" ca="1" si="5"/>
-        <v>0.57749999999999968</v>
+        <v>0.2212499999999995</v>
       </c>
       <c r="K62">
         <f t="shared" ca="1" si="6"/>
-        <v>1.2774999999999999</v>
+        <v>0.92124999999999968</v>
       </c>
       <c r="M62" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -7886,11 +7889,11 @@
       </c>
       <c r="N62">
         <f t="shared" ca="1" si="8"/>
-        <v>0.57749999999999968</v>
+        <v>0.2212499999999995</v>
       </c>
       <c r="O62">
         <f t="shared" ca="1" si="9"/>
-        <v>1.2774999999999999</v>
+        <v>0.92124999999999968</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.35">
@@ -7908,7 +7911,7 @@
       </c>
       <c r="D63">
         <f ca="1">(Tracker!G63+Tracker!H63)/2</f>
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E63" s="11">
         <f>IF(OR(Tracker!F63="denied",Tracker!F63="on hold",Tracker!F63="No Response",Tracker!F63="pending"), 0.2, IF(Tracker!F63="interviewing", 0.4, IF(Tracker!F63="rejected", 0.3, IF(Tracker!F63="offer", 1, 0))))</f>
@@ -7931,11 +7934,11 @@
       </c>
       <c r="J63">
         <f t="shared" ca="1" si="5"/>
-        <v>-2.1000000000000352E-2</v>
+        <v>0.26399999999999935</v>
       </c>
       <c r="K63">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.21399999999999997</v>
+        <v>-2.4000000000000243E-2</v>
       </c>
       <c r="M63" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -7943,11 +7946,11 @@
       </c>
       <c r="N63">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.1000000000000352E-2</v>
+        <v>0.26399999999999935</v>
       </c>
       <c r="O63">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.21399999999999997</v>
+        <v>-2.4000000000000243E-2</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.35">
@@ -7965,7 +7968,7 @@
       </c>
       <c r="D64">
         <f ca="1">(Tracker!G64+Tracker!H64)/2</f>
-        <v>88.5</v>
+        <v>103</v>
       </c>
       <c r="E64" s="11">
         <f>IF(OR(Tracker!F64="denied",Tracker!F64="on hold",Tracker!F64="No Response",Tracker!F64="pending"), 0.2, IF(Tracker!F64="interviewing", 0.4, IF(Tracker!F64="rejected", 0.3, IF(Tracker!F64="offer", 1, 0))))</f>
@@ -7988,11 +7991,11 @@
       </c>
       <c r="J64">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.17775000000000007</v>
+        <v>0.2354999999999996</v>
       </c>
       <c r="K64">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.31850000000000023</v>
+        <v>-4.2999999999999927E-2</v>
       </c>
       <c r="M64" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -8000,11 +8003,11 @@
       </c>
       <c r="N64">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.17775000000000007</v>
+        <v>0.2354999999999996</v>
       </c>
       <c r="O64">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.31850000000000023</v>
+        <v>-4.2999999999999927E-2</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.35">
@@ -8022,7 +8025,7 @@
       </c>
       <c r="D65">
         <f ca="1">(Tracker!G65+Tracker!H65)/2</f>
-        <v>95.5</v>
+        <v>106.5</v>
       </c>
       <c r="E65" s="11">
         <f>IF(OR(Tracker!F65="denied",Tracker!F65="on hold",Tracker!F65="No Response",Tracker!F65="pending"), 0.2, IF(Tracker!F65="interviewing", 0.4, IF(Tracker!F65="rejected", 0.3, IF(Tracker!F65="offer", 1, 0))))</f>
@@ -8045,11 +8048,11 @@
       </c>
       <c r="J65">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.25042500000000034</v>
+        <v>3.1724999999999781E-2</v>
       </c>
       <c r="K65">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.36694999999999989</v>
+        <v>-0.17884999999999995</v>
       </c>
       <c r="M65" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -8057,11 +8060,11 @@
       </c>
       <c r="N65">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.25042500000000034</v>
+        <v>3.1724999999999781E-2</v>
       </c>
       <c r="O65">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.36694999999999989</v>
+        <v>-0.17884999999999995</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.35">
@@ -8079,7 +8082,7 @@
       </c>
       <c r="D66">
         <f ca="1">(Tracker!G66+Tracker!H66)/2</f>
-        <v>101</v>
+        <v>106.5</v>
       </c>
       <c r="E66" s="11">
         <f>IF(OR(Tracker!F66="denied",Tracker!F66="on hold",Tracker!F66="No Response",Tracker!F66="pending"), 0.2, IF(Tracker!F66="interviewing", 0.4, IF(Tracker!F66="rejected", 0.3, IF(Tracker!F66="offer", 1, 0))))</f>
@@ -8102,11 +8105,11 @@
       </c>
       <c r="J66">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.1093500000000005</v>
+        <v>3.1724999999999781E-2</v>
       </c>
       <c r="K66">
         <f t="shared" ca="1" si="6"/>
-        <v>0.74142857142857155</v>
+        <v>0.89071428571428601</v>
       </c>
       <c r="M66" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -8114,11 +8117,11 @@
       </c>
       <c r="N66">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.1093500000000005</v>
+        <v>3.1724999999999781E-2</v>
       </c>
       <c r="O66">
         <f t="shared" ca="1" si="9"/>
-        <v>0.74142857142857155</v>
+        <v>0.89071428571428601</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.35">
@@ -8136,7 +8139,7 @@
       </c>
       <c r="D67">
         <f ca="1">(Tracker!G67+Tracker!H67)/2</f>
-        <v>117</v>
+        <v>108.5</v>
       </c>
       <c r="E67" s="11">
         <f>IF(OR(Tracker!F67="denied",Tracker!F67="on hold",Tracker!F67="No Response",Tracker!F67="pending"), 0.2, IF(Tracker!F67="interviewing", 0.4, IF(Tracker!F67="rejected", 0.3, IF(Tracker!F67="offer", 1, 0))))</f>
@@ -8159,11 +8162,11 @@
       </c>
       <c r="J67">
         <f t="shared" ca="1" si="5"/>
-        <v>0.30105000000000004</v>
+        <v>8.3024999999999238E-2</v>
       </c>
       <c r="K67">
         <f t="shared" ca="1" si="6"/>
-        <v>0.22300000000000031</v>
+        <v>6.1500000000000554E-2</v>
       </c>
       <c r="M67" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -8171,11 +8174,11 @@
       </c>
       <c r="N67">
         <f t="shared" ca="1" si="8"/>
-        <v>0.30105000000000004</v>
+        <v>8.3024999999999238E-2</v>
       </c>
       <c r="O67">
         <f t="shared" ca="1" si="9"/>
-        <v>0.22300000000000031</v>
+        <v>6.1500000000000554E-2</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.35">
@@ -8193,7 +8196,7 @@
       </c>
       <c r="D68">
         <f ca="1">(Tracker!G68+Tracker!H68)/2</f>
-        <v>77.5</v>
+        <v>90.5</v>
       </c>
       <c r="E68" s="11">
         <f>IF(OR(Tracker!F68="denied",Tracker!F68="on hold",Tracker!F68="No Response",Tracker!F68="pending"), 0.2, IF(Tracker!F68="interviewing", 0.4, IF(Tracker!F68="rejected", 0.3, IF(Tracker!F68="offer", 1, 0))))</f>
@@ -8216,11 +8219,11 @@
       </c>
       <c r="J68">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.71212500000000012</v>
+        <v>-0.37867500000000032</v>
       </c>
       <c r="K68">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.52749999999999986</v>
+        <v>-0.28049999999999975</v>
       </c>
       <c r="M68" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -8228,11 +8231,11 @@
       </c>
       <c r="N68">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.71212500000000012</v>
+        <v>-0.37867500000000032</v>
       </c>
       <c r="O68">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.52749999999999986</v>
+        <v>-0.28049999999999975</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.35">
@@ -8250,7 +8253,7 @@
       </c>
       <c r="D69">
         <f ca="1">(Tracker!G69+Tracker!H69)/2</f>
-        <v>83.5</v>
+        <v>95</v>
       </c>
       <c r="E69" s="11">
         <f>IF(OR(Tracker!F69="denied",Tracker!F69="on hold",Tracker!F69="No Response",Tracker!F69="pending"), 0.2, IF(Tracker!F69="interviewing", 0.4, IF(Tracker!F69="rejected", 0.3, IF(Tracker!F69="offer", 1, 0))))</f>
@@ -8273,11 +8276,11 @@
       </c>
       <c r="J69">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.55822500000000019</v>
+        <v>-0.26325000000000021</v>
       </c>
       <c r="K69">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.41349999999999998</v>
+        <v>-0.19499999999999984</v>
       </c>
       <c r="M69" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -8285,11 +8288,11 @@
       </c>
       <c r="N69">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.55822500000000019</v>
+        <v>-0.26325000000000021</v>
       </c>
       <c r="O69">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.41349999999999998</v>
+        <v>-0.19499999999999984</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.35">
@@ -8307,7 +8310,7 @@
       </c>
       <c r="D70">
         <f ca="1">(Tracker!G70+Tracker!H70)/2</f>
-        <v>102.5</v>
+        <v>115</v>
       </c>
       <c r="E70" s="11">
         <f>IF(OR(Tracker!F70="denied",Tracker!F70="on hold",Tracker!F70="No Response",Tracker!F70="pending"), 0.2, IF(Tracker!F70="interviewing", 0.4, IF(Tracker!F70="rejected", 0.3, IF(Tracker!F70="offer", 1, 0))))</f>
@@ -8330,11 +8333,11 @@
       </c>
       <c r="J70">
         <f t="shared" ca="1" si="5"/>
-        <v>-7.0875000000000465E-2</v>
+        <v>0.24974999999999969</v>
       </c>
       <c r="K70">
         <f t="shared" ca="1" si="6"/>
-        <v>-5.2499999999999991E-2</v>
+        <v>0.18500000000000005</v>
       </c>
       <c r="M70" t="e">
         <f t="shared" ca="1" si="7"/>
@@ -8342,11 +8345,11 @@
       </c>
       <c r="N70">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.0875000000000465E-2</v>
+        <v>0.24974999999999969</v>
       </c>
       <c r="O70">
         <f t="shared" ca="1" si="9"/>
-        <v>-5.2499999999999991E-2</v>
+        <v>0.18500000000000005</v>
       </c>
     </row>
   </sheetData>

--- a/example_app_tracker.xlsx
+++ b/example_app_tracker.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\graha\OneDrive\Documents\GitHub\application_tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F8E351-D052-49EC-986B-E6326B89B5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2637769-1386-4DE7-B0FF-9CB2C521E569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17670" yWindow="3640" windowWidth="20070" windowHeight="15190" xr2:uid="{85E7A6A4-6F22-48D9-815F-FC03736B7AC4}"/>
+    <workbookView xWindow="18010" yWindow="3980" windowWidth="20070" windowHeight="15190" activeTab="2" xr2:uid="{85E7A6A4-6F22-48D9-815F-FC03736B7AC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
-    <sheet name="ROE Calculation" sheetId="4" r:id="rId2"/>
-    <sheet name="Glossary" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
+    <sheet name="ROE Calculation" sheetId="4" r:id="rId3"/>
+    <sheet name="Glossary" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ROE Calculation'!$K$1:$K$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'ROE Calculation'!$K$1:$K$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="231">
   <si>
     <t>Company</t>
   </si>
@@ -206,9 +207,6 @@
   </si>
   <si>
     <t>With interview calculation</t>
-  </si>
-  <si>
-    <t>ROE With Interviews</t>
   </si>
   <si>
     <t>No Response</t>
@@ -402,12 +400,6 @@
     </r>
   </si>
   <si>
-    <t>Insufficient Data</t>
-  </si>
-  <si>
-    <t>ROE (Without Interviews)</t>
-  </si>
-  <si>
     <t>Week</t>
   </si>
   <si>
@@ -865,13 +857,58 @@
   </si>
   <si>
     <t>Ghosted</t>
+  </si>
+  <si>
+    <t>Round</t>
+  </si>
+  <si>
+    <t>Type of Interview</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>Experience</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>Virtual</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>Behavioral</t>
+  </si>
+  <si>
+    <t>Phone Call</t>
+  </si>
+  <si>
+    <t>Case Study</t>
+  </si>
+  <si>
+    <t>In Person</t>
+  </si>
+  <si>
+    <t>Video Recorded</t>
+  </si>
+  <si>
+    <t>Recording</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -901,6 +938,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -923,12 +967,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -942,6 +980,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -980,21 +1024,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1409,15 +1453,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2050F9-523E-4C88-ABEB-54BB5869DFA0}">
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.54296875" customWidth="1"/>
-    <col min="2" max="2" width="28.54296875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="28.54296875" style="5" customWidth="1"/>
     <col min="3" max="3" width="6.26953125" customWidth="1"/>
     <col min="4" max="4" width="5" customWidth="1"/>
     <col min="5" max="5" width="6.7265625" bestFit="1" customWidth="1"/>
@@ -1426,50 +1470,50 @@
     <col min="8" max="8" width="4.7265625" customWidth="1"/>
     <col min="9" max="9" width="12.36328125" style="1" customWidth="1"/>
     <col min="10" max="10" width="5.08984375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="8.26953125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="8.26953125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="10" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:11" s="9" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="9" t="s">
-        <v>66</v>
+      <c r="K1" s="8" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>69</v>
+        <v>76</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
@@ -1477,19 +1521,19 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>45756</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G2">
         <f ca="1">ROUND(RAND()*60+50,0)</f>
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="H2">
         <f ca="1">ROUND(RAND()*40+100,0)</f>
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>11</v>
@@ -1497,17 +1541,17 @@
       <c r="J2" s="2">
         <v>1</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="3">
         <f t="shared" ref="K2:K15" si="0">WEEKNUM(E2)-14</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>70</v>
+        <v>77</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="C3" t="s">
         <v>40</v>
@@ -1515,7 +1559,7 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>45756</v>
       </c>
       <c r="F3" t="s">
@@ -1523,11 +1567,11 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G66" ca="1" si="1">ROUND(RAND()*60+50,0)</f>
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H66" ca="1" si="2">ROUND(RAND()*40+100,0)</f>
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>11</v>
@@ -1535,17 +1579,17 @@
       <c r="J3" s="2">
         <v>3</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>71</v>
+        <v>78</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -1553,7 +1597,7 @@
       <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>45756</v>
       </c>
       <c r="F4" t="s">
@@ -1561,11 +1605,11 @@
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="2"/>
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>11</v>
@@ -1573,17 +1617,17 @@
       <c r="J4" s="2">
         <v>0</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>72</v>
+        <v>79</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -1591,7 +1635,7 @@
       <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>45756</v>
       </c>
       <c r="F5" t="s">
@@ -1599,11 +1643,11 @@
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="2"/>
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>10</v>
@@ -1611,17 +1655,17 @@
       <c r="J5" s="2">
         <v>1</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>73</v>
+        <v>80</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
@@ -1629,7 +1673,7 @@
       <c r="D6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>45756</v>
       </c>
       <c r="F6" t="s">
@@ -1637,11 +1681,11 @@
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="1"/>
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="2"/>
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>11</v>
@@ -1649,17 +1693,17 @@
       <c r="J6" s="2">
         <v>0</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>74</v>
+        <v>81</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -1667,19 +1711,19 @@
       <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>45759</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="2"/>
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>11</v>
@@ -1687,17 +1731,17 @@
       <c r="J7" s="2">
         <v>1</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>75</v>
+        <v>82</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -1705,7 +1749,7 @@
       <c r="D8" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>45764</v>
       </c>
       <c r="F8" t="s">
@@ -1713,11 +1757,11 @@
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="2"/>
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>11</v>
@@ -1725,17 +1769,17 @@
       <c r="J8" s="2">
         <v>0</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>76</v>
+        <v>83</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
@@ -1743,7 +1787,7 @@
       <c r="D9" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>45778</v>
       </c>
       <c r="F9" t="s">
@@ -1751,11 +1795,11 @@
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="2"/>
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>11</v>
@@ -1763,17 +1807,17 @@
       <c r="J9" s="2">
         <v>1</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>77</v>
+        <v>84</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -1781,7 +1825,7 @@
       <c r="D10" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>45778</v>
       </c>
       <c r="F10" t="s">
@@ -1789,11 +1833,11 @@
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="2"/>
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>13</v>
@@ -1801,17 +1845,17 @@
       <c r="J10" s="2">
         <v>1</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>78</v>
+        <v>85</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
@@ -1819,19 +1863,19 @@
       <c r="D11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>45781</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="2"/>
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>11</v>
@@ -1839,17 +1883,17 @@
       <c r="J11" s="2">
         <v>0</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="C12" t="s">
         <v>43</v>
@@ -1857,7 +1901,7 @@
       <c r="D12" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>45784</v>
       </c>
       <c r="F12" t="s">
@@ -1865,11 +1909,11 @@
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="2"/>
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>11</v>
@@ -1877,17 +1921,17 @@
       <c r="J12" s="2">
         <v>0</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="C13" t="s">
         <v>43</v>
@@ -1895,7 +1939,7 @@
       <c r="D13" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>45809</v>
       </c>
       <c r="F13" t="s">
@@ -1903,11 +1947,11 @@
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="2"/>
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>10</v>
@@ -1915,17 +1959,17 @@
       <c r="J13" s="2">
         <v>0</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="C14" t="s">
         <v>43</v>
@@ -1933,7 +1977,7 @@
       <c r="D14" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>45811</v>
       </c>
       <c r="F14" t="s">
@@ -1941,11 +1985,11 @@
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="2"/>
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>10</v>
@@ -1953,17 +1997,17 @@
       <c r="J14" s="2">
         <v>0</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="C15" t="s">
         <v>43</v>
@@ -1971,7 +2015,7 @@
       <c r="D15" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>45812</v>
       </c>
       <c r="F15" t="s">
@@ -1979,11 +2023,11 @@
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="2"/>
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>10</v>
@@ -1991,17 +2035,17 @@
       <c r="J15" s="2">
         <v>0</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="C16" t="s">
         <v>32</v>
@@ -2009,7 +2053,7 @@
       <c r="D16" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>45813</v>
       </c>
       <c r="F16" t="s">
@@ -2017,11 +2061,11 @@
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="2"/>
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>14</v>
@@ -2029,17 +2073,17 @@
       <c r="J16" s="2">
         <v>0</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="3">
         <f t="shared" ref="K16:K41" si="3">WEEKNUM(E16)-14</f>
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
@@ -2047,19 +2091,19 @@
       <c r="D17" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>45814</v>
       </c>
       <c r="F17" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="2"/>
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>14</v>
@@ -2067,17 +2111,17 @@
       <c r="J17" s="2">
         <v>0</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="3">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>101</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="C18" t="s">
         <v>21</v>
@@ -2085,7 +2129,7 @@
       <c r="D18" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>45815</v>
       </c>
       <c r="F18" t="s">
@@ -2093,11 +2137,11 @@
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="2"/>
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>14</v>
@@ -2105,17 +2149,17 @@
       <c r="J18" s="2">
         <v>0</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="3">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>103</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
@@ -2123,19 +2167,19 @@
       <c r="D19" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>45816</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="2"/>
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>14</v>
@@ -2143,17 +2187,17 @@
       <c r="J19" s="2">
         <v>2</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="3">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>105</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="C20" t="s">
         <v>21</v>
@@ -2161,7 +2205,7 @@
       <c r="D20" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <v>45817</v>
       </c>
       <c r="F20" t="s">
@@ -2169,11 +2213,11 @@
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="2"/>
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>14</v>
@@ -2181,17 +2225,17 @@
       <c r="J20" s="2">
         <v>0</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="3">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="C21" t="s">
         <v>32</v>
@@ -2199,7 +2243,7 @@
       <c r="D21" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <v>45818</v>
       </c>
       <c r="F21" t="s">
@@ -2207,29 +2251,29 @@
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="2"/>
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="J21" s="2">
         <v>0</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="3">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>109</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="C22" t="s">
         <v>43</v>
@@ -2237,7 +2281,7 @@
       <c r="D22" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <v>45819</v>
       </c>
       <c r="F22" t="s">
@@ -2245,29 +2289,29 @@
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="2"/>
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="J22" s="2">
         <v>0</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="3">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>111</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="C23" t="s">
         <v>26</v>
@@ -2275,7 +2319,7 @@
       <c r="D23" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="4">
         <v>45820</v>
       </c>
       <c r="F23" t="s">
@@ -2283,29 +2327,29 @@
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="2"/>
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="J23" s="2">
         <v>1</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="3">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>113</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="C24" t="s">
         <v>40</v>
@@ -2313,7 +2357,7 @@
       <c r="D24" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="4">
         <v>45821</v>
       </c>
       <c r="F24" t="s">
@@ -2321,11 +2365,11 @@
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="1"/>
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="2"/>
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>9</v>
@@ -2333,17 +2377,17 @@
       <c r="J24" s="2">
         <v>0</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="3">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>115</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="C25" t="s">
         <v>23</v>
@@ -2351,7 +2395,7 @@
       <c r="D25" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="4">
         <v>45822</v>
       </c>
       <c r="F25" t="s">
@@ -2359,11 +2403,11 @@
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="2"/>
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>9</v>
@@ -2371,17 +2415,17 @@
       <c r="J25" s="2">
         <v>0</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="3">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>117</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="C26" t="s">
         <v>25</v>
@@ -2389,19 +2433,19 @@
       <c r="D26" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="4">
         <v>45768</v>
       </c>
       <c r="F26" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="2"/>
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>9</v>
@@ -2409,17 +2453,17 @@
       <c r="J26" s="2">
         <v>0</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="3">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>119</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="C27" t="s">
         <v>27</v>
@@ -2427,7 +2471,7 @@
       <c r="D27" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="4">
         <v>45769</v>
       </c>
       <c r="F27" t="s">
@@ -2435,11 +2479,11 @@
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="1"/>
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="2"/>
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>9</v>
@@ -2447,17 +2491,17 @@
       <c r="J27" s="2">
         <v>0</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="3">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>121</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="C28" t="s">
         <v>29</v>
@@ -2465,7 +2509,7 @@
       <c r="D28" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="4">
         <v>45770</v>
       </c>
       <c r="F28" t="s">
@@ -2473,7 +2517,7 @@
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="2"/>
@@ -2485,17 +2529,17 @@
       <c r="J28" s="2">
         <v>0</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K28" s="3">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>123</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="C29" t="s">
         <v>29</v>
@@ -2503,7 +2547,7 @@
       <c r="D29" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="4">
         <v>45771</v>
       </c>
       <c r="F29" t="s">
@@ -2511,11 +2555,11 @@
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="2"/>
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>9</v>
@@ -2523,17 +2567,17 @@
       <c r="J29" s="2">
         <v>0</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="3">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>125</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="C30" t="s">
         <v>29</v>
@@ -2541,7 +2585,7 @@
       <c r="D30" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="4">
         <v>45752</v>
       </c>
       <c r="F30" t="s">
@@ -2549,11 +2593,11 @@
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="2"/>
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>9</v>
@@ -2561,17 +2605,17 @@
       <c r="J30" s="2">
         <v>0</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="C31" t="s">
         <v>25</v>
@@ -2579,19 +2623,19 @@
       <c r="D31" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="4">
         <v>45752</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="2"/>
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>9</v>
@@ -2599,17 +2643,17 @@
       <c r="J31" s="2">
         <v>0</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>129</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -2617,7 +2661,7 @@
       <c r="D32" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="4">
         <v>45774</v>
       </c>
       <c r="F32" t="s">
@@ -2625,11 +2669,11 @@
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="1"/>
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="2"/>
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>14</v>
@@ -2637,17 +2681,17 @@
       <c r="J32" s="2">
         <v>0</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K32" s="3">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>131</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -2655,7 +2699,7 @@
       <c r="D33" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="4">
         <v>45775</v>
       </c>
       <c r="F33" t="s">
@@ -2663,11 +2707,11 @@
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="2"/>
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>15</v>
@@ -2675,17 +2719,17 @@
       <c r="J33" s="2">
         <v>0</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K33" s="3">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>133</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -2693,7 +2737,7 @@
       <c r="D34" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="4">
         <v>45776</v>
       </c>
       <c r="F34" t="s">
@@ -2701,11 +2745,11 @@
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="2"/>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>15</v>
@@ -2713,17 +2757,17 @@
       <c r="J34" s="2">
         <v>0</v>
       </c>
-      <c r="K34" s="4">
+      <c r="K34" s="3">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>135</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>136</v>
+        <v>132</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="C35" t="s">
         <v>21</v>
@@ -2731,7 +2775,7 @@
       <c r="D35" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="4">
         <v>45777</v>
       </c>
       <c r="F35" t="s">
@@ -2743,7 +2787,7 @@
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="2"/>
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>15</v>
@@ -2751,17 +2795,17 @@
       <c r="J35" s="2">
         <v>3</v>
       </c>
-      <c r="K35" s="4">
+      <c r="K35" s="3">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>137</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>138</v>
+        <v>134</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="C36" t="s">
         <v>21</v>
@@ -2769,7 +2813,7 @@
       <c r="D36" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="4">
         <v>45778</v>
       </c>
       <c r="F36" t="s">
@@ -2777,11 +2821,11 @@
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="2"/>
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>15</v>
@@ -2789,17 +2833,17 @@
       <c r="J36" s="2">
         <v>0</v>
       </c>
-      <c r="K36" s="4">
+      <c r="K36" s="3">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>139</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>140</v>
+        <v>136</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="C37" t="s">
         <v>26</v>
@@ -2807,19 +2851,19 @@
       <c r="D37" t="s">
         <v>7</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="4">
         <v>45779</v>
       </c>
       <c r="F37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="2"/>
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>17</v>
@@ -2827,17 +2871,17 @@
       <c r="J37" s="2">
         <v>0</v>
       </c>
-      <c r="K37" s="4">
+      <c r="K37" s="3">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>141</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>142</v>
+        <v>138</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="C38" t="s">
         <v>22</v>
@@ -2845,19 +2889,19 @@
       <c r="D38" t="s">
         <v>7</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="4">
         <v>45780</v>
       </c>
       <c r="F38" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="2"/>
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>17</v>
@@ -2865,17 +2909,17 @@
       <c r="J38" s="2">
         <v>0</v>
       </c>
-      <c r="K38" s="4">
+      <c r="K38" s="3">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>143</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="C39" t="s">
         <v>22</v>
@@ -2883,19 +2927,19 @@
       <c r="D39" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="4">
         <v>45781</v>
       </c>
       <c r="F39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="2"/>
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>17</v>
@@ -2903,17 +2947,17 @@
       <c r="J39" s="2">
         <v>1</v>
       </c>
-      <c r="K39" s="4">
+      <c r="K39" s="3">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>145</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>146</v>
+        <v>142</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="C40" t="s">
         <v>22</v>
@@ -2921,19 +2965,19 @@
       <c r="D40" t="s">
         <v>7</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="4">
         <v>45782</v>
       </c>
       <c r="F40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="2"/>
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>17</v>
@@ -2941,17 +2985,17 @@
       <c r="J40" s="2">
         <v>0</v>
       </c>
-      <c r="K40" s="4">
+      <c r="K40" s="3">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>147</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>148</v>
+        <v>144</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="C41" t="s">
         <v>22</v>
@@ -2959,7 +3003,7 @@
       <c r="D41" t="s">
         <v>7</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="4">
         <v>45783</v>
       </c>
       <c r="F41" t="s">
@@ -2967,11 +3011,11 @@
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="2"/>
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>17</v>
@@ -2979,17 +3023,17 @@
       <c r="J41" s="2">
         <v>0</v>
       </c>
-      <c r="K41" s="4">
+      <c r="K41" s="3">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>149</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="C42" t="s">
         <v>21</v>
@@ -2997,7 +3041,7 @@
       <c r="D42" t="s">
         <v>7</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="4">
         <v>45784</v>
       </c>
       <c r="F42" t="s">
@@ -3005,11 +3049,11 @@
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="2"/>
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>17</v>
@@ -3017,17 +3061,17 @@
       <c r="J42" s="2">
         <v>2</v>
       </c>
-      <c r="K42" s="4">
+      <c r="K42" s="3">
         <f t="shared" ref="K42:K75" si="4">WEEKNUM(E42)-14</f>
         <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>151</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>152</v>
+        <v>148</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="C43" t="s">
         <v>21</v>
@@ -3035,7 +3079,7 @@
       <c r="D43" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="4">
         <v>45785</v>
       </c>
       <c r="F43" t="s">
@@ -3043,11 +3087,11 @@
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="1"/>
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="2"/>
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>17</v>
@@ -3055,17 +3099,17 @@
       <c r="J43" s="2">
         <v>0</v>
       </c>
-      <c r="K43" s="4">
+      <c r="K43" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>153</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>154</v>
+        <v>150</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="C44" t="s">
         <v>21</v>
@@ -3073,19 +3117,19 @@
       <c r="D44" t="s">
         <v>7</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="4">
         <v>45786</v>
       </c>
       <c r="F44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="2"/>
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>18</v>
@@ -3093,17 +3137,17 @@
       <c r="J44" s="2">
         <v>0</v>
       </c>
-      <c r="K44" s="4">
+      <c r="K44" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>155</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>156</v>
+        <v>152</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="C45" t="s">
         <v>21</v>
@@ -3111,11 +3155,11 @@
       <c r="D45" t="s">
         <v>30</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="4">
         <v>45787</v>
       </c>
       <c r="F45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="1"/>
@@ -3123,7 +3167,7 @@
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="2"/>
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>18</v>
@@ -3131,17 +3175,17 @@
       <c r="J45" s="2">
         <v>0</v>
       </c>
-      <c r="K45" s="4">
+      <c r="K45" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>157</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="C46" t="s">
         <v>21</v>
@@ -3149,7 +3193,7 @@
       <c r="D46" t="s">
         <v>30</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="4">
         <v>45788</v>
       </c>
       <c r="F46" t="s">
@@ -3157,11 +3201,11 @@
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="2"/>
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>18</v>
@@ -3169,17 +3213,17 @@
       <c r="J46" s="2">
         <v>0</v>
       </c>
-      <c r="K46" s="4">
+      <c r="K46" s="3">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>159</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="C47" t="s">
         <v>23</v>
@@ -3187,19 +3231,19 @@
       <c r="D47" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E47" s="4">
         <v>45789</v>
       </c>
       <c r="F47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="1"/>
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="2"/>
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>18</v>
@@ -3207,17 +3251,17 @@
       <c r="J47" s="2">
         <v>0</v>
       </c>
-      <c r="K47" s="4">
+      <c r="K47" s="3">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>161</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>162</v>
+        <v>158</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="C48" t="s">
         <v>23</v>
@@ -3225,7 +3269,7 @@
       <c r="D48" t="s">
         <v>30</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="4">
         <v>45790</v>
       </c>
       <c r="F48" t="s">
@@ -3233,11 +3277,11 @@
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H48">
         <f t="shared" ca="1" si="2"/>
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>18</v>
@@ -3245,17 +3289,17 @@
       <c r="J48" s="2">
         <v>0</v>
       </c>
-      <c r="K48" s="4">
+      <c r="K48" s="3">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>163</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>164</v>
+        <v>160</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="C49" t="s">
         <v>23</v>
@@ -3263,7 +3307,7 @@
       <c r="D49" t="s">
         <v>30</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E49" s="4">
         <v>45791</v>
       </c>
       <c r="F49" t="s">
@@ -3271,11 +3315,11 @@
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="2"/>
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>18</v>
@@ -3283,17 +3327,17 @@
       <c r="J49" s="2">
         <v>0</v>
       </c>
-      <c r="K49" s="4">
+      <c r="K49" s="3">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>165</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>166</v>
+        <v>162</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>163</v>
       </c>
       <c r="C50" t="s">
         <v>23</v>
@@ -3301,7 +3345,7 @@
       <c r="D50" t="s">
         <v>30</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E50" s="4">
         <v>45792</v>
       </c>
       <c r="F50" t="s">
@@ -3309,11 +3353,11 @@
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="2"/>
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>18</v>
@@ -3321,17 +3365,17 @@
       <c r="J50" s="2">
         <v>0</v>
       </c>
-      <c r="K50" s="4">
+      <c r="K50" s="3">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>167</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>168</v>
+        <v>164</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="C51" t="s">
         <v>32</v>
@@ -3339,19 +3383,19 @@
       <c r="D51" t="s">
         <v>30</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E51" s="4">
         <v>45793</v>
       </c>
       <c r="F51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="2"/>
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>33</v>
@@ -3359,17 +3403,17 @@
       <c r="J51" s="2">
         <v>0</v>
       </c>
-      <c r="K51" s="4">
+      <c r="K51" s="3">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>169</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>170</v>
+        <v>166</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="C52" t="s">
         <v>43</v>
@@ -3377,7 +3421,7 @@
       <c r="D52" t="s">
         <v>30</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E52" s="4">
         <v>45794</v>
       </c>
       <c r="F52" t="s">
@@ -3385,11 +3429,11 @@
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="1"/>
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H52">
         <f t="shared" ca="1" si="2"/>
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>33</v>
@@ -3397,17 +3441,17 @@
       <c r="J52" s="2">
         <v>0</v>
       </c>
-      <c r="K52" s="4">
+      <c r="K52" s="3">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>171</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>172</v>
+        <v>168</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="C53" t="s">
         <v>43</v>
@@ -3415,7 +3459,7 @@
       <c r="D53" t="s">
         <v>30</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E53" s="4">
         <v>45795</v>
       </c>
       <c r="F53" t="s">
@@ -3423,11 +3467,11 @@
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="H53">
         <f t="shared" ca="1" si="2"/>
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>33</v>
@@ -3435,17 +3479,17 @@
       <c r="J53" s="2">
         <v>0</v>
       </c>
-      <c r="K53" s="4">
+      <c r="K53" s="3">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>173</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>174</v>
+        <v>170</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="C54" t="s">
         <v>43</v>
@@ -3453,7 +3497,7 @@
       <c r="D54" t="s">
         <v>25</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E54" s="4">
         <v>45796</v>
       </c>
       <c r="F54" t="s">
@@ -3461,11 +3505,11 @@
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="2"/>
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>33</v>
@@ -3473,17 +3517,17 @@
       <c r="J54" s="2">
         <v>5</v>
       </c>
-      <c r="K54" s="4">
+      <c r="K54" s="3">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>175</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>176</v>
+        <v>172</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>173</v>
       </c>
       <c r="C55" t="s">
         <v>43</v>
@@ -3491,7 +3535,7 @@
       <c r="D55" t="s">
         <v>25</v>
       </c>
-      <c r="E55" s="5">
+      <c r="E55" s="4">
         <v>45797</v>
       </c>
       <c r="F55" t="s">
@@ -3499,11 +3543,11 @@
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="2"/>
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>33</v>
@@ -3511,17 +3555,17 @@
       <c r="J55" s="2">
         <v>0</v>
       </c>
-      <c r="K55" s="4">
+      <c r="K55" s="3">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>177</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>178</v>
+        <v>174</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>175</v>
       </c>
       <c r="C56" t="s">
         <v>27</v>
@@ -3529,7 +3573,7 @@
       <c r="D56" t="s">
         <v>25</v>
       </c>
-      <c r="E56" s="5">
+      <c r="E56" s="4">
         <v>45798</v>
       </c>
       <c r="F56" t="s">
@@ -3537,11 +3581,11 @@
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="H56">
         <f t="shared" ca="1" si="2"/>
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>33</v>
@@ -3549,17 +3593,17 @@
       <c r="J56" s="2">
         <v>0</v>
       </c>
-      <c r="K56" s="4">
+      <c r="K56" s="3">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>179</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>180</v>
+        <v>176</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>177</v>
       </c>
       <c r="C57" t="s">
         <v>40</v>
@@ -3567,7 +3611,7 @@
       <c r="D57" t="s">
         <v>25</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E57" s="4">
         <v>45799</v>
       </c>
       <c r="F57" t="s">
@@ -3575,11 +3619,11 @@
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="H57">
         <f t="shared" ca="1" si="2"/>
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>33</v>
@@ -3587,17 +3631,17 @@
       <c r="J57" s="2">
         <v>0</v>
       </c>
-      <c r="K57" s="4">
+      <c r="K57" s="3">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>181</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>182</v>
+        <v>178</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>179</v>
       </c>
       <c r="C58" t="s">
         <v>40</v>
@@ -3605,7 +3649,7 @@
       <c r="D58" t="s">
         <v>25</v>
       </c>
-      <c r="E58" s="5">
+      <c r="E58" s="4">
         <v>45800</v>
       </c>
       <c r="F58" t="s">
@@ -3613,11 +3657,11 @@
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="H58">
         <f t="shared" ca="1" si="2"/>
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>33</v>
@@ -3625,17 +3669,17 @@
       <c r="J58" s="2">
         <v>0</v>
       </c>
-      <c r="K58" s="4">
+      <c r="K58" s="3">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>183</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>184</v>
+        <v>180</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="C59" t="s">
         <v>40</v>
@@ -3643,7 +3687,7 @@
       <c r="D59" t="s">
         <v>25</v>
       </c>
-      <c r="E59" s="5">
+      <c r="E59" s="4">
         <v>45801</v>
       </c>
       <c r="F59" t="s">
@@ -3651,11 +3695,11 @@
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="H59">
         <f t="shared" ca="1" si="2"/>
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>33</v>
@@ -3663,17 +3707,17 @@
       <c r="J59" s="2">
         <v>0</v>
       </c>
-      <c r="K59" s="4">
+      <c r="K59" s="3">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>185</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>186</v>
+        <v>182</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>183</v>
       </c>
       <c r="C60" t="s">
         <v>40</v>
@@ -3681,7 +3725,7 @@
       <c r="D60" t="s">
         <v>25</v>
       </c>
-      <c r="E60" s="5">
+      <c r="E60" s="4">
         <v>45802</v>
       </c>
       <c r="F60" t="s">
@@ -3689,11 +3733,11 @@
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="H60">
         <f t="shared" ca="1" si="2"/>
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>34</v>
@@ -3701,17 +3745,17 @@
       <c r="J60" s="2">
         <v>0</v>
       </c>
-      <c r="K60" s="4">
+      <c r="K60" s="3">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>187</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>188</v>
+        <v>184</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>185</v>
       </c>
       <c r="C61" t="s">
         <v>24</v>
@@ -3719,7 +3763,7 @@
       <c r="D61" t="s">
         <v>25</v>
       </c>
-      <c r="E61" s="5">
+      <c r="E61" s="4">
         <v>45803</v>
       </c>
       <c r="F61" t="s">
@@ -3727,11 +3771,11 @@
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="H61">
         <f t="shared" ca="1" si="2"/>
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>34</v>
@@ -3739,17 +3783,17 @@
       <c r="J61" s="2">
         <v>0</v>
       </c>
-      <c r="K61" s="4">
+      <c r="K61" s="3">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>189</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>190</v>
+        <v>186</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>187</v>
       </c>
       <c r="C62" t="s">
         <v>24</v>
@@ -3757,7 +3801,7 @@
       <c r="D62" t="s">
         <v>25</v>
       </c>
-      <c r="E62" s="5">
+      <c r="E62" s="4">
         <v>45804</v>
       </c>
       <c r="F62" t="s">
@@ -3765,11 +3809,11 @@
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="1"/>
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="H62">
         <f t="shared" ca="1" si="2"/>
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>34</v>
@@ -3777,17 +3821,17 @@
       <c r="J62" s="2">
         <v>0</v>
       </c>
-      <c r="K62" s="4">
+      <c r="K62" s="3">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>191</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>192</v>
+        <v>188</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>189</v>
       </c>
       <c r="C63" t="s">
         <v>24</v>
@@ -3795,7 +3839,7 @@
       <c r="D63" t="s">
         <v>25</v>
       </c>
-      <c r="E63" s="5">
+      <c r="E63" s="4">
         <v>45805</v>
       </c>
       <c r="F63" t="s">
@@ -3803,11 +3847,11 @@
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="H63">
         <f t="shared" ca="1" si="2"/>
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>34</v>
@@ -3815,17 +3859,17 @@
       <c r="J63" s="2">
         <v>0</v>
       </c>
-      <c r="K63" s="4">
+      <c r="K63" s="3">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>193</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>194</v>
+        <v>190</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>191</v>
       </c>
       <c r="C64" t="s">
         <v>27</v>
@@ -3833,7 +3877,7 @@
       <c r="D64" t="s">
         <v>25</v>
       </c>
-      <c r="E64" s="5">
+      <c r="E64" s="4">
         <v>45806</v>
       </c>
       <c r="F64" t="s">
@@ -3841,11 +3885,11 @@
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="H64">
         <f t="shared" ca="1" si="2"/>
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>34</v>
@@ -3853,17 +3897,17 @@
       <c r="J64" s="2">
         <v>0</v>
       </c>
-      <c r="K64" s="4">
+      <c r="K64" s="3">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>195</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>193</v>
       </c>
       <c r="C65" t="s">
         <v>26</v>
@@ -3871,7 +3915,7 @@
       <c r="D65" t="s">
         <v>5</v>
       </c>
-      <c r="E65" s="5">
+      <c r="E65" s="4">
         <v>45807</v>
       </c>
       <c r="F65" t="s">
@@ -3879,11 +3923,11 @@
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="H65">
         <f t="shared" ca="1" si="2"/>
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>34</v>
@@ -3891,17 +3935,17 @@
       <c r="J65" s="2">
         <v>0</v>
       </c>
-      <c r="K65" s="4">
+      <c r="K65" s="3">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>197</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>198</v>
+        <v>194</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>195</v>
       </c>
       <c r="C66" t="s">
         <v>26</v>
@@ -3909,19 +3953,19 @@
       <c r="D66" t="s">
         <v>5</v>
       </c>
-      <c r="E66" s="5">
+      <c r="E66" s="4">
         <v>45808</v>
       </c>
       <c r="F66" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H66">
         <f t="shared" ca="1" si="2"/>
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>11</v>
@@ -3929,17 +3973,17 @@
       <c r="J66" s="2">
         <v>6</v>
       </c>
-      <c r="K66" s="4">
+      <c r="K66" s="3">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>199</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>200</v>
+        <v>196</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>197</v>
       </c>
       <c r="C67" t="s">
         <v>27</v>
@@ -3947,19 +3991,19 @@
       <c r="D67" t="s">
         <v>5</v>
       </c>
-      <c r="E67" s="5">
+      <c r="E67" s="4">
         <v>45809</v>
       </c>
       <c r="F67" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G75" ca="1" si="5">ROUND(RAND()*60+50,0)</f>
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="H67">
         <f t="shared" ref="H67:H75" ca="1" si="6">ROUND(RAND()*40+100,0)</f>
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>11</v>
@@ -3967,17 +4011,17 @@
       <c r="J67" s="2">
         <v>0</v>
       </c>
-      <c r="K67" s="4">
+      <c r="K67" s="3">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>201</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="C68" t="s">
         <v>26</v>
@@ -3985,7 +4029,7 @@
       <c r="D68" t="s">
         <v>5</v>
       </c>
-      <c r="E68" s="5">
+      <c r="E68" s="4">
         <v>45810</v>
       </c>
       <c r="F68" t="s">
@@ -3993,11 +4037,11 @@
       </c>
       <c r="G68">
         <f t="shared" ca="1" si="5"/>
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="H68">
         <f t="shared" ca="1" si="6"/>
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>11</v>
@@ -4005,17 +4049,17 @@
       <c r="J68" s="2">
         <v>0</v>
       </c>
-      <c r="K68" s="4">
+      <c r="K68" s="3">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>203</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>201</v>
       </c>
       <c r="C69" t="s">
         <v>26</v>
@@ -4023,7 +4067,7 @@
       <c r="D69" t="s">
         <v>5</v>
       </c>
-      <c r="E69" s="5">
+      <c r="E69" s="4">
         <v>45811</v>
       </c>
       <c r="F69" t="s">
@@ -4031,11 +4075,11 @@
       </c>
       <c r="G69">
         <f t="shared" ca="1" si="5"/>
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="H69">
         <f t="shared" ca="1" si="6"/>
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>11</v>
@@ -4043,17 +4087,17 @@
       <c r="J69" s="2">
         <v>0</v>
       </c>
-      <c r="K69" s="4">
+      <c r="K69" s="3">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>205</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>203</v>
       </c>
       <c r="C70" t="s">
         <v>26</v>
@@ -4061,19 +4105,19 @@
       <c r="D70" t="s">
         <v>5</v>
       </c>
-      <c r="E70" s="5">
+      <c r="E70" s="4">
         <v>45812</v>
       </c>
       <c r="F70" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="H70">
         <f t="shared" ca="1" si="6"/>
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>11</v>
@@ -4081,17 +4125,17 @@
       <c r="J70" s="2">
         <v>0</v>
       </c>
-      <c r="K70" s="4">
+      <c r="K70" s="3">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>207</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>208</v>
+        <v>204</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>205</v>
       </c>
       <c r="C71" t="s">
         <v>26</v>
@@ -4099,7 +4143,7 @@
       <c r="D71" t="s">
         <v>5</v>
       </c>
-      <c r="E71" s="5">
+      <c r="E71" s="4">
         <v>45813</v>
       </c>
       <c r="F71" t="s">
@@ -4107,11 +4151,11 @@
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="H71">
         <f t="shared" ca="1" si="6"/>
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>9</v>
@@ -4119,17 +4163,17 @@
       <c r="J71" s="2">
         <v>0</v>
       </c>
-      <c r="K71" s="4">
+      <c r="K71" s="3">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>213</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>206</v>
       </c>
       <c r="C72" t="s">
         <v>26</v>
@@ -4137,7 +4181,7 @@
       <c r="D72" t="s">
         <v>5</v>
       </c>
-      <c r="E72" s="5">
+      <c r="E72" s="4">
         <v>45814</v>
       </c>
       <c r="F72" t="s">
@@ -4145,11 +4189,11 @@
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="5"/>
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="H72">
         <f t="shared" ca="1" si="6"/>
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>9</v>
@@ -4157,17 +4201,17 @@
       <c r="J72" s="2">
         <v>0</v>
       </c>
-      <c r="K72" s="4">
+      <c r="K72" s="3">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>214</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="C73" t="s">
         <v>29</v>
@@ -4175,7 +4219,7 @@
       <c r="D73" t="s">
         <v>7</v>
       </c>
-      <c r="E73" s="5">
+      <c r="E73" s="4">
         <v>45815</v>
       </c>
       <c r="F73" t="s">
@@ -4183,11 +4227,11 @@
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="5"/>
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="H73">
         <f t="shared" ca="1" si="6"/>
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>9</v>
@@ -4195,17 +4239,17 @@
       <c r="J73" s="2">
         <v>0</v>
       </c>
-      <c r="K73" s="4">
+      <c r="K73" s="3">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>215</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="C74" t="s">
         <v>29</v>
@@ -4213,7 +4257,7 @@
       <c r="D74" t="s">
         <v>7</v>
       </c>
-      <c r="E74" s="5">
+      <c r="E74" s="4">
         <v>45816</v>
       </c>
       <c r="F74" t="s">
@@ -4221,11 +4265,11 @@
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="5"/>
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="H74">
         <f t="shared" ca="1" si="6"/>
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>9</v>
@@ -4233,17 +4277,17 @@
       <c r="J74" s="2">
         <v>0</v>
       </c>
-      <c r="K74" s="4">
+      <c r="K74" s="3">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>216</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>209</v>
       </c>
       <c r="C75" t="s">
         <v>29</v>
@@ -4251,7 +4295,7 @@
       <c r="D75" t="s">
         <v>7</v>
       </c>
-      <c r="E75" s="5">
+      <c r="E75" s="4">
         <v>45817</v>
       </c>
       <c r="F75" t="s">
@@ -4259,11 +4303,11 @@
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="5"/>
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="H75">
         <f t="shared" ca="1" si="6"/>
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>9</v>
@@ -4271,7 +4315,7 @@
       <c r="J75" s="2">
         <v>3</v>
       </c>
-      <c r="K75" s="4">
+      <c r="K75" s="3">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
@@ -4352,30 +4396,509 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E6A88D-3241-41C0-B7E9-472CCE1959EA}">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.7265625" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="18.6328125" customWidth="1"/>
+    <col min="6" max="6" width="10.90625" customWidth="1"/>
+    <col min="7" max="7" width="19.453125" customWidth="1"/>
+    <col min="8" max="8" width="19.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="13" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="4">
+        <v>45757</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="4">
+        <v>45758</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F3" t="s">
+        <v>223</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4">
+        <v>45759</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4">
+        <v>45778</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F5" t="s">
+        <v>226</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4">
+        <v>45779</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>225</v>
+      </c>
+      <c r="F6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4">
+        <v>45780</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4">
+        <v>45781</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>227</v>
+      </c>
+      <c r="F8" t="s">
+        <v>228</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4">
+        <v>45782</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>225</v>
+      </c>
+      <c r="F9" t="s">
+        <v>230</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4">
+        <v>45797</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>229</v>
+      </c>
+      <c r="F10" t="s">
+        <v>230</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4">
+        <v>45798</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>222</v>
+      </c>
+      <c r="F11" t="s">
+        <v>223</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="4">
+        <v>45799</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>225</v>
+      </c>
+      <c r="F12" t="s">
+        <v>228</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="4">
+        <v>45810</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>227</v>
+      </c>
+      <c r="F13" t="s">
+        <v>223</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>213</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="4">
+        <v>45768</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>225</v>
+      </c>
+      <c r="F14" t="s">
+        <v>223</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>213</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="4">
+        <v>45769</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>227</v>
+      </c>
+      <c r="F15" t="s">
+        <v>223</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="6">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{40037E99-9C75-4AB8-8874-A537D09EDF6D}">
+      <formula1>1</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{E2FE1450-7F37-415B-A025-C702A8FAE346}">
+      <formula1>"Pending,Complete"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{91412186-3624-426E-B1E7-6FCF647E35D8}">
+      <formula1>"Product Manager,Project Manager,Analyst,Consultant,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H1048576" xr:uid="{E67C72EF-A191-4AF5-B940-D7D0D983A5AB}">
+      <formula1>1</formula1>
+      <formula2>5</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{9F22AACE-64CF-4E8A-99B1-C4AD095F15D6}">
+      <formula1>"Introduction,Behavioral,Case Study,Video Recorded"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{AA5A44B2-730F-4B47-9CD9-3A929F274F13}">
+      <formula1>"Phone Call,Virtual,In Person,Recording"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70590CAF-D2CD-443E-AE13-8F53684D3C03}">
-  <dimension ref="A1:O70"/>
+  <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="3" width="21.26953125" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="11.08984375" style="11" customWidth="1"/>
-    <col min="6" max="7" width="13.54296875" style="12" customWidth="1"/>
-    <col min="8" max="8" width="13.54296875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="13.08984375" style="12" customWidth="1"/>
-    <col min="10" max="10" width="13.08984375" customWidth="1"/>
-    <col min="11" max="11" width="12.08984375" customWidth="1"/>
-    <col min="12" max="12" width="2.08984375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" customWidth="1"/>
-    <col min="14" max="14" width="12.26953125" customWidth="1"/>
+    <col min="5" max="5" width="11.08984375" style="10" customWidth="1"/>
+    <col min="6" max="7" width="13.54296875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="13.54296875" style="10" customWidth="1"/>
+    <col min="9" max="9" width="13.08984375" style="11" customWidth="1"/>
+    <col min="10" max="10" width="20.26953125" customWidth="1"/>
+    <col min="11" max="11" width="19.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -4383,43 +4906,34 @@
         <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="K1" s="11" t="s">
+      <c r="J1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="str">
         <f>Tracker!A2</f>
         <v>Company 1</v>
@@ -4434,49 +4948,37 @@
       </c>
       <c r="D2">
         <f ca="1">(Tracker!G2+Tracker!H2)/2</f>
-        <v>113</v>
-      </c>
-      <c r="E2" s="11">
-        <f>IF(OR(Tracker!F2="denied",Tracker!F2="on hold",Tracker!F2="No Response",Tracker!F2="pending"), 0.2, IF(Tracker!F2="interviewing", 0.4, IF(Tracker!F2="rejected", 0.3, IF(Tracker!F2="offer", 1, 0))))</f>
+        <v>89</v>
+      </c>
+      <c r="E2" s="10">
+        <f>IF(OR(Tracker!F2="denied",Tracker!F2="on hold",Tracker!F2="No Response",Tracker!F2="pending",Tracker!F26="ghosted"), 0.2, IF(Tracker!F2="interviewing", 0.4, IF(Tracker!F2="rejected", 0.3, IF(Tracker!F2="offer", 1, 0))))</f>
         <v>0.2</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="11">
         <f>IF(OR(Tracker!I2="linkedin", Tracker!I2="Indeed", Tracker!I2="linkedin dm"), 0.9, IF(Tracker!I2="Company Site", 1.1, 1))</f>
         <v>0.9</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="11">
         <f>IF(OR(Tracker!D2="analyst", Tracker!D2="project manager", Tracker!D2="consultant"), 1.1, IF(Tracker!D2="Product Manager", 0.9, 1))</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="10">
         <v>0.95</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="11">
         <f>10-(0.5*Tracker!J2)</f>
         <v>9.5</v>
       </c>
       <c r="J2">
         <f t="shared" ref="J2:J15" ca="1" si="0">IF(D2=0,0,((0.3*D2*G2*H2)/10)-2.7)</f>
-        <v>0.84254999999999969</v>
+        <v>9.0149999999999508E-2</v>
       </c>
       <c r="K2">
         <f t="shared" ref="K2:K15" ca="1" si="1">IF(D2=0, 0,((D2*E2*G2*H2)/(F2*I2)-2))</f>
-        <v>0.76222222222222191</v>
-      </c>
-      <c r="M2" t="e">
-        <f ca="1">IF(J2=0, 0, NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N2">
-        <f t="shared" ref="N2:N15" ca="1" si="2">IF(J2=0, NA(), J2)</f>
-        <v>0.84254999999999969</v>
-      </c>
-      <c r="O2">
-        <f t="shared" ref="O2:O15" ca="1" si="3">IF(K2=0, NA(), K2)</f>
-        <v>0.76222222222222191</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0.17555555555555546</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="str">
         <f>Tracker!A3</f>
         <v>Company 2</v>
@@ -4491,49 +4993,37 @@
       </c>
       <c r="D3">
         <f ca="1">(Tracker!G3+Tracker!H3)/2</f>
-        <v>101.5</v>
-      </c>
-      <c r="E3" s="11">
-        <f>IF(OR(Tracker!F3="denied",Tracker!F3="on hold",Tracker!F3="No Response",Tracker!F3="pending"), 0.2, IF(Tracker!F3="interviewing", 0.4, IF(Tracker!F3="rejected", 0.3, IF(Tracker!F3="offer", 1, 0))))</f>
+        <v>109.5</v>
+      </c>
+      <c r="E3" s="10">
+        <f>IF(OR(Tracker!F3="denied",Tracker!F3="on hold",Tracker!F3="No Response",Tracker!F3="pending",Tracker!F27="ghosted"), 0.2, IF(Tracker!F3="interviewing", 0.4, IF(Tracker!F3="rejected", 0.3, IF(Tracker!F3="offer", 1, 0))))</f>
         <v>0.3</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="11">
         <f>IF(OR(Tracker!I3="linkedin", Tracker!I3="Indeed", Tracker!I3="linkedin dm"), 0.9, IF(Tracker!I3="Company Site", 1.1, 1))</f>
         <v>0.9</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="11">
         <f>IF(OR(Tracker!D3="analyst", Tracker!D3="project manager", Tracker!D3="consultant"), 1.1, IF(Tracker!D3="Product Manager", 0.9, 1))</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="10">
         <v>0.95</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="11">
         <f>10-(0.5*Tracker!J3)</f>
         <v>8.5</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48202500000000015</v>
+        <v>0.73282500000000006</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1595098039215683</v>
-      </c>
-      <c r="M3" t="e">
-        <f t="shared" ref="M3:M15" ca="1" si="4">IF(J3=0, 0, NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N3">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.48202500000000015</v>
-      </c>
-      <c r="O3">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.1595098039215683</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+        <v>2.4873529411764705</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
         <f>Tracker!A4</f>
         <v>Company 3</v>
@@ -4548,49 +5038,37 @@
       </c>
       <c r="D4">
         <f ca="1">(Tracker!G4+Tracker!H4)/2</f>
-        <v>111.5</v>
-      </c>
-      <c r="E4" s="11">
-        <f>IF(OR(Tracker!F4="denied",Tracker!F4="on hold",Tracker!F4="No Response",Tracker!F4="pending"), 0.2, IF(Tracker!F4="interviewing", 0.4, IF(Tracker!F4="rejected", 0.3, IF(Tracker!F4="offer", 1, 0))))</f>
+        <v>111</v>
+      </c>
+      <c r="E4" s="10">
+        <f>IF(OR(Tracker!F4="denied",Tracker!F4="on hold",Tracker!F4="No Response",Tracker!F4="pending",Tracker!F28="ghosted"), 0.2, IF(Tracker!F4="interviewing", 0.4, IF(Tracker!F4="rejected", 0.3, IF(Tracker!F4="offer", 1, 0))))</f>
         <v>0.2</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="11">
         <f>IF(OR(Tracker!I4="linkedin", Tracker!I4="Indeed", Tracker!I4="linkedin dm"), 0.9, IF(Tracker!I4="Company Site", 1.1, 1))</f>
         <v>0.9</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="11">
         <f>IF(OR(Tracker!D4="analyst", Tracker!D4="project manager", Tracker!D4="consultant"), 1.1, IF(Tracker!D4="Product Manager", 0.9, 1))</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="10">
         <v>0.95</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="11">
         <f>10-(0.5*Tracker!J4)</f>
         <v>10</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79552499999999959</v>
+        <v>0.77985000000000015</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58927777777777779</v>
-      </c>
-      <c r="M4" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N4">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.79552499999999959</v>
-      </c>
-      <c r="O4">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.58927777777777779</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0.57766666666666744</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f>Tracker!A5</f>
         <v>Company 4</v>
@@ -4605,49 +5083,37 @@
       </c>
       <c r="D5">
         <f ca="1">(Tracker!G5+Tracker!H5)/2</f>
-        <v>79</v>
-      </c>
-      <c r="E5" s="11">
-        <f>IF(OR(Tracker!F5="denied",Tracker!F5="on hold",Tracker!F5="No Response",Tracker!F5="pending"), 0.2, IF(Tracker!F5="interviewing", 0.4, IF(Tracker!F5="rejected", 0.3, IF(Tracker!F5="offer", 1, 0))))</f>
+        <v>91</v>
+      </c>
+      <c r="E5" s="10">
+        <f>IF(OR(Tracker!F5="denied",Tracker!F5="on hold",Tracker!F5="No Response",Tracker!F5="pending",Tracker!F29="ghosted"), 0.2, IF(Tracker!F5="interviewing", 0.4, IF(Tracker!F5="rejected", 0.3, IF(Tracker!F5="offer", 1, 0))))</f>
         <v>0.3</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <f>IF(OR(Tracker!I5="linkedin", Tracker!I5="Indeed", Tracker!I5="linkedin dm"), 0.9, IF(Tracker!I5="Company Site", 1.1, 1))</f>
         <v>1</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <f>IF(OR(Tracker!D5="analyst", Tracker!D5="project manager", Tracker!D5="consultant"), 1.1, IF(Tracker!D5="Product Manager", 0.9, 1))</f>
         <v>1</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="10">
         <v>0.95</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="11">
         <f>10-(0.5*Tracker!J5)</f>
         <v>9.5</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.44850000000000056</v>
+        <v>-0.10650000000000048</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36999999999999966</v>
-      </c>
-      <c r="M5" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N5">
-        <f t="shared" ca="1" si="2"/>
-        <v>-0.44850000000000056</v>
-      </c>
-      <c r="O5">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.36999999999999966</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f>Tracker!A6</f>
         <v>Company 5</v>
@@ -4662,49 +5128,37 @@
       </c>
       <c r="D6">
         <f ca="1">(Tracker!G6+Tracker!H6)/2</f>
-        <v>121.5</v>
-      </c>
-      <c r="E6" s="11">
-        <f>IF(OR(Tracker!F6="denied",Tracker!F6="on hold",Tracker!F6="No Response",Tracker!F6="pending"), 0.2, IF(Tracker!F6="interviewing", 0.4, IF(Tracker!F6="rejected", 0.3, IF(Tracker!F6="offer", 1, 0))))</f>
+        <v>118.5</v>
+      </c>
+      <c r="E6" s="10">
+        <f>IF(OR(Tracker!F6="denied",Tracker!F6="on hold",Tracker!F6="No Response",Tracker!F6="pending",Tracker!F30="ghosted"), 0.2, IF(Tracker!F6="interviewing", 0.4, IF(Tracker!F6="rejected", 0.3, IF(Tracker!F6="offer", 1, 0))))</f>
         <v>0.2</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <f>IF(OR(Tracker!I6="linkedin", Tracker!I6="Indeed", Tracker!I6="linkedin dm"), 0.9, IF(Tracker!I6="Company Site", 1.1, 1))</f>
         <v>0.9</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="11">
         <f>IF(OR(Tracker!D6="analyst", Tracker!D6="project manager", Tracker!D6="consultant"), 1.1, IF(Tracker!D6="Product Manager", 0.9, 1))</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <v>0.95</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="11">
         <f>10-(0.5*Tracker!J6)</f>
         <v>10</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1090249999999995</v>
+        <v>1.0149749999999997</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82150000000000034</v>
-      </c>
-      <c r="M6" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N6">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.1090249999999995</v>
-      </c>
-      <c r="O6">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.82150000000000034</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0.7518333333333338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <f>Tracker!A7</f>
         <v>Company 6</v>
@@ -4719,49 +5173,37 @@
       </c>
       <c r="D7">
         <f ca="1">(Tracker!G7+Tracker!H7)/2</f>
-        <v>110</v>
-      </c>
-      <c r="E7" s="11">
-        <f>IF(OR(Tracker!F7="denied",Tracker!F7="on hold",Tracker!F7="No Response",Tracker!F7="pending"), 0.2, IF(Tracker!F7="interviewing", 0.4, IF(Tracker!F7="rejected", 0.3, IF(Tracker!F7="offer", 1, 0))))</f>
+        <v>89</v>
+      </c>
+      <c r="E7" s="10">
+        <f>IF(OR(Tracker!F7="denied",Tracker!F7="on hold",Tracker!F7="No Response",Tracker!F7="pending",Tracker!F31="ghosted"), 0.2, IF(Tracker!F7="interviewing", 0.4, IF(Tracker!F7="rejected", 0.3, IF(Tracker!F7="offer", 1, 0))))</f>
         <v>0.2</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <f>IF(OR(Tracker!I7="linkedin", Tracker!I7="Indeed", Tracker!I7="linkedin dm"), 0.9, IF(Tracker!I7="Company Site", 1.1, 1))</f>
         <v>0.9</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="11">
         <f>IF(OR(Tracker!D7="analyst", Tracker!D7="project manager", Tracker!D7="consultant"), 1.1, IF(Tracker!D7="Product Manager", 0.9, 1))</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="10">
         <v>0.95</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="11">
         <f>10-(0.5*Tracker!J7)</f>
         <v>9.5</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74849999999999994</v>
+        <v>9.0149999999999508E-2</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68888888888888911</v>
-      </c>
-      <c r="M7" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.74849999999999994</v>
-      </c>
-      <c r="O7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.68888888888888911</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0.17555555555555546</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <f>Tracker!A8</f>
         <v>Company 7</v>
@@ -4776,49 +5218,37 @@
       </c>
       <c r="D8">
         <f ca="1">(Tracker!G8+Tracker!H8)/2</f>
-        <v>109.5</v>
-      </c>
-      <c r="E8" s="11">
-        <f>IF(OR(Tracker!F8="denied",Tracker!F8="on hold",Tracker!F8="No Response",Tracker!F8="pending"), 0.2, IF(Tracker!F8="interviewing", 0.4, IF(Tracker!F8="rejected", 0.3, IF(Tracker!F8="offer", 1, 0))))</f>
+        <v>95</v>
+      </c>
+      <c r="E8" s="10">
+        <f>IF(OR(Tracker!F8="denied",Tracker!F8="on hold",Tracker!F8="No Response",Tracker!F8="pending",Tracker!F32="ghosted"), 0.2, IF(Tracker!F8="interviewing", 0.4, IF(Tracker!F8="rejected", 0.3, IF(Tracker!F8="offer", 1, 0))))</f>
         <v>0.2</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <f>IF(OR(Tracker!I8="linkedin", Tracker!I8="Indeed", Tracker!I8="linkedin dm"), 0.9, IF(Tracker!I8="Company Site", 1.1, 1))</f>
         <v>0.9</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="11">
         <f>IF(OR(Tracker!D8="analyst", Tracker!D8="project manager", Tracker!D8="consultant"), 1.1, IF(Tracker!D8="Product Manager", 0.9, 1))</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="10">
         <v>0.95</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="11">
         <f>10-(0.5*Tracker!J8)</f>
         <v>10</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73282500000000006</v>
+        <v>0.27824999999999989</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54283333333333328</v>
-      </c>
-      <c r="M8" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N8">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.73282500000000006</v>
-      </c>
-      <c r="O8">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.54283333333333328</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0.20611111111111136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <f>Tracker!A9</f>
         <v>Company 8</v>
@@ -4833,49 +5263,37 @@
       </c>
       <c r="D9">
         <f ca="1">(Tracker!G9+Tracker!H9)/2</f>
-        <v>103.5</v>
-      </c>
-      <c r="E9" s="11">
-        <f>IF(OR(Tracker!F9="denied",Tracker!F9="on hold",Tracker!F9="No Response",Tracker!F9="pending"), 0.2, IF(Tracker!F9="interviewing", 0.4, IF(Tracker!F9="rejected", 0.3, IF(Tracker!F9="offer", 1, 0))))</f>
+        <v>107</v>
+      </c>
+      <c r="E9" s="10">
+        <f>IF(OR(Tracker!F9="denied",Tracker!F9="on hold",Tracker!F9="No Response",Tracker!F9="pending",Tracker!F33="ghosted"), 0.2, IF(Tracker!F9="interviewing", 0.4, IF(Tracker!F9="rejected", 0.3, IF(Tracker!F9="offer", 1, 0))))</f>
         <v>0.2</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <f>IF(OR(Tracker!I9="linkedin", Tracker!I9="Indeed", Tracker!I9="linkedin dm"), 0.9, IF(Tracker!I9="Company Site", 1.1, 1))</f>
         <v>0.9</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="11">
         <f>IF(OR(Tracker!D9="analyst", Tracker!D9="project manager", Tracker!D9="consultant"), 1.1, IF(Tracker!D9="Product Manager", 0.9, 1))</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="10">
         <v>0.95</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="11">
         <f>10-(0.5*Tracker!J9)</f>
         <v>9.5</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54472499999999968</v>
+        <v>0.65444999999999975</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53000000000000069</v>
-      </c>
-      <c r="M9" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N9">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.54472499999999968</v>
-      </c>
-      <c r="O9">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.53000000000000069</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0.61555555555555586</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <f>Tracker!A10</f>
         <v>Company 9</v>
@@ -4890,49 +5308,37 @@
       </c>
       <c r="D10">
         <f ca="1">(Tracker!G10+Tracker!H10)/2</f>
-        <v>92</v>
-      </c>
-      <c r="E10" s="11">
-        <f>IF(OR(Tracker!F10="denied",Tracker!F10="on hold",Tracker!F10="No Response",Tracker!F10="pending"), 0.2, IF(Tracker!F10="interviewing", 0.4, IF(Tracker!F10="rejected", 0.3, IF(Tracker!F10="offer", 1, 0))))</f>
+        <v>88.5</v>
+      </c>
+      <c r="E10" s="10">
+        <f>IF(OR(Tracker!F10="denied",Tracker!F10="on hold",Tracker!F10="No Response",Tracker!F10="pending",Tracker!F34="ghosted"), 0.2, IF(Tracker!F10="interviewing", 0.4, IF(Tracker!F10="rejected", 0.3, IF(Tracker!F10="offer", 1, 0))))</f>
         <v>0.3</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <f>IF(OR(Tracker!I10="linkedin", Tracker!I10="Indeed", Tracker!I10="linkedin dm"), 0.9, IF(Tracker!I10="Company Site", 1.1, 1))</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="11">
         <f>IF(OR(Tracker!D10="analyst", Tracker!D10="project manager", Tracker!D10="consultant"), 1.1, IF(Tracker!D10="Product Manager", 0.9, 1))</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="10">
         <v>0.95</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="11">
         <f>10-(0.5*Tracker!J10)</f>
         <v>9.5</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1841999999999997</v>
+        <v>7.4474999999999625E-2</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75999999999999979</v>
-      </c>
-      <c r="M10" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N10">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.1841999999999997</v>
-      </c>
-      <c r="O10">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.75999999999999979</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0.6549999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <f>Tracker!A11</f>
         <v>Company 10</v>
@@ -4947,49 +5353,37 @@
       </c>
       <c r="D11">
         <f ca="1">(Tracker!G11+Tracker!H11)/2</f>
-        <v>85</v>
-      </c>
-      <c r="E11" s="11">
-        <f>IF(OR(Tracker!F11="denied",Tracker!F11="on hold",Tracker!F11="No Response",Tracker!F11="pending"), 0.2, IF(Tracker!F11="interviewing", 0.4, IF(Tracker!F11="rejected", 0.3, IF(Tracker!F11="offer", 1, 0))))</f>
+        <v>105.5</v>
+      </c>
+      <c r="E11" s="10">
+        <f>IF(OR(Tracker!F11="denied",Tracker!F11="on hold",Tracker!F11="No Response",Tracker!F11="pending",Tracker!F35="ghosted"), 0.2, IF(Tracker!F11="interviewing", 0.4, IF(Tracker!F11="rejected", 0.3, IF(Tracker!F11="offer", 1, 0))))</f>
         <v>0.2</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <f>IF(OR(Tracker!I11="linkedin", Tracker!I11="Indeed", Tracker!I11="linkedin dm"), 0.9, IF(Tracker!I11="Company Site", 1.1, 1))</f>
         <v>0.9</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="11">
         <f>IF(OR(Tracker!D11="analyst", Tracker!D11="project manager", Tracker!D11="consultant"), 1.1, IF(Tracker!D11="Product Manager", 0.9, 1))</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="10">
         <v>0.95</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="11">
         <f>10-(0.5*Tracker!J11)</f>
         <v>10</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.5250000000000004E-2</v>
+        <v>0.60742499999999966</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.6111111111110974E-2</v>
-      </c>
-      <c r="M11" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N11">
-        <f t="shared" ca="1" si="2"/>
-        <v>-3.5250000000000004E-2</v>
-      </c>
-      <c r="O11">
-        <f t="shared" ca="1" si="3"/>
-        <v>-2.6111111111110974E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0.4499444444444447</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
         <f>Tracker!A12</f>
         <v>Company 11</v>
@@ -5004,49 +5398,37 @@
       </c>
       <c r="D12">
         <f ca="1">(Tracker!G12+Tracker!H12)/2</f>
-        <v>87</v>
-      </c>
-      <c r="E12" s="11">
-        <f>IF(OR(Tracker!F12="denied",Tracker!F12="on hold",Tracker!F12="No Response",Tracker!F12="pending"), 0.2, IF(Tracker!F12="interviewing", 0.4, IF(Tracker!F12="rejected", 0.3, IF(Tracker!F12="offer", 1, 0))))</f>
+        <v>104</v>
+      </c>
+      <c r="E12" s="10">
+        <f>IF(OR(Tracker!F12="denied",Tracker!F12="on hold",Tracker!F12="No Response",Tracker!F12="pending",Tracker!F36="ghosted"), 0.2, IF(Tracker!F12="interviewing", 0.4, IF(Tracker!F12="rejected", 0.3, IF(Tracker!F12="offer", 1, 0))))</f>
         <v>0.3</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <f>IF(OR(Tracker!I12="linkedin", Tracker!I12="Indeed", Tracker!I12="linkedin dm"), 0.9, IF(Tracker!I12="Company Site", 1.1, 1))</f>
         <v>0.9</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="11">
         <f>IF(OR(Tracker!D12="analyst", Tracker!D12="project manager", Tracker!D12="consultant"), 1.1, IF(Tracker!D12="Product Manager", 0.9, 1))</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="10">
         <v>0.95</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="11">
         <f>10-(0.5*Tracker!J12)</f>
         <v>10</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7449999999999974E-2</v>
+        <v>0.56039999999999957</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0305</v>
-      </c>
-      <c r="M12" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N12">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.7449999999999974E-2</v>
-      </c>
-      <c r="O12">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.0305</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+        <v>1.6226666666666665</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <f>Tracker!A13</f>
         <v>Company 12</v>
@@ -5061,49 +5443,37 @@
       </c>
       <c r="D13">
         <f ca="1">(Tracker!G13+Tracker!H13)/2</f>
-        <v>88.5</v>
-      </c>
-      <c r="E13" s="11">
-        <f>IF(OR(Tracker!F13="denied",Tracker!F13="on hold",Tracker!F13="No Response",Tracker!F13="pending"), 0.2, IF(Tracker!F13="interviewing", 0.4, IF(Tracker!F13="rejected", 0.3, IF(Tracker!F13="offer", 1, 0))))</f>
+        <v>85.5</v>
+      </c>
+      <c r="E13" s="10">
+        <f>IF(OR(Tracker!F13="denied",Tracker!F13="on hold",Tracker!F13="No Response",Tracker!F13="pending",Tracker!F37="ghosted"), 0.2, IF(Tracker!F13="interviewing", 0.4, IF(Tracker!F13="rejected", 0.3, IF(Tracker!F13="offer", 1, 0))))</f>
         <v>0.2</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <f>IF(OR(Tracker!I13="linkedin", Tracker!I13="Indeed", Tracker!I13="linkedin dm"), 0.9, IF(Tracker!I13="Company Site", 1.1, 1))</f>
         <v>1</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="11">
         <f>IF(OR(Tracker!D13="analyst", Tracker!D13="project manager", Tracker!D13="consultant"), 1.1, IF(Tracker!D13="Product Manager", 0.9, 1))</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="10">
         <v>0.95</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="11">
         <f>10-(0.5*Tracker!J13)</f>
         <v>10</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4474999999999625E-2</v>
+        <v>-1.957500000000012E-2</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.15034999999999998</v>
-      </c>
-      <c r="M13" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N13">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.4474999999999625E-2</v>
-      </c>
-      <c r="O13">
-        <f t="shared" ca="1" si="3"/>
-        <v>-0.15034999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-0.21304999999999974</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
         <f>Tracker!A14</f>
         <v>Company 13</v>
@@ -5118,49 +5488,37 @@
       </c>
       <c r="D14">
         <f ca="1">(Tracker!G14+Tracker!H14)/2</f>
-        <v>85</v>
-      </c>
-      <c r="E14" s="11">
-        <f>IF(OR(Tracker!F14="denied",Tracker!F14="on hold",Tracker!F14="No Response",Tracker!F14="pending"), 0.2, IF(Tracker!F14="interviewing", 0.4, IF(Tracker!F14="rejected", 0.3, IF(Tracker!F14="offer", 1, 0))))</f>
-        <v>0.4</v>
-      </c>
-      <c r="F14" s="12">
+        <v>116</v>
+      </c>
+      <c r="E14" s="10">
+        <f>IF(OR(Tracker!F14="denied",Tracker!F14="on hold",Tracker!F14="No Response",Tracker!F14="pending",Tracker!F38="ghosted"), 0.2, IF(Tracker!F14="interviewing", 0.4, IF(Tracker!F14="rejected", 0.3, IF(Tracker!F14="offer", 1, 0))))</f>
+        <v>0.2</v>
+      </c>
+      <c r="F14" s="11">
         <f>IF(OR(Tracker!I14="linkedin", Tracker!I14="Indeed", Tracker!I14="linkedin dm"), 0.9, IF(Tracker!I14="Company Site", 1.1, 1))</f>
         <v>1</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="11">
         <f>IF(OR(Tracker!D14="analyst", Tracker!D14="project manager", Tracker!D14="consultant"), 1.1, IF(Tracker!D14="Product Manager", 0.9, 1))</f>
         <v>0.9</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="10">
         <v>0.95</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="11">
         <f>10-(0.5*Tracker!J14)</f>
         <v>10</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.51975000000000016</v>
+        <v>0.27539999999999942</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90700000000000003</v>
-      </c>
-      <c r="M14" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N14">
-        <f t="shared" ca="1" si="2"/>
-        <v>-0.51975000000000016</v>
-      </c>
-      <c r="O14">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.90700000000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-1.6399999999999748E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
         <f>Tracker!A15</f>
         <v>Company 14</v>
@@ -5175,49 +5533,37 @@
       </c>
       <c r="D15">
         <f ca="1">(Tracker!G15+Tracker!H15)/2</f>
-        <v>92</v>
-      </c>
-      <c r="E15" s="11">
-        <f>IF(OR(Tracker!F15="denied",Tracker!F15="on hold",Tracker!F15="No Response",Tracker!F15="pending"), 0.2, IF(Tracker!F15="interviewing", 0.4, IF(Tracker!F15="rejected", 0.3, IF(Tracker!F15="offer", 1, 0))))</f>
+        <v>90.5</v>
+      </c>
+      <c r="E15" s="10">
+        <f>IF(OR(Tracker!F15="denied",Tracker!F15="on hold",Tracker!F15="No Response",Tracker!F15="pending",Tracker!F39="ghosted"), 0.2, IF(Tracker!F15="interviewing", 0.4, IF(Tracker!F15="rejected", 0.3, IF(Tracker!F15="offer", 1, 0))))</f>
         <v>1</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="11">
         <f>IF(OR(Tracker!I15="linkedin", Tracker!I15="Indeed", Tracker!I15="linkedin dm"), 0.9, IF(Tracker!I15="Company Site", 1.1, 1))</f>
         <v>1</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="11">
         <f>IF(OR(Tracker!D15="analyst", Tracker!D15="project manager", Tracker!D15="consultant"), 1.1, IF(Tracker!D15="Product Manager", 0.9, 1))</f>
         <v>0.9</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="10">
         <v>0.95</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="11">
         <f>10-(0.5*Tracker!J15)</f>
         <v>10</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.34020000000000028</v>
+        <v>-0.37867500000000032</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="1"/>
-        <v>5.8659999999999997</v>
-      </c>
-      <c r="M15" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N15">
-        <f t="shared" ca="1" si="2"/>
-        <v>-0.34020000000000028</v>
-      </c>
-      <c r="O15">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.8659999999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+        <v>5.7377500000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
         <f>Tracker!A16</f>
         <v>Company 15</v>
@@ -5232,49 +5578,37 @@
       </c>
       <c r="D16">
         <f ca="1">(Tracker!G16+Tracker!H16)/2</f>
-        <v>95.5</v>
-      </c>
-      <c r="E16" s="11">
-        <f>IF(OR(Tracker!F16="denied",Tracker!F16="on hold",Tracker!F16="No Response",Tracker!F16="pending"), 0.2, IF(Tracker!F16="interviewing", 0.4, IF(Tracker!F16="rejected", 0.3, IF(Tracker!F16="offer", 1, 0))))</f>
+        <v>81</v>
+      </c>
+      <c r="E16" s="10">
+        <f>IF(OR(Tracker!F16="denied",Tracker!F16="on hold",Tracker!F16="No Response",Tracker!F16="pending",Tracker!F40="ghosted"), 0.2, IF(Tracker!F16="interviewing", 0.4, IF(Tracker!F16="rejected", 0.3, IF(Tracker!F16="offer", 1, 0))))</f>
         <v>0.2</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="11">
         <f>IF(OR(Tracker!I16="linkedin", Tracker!I16="Indeed", Tracker!I16="linkedin dm"), 0.9, IF(Tracker!I16="Company Site", 1.1, 1))</f>
         <v>1</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="11">
         <f>IF(OR(Tracker!D16="analyst", Tracker!D16="project manager", Tracker!D16="consultant"), 1.1, IF(Tracker!D16="Product Manager", 0.9, 1))</f>
         <v>0.9</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="10">
         <v>0.95</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="11">
         <f>10-(0.5*Tracker!J16)</f>
         <v>10</v>
       </c>
       <c r="J16">
-        <f t="shared" ref="J16:J70" ca="1" si="5">IF(D16=0,0,((0.3*D16*G16*H16)/10)-2.7)</f>
-        <v>-0.25042500000000034</v>
+        <f t="shared" ref="J16:J70" ca="1" si="2">IF(D16=0,0,((0.3*D16*G16*H16)/10)-2.7)</f>
+        <v>-0.6223500000000004</v>
       </c>
       <c r="K16">
-        <f t="shared" ref="K16:K70" ca="1" si="6">IF(D16=0, 0,((D16*E16*G16*H16)/(F16*I16)-2))</f>
-        <v>-0.36694999999999989</v>
-      </c>
-      <c r="M16" t="e">
-        <f t="shared" ref="M16:M70" ca="1" si="7">IF(J16=0, 0, NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N16">
-        <f t="shared" ref="N16:N70" ca="1" si="8">IF(J16=0, NA(), J16)</f>
-        <v>-0.25042500000000034</v>
-      </c>
-      <c r="O16">
-        <f t="shared" ref="O16:O70" ca="1" si="9">IF(K16=0, NA(), K16)</f>
-        <v>-0.36694999999999989</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ref="K16:K70" ca="1" si="3">IF(D16=0, 0,((D16*E16*G16*H16)/(F16*I16)-2))</f>
+        <v>-0.6149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
         <f>Tracker!A17</f>
         <v>Company 16</v>
@@ -5289,49 +5623,37 @@
       </c>
       <c r="D17">
         <f ca="1">(Tracker!G17+Tracker!H17)/2</f>
-        <v>81</v>
-      </c>
-      <c r="E17" s="11">
-        <f>IF(OR(Tracker!F17="denied",Tracker!F17="on hold",Tracker!F17="No Response",Tracker!F17="pending"), 0.2, IF(Tracker!F17="interviewing", 0.4, IF(Tracker!F17="rejected", 0.3, IF(Tracker!F17="offer", 1, 0))))</f>
+        <v>112</v>
+      </c>
+      <c r="E17" s="10">
+        <f>IF(OR(Tracker!F17="denied",Tracker!F17="on hold",Tracker!F17="No Response",Tracker!F17="pending",Tracker!F41="ghosted"), 0.2, IF(Tracker!F17="interviewing", 0.4, IF(Tracker!F17="rejected", 0.3, IF(Tracker!F17="offer", 1, 0))))</f>
         <v>0</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="11">
         <f>IF(OR(Tracker!I17="linkedin", Tracker!I17="Indeed", Tracker!I17="linkedin dm"), 0.9, IF(Tracker!I17="Company Site", 1.1, 1))</f>
         <v>1</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="11">
         <f>IF(OR(Tracker!D17="analyst", Tracker!D17="project manager", Tracker!D17="consultant"), 1.1, IF(Tracker!D17="Product Manager", 0.9, 1))</f>
         <v>0.9</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="10">
         <v>0.95</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="11">
         <f>10-(0.5*Tracker!J17)</f>
         <v>10</v>
       </c>
       <c r="J17">
-        <f t="shared" ca="1" si="5"/>
-        <v>-0.6223500000000004</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.17280000000000006</v>
       </c>
       <c r="K17">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-2</v>
       </c>
-      <c r="M17" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N17">
-        <f t="shared" ca="1" si="8"/>
-        <v>-0.6223500000000004</v>
-      </c>
-      <c r="O17">
-        <f t="shared" ca="1" si="9"/>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <f>Tracker!A18</f>
         <v>Company 17</v>
@@ -5346,49 +5668,37 @@
       </c>
       <c r="D18">
         <f ca="1">(Tracker!G18+Tracker!H18)/2</f>
-        <v>105</v>
-      </c>
-      <c r="E18" s="11">
-        <f>IF(OR(Tracker!F18="denied",Tracker!F18="on hold",Tracker!F18="No Response",Tracker!F18="pending"), 0.2, IF(Tracker!F18="interviewing", 0.4, IF(Tracker!F18="rejected", 0.3, IF(Tracker!F18="offer", 1, 0))))</f>
+        <v>87</v>
+      </c>
+      <c r="E18" s="10">
+        <f>IF(OR(Tracker!F18="denied",Tracker!F18="on hold",Tracker!F18="No Response",Tracker!F18="pending",Tracker!F42="ghosted"), 0.2, IF(Tracker!F18="interviewing", 0.4, IF(Tracker!F18="rejected", 0.3, IF(Tracker!F18="offer", 1, 0))))</f>
         <v>1</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="11">
         <f>IF(OR(Tracker!I18="linkedin", Tracker!I18="Indeed", Tracker!I18="linkedin dm"), 0.9, IF(Tracker!I18="Company Site", 1.1, 1))</f>
         <v>1</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="11">
         <f>IF(OR(Tracker!D18="analyst", Tracker!D18="project manager", Tracker!D18="consultant"), 1.1, IF(Tracker!D18="Product Manager", 0.9, 1))</f>
         <v>0.9</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="10">
         <v>0.95</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="11">
         <f>10-(0.5*Tracker!J18)</f>
         <v>10</v>
       </c>
       <c r="J18">
-        <f t="shared" ca="1" si="5"/>
-        <v>-6.7500000000002558E-3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.4684500000000007</v>
       </c>
       <c r="K18">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.9774999999999991</v>
-      </c>
-      <c r="M18" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N18">
-        <f t="shared" ca="1" si="8"/>
-        <v>-6.7500000000002558E-3</v>
-      </c>
-      <c r="O18">
-        <f t="shared" ca="1" si="9"/>
-        <v>6.9774999999999991</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.4384999999999994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="str">
         <f>Tracker!A19</f>
         <v>Company 18</v>
@@ -5403,49 +5713,37 @@
       </c>
       <c r="D19">
         <f ca="1">(Tracker!G19+Tracker!H19)/2</f>
-        <v>102.5</v>
-      </c>
-      <c r="E19" s="11">
-        <f>IF(OR(Tracker!F19="denied",Tracker!F19="on hold",Tracker!F19="No Response",Tracker!F19="pending"), 0.2, IF(Tracker!F19="interviewing", 0.4, IF(Tracker!F19="rejected", 0.3, IF(Tracker!F19="offer", 1, 0))))</f>
+        <v>118</v>
+      </c>
+      <c r="E19" s="10">
+        <f>IF(OR(Tracker!F19="denied",Tracker!F19="on hold",Tracker!F19="No Response",Tracker!F19="pending",Tracker!F43="ghosted"), 0.2, IF(Tracker!F19="interviewing", 0.4, IF(Tracker!F19="rejected", 0.3, IF(Tracker!F19="offer", 1, 0))))</f>
         <v>0.2</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="11">
         <f>IF(OR(Tracker!I19="linkedin", Tracker!I19="Indeed", Tracker!I19="linkedin dm"), 0.9, IF(Tracker!I19="Company Site", 1.1, 1))</f>
         <v>1</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="11">
         <f>IF(OR(Tracker!D19="analyst", Tracker!D19="project manager", Tracker!D19="consultant"), 1.1, IF(Tracker!D19="Product Manager", 0.9, 1))</f>
         <v>0.9</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="10">
         <v>0.95</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="11">
         <f>10-(0.5*Tracker!J19)</f>
         <v>9</v>
       </c>
       <c r="J19">
-        <f t="shared" ca="1" si="5"/>
-        <v>-7.0875000000000465E-2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.32669999999999977</v>
       </c>
       <c r="K19">
-        <f t="shared" ca="1" si="6"/>
-        <v>-5.2499999999999991E-2</v>
-      </c>
-      <c r="M19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N19">
-        <f t="shared" ca="1" si="8"/>
-        <v>-7.0875000000000465E-2</v>
-      </c>
-      <c r="O19">
-        <f t="shared" ca="1" si="9"/>
-        <v>-5.2499999999999991E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.24199999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="str">
         <f>Tracker!A20</f>
         <v>Company 19</v>
@@ -5460,49 +5758,37 @@
       </c>
       <c r="D20">
         <f ca="1">(Tracker!G20+Tracker!H20)/2</f>
-        <v>105</v>
-      </c>
-      <c r="E20" s="11">
-        <f>IF(OR(Tracker!F20="denied",Tracker!F20="on hold",Tracker!F20="No Response",Tracker!F20="pending"), 0.2, IF(Tracker!F20="interviewing", 0.4, IF(Tracker!F20="rejected", 0.3, IF(Tracker!F20="offer", 1, 0))))</f>
+        <v>93.5</v>
+      </c>
+      <c r="E20" s="10">
+        <f>IF(OR(Tracker!F20="denied",Tracker!F20="on hold",Tracker!F20="No Response",Tracker!F20="pending",Tracker!F44="ghosted"), 0.2, IF(Tracker!F20="interviewing", 0.4, IF(Tracker!F20="rejected", 0.3, IF(Tracker!F20="offer", 1, 0))))</f>
         <v>0.2</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="11">
         <f>IF(OR(Tracker!I20="linkedin", Tracker!I20="Indeed", Tracker!I20="linkedin dm"), 0.9, IF(Tracker!I20="Company Site", 1.1, 1))</f>
         <v>1</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="11">
         <f>IF(OR(Tracker!D20="analyst", Tracker!D20="project manager", Tracker!D20="consultant"), 1.1, IF(Tracker!D20="Product Manager", 0.9, 1))</f>
         <v>0.9</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="10">
         <v>0.95</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="11">
         <f>10-(0.5*Tracker!J20)</f>
         <v>10</v>
       </c>
       <c r="J20">
-        <f t="shared" ca="1" si="5"/>
-        <v>-6.7500000000002558E-3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.30172500000000024</v>
       </c>
       <c r="K20">
-        <f t="shared" ca="1" si="6"/>
-        <v>-0.2044999999999999</v>
-      </c>
-      <c r="M20" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N20">
-        <f t="shared" ca="1" si="8"/>
-        <v>-6.7500000000002558E-3</v>
-      </c>
-      <c r="O20">
-        <f t="shared" ca="1" si="9"/>
-        <v>-0.2044999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.40115000000000012</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="str">
         <f>Tracker!A21</f>
         <v>Company 20</v>
@@ -5517,49 +5803,37 @@
       </c>
       <c r="D21">
         <f ca="1">(Tracker!G21+Tracker!H21)/2</f>
-        <v>101.5</v>
-      </c>
-      <c r="E21" s="11">
-        <f>IF(OR(Tracker!F21="denied",Tracker!F21="on hold",Tracker!F21="No Response",Tracker!F21="pending"), 0.2, IF(Tracker!F21="interviewing", 0.4, IF(Tracker!F21="rejected", 0.3, IF(Tracker!F21="offer", 1, 0))))</f>
+        <v>89</v>
+      </c>
+      <c r="E21" s="10">
+        <f>IF(OR(Tracker!F21="denied",Tracker!F21="on hold",Tracker!F21="No Response",Tracker!F21="pending",Tracker!F45="ghosted"), 0.2, IF(Tracker!F21="interviewing", 0.4, IF(Tracker!F21="rejected", 0.3, IF(Tracker!F21="offer", 1, 0))))</f>
         <v>1</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="11">
         <f>IF(OR(Tracker!I21="linkedin", Tracker!I21="Indeed", Tracker!I21="linkedin dm"), 0.9, IF(Tracker!I21="Company Site", 1.1, 1))</f>
         <v>0.9</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="11">
         <f>IF(OR(Tracker!D21="analyst", Tracker!D21="project manager", Tracker!D21="consultant"), 1.1, IF(Tracker!D21="Product Manager", 0.9, 1))</f>
         <v>0.9</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="10">
         <v>0.95</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="11">
         <f>10-(0.5*Tracker!J21)</f>
         <v>10</v>
       </c>
       <c r="J21">
-        <f t="shared" ca="1" si="5"/>
-        <v>-9.6525000000000194E-2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.41715000000000035</v>
       </c>
       <c r="K21">
-        <f t="shared" ca="1" si="6"/>
-        <v>7.6425000000000001</v>
-      </c>
-      <c r="M21" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N21">
-        <f t="shared" ca="1" si="8"/>
-        <v>-9.6525000000000194E-2</v>
-      </c>
-      <c r="O21">
-        <f t="shared" ca="1" si="9"/>
-        <v>7.6425000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.4550000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="str">
         <f>Tracker!A22</f>
         <v>Company 21</v>
@@ -5574,49 +5848,37 @@
       </c>
       <c r="D22">
         <f ca="1">(Tracker!G22+Tracker!H22)/2</f>
-        <v>103.5</v>
-      </c>
-      <c r="E22" s="11">
-        <f>IF(OR(Tracker!F22="denied",Tracker!F22="on hold",Tracker!F22="No Response",Tracker!F22="pending"), 0.2, IF(Tracker!F22="interviewing", 0.4, IF(Tracker!F22="rejected", 0.3, IF(Tracker!F22="offer", 1, 0))))</f>
+        <v>105</v>
+      </c>
+      <c r="E22" s="10">
+        <f>IF(OR(Tracker!F22="denied",Tracker!F22="on hold",Tracker!F22="No Response",Tracker!F22="pending",Tracker!F46="ghosted"), 0.2, IF(Tracker!F22="interviewing", 0.4, IF(Tracker!F22="rejected", 0.3, IF(Tracker!F22="offer", 1, 0))))</f>
         <v>0.2</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="11">
         <f>IF(OR(Tracker!I22="linkedin", Tracker!I22="Indeed", Tracker!I22="linkedin dm"), 0.9, IF(Tracker!I22="Company Site", 1.1, 1))</f>
         <v>0.9</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="11">
         <f>IF(OR(Tracker!D22="analyst", Tracker!D22="project manager", Tracker!D22="consultant"), 1.1, IF(Tracker!D22="Product Manager", 0.9, 1))</f>
         <v>0.9</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="10">
         <v>0.95</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I22" s="11">
         <f>10-(0.5*Tracker!J22)</f>
         <v>10</v>
       </c>
       <c r="J22">
-        <f t="shared" ca="1" si="5"/>
-        <v>-4.5225000000000293E-2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-6.7500000000002558E-3</v>
       </c>
       <c r="K22">
-        <f t="shared" ca="1" si="6"/>
-        <v>-3.3499999999999641E-2</v>
-      </c>
-      <c r="M22" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N22">
-        <f t="shared" ca="1" si="8"/>
-        <v>-4.5225000000000293E-2</v>
-      </c>
-      <c r="O22">
-        <f t="shared" ca="1" si="9"/>
-        <v>-3.3499999999999641E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>-4.9999999999998934E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="str">
         <f>Tracker!A23</f>
         <v>Company 22</v>
@@ -5631,49 +5893,37 @@
       </c>
       <c r="D23">
         <f ca="1">(Tracker!G23+Tracker!H23)/2</f>
-        <v>113</v>
-      </c>
-      <c r="E23" s="11">
-        <f>IF(OR(Tracker!F23="denied",Tracker!F23="on hold",Tracker!F23="No Response",Tracker!F23="pending"), 0.2, IF(Tracker!F23="interviewing", 0.4, IF(Tracker!F23="rejected", 0.3, IF(Tracker!F23="offer", 1, 0))))</f>
+        <v>98.5</v>
+      </c>
+      <c r="E23" s="10">
+        <f>IF(OR(Tracker!F23="denied",Tracker!F23="on hold",Tracker!F23="No Response",Tracker!F23="pending",Tracker!F47="ghosted"), 0.2, IF(Tracker!F23="interviewing", 0.4, IF(Tracker!F23="rejected", 0.3, IF(Tracker!F23="offer", 1, 0))))</f>
         <v>0.4</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="11">
         <f>IF(OR(Tracker!I23="linkedin", Tracker!I23="Indeed", Tracker!I23="linkedin dm"), 0.9, IF(Tracker!I23="Company Site", 1.1, 1))</f>
         <v>0.9</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="11">
         <f>IF(OR(Tracker!D23="analyst", Tracker!D23="project manager", Tracker!D23="consultant"), 1.1, IF(Tracker!D23="Product Manager", 0.9, 1))</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23" s="10">
         <v>0.95</v>
       </c>
-      <c r="I23" s="12">
+      <c r="I23" s="11">
         <f>10-(0.5*Tracker!J23)</f>
         <v>9.5</v>
       </c>
       <c r="J23">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.84254999999999969</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.38797499999999996</v>
       </c>
       <c r="K23">
-        <f t="shared" ca="1" si="6"/>
-        <v>3.5244444444444438</v>
-      </c>
-      <c r="M23" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N23">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.84254999999999969</v>
-      </c>
-      <c r="O23">
-        <f t="shared" ca="1" si="9"/>
-        <v>3.5244444444444438</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.815555555555556</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="str">
         <f>Tracker!A24</f>
         <v>Company 23</v>
@@ -5688,49 +5938,37 @@
       </c>
       <c r="D24">
         <f ca="1">(Tracker!G24+Tracker!H24)/2</f>
-        <v>122</v>
-      </c>
-      <c r="E24" s="11">
-        <f>IF(OR(Tracker!F24="denied",Tracker!F24="on hold",Tracker!F24="No Response",Tracker!F24="pending"), 0.2, IF(Tracker!F24="interviewing", 0.4, IF(Tracker!F24="rejected", 0.3, IF(Tracker!F24="offer", 1, 0))))</f>
+        <v>81.5</v>
+      </c>
+      <c r="E24" s="10">
+        <f>IF(OR(Tracker!F24="denied",Tracker!F24="on hold",Tracker!F24="No Response",Tracker!F24="pending",Tracker!F48="ghosted"), 0.2, IF(Tracker!F24="interviewing", 0.4, IF(Tracker!F24="rejected", 0.3, IF(Tracker!F24="offer", 1, 0))))</f>
         <v>0.2</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="11">
         <f>IF(OR(Tracker!I24="linkedin", Tracker!I24="Indeed", Tracker!I24="linkedin dm"), 0.9, IF(Tracker!I24="Company Site", 1.1, 1))</f>
         <v>0.9</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="11">
         <f>IF(OR(Tracker!D24="analyst", Tracker!D24="project manager", Tracker!D24="consultant"), 1.1, IF(Tracker!D24="Product Manager", 0.9, 1))</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="10">
         <v>0.95</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I24" s="11">
         <f>10-(0.5*Tracker!J24)</f>
         <v>10</v>
       </c>
       <c r="J24">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.1246999999999998</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.14497500000000008</v>
       </c>
       <c r="K24">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.83311111111111114</v>
-      </c>
-      <c r="M24" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N24">
-        <f t="shared" ca="1" si="8"/>
-        <v>1.1246999999999998</v>
-      </c>
-      <c r="O24">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.83311111111111114</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.10738888888888853</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="str">
         <f>Tracker!A25</f>
         <v>Company 24</v>
@@ -5745,49 +5983,37 @@
       </c>
       <c r="D25">
         <f ca="1">(Tracker!G25+Tracker!H25)/2</f>
-        <v>97</v>
-      </c>
-      <c r="E25" s="11">
-        <f>IF(OR(Tracker!F25="denied",Tracker!F25="on hold",Tracker!F25="No Response",Tracker!F25="pending"), 0.2, IF(Tracker!F25="interviewing", 0.4, IF(Tracker!F25="rejected", 0.3, IF(Tracker!F25="offer", 1, 0))))</f>
+        <v>87.5</v>
+      </c>
+      <c r="E25" s="10">
+        <f>IF(OR(Tracker!F25="denied",Tracker!F25="on hold",Tracker!F25="No Response",Tracker!F25="pending",Tracker!F49="ghosted"), 0.2, IF(Tracker!F25="interviewing", 0.4, IF(Tracker!F25="rejected", 0.3, IF(Tracker!F25="offer", 1, 0))))</f>
         <v>0.2</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="11">
         <f>IF(OR(Tracker!I25="linkedin", Tracker!I25="Indeed", Tracker!I25="linkedin dm"), 0.9, IF(Tracker!I25="Company Site", 1.1, 1))</f>
         <v>0.9</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="11">
         <f>IF(OR(Tracker!D25="analyst", Tracker!D25="project manager", Tracker!D25="consultant"), 1.1, IF(Tracker!D25="Product Manager", 0.9, 1))</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="10">
         <v>0.95</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="11">
         <f>10-(0.5*Tracker!J25)</f>
         <v>10</v>
       </c>
       <c r="J25">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.34094999999999942</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4.3124999999999858E-2</v>
       </c>
       <c r="K25">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.25255555555555587</v>
-      </c>
-      <c r="M25" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N25">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.34094999999999942</v>
-      </c>
-      <c r="O25">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.25255555555555587</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.1944444444444109E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="str">
         <f>Tracker!A26</f>
         <v>Company 25</v>
@@ -5802,49 +6028,37 @@
       </c>
       <c r="D26">
         <f ca="1">(Tracker!G26+Tracker!H26)/2</f>
-        <v>93.5</v>
-      </c>
-      <c r="E26" s="11">
-        <f>IF(OR(Tracker!F26="denied",Tracker!F26="on hold",Tracker!F26="No Response",Tracker!F26="pending"), 0.2, IF(Tracker!F26="interviewing", 0.4, IF(Tracker!F26="rejected", 0.3, IF(Tracker!F26="offer", 1, 0))))</f>
+        <v>112.5</v>
+      </c>
+      <c r="E26" s="10">
+        <f>IF(OR(Tracker!F26="denied",Tracker!F26="on hold",Tracker!F26="No Response",Tracker!F26="pending",Tracker!F50="ghosted"), 0.2, IF(Tracker!F26="interviewing", 0.4, IF(Tracker!F26="rejected", 0.3, IF(Tracker!F26="offer", 1, 0))))</f>
         <v>0</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="11">
         <f>IF(OR(Tracker!I26="linkedin", Tracker!I26="Indeed", Tracker!I26="linkedin dm"), 0.9, IF(Tracker!I26="Company Site", 1.1, 1))</f>
         <v>0.9</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="11">
         <f>IF(OR(Tracker!D26="analyst", Tracker!D26="project manager", Tracker!D26="consultant"), 1.1, IF(Tracker!D26="Product Manager", 0.9, 1))</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H26" s="10">
         <v>0.95</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I26" s="11">
         <f>10-(0.5*Tracker!J26)</f>
         <v>10</v>
       </c>
       <c r="J26">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.23122500000000024</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.82687499999999936</v>
       </c>
       <c r="K26">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-2</v>
       </c>
-      <c r="M26" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N26">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.23122500000000024</v>
-      </c>
-      <c r="O26">
-        <f t="shared" ca="1" si="9"/>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="str">
         <f>Tracker!A27</f>
         <v>Company 26</v>
@@ -5859,49 +6073,37 @@
       </c>
       <c r="D27">
         <f ca="1">(Tracker!G27+Tracker!H27)/2</f>
-        <v>108</v>
-      </c>
-      <c r="E27" s="11">
-        <f>IF(OR(Tracker!F27="denied",Tracker!F27="on hold",Tracker!F27="No Response",Tracker!F27="pending"), 0.2, IF(Tracker!F27="interviewing", 0.4, IF(Tracker!F27="rejected", 0.3, IF(Tracker!F27="offer", 1, 0))))</f>
+        <v>99</v>
+      </c>
+      <c r="E27" s="10">
+        <f>IF(OR(Tracker!F27="denied",Tracker!F27="on hold",Tracker!F27="No Response",Tracker!F27="pending",Tracker!F51="ghosted"), 0.2, IF(Tracker!F27="interviewing", 0.4, IF(Tracker!F27="rejected", 0.3, IF(Tracker!F27="offer", 1, 0))))</f>
         <v>0.2</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="11">
         <f>IF(OR(Tracker!I27="linkedin", Tracker!I27="Indeed", Tracker!I27="linkedin dm"), 0.9, IF(Tracker!I27="Company Site", 1.1, 1))</f>
         <v>0.9</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="11">
         <f>IF(OR(Tracker!D27="analyst", Tracker!D27="project manager", Tracker!D27="consultant"), 1.1, IF(Tracker!D27="Product Manager", 0.9, 1))</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H27" s="10">
         <v>0.95</v>
       </c>
-      <c r="I27" s="12">
+      <c r="I27" s="11">
         <f>10-(0.5*Tracker!J27)</f>
         <v>10</v>
       </c>
       <c r="J27">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.68579999999999952</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.40364999999999984</v>
       </c>
       <c r="K27">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.50800000000000045</v>
-      </c>
-      <c r="M27" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N27">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.68579999999999952</v>
-      </c>
-      <c r="O27">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.50800000000000045</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.29899999999999993</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="str">
         <f>Tracker!A28</f>
         <v>Company 27</v>
@@ -5916,49 +6118,37 @@
       </c>
       <c r="D28">
         <f ca="1">(Tracker!G28+Tracker!H28)/2</f>
-        <v>109.5</v>
-      </c>
-      <c r="E28" s="11">
-        <f>IF(OR(Tracker!F28="denied",Tracker!F28="on hold",Tracker!F28="No Response",Tracker!F28="pending"), 0.2, IF(Tracker!F28="interviewing", 0.4, IF(Tracker!F28="rejected", 0.3, IF(Tracker!F28="offer", 1, 0))))</f>
+        <v>113.5</v>
+      </c>
+      <c r="E28" s="10">
+        <f>IF(OR(Tracker!F28="denied",Tracker!F28="on hold",Tracker!F28="No Response",Tracker!F28="pending",Tracker!F52="ghosted"), 0.2, IF(Tracker!F28="interviewing", 0.4, IF(Tracker!F28="rejected", 0.3, IF(Tracker!F28="offer", 1, 0))))</f>
         <v>0.2</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="11">
         <f>IF(OR(Tracker!I28="linkedin", Tracker!I28="Indeed", Tracker!I28="linkedin dm"), 0.9, IF(Tracker!I28="Company Site", 1.1, 1))</f>
         <v>0.9</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="11">
         <f>IF(OR(Tracker!D28="analyst", Tracker!D28="project manager", Tracker!D28="consultant"), 1.1, IF(Tracker!D28="Product Manager", 0.9, 1))</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H28" s="10">
         <v>0.95</v>
       </c>
-      <c r="I28" s="12">
+      <c r="I28" s="11">
         <f>10-(0.5*Tracker!J28)</f>
         <v>10</v>
       </c>
       <c r="J28">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.73282500000000006</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.85822499999999913</v>
       </c>
       <c r="K28">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.54283333333333328</v>
-      </c>
-      <c r="M28" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N28">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.73282500000000006</v>
-      </c>
-      <c r="O28">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.54283333333333328</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.63572222222222274</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="str">
         <f>Tracker!A29</f>
         <v>Company 28</v>
@@ -5973,49 +6163,37 @@
       </c>
       <c r="D29">
         <f ca="1">(Tracker!G29+Tracker!H29)/2</f>
-        <v>109</v>
-      </c>
-      <c r="E29" s="11">
-        <f>IF(OR(Tracker!F29="denied",Tracker!F29="on hold",Tracker!F29="No Response",Tracker!F29="pending"), 0.2, IF(Tracker!F29="interviewing", 0.4, IF(Tracker!F29="rejected", 0.3, IF(Tracker!F29="offer", 1, 0))))</f>
+        <v>117</v>
+      </c>
+      <c r="E29" s="10">
+        <f>IF(OR(Tracker!F29="denied",Tracker!F29="on hold",Tracker!F29="No Response",Tracker!F29="pending",Tracker!F53="ghosted"), 0.2, IF(Tracker!F29="interviewing", 0.4, IF(Tracker!F29="rejected", 0.3, IF(Tracker!F29="offer", 1, 0))))</f>
         <v>0.4</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F29" s="11">
         <f>IF(OR(Tracker!I29="linkedin", Tracker!I29="Indeed", Tracker!I29="linkedin dm"), 0.9, IF(Tracker!I29="Company Site", 1.1, 1))</f>
         <v>0.9</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="11">
         <f>IF(OR(Tracker!D29="analyst", Tracker!D29="project manager", Tracker!D29="consultant"), 1.1, IF(Tracker!D29="Product Manager", 0.9, 1))</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H29" s="11">
+      <c r="H29" s="10">
         <v>0.95</v>
       </c>
-      <c r="I29" s="12">
+      <c r="I29" s="11">
         <f>10-(0.5*Tracker!J29)</f>
         <v>10</v>
       </c>
       <c r="J29">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.71714999999999929</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.96795000000000009</v>
       </c>
       <c r="K29">
-        <f t="shared" ca="1" si="6"/>
-        <v>3.062444444444445</v>
-      </c>
-      <c r="M29" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N29">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.71714999999999929</v>
-      </c>
-      <c r="O29">
-        <f t="shared" ca="1" si="9"/>
-        <v>3.062444444444445</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.4340000000000011</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="str">
         <f>Tracker!A30</f>
         <v>Company 29</v>
@@ -6030,49 +6208,37 @@
       </c>
       <c r="D30">
         <f ca="1">(Tracker!G30+Tracker!H30)/2</f>
-        <v>108.5</v>
-      </c>
-      <c r="E30" s="11">
-        <f>IF(OR(Tracker!F30="denied",Tracker!F30="on hold",Tracker!F30="No Response",Tracker!F30="pending"), 0.2, IF(Tracker!F30="interviewing", 0.4, IF(Tracker!F30="rejected", 0.3, IF(Tracker!F30="offer", 1, 0))))</f>
+        <v>93</v>
+      </c>
+      <c r="E30" s="10">
+        <f>IF(OR(Tracker!F30="denied",Tracker!F30="on hold",Tracker!F30="No Response",Tracker!F30="pending",Tracker!F54="ghosted"), 0.2, IF(Tracker!F30="interviewing", 0.4, IF(Tracker!F30="rejected", 0.3, IF(Tracker!F30="offer", 1, 0))))</f>
         <v>0.2</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F30" s="11">
         <f>IF(OR(Tracker!I30="linkedin", Tracker!I30="Indeed", Tracker!I30="linkedin dm"), 0.9, IF(Tracker!I30="Company Site", 1.1, 1))</f>
         <v>0.9</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="11">
         <f>IF(OR(Tracker!D30="analyst", Tracker!D30="project manager", Tracker!D30="consultant"), 1.1, IF(Tracker!D30="Product Manager", 0.9, 1))</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H30" s="10">
         <v>0.95</v>
       </c>
-      <c r="I30" s="12">
+      <c r="I30" s="11">
         <f>10-(0.5*Tracker!J30)</f>
         <v>10</v>
       </c>
       <c r="J30">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.70147499999999985</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.21554999999999991</v>
       </c>
       <c r="K30">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.51961111111111169</v>
-      </c>
-      <c r="M30" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N30">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.70147499999999985</v>
-      </c>
-      <c r="O30">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.51961111111111169</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.15966666666666729</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="str">
         <f>Tracker!A31</f>
         <v>Company 30</v>
@@ -6087,49 +6253,37 @@
       </c>
       <c r="D31">
         <f ca="1">(Tracker!G31+Tracker!H31)/2</f>
-        <v>101</v>
-      </c>
-      <c r="E31" s="11">
-        <f>IF(OR(Tracker!F31="denied",Tracker!F31="on hold",Tracker!F31="No Response",Tracker!F31="pending"), 0.2, IF(Tracker!F31="interviewing", 0.4, IF(Tracker!F31="rejected", 0.3, IF(Tracker!F31="offer", 1, 0))))</f>
+        <v>77.5</v>
+      </c>
+      <c r="E31" s="10">
+        <f>IF(OR(Tracker!F31="denied",Tracker!F31="on hold",Tracker!F31="No Response",Tracker!F31="pending",Tracker!F55="ghosted"), 0.2, IF(Tracker!F31="interviewing", 0.4, IF(Tracker!F31="rejected", 0.3, IF(Tracker!F31="offer", 1, 0))))</f>
         <v>0.2</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F31" s="11">
         <f>IF(OR(Tracker!I31="linkedin", Tracker!I31="Indeed", Tracker!I31="linkedin dm"), 0.9, IF(Tracker!I31="Company Site", 1.1, 1))</f>
         <v>0.9</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G31" s="11">
         <f>IF(OR(Tracker!D31="analyst", Tracker!D31="project manager", Tracker!D31="consultant"), 1.1, IF(Tracker!D31="Product Manager", 0.9, 1))</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H31" s="10">
         <v>0.95</v>
       </c>
-      <c r="I31" s="12">
+      <c r="I31" s="11">
         <f>10-(0.5*Tracker!J31)</f>
         <v>10</v>
       </c>
       <c r="J31">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.46634999999999938</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.27037500000000003</v>
       </c>
       <c r="K31">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.34544444444444489</v>
-      </c>
-      <c r="M31" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N31">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.46634999999999938</v>
-      </c>
-      <c r="O31">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.34544444444444489</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.20027777777777755</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="str">
         <f>Tracker!A32</f>
         <v>Company 31</v>
@@ -6144,49 +6298,37 @@
       </c>
       <c r="D32">
         <f ca="1">(Tracker!G32+Tracker!H32)/2</f>
-        <v>123</v>
-      </c>
-      <c r="E32" s="11">
-        <f>IF(OR(Tracker!F32="denied",Tracker!F32="on hold",Tracker!F32="No Response",Tracker!F32="pending"), 0.2, IF(Tracker!F32="interviewing", 0.4, IF(Tracker!F32="rejected", 0.3, IF(Tracker!F32="offer", 1, 0))))</f>
+        <v>99</v>
+      </c>
+      <c r="E32" s="10">
+        <f>IF(OR(Tracker!F32="denied",Tracker!F32="on hold",Tracker!F32="No Response",Tracker!F32="pending",Tracker!F56="ghosted"), 0.2, IF(Tracker!F32="interviewing", 0.4, IF(Tracker!F32="rejected", 0.3, IF(Tracker!F32="offer", 1, 0))))</f>
         <v>0.2</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F32" s="11">
         <f>IF(OR(Tracker!I32="linkedin", Tracker!I32="Indeed", Tracker!I32="linkedin dm"), 0.9, IF(Tracker!I32="Company Site", 1.1, 1))</f>
         <v>1</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G32" s="11">
         <f>IF(OR(Tracker!D32="analyst", Tracker!D32="project manager", Tracker!D32="consultant"), 1.1, IF(Tracker!D32="Product Manager", 0.9, 1))</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H32" s="11">
+      <c r="H32" s="10">
         <v>0.95</v>
       </c>
-      <c r="I32" s="12">
+      <c r="I32" s="11">
         <f>10-(0.5*Tracker!J32)</f>
         <v>10</v>
       </c>
       <c r="J32">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.1560500000000005</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.40364999999999984</v>
       </c>
       <c r="K32">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.57069999999999999</v>
-      </c>
-      <c r="M32" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N32">
-        <f t="shared" ca="1" si="8"/>
-        <v>1.1560500000000005</v>
-      </c>
-      <c r="O32">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.57069999999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.9099999999999717E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="str">
         <f>Tracker!A33</f>
         <v>Company 32</v>
@@ -6201,49 +6343,37 @@
       </c>
       <c r="D33">
         <f ca="1">(Tracker!G33+Tracker!H33)/2</f>
-        <v>102</v>
-      </c>
-      <c r="E33" s="11">
-        <f>IF(OR(Tracker!F33="denied",Tracker!F33="on hold",Tracker!F33="No Response",Tracker!F33="pending"), 0.2, IF(Tracker!F33="interviewing", 0.4, IF(Tracker!F33="rejected", 0.3, IF(Tracker!F33="offer", 1, 0))))</f>
+        <v>104.5</v>
+      </c>
+      <c r="E33" s="10">
+        <f>IF(OR(Tracker!F33="denied",Tracker!F33="on hold",Tracker!F33="No Response",Tracker!F33="pending",Tracker!F57="ghosted"), 0.2, IF(Tracker!F33="interviewing", 0.4, IF(Tracker!F33="rejected", 0.3, IF(Tracker!F33="offer", 1, 0))))</f>
         <v>0.3</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F33" s="11">
         <f>IF(OR(Tracker!I33="linkedin", Tracker!I33="Indeed", Tracker!I33="linkedin dm"), 0.9, IF(Tracker!I33="Company Site", 1.1, 1))</f>
         <v>1</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G33" s="11">
         <f>IF(OR(Tracker!D33="analyst", Tracker!D33="project manager", Tracker!D33="consultant"), 1.1, IF(Tracker!D33="Product Manager", 0.9, 1))</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H33" s="11">
+      <c r="H33" s="10">
         <v>0.95</v>
       </c>
-      <c r="I33" s="12">
+      <c r="I33" s="11">
         <f>10-(0.5*Tracker!J33)</f>
         <v>10</v>
       </c>
       <c r="J33">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.49770000000000003</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.57607499999999945</v>
       </c>
       <c r="K33">
-        <f t="shared" ca="1" si="6"/>
-        <v>1.1977000000000002</v>
-      </c>
-      <c r="M33" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N33">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.49770000000000003</v>
-      </c>
-      <c r="O33">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.1977000000000002</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.2760749999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="str">
         <f>Tracker!A34</f>
         <v>Company 33</v>
@@ -6258,49 +6388,37 @@
       </c>
       <c r="D34">
         <f ca="1">(Tracker!G34+Tracker!H34)/2</f>
-        <v>95</v>
-      </c>
-      <c r="E34" s="11">
-        <f>IF(OR(Tracker!F34="denied",Tracker!F34="on hold",Tracker!F34="No Response",Tracker!F34="pending"), 0.2, IF(Tracker!F34="interviewing", 0.4, IF(Tracker!F34="rejected", 0.3, IF(Tracker!F34="offer", 1, 0))))</f>
+        <v>82</v>
+      </c>
+      <c r="E34" s="10">
+        <f>IF(OR(Tracker!F34="denied",Tracker!F34="on hold",Tracker!F34="No Response",Tracker!F34="pending",Tracker!F58="ghosted"), 0.2, IF(Tracker!F34="interviewing", 0.4, IF(Tracker!F34="rejected", 0.3, IF(Tracker!F34="offer", 1, 0))))</f>
         <v>0.2</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="11">
         <f>IF(OR(Tracker!I34="linkedin", Tracker!I34="Indeed", Tracker!I34="linkedin dm"), 0.9, IF(Tracker!I34="Company Site", 1.1, 1))</f>
         <v>1</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="11">
         <f>IF(OR(Tracker!D34="analyst", Tracker!D34="project manager", Tracker!D34="consultant"), 1.1, IF(Tracker!D34="Product Manager", 0.9, 1))</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H34" s="10">
         <v>0.95</v>
       </c>
-      <c r="I34" s="12">
+      <c r="I34" s="11">
         <f>10-(0.5*Tracker!J34)</f>
         <v>10</v>
       </c>
       <c r="J34">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.27824999999999989</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.12930000000000064</v>
       </c>
       <c r="K34">
-        <f t="shared" ca="1" si="6"/>
-        <v>-1.4499999999999957E-2</v>
-      </c>
-      <c r="M34" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N34">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.27824999999999989</v>
-      </c>
-      <c r="O34">
-        <f t="shared" ca="1" si="9"/>
-        <v>-1.4499999999999957E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.28619999999999979</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" t="str">
         <f>Tracker!A35</f>
         <v>Company 34</v>
@@ -6315,49 +6433,37 @@
       </c>
       <c r="D35">
         <f ca="1">(Tracker!G35+Tracker!H35)/2</f>
-        <v>100.5</v>
-      </c>
-      <c r="E35" s="11">
-        <f>IF(OR(Tracker!F35="denied",Tracker!F35="on hold",Tracker!F35="No Response",Tracker!F35="pending"), 0.2, IF(Tracker!F35="interviewing", 0.4, IF(Tracker!F35="rejected", 0.3, IF(Tracker!F35="offer", 1, 0))))</f>
+        <v>90</v>
+      </c>
+      <c r="E35" s="10">
+        <f>IF(OR(Tracker!F35="denied",Tracker!F35="on hold",Tracker!F35="No Response",Tracker!F35="pending",Tracker!F59="ghosted"), 0.2, IF(Tracker!F35="interviewing", 0.4, IF(Tracker!F35="rejected", 0.3, IF(Tracker!F35="offer", 1, 0))))</f>
         <v>0.4</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F35" s="11">
         <f>IF(OR(Tracker!I35="linkedin", Tracker!I35="Indeed", Tracker!I35="linkedin dm"), 0.9, IF(Tracker!I35="Company Site", 1.1, 1))</f>
         <v>1</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="11">
         <f>IF(OR(Tracker!D35="analyst", Tracker!D35="project manager", Tracker!D35="consultant"), 1.1, IF(Tracker!D35="Product Manager", 0.9, 1))</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H35" s="11">
+      <c r="H35" s="10">
         <v>0.95</v>
       </c>
-      <c r="I35" s="12">
+      <c r="I35" s="11">
         <f>10-(0.5*Tracker!J35)</f>
         <v>8.5</v>
       </c>
       <c r="J35">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.45067499999999949</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.12149999999999972</v>
       </c>
       <c r="K35">
-        <f t="shared" ca="1" si="6"/>
-        <v>2.9422352941176468</v>
-      </c>
-      <c r="M35" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N35">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.45067499999999949</v>
-      </c>
-      <c r="O35">
-        <f t="shared" ca="1" si="9"/>
-        <v>2.9422352941176468</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.4258823529411764</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" t="str">
         <f>Tracker!A36</f>
         <v>Company 35</v>
@@ -6372,49 +6478,37 @@
       </c>
       <c r="D36">
         <f ca="1">(Tracker!G36+Tracker!H36)/2</f>
-        <v>104.5</v>
-      </c>
-      <c r="E36" s="11">
-        <f>IF(OR(Tracker!F36="denied",Tracker!F36="on hold",Tracker!F36="No Response",Tracker!F36="pending"), 0.2, IF(Tracker!F36="interviewing", 0.4, IF(Tracker!F36="rejected", 0.3, IF(Tracker!F36="offer", 1, 0))))</f>
+        <v>113</v>
+      </c>
+      <c r="E36" s="10">
+        <f>IF(OR(Tracker!F36="denied",Tracker!F36="on hold",Tracker!F36="No Response",Tracker!F36="pending",Tracker!F60="ghosted"), 0.2, IF(Tracker!F36="interviewing", 0.4, IF(Tracker!F36="rejected", 0.3, IF(Tracker!F36="offer", 1, 0))))</f>
         <v>0.2</v>
       </c>
-      <c r="F36" s="12">
+      <c r="F36" s="11">
         <f>IF(OR(Tracker!I36="linkedin", Tracker!I36="Indeed", Tracker!I36="linkedin dm"), 0.9, IF(Tracker!I36="Company Site", 1.1, 1))</f>
         <v>1</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="11">
         <f>IF(OR(Tracker!D36="analyst", Tracker!D36="project manager", Tracker!D36="consultant"), 1.1, IF(Tracker!D36="Product Manager", 0.9, 1))</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H36" s="11">
+      <c r="H36" s="10">
         <v>0.95</v>
       </c>
-      <c r="I36" s="12">
+      <c r="I36" s="11">
         <f>10-(0.5*Tracker!J36)</f>
         <v>10</v>
       </c>
       <c r="J36">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.57607499999999945</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.84254999999999969</v>
       </c>
       <c r="K36">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.18405000000000049</v>
-      </c>
-      <c r="M36" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N36">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.57607499999999945</v>
-      </c>
-      <c r="O36">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.18405000000000049</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.36169999999999991</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" t="str">
         <f>Tracker!A37</f>
         <v>Company 36</v>
@@ -6429,49 +6523,37 @@
       </c>
       <c r="D37">
         <f ca="1">(Tracker!G37+Tracker!H37)/2</f>
-        <v>101.5</v>
-      </c>
-      <c r="E37" s="11">
-        <f>IF(OR(Tracker!F37="denied",Tracker!F37="on hold",Tracker!F37="No Response",Tracker!F37="pending"), 0.2, IF(Tracker!F37="interviewing", 0.4, IF(Tracker!F37="rejected", 0.3, IF(Tracker!F37="offer", 1, 0))))</f>
+        <v>108</v>
+      </c>
+      <c r="E37" s="10">
+        <f>IF(OR(Tracker!F37="denied",Tracker!F37="on hold",Tracker!F37="No Response",Tracker!F37="pending",Tracker!F61="ghosted"), 0.2, IF(Tracker!F37="interviewing", 0.4, IF(Tracker!F37="rejected", 0.3, IF(Tracker!F37="offer", 1, 0))))</f>
         <v>0.2</v>
       </c>
-      <c r="F37" s="12">
+      <c r="F37" s="11">
         <f>IF(OR(Tracker!I37="linkedin", Tracker!I37="Indeed", Tracker!I37="linkedin dm"), 0.9, IF(Tracker!I37="Company Site", 1.1, 1))</f>
         <v>1</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G37" s="11">
         <f>IF(OR(Tracker!D37="analyst", Tracker!D37="project manager", Tracker!D37="consultant"), 1.1, IF(Tracker!D37="Product Manager", 0.9, 1))</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H37" s="11">
+      <c r="H37" s="10">
         <v>0.95</v>
       </c>
-      <c r="I37" s="12">
+      <c r="I37" s="11">
         <f>10-(0.5*Tracker!J37)</f>
         <v>10</v>
       </c>
       <c r="J37">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.48202500000000015</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.68579999999999952</v>
       </c>
       <c r="K37">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.12135000000000007</v>
-      </c>
-      <c r="M37" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N37">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.48202500000000015</v>
-      </c>
-      <c r="O37">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.12135000000000007</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.2572000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" t="str">
         <f>Tracker!A38</f>
         <v>Company 37</v>
@@ -6486,49 +6568,37 @@
       </c>
       <c r="D38">
         <f ca="1">(Tracker!G38+Tracker!H38)/2</f>
-        <v>100</v>
-      </c>
-      <c r="E38" s="11">
-        <f>IF(OR(Tracker!F38="denied",Tracker!F38="on hold",Tracker!F38="No Response",Tracker!F38="pending"), 0.2, IF(Tracker!F38="interviewing", 0.4, IF(Tracker!F38="rejected", 0.3, IF(Tracker!F38="offer", 1, 0))))</f>
+        <v>100.5</v>
+      </c>
+      <c r="E38" s="10">
+        <f>IF(OR(Tracker!F38="denied",Tracker!F38="on hold",Tracker!F38="No Response",Tracker!F38="pending",Tracker!F62="ghosted"), 0.2, IF(Tracker!F38="interviewing", 0.4, IF(Tracker!F38="rejected", 0.3, IF(Tracker!F38="offer", 1, 0))))</f>
         <v>0</v>
       </c>
-      <c r="F38" s="12">
+      <c r="F38" s="11">
         <f>IF(OR(Tracker!I38="linkedin", Tracker!I38="Indeed", Tracker!I38="linkedin dm"), 0.9, IF(Tracker!I38="Company Site", 1.1, 1))</f>
         <v>1</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="11">
         <f>IF(OR(Tracker!D38="analyst", Tracker!D38="project manager", Tracker!D38="consultant"), 1.1, IF(Tracker!D38="Product Manager", 0.9, 1))</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H38" s="11">
+      <c r="H38" s="10">
         <v>0.95</v>
       </c>
-      <c r="I38" s="12">
+      <c r="I38" s="11">
         <f>10-(0.5*Tracker!J38)</f>
         <v>10</v>
       </c>
       <c r="J38">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.43499999999999961</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.45067499999999949</v>
       </c>
       <c r="K38">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-2</v>
       </c>
-      <c r="M38" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N38">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.43499999999999961</v>
-      </c>
-      <c r="O38">
-        <f t="shared" ca="1" si="9"/>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" t="str">
         <f>Tracker!A39</f>
         <v>Company 38</v>
@@ -6543,49 +6613,37 @@
       </c>
       <c r="D39">
         <f ca="1">(Tracker!G39+Tracker!H39)/2</f>
-        <v>84</v>
-      </c>
-      <c r="E39" s="11">
-        <f>IF(OR(Tracker!F39="denied",Tracker!F39="on hold",Tracker!F39="No Response",Tracker!F39="pending"), 0.2, IF(Tracker!F39="interviewing", 0.4, IF(Tracker!F39="rejected", 0.3, IF(Tracker!F39="offer", 1, 0))))</f>
+        <v>98</v>
+      </c>
+      <c r="E39" s="10">
+        <f>IF(OR(Tracker!F39="denied",Tracker!F39="on hold",Tracker!F39="No Response",Tracker!F39="pending",Tracker!F63="ghosted"), 0.2, IF(Tracker!F39="interviewing", 0.4, IF(Tracker!F39="rejected", 0.3, IF(Tracker!F39="offer", 1, 0))))</f>
         <v>0.2</v>
       </c>
-      <c r="F39" s="12">
+      <c r="F39" s="11">
         <f>IF(OR(Tracker!I39="linkedin", Tracker!I39="Indeed", Tracker!I39="linkedin dm"), 0.9, IF(Tracker!I39="Company Site", 1.1, 1))</f>
         <v>1</v>
       </c>
-      <c r="G39" s="12">
+      <c r="G39" s="11">
         <f>IF(OR(Tracker!D39="analyst", Tracker!D39="project manager", Tracker!D39="consultant"), 1.1, IF(Tracker!D39="Product Manager", 0.9, 1))</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H39" s="11">
+      <c r="H39" s="10">
         <v>0.95</v>
       </c>
-      <c r="I39" s="12">
+      <c r="I39" s="11">
         <f>10-(0.5*Tracker!J39)</f>
         <v>9.5</v>
       </c>
       <c r="J39">
-        <f t="shared" ca="1" si="5"/>
-        <v>-6.6600000000000215E-2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.37230000000000008</v>
       </c>
       <c r="K39">
-        <f t="shared" ca="1" si="6"/>
-        <v>-0.15199999999999947</v>
-      </c>
-      <c r="M39" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N39">
-        <f t="shared" ca="1" si="8"/>
-        <v>-6.6600000000000215E-2</v>
-      </c>
-      <c r="O39">
-        <f t="shared" ca="1" si="9"/>
-        <v>-0.15199999999999947</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.15600000000000014</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" t="str">
         <f>Tracker!A40</f>
         <v>Company 39</v>
@@ -6600,49 +6658,37 @@
       </c>
       <c r="D40">
         <f ca="1">(Tracker!G40+Tracker!H40)/2</f>
-        <v>96</v>
-      </c>
-      <c r="E40" s="11">
-        <f>IF(OR(Tracker!F40="denied",Tracker!F40="on hold",Tracker!F40="No Response",Tracker!F40="pending"), 0.2, IF(Tracker!F40="interviewing", 0.4, IF(Tracker!F40="rejected", 0.3, IF(Tracker!F40="offer", 1, 0))))</f>
+        <v>94.5</v>
+      </c>
+      <c r="E40" s="10">
+        <f>IF(OR(Tracker!F40="denied",Tracker!F40="on hold",Tracker!F40="No Response",Tracker!F40="pending",Tracker!F64="ghosted"), 0.2, IF(Tracker!F40="interviewing", 0.4, IF(Tracker!F40="rejected", 0.3, IF(Tracker!F40="offer", 1, 0))))</f>
         <v>0.2</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F40" s="11">
         <f>IF(OR(Tracker!I40="linkedin", Tracker!I40="Indeed", Tracker!I40="linkedin dm"), 0.9, IF(Tracker!I40="Company Site", 1.1, 1))</f>
         <v>1</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G40" s="11">
         <f>IF(OR(Tracker!D40="analyst", Tracker!D40="project manager", Tracker!D40="consultant"), 1.1, IF(Tracker!D40="Product Manager", 0.9, 1))</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H40" s="11">
+      <c r="H40" s="10">
         <v>0.95</v>
       </c>
-      <c r="I40" s="12">
+      <c r="I40" s="11">
         <f>10-(0.5*Tracker!J40)</f>
         <v>10</v>
       </c>
       <c r="J40">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.30959999999999965</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.26257499999999956</v>
       </c>
       <c r="K40">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.4000000000001833E-3</v>
-      </c>
-      <c r="M40" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N40">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.30959999999999965</v>
-      </c>
-      <c r="O40">
-        <f t="shared" ca="1" si="9"/>
-        <v>6.4000000000001833E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>-2.4949999999999806E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" t="str">
         <f>Tracker!A41</f>
         <v>Company 40</v>
@@ -6657,49 +6703,37 @@
       </c>
       <c r="D41">
         <f ca="1">(Tracker!G41+Tracker!H41)/2</f>
-        <v>80.5</v>
-      </c>
-      <c r="E41" s="11">
-        <f>IF(OR(Tracker!F41="denied",Tracker!F41="on hold",Tracker!F41="No Response",Tracker!F41="pending"), 0.2, IF(Tracker!F41="interviewing", 0.4, IF(Tracker!F41="rejected", 0.3, IF(Tracker!F41="offer", 1, 0))))</f>
+        <v>95.5</v>
+      </c>
+      <c r="E41" s="10">
+        <f>IF(OR(Tracker!F41="denied",Tracker!F41="on hold",Tracker!F41="No Response",Tracker!F41="pending",Tracker!F65="ghosted"), 0.2, IF(Tracker!F41="interviewing", 0.4, IF(Tracker!F41="rejected", 0.3, IF(Tracker!F41="offer", 1, 0))))</f>
         <v>0.2</v>
       </c>
-      <c r="F41" s="12">
+      <c r="F41" s="11">
         <f>IF(OR(Tracker!I41="linkedin", Tracker!I41="Indeed", Tracker!I41="linkedin dm"), 0.9, IF(Tracker!I41="Company Site", 1.1, 1))</f>
         <v>1</v>
       </c>
-      <c r="G41" s="12">
+      <c r="G41" s="11">
         <f>IF(OR(Tracker!D41="analyst", Tracker!D41="project manager", Tracker!D41="consultant"), 1.1, IF(Tracker!D41="Product Manager", 0.9, 1))</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H41" s="11">
+      <c r="H41" s="10">
         <v>0.95</v>
       </c>
-      <c r="I41" s="12">
+      <c r="I41" s="11">
         <f>10-(0.5*Tracker!J41)</f>
         <v>10</v>
       </c>
       <c r="J41">
-        <f t="shared" ca="1" si="5"/>
-        <v>-0.17632500000000029</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.29392499999999977</v>
       </c>
       <c r="K41">
-        <f t="shared" ca="1" si="6"/>
-        <v>-0.31754999999999955</v>
-      </c>
-      <c r="M41" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N41">
-        <f t="shared" ca="1" si="8"/>
-        <v>-0.17632500000000029</v>
-      </c>
-      <c r="O41">
-        <f t="shared" ca="1" si="9"/>
-        <v>-0.31754999999999955</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>-4.049999999999887E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" t="str">
         <f>Tracker!A42</f>
         <v>Company 41</v>
@@ -6714,49 +6748,37 @@
       </c>
       <c r="D42">
         <f ca="1">(Tracker!G42+Tracker!H42)/2</f>
-        <v>99.5</v>
-      </c>
-      <c r="E42" s="11">
-        <f>IF(OR(Tracker!F42="denied",Tracker!F42="on hold",Tracker!F42="No Response",Tracker!F42="pending"), 0.2, IF(Tracker!F42="interviewing", 0.4, IF(Tracker!F42="rejected", 0.3, IF(Tracker!F42="offer", 1, 0))))</f>
+        <v>80.5</v>
+      </c>
+      <c r="E42" s="10">
+        <f>IF(OR(Tracker!F42="denied",Tracker!F42="on hold",Tracker!F42="No Response",Tracker!F42="pending",Tracker!F66="ghosted"), 0.2, IF(Tracker!F42="interviewing", 0.4, IF(Tracker!F42="rejected", 0.3, IF(Tracker!F42="offer", 1, 0))))</f>
         <v>0.3</v>
       </c>
-      <c r="F42" s="12">
+      <c r="F42" s="11">
         <f>IF(OR(Tracker!I42="linkedin", Tracker!I42="Indeed", Tracker!I42="linkedin dm"), 0.9, IF(Tracker!I42="Company Site", 1.1, 1))</f>
         <v>1</v>
       </c>
-      <c r="G42" s="12">
+      <c r="G42" s="11">
         <f>IF(OR(Tracker!D42="analyst", Tracker!D42="project manager", Tracker!D42="consultant"), 1.1, IF(Tracker!D42="Product Manager", 0.9, 1))</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H42" s="11">
+      <c r="H42" s="10">
         <v>0.95</v>
       </c>
-      <c r="I42" s="12">
+      <c r="I42" s="11">
         <f>10-(0.5*Tracker!J42)</f>
         <v>9</v>
       </c>
       <c r="J42">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.41932499999999973</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.17632500000000029</v>
       </c>
       <c r="K42">
-        <f t="shared" ca="1" si="6"/>
-        <v>1.4659166666666668</v>
-      </c>
-      <c r="M42" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N42">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.41932499999999973</v>
-      </c>
-      <c r="O42">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.4659166666666668</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.80408333333333326</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" t="str">
         <f>Tracker!A43</f>
         <v>Company 42</v>
@@ -6771,49 +6793,37 @@
       </c>
       <c r="D43">
         <f ca="1">(Tracker!G43+Tracker!H43)/2</f>
-        <v>106.5</v>
-      </c>
-      <c r="E43" s="11">
-        <f>IF(OR(Tracker!F43="denied",Tracker!F43="on hold",Tracker!F43="No Response",Tracker!F43="pending"), 0.2, IF(Tracker!F43="interviewing", 0.4, IF(Tracker!F43="rejected", 0.3, IF(Tracker!F43="offer", 1, 0))))</f>
+        <v>115</v>
+      </c>
+      <c r="E43" s="10">
+        <f>IF(OR(Tracker!F43="denied",Tracker!F43="on hold",Tracker!F43="No Response",Tracker!F43="pending",Tracker!F67="ghosted"), 0.2, IF(Tracker!F43="interviewing", 0.4, IF(Tracker!F43="rejected", 0.3, IF(Tracker!F43="offer", 1, 0))))</f>
         <v>0.2</v>
       </c>
-      <c r="F43" s="12">
+      <c r="F43" s="11">
         <f>IF(OR(Tracker!I43="linkedin", Tracker!I43="Indeed", Tracker!I43="linkedin dm"), 0.9, IF(Tracker!I43="Company Site", 1.1, 1))</f>
         <v>1</v>
       </c>
-      <c r="G43" s="12">
+      <c r="G43" s="11">
         <f>IF(OR(Tracker!D43="analyst", Tracker!D43="project manager", Tracker!D43="consultant"), 1.1, IF(Tracker!D43="Product Manager", 0.9, 1))</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H43" s="11">
+      <c r="H43" s="10">
         <v>0.95</v>
       </c>
-      <c r="I43" s="12">
+      <c r="I43" s="11">
         <f>10-(0.5*Tracker!J43)</f>
         <v>10</v>
       </c>
       <c r="J43">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.63877500000000031</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.90525000000000011</v>
       </c>
       <c r="K43">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.22585000000000033</v>
-      </c>
-      <c r="M43" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N43">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.63877500000000031</v>
-      </c>
-      <c r="O43">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.22585000000000033</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.40350000000000019</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" t="str">
         <f>Tracker!A44</f>
         <v>Company 43</v>
@@ -6828,49 +6838,37 @@
       </c>
       <c r="D44">
         <f ca="1">(Tracker!G44+Tracker!H44)/2</f>
-        <v>102</v>
-      </c>
-      <c r="E44" s="11">
-        <f>IF(OR(Tracker!F44="denied",Tracker!F44="on hold",Tracker!F44="No Response",Tracker!F44="pending"), 0.2, IF(Tracker!F44="interviewing", 0.4, IF(Tracker!F44="rejected", 0.3, IF(Tracker!F44="offer", 1, 0))))</f>
+        <v>111</v>
+      </c>
+      <c r="E44" s="10">
+        <f>IF(OR(Tracker!F44="denied",Tracker!F44="on hold",Tracker!F44="No Response",Tracker!F44="pending",Tracker!F68="ghosted"), 0.2, IF(Tracker!F44="interviewing", 0.4, IF(Tracker!F44="rejected", 0.3, IF(Tracker!F44="offer", 1, 0))))</f>
         <v>0.2</v>
       </c>
-      <c r="F44" s="12">
+      <c r="F44" s="11">
         <f>IF(OR(Tracker!I44="linkedin", Tracker!I44="Indeed", Tracker!I44="linkedin dm"), 0.9, IF(Tracker!I44="Company Site", 1.1, 1))</f>
         <v>1</v>
       </c>
-      <c r="G44" s="12">
+      <c r="G44" s="11">
         <f>IF(OR(Tracker!D44="analyst", Tracker!D44="project manager", Tracker!D44="consultant"), 1.1, IF(Tracker!D44="Product Manager", 0.9, 1))</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H44" s="11">
+      <c r="H44" s="10">
         <v>0.95</v>
       </c>
-      <c r="I44" s="12">
+      <c r="I44" s="11">
         <f>10-(0.5*Tracker!J44)</f>
         <v>10</v>
       </c>
       <c r="J44">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.49770000000000003</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.77985000000000015</v>
       </c>
       <c r="K44">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.13180000000000058</v>
-      </c>
-      <c r="M44" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N44">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.49770000000000003</v>
-      </c>
-      <c r="O44">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.13180000000000058</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.31990000000000052</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" t="str">
         <f>Tracker!A45</f>
         <v>Company 44</v>
@@ -6885,49 +6883,37 @@
       </c>
       <c r="D45">
         <f ca="1">(Tracker!G45+Tracker!H45)/2</f>
-        <v>116.5</v>
-      </c>
-      <c r="E45" s="11">
-        <f>IF(OR(Tracker!F45="denied",Tracker!F45="on hold",Tracker!F45="No Response",Tracker!F45="pending"), 0.2, IF(Tracker!F45="interviewing", 0.4, IF(Tracker!F45="rejected", 0.3, IF(Tracker!F45="offer", 1, 0))))</f>
+        <v>110.5</v>
+      </c>
+      <c r="E45" s="10">
+        <f>IF(OR(Tracker!F45="denied",Tracker!F45="on hold",Tracker!F45="No Response",Tracker!F45="pending",Tracker!F69="ghosted"), 0.2, IF(Tracker!F45="interviewing", 0.4, IF(Tracker!F45="rejected", 0.3, IF(Tracker!F45="offer", 1, 0))))</f>
         <v>0.2</v>
       </c>
-      <c r="F45" s="12">
+      <c r="F45" s="11">
         <f>IF(OR(Tracker!I45="linkedin", Tracker!I45="Indeed", Tracker!I45="linkedin dm"), 0.9, IF(Tracker!I45="Company Site", 1.1, 1))</f>
         <v>1</v>
       </c>
-      <c r="G45" s="12">
+      <c r="G45" s="11">
         <f>IF(OR(Tracker!D45="analyst", Tracker!D45="project manager", Tracker!D45="consultant"), 1.1, IF(Tracker!D45="Product Manager", 0.9, 1))</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H45" s="11">
+      <c r="H45" s="10">
         <v>0.95</v>
       </c>
-      <c r="I45" s="12">
+      <c r="I45" s="11">
         <f>10-(0.5*Tracker!J45)</f>
         <v>10</v>
       </c>
       <c r="J45">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.9522750000000002</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.76417499999999983</v>
       </c>
       <c r="K45">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.43484999999999996</v>
-      </c>
-      <c r="M45" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N45">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.9522750000000002</v>
-      </c>
-      <c r="O45">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.43484999999999996</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.30945</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" t="str">
         <f>Tracker!A46</f>
         <v>Company 45</v>
@@ -6942,49 +6928,37 @@
       </c>
       <c r="D46">
         <f ca="1">(Tracker!G46+Tracker!H46)/2</f>
-        <v>84</v>
-      </c>
-      <c r="E46" s="11">
-        <f>IF(OR(Tracker!F46="denied",Tracker!F46="on hold",Tracker!F46="No Response",Tracker!F46="pending"), 0.2, IF(Tracker!F46="interviewing", 0.4, IF(Tracker!F46="rejected", 0.3, IF(Tracker!F46="offer", 1, 0))))</f>
+        <v>92</v>
+      </c>
+      <c r="E46" s="10">
+        <f>IF(OR(Tracker!F46="denied",Tracker!F46="on hold",Tracker!F46="No Response",Tracker!F46="pending",Tracker!F70="ghosted"), 0.2, IF(Tracker!F46="interviewing", 0.4, IF(Tracker!F46="rejected", 0.3, IF(Tracker!F46="offer", 1, 0))))</f>
         <v>0.2</v>
       </c>
-      <c r="F46" s="12">
+      <c r="F46" s="11">
         <f>IF(OR(Tracker!I46="linkedin", Tracker!I46="Indeed", Tracker!I46="linkedin dm"), 0.9, IF(Tracker!I46="Company Site", 1.1, 1))</f>
         <v>1</v>
       </c>
-      <c r="G46" s="12">
+      <c r="G46" s="11">
         <f>IF(OR(Tracker!D46="analyst", Tracker!D46="project manager", Tracker!D46="consultant"), 1.1, IF(Tracker!D46="Product Manager", 0.9, 1))</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H46" s="11">
+      <c r="H46" s="10">
         <v>0.95</v>
       </c>
-      <c r="I46" s="12">
+      <c r="I46" s="11">
         <f>10-(0.5*Tracker!J46)</f>
         <v>10</v>
       </c>
       <c r="J46">
-        <f t="shared" ca="1" si="5"/>
-        <v>-6.6600000000000215E-2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.1841999999999997</v>
       </c>
       <c r="K46">
-        <f t="shared" ca="1" si="6"/>
-        <v>-0.24439999999999951</v>
-      </c>
-      <c r="M46" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N46">
-        <f t="shared" ca="1" si="8"/>
-        <v>-6.6600000000000215E-2</v>
-      </c>
-      <c r="O46">
-        <f t="shared" ca="1" si="9"/>
-        <v>-0.24439999999999951</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>-7.7199999999999491E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" t="str">
         <f>Tracker!A47</f>
         <v>Company 46</v>
@@ -6999,49 +6973,37 @@
       </c>
       <c r="D47">
         <f ca="1">(Tracker!G47+Tracker!H47)/2</f>
-        <v>115.5</v>
-      </c>
-      <c r="E47" s="11">
-        <f>IF(OR(Tracker!F47="denied",Tracker!F47="on hold",Tracker!F47="No Response",Tracker!F47="pending"), 0.2, IF(Tracker!F47="interviewing", 0.4, IF(Tracker!F47="rejected", 0.3, IF(Tracker!F47="offer", 1, 0))))</f>
+        <v>98</v>
+      </c>
+      <c r="E47" s="10">
+        <f>IF(OR(Tracker!F47="denied",Tracker!F47="on hold",Tracker!F47="No Response",Tracker!F47="pending",Tracker!F71="ghosted"), 0.2, IF(Tracker!F47="interviewing", 0.4, IF(Tracker!F47="rejected", 0.3, IF(Tracker!F47="offer", 1, 0))))</f>
         <v>0.2</v>
       </c>
-      <c r="F47" s="12">
+      <c r="F47" s="11">
         <f>IF(OR(Tracker!I47="linkedin", Tracker!I47="Indeed", Tracker!I47="linkedin dm"), 0.9, IF(Tracker!I47="Company Site", 1.1, 1))</f>
         <v>1</v>
       </c>
-      <c r="G47" s="12">
+      <c r="G47" s="11">
         <f>IF(OR(Tracker!D47="analyst", Tracker!D47="project manager", Tracker!D47="consultant"), 1.1, IF(Tracker!D47="Product Manager", 0.9, 1))</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H47" s="11">
+      <c r="H47" s="10">
         <v>0.95</v>
       </c>
-      <c r="I47" s="12">
+      <c r="I47" s="11">
         <f>10-(0.5*Tracker!J47)</f>
         <v>10</v>
       </c>
       <c r="J47">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.92092499999999955</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.37230000000000008</v>
       </c>
       <c r="K47">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.41395000000000026</v>
-      </c>
-      <c r="M47" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N47">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.92092499999999955</v>
-      </c>
-      <c r="O47">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.41395000000000026</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.8200000000000465E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" t="str">
         <f>Tracker!A48</f>
         <v>Company 47</v>
@@ -7056,49 +7018,37 @@
       </c>
       <c r="D48">
         <f ca="1">(Tracker!G48+Tracker!H48)/2</f>
-        <v>84</v>
-      </c>
-      <c r="E48" s="11">
-        <f>IF(OR(Tracker!F48="denied",Tracker!F48="on hold",Tracker!F48="No Response",Tracker!F48="pending"), 0.2, IF(Tracker!F48="interviewing", 0.4, IF(Tracker!F48="rejected", 0.3, IF(Tracker!F48="offer", 1, 0))))</f>
+        <v>79.5</v>
+      </c>
+      <c r="E48" s="10">
+        <f>IF(OR(Tracker!F48="denied",Tracker!F48="on hold",Tracker!F48="No Response",Tracker!F48="pending",Tracker!F72="ghosted"), 0.2, IF(Tracker!F48="interviewing", 0.4, IF(Tracker!F48="rejected", 0.3, IF(Tracker!F48="offer", 1, 0))))</f>
         <v>0.3</v>
       </c>
-      <c r="F48" s="12">
+      <c r="F48" s="11">
         <f>IF(OR(Tracker!I48="linkedin", Tracker!I48="Indeed", Tracker!I48="linkedin dm"), 0.9, IF(Tracker!I48="Company Site", 1.1, 1))</f>
         <v>1</v>
       </c>
-      <c r="G48" s="12">
+      <c r="G48" s="11">
         <f>IF(OR(Tracker!D48="analyst", Tracker!D48="project manager", Tracker!D48="consultant"), 1.1, IF(Tracker!D48="Product Manager", 0.9, 1))</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H48" s="11">
+      <c r="H48" s="10">
         <v>0.95</v>
       </c>
-      <c r="I48" s="12">
+      <c r="I48" s="11">
         <f>10-(0.5*Tracker!J48)</f>
         <v>10</v>
       </c>
       <c r="J48">
-        <f t="shared" ca="1" si="5"/>
-        <v>-6.6600000000000215E-2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.20767500000000005</v>
       </c>
       <c r="K48">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.63339999999999996</v>
-      </c>
-      <c r="M48" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N48">
-        <f t="shared" ca="1" si="8"/>
-        <v>-6.6600000000000215E-2</v>
-      </c>
-      <c r="O48">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.63339999999999996</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.49232500000000012</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" t="str">
         <f>Tracker!A49</f>
         <v>Company 48</v>
@@ -7113,49 +7063,37 @@
       </c>
       <c r="D49">
         <f ca="1">(Tracker!G49+Tracker!H49)/2</f>
-        <v>93</v>
-      </c>
-      <c r="E49" s="11">
-        <f>IF(OR(Tracker!F49="denied",Tracker!F49="on hold",Tracker!F49="No Response",Tracker!F49="pending"), 0.2, IF(Tracker!F49="interviewing", 0.4, IF(Tracker!F49="rejected", 0.3, IF(Tracker!F49="offer", 1, 0))))</f>
+        <v>113.5</v>
+      </c>
+      <c r="E49" s="10">
+        <f>IF(OR(Tracker!F49="denied",Tracker!F49="on hold",Tracker!F49="No Response",Tracker!F49="pending",Tracker!F73="ghosted"), 0.2, IF(Tracker!F49="interviewing", 0.4, IF(Tracker!F49="rejected", 0.3, IF(Tracker!F49="offer", 1, 0))))</f>
         <v>0.2</v>
       </c>
-      <c r="F49" s="12">
+      <c r="F49" s="11">
         <f>IF(OR(Tracker!I49="linkedin", Tracker!I49="Indeed", Tracker!I49="linkedin dm"), 0.9, IF(Tracker!I49="Company Site", 1.1, 1))</f>
         <v>1</v>
       </c>
-      <c r="G49" s="12">
+      <c r="G49" s="11">
         <f>IF(OR(Tracker!D49="analyst", Tracker!D49="project manager", Tracker!D49="consultant"), 1.1, IF(Tracker!D49="Product Manager", 0.9, 1))</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H49" s="11">
+      <c r="H49" s="10">
         <v>0.95</v>
       </c>
-      <c r="I49" s="12">
+      <c r="I49" s="11">
         <f>10-(0.5*Tracker!J49)</f>
         <v>10</v>
       </c>
       <c r="J49">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.21554999999999991</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.85822499999999913</v>
       </c>
       <c r="K49">
-        <f t="shared" ca="1" si="6"/>
-        <v>-5.6299999999999573E-2</v>
-      </c>
-      <c r="M49" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N49">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.21554999999999991</v>
-      </c>
-      <c r="O49">
-        <f t="shared" ca="1" si="9"/>
-        <v>-5.6299999999999573E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.37215000000000042</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" t="str">
         <f>Tracker!A50</f>
         <v>Company 49</v>
@@ -7170,49 +7108,37 @@
       </c>
       <c r="D50">
         <f ca="1">(Tracker!G50+Tracker!H50)/2</f>
-        <v>108.5</v>
-      </c>
-      <c r="E50" s="11">
-        <f>IF(OR(Tracker!F50="denied",Tracker!F50="on hold",Tracker!F50="No Response",Tracker!F50="pending"), 0.2, IF(Tracker!F50="interviewing", 0.4, IF(Tracker!F50="rejected", 0.3, IF(Tracker!F50="offer", 1, 0))))</f>
+        <v>97.5</v>
+      </c>
+      <c r="E50" s="10">
+        <f>IF(OR(Tracker!F50="denied",Tracker!F50="on hold",Tracker!F50="No Response",Tracker!F50="pending",Tracker!F74="ghosted"), 0.2, IF(Tracker!F50="interviewing", 0.4, IF(Tracker!F50="rejected", 0.3, IF(Tracker!F50="offer", 1, 0))))</f>
         <v>0.3</v>
       </c>
-      <c r="F50" s="12">
+      <c r="F50" s="11">
         <f>IF(OR(Tracker!I50="linkedin", Tracker!I50="Indeed", Tracker!I50="linkedin dm"), 0.9, IF(Tracker!I50="Company Site", 1.1, 1))</f>
         <v>1</v>
       </c>
-      <c r="G50" s="12">
+      <c r="G50" s="11">
         <f>IF(OR(Tracker!D50="analyst", Tracker!D50="project manager", Tracker!D50="consultant"), 1.1, IF(Tracker!D50="Product Manager", 0.9, 1))</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H50" s="11">
+      <c r="H50" s="10">
         <v>0.95</v>
       </c>
-      <c r="I50" s="12">
+      <c r="I50" s="11">
         <f>10-(0.5*Tracker!J50)</f>
         <v>10</v>
       </c>
       <c r="J50">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.70147499999999985</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.35662500000000019</v>
       </c>
       <c r="K50">
-        <f t="shared" ca="1" si="6"/>
-        <v>1.401475</v>
-      </c>
-      <c r="M50" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N50">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.70147499999999985</v>
-      </c>
-      <c r="O50">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.401475</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0566250000000004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" t="str">
         <f>Tracker!A51</f>
         <v>Company 50</v>
@@ -7227,49 +7153,37 @@
       </c>
       <c r="D51">
         <f ca="1">(Tracker!G51+Tracker!H51)/2</f>
-        <v>88</v>
-      </c>
-      <c r="E51" s="11">
-        <f>IF(OR(Tracker!F51="denied",Tracker!F51="on hold",Tracker!F51="No Response",Tracker!F51="pending"), 0.2, IF(Tracker!F51="interviewing", 0.4, IF(Tracker!F51="rejected", 0.3, IF(Tracker!F51="offer", 1, 0))))</f>
+        <v>84.5</v>
+      </c>
+      <c r="E51" s="10">
+        <f>IF(OR(Tracker!F51="denied",Tracker!F51="on hold",Tracker!F51="No Response",Tracker!F51="pending",Tracker!F75="ghosted"), 0.2, IF(Tracker!F51="interviewing", 0.4, IF(Tracker!F51="rejected", 0.3, IF(Tracker!F51="offer", 1, 0))))</f>
         <v>0.2</v>
       </c>
-      <c r="F51" s="12">
+      <c r="F51" s="11">
         <f>IF(OR(Tracker!I51="linkedin", Tracker!I51="Indeed", Tracker!I51="linkedin dm"), 0.9, IF(Tracker!I51="Company Site", 1.1, 1))</f>
         <v>1</v>
       </c>
-      <c r="G51" s="12">
+      <c r="G51" s="11">
         <f>IF(OR(Tracker!D51="analyst", Tracker!D51="project manager", Tracker!D51="consultant"), 1.1, IF(Tracker!D51="Product Manager", 0.9, 1))</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H51" s="11">
+      <c r="H51" s="10">
         <v>0.95</v>
       </c>
-      <c r="I51" s="12">
+      <c r="I51" s="11">
         <f>10-(0.5*Tracker!J51)</f>
         <v>10</v>
       </c>
       <c r="J51">
-        <f t="shared" ca="1" si="5"/>
-        <v>5.8799999999999741E-2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-5.0924999999999887E-2</v>
       </c>
       <c r="K51">
-        <f t="shared" ca="1" si="6"/>
-        <v>-0.16079999999999961</v>
-      </c>
-      <c r="M51" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N51">
-        <f t="shared" ca="1" si="8"/>
-        <v>5.8799999999999741E-2</v>
-      </c>
-      <c r="O51">
-        <f t="shared" ca="1" si="9"/>
-        <v>-0.16079999999999961</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.23394999999999966</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" t="str">
         <f>Tracker!A52</f>
         <v>Company 51</v>
@@ -7284,49 +7198,37 @@
       </c>
       <c r="D52">
         <f ca="1">(Tracker!G52+Tracker!H52)/2</f>
-        <v>106</v>
-      </c>
-      <c r="E52" s="11">
-        <f>IF(OR(Tracker!F52="denied",Tracker!F52="on hold",Tracker!F52="No Response",Tracker!F52="pending"), 0.2, IF(Tracker!F52="interviewing", 0.4, IF(Tracker!F52="rejected", 0.3, IF(Tracker!F52="offer", 1, 0))))</f>
+        <v>110.5</v>
+      </c>
+      <c r="E52" s="10">
+        <f>IF(OR(Tracker!F52="denied",Tracker!F52="on hold",Tracker!F52="No Response",Tracker!F52="pending",Tracker!F76="ghosted"), 0.2, IF(Tracker!F52="interviewing", 0.4, IF(Tracker!F52="rejected", 0.3, IF(Tracker!F52="offer", 1, 0))))</f>
         <v>0.3</v>
       </c>
-      <c r="F52" s="12">
+      <c r="F52" s="11">
         <f>IF(OR(Tracker!I52="linkedin", Tracker!I52="Indeed", Tracker!I52="linkedin dm"), 0.9, IF(Tracker!I52="Company Site", 1.1, 1))</f>
         <v>1</v>
       </c>
-      <c r="G52" s="12">
+      <c r="G52" s="11">
         <f>IF(OR(Tracker!D52="analyst", Tracker!D52="project manager", Tracker!D52="consultant"), 1.1, IF(Tracker!D52="Product Manager", 0.9, 1))</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H52" s="11">
+      <c r="H52" s="10">
         <v>0.95</v>
       </c>
-      <c r="I52" s="12">
+      <c r="I52" s="11">
         <f>10-(0.5*Tracker!J52)</f>
         <v>10</v>
       </c>
       <c r="J52">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.6230999999999991</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.76417499999999983</v>
       </c>
       <c r="K52">
-        <f t="shared" ca="1" si="6"/>
-        <v>1.3230999999999993</v>
-      </c>
-      <c r="M52" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N52">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.6230999999999991</v>
-      </c>
-      <c r="O52">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.3230999999999993</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.464175</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" t="str">
         <f>Tracker!A53</f>
         <v>Company 52</v>
@@ -7341,49 +7243,37 @@
       </c>
       <c r="D53">
         <f ca="1">(Tracker!G53+Tracker!H53)/2</f>
-        <v>115</v>
-      </c>
-      <c r="E53" s="11">
-        <f>IF(OR(Tracker!F53="denied",Tracker!F53="on hold",Tracker!F53="No Response",Tracker!F53="pending"), 0.2, IF(Tracker!F53="interviewing", 0.4, IF(Tracker!F53="rejected", 0.3, IF(Tracker!F53="offer", 1, 0))))</f>
+        <v>98</v>
+      </c>
+      <c r="E53" s="10">
+        <f>IF(OR(Tracker!F53="denied",Tracker!F53="on hold",Tracker!F53="No Response",Tracker!F53="pending",Tracker!F77="ghosted"), 0.2, IF(Tracker!F53="interviewing", 0.4, IF(Tracker!F53="rejected", 0.3, IF(Tracker!F53="offer", 1, 0))))</f>
         <v>0.4</v>
       </c>
-      <c r="F53" s="12">
+      <c r="F53" s="11">
         <f>IF(OR(Tracker!I53="linkedin", Tracker!I53="Indeed", Tracker!I53="linkedin dm"), 0.9, IF(Tracker!I53="Company Site", 1.1, 1))</f>
         <v>1</v>
       </c>
-      <c r="G53" s="12">
+      <c r="G53" s="11">
         <f>IF(OR(Tracker!D53="analyst", Tracker!D53="project manager", Tracker!D53="consultant"), 1.1, IF(Tracker!D53="Product Manager", 0.9, 1))</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H53" s="11">
+      <c r="H53" s="10">
         <v>0.95</v>
       </c>
-      <c r="I53" s="12">
+      <c r="I53" s="11">
         <f>10-(0.5*Tracker!J53)</f>
         <v>10</v>
       </c>
       <c r="J53">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.90525000000000011</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.37230000000000008</v>
       </c>
       <c r="K53">
-        <f t="shared" ca="1" si="6"/>
-        <v>2.8070000000000004</v>
-      </c>
-      <c r="M53" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N53">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.90525000000000011</v>
-      </c>
-      <c r="O53">
-        <f t="shared" ca="1" si="9"/>
-        <v>2.8070000000000004</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.0964000000000009</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" t="str">
         <f>Tracker!A54</f>
         <v>Company 53</v>
@@ -7398,49 +7288,37 @@
       </c>
       <c r="D54">
         <f ca="1">(Tracker!G54+Tracker!H54)/2</f>
-        <v>116.5</v>
-      </c>
-      <c r="E54" s="11">
-        <f>IF(OR(Tracker!F54="denied",Tracker!F54="on hold",Tracker!F54="No Response",Tracker!F54="pending"), 0.2, IF(Tracker!F54="interviewing", 0.4, IF(Tracker!F54="rejected", 0.3, IF(Tracker!F54="offer", 1, 0))))</f>
+        <v>87.5</v>
+      </c>
+      <c r="E54" s="10">
+        <f>IF(OR(Tracker!F54="denied",Tracker!F54="on hold",Tracker!F54="No Response",Tracker!F54="pending",Tracker!F78="ghosted"), 0.2, IF(Tracker!F54="interviewing", 0.4, IF(Tracker!F54="rejected", 0.3, IF(Tracker!F54="offer", 1, 0))))</f>
         <v>0.3</v>
       </c>
-      <c r="F54" s="12">
+      <c r="F54" s="11">
         <f>IF(OR(Tracker!I54="linkedin", Tracker!I54="Indeed", Tracker!I54="linkedin dm"), 0.9, IF(Tracker!I54="Company Site", 1.1, 1))</f>
         <v>1</v>
       </c>
-      <c r="G54" s="12">
+      <c r="G54" s="11">
         <f>IF(OR(Tracker!D54="analyst", Tracker!D54="project manager", Tracker!D54="consultant"), 1.1, IF(Tracker!D54="Product Manager", 0.9, 1))</f>
         <v>1</v>
       </c>
-      <c r="H54" s="11">
+      <c r="H54" s="10">
         <v>0.95</v>
       </c>
-      <c r="I54" s="12">
+      <c r="I54" s="11">
         <f>10-(0.5*Tracker!J54)</f>
         <v>7.5</v>
       </c>
       <c r="J54">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.62024999999999908</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.20625000000000027</v>
       </c>
       <c r="K54">
-        <f t="shared" ca="1" si="6"/>
-        <v>2.4269999999999987</v>
-      </c>
-      <c r="M54" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N54">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.62024999999999908</v>
-      </c>
-      <c r="O54">
-        <f t="shared" ca="1" si="9"/>
-        <v>2.4269999999999987</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.3250000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" t="str">
         <f>Tracker!A55</f>
         <v>Company 54</v>
@@ -7455,49 +7333,37 @@
       </c>
       <c r="D55">
         <f ca="1">(Tracker!G55+Tracker!H55)/2</f>
-        <v>89.5</v>
-      </c>
-      <c r="E55" s="11">
-        <f>IF(OR(Tracker!F55="denied",Tracker!F55="on hold",Tracker!F55="No Response",Tracker!F55="pending"), 0.2, IF(Tracker!F55="interviewing", 0.4, IF(Tracker!F55="rejected", 0.3, IF(Tracker!F55="offer", 1, 0))))</f>
+        <v>94.5</v>
+      </c>
+      <c r="E55" s="10">
+        <f>IF(OR(Tracker!F55="denied",Tracker!F55="on hold",Tracker!F55="No Response",Tracker!F55="pending",Tracker!F79="ghosted"), 0.2, IF(Tracker!F55="interviewing", 0.4, IF(Tracker!F55="rejected", 0.3, IF(Tracker!F55="offer", 1, 0))))</f>
         <v>0.3</v>
       </c>
-      <c r="F55" s="12">
+      <c r="F55" s="11">
         <f>IF(OR(Tracker!I55="linkedin", Tracker!I55="Indeed", Tracker!I55="linkedin dm"), 0.9, IF(Tracker!I55="Company Site", 1.1, 1))</f>
         <v>1</v>
       </c>
-      <c r="G55" s="12">
+      <c r="G55" s="11">
         <f>IF(OR(Tracker!D55="analyst", Tracker!D55="project manager", Tracker!D55="consultant"), 1.1, IF(Tracker!D55="Product Manager", 0.9, 1))</f>
         <v>1</v>
       </c>
-      <c r="H55" s="11">
+      <c r="H55" s="10">
         <v>0.95</v>
       </c>
-      <c r="I55" s="12">
+      <c r="I55" s="11">
         <f>10-(0.5*Tracker!J55)</f>
         <v>10</v>
       </c>
       <c r="J55">
-        <f t="shared" ca="1" si="5"/>
-        <v>-0.14925000000000033</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-6.7500000000002558E-3</v>
       </c>
       <c r="K55">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.55074999999999985</v>
-      </c>
-      <c r="M55" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N55">
-        <f t="shared" ca="1" si="8"/>
-        <v>-0.14925000000000033</v>
-      </c>
-      <c r="O55">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.55074999999999985</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.69324999999999992</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" t="str">
         <f>Tracker!A56</f>
         <v>Company 55</v>
@@ -7512,49 +7378,37 @@
       </c>
       <c r="D56">
         <f ca="1">(Tracker!G56+Tracker!H56)/2</f>
-        <v>92.5</v>
-      </c>
-      <c r="E56" s="11">
-        <f>IF(OR(Tracker!F56="denied",Tracker!F56="on hold",Tracker!F56="No Response",Tracker!F56="pending"), 0.2, IF(Tracker!F56="interviewing", 0.4, IF(Tracker!F56="rejected", 0.3, IF(Tracker!F56="offer", 1, 0))))</f>
+        <v>90</v>
+      </c>
+      <c r="E56" s="10">
+        <f>IF(OR(Tracker!F56="denied",Tracker!F56="on hold",Tracker!F56="No Response",Tracker!F56="pending",Tracker!F80="ghosted"), 0.2, IF(Tracker!F56="interviewing", 0.4, IF(Tracker!F56="rejected", 0.3, IF(Tracker!F56="offer", 1, 0))))</f>
         <v>0.2</v>
       </c>
-      <c r="F56" s="12">
+      <c r="F56" s="11">
         <f>IF(OR(Tracker!I56="linkedin", Tracker!I56="Indeed", Tracker!I56="linkedin dm"), 0.9, IF(Tracker!I56="Company Site", 1.1, 1))</f>
         <v>1</v>
       </c>
-      <c r="G56" s="12">
+      <c r="G56" s="11">
         <f>IF(OR(Tracker!D56="analyst", Tracker!D56="project manager", Tracker!D56="consultant"), 1.1, IF(Tracker!D56="Product Manager", 0.9, 1))</f>
         <v>1</v>
       </c>
-      <c r="H56" s="11">
+      <c r="H56" s="10">
         <v>0.95</v>
       </c>
-      <c r="I56" s="12">
+      <c r="I56" s="11">
         <f>10-(0.5*Tracker!J56)</f>
         <v>10</v>
       </c>
       <c r="J56">
-        <f t="shared" ca="1" si="5"/>
-        <v>-6.3750000000000639E-2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.13500000000000023</v>
       </c>
       <c r="K56">
-        <f t="shared" ca="1" si="6"/>
-        <v>-0.24250000000000016</v>
-      </c>
-      <c r="M56" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N56">
-        <f t="shared" ca="1" si="8"/>
-        <v>-6.3750000000000639E-2</v>
-      </c>
-      <c r="O56">
-        <f t="shared" ca="1" si="9"/>
-        <v>-0.24250000000000016</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.29000000000000026</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" t="str">
         <f>Tracker!A57</f>
         <v>Company 56</v>
@@ -7569,49 +7423,37 @@
       </c>
       <c r="D57">
         <f ca="1">(Tracker!G57+Tracker!H57)/2</f>
-        <v>92.5</v>
-      </c>
-      <c r="E57" s="11">
-        <f>IF(OR(Tracker!F57="denied",Tracker!F57="on hold",Tracker!F57="No Response",Tracker!F57="pending"), 0.2, IF(Tracker!F57="interviewing", 0.4, IF(Tracker!F57="rejected", 0.3, IF(Tracker!F57="offer", 1, 0))))</f>
+        <v>92</v>
+      </c>
+      <c r="E57" s="10">
+        <f>IF(OR(Tracker!F57="denied",Tracker!F57="on hold",Tracker!F57="No Response",Tracker!F57="pending",Tracker!F81="ghosted"), 0.2, IF(Tracker!F57="interviewing", 0.4, IF(Tracker!F57="rejected", 0.3, IF(Tracker!F57="offer", 1, 0))))</f>
         <v>0.2</v>
       </c>
-      <c r="F57" s="12">
+      <c r="F57" s="11">
         <f>IF(OR(Tracker!I57="linkedin", Tracker!I57="Indeed", Tracker!I57="linkedin dm"), 0.9, IF(Tracker!I57="Company Site", 1.1, 1))</f>
         <v>1</v>
       </c>
-      <c r="G57" s="12">
+      <c r="G57" s="11">
         <f>IF(OR(Tracker!D57="analyst", Tracker!D57="project manager", Tracker!D57="consultant"), 1.1, IF(Tracker!D57="Product Manager", 0.9, 1))</f>
         <v>1</v>
       </c>
-      <c r="H57" s="11">
+      <c r="H57" s="10">
         <v>0.95</v>
       </c>
-      <c r="I57" s="12">
+      <c r="I57" s="11">
         <f>10-(0.5*Tracker!J57)</f>
         <v>10</v>
       </c>
       <c r="J57">
-        <f t="shared" ca="1" si="5"/>
-        <v>-6.3750000000000639E-2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-7.8000000000000735E-2</v>
       </c>
       <c r="K57">
-        <f t="shared" ca="1" si="6"/>
-        <v>-0.24250000000000016</v>
-      </c>
-      <c r="M57" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N57">
-        <f t="shared" ca="1" si="8"/>
-        <v>-6.3750000000000639E-2</v>
-      </c>
-      <c r="O57">
-        <f t="shared" ca="1" si="9"/>
-        <v>-0.24250000000000016</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.252</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" t="str">
         <f>Tracker!A58</f>
         <v>Company 57</v>
@@ -7626,49 +7468,37 @@
       </c>
       <c r="D58">
         <f ca="1">(Tracker!G58+Tracker!H58)/2</f>
-        <v>96</v>
-      </c>
-      <c r="E58" s="11">
-        <f>IF(OR(Tracker!F58="denied",Tracker!F58="on hold",Tracker!F58="No Response",Tracker!F58="pending"), 0.2, IF(Tracker!F58="interviewing", 0.4, IF(Tracker!F58="rejected", 0.3, IF(Tracker!F58="offer", 1, 0))))</f>
+        <v>86</v>
+      </c>
+      <c r="E58" s="10">
+        <f>IF(OR(Tracker!F58="denied",Tracker!F58="on hold",Tracker!F58="No Response",Tracker!F58="pending",Tracker!F82="ghosted"), 0.2, IF(Tracker!F58="interviewing", 0.4, IF(Tracker!F58="rejected", 0.3, IF(Tracker!F58="offer", 1, 0))))</f>
         <v>0.2</v>
       </c>
-      <c r="F58" s="12">
+      <c r="F58" s="11">
         <f>IF(OR(Tracker!I58="linkedin", Tracker!I58="Indeed", Tracker!I58="linkedin dm"), 0.9, IF(Tracker!I58="Company Site", 1.1, 1))</f>
         <v>1</v>
       </c>
-      <c r="G58" s="12">
+      <c r="G58" s="11">
         <f>IF(OR(Tracker!D58="analyst", Tracker!D58="project manager", Tracker!D58="consultant"), 1.1, IF(Tracker!D58="Product Manager", 0.9, 1))</f>
         <v>1</v>
       </c>
-      <c r="H58" s="11">
+      <c r="H58" s="10">
         <v>0.95</v>
       </c>
-      <c r="I58" s="12">
+      <c r="I58" s="11">
         <f>10-(0.5*Tracker!J58)</f>
         <v>10</v>
       </c>
       <c r="J58">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.5999999999999588E-2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.24900000000000055</v>
       </c>
       <c r="K58">
-        <f t="shared" ca="1" si="6"/>
-        <v>-0.17599999999999971</v>
-      </c>
-      <c r="M58" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N58">
-        <f t="shared" ca="1" si="8"/>
-        <v>3.5999999999999588E-2</v>
-      </c>
-      <c r="O58">
-        <f t="shared" ca="1" si="9"/>
-        <v>-0.17599999999999971</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.3660000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" t="str">
         <f>Tracker!A59</f>
         <v>Company 58</v>
@@ -7683,49 +7513,37 @@
       </c>
       <c r="D59">
         <f ca="1">(Tracker!G59+Tracker!H59)/2</f>
-        <v>95.5</v>
-      </c>
-      <c r="E59" s="11">
-        <f>IF(OR(Tracker!F59="denied",Tracker!F59="on hold",Tracker!F59="No Response",Tracker!F59="pending"), 0.2, IF(Tracker!F59="interviewing", 0.4, IF(Tracker!F59="rejected", 0.3, IF(Tracker!F59="offer", 1, 0))))</f>
+        <v>110</v>
+      </c>
+      <c r="E59" s="10">
+        <f>IF(OR(Tracker!F59="denied",Tracker!F59="on hold",Tracker!F59="No Response",Tracker!F59="pending",Tracker!F83="ghosted"), 0.2, IF(Tracker!F59="interviewing", 0.4, IF(Tracker!F59="rejected", 0.3, IF(Tracker!F59="offer", 1, 0))))</f>
         <v>0.2</v>
       </c>
-      <c r="F59" s="12">
+      <c r="F59" s="11">
         <f>IF(OR(Tracker!I59="linkedin", Tracker!I59="Indeed", Tracker!I59="linkedin dm"), 0.9, IF(Tracker!I59="Company Site", 1.1, 1))</f>
         <v>1</v>
       </c>
-      <c r="G59" s="12">
+      <c r="G59" s="11">
         <f>IF(OR(Tracker!D59="analyst", Tracker!D59="project manager", Tracker!D59="consultant"), 1.1, IF(Tracker!D59="Product Manager", 0.9, 1))</f>
         <v>1</v>
       </c>
-      <c r="H59" s="11">
+      <c r="H59" s="10">
         <v>0.95</v>
       </c>
-      <c r="I59" s="12">
+      <c r="I59" s="11">
         <f>10-(0.5*Tracker!J59)</f>
         <v>10</v>
       </c>
       <c r="J59">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.1749999999999492E-2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.43499999999999961</v>
       </c>
       <c r="K59">
-        <f t="shared" ca="1" si="6"/>
-        <v>-0.1855</v>
-      </c>
-      <c r="M59" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N59">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.1749999999999492E-2</v>
-      </c>
-      <c r="O59">
-        <f t="shared" ca="1" si="9"/>
-        <v>-0.1855</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.9999999999999858E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" t="str">
         <f>Tracker!A60</f>
         <v>Company 59</v>
@@ -7740,49 +7558,37 @@
       </c>
       <c r="D60">
         <f ca="1">(Tracker!G60+Tracker!H60)/2</f>
-        <v>112.5</v>
-      </c>
-      <c r="E60" s="11">
-        <f>IF(OR(Tracker!F60="denied",Tracker!F60="on hold",Tracker!F60="No Response",Tracker!F60="pending"), 0.2, IF(Tracker!F60="interviewing", 0.4, IF(Tracker!F60="rejected", 0.3, IF(Tracker!F60="offer", 1, 0))))</f>
+        <v>108</v>
+      </c>
+      <c r="E60" s="10">
+        <f>IF(OR(Tracker!F60="denied",Tracker!F60="on hold",Tracker!F60="No Response",Tracker!F60="pending",Tracker!F84="ghosted"), 0.2, IF(Tracker!F60="interviewing", 0.4, IF(Tracker!F60="rejected", 0.3, IF(Tracker!F60="offer", 1, 0))))</f>
         <v>0.2</v>
       </c>
-      <c r="F60" s="12">
+      <c r="F60" s="11">
         <f>IF(OR(Tracker!I60="linkedin", Tracker!I60="Indeed", Tracker!I60="linkedin dm"), 0.9, IF(Tracker!I60="Company Site", 1.1, 1))</f>
         <v>1</v>
       </c>
-      <c r="G60" s="12">
+      <c r="G60" s="11">
         <f>IF(OR(Tracker!D60="analyst", Tracker!D60="project manager", Tracker!D60="consultant"), 1.1, IF(Tracker!D60="Product Manager", 0.9, 1))</f>
         <v>1</v>
       </c>
-      <c r="H60" s="11">
+      <c r="H60" s="10">
         <v>0.95</v>
       </c>
-      <c r="I60" s="12">
+      <c r="I60" s="11">
         <f>10-(0.5*Tracker!J60)</f>
         <v>10</v>
       </c>
       <c r="J60">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.50624999999999964</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.37799999999999967</v>
       </c>
       <c r="K60">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.13750000000000018</v>
-      </c>
-      <c r="M60" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N60">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.50624999999999964</v>
-      </c>
-      <c r="O60">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.13750000000000018</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.2000000000000046E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" t="str">
         <f>Tracker!A61</f>
         <v>Company 60</v>
@@ -7797,49 +7603,37 @@
       </c>
       <c r="D61">
         <f ca="1">(Tracker!G61+Tracker!H61)/2</f>
-        <v>95</v>
-      </c>
-      <c r="E61" s="11">
-        <f>IF(OR(Tracker!F61="denied",Tracker!F61="on hold",Tracker!F61="No Response",Tracker!F61="pending"), 0.2, IF(Tracker!F61="interviewing", 0.4, IF(Tracker!F61="rejected", 0.3, IF(Tracker!F61="offer", 1, 0))))</f>
+        <v>96.5</v>
+      </c>
+      <c r="E61" s="10">
+        <f>IF(OR(Tracker!F61="denied",Tracker!F61="on hold",Tracker!F61="No Response",Tracker!F61="pending",Tracker!F85="ghosted"), 0.2, IF(Tracker!F61="interviewing", 0.4, IF(Tracker!F61="rejected", 0.3, IF(Tracker!F61="offer", 1, 0))))</f>
         <v>0.2</v>
       </c>
-      <c r="F61" s="12">
+      <c r="F61" s="11">
         <f>IF(OR(Tracker!I61="linkedin", Tracker!I61="Indeed", Tracker!I61="linkedin dm"), 0.9, IF(Tracker!I61="Company Site", 1.1, 1))</f>
         <v>1</v>
       </c>
-      <c r="G61" s="12">
+      <c r="G61" s="11">
         <f>IF(OR(Tracker!D61="analyst", Tracker!D61="project manager", Tracker!D61="consultant"), 1.1, IF(Tracker!D61="Product Manager", 0.9, 1))</f>
         <v>1</v>
       </c>
-      <c r="H61" s="11">
+      <c r="H61" s="10">
         <v>0.95</v>
       </c>
-      <c r="I61" s="12">
+      <c r="I61" s="11">
         <f>10-(0.5*Tracker!J61)</f>
         <v>10</v>
       </c>
       <c r="J61">
-        <f t="shared" ca="1" si="5"/>
-        <v>7.4999999999998401E-3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5.0249999999999684E-2</v>
       </c>
       <c r="K61">
-        <f t="shared" ca="1" si="6"/>
-        <v>-0.19499999999999984</v>
-      </c>
-      <c r="M61" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N61">
-        <f t="shared" ca="1" si="8"/>
-        <v>7.4999999999998401E-3</v>
-      </c>
-      <c r="O61">
-        <f t="shared" ca="1" si="9"/>
-        <v>-0.19499999999999984</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.16649999999999987</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" t="str">
         <f>Tracker!A62</f>
         <v>Company 61</v>
@@ -7854,49 +7648,37 @@
       </c>
       <c r="D62">
         <f ca="1">(Tracker!G62+Tracker!H62)/2</f>
-        <v>102.5</v>
-      </c>
-      <c r="E62" s="11">
-        <f>IF(OR(Tracker!F62="denied",Tracker!F62="on hold",Tracker!F62="No Response",Tracker!F62="pending"), 0.2, IF(Tracker!F62="interviewing", 0.4, IF(Tracker!F62="rejected", 0.3, IF(Tracker!F62="offer", 1, 0))))</f>
+        <v>85.5</v>
+      </c>
+      <c r="E62" s="10">
+        <f>IF(OR(Tracker!F62="denied",Tracker!F62="on hold",Tracker!F62="No Response",Tracker!F62="pending",Tracker!F86="ghosted"), 0.2, IF(Tracker!F62="interviewing", 0.4, IF(Tracker!F62="rejected", 0.3, IF(Tracker!F62="offer", 1, 0))))</f>
         <v>0.3</v>
       </c>
-      <c r="F62" s="12">
+      <c r="F62" s="11">
         <f>IF(OR(Tracker!I62="linkedin", Tracker!I62="Indeed", Tracker!I62="linkedin dm"), 0.9, IF(Tracker!I62="Company Site", 1.1, 1))</f>
         <v>1</v>
       </c>
-      <c r="G62" s="12">
+      <c r="G62" s="11">
         <f>IF(OR(Tracker!D62="analyst", Tracker!D62="project manager", Tracker!D62="consultant"), 1.1, IF(Tracker!D62="Product Manager", 0.9, 1))</f>
         <v>1</v>
       </c>
-      <c r="H62" s="11">
+      <c r="H62" s="10">
         <v>0.95</v>
       </c>
-      <c r="I62" s="12">
+      <c r="I62" s="11">
         <f>10-(0.5*Tracker!J62)</f>
         <v>10</v>
       </c>
       <c r="J62">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.2212499999999995</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.26325000000000065</v>
       </c>
       <c r="K62">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.92124999999999968</v>
-      </c>
-      <c r="M62" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N62">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.2212499999999995</v>
-      </c>
-      <c r="O62">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.92124999999999968</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.43674999999999953</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" t="str">
         <f>Tracker!A63</f>
         <v>Company 62</v>
@@ -7911,49 +7693,37 @@
       </c>
       <c r="D63">
         <f ca="1">(Tracker!G63+Tracker!H63)/2</f>
-        <v>104</v>
-      </c>
-      <c r="E63" s="11">
-        <f>IF(OR(Tracker!F63="denied",Tracker!F63="on hold",Tracker!F63="No Response",Tracker!F63="pending"), 0.2, IF(Tracker!F63="interviewing", 0.4, IF(Tracker!F63="rejected", 0.3, IF(Tracker!F63="offer", 1, 0))))</f>
+        <v>119</v>
+      </c>
+      <c r="E63" s="10">
+        <f>IF(OR(Tracker!F63="denied",Tracker!F63="on hold",Tracker!F63="No Response",Tracker!F63="pending",Tracker!F87="ghosted"), 0.2, IF(Tracker!F63="interviewing", 0.4, IF(Tracker!F63="rejected", 0.3, IF(Tracker!F63="offer", 1, 0))))</f>
         <v>0.2</v>
       </c>
-      <c r="F63" s="12">
+      <c r="F63" s="11">
         <f>IF(OR(Tracker!I63="linkedin", Tracker!I63="Indeed", Tracker!I63="linkedin dm"), 0.9, IF(Tracker!I63="Company Site", 1.1, 1))</f>
         <v>1</v>
       </c>
-      <c r="G63" s="12">
+      <c r="G63" s="11">
         <f>IF(OR(Tracker!D63="analyst", Tracker!D63="project manager", Tracker!D63="consultant"), 1.1, IF(Tracker!D63="Product Manager", 0.9, 1))</f>
         <v>1</v>
       </c>
-      <c r="H63" s="11">
+      <c r="H63" s="10">
         <v>0.95</v>
       </c>
-      <c r="I63" s="12">
+      <c r="I63" s="11">
         <f>10-(0.5*Tracker!J63)</f>
         <v>10</v>
       </c>
       <c r="J63">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.26399999999999935</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.69149999999999912</v>
       </c>
       <c r="K63">
-        <f t="shared" ca="1" si="6"/>
-        <v>-2.4000000000000243E-2</v>
-      </c>
-      <c r="M63" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N63">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.26399999999999935</v>
-      </c>
-      <c r="O63">
-        <f t="shared" ca="1" si="9"/>
-        <v>-2.4000000000000243E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.26100000000000012</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" t="str">
         <f>Tracker!A64</f>
         <v>Company 63</v>
@@ -7968,49 +7738,37 @@
       </c>
       <c r="D64">
         <f ca="1">(Tracker!G64+Tracker!H64)/2</f>
-        <v>103</v>
-      </c>
-      <c r="E64" s="11">
-        <f>IF(OR(Tracker!F64="denied",Tracker!F64="on hold",Tracker!F64="No Response",Tracker!F64="pending"), 0.2, IF(Tracker!F64="interviewing", 0.4, IF(Tracker!F64="rejected", 0.3, IF(Tracker!F64="offer", 1, 0))))</f>
+        <v>92</v>
+      </c>
+      <c r="E64" s="10">
+        <f>IF(OR(Tracker!F64="denied",Tracker!F64="on hold",Tracker!F64="No Response",Tracker!F64="pending",Tracker!F88="ghosted"), 0.2, IF(Tracker!F64="interviewing", 0.4, IF(Tracker!F64="rejected", 0.3, IF(Tracker!F64="offer", 1, 0))))</f>
         <v>0.2</v>
       </c>
-      <c r="F64" s="12">
+      <c r="F64" s="11">
         <f>IF(OR(Tracker!I64="linkedin", Tracker!I64="Indeed", Tracker!I64="linkedin dm"), 0.9, IF(Tracker!I64="Company Site", 1.1, 1))</f>
         <v>1</v>
       </c>
-      <c r="G64" s="12">
+      <c r="G64" s="11">
         <f>IF(OR(Tracker!D64="analyst", Tracker!D64="project manager", Tracker!D64="consultant"), 1.1, IF(Tracker!D64="Product Manager", 0.9, 1))</f>
         <v>1</v>
       </c>
-      <c r="H64" s="11">
+      <c r="H64" s="10">
         <v>0.95</v>
       </c>
-      <c r="I64" s="12">
+      <c r="I64" s="11">
         <f>10-(0.5*Tracker!J64)</f>
         <v>10</v>
       </c>
       <c r="J64">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.2354999999999996</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-7.8000000000000735E-2</v>
       </c>
       <c r="K64">
-        <f t="shared" ca="1" si="6"/>
-        <v>-4.2999999999999927E-2</v>
-      </c>
-      <c r="M64" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N64">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.2354999999999996</v>
-      </c>
-      <c r="O64">
-        <f t="shared" ca="1" si="9"/>
-        <v>-4.2999999999999927E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.252</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" t="str">
         <f>Tracker!A65</f>
         <v>Company 64</v>
@@ -8025,49 +7783,37 @@
       </c>
       <c r="D65">
         <f ca="1">(Tracker!G65+Tracker!H65)/2</f>
-        <v>106.5</v>
-      </c>
-      <c r="E65" s="11">
-        <f>IF(OR(Tracker!F65="denied",Tracker!F65="on hold",Tracker!F65="No Response",Tracker!F65="pending"), 0.2, IF(Tracker!F65="interviewing", 0.4, IF(Tracker!F65="rejected", 0.3, IF(Tracker!F65="offer", 1, 0))))</f>
+        <v>119</v>
+      </c>
+      <c r="E65" s="10">
+        <f>IF(OR(Tracker!F65="denied",Tracker!F65="on hold",Tracker!F65="No Response",Tracker!F65="pending",Tracker!F89="ghosted"), 0.2, IF(Tracker!F65="interviewing", 0.4, IF(Tracker!F65="rejected", 0.3, IF(Tracker!F65="offer", 1, 0))))</f>
         <v>0.2</v>
       </c>
-      <c r="F65" s="12">
+      <c r="F65" s="11">
         <f>IF(OR(Tracker!I65="linkedin", Tracker!I65="Indeed", Tracker!I65="linkedin dm"), 0.9, IF(Tracker!I65="Company Site", 1.1, 1))</f>
         <v>1</v>
       </c>
-      <c r="G65" s="12">
+      <c r="G65" s="11">
         <f>IF(OR(Tracker!D65="analyst", Tracker!D65="project manager", Tracker!D65="consultant"), 1.1, IF(Tracker!D65="Product Manager", 0.9, 1))</f>
         <v>0.9</v>
       </c>
-      <c r="H65" s="11">
+      <c r="H65" s="10">
         <v>0.95</v>
       </c>
-      <c r="I65" s="12">
+      <c r="I65" s="11">
         <f>10-(0.5*Tracker!J65)</f>
         <v>10</v>
       </c>
       <c r="J65">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.1724999999999781E-2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.3523499999999995</v>
       </c>
       <c r="K65">
-        <f t="shared" ca="1" si="6"/>
-        <v>-0.17884999999999995</v>
-      </c>
-      <c r="M65" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N65">
-        <f t="shared" ca="1" si="8"/>
-        <v>3.1724999999999781E-2</v>
-      </c>
-      <c r="O65">
-        <f t="shared" ca="1" si="9"/>
-        <v>-0.17884999999999995</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.4899999999999931E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" t="str">
         <f>Tracker!A66</f>
         <v>Company 65</v>
@@ -8082,49 +7828,37 @@
       </c>
       <c r="D66">
         <f ca="1">(Tracker!G66+Tracker!H66)/2</f>
-        <v>106.5</v>
-      </c>
-      <c r="E66" s="11">
-        <f>IF(OR(Tracker!F66="denied",Tracker!F66="on hold",Tracker!F66="No Response",Tracker!F66="pending"), 0.2, IF(Tracker!F66="interviewing", 0.4, IF(Tracker!F66="rejected", 0.3, IF(Tracker!F66="offer", 1, 0))))</f>
+        <v>113</v>
+      </c>
+      <c r="E66" s="10">
+        <f>IF(OR(Tracker!F66="denied",Tracker!F66="on hold",Tracker!F66="No Response",Tracker!F66="pending",Tracker!F90="ghosted"), 0.2, IF(Tracker!F66="interviewing", 0.4, IF(Tracker!F66="rejected", 0.3, IF(Tracker!F66="offer", 1, 0))))</f>
         <v>0.2</v>
       </c>
-      <c r="F66" s="12">
+      <c r="F66" s="11">
         <f>IF(OR(Tracker!I66="linkedin", Tracker!I66="Indeed", Tracker!I66="linkedin dm"), 0.9, IF(Tracker!I66="Company Site", 1.1, 1))</f>
         <v>0.9</v>
       </c>
-      <c r="G66" s="12">
+      <c r="G66" s="11">
         <f>IF(OR(Tracker!D66="analyst", Tracker!D66="project manager", Tracker!D66="consultant"), 1.1, IF(Tracker!D66="Product Manager", 0.9, 1))</f>
         <v>0.9</v>
       </c>
-      <c r="H66" s="11">
+      <c r="H66" s="10">
         <v>0.95</v>
       </c>
-      <c r="I66" s="12">
+      <c r="I66" s="11">
         <f>10-(0.5*Tracker!J66)</f>
         <v>7</v>
       </c>
       <c r="J66">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.1724999999999781E-2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.19844999999999935</v>
       </c>
       <c r="K66">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.89071428571428601</v>
-      </c>
-      <c r="M66" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N66">
-        <f t="shared" ca="1" si="8"/>
-        <v>3.1724999999999781E-2</v>
-      </c>
-      <c r="O66">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.89071428571428601</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.0671428571428581</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" t="str">
         <f>Tracker!A67</f>
         <v>Company 66</v>
@@ -8139,49 +7873,37 @@
       </c>
       <c r="D67">
         <f ca="1">(Tracker!G67+Tracker!H67)/2</f>
-        <v>108.5</v>
-      </c>
-      <c r="E67" s="11">
-        <f>IF(OR(Tracker!F67="denied",Tracker!F67="on hold",Tracker!F67="No Response",Tracker!F67="pending"), 0.2, IF(Tracker!F67="interviewing", 0.4, IF(Tracker!F67="rejected", 0.3, IF(Tracker!F67="offer", 1, 0))))</f>
+        <v>88</v>
+      </c>
+      <c r="E67" s="10">
+        <f>IF(OR(Tracker!F67="denied",Tracker!F67="on hold",Tracker!F67="No Response",Tracker!F67="pending",Tracker!F91="ghosted"), 0.2, IF(Tracker!F67="interviewing", 0.4, IF(Tracker!F67="rejected", 0.3, IF(Tracker!F67="offer", 1, 0))))</f>
         <v>0.2</v>
       </c>
-      <c r="F67" s="12">
+      <c r="F67" s="11">
         <f>IF(OR(Tracker!I67="linkedin", Tracker!I67="Indeed", Tracker!I67="linkedin dm"), 0.9, IF(Tracker!I67="Company Site", 1.1, 1))</f>
         <v>0.9</v>
       </c>
-      <c r="G67" s="12">
+      <c r="G67" s="11">
         <f>IF(OR(Tracker!D67="analyst", Tracker!D67="project manager", Tracker!D67="consultant"), 1.1, IF(Tracker!D67="Product Manager", 0.9, 1))</f>
         <v>0.9</v>
       </c>
-      <c r="H67" s="11">
+      <c r="H67" s="10">
         <v>0.95</v>
       </c>
-      <c r="I67" s="12">
+      <c r="I67" s="11">
         <f>10-(0.5*Tracker!J67)</f>
         <v>10</v>
       </c>
       <c r="J67">
-        <f t="shared" ca="1" si="5"/>
-        <v>8.3024999999999238E-2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.44280000000000053</v>
       </c>
       <c r="K67">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.1500000000000554E-2</v>
-      </c>
-      <c r="M67" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N67">
-        <f t="shared" ca="1" si="8"/>
-        <v>8.3024999999999238E-2</v>
-      </c>
-      <c r="O67">
-        <f t="shared" ca="1" si="9"/>
-        <v>6.1500000000000554E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.32800000000000007</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" t="str">
         <f>Tracker!A68</f>
         <v>Company 67</v>
@@ -8196,49 +7918,37 @@
       </c>
       <c r="D68">
         <f ca="1">(Tracker!G68+Tracker!H68)/2</f>
-        <v>90.5</v>
-      </c>
-      <c r="E68" s="11">
-        <f>IF(OR(Tracker!F68="denied",Tracker!F68="on hold",Tracker!F68="No Response",Tracker!F68="pending"), 0.2, IF(Tracker!F68="interviewing", 0.4, IF(Tracker!F68="rejected", 0.3, IF(Tracker!F68="offer", 1, 0))))</f>
+        <v>89</v>
+      </c>
+      <c r="E68" s="10">
+        <f>IF(OR(Tracker!F68="denied",Tracker!F68="on hold",Tracker!F68="No Response",Tracker!F68="pending",Tracker!F92="ghosted"), 0.2, IF(Tracker!F68="interviewing", 0.4, IF(Tracker!F68="rejected", 0.3, IF(Tracker!F68="offer", 1, 0))))</f>
         <v>0.2</v>
       </c>
-      <c r="F68" s="12">
+      <c r="F68" s="11">
         <f>IF(OR(Tracker!I68="linkedin", Tracker!I68="Indeed", Tracker!I68="linkedin dm"), 0.9, IF(Tracker!I68="Company Site", 1.1, 1))</f>
         <v>0.9</v>
       </c>
-      <c r="G68" s="12">
+      <c r="G68" s="11">
         <f>IF(OR(Tracker!D68="analyst", Tracker!D68="project manager", Tracker!D68="consultant"), 1.1, IF(Tracker!D68="Product Manager", 0.9, 1))</f>
         <v>0.9</v>
       </c>
-      <c r="H68" s="11">
+      <c r="H68" s="10">
         <v>0.95</v>
       </c>
-      <c r="I68" s="12">
+      <c r="I68" s="11">
         <f>10-(0.5*Tracker!J68)</f>
         <v>10</v>
       </c>
       <c r="J68">
-        <f t="shared" ca="1" si="5"/>
-        <v>-0.37867500000000032</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.41715000000000035</v>
       </c>
       <c r="K68">
-        <f t="shared" ca="1" si="6"/>
-        <v>-0.28049999999999975</v>
-      </c>
-      <c r="M68" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N68">
-        <f t="shared" ca="1" si="8"/>
-        <v>-0.37867500000000032</v>
-      </c>
-      <c r="O68">
-        <f t="shared" ca="1" si="9"/>
-        <v>-0.28049999999999975</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.30900000000000016</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" t="str">
         <f>Tracker!A69</f>
         <v>Company 68</v>
@@ -8253,49 +7963,37 @@
       </c>
       <c r="D69">
         <f ca="1">(Tracker!G69+Tracker!H69)/2</f>
-        <v>95</v>
-      </c>
-      <c r="E69" s="11">
-        <f>IF(OR(Tracker!F69="denied",Tracker!F69="on hold",Tracker!F69="No Response",Tracker!F69="pending"), 0.2, IF(Tracker!F69="interviewing", 0.4, IF(Tracker!F69="rejected", 0.3, IF(Tracker!F69="offer", 1, 0))))</f>
+        <v>116</v>
+      </c>
+      <c r="E69" s="10">
+        <f>IF(OR(Tracker!F69="denied",Tracker!F69="on hold",Tracker!F69="No Response",Tracker!F69="pending",Tracker!F93="ghosted"), 0.2, IF(Tracker!F69="interviewing", 0.4, IF(Tracker!F69="rejected", 0.3, IF(Tracker!F69="offer", 1, 0))))</f>
         <v>0.2</v>
       </c>
-      <c r="F69" s="12">
+      <c r="F69" s="11">
         <f>IF(OR(Tracker!I69="linkedin", Tracker!I69="Indeed", Tracker!I69="linkedin dm"), 0.9, IF(Tracker!I69="Company Site", 1.1, 1))</f>
         <v>0.9</v>
       </c>
-      <c r="G69" s="12">
+      <c r="G69" s="11">
         <f>IF(OR(Tracker!D69="analyst", Tracker!D69="project manager", Tracker!D69="consultant"), 1.1, IF(Tracker!D69="Product Manager", 0.9, 1))</f>
         <v>0.9</v>
       </c>
-      <c r="H69" s="11">
+      <c r="H69" s="10">
         <v>0.95</v>
       </c>
-      <c r="I69" s="12">
+      <c r="I69" s="11">
         <f>10-(0.5*Tracker!J69)</f>
         <v>10</v>
       </c>
       <c r="J69">
-        <f t="shared" ca="1" si="5"/>
-        <v>-0.26325000000000021</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.27539999999999942</v>
       </c>
       <c r="K69">
-        <f t="shared" ca="1" si="6"/>
-        <v>-0.19499999999999984</v>
-      </c>
-      <c r="M69" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N69">
-        <f t="shared" ca="1" si="8"/>
-        <v>-0.26325000000000021</v>
-      </c>
-      <c r="O69">
-        <f t="shared" ca="1" si="9"/>
-        <v>-0.19499999999999984</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.20400000000000018</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" t="str">
         <f>Tracker!A70</f>
         <v>Company 69</v>
@@ -8310,46 +8008,34 @@
       </c>
       <c r="D70">
         <f ca="1">(Tracker!G70+Tracker!H70)/2</f>
-        <v>115</v>
-      </c>
-      <c r="E70" s="11">
-        <f>IF(OR(Tracker!F70="denied",Tracker!F70="on hold",Tracker!F70="No Response",Tracker!F70="pending"), 0.2, IF(Tracker!F70="interviewing", 0.4, IF(Tracker!F70="rejected", 0.3, IF(Tracker!F70="offer", 1, 0))))</f>
+        <v>92</v>
+      </c>
+      <c r="E70" s="10">
+        <f>IF(OR(Tracker!F70="denied",Tracker!F70="on hold",Tracker!F70="No Response",Tracker!F70="pending",Tracker!F94="ghosted"), 0.2, IF(Tracker!F70="interviewing", 0.4, IF(Tracker!F70="rejected", 0.3, IF(Tracker!F70="offer", 1, 0))))</f>
         <v>0.2</v>
       </c>
-      <c r="F70" s="12">
+      <c r="F70" s="11">
         <f>IF(OR(Tracker!I70="linkedin", Tracker!I70="Indeed", Tracker!I70="linkedin dm"), 0.9, IF(Tracker!I70="Company Site", 1.1, 1))</f>
         <v>0.9</v>
       </c>
-      <c r="G70" s="12">
+      <c r="G70" s="11">
         <f>IF(OR(Tracker!D70="analyst", Tracker!D70="project manager", Tracker!D70="consultant"), 1.1, IF(Tracker!D70="Product Manager", 0.9, 1))</f>
         <v>0.9</v>
       </c>
-      <c r="H70" s="11">
+      <c r="H70" s="10">
         <v>0.95</v>
       </c>
-      <c r="I70" s="12">
+      <c r="I70" s="11">
         <f>10-(0.5*Tracker!J70)</f>
         <v>10</v>
       </c>
       <c r="J70">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.24974999999999969</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.34020000000000028</v>
       </c>
       <c r="K70">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.18500000000000005</v>
-      </c>
-      <c r="M70" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N70">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.24974999999999969</v>
-      </c>
-      <c r="O70">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.18500000000000005</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.25199999999999978</v>
       </c>
     </row>
   </sheetData>
@@ -8359,7 +8045,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B125ACD8-B66D-499D-AC3B-EB5B2B2BDD35}">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -8375,7 +8061,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
         <v>46</v>
@@ -8398,41 +8084,41 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/example_app_tracker.xlsx
+++ b/example_app_tracker.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\graha\OneDrive\Documents\GitHub\application_tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2637769-1386-4DE7-B0FF-9CB2C521E569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E467CBE5-2312-45C0-9CD9-7849EDAB45C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18010" yWindow="3980" windowWidth="20070" windowHeight="15190" activeTab="2" xr2:uid="{85E7A6A4-6F22-48D9-815F-FC03736B7AC4}"/>
+    <workbookView xWindow="17350" yWindow="5010" windowWidth="20070" windowHeight="15190" activeTab="1" xr2:uid="{85E7A6A4-6F22-48D9-815F-FC03736B7AC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
+    <sheet name="Interviews" sheetId="6" r:id="rId2"/>
     <sheet name="ROE Calculation" sheetId="4" r:id="rId3"/>
     <sheet name="Glossary" sheetId="5" r:id="rId4"/>
   </sheets>
@@ -1529,11 +1529,11 @@
       </c>
       <c r="G2">
         <f ca="1">ROUND(RAND()*60+50,0)</f>
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="H2">
         <f ca="1">ROUND(RAND()*40+100,0)</f>
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>11</v>
@@ -1567,11 +1567,11 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G66" ca="1" si="1">ROUND(RAND()*60+50,0)</f>
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H66" ca="1" si="2">ROUND(RAND()*40+100,0)</f>
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>11</v>
@@ -1605,11 +1605,11 @@
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="1"/>
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="2"/>
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>11</v>
@@ -1643,11 +1643,11 @@
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="2"/>
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>10</v>
@@ -1681,11 +1681,11 @@
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="2"/>
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>11</v>
@@ -1719,11 +1719,11 @@
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="2"/>
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>11</v>
@@ -1757,11 +1757,11 @@
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="2"/>
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>11</v>
@@ -1795,11 +1795,11 @@
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="2"/>
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>11</v>
@@ -1833,11 +1833,11 @@
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="2"/>
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>13</v>
@@ -1871,11 +1871,11 @@
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="2"/>
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>11</v>
@@ -1909,11 +1909,11 @@
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="1"/>
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="2"/>
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>11</v>
@@ -1947,11 +1947,11 @@
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="2"/>
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>10</v>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="2"/>
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>10</v>
@@ -2023,11 +2023,11 @@
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="2"/>
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>10</v>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="2"/>
@@ -2099,11 +2099,11 @@
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="2"/>
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>14</v>
@@ -2137,11 +2137,11 @@
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="2"/>
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>14</v>
@@ -2175,11 +2175,11 @@
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="2"/>
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>14</v>
@@ -2213,11 +2213,11 @@
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="2"/>
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>14</v>
@@ -2251,11 +2251,11 @@
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="2"/>
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>214</v>
@@ -2289,11 +2289,11 @@
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="2"/>
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>214</v>
@@ -2327,11 +2327,11 @@
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="2"/>
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>214</v>
@@ -2365,11 +2365,11 @@
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="2"/>
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>9</v>
@@ -2403,11 +2403,11 @@
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="2"/>
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>9</v>
@@ -2441,11 +2441,11 @@
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="2"/>
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>9</v>
@@ -2479,11 +2479,11 @@
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="2"/>
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>9</v>
@@ -2517,11 +2517,11 @@
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="2"/>
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>9</v>
@@ -2555,11 +2555,11 @@
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="2"/>
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>9</v>
@@ -2593,11 +2593,11 @@
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="2"/>
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>9</v>
@@ -2631,11 +2631,11 @@
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="2"/>
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>9</v>
@@ -2669,11 +2669,11 @@
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="2"/>
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>14</v>
@@ -2707,11 +2707,11 @@
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="2"/>
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>15</v>
@@ -2745,11 +2745,11 @@
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="2"/>
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>15</v>
@@ -2783,11 +2783,11 @@
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="2"/>
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>15</v>
@@ -2821,11 +2821,11 @@
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="2"/>
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>15</v>
@@ -2859,11 +2859,11 @@
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="2"/>
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>17</v>
@@ -2897,11 +2897,11 @@
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="2"/>
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>17</v>
@@ -2935,11 +2935,11 @@
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="2"/>
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>17</v>
@@ -2973,11 +2973,11 @@
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="2"/>
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>17</v>
@@ -3011,11 +3011,11 @@
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="2"/>
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>17</v>
@@ -3049,11 +3049,11 @@
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="2"/>
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>17</v>
@@ -3087,11 +3087,11 @@
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="1"/>
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="2"/>
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>17</v>
@@ -3125,11 +3125,11 @@
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="2"/>
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>18</v>
@@ -3163,11 +3163,11 @@
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="1"/>
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="2"/>
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>18</v>
@@ -3205,7 +3205,7 @@
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="2"/>
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>18</v>
@@ -3239,11 +3239,11 @@
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="2"/>
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>18</v>
@@ -3277,11 +3277,11 @@
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="H48">
         <f t="shared" ca="1" si="2"/>
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>18</v>
@@ -3315,11 +3315,11 @@
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="2"/>
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>18</v>
@@ -3353,11 +3353,11 @@
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="2"/>
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>18</v>
@@ -3391,11 +3391,11 @@
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="2"/>
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>33</v>
@@ -3429,11 +3429,11 @@
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="H52">
         <f t="shared" ca="1" si="2"/>
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>33</v>
@@ -3467,11 +3467,11 @@
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="H53">
         <f t="shared" ca="1" si="2"/>
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>33</v>
@@ -3505,11 +3505,11 @@
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="2"/>
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>33</v>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="2"/>
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>33</v>
@@ -3581,11 +3581,11 @@
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H56">
         <f t="shared" ca="1" si="2"/>
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>33</v>
@@ -3619,11 +3619,11 @@
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="H57">
         <f t="shared" ca="1" si="2"/>
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>33</v>
@@ -3657,11 +3657,11 @@
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="H58">
         <f t="shared" ca="1" si="2"/>
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>33</v>
@@ -3695,11 +3695,11 @@
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="H59">
         <f t="shared" ca="1" si="2"/>
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>33</v>
@@ -3733,11 +3733,11 @@
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="H60">
         <f t="shared" ca="1" si="2"/>
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>34</v>
@@ -3771,11 +3771,11 @@
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="H61">
         <f t="shared" ca="1" si="2"/>
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>34</v>
@@ -3809,11 +3809,11 @@
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="H62">
         <f t="shared" ca="1" si="2"/>
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>34</v>
@@ -3847,11 +3847,11 @@
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="1"/>
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="H63">
         <f t="shared" ca="1" si="2"/>
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>34</v>
@@ -3885,11 +3885,11 @@
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H64">
         <f t="shared" ca="1" si="2"/>
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>34</v>
@@ -3923,11 +3923,11 @@
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="H65">
         <f t="shared" ca="1" si="2"/>
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>34</v>
@@ -3961,11 +3961,11 @@
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="H66">
         <f t="shared" ca="1" si="2"/>
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>11</v>
@@ -3999,11 +3999,11 @@
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G75" ca="1" si="5">ROUND(RAND()*60+50,0)</f>
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="H67">
         <f t="shared" ref="H67:H75" ca="1" si="6">ROUND(RAND()*40+100,0)</f>
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>11</v>
@@ -4037,11 +4037,11 @@
       </c>
       <c r="G68">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H68">
         <f t="shared" ca="1" si="6"/>
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>11</v>
@@ -4075,11 +4075,11 @@
       </c>
       <c r="G69">
         <f t="shared" ca="1" si="5"/>
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="H69">
         <f t="shared" ca="1" si="6"/>
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>11</v>
@@ -4113,11 +4113,11 @@
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H70">
         <f t="shared" ca="1" si="6"/>
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>11</v>
@@ -4151,11 +4151,11 @@
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="H71">
         <f t="shared" ca="1" si="6"/>
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>9</v>
@@ -4189,11 +4189,11 @@
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="5"/>
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H72">
         <f t="shared" ca="1" si="6"/>
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>9</v>
@@ -4227,11 +4227,11 @@
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="H73">
         <f t="shared" ca="1" si="6"/>
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>9</v>
@@ -4265,11 +4265,11 @@
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="5"/>
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="H74">
         <f t="shared" ca="1" si="6"/>
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>9</v>
@@ -4303,11 +4303,11 @@
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="H75">
         <f t="shared" ca="1" si="6"/>
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>9</v>
@@ -4399,7 +4399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E6A88D-3241-41C0-B7E9-472CCE1959EA}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -4881,7 +4881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70590CAF-D2CD-443E-AE13-8F53684D3C03}">
   <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
     </sheetView>
@@ -4948,7 +4948,7 @@
       </c>
       <c r="D2">
         <f ca="1">(Tracker!G2+Tracker!H2)/2</f>
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="E2" s="10">
         <f>IF(OR(Tracker!F2="denied",Tracker!F2="on hold",Tracker!F2="No Response",Tracker!F2="pending",Tracker!F26="ghosted"), 0.2, IF(Tracker!F2="interviewing", 0.4, IF(Tracker!F2="rejected", 0.3, IF(Tracker!F2="offer", 1, 0))))</f>
@@ -4971,11 +4971,11 @@
       </c>
       <c r="J2">
         <f t="shared" ref="J2:J15" ca="1" si="0">IF(D2=0,0,((0.3*D2*G2*H2)/10)-2.7)</f>
-        <v>9.0149999999999508E-2</v>
+        <v>0.84254999999999969</v>
       </c>
       <c r="K2">
         <f t="shared" ref="K2:K15" ca="1" si="1">IF(D2=0, 0,((D2*E2*G2*H2)/(F2*I2)-2))</f>
-        <v>0.17555555555555546</v>
+        <v>0.76222222222222191</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -4993,7 +4993,7 @@
       </c>
       <c r="D3">
         <f ca="1">(Tracker!G3+Tracker!H3)/2</f>
-        <v>109.5</v>
+        <v>104.5</v>
       </c>
       <c r="E3" s="10">
         <f>IF(OR(Tracker!F3="denied",Tracker!F3="on hold",Tracker!F3="No Response",Tracker!F3="pending",Tracker!F27="ghosted"), 0.2, IF(Tracker!F3="interviewing", 0.4, IF(Tracker!F3="rejected", 0.3, IF(Tracker!F3="offer", 1, 0))))</f>
@@ -5016,11 +5016,11 @@
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73282500000000006</v>
+        <v>0.57607499999999945</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4873529411764705</v>
+        <v>2.2824509803921558</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -5038,7 +5038,7 @@
       </c>
       <c r="D4">
         <f ca="1">(Tracker!G4+Tracker!H4)/2</f>
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E4" s="10">
         <f>IF(OR(Tracker!F4="denied",Tracker!F4="on hold",Tracker!F4="No Response",Tracker!F4="pending",Tracker!F28="ghosted"), 0.2, IF(Tracker!F4="interviewing", 0.4, IF(Tracker!F4="rejected", 0.3, IF(Tracker!F4="offer", 1, 0))))</f>
@@ -5061,11 +5061,11 @@
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77985000000000015</v>
+        <v>0.56039999999999957</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57766666666666744</v>
+        <v>0.41511111111111099</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -5083,7 +5083,7 @@
       </c>
       <c r="D5">
         <f ca="1">(Tracker!G5+Tracker!H5)/2</f>
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E5" s="10">
         <f>IF(OR(Tracker!F5="denied",Tracker!F5="on hold",Tracker!F5="No Response",Tracker!F5="pending",Tracker!F29="ghosted"), 0.2, IF(Tracker!F5="interviewing", 0.4, IF(Tracker!F5="rejected", 0.3, IF(Tracker!F5="offer", 1, 0))))</f>
@@ -5106,11 +5106,11 @@
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.10650000000000048</v>
+        <v>3.5999999999999588E-2</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73</v>
+        <v>0.87999999999999945</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="D6">
         <f ca="1">(Tracker!G6+Tracker!H6)/2</f>
-        <v>118.5</v>
+        <v>111.5</v>
       </c>
       <c r="E6" s="10">
         <f>IF(OR(Tracker!F6="denied",Tracker!F6="on hold",Tracker!F6="No Response",Tracker!F6="pending",Tracker!F30="ghosted"), 0.2, IF(Tracker!F6="interviewing", 0.4, IF(Tracker!F6="rejected", 0.3, IF(Tracker!F6="offer", 1, 0))))</f>
@@ -5151,11 +5151,11 @@
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0149749999999997</v>
+        <v>0.79552499999999959</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7518333333333338</v>
+        <v>0.58927777777777779</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -5173,7 +5173,7 @@
       </c>
       <c r="D7">
         <f ca="1">(Tracker!G7+Tracker!H7)/2</f>
-        <v>89</v>
+        <v>115.5</v>
       </c>
       <c r="E7" s="10">
         <f>IF(OR(Tracker!F7="denied",Tracker!F7="on hold",Tracker!F7="No Response",Tracker!F7="pending",Tracker!F31="ghosted"), 0.2, IF(Tracker!F7="interviewing", 0.4, IF(Tracker!F7="rejected", 0.3, IF(Tracker!F7="offer", 1, 0))))</f>
@@ -5196,11 +5196,11 @@
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>9.0149999999999508E-2</v>
+        <v>0.92092499999999955</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17555555555555546</v>
+        <v>0.82333333333333325</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -5218,7 +5218,7 @@
       </c>
       <c r="D8">
         <f ca="1">(Tracker!G8+Tracker!H8)/2</f>
-        <v>95</v>
+        <v>102.5</v>
       </c>
       <c r="E8" s="10">
         <f>IF(OR(Tracker!F8="denied",Tracker!F8="on hold",Tracker!F8="No Response",Tracker!F8="pending",Tracker!F32="ghosted"), 0.2, IF(Tracker!F8="interviewing", 0.4, IF(Tracker!F8="rejected", 0.3, IF(Tracker!F8="offer", 1, 0))))</f>
@@ -5241,11 +5241,11 @@
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27824999999999989</v>
+        <v>0.51337499999999991</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20611111111111136</v>
+        <v>0.38027777777777771</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -5263,7 +5263,7 @@
       </c>
       <c r="D9">
         <f ca="1">(Tracker!G9+Tracker!H9)/2</f>
-        <v>107</v>
+        <v>90.5</v>
       </c>
       <c r="E9" s="10">
         <f>IF(OR(Tracker!F9="denied",Tracker!F9="on hold",Tracker!F9="No Response",Tracker!F9="pending",Tracker!F33="ghosted"), 0.2, IF(Tracker!F9="interviewing", 0.4, IF(Tracker!F9="rejected", 0.3, IF(Tracker!F9="offer", 1, 0))))</f>
@@ -5286,11 +5286,11 @@
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65444999999999975</v>
+        <v>0.13717500000000005</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61555555555555586</v>
+        <v>0.21222222222222253</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -5308,7 +5308,7 @@
       </c>
       <c r="D10">
         <f ca="1">(Tracker!G10+Tracker!H10)/2</f>
-        <v>88.5</v>
+        <v>93</v>
       </c>
       <c r="E10" s="10">
         <f>IF(OR(Tracker!F10="denied",Tracker!F10="on hold",Tracker!F10="No Response",Tracker!F10="pending",Tracker!F34="ghosted"), 0.2, IF(Tracker!F10="interviewing", 0.4, IF(Tracker!F10="rejected", 0.3, IF(Tracker!F10="offer", 1, 0))))</f>
@@ -5331,11 +5331,11 @@
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4474999999999625E-2</v>
+        <v>0.21554999999999991</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6549999999999998</v>
+        <v>0.78999999999999959</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="D11">
         <f ca="1">(Tracker!G11+Tracker!H11)/2</f>
-        <v>105.5</v>
+        <v>107.5</v>
       </c>
       <c r="E11" s="10">
         <f>IF(OR(Tracker!F11="denied",Tracker!F11="on hold",Tracker!F11="No Response",Tracker!F11="pending",Tracker!F35="ghosted"), 0.2, IF(Tracker!F11="interviewing", 0.4, IF(Tracker!F11="rejected", 0.3, IF(Tracker!F11="offer", 1, 0))))</f>
@@ -5376,11 +5376,11 @@
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60742499999999966</v>
+        <v>0.67012500000000008</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4499444444444447</v>
+        <v>0.49638888888888921</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -5398,7 +5398,7 @@
       </c>
       <c r="D12">
         <f ca="1">(Tracker!G12+Tracker!H12)/2</f>
-        <v>104</v>
+        <v>86.5</v>
       </c>
       <c r="E12" s="10">
         <f>IF(OR(Tracker!F12="denied",Tracker!F12="on hold",Tracker!F12="No Response",Tracker!F12="pending",Tracker!F36="ghosted"), 0.2, IF(Tracker!F12="interviewing", 0.4, IF(Tracker!F12="rejected", 0.3, IF(Tracker!F12="offer", 1, 0))))</f>
@@ -5421,11 +5421,11 @@
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56039999999999957</v>
+        <v>1.1775000000000091E-2</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6226666666666665</v>
+        <v>1.0130833333333333</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -5443,7 +5443,7 @@
       </c>
       <c r="D13">
         <f ca="1">(Tracker!G13+Tracker!H13)/2</f>
-        <v>85.5</v>
+        <v>117.5</v>
       </c>
       <c r="E13" s="10">
         <f>IF(OR(Tracker!F13="denied",Tracker!F13="on hold",Tracker!F13="No Response",Tracker!F13="pending",Tracker!F37="ghosted"), 0.2, IF(Tracker!F13="interviewing", 0.4, IF(Tracker!F13="rejected", 0.3, IF(Tracker!F13="offer", 1, 0))))</f>
@@ -5466,11 +5466,11 @@
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.957500000000012E-2</v>
+        <v>0.98362500000000042</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.21304999999999974</v>
+        <v>0.4557500000000001</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -5488,7 +5488,7 @@
       </c>
       <c r="D14">
         <f ca="1">(Tracker!G14+Tracker!H14)/2</f>
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E14" s="10">
         <f>IF(OR(Tracker!F14="denied",Tracker!F14="on hold",Tracker!F14="No Response",Tracker!F14="pending",Tracker!F38="ghosted"), 0.2, IF(Tracker!F14="interviewing", 0.4, IF(Tracker!F14="rejected", 0.3, IF(Tracker!F14="offer", 1, 0))))</f>
@@ -5511,11 +5511,11 @@
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27539999999999942</v>
+        <v>4.4549999999999645E-2</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.6399999999999748E-2</v>
+        <v>-0.1702999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -5533,7 +5533,7 @@
       </c>
       <c r="D15">
         <f ca="1">(Tracker!G15+Tracker!H15)/2</f>
-        <v>90.5</v>
+        <v>87.5</v>
       </c>
       <c r="E15" s="10">
         <f>IF(OR(Tracker!F15="denied",Tracker!F15="on hold",Tracker!F15="No Response",Tracker!F15="pending",Tracker!F39="ghosted"), 0.2, IF(Tracker!F15="interviewing", 0.4, IF(Tracker!F15="rejected", 0.3, IF(Tracker!F15="offer", 1, 0))))</f>
@@ -5556,11 +5556,11 @@
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.37867500000000032</v>
+        <v>-0.45562500000000039</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="1"/>
-        <v>5.7377500000000001</v>
+        <v>5.4812500000000002</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
@@ -5578,7 +5578,7 @@
       </c>
       <c r="D16">
         <f ca="1">(Tracker!G16+Tracker!H16)/2</f>
-        <v>81</v>
+        <v>85.5</v>
       </c>
       <c r="E16" s="10">
         <f>IF(OR(Tracker!F16="denied",Tracker!F16="on hold",Tracker!F16="No Response",Tracker!F16="pending",Tracker!F40="ghosted"), 0.2, IF(Tracker!F16="interviewing", 0.4, IF(Tracker!F16="rejected", 0.3, IF(Tracker!F16="offer", 1, 0))))</f>
@@ -5601,11 +5601,11 @@
       </c>
       <c r="J16">
         <f t="shared" ref="J16:J70" ca="1" si="2">IF(D16=0,0,((0.3*D16*G16*H16)/10)-2.7)</f>
-        <v>-0.6223500000000004</v>
+        <v>-0.50692500000000029</v>
       </c>
       <c r="K16">
         <f t="shared" ref="K16:K70" ca="1" si="3">IF(D16=0, 0,((D16*E16*G16*H16)/(F16*I16)-2))</f>
-        <v>-0.6149</v>
+        <v>-0.53794999999999993</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -5623,7 +5623,7 @@
       </c>
       <c r="D17">
         <f ca="1">(Tracker!G17+Tracker!H17)/2</f>
-        <v>112</v>
+        <v>102.5</v>
       </c>
       <c r="E17" s="10">
         <f>IF(OR(Tracker!F17="denied",Tracker!F17="on hold",Tracker!F17="No Response",Tracker!F17="pending",Tracker!F41="ghosted"), 0.2, IF(Tracker!F17="interviewing", 0.4, IF(Tracker!F17="rejected", 0.3, IF(Tracker!F17="offer", 1, 0))))</f>
@@ -5646,7 +5646,7 @@
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="2"/>
-        <v>0.17280000000000006</v>
+        <v>-7.0875000000000465E-2</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="3"/>
@@ -5668,7 +5668,7 @@
       </c>
       <c r="D18">
         <f ca="1">(Tracker!G18+Tracker!H18)/2</f>
-        <v>87</v>
+        <v>112.5</v>
       </c>
       <c r="E18" s="10">
         <f>IF(OR(Tracker!F18="denied",Tracker!F18="on hold",Tracker!F18="No Response",Tracker!F18="pending",Tracker!F42="ghosted"), 0.2, IF(Tracker!F18="interviewing", 0.4, IF(Tracker!F18="rejected", 0.3, IF(Tracker!F18="offer", 1, 0))))</f>
@@ -5691,11 +5691,11 @@
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.4684500000000007</v>
+        <v>0.18562499999999993</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="3"/>
-        <v>5.4384999999999994</v>
+        <v>7.6187500000000004</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
@@ -5713,7 +5713,7 @@
       </c>
       <c r="D19">
         <f ca="1">(Tracker!G19+Tracker!H19)/2</f>
-        <v>118</v>
+        <v>111.5</v>
       </c>
       <c r="E19" s="10">
         <f>IF(OR(Tracker!F19="denied",Tracker!F19="on hold",Tracker!F19="No Response",Tracker!F19="pending",Tracker!F43="ghosted"), 0.2, IF(Tracker!F19="interviewing", 0.4, IF(Tracker!F19="rejected", 0.3, IF(Tracker!F19="offer", 1, 0))))</f>
@@ -5736,11 +5736,11 @@
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32669999999999977</v>
+        <v>0.15997499999999931</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.24199999999999999</v>
+        <v>0.11849999999999961</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
@@ -5758,7 +5758,7 @@
       </c>
       <c r="D20">
         <f ca="1">(Tracker!G20+Tracker!H20)/2</f>
-        <v>93.5</v>
+        <v>114</v>
       </c>
       <c r="E20" s="10">
         <f>IF(OR(Tracker!F20="denied",Tracker!F20="on hold",Tracker!F20="No Response",Tracker!F20="pending",Tracker!F44="ghosted"), 0.2, IF(Tracker!F20="interviewing", 0.4, IF(Tracker!F20="rejected", 0.3, IF(Tracker!F20="offer", 1, 0))))</f>
@@ -5781,11 +5781,11 @@
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.30172500000000024</v>
+        <v>0.22409999999999952</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.40115000000000012</v>
+        <v>-5.0599999999999978E-2</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
@@ -5803,7 +5803,7 @@
       </c>
       <c r="D21">
         <f ca="1">(Tracker!G21+Tracker!H21)/2</f>
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E21" s="10">
         <f>IF(OR(Tracker!F21="denied",Tracker!F21="on hold",Tracker!F21="No Response",Tracker!F21="pending",Tracker!F45="ghosted"), 0.2, IF(Tracker!F21="interviewing", 0.4, IF(Tracker!F21="rejected", 0.3, IF(Tracker!F21="offer", 1, 0))))</f>
@@ -5826,11 +5826,11 @@
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.41715000000000035</v>
+        <v>-0.31455000000000055</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="3"/>
-        <v>6.4550000000000001</v>
+        <v>6.8350000000000009</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="D22">
         <f ca="1">(Tracker!G22+Tracker!H22)/2</f>
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E22" s="10">
         <f>IF(OR(Tracker!F22="denied",Tracker!F22="on hold",Tracker!F22="No Response",Tracker!F22="pending",Tracker!F46="ghosted"), 0.2, IF(Tracker!F22="interviewing", 0.4, IF(Tracker!F22="rejected", 0.3, IF(Tracker!F22="offer", 1, 0))))</f>
@@ -5871,11 +5871,11 @@
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="2"/>
-        <v>-6.7500000000002558E-3</v>
+        <v>-0.18630000000000013</v>
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="3"/>
-        <v>-4.9999999999998934E-3</v>
+        <v>-0.13800000000000012</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
@@ -5893,7 +5893,7 @@
       </c>
       <c r="D23">
         <f ca="1">(Tracker!G23+Tracker!H23)/2</f>
-        <v>98.5</v>
+        <v>97.5</v>
       </c>
       <c r="E23" s="10">
         <f>IF(OR(Tracker!F23="denied",Tracker!F23="on hold",Tracker!F23="No Response",Tracker!F23="pending",Tracker!F47="ghosted"), 0.2, IF(Tracker!F23="interviewing", 0.4, IF(Tracker!F23="rejected", 0.3, IF(Tracker!F23="offer", 1, 0))))</f>
@@ -5916,11 +5916,11 @@
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="2"/>
-        <v>0.38797499999999996</v>
+        <v>0.35662500000000019</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="3"/>
-        <v>2.815555555555556</v>
+        <v>2.7666666666666666</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
@@ -5938,7 +5938,7 @@
       </c>
       <c r="D24">
         <f ca="1">(Tracker!G24+Tracker!H24)/2</f>
-        <v>81.5</v>
+        <v>113</v>
       </c>
       <c r="E24" s="10">
         <f>IF(OR(Tracker!F24="denied",Tracker!F24="on hold",Tracker!F24="No Response",Tracker!F24="pending",Tracker!F48="ghosted"), 0.2, IF(Tracker!F24="interviewing", 0.4, IF(Tracker!F24="rejected", 0.3, IF(Tracker!F24="offer", 1, 0))))</f>
@@ -5961,11 +5961,11 @@
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.14497500000000008</v>
+        <v>0.84254999999999969</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.10738888888888853</v>
+        <v>0.62411111111111106</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
@@ -5983,7 +5983,7 @@
       </c>
       <c r="D25">
         <f ca="1">(Tracker!G25+Tracker!H25)/2</f>
-        <v>87.5</v>
+        <v>89</v>
       </c>
       <c r="E25" s="10">
         <f>IF(OR(Tracker!F25="denied",Tracker!F25="on hold",Tracker!F25="No Response",Tracker!F25="pending",Tracker!F49="ghosted"), 0.2, IF(Tracker!F25="interviewing", 0.4, IF(Tracker!F25="rejected", 0.3, IF(Tracker!F25="offer", 1, 0))))</f>
@@ -6006,11 +6006,11 @@
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="2"/>
-        <v>4.3124999999999858E-2</v>
+        <v>9.0149999999999508E-2</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="3"/>
-        <v>3.1944444444444109E-2</v>
+        <v>6.6777777777778269E-2</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
@@ -6028,7 +6028,7 @@
       </c>
       <c r="D26">
         <f ca="1">(Tracker!G26+Tracker!H26)/2</f>
-        <v>112.5</v>
+        <v>82.5</v>
       </c>
       <c r="E26" s="10">
         <f>IF(OR(Tracker!F26="denied",Tracker!F26="on hold",Tracker!F26="No Response",Tracker!F26="pending",Tracker!F50="ghosted"), 0.2, IF(Tracker!F26="interviewing", 0.4, IF(Tracker!F26="rejected", 0.3, IF(Tracker!F26="offer", 1, 0))))</f>
@@ -6051,7 +6051,7 @@
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="2"/>
-        <v>0.82687499999999936</v>
+        <v>-0.11362500000000031</v>
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="3"/>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="D27">
         <f ca="1">(Tracker!G27+Tracker!H27)/2</f>
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E27" s="10">
         <f>IF(OR(Tracker!F27="denied",Tracker!F27="on hold",Tracker!F27="No Response",Tracker!F27="pending",Tracker!F51="ghosted"), 0.2, IF(Tracker!F27="interviewing", 0.4, IF(Tracker!F27="rejected", 0.3, IF(Tracker!F27="offer", 1, 0))))</f>
@@ -6096,11 +6096,11 @@
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="2"/>
-        <v>0.40364999999999984</v>
+        <v>0.12149999999999972</v>
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="3"/>
-        <v>0.29899999999999993</v>
+        <v>8.9999999999999858E-2</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
@@ -6118,7 +6118,7 @@
       </c>
       <c r="D28">
         <f ca="1">(Tracker!G28+Tracker!H28)/2</f>
-        <v>113.5</v>
+        <v>95.5</v>
       </c>
       <c r="E28" s="10">
         <f>IF(OR(Tracker!F28="denied",Tracker!F28="on hold",Tracker!F28="No Response",Tracker!F28="pending",Tracker!F52="ghosted"), 0.2, IF(Tracker!F28="interviewing", 0.4, IF(Tracker!F28="rejected", 0.3, IF(Tracker!F28="offer", 1, 0))))</f>
@@ -6141,11 +6141,11 @@
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="2"/>
-        <v>0.85822499999999913</v>
+        <v>0.29392499999999977</v>
       </c>
       <c r="K28">
         <f t="shared" ca="1" si="3"/>
-        <v>0.63572222222222274</v>
+        <v>0.21772222222222259</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
@@ -6163,7 +6163,7 @@
       </c>
       <c r="D29">
         <f ca="1">(Tracker!G29+Tracker!H29)/2</f>
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="E29" s="10">
         <f>IF(OR(Tracker!F29="denied",Tracker!F29="on hold",Tracker!F29="No Response",Tracker!F29="pending",Tracker!F53="ghosted"), 0.2, IF(Tracker!F29="interviewing", 0.4, IF(Tracker!F29="rejected", 0.3, IF(Tracker!F29="offer", 1, 0))))</f>
@@ -6186,11 +6186,11 @@
       </c>
       <c r="J29">
         <f t="shared" ca="1" si="2"/>
-        <v>0.96795000000000009</v>
+        <v>-0.19200000000000017</v>
       </c>
       <c r="K29">
         <f t="shared" ca="1" si="3"/>
-        <v>3.4340000000000011</v>
+        <v>1.7155555555555555</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
@@ -6208,7 +6208,7 @@
       </c>
       <c r="D30">
         <f ca="1">(Tracker!G30+Tracker!H30)/2</f>
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="E30" s="10">
         <f>IF(OR(Tracker!F30="denied",Tracker!F30="on hold",Tracker!F30="No Response",Tracker!F30="pending",Tracker!F54="ghosted"), 0.2, IF(Tracker!F30="interviewing", 0.4, IF(Tracker!F30="rejected", 0.3, IF(Tracker!F30="offer", 1, 0))))</f>
@@ -6231,11 +6231,11 @@
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="2"/>
-        <v>0.21554999999999991</v>
+        <v>0.56039999999999957</v>
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="3"/>
-        <v>0.15966666666666729</v>
+        <v>0.41511111111111099</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
@@ -6253,7 +6253,7 @@
       </c>
       <c r="D31">
         <f ca="1">(Tracker!G31+Tracker!H31)/2</f>
-        <v>77.5</v>
+        <v>106</v>
       </c>
       <c r="E31" s="10">
         <f>IF(OR(Tracker!F31="denied",Tracker!F31="on hold",Tracker!F31="No Response",Tracker!F31="pending",Tracker!F55="ghosted"), 0.2, IF(Tracker!F31="interviewing", 0.4, IF(Tracker!F31="rejected", 0.3, IF(Tracker!F31="offer", 1, 0))))</f>
@@ -6276,11 +6276,11 @@
       </c>
       <c r="J31">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.27037500000000003</v>
+        <v>0.6230999999999991</v>
       </c>
       <c r="K31">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.20027777777777755</v>
+        <v>0.46155555555555594</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
@@ -6298,7 +6298,7 @@
       </c>
       <c r="D32">
         <f ca="1">(Tracker!G32+Tracker!H32)/2</f>
-        <v>99</v>
+        <v>100.5</v>
       </c>
       <c r="E32" s="10">
         <f>IF(OR(Tracker!F32="denied",Tracker!F32="on hold",Tracker!F32="No Response",Tracker!F32="pending",Tracker!F56="ghosted"), 0.2, IF(Tracker!F32="interviewing", 0.4, IF(Tracker!F32="rejected", 0.3, IF(Tracker!F32="offer", 1, 0))))</f>
@@ -6321,11 +6321,11 @@
       </c>
       <c r="J32">
         <f t="shared" ca="1" si="2"/>
-        <v>0.40364999999999984</v>
+        <v>0.45067499999999949</v>
       </c>
       <c r="K32">
         <f t="shared" ca="1" si="3"/>
-        <v>6.9099999999999717E-2</v>
+        <v>0.10044999999999993</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
@@ -6343,7 +6343,7 @@
       </c>
       <c r="D33">
         <f ca="1">(Tracker!G33+Tracker!H33)/2</f>
-        <v>104.5</v>
+        <v>115.5</v>
       </c>
       <c r="E33" s="10">
         <f>IF(OR(Tracker!F33="denied",Tracker!F33="on hold",Tracker!F33="No Response",Tracker!F33="pending",Tracker!F57="ghosted"), 0.2, IF(Tracker!F33="interviewing", 0.4, IF(Tracker!F33="rejected", 0.3, IF(Tracker!F33="offer", 1, 0))))</f>
@@ -6366,11 +6366,11 @@
       </c>
       <c r="J33">
         <f t="shared" ca="1" si="2"/>
-        <v>0.57607499999999945</v>
+        <v>0.92092499999999955</v>
       </c>
       <c r="K33">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2760749999999996</v>
+        <v>1.6209249999999997</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
@@ -6388,7 +6388,7 @@
       </c>
       <c r="D34">
         <f ca="1">(Tracker!G34+Tracker!H34)/2</f>
-        <v>82</v>
+        <v>103.5</v>
       </c>
       <c r="E34" s="10">
         <f>IF(OR(Tracker!F34="denied",Tracker!F34="on hold",Tracker!F34="No Response",Tracker!F34="pending",Tracker!F58="ghosted"), 0.2, IF(Tracker!F34="interviewing", 0.4, IF(Tracker!F34="rejected", 0.3, IF(Tracker!F34="offer", 1, 0))))</f>
@@ -6411,11 +6411,11 @@
       </c>
       <c r="J34">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.12930000000000064</v>
+        <v>0.54472499999999968</v>
       </c>
       <c r="K34">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.28619999999999979</v>
+        <v>0.16315000000000079</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
@@ -6433,7 +6433,7 @@
       </c>
       <c r="D35">
         <f ca="1">(Tracker!G35+Tracker!H35)/2</f>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E35" s="10">
         <f>IF(OR(Tracker!F35="denied",Tracker!F35="on hold",Tracker!F35="No Response",Tracker!F35="pending",Tracker!F59="ghosted"), 0.2, IF(Tracker!F35="interviewing", 0.4, IF(Tracker!F35="rejected", 0.3, IF(Tracker!F35="offer", 1, 0))))</f>
@@ -6456,11 +6456,11 @@
       </c>
       <c r="J35">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12149999999999972</v>
+        <v>0.15285000000000037</v>
       </c>
       <c r="K35">
         <f t="shared" ca="1" si="3"/>
-        <v>2.4258823529411764</v>
+        <v>2.4750588235294115</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
@@ -6478,7 +6478,7 @@
       </c>
       <c r="D36">
         <f ca="1">(Tracker!G36+Tracker!H36)/2</f>
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="E36" s="10">
         <f>IF(OR(Tracker!F36="denied",Tracker!F36="on hold",Tracker!F36="No Response",Tracker!F36="pending",Tracker!F60="ghosted"), 0.2, IF(Tracker!F36="interviewing", 0.4, IF(Tracker!F36="rejected", 0.3, IF(Tracker!F36="offer", 1, 0))))</f>
@@ -6501,11 +6501,11 @@
       </c>
       <c r="J36">
         <f t="shared" ca="1" si="2"/>
-        <v>0.84254999999999969</v>
+        <v>0.12149999999999972</v>
       </c>
       <c r="K36">
         <f t="shared" ca="1" si="3"/>
-        <v>0.36169999999999991</v>
+        <v>-0.11900000000000022</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
@@ -6523,7 +6523,7 @@
       </c>
       <c r="D37">
         <f ca="1">(Tracker!G37+Tracker!H37)/2</f>
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E37" s="10">
         <f>IF(OR(Tracker!F37="denied",Tracker!F37="on hold",Tracker!F37="No Response",Tracker!F37="pending",Tracker!F61="ghosted"), 0.2, IF(Tracker!F37="interviewing", 0.4, IF(Tracker!F37="rejected", 0.3, IF(Tracker!F37="offer", 1, 0))))</f>
@@ -6546,11 +6546,11 @@
       </c>
       <c r="J37">
         <f t="shared" ca="1" si="2"/>
-        <v>0.68579999999999952</v>
+        <v>0.71714999999999929</v>
       </c>
       <c r="K37">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2572000000000001</v>
+        <v>0.27810000000000024</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="D38">
         <f ca="1">(Tracker!G38+Tracker!H38)/2</f>
-        <v>100.5</v>
+        <v>92</v>
       </c>
       <c r="E38" s="10">
         <f>IF(OR(Tracker!F38="denied",Tracker!F38="on hold",Tracker!F38="No Response",Tracker!F38="pending",Tracker!F62="ghosted"), 0.2, IF(Tracker!F38="interviewing", 0.4, IF(Tracker!F38="rejected", 0.3, IF(Tracker!F38="offer", 1, 0))))</f>
@@ -6591,7 +6591,7 @@
       </c>
       <c r="J38">
         <f t="shared" ca="1" si="2"/>
-        <v>0.45067499999999949</v>
+        <v>0.1841999999999997</v>
       </c>
       <c r="K38">
         <f t="shared" ca="1" si="3"/>
@@ -6613,7 +6613,7 @@
       </c>
       <c r="D39">
         <f ca="1">(Tracker!G39+Tracker!H39)/2</f>
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="E39" s="10">
         <f>IF(OR(Tracker!F39="denied",Tracker!F39="on hold",Tracker!F39="No Response",Tracker!F39="pending",Tracker!F63="ghosted"), 0.2, IF(Tracker!F39="interviewing", 0.4, IF(Tracker!F39="rejected", 0.3, IF(Tracker!F39="offer", 1, 0))))</f>
@@ -6636,11 +6636,11 @@
       </c>
       <c r="J39">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37230000000000008</v>
+        <v>-0.22334999999999994</v>
       </c>
       <c r="K39">
         <f t="shared" ca="1" si="3"/>
-        <v>0.15600000000000014</v>
+        <v>-0.26199999999999979</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
@@ -6658,7 +6658,7 @@
       </c>
       <c r="D40">
         <f ca="1">(Tracker!G40+Tracker!H40)/2</f>
-        <v>94.5</v>
+        <v>99</v>
       </c>
       <c r="E40" s="10">
         <f>IF(OR(Tracker!F40="denied",Tracker!F40="on hold",Tracker!F40="No Response",Tracker!F40="pending",Tracker!F64="ghosted"), 0.2, IF(Tracker!F40="interviewing", 0.4, IF(Tracker!F40="rejected", 0.3, IF(Tracker!F40="offer", 1, 0))))</f>
@@ -6681,11 +6681,11 @@
       </c>
       <c r="J40">
         <f t="shared" ca="1" si="2"/>
-        <v>0.26257499999999956</v>
+        <v>0.40364999999999984</v>
       </c>
       <c r="K40">
         <f t="shared" ca="1" si="3"/>
-        <v>-2.4949999999999806E-2</v>
+        <v>6.9099999999999717E-2</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
@@ -6703,7 +6703,7 @@
       </c>
       <c r="D41">
         <f ca="1">(Tracker!G41+Tracker!H41)/2</f>
-        <v>95.5</v>
+        <v>100</v>
       </c>
       <c r="E41" s="10">
         <f>IF(OR(Tracker!F41="denied",Tracker!F41="on hold",Tracker!F41="No Response",Tracker!F41="pending",Tracker!F65="ghosted"), 0.2, IF(Tracker!F41="interviewing", 0.4, IF(Tracker!F41="rejected", 0.3, IF(Tracker!F41="offer", 1, 0))))</f>
@@ -6726,11 +6726,11 @@
       </c>
       <c r="J41">
         <f t="shared" ca="1" si="2"/>
-        <v>0.29392499999999977</v>
+        <v>0.43499999999999961</v>
       </c>
       <c r="K41">
         <f t="shared" ca="1" si="3"/>
-        <v>-4.049999999999887E-3</v>
+        <v>8.9999999999999858E-2</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
@@ -6748,7 +6748,7 @@
       </c>
       <c r="D42">
         <f ca="1">(Tracker!G42+Tracker!H42)/2</f>
-        <v>80.5</v>
+        <v>114</v>
       </c>
       <c r="E42" s="10">
         <f>IF(OR(Tracker!F42="denied",Tracker!F42="on hold",Tracker!F42="No Response",Tracker!F42="pending",Tracker!F66="ghosted"), 0.2, IF(Tracker!F42="interviewing", 0.4, IF(Tracker!F42="rejected", 0.3, IF(Tracker!F42="offer", 1, 0))))</f>
@@ -6771,11 +6771,11 @@
       </c>
       <c r="J42">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.17632500000000029</v>
+        <v>0.87389999999999946</v>
       </c>
       <c r="K42">
         <f t="shared" ca="1" si="3"/>
-        <v>0.80408333333333326</v>
+        <v>1.9709999999999996</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="D43">
         <f ca="1">(Tracker!G43+Tracker!H43)/2</f>
-        <v>115</v>
+        <v>105.5</v>
       </c>
       <c r="E43" s="10">
         <f>IF(OR(Tracker!F43="denied",Tracker!F43="on hold",Tracker!F43="No Response",Tracker!F43="pending",Tracker!F67="ghosted"), 0.2, IF(Tracker!F43="interviewing", 0.4, IF(Tracker!F43="rejected", 0.3, IF(Tracker!F43="offer", 1, 0))))</f>
@@ -6816,11 +6816,11 @@
       </c>
       <c r="J43">
         <f t="shared" ca="1" si="2"/>
-        <v>0.90525000000000011</v>
+        <v>0.60742499999999966</v>
       </c>
       <c r="K43">
         <f t="shared" ca="1" si="3"/>
-        <v>0.40350000000000019</v>
+        <v>0.20495000000000019</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
@@ -6838,7 +6838,7 @@
       </c>
       <c r="D44">
         <f ca="1">(Tracker!G44+Tracker!H44)/2</f>
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E44" s="10">
         <f>IF(OR(Tracker!F44="denied",Tracker!F44="on hold",Tracker!F44="No Response",Tracker!F44="pending",Tracker!F68="ghosted"), 0.2, IF(Tracker!F44="interviewing", 0.4, IF(Tracker!F44="rejected", 0.3, IF(Tracker!F44="offer", 1, 0))))</f>
@@ -6861,11 +6861,11 @@
       </c>
       <c r="J44">
         <f t="shared" ca="1" si="2"/>
-        <v>0.77985000000000015</v>
+        <v>0.68579999999999952</v>
       </c>
       <c r="K44">
         <f t="shared" ca="1" si="3"/>
-        <v>0.31990000000000052</v>
+        <v>0.2572000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
@@ -6883,7 +6883,7 @@
       </c>
       <c r="D45">
         <f ca="1">(Tracker!G45+Tracker!H45)/2</f>
-        <v>110.5</v>
+        <v>111</v>
       </c>
       <c r="E45" s="10">
         <f>IF(OR(Tracker!F45="denied",Tracker!F45="on hold",Tracker!F45="No Response",Tracker!F45="pending",Tracker!F69="ghosted"), 0.2, IF(Tracker!F45="interviewing", 0.4, IF(Tracker!F45="rejected", 0.3, IF(Tracker!F45="offer", 1, 0))))</f>
@@ -6906,11 +6906,11 @@
       </c>
       <c r="J45">
         <f t="shared" ca="1" si="2"/>
-        <v>0.76417499999999983</v>
+        <v>0.77985000000000015</v>
       </c>
       <c r="K45">
         <f t="shared" ca="1" si="3"/>
-        <v>0.30945</v>
+        <v>0.31990000000000052</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
@@ -6928,7 +6928,7 @@
       </c>
       <c r="D46">
         <f ca="1">(Tracker!G46+Tracker!H46)/2</f>
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="E46" s="10">
         <f>IF(OR(Tracker!F46="denied",Tracker!F46="on hold",Tracker!F46="No Response",Tracker!F46="pending",Tracker!F70="ghosted"), 0.2, IF(Tracker!F46="interviewing", 0.4, IF(Tracker!F46="rejected", 0.3, IF(Tracker!F46="offer", 1, 0))))</f>
@@ -6951,11 +6951,11 @@
       </c>
       <c r="J46">
         <f t="shared" ca="1" si="2"/>
-        <v>0.1841999999999997</v>
+        <v>0.5290499999999998</v>
       </c>
       <c r="K46">
         <f t="shared" ca="1" si="3"/>
-        <v>-7.7199999999999491E-2</v>
+        <v>0.15270000000000028</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
@@ -6973,7 +6973,7 @@
       </c>
       <c r="D47">
         <f ca="1">(Tracker!G47+Tracker!H47)/2</f>
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="E47" s="10">
         <f>IF(OR(Tracker!F47="denied",Tracker!F47="on hold",Tracker!F47="No Response",Tracker!F47="pending",Tracker!F71="ghosted"), 0.2, IF(Tracker!F47="interviewing", 0.4, IF(Tracker!F47="rejected", 0.3, IF(Tracker!F47="offer", 1, 0))))</f>
@@ -6996,11 +6996,11 @@
       </c>
       <c r="J47">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37230000000000008</v>
+        <v>0.81120000000000081</v>
       </c>
       <c r="K47">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8200000000000465E-2</v>
+        <v>0.34080000000000021</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
@@ -7018,7 +7018,7 @@
       </c>
       <c r="D48">
         <f ca="1">(Tracker!G48+Tracker!H48)/2</f>
-        <v>79.5</v>
+        <v>99</v>
       </c>
       <c r="E48" s="10">
         <f>IF(OR(Tracker!F48="denied",Tracker!F48="on hold",Tracker!F48="No Response",Tracker!F48="pending",Tracker!F72="ghosted"), 0.2, IF(Tracker!F48="interviewing", 0.4, IF(Tracker!F48="rejected", 0.3, IF(Tracker!F48="offer", 1, 0))))</f>
@@ -7041,11 +7041,11 @@
       </c>
       <c r="J48">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.20767500000000005</v>
+        <v>0.40364999999999984</v>
       </c>
       <c r="K48">
         <f t="shared" ca="1" si="3"/>
-        <v>0.49232500000000012</v>
+        <v>1.10365</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
@@ -7063,7 +7063,7 @@
       </c>
       <c r="D49">
         <f ca="1">(Tracker!G49+Tracker!H49)/2</f>
-        <v>113.5</v>
+        <v>86.5</v>
       </c>
       <c r="E49" s="10">
         <f>IF(OR(Tracker!F49="denied",Tracker!F49="on hold",Tracker!F49="No Response",Tracker!F49="pending",Tracker!F73="ghosted"), 0.2, IF(Tracker!F49="interviewing", 0.4, IF(Tracker!F49="rejected", 0.3, IF(Tracker!F49="offer", 1, 0))))</f>
@@ -7086,11 +7086,11 @@
       </c>
       <c r="J49">
         <f t="shared" ca="1" si="2"/>
-        <v>0.85822499999999913</v>
+        <v>1.1775000000000091E-2</v>
       </c>
       <c r="K49">
         <f t="shared" ca="1" si="3"/>
-        <v>0.37215000000000042</v>
+        <v>-0.19214999999999982</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
@@ -7108,7 +7108,7 @@
       </c>
       <c r="D50">
         <f ca="1">(Tracker!G50+Tracker!H50)/2</f>
-        <v>97.5</v>
+        <v>108.5</v>
       </c>
       <c r="E50" s="10">
         <f>IF(OR(Tracker!F50="denied",Tracker!F50="on hold",Tracker!F50="No Response",Tracker!F50="pending",Tracker!F74="ghosted"), 0.2, IF(Tracker!F50="interviewing", 0.4, IF(Tracker!F50="rejected", 0.3, IF(Tracker!F50="offer", 1, 0))))</f>
@@ -7131,11 +7131,11 @@
       </c>
       <c r="J50">
         <f t="shared" ca="1" si="2"/>
-        <v>0.35662500000000019</v>
+        <v>0.70147499999999985</v>
       </c>
       <c r="K50">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0566250000000004</v>
+        <v>1.401475</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
@@ -7153,7 +7153,7 @@
       </c>
       <c r="D51">
         <f ca="1">(Tracker!G51+Tracker!H51)/2</f>
-        <v>84.5</v>
+        <v>104</v>
       </c>
       <c r="E51" s="10">
         <f>IF(OR(Tracker!F51="denied",Tracker!F51="on hold",Tracker!F51="No Response",Tracker!F51="pending",Tracker!F75="ghosted"), 0.2, IF(Tracker!F51="interviewing", 0.4, IF(Tracker!F51="rejected", 0.3, IF(Tracker!F51="offer", 1, 0))))</f>
@@ -7176,11 +7176,11 @@
       </c>
       <c r="J51">
         <f t="shared" ca="1" si="2"/>
-        <v>-5.0924999999999887E-2</v>
+        <v>0.56039999999999957</v>
       </c>
       <c r="K51">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.23394999999999966</v>
+        <v>0.17359999999999998</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
@@ -7198,7 +7198,7 @@
       </c>
       <c r="D52">
         <f ca="1">(Tracker!G52+Tracker!H52)/2</f>
-        <v>110.5</v>
+        <v>94</v>
       </c>
       <c r="E52" s="10">
         <f>IF(OR(Tracker!F52="denied",Tracker!F52="on hold",Tracker!F52="No Response",Tracker!F52="pending",Tracker!F76="ghosted"), 0.2, IF(Tracker!F52="interviewing", 0.4, IF(Tracker!F52="rejected", 0.3, IF(Tracker!F52="offer", 1, 0))))</f>
@@ -7221,11 +7221,11 @@
       </c>
       <c r="J52">
         <f t="shared" ca="1" si="2"/>
-        <v>0.76417499999999983</v>
+        <v>0.24690000000000012</v>
       </c>
       <c r="K52">
         <f t="shared" ca="1" si="3"/>
-        <v>1.464175</v>
+        <v>0.9469000000000003</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
@@ -7243,7 +7243,7 @@
       </c>
       <c r="D53">
         <f ca="1">(Tracker!G53+Tracker!H53)/2</f>
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E53" s="10">
         <f>IF(OR(Tracker!F53="denied",Tracker!F53="on hold",Tracker!F53="No Response",Tracker!F53="pending",Tracker!F77="ghosted"), 0.2, IF(Tracker!F53="interviewing", 0.4, IF(Tracker!F53="rejected", 0.3, IF(Tracker!F53="offer", 1, 0))))</f>
@@ -7266,11 +7266,11 @@
       </c>
       <c r="J53">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37230000000000008</v>
+        <v>0.49770000000000003</v>
       </c>
       <c r="K53">
         <f t="shared" ca="1" si="3"/>
-        <v>2.0964000000000009</v>
+        <v>2.2636000000000012</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="D54">
         <f ca="1">(Tracker!G54+Tracker!H54)/2</f>
-        <v>87.5</v>
+        <v>112.5</v>
       </c>
       <c r="E54" s="10">
         <f>IF(OR(Tracker!F54="denied",Tracker!F54="on hold",Tracker!F54="No Response",Tracker!F54="pending",Tracker!F78="ghosted"), 0.2, IF(Tracker!F54="interviewing", 0.4, IF(Tracker!F54="rejected", 0.3, IF(Tracker!F54="offer", 1, 0))))</f>
@@ -7311,11 +7311,11 @@
       </c>
       <c r="J54">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.20625000000000027</v>
+        <v>0.50624999999999964</v>
       </c>
       <c r="K54">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3250000000000002</v>
+        <v>2.2750000000000004</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
@@ -7333,7 +7333,7 @@
       </c>
       <c r="D55">
         <f ca="1">(Tracker!G55+Tracker!H55)/2</f>
-        <v>94.5</v>
+        <v>115.5</v>
       </c>
       <c r="E55" s="10">
         <f>IF(OR(Tracker!F55="denied",Tracker!F55="on hold",Tracker!F55="No Response",Tracker!F55="pending",Tracker!F79="ghosted"), 0.2, IF(Tracker!F55="interviewing", 0.4, IF(Tracker!F55="rejected", 0.3, IF(Tracker!F55="offer", 1, 0))))</f>
@@ -7356,11 +7356,11 @@
       </c>
       <c r="J55">
         <f t="shared" ca="1" si="2"/>
-        <v>-6.7500000000002558E-3</v>
+        <v>0.59174999999999933</v>
       </c>
       <c r="K55">
         <f t="shared" ca="1" si="3"/>
-        <v>0.69324999999999992</v>
+        <v>1.2917499999999995</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
@@ -7378,7 +7378,7 @@
       </c>
       <c r="D56">
         <f ca="1">(Tracker!G56+Tracker!H56)/2</f>
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="E56" s="10">
         <f>IF(OR(Tracker!F56="denied",Tracker!F56="on hold",Tracker!F56="No Response",Tracker!F56="pending",Tracker!F80="ghosted"), 0.2, IF(Tracker!F56="interviewing", 0.4, IF(Tracker!F56="rejected", 0.3, IF(Tracker!F56="offer", 1, 0))))</f>
@@ -7401,11 +7401,11 @@
       </c>
       <c r="J56">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.13500000000000023</v>
+        <v>0.2354999999999996</v>
       </c>
       <c r="K56">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.29000000000000026</v>
+        <v>-4.2999999999999927E-2</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
@@ -7423,7 +7423,7 @@
       </c>
       <c r="D57">
         <f ca="1">(Tracker!G57+Tracker!H57)/2</f>
-        <v>92</v>
+        <v>106.5</v>
       </c>
       <c r="E57" s="10">
         <f>IF(OR(Tracker!F57="denied",Tracker!F57="on hold",Tracker!F57="No Response",Tracker!F57="pending",Tracker!F81="ghosted"), 0.2, IF(Tracker!F57="interviewing", 0.4, IF(Tracker!F57="rejected", 0.3, IF(Tracker!F57="offer", 1, 0))))</f>
@@ -7446,11 +7446,11 @@
       </c>
       <c r="J57">
         <f t="shared" ca="1" si="2"/>
-        <v>-7.8000000000000735E-2</v>
+        <v>0.33524999999999983</v>
       </c>
       <c r="K57">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.252</v>
+        <v>2.3499999999999854E-2</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
@@ -7468,7 +7468,7 @@
       </c>
       <c r="D58">
         <f ca="1">(Tracker!G58+Tracker!H58)/2</f>
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E58" s="10">
         <f>IF(OR(Tracker!F58="denied",Tracker!F58="on hold",Tracker!F58="No Response",Tracker!F58="pending",Tracker!F82="ghosted"), 0.2, IF(Tracker!F58="interviewing", 0.4, IF(Tracker!F58="rejected", 0.3, IF(Tracker!F58="offer", 1, 0))))</f>
@@ -7491,11 +7491,11 @@
       </c>
       <c r="J58">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.24900000000000055</v>
+        <v>-0.16350000000000042</v>
       </c>
       <c r="K58">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.3660000000000001</v>
+        <v>-0.30899999999999994</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
@@ -7513,7 +7513,7 @@
       </c>
       <c r="D59">
         <f ca="1">(Tracker!G59+Tracker!H59)/2</f>
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E59" s="10">
         <f>IF(OR(Tracker!F59="denied",Tracker!F59="on hold",Tracker!F59="No Response",Tracker!F59="pending",Tracker!F83="ghosted"), 0.2, IF(Tracker!F59="interviewing", 0.4, IF(Tracker!F59="rejected", 0.3, IF(Tracker!F59="offer", 1, 0))))</f>
@@ -7536,11 +7536,11 @@
       </c>
       <c r="J59">
         <f t="shared" ca="1" si="2"/>
-        <v>0.43499999999999961</v>
+        <v>0.29249999999999954</v>
       </c>
       <c r="K59">
         <f t="shared" ca="1" si="3"/>
-        <v>8.9999999999999858E-2</v>
+        <v>-5.0000000000001155E-3</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
@@ -7558,7 +7558,7 @@
       </c>
       <c r="D60">
         <f ca="1">(Tracker!G60+Tracker!H60)/2</f>
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="E60" s="10">
         <f>IF(OR(Tracker!F60="denied",Tracker!F60="on hold",Tracker!F60="No Response",Tracker!F60="pending",Tracker!F84="ghosted"), 0.2, IF(Tracker!F60="interviewing", 0.4, IF(Tracker!F60="rejected", 0.3, IF(Tracker!F60="offer", 1, 0))))</f>
@@ -7581,11 +7581,11 @@
       </c>
       <c r="J60">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37799999999999967</v>
+        <v>0.71999999999999931</v>
       </c>
       <c r="K60">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2000000000000046E-2</v>
+        <v>0.2799999999999998</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
@@ -7603,7 +7603,7 @@
       </c>
       <c r="D61">
         <f ca="1">(Tracker!G61+Tracker!H61)/2</f>
-        <v>96.5</v>
+        <v>106</v>
       </c>
       <c r="E61" s="10">
         <f>IF(OR(Tracker!F61="denied",Tracker!F61="on hold",Tracker!F61="No Response",Tracker!F61="pending",Tracker!F85="ghosted"), 0.2, IF(Tracker!F61="interviewing", 0.4, IF(Tracker!F61="rejected", 0.3, IF(Tracker!F61="offer", 1, 0))))</f>
@@ -7626,11 +7626,11 @@
       </c>
       <c r="J61">
         <f t="shared" ca="1" si="2"/>
-        <v>5.0249999999999684E-2</v>
+        <v>0.32099999999999973</v>
       </c>
       <c r="K61">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.16649999999999987</v>
+        <v>1.4000000000000234E-2</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
@@ -7648,7 +7648,7 @@
       </c>
       <c r="D62">
         <f ca="1">(Tracker!G62+Tracker!H62)/2</f>
-        <v>85.5</v>
+        <v>101</v>
       </c>
       <c r="E62" s="10">
         <f>IF(OR(Tracker!F62="denied",Tracker!F62="on hold",Tracker!F62="No Response",Tracker!F62="pending",Tracker!F86="ghosted"), 0.2, IF(Tracker!F62="interviewing", 0.4, IF(Tracker!F62="rejected", 0.3, IF(Tracker!F62="offer", 1, 0))))</f>
@@ -7671,11 +7671,11 @@
       </c>
       <c r="J62">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.26325000000000065</v>
+        <v>0.17849999999999966</v>
       </c>
       <c r="K62">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43674999999999953</v>
+        <v>0.87849999999999984</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
@@ -7693,7 +7693,7 @@
       </c>
       <c r="D63">
         <f ca="1">(Tracker!G63+Tracker!H63)/2</f>
-        <v>119</v>
+        <v>87.5</v>
       </c>
       <c r="E63" s="10">
         <f>IF(OR(Tracker!F63="denied",Tracker!F63="on hold",Tracker!F63="No Response",Tracker!F63="pending",Tracker!F87="ghosted"), 0.2, IF(Tracker!F63="interviewing", 0.4, IF(Tracker!F63="rejected", 0.3, IF(Tracker!F63="offer", 1, 0))))</f>
@@ -7716,11 +7716,11 @@
       </c>
       <c r="J63">
         <f t="shared" ca="1" si="2"/>
-        <v>0.69149999999999912</v>
+        <v>-0.20625000000000027</v>
       </c>
       <c r="K63">
         <f t="shared" ca="1" si="3"/>
-        <v>0.26100000000000012</v>
+        <v>-0.33749999999999991</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
@@ -7738,7 +7738,7 @@
       </c>
       <c r="D64">
         <f ca="1">(Tracker!G64+Tracker!H64)/2</f>
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="E64" s="10">
         <f>IF(OR(Tracker!F64="denied",Tracker!F64="on hold",Tracker!F64="No Response",Tracker!F64="pending",Tracker!F88="ghosted"), 0.2, IF(Tracker!F64="interviewing", 0.4, IF(Tracker!F64="rejected", 0.3, IF(Tracker!F64="offer", 1, 0))))</f>
@@ -7761,11 +7761,11 @@
       </c>
       <c r="J64">
         <f t="shared" ca="1" si="2"/>
-        <v>-7.8000000000000735E-2</v>
+        <v>0.37799999999999967</v>
       </c>
       <c r="K64">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.252</v>
+        <v>5.2000000000000046E-2</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
@@ -7783,7 +7783,7 @@
       </c>
       <c r="D65">
         <f ca="1">(Tracker!G65+Tracker!H65)/2</f>
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="E65" s="10">
         <f>IF(OR(Tracker!F65="denied",Tracker!F65="on hold",Tracker!F65="No Response",Tracker!F65="pending",Tracker!F89="ghosted"), 0.2, IF(Tracker!F65="interviewing", 0.4, IF(Tracker!F65="rejected", 0.3, IF(Tracker!F65="offer", 1, 0))))</f>
@@ -7806,11 +7806,11 @@
       </c>
       <c r="J65">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3523499999999995</v>
+        <v>4.4549999999999645E-2</v>
       </c>
       <c r="K65">
         <f t="shared" ca="1" si="3"/>
-        <v>3.4899999999999931E-2</v>
+        <v>-0.1702999999999999</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.35">
@@ -7828,7 +7828,7 @@
       </c>
       <c r="D66">
         <f ca="1">(Tracker!G66+Tracker!H66)/2</f>
-        <v>113</v>
+        <v>103.5</v>
       </c>
       <c r="E66" s="10">
         <f>IF(OR(Tracker!F66="denied",Tracker!F66="on hold",Tracker!F66="No Response",Tracker!F66="pending",Tracker!F90="ghosted"), 0.2, IF(Tracker!F66="interviewing", 0.4, IF(Tracker!F66="rejected", 0.3, IF(Tracker!F66="offer", 1, 0))))</f>
@@ -7851,11 +7851,11 @@
       </c>
       <c r="J66">
         <f t="shared" ca="1" si="2"/>
-        <v>0.19844999999999935</v>
+        <v>-4.5225000000000293E-2</v>
       </c>
       <c r="K66">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0671428571428581</v>
+        <v>0.80928571428571461</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
@@ -7873,7 +7873,7 @@
       </c>
       <c r="D67">
         <f ca="1">(Tracker!G67+Tracker!H67)/2</f>
-        <v>88</v>
+        <v>111.5</v>
       </c>
       <c r="E67" s="10">
         <f>IF(OR(Tracker!F67="denied",Tracker!F67="on hold",Tracker!F67="No Response",Tracker!F67="pending",Tracker!F91="ghosted"), 0.2, IF(Tracker!F67="interviewing", 0.4, IF(Tracker!F67="rejected", 0.3, IF(Tracker!F67="offer", 1, 0))))</f>
@@ -7896,11 +7896,11 @@
       </c>
       <c r="J67">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.44280000000000053</v>
+        <v>0.15997499999999931</v>
       </c>
       <c r="K67">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.32800000000000007</v>
+        <v>0.11849999999999961</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
@@ -7918,7 +7918,7 @@
       </c>
       <c r="D68">
         <f ca="1">(Tracker!G68+Tracker!H68)/2</f>
-        <v>89</v>
+        <v>94.5</v>
       </c>
       <c r="E68" s="10">
         <f>IF(OR(Tracker!F68="denied",Tracker!F68="on hold",Tracker!F68="No Response",Tracker!F68="pending",Tracker!F92="ghosted"), 0.2, IF(Tracker!F68="interviewing", 0.4, IF(Tracker!F68="rejected", 0.3, IF(Tracker!F68="offer", 1, 0))))</f>
@@ -7941,11 +7941,11 @@
       </c>
       <c r="J68">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.41715000000000035</v>
+        <v>-0.27607500000000051</v>
       </c>
       <c r="K68">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.30900000000000016</v>
+        <v>-0.2044999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
@@ -7963,7 +7963,7 @@
       </c>
       <c r="D69">
         <f ca="1">(Tracker!G69+Tracker!H69)/2</f>
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="E69" s="10">
         <f>IF(OR(Tracker!F69="denied",Tracker!F69="on hold",Tracker!F69="No Response",Tracker!F69="pending",Tracker!F93="ghosted"), 0.2, IF(Tracker!F69="interviewing", 0.4, IF(Tracker!F69="rejected", 0.3, IF(Tracker!F69="offer", 1, 0))))</f>
@@ -7986,11 +7986,11 @@
       </c>
       <c r="J69">
         <f t="shared" ca="1" si="2"/>
-        <v>0.27539999999999942</v>
+        <v>-0.49409999999999998</v>
       </c>
       <c r="K69">
         <f t="shared" ca="1" si="3"/>
-        <v>0.20400000000000018</v>
+        <v>-0.3660000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.35">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="D70">
         <f ca="1">(Tracker!G70+Tracker!H70)/2</f>
-        <v>92</v>
+        <v>79.5</v>
       </c>
       <c r="E70" s="10">
         <f>IF(OR(Tracker!F70="denied",Tracker!F70="on hold",Tracker!F70="No Response",Tracker!F70="pending",Tracker!F94="ghosted"), 0.2, IF(Tracker!F70="interviewing", 0.4, IF(Tracker!F70="rejected", 0.3, IF(Tracker!F70="offer", 1, 0))))</f>
@@ -8031,11 +8031,11 @@
       </c>
       <c r="J70">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.34020000000000028</v>
+        <v>-0.66082500000000044</v>
       </c>
       <c r="K70">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.25199999999999978</v>
+        <v>-0.48950000000000005</v>
       </c>
     </row>
   </sheetData>

--- a/example_app_tracker.xlsx
+++ b/example_app_tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\graha\OneDrive\Documents\GitHub\application_tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E467CBE5-2312-45C0-9CD9-7849EDAB45C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19E8D26-D1F5-4D19-AF4A-D9164B0882B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17350" yWindow="5010" windowWidth="20070" windowHeight="15190" activeTab="1" xr2:uid="{85E7A6A4-6F22-48D9-815F-FC03736B7AC4}"/>
+    <workbookView xWindow="17350" yWindow="5010" windowWidth="20070" windowHeight="15190" xr2:uid="{85E7A6A4-6F22-48D9-815F-FC03736B7AC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="245">
   <si>
     <t>Company</t>
   </si>
@@ -445,9 +445,6 @@
     <t>Company 2</t>
   </si>
   <si>
-    <t>Company 3</t>
-  </si>
-  <si>
     <t>Company 4</t>
   </si>
   <si>
@@ -469,9 +466,6 @@
     <t>Company 10</t>
   </si>
   <si>
-    <t>Company 11</t>
-  </si>
-  <si>
     <t>Title 11</t>
   </si>
   <si>
@@ -505,9 +499,6 @@
     <t>Title 16</t>
   </si>
   <si>
-    <t>Company 17</t>
-  </si>
-  <si>
     <t>Title 17</t>
   </si>
   <si>
@@ -547,9 +538,6 @@
     <t>Title 23</t>
   </si>
   <si>
-    <t>Company 24</t>
-  </si>
-  <si>
     <t>Title 24</t>
   </si>
   <si>
@@ -691,9 +679,6 @@
     <t>Title 47</t>
   </si>
   <si>
-    <t>Company 48</t>
-  </si>
-  <si>
     <t>Title 48</t>
   </si>
   <si>
@@ -709,9 +694,6 @@
     <t>Title 50</t>
   </si>
   <si>
-    <t>Company 51</t>
-  </si>
-  <si>
     <t>Title 51</t>
   </si>
   <si>
@@ -727,9 +709,6 @@
     <t>Title 53</t>
   </si>
   <si>
-    <t>Company 54</t>
-  </si>
-  <si>
     <t>Title 54</t>
   </si>
   <si>
@@ -793,15 +772,9 @@
     <t>Title 64</t>
   </si>
   <si>
-    <t>Company 65</t>
-  </si>
-  <si>
     <t>Title 65</t>
   </si>
   <si>
-    <t>Company 66</t>
-  </si>
-  <si>
     <t>Title 66</t>
   </si>
   <si>
@@ -902,6 +875,75 @@
   </si>
   <si>
     <t>Recording</t>
+  </si>
+  <si>
+    <t>Company 75</t>
+  </si>
+  <si>
+    <t>Title 75</t>
+  </si>
+  <si>
+    <t>Company 76</t>
+  </si>
+  <si>
+    <t>Title 76</t>
+  </si>
+  <si>
+    <t>Company 77</t>
+  </si>
+  <si>
+    <t>Title 77</t>
+  </si>
+  <si>
+    <t>Company 78</t>
+  </si>
+  <si>
+    <t>Title 78</t>
+  </si>
+  <si>
+    <t>Company 79</t>
+  </si>
+  <si>
+    <t>Title 79</t>
+  </si>
+  <si>
+    <t>Company 80</t>
+  </si>
+  <si>
+    <t>Title 80</t>
+  </si>
+  <si>
+    <t>Company 81</t>
+  </si>
+  <si>
+    <t>Title 81</t>
+  </si>
+  <si>
+    <t>Company 82</t>
+  </si>
+  <si>
+    <t>Title 82</t>
+  </si>
+  <si>
+    <t>Company 83</t>
+  </si>
+  <si>
+    <t>Title 83</t>
+  </si>
+  <si>
+    <t>Company 84</t>
+  </si>
+  <si>
+    <t>Title 84</t>
+  </si>
+  <si>
+    <t>Company 85</t>
+  </si>
+  <si>
+    <t>Title 85</t>
+  </si>
+  <si>
+    <t>Bailed</t>
   </si>
 </sst>
 </file>
@@ -1451,11 +1493,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2050F9-523E-4C88-ABEB-54BB5869DFA0}">
-  <dimension ref="A1:K75"/>
+  <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L63" sqref="L63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1528,12 +1570,12 @@
         <v>55</v>
       </c>
       <c r="G2">
-        <f ca="1">ROUND(RAND()*60+50,0)</f>
-        <v>107</v>
+        <f ca="1">ROUND(RAND()*60+40,0)</f>
+        <v>81</v>
       </c>
       <c r="H2">
-        <f ca="1">ROUND(RAND()*40+100,0)</f>
-        <v>119</v>
+        <f ca="1">ROUND(RAND()*40+90,0)</f>
+        <v>121</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>11</v>
@@ -1542,7 +1584,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="3">
-        <f t="shared" ref="K2:K15" si="0">WEEKNUM(E2)-14</f>
+        <f>WEEKNUM(E2)-14</f>
         <v>1</v>
       </c>
     </row>
@@ -1566,12 +1608,12 @@
         <v>35</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G66" ca="1" si="1">ROUND(RAND()*60+50,0)</f>
-        <v>90</v>
+        <f t="shared" ref="G3:G66" ca="1" si="0">ROUND(RAND()*60+40,0)</f>
+        <v>91</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H66" ca="1" si="2">ROUND(RAND()*40+100,0)</f>
-        <v>119</v>
+        <f t="shared" ref="H3:H66" ca="1" si="1">ROUND(RAND()*40+90,0)</f>
+        <v>98</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>11</v>
@@ -1580,13 +1622,13 @@
         <v>3</v>
       </c>
       <c r="K3" s="3">
-        <f t="shared" si="0"/>
+        <f>WEEKNUM(E3)-14</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>68</v>
@@ -1604,2652 +1646,2652 @@
         <v>4</v>
       </c>
       <c r="G4">
+        <f t="shared" ca="1" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ca="1" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <f>WEEKNUM(E4)-14</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="4">
+        <v>45756</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ca="1" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ca="1" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <f>WEEKNUM(E5)-14</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4">
+        <v>45756</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ca="1" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ca="1" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <f>WEEKNUM(E6)-14</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4">
+        <v>45759</v>
+      </c>
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ca="1" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3">
+        <f>WEEKNUM(E7)-14</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="4">
+        <v>45764</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ca="1" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ca="1" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <f>WEEKNUM(E8)-14</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4">
+        <v>45768</v>
+      </c>
+      <c r="F9" t="s">
+        <v>206</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ca="1" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ca="1" si="1"/>
+        <v>121</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <f>WEEKNUM(E9)-14</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="4">
+        <v>45769</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ca="1" si="1"/>
+        <v>129</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <f>WEEKNUM(E10)-14</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="4">
+        <v>45770</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ca="1" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ca="1" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <f>WEEKNUM(E11)-14</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="4">
+        <v>45771</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ca="1" si="1"/>
+        <v>121</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <f>WEEKNUM(E12)-14</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="4">
+        <v>45774</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ca="1" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="H13">
         <f t="shared" ca="1" si="1"/>
         <v>93</v>
       </c>
-      <c r="H4">
-        <f t="shared" ca="1" si="2"/>
-        <v>115</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="2">
+      <c r="I13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="2">
         <v>0</v>
       </c>
-      <c r="K4" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="4">
-        <v>45756</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="K13" s="3">
+        <f>WEEKNUM(E13)-14</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="4">
+        <v>45775</v>
+      </c>
+      <c r="F14" t="s">
         <v>35</v>
       </c>
-      <c r="G5">
+      <c r="G14">
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="H14">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="H5">
-        <f t="shared" ca="1" si="2"/>
-        <v>114</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1</v>
-      </c>
-      <c r="K5" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
+        <v>110</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <f>WEEKNUM(E14)-14</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="4">
-        <v>45756</v>
-      </c>
-      <c r="F6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <f t="shared" ca="1" si="1"/>
-        <v>94</v>
-      </c>
-      <c r="H6">
-        <f t="shared" ca="1" si="2"/>
-        <v>129</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="4">
-        <v>45759</v>
-      </c>
-      <c r="F7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7">
+      <c r="E15" s="4">
+        <v>45776</v>
+      </c>
+      <c r="F15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ca="1" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="H15">
         <f t="shared" ca="1" si="1"/>
         <v>101</v>
       </c>
-      <c r="H7">
-        <f t="shared" ca="1" si="2"/>
-        <v>130</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="2">
-        <v>1</v>
-      </c>
-      <c r="K7" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="I15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <f>WEEKNUM(E15)-14</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="4">
+        <v>45777</v>
+      </c>
+      <c r="F16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ca="1" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ca="1" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="2">
+        <v>3</v>
+      </c>
+      <c r="K16" s="3">
+        <f>WEEKNUM(E16)-14</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B17" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" t="s">
         <v>21</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D17" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="4">
-        <v>45764</v>
-      </c>
-      <c r="F8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8">
+      <c r="E17" s="4">
+        <v>45778</v>
+      </c>
+      <c r="F17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ca="1" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="H17">
         <f t="shared" ca="1" si="1"/>
         <v>93</v>
       </c>
-      <c r="H8">
-        <f t="shared" ca="1" si="2"/>
-        <v>112</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
+      <c r="K17" s="3">
+        <f>WEEKNUM(E17)-14</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="4">
+        <v>45778</v>
+      </c>
+      <c r="F18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ca="1" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1</v>
+      </c>
+      <c r="K18" s="3">
+        <f>WEEKNUM(E18)-14</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="4">
+        <v>45778</v>
+      </c>
+      <c r="F19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ca="1" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ca="1" si="1"/>
+        <v>123</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="2">
         <v>0</v>
       </c>
-      <c r="K8" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="K19" s="3">
+        <f>WEEKNUM(E19)-14</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>132</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="4">
-        <v>45778</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E20" s="4">
+        <v>45779</v>
+      </c>
+      <c r="F20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ca="1" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ca="1" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <f>WEEKNUM(E20)-14</f>
         <v>4</v>
       </c>
-      <c r="G9">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="4">
+        <v>45780</v>
+      </c>
+      <c r="F21" t="s">
+        <v>206</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ca="1" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H21">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
-      </c>
-      <c r="H9">
-        <f t="shared" ca="1" si="2"/>
-        <v>107</v>
-      </c>
-      <c r="I9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <f>WEEKNUM(E21)-14</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="4">
+        <v>45781</v>
+      </c>
+      <c r="F22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ca="1" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <f>WEEKNUM(E22)-14</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="4">
+        <v>45781</v>
+      </c>
+      <c r="F23" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ca="1" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="H23">
+        <f t="shared" ca="1" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="2">
         <v>1</v>
       </c>
-      <c r="K9" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="K23" s="3">
+        <f>WEEKNUM(E23)-14</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="4">
-        <v>45778</v>
-      </c>
-      <c r="F10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10">
-        <f t="shared" ca="1" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="H10">
-        <f t="shared" ca="1" si="2"/>
-        <v>106</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="2">
-        <v>1</v>
-      </c>
-      <c r="K10" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="4">
-        <v>45781</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E24" s="4">
+        <v>45782</v>
+      </c>
+      <c r="F24" t="s">
         <v>55</v>
       </c>
-      <c r="G11">
+      <c r="G24">
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="H24">
         <f t="shared" ca="1" si="1"/>
         <v>105</v>
       </c>
-      <c r="H11">
-        <f t="shared" ca="1" si="2"/>
-        <v>110</v>
-      </c>
-      <c r="I11" s="1" t="s">
+      <c r="I24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <f>WEEKNUM(E24)-14</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="4">
+        <v>45783</v>
+      </c>
+      <c r="F25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ca="1" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0</v>
+      </c>
+      <c r="K25" s="3">
+        <f>WEEKNUM(E25)-14</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="4">
+        <v>45784</v>
+      </c>
+      <c r="F26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ca="1" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="H26">
+        <f t="shared" ca="1" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J26" s="2">
         <v>0</v>
       </c>
-      <c r="K11" s="3">
-        <f t="shared" si="0"/>
+      <c r="K26" s="3">
+        <f>WEEKNUM(E26)-14</f>
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E27" s="4">
         <v>45784</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F27" t="s">
         <v>35</v>
       </c>
-      <c r="G12">
-        <f t="shared" ca="1" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="H12">
-        <f t="shared" ca="1" si="2"/>
-        <v>122</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="4">
-        <v>45809</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13">
+      <c r="G27">
+        <f t="shared" ca="1" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="H27">
         <f t="shared" ca="1" si="1"/>
         <v>98</v>
       </c>
-      <c r="H13">
-        <f t="shared" ca="1" si="2"/>
-        <v>137</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0</v>
-      </c>
-      <c r="K13" s="3">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="I27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="2">
+        <v>2</v>
+      </c>
+      <c r="K27" s="3">
+        <f>WEEKNUM(E27)-14</f>
         <v>5</v>
-      </c>
-      <c r="E14" s="4">
-        <v>45811</v>
-      </c>
-      <c r="F14" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14">
-        <f t="shared" ca="1" si="1"/>
-        <v>97</v>
-      </c>
-      <c r="H14">
-        <f t="shared" ca="1" si="2"/>
-        <v>117</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="4">
-        <v>45812</v>
-      </c>
-      <c r="F15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15">
-        <f t="shared" ca="1" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="H15">
-        <f t="shared" ca="1" si="2"/>
-        <v>121</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="4">
-        <v>45813</v>
-      </c>
-      <c r="F16" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16">
-        <f t="shared" ca="1" si="1"/>
-        <v>69</v>
-      </c>
-      <c r="H16">
-        <f t="shared" ca="1" si="2"/>
-        <v>102</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="2">
-        <v>0</v>
-      </c>
-      <c r="K16" s="3">
-        <f t="shared" ref="K16:K41" si="3">WEEKNUM(E16)-14</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="4">
-        <v>45814</v>
-      </c>
-      <c r="F17" t="s">
-        <v>215</v>
-      </c>
-      <c r="G17">
-        <f t="shared" ca="1" si="1"/>
-        <v>101</v>
-      </c>
-      <c r="H17">
-        <f t="shared" ca="1" si="2"/>
-        <v>104</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" s="2">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="4">
-        <v>45815</v>
-      </c>
-      <c r="F18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18">
-        <f t="shared" ca="1" si="1"/>
-        <v>86</v>
-      </c>
-      <c r="H18">
-        <f t="shared" ca="1" si="2"/>
-        <v>139</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>100</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="4">
-        <v>45816</v>
-      </c>
-      <c r="F19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19">
-        <f t="shared" ca="1" si="1"/>
-        <v>102</v>
-      </c>
-      <c r="H19">
-        <f t="shared" ca="1" si="2"/>
-        <v>121</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" s="2">
-        <v>2</v>
-      </c>
-      <c r="K19" s="3">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>102</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="4">
-        <v>45817</v>
-      </c>
-      <c r="F20" t="s">
-        <v>2</v>
-      </c>
-      <c r="G20">
-        <f t="shared" ca="1" si="1"/>
-        <v>95</v>
-      </c>
-      <c r="H20">
-        <f t="shared" ca="1" si="2"/>
-        <v>133</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" s="2">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>104</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="4">
-        <v>45818</v>
-      </c>
-      <c r="F21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21">
-        <f t="shared" ca="1" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="H21">
-        <f t="shared" ca="1" si="2"/>
-        <v>103</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="J21" s="2">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>106</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="4">
-        <v>45819</v>
-      </c>
-      <c r="F22" t="s">
-        <v>2</v>
-      </c>
-      <c r="G22">
-        <f t="shared" ca="1" si="1"/>
-        <v>71</v>
-      </c>
-      <c r="H22">
-        <f t="shared" ca="1" si="2"/>
-        <v>125</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="J22" s="2">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>108</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="4">
-        <v>45820</v>
-      </c>
-      <c r="F23" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23">
-        <f t="shared" ca="1" si="1"/>
-        <v>61</v>
-      </c>
-      <c r="H23">
-        <f t="shared" ca="1" si="2"/>
-        <v>134</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="J23" s="2">
-        <v>1</v>
-      </c>
-      <c r="K23" s="3">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>110</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C24" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="4">
-        <v>45821</v>
-      </c>
-      <c r="F24" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24">
-        <f t="shared" ca="1" si="1"/>
-        <v>110</v>
-      </c>
-      <c r="H24">
-        <f t="shared" ca="1" si="2"/>
-        <v>116</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J24" s="2">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>112</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="4">
-        <v>45822</v>
-      </c>
-      <c r="F25" t="s">
-        <v>4</v>
-      </c>
-      <c r="G25">
-        <f t="shared" ca="1" si="1"/>
-        <v>61</v>
-      </c>
-      <c r="H25">
-        <f t="shared" ca="1" si="2"/>
-        <v>117</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J25" s="2">
-        <v>0</v>
-      </c>
-      <c r="K25" s="3">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>114</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="4">
-        <v>45768</v>
-      </c>
-      <c r="F26" t="s">
-        <v>215</v>
-      </c>
-      <c r="G26">
-        <f t="shared" ca="1" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="H26">
-        <f t="shared" ca="1" si="2"/>
-        <v>110</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J26" s="2">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>116</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="4">
-        <v>45769</v>
-      </c>
-      <c r="F27" t="s">
-        <v>2</v>
-      </c>
-      <c r="G27">
-        <f t="shared" ca="1" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="H27">
-        <f t="shared" ca="1" si="2"/>
-        <v>127</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J27" s="2">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
-        <f t="shared" si="3"/>
-        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E28" s="4">
-        <v>45770</v>
+        <v>45785</v>
       </c>
       <c r="F28" t="s">
         <v>2</v>
       </c>
       <c r="G28">
+        <f t="shared" ca="1" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="H28">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
-      </c>
-      <c r="H28">
-        <f t="shared" ca="1" si="2"/>
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="J28" s="2">
         <v>0</v>
       </c>
       <c r="K28" s="3">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f>WEEKNUM(E28)-14</f>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E29" s="4">
-        <v>45771</v>
+        <v>45786</v>
       </c>
       <c r="F29" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="G29">
+        <f t="shared" ca="1" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="H29">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="H29">
-        <f t="shared" ca="1" si="2"/>
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J29" s="2">
         <v>0</v>
       </c>
       <c r="K29" s="3">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f>WEEKNUM(E29)-14</f>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E30" s="4">
-        <v>45752</v>
+        <v>45787</v>
       </c>
       <c r="F30" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="G30">
+        <f t="shared" ca="1" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="H30">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
-      </c>
-      <c r="H30">
-        <f t="shared" ca="1" si="2"/>
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J30" s="2">
         <v>0</v>
       </c>
       <c r="K30" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>WEEKNUM(E30)-14</f>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="C31" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E31" s="4">
-        <v>45752</v>
+        <v>45788</v>
       </c>
       <c r="F31" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="G31">
+        <f t="shared" ca="1" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="H31">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
-      </c>
-      <c r="H31">
-        <f t="shared" ca="1" si="2"/>
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J31" s="2">
         <v>0</v>
       </c>
       <c r="K31" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>WEEKNUM(E31)-14</f>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D32" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E32" s="4">
-        <v>45774</v>
+        <v>45789</v>
       </c>
       <c r="F32" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="G32">
+        <f t="shared" ca="1" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="H32">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
-      </c>
-      <c r="H32">
-        <f t="shared" ca="1" si="2"/>
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J32" s="2">
         <v>0</v>
       </c>
       <c r="K32" s="3">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f>WEEKNUM(E32)-14</f>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D33" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E33" s="4">
-        <v>45775</v>
+        <v>45790</v>
       </c>
       <c r="F33" t="s">
         <v>35</v>
       </c>
       <c r="G33">
+        <f t="shared" ca="1" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="H33">
+        <f t="shared" ca="1" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
+        <f>WEEKNUM(E33)-14</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>185</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="4">
+        <v>45791</v>
+      </c>
+      <c r="F34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <f t="shared" ca="1" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="H34">
+        <f t="shared" ca="1" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0</v>
+      </c>
+      <c r="K34" s="3">
+        <f>WEEKNUM(E34)-14</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>157</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="4">
+        <v>45792</v>
+      </c>
+      <c r="F35" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35">
+        <f t="shared" ca="1" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="H35">
+        <f t="shared" ca="1" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
+        <f>WEEKNUM(E35)-14</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>159</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="4">
+        <v>45793</v>
+      </c>
+      <c r="F36" t="s">
+        <v>55</v>
+      </c>
+      <c r="G36">
+        <f t="shared" ca="1" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="H36">
+        <f t="shared" ca="1" si="1"/>
+        <v>123</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J36" s="2">
+        <v>0</v>
+      </c>
+      <c r="K36" s="3">
+        <f>WEEKNUM(E36)-14</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>159</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="4">
+        <v>45794</v>
+      </c>
+      <c r="F37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G37">
+        <f t="shared" ca="1" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="H37">
+        <f t="shared" ca="1" si="1"/>
+        <v>123</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0</v>
+      </c>
+      <c r="K37" s="3">
+        <f>WEEKNUM(E37)-14</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>162</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="4">
+        <v>45795</v>
+      </c>
+      <c r="F38" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <f t="shared" ca="1" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="H38">
+        <f t="shared" ca="1" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0</v>
+      </c>
+      <c r="K38" s="3">
+        <f>WEEKNUM(E38)-14</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>164</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="4">
+        <v>45796</v>
+      </c>
+      <c r="F39" t="s">
+        <v>35</v>
+      </c>
+      <c r="G39">
+        <f t="shared" ca="1" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="H39">
+        <f t="shared" ca="1" si="1"/>
+        <v>121</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J39" s="2">
+        <v>5</v>
+      </c>
+      <c r="K39" s="3">
+        <f>WEEKNUM(E39)-14</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>159</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="4">
+        <v>45797</v>
+      </c>
+      <c r="F40" t="s">
+        <v>35</v>
+      </c>
+      <c r="G40">
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="H40">
+        <f t="shared" ca="1" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J40" s="2">
+        <v>0</v>
+      </c>
+      <c r="K40" s="3">
+        <f>WEEKNUM(E40)-14</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>167</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="4">
+        <v>45798</v>
+      </c>
+      <c r="F41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <f t="shared" ca="1" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="H41">
+        <f t="shared" ca="1" si="1"/>
+        <v>129</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <f>WEEKNUM(E41)-14</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>169</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="4">
+        <v>45799</v>
+      </c>
+      <c r="F42" t="s">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <f t="shared" ca="1" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="H42">
+        <f t="shared" ca="1" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J42" s="2">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
+        <f>WEEKNUM(E42)-14</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>171</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="4">
+        <v>45800</v>
+      </c>
+      <c r="F43" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43">
+        <f t="shared" ca="1" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="H43">
+        <f t="shared" ca="1" si="1"/>
+        <v>127</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J43" s="2">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
+        <f>WEEKNUM(E43)-14</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>173</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="4">
+        <v>45801</v>
+      </c>
+      <c r="F44" t="s">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <f t="shared" ca="1" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="H44">
+        <f t="shared" ca="1" si="1"/>
+        <v>129</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J44" s="2">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
+        <f>WEEKNUM(E44)-14</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>175</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C45" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" s="4">
+        <v>45802</v>
+      </c>
+      <c r="F45" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45">
+        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="H45">
+        <f t="shared" ca="1" si="1"/>
+        <v>121</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J45" s="2">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <f>WEEKNUM(E45)-14</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>177</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C46" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" s="4">
+        <v>45803</v>
+      </c>
+      <c r="F46" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46">
+        <f t="shared" ca="1" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="H46">
+        <f t="shared" ca="1" si="1"/>
+        <v>123</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
+        <f>WEEKNUM(E46)-14</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>179</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C47" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="4">
+        <v>45804</v>
+      </c>
+      <c r="F47" t="s">
+        <v>35</v>
+      </c>
+      <c r="G47">
+        <f t="shared" ca="1" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="H47">
+        <f t="shared" ca="1" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J47" s="2">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
+        <f>WEEKNUM(E47)-14</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>181</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C48" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" s="4">
+        <v>45805</v>
+      </c>
+      <c r="F48" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="H48">
+        <f t="shared" ca="1" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J48" s="2">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
+        <f>WEEKNUM(E48)-14</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>183</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C49" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" s="4">
+        <v>45806</v>
+      </c>
+      <c r="F49" t="s">
+        <v>2</v>
+      </c>
+      <c r="G49">
+        <f t="shared" ca="1" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="H49">
+        <f t="shared" ca="1" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J49" s="2">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
+        <f>WEEKNUM(E49)-14</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>185</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C50" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="4">
+        <v>45807</v>
+      </c>
+      <c r="F50" t="s">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <f t="shared" ca="1" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="H50">
+        <f t="shared" ca="1" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J50" s="2">
+        <v>0</v>
+      </c>
+      <c r="K50" s="3">
+        <f>WEEKNUM(E50)-14</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>185</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C51" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" s="4">
+        <v>45808</v>
+      </c>
+      <c r="F51" t="s">
+        <v>55</v>
+      </c>
+      <c r="G51">
+        <f t="shared" ca="1" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="H51">
+        <f t="shared" ca="1" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J51" s="2">
+        <v>6</v>
+      </c>
+      <c r="K51" s="3">
+        <f>WEEKNUM(E51)-14</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>86</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C52" t="s">
+        <v>43</v>
+      </c>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="4">
+        <v>45809</v>
+      </c>
+      <c r="F52" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52">
+        <f t="shared" ca="1" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="H52">
+        <f t="shared" ca="1" si="1"/>
+        <v>123</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J52" s="2">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
+        <f>WEEKNUM(E52)-14</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>185</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C53" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" s="4">
+        <v>45809</v>
+      </c>
+      <c r="F53" t="s">
+        <v>55</v>
+      </c>
+      <c r="G53">
+        <f t="shared" ca="1" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="H53">
         <f t="shared" ca="1" si="1"/>
         <v>100</v>
       </c>
-      <c r="H33">
-        <f t="shared" ca="1" si="2"/>
-        <v>131</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J33" s="2">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>130</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C34" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="4">
-        <v>45776</v>
-      </c>
-      <c r="F34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G34">
-        <f t="shared" ca="1" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="H34">
-        <f t="shared" ca="1" si="2"/>
-        <v>135</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J34" s="2">
-        <v>0</v>
-      </c>
-      <c r="K34" s="3">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>132</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C35" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="4">
-        <v>45777</v>
-      </c>
-      <c r="F35" t="s">
-        <v>3</v>
-      </c>
-      <c r="G35">
-        <f t="shared" ca="1" si="1"/>
-        <v>61</v>
-      </c>
-      <c r="H35">
-        <f t="shared" ca="1" si="2"/>
-        <v>121</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J35" s="2">
-        <v>3</v>
-      </c>
-      <c r="K35" s="3">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>134</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C36" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="4">
-        <v>45778</v>
-      </c>
-      <c r="F36" t="s">
-        <v>4</v>
-      </c>
-      <c r="G36">
-        <f t="shared" ca="1" si="1"/>
-        <v>79</v>
-      </c>
-      <c r="H36">
-        <f t="shared" ca="1" si="2"/>
-        <v>101</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J36" s="2">
-        <v>0</v>
-      </c>
-      <c r="K36" s="3">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>136</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D37" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="4">
-        <v>45779</v>
-      </c>
-      <c r="F37" t="s">
-        <v>55</v>
-      </c>
-      <c r="G37">
-        <f t="shared" ca="1" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="H37">
-        <f t="shared" ca="1" si="2"/>
-        <v>122</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J37" s="2">
-        <v>0</v>
-      </c>
-      <c r="K37" s="3">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>138</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D38" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="4">
-        <v>45780</v>
-      </c>
-      <c r="F38" t="s">
-        <v>215</v>
-      </c>
-      <c r="G38">
-        <f t="shared" ca="1" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="H38">
-        <f t="shared" ca="1" si="2"/>
-        <v>124</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J38" s="2">
-        <v>0</v>
-      </c>
-      <c r="K38" s="3">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>140</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C39" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="4">
-        <v>45781</v>
-      </c>
-      <c r="F39" t="s">
-        <v>55</v>
-      </c>
-      <c r="G39">
-        <f t="shared" ca="1" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="H39">
-        <f t="shared" ca="1" si="2"/>
-        <v>106</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J39" s="2">
-        <v>1</v>
-      </c>
-      <c r="K39" s="3">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>142</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D40" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="4">
-        <v>45782</v>
-      </c>
-      <c r="F40" t="s">
-        <v>55</v>
-      </c>
-      <c r="G40">
-        <f t="shared" ca="1" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="H40">
-        <f t="shared" ca="1" si="2"/>
-        <v>115</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J40" s="2">
-        <v>0</v>
-      </c>
-      <c r="K40" s="3">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>144</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C41" t="s">
-        <v>22</v>
-      </c>
-      <c r="D41" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="4">
-        <v>45783</v>
-      </c>
-      <c r="F41" t="s">
-        <v>2</v>
-      </c>
-      <c r="G41">
-        <f t="shared" ca="1" si="1"/>
-        <v>87</v>
-      </c>
-      <c r="H41">
-        <f t="shared" ca="1" si="2"/>
-        <v>113</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J41" s="2">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>146</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C42" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="4">
-        <v>45784</v>
-      </c>
-      <c r="F42" t="s">
-        <v>35</v>
-      </c>
-      <c r="G42">
-        <f t="shared" ca="1" si="1"/>
-        <v>88</v>
-      </c>
-      <c r="H42">
-        <f t="shared" ca="1" si="2"/>
-        <v>140</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J42" s="2">
-        <v>2</v>
-      </c>
-      <c r="K42" s="3">
-        <f t="shared" ref="K42:K75" si="4">WEEKNUM(E42)-14</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>148</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C43" t="s">
-        <v>21</v>
-      </c>
-      <c r="D43" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" s="4">
-        <v>45785</v>
-      </c>
-      <c r="F43" t="s">
-        <v>2</v>
-      </c>
-      <c r="G43">
-        <f t="shared" ca="1" si="1"/>
-        <v>92</v>
-      </c>
-      <c r="H43">
-        <f t="shared" ca="1" si="2"/>
-        <v>119</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J43" s="2">
-        <v>0</v>
-      </c>
-      <c r="K43" s="3">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>150</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C44" t="s">
-        <v>21</v>
-      </c>
-      <c r="D44" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" s="4">
-        <v>45786</v>
-      </c>
-      <c r="F44" t="s">
-        <v>55</v>
-      </c>
-      <c r="G44">
-        <f t="shared" ca="1" si="1"/>
-        <v>98</v>
-      </c>
-      <c r="H44">
-        <f t="shared" ca="1" si="2"/>
-        <v>118</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J44" s="2">
-        <v>0</v>
-      </c>
-      <c r="K44" s="3">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>152</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C45" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" t="s">
-        <v>30</v>
-      </c>
-      <c r="E45" s="4">
-        <v>45787</v>
-      </c>
-      <c r="F45" t="s">
-        <v>55</v>
-      </c>
-      <c r="G45">
-        <f t="shared" ca="1" si="1"/>
-        <v>101</v>
-      </c>
-      <c r="H45">
-        <f t="shared" ca="1" si="2"/>
-        <v>121</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J45" s="2">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>154</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C46" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46" t="s">
-        <v>30</v>
-      </c>
-      <c r="E46" s="4">
-        <v>45788</v>
-      </c>
-      <c r="F46" t="s">
-        <v>4</v>
-      </c>
-      <c r="G46">
-        <f t="shared" ca="1" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="H46">
-        <f t="shared" ca="1" si="2"/>
-        <v>131</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J46" s="2">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>156</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C47" t="s">
-        <v>23</v>
-      </c>
-      <c r="D47" t="s">
-        <v>30</v>
-      </c>
-      <c r="E47" s="4">
-        <v>45789</v>
-      </c>
-      <c r="F47" t="s">
-        <v>55</v>
-      </c>
-      <c r="G47">
-        <f t="shared" ca="1" si="1"/>
-        <v>109</v>
-      </c>
-      <c r="H47">
-        <f t="shared" ca="1" si="2"/>
-        <v>115</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J47" s="2">
-        <v>0</v>
-      </c>
-      <c r="K47" s="3">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>158</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C48" t="s">
-        <v>23</v>
-      </c>
-      <c r="D48" t="s">
-        <v>30</v>
-      </c>
-      <c r="E48" s="4">
-        <v>45790</v>
-      </c>
-      <c r="F48" t="s">
-        <v>35</v>
-      </c>
-      <c r="G48">
-        <f t="shared" ca="1" si="1"/>
-        <v>67</v>
-      </c>
-      <c r="H48">
-        <f t="shared" ca="1" si="2"/>
-        <v>131</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J48" s="2">
-        <v>0</v>
-      </c>
-      <c r="K48" s="3">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>160</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C49" t="s">
-        <v>23</v>
-      </c>
-      <c r="D49" t="s">
-        <v>30</v>
-      </c>
-      <c r="E49" s="4">
-        <v>45791</v>
-      </c>
-      <c r="F49" t="s">
-        <v>2</v>
-      </c>
-      <c r="G49">
-        <f t="shared" ca="1" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="H49">
-        <f t="shared" ca="1" si="2"/>
-        <v>101</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J49" s="2">
-        <v>0</v>
-      </c>
-      <c r="K49" s="3">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>162</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C50" t="s">
-        <v>23</v>
-      </c>
-      <c r="D50" t="s">
-        <v>30</v>
-      </c>
-      <c r="E50" s="4">
-        <v>45792</v>
-      </c>
-      <c r="F50" t="s">
-        <v>35</v>
-      </c>
-      <c r="G50">
-        <f t="shared" ca="1" si="1"/>
-        <v>86</v>
-      </c>
-      <c r="H50">
-        <f t="shared" ca="1" si="2"/>
-        <v>131</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J50" s="2">
-        <v>0</v>
-      </c>
-      <c r="K50" s="3">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>164</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C51" t="s">
-        <v>32</v>
-      </c>
-      <c r="D51" t="s">
-        <v>30</v>
-      </c>
-      <c r="E51" s="4">
-        <v>45793</v>
-      </c>
-      <c r="F51" t="s">
-        <v>55</v>
-      </c>
-      <c r="G51">
-        <f t="shared" ca="1" si="1"/>
-        <v>74</v>
-      </c>
-      <c r="H51">
-        <f t="shared" ca="1" si="2"/>
-        <v>134</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J51" s="2">
-        <v>0</v>
-      </c>
-      <c r="K51" s="3">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>166</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="C52" t="s">
-        <v>43</v>
-      </c>
-      <c r="D52" t="s">
-        <v>30</v>
-      </c>
-      <c r="E52" s="4">
-        <v>45794</v>
-      </c>
-      <c r="F52" t="s">
-        <v>35</v>
-      </c>
-      <c r="G52">
-        <f t="shared" ca="1" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="H52">
-        <f t="shared" ca="1" si="2"/>
-        <v>131</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J52" s="2">
-        <v>0</v>
-      </c>
-      <c r="K52" s="3">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>168</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C53" t="s">
-        <v>43</v>
-      </c>
-      <c r="D53" t="s">
-        <v>30</v>
-      </c>
-      <c r="E53" s="4">
-        <v>45795</v>
-      </c>
-      <c r="F53" t="s">
-        <v>3</v>
-      </c>
-      <c r="G53">
-        <f t="shared" ca="1" si="1"/>
-        <v>101</v>
-      </c>
-      <c r="H53">
-        <f t="shared" ca="1" si="2"/>
-        <v>103</v>
-      </c>
       <c r="I53" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="J53" s="2">
         <v>0</v>
       </c>
       <c r="K53" s="3">
-        <f t="shared" si="4"/>
-        <v>7</v>
+        <f>WEEKNUM(E53)-14</f>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="C54" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D54" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E54" s="4">
-        <v>45796</v>
+        <v>45810</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="G54">
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="H54">
         <f t="shared" ca="1" si="1"/>
-        <v>102</v>
-      </c>
-      <c r="H54">
-        <f t="shared" ca="1" si="2"/>
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="J54" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K54" s="3">
-        <f t="shared" si="4"/>
-        <v>7</v>
+        <f>WEEKNUM(E54)-14</f>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>172</v>
+        <v>88</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>173</v>
+        <v>89</v>
       </c>
       <c r="C55" t="s">
         <v>43</v>
       </c>
       <c r="D55" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E55" s="4">
-        <v>45797</v>
+        <v>45811</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="G55">
+        <f t="shared" ca="1" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="H55">
         <f t="shared" ca="1" si="1"/>
-        <v>102</v>
-      </c>
-      <c r="H55">
-        <f t="shared" ca="1" si="2"/>
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="J55" s="2">
         <v>0</v>
       </c>
       <c r="K55" s="3">
-        <f t="shared" si="4"/>
-        <v>7</v>
+        <f>WEEKNUM(E55)-14</f>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D56" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E56" s="4">
-        <v>45798</v>
+        <v>45811</v>
       </c>
       <c r="F56" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G56">
+        <f t="shared" ca="1" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="H56">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="H56">
-        <f t="shared" ca="1" si="2"/>
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="J56" s="2">
         <v>0</v>
       </c>
       <c r="K56" s="3">
-        <f t="shared" si="4"/>
-        <v>7</v>
+        <f>WEEKNUM(E56)-14</f>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>176</v>
+        <v>90</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>177</v>
+        <v>91</v>
       </c>
       <c r="C57" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D57" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E57" s="4">
-        <v>45799</v>
+        <v>45812</v>
       </c>
       <c r="F57" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="G57">
+        <f t="shared" ca="1" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="H57">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
-      </c>
-      <c r="H57">
-        <f t="shared" ca="1" si="2"/>
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="J57" s="2">
         <v>0</v>
       </c>
       <c r="K57" s="3">
-        <f t="shared" si="4"/>
-        <v>7</v>
+        <f>WEEKNUM(E57)-14</f>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="C58" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D58" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E58" s="4">
-        <v>45800</v>
+        <v>45812</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="G58">
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="H58">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="H58">
-        <f t="shared" ca="1" si="2"/>
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="J58" s="2">
         <v>0</v>
       </c>
       <c r="K58" s="3">
-        <f t="shared" si="4"/>
-        <v>7</v>
+        <f>WEEKNUM(E58)-14</f>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>180</v>
+        <v>92</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>181</v>
+        <v>93</v>
       </c>
       <c r="C59" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D59" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E59" s="4">
-        <v>45801</v>
+        <v>45813</v>
       </c>
       <c r="F59" t="s">
         <v>2</v>
       </c>
       <c r="G59">
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="H59">
         <f t="shared" ca="1" si="1"/>
-        <v>106</v>
-      </c>
-      <c r="H59">
-        <f t="shared" ca="1" si="2"/>
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="J59" s="2">
         <v>0</v>
       </c>
       <c r="K59" s="3">
-        <f t="shared" si="4"/>
-        <v>7</v>
+        <f>WEEKNUM(E59)-14</f>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="C60" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D60" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E60" s="4">
-        <v>45802</v>
+        <v>45813</v>
       </c>
       <c r="F60" t="s">
-        <v>4</v>
+        <v>244</v>
       </c>
       <c r="G60">
+        <f t="shared" ca="1" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="H60">
         <f t="shared" ca="1" si="1"/>
         <v>108</v>
       </c>
-      <c r="H60">
-        <f t="shared" ca="1" si="2"/>
-        <v>132</v>
-      </c>
       <c r="I60" s="1" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="J60" s="2">
         <v>0</v>
       </c>
       <c r="K60" s="3">
-        <f t="shared" si="4"/>
-        <v>8</v>
+        <f>WEEKNUM(E60)-14</f>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>184</v>
+        <v>94</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>185</v>
+        <v>95</v>
       </c>
       <c r="C61" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D61" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E61" s="4">
-        <v>45803</v>
+        <v>45814</v>
       </c>
       <c r="F61" t="s">
-        <v>4</v>
+        <v>206</v>
       </c>
       <c r="G61">
+        <f t="shared" ca="1" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="H61">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
-      </c>
-      <c r="H61">
-        <f t="shared" ca="1" si="2"/>
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="J61" s="2">
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <f t="shared" si="4"/>
-        <v>8</v>
+        <f>WEEKNUM(E61)-14</f>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="C62" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D62" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E62" s="4">
-        <v>45804</v>
+        <v>45814</v>
       </c>
       <c r="F62" t="s">
         <v>35</v>
       </c>
       <c r="G62">
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="H62">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
-      </c>
-      <c r="H62">
-        <f t="shared" ca="1" si="2"/>
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="J62" s="2">
         <v>0</v>
       </c>
       <c r="K62" s="3">
-        <f t="shared" si="4"/>
-        <v>8</v>
+        <f>WEEKNUM(E62)-14</f>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>188</v>
+        <v>120</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>189</v>
+        <v>96</v>
       </c>
       <c r="C63" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D63" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E63" s="4">
-        <v>45805</v>
+        <v>45815</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G63">
+        <f t="shared" ca="1" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="H63">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="H63">
-        <f t="shared" ca="1" si="2"/>
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="J63" s="2">
         <v>0</v>
       </c>
       <c r="K63" s="3">
-        <f t="shared" si="4"/>
-        <v>8</v>
+        <f>WEEKNUM(E63)-14</f>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D64" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E64" s="4">
-        <v>45806</v>
+        <v>45815</v>
       </c>
       <c r="F64" t="s">
         <v>2</v>
       </c>
       <c r="G64">
+        <f t="shared" ca="1" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="H64">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
-      </c>
-      <c r="H64">
-        <f t="shared" ca="1" si="2"/>
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="J64" s="2">
         <v>0</v>
       </c>
       <c r="K64" s="3">
-        <f t="shared" si="4"/>
-        <v>8</v>
+        <f>WEEKNUM(E64)-14</f>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>192</v>
+        <v>97</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>193</v>
+        <v>98</v>
       </c>
       <c r="C65" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D65" t="s">
         <v>5</v>
       </c>
       <c r="E65" s="4">
-        <v>45807</v>
+        <v>45816</v>
       </c>
       <c r="F65" t="s">
+        <v>55</v>
+      </c>
+      <c r="G65">
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="H65">
+        <f t="shared" ca="1" si="1"/>
+        <v>126</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J65" s="2">
         <v>2</v>
       </c>
-      <c r="G65">
-        <f t="shared" ca="1" si="1"/>
-        <v>108</v>
-      </c>
-      <c r="H65">
-        <f t="shared" ca="1" si="2"/>
-        <v>106</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J65" s="2">
-        <v>0</v>
-      </c>
       <c r="K65" s="3">
-        <f t="shared" si="4"/>
-        <v>8</v>
+        <f>WEEKNUM(E65)-14</f>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C66" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D66" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E66" s="4">
-        <v>45808</v>
+        <v>45816</v>
       </c>
       <c r="F66" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="G66">
+        <f t="shared" ca="1" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="H66">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
-      </c>
-      <c r="H66">
-        <f t="shared" ca="1" si="2"/>
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J66" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K66" s="3">
-        <f t="shared" si="4"/>
-        <v>8</v>
+        <f>WEEKNUM(E66)-14</f>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>196</v>
+        <v>99</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>197</v>
+        <v>100</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D67" t="s">
         <v>5</v>
       </c>
       <c r="E67" s="4">
-        <v>45809</v>
+        <v>45817</v>
       </c>
       <c r="F67" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G75" ca="1" si="5">ROUND(RAND()*60+50,0)</f>
-        <v>107</v>
+        <f t="shared" ref="G67:G86" ca="1" si="2">ROUND(RAND()*60+40,0)</f>
+        <v>53</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H75" ca="1" si="6">ROUND(RAND()*40+100,0)</f>
-        <v>116</v>
+        <f t="shared" ref="H67:H86" ca="1" si="3">ROUND(RAND()*40+90,0)</f>
+        <v>129</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J67" s="2">
         <v>0</v>
       </c>
       <c r="K67" s="3">
-        <f t="shared" si="4"/>
-        <v>9</v>
+        <f>WEEKNUM(E67)-14</f>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C68" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D68" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E68" s="4">
-        <v>45810</v>
+        <v>45817</v>
       </c>
       <c r="F68" t="s">
         <v>2</v>
       </c>
       <c r="G68">
-        <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>93</v>
       </c>
       <c r="H68">
-        <f t="shared" ca="1" si="6"/>
-        <v>114</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>105</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J68" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K68" s="3">
-        <f t="shared" si="4"/>
-        <v>9</v>
+        <f>WEEKNUM(E68)-14</f>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>201</v>
+        <v>102</v>
       </c>
       <c r="C69" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D69" t="s">
         <v>5</v>
       </c>
       <c r="E69" s="4">
-        <v>45811</v>
+        <v>45818</v>
       </c>
       <c r="F69" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="G69">
-        <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>67</v>
       </c>
       <c r="H69">
-        <f t="shared" ca="1" si="6"/>
-        <v>121</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>99</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>11</v>
+        <v>205</v>
       </c>
       <c r="J69" s="2">
         <v>0</v>
       </c>
       <c r="K69" s="3">
-        <f t="shared" si="4"/>
-        <v>9</v>
+        <f>WEEKNUM(E69)-14</f>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="C70" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D70" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E70" s="4">
-        <v>45812</v>
+        <v>45818</v>
       </c>
       <c r="F70" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="G70">
-        <f t="shared" ca="1" si="5"/>
-        <v>54</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>57</v>
       </c>
       <c r="H70">
-        <f t="shared" ca="1" si="6"/>
-        <v>105</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>104</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J70" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K70" s="3">
-        <f t="shared" si="4"/>
-        <v>9</v>
+        <f>WEEKNUM(E70)-14</f>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>204</v>
+        <v>103</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>205</v>
+        <v>104</v>
       </c>
       <c r="C71" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D71" t="s">
         <v>5</v>
       </c>
       <c r="E71" s="4">
-        <v>45813</v>
+        <v>45819</v>
       </c>
       <c r="F71" t="s">
         <v>2</v>
       </c>
       <c r="G71">
-        <f t="shared" ca="1" si="5"/>
-        <v>88</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>99</v>
       </c>
       <c r="H71">
-        <f t="shared" ca="1" si="6"/>
-        <v>135</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>98</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>9</v>
+        <v>205</v>
       </c>
       <c r="J71" s="2">
         <v>0</v>
       </c>
       <c r="K71" s="3">
-        <f t="shared" si="4"/>
-        <v>9</v>
+        <f>WEEKNUM(E71)-14</f>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="C72" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D72" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" s="4">
+        <v>45819</v>
+      </c>
+      <c r="F72" t="s">
+        <v>2</v>
+      </c>
+      <c r="G72">
+        <f t="shared" ca="1" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="H72">
+        <f t="shared" ca="1" si="3"/>
+        <v>127</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J72" s="2">
         <v>5</v>
       </c>
-      <c r="E72" s="4">
-        <v>45814</v>
-      </c>
-      <c r="F72" t="s">
-        <v>35</v>
-      </c>
-      <c r="G72">
-        <f t="shared" ca="1" si="5"/>
-        <v>107</v>
-      </c>
-      <c r="H72">
-        <f t="shared" ca="1" si="6"/>
-        <v>139</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J72" s="2">
-        <v>0</v>
-      </c>
       <c r="K72" s="3">
-        <f t="shared" si="4"/>
-        <v>9</v>
+        <f>WEEKNUM(E72)-14</f>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>211</v>
+        <v>79</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>207</v>
+        <v>106</v>
       </c>
       <c r="C73" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E73" s="4">
-        <v>45815</v>
+        <v>45820</v>
       </c>
       <c r="F73" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G73">
-        <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>51</v>
       </c>
       <c r="H73">
-        <f t="shared" ca="1" si="6"/>
-        <v>112</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>91</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>9</v>
+        <v>205</v>
       </c>
       <c r="J73" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73" s="3">
-        <f t="shared" si="4"/>
-        <v>9</v>
+        <f>WEEKNUM(E73)-14</f>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="C74" t="s">
         <v>29</v>
@@ -4258,71 +4300,489 @@
         <v>7</v>
       </c>
       <c r="E74" s="4">
-        <v>45816</v>
+        <v>45820</v>
       </c>
       <c r="F74" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="G74">
-        <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>56</v>
       </c>
       <c r="H74">
-        <f t="shared" ca="1" si="6"/>
-        <v>118</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>125</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J74" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K74" s="3">
-        <f t="shared" si="4"/>
+        <f>WEEKNUM(E74)-14</f>
         <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>213</v>
+        <v>107</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>209</v>
+        <v>108</v>
       </c>
       <c r="C75" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E75" s="4">
-        <v>45817</v>
+        <v>45821</v>
       </c>
       <c r="F75" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G75">
-        <f t="shared" ca="1" si="5"/>
-        <v>95</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>53</v>
       </c>
       <c r="H75">
-        <f t="shared" ca="1" si="6"/>
-        <v>113</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>116</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J75" s="2">
+        <v>0</v>
+      </c>
+      <c r="K75" s="3">
+        <f>WEEKNUM(E75)-14</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>228</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C76" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" s="4">
+        <v>45821</v>
+      </c>
+      <c r="F76" t="s">
+        <v>2</v>
+      </c>
+      <c r="G76">
+        <f t="shared" ca="1" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="H76">
+        <f t="shared" ca="1" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J76" s="2">
+        <v>0</v>
+      </c>
+      <c r="K76" s="3">
+        <f>WEEKNUM(E76)-14</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>120</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C77" t="s">
+        <v>23</v>
+      </c>
+      <c r="D77" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" s="4">
+        <v>45822</v>
+      </c>
+      <c r="F77" t="s">
+        <v>4</v>
+      </c>
+      <c r="G77">
+        <f t="shared" ca="1" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="H77">
+        <f t="shared" ca="1" si="3"/>
+        <v>111</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J77" s="2">
+        <v>0</v>
+      </c>
+      <c r="K77" s="3">
+        <f>WEEKNUM(E77)-14</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>230</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C78" t="s">
+        <v>29</v>
+      </c>
+      <c r="D78" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" s="4">
+        <v>45822</v>
+      </c>
+      <c r="F78" t="s">
+        <v>2</v>
+      </c>
+      <c r="G78">
+        <f t="shared" ca="1" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="H78">
+        <f t="shared" ca="1" si="3"/>
+        <v>123</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J78" s="2">
+        <v>1</v>
+      </c>
+      <c r="K78" s="3">
+        <f>WEEKNUM(E78)-14</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>232</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C79" t="s">
+        <v>29</v>
+      </c>
+      <c r="D79" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" s="4">
+        <v>45823</v>
+      </c>
+      <c r="F79" t="s">
+        <v>2</v>
+      </c>
+      <c r="G79">
+        <f t="shared" ca="1" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="H79">
+        <f t="shared" ca="1" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J79" s="2">
+        <v>2</v>
+      </c>
+      <c r="K79" s="3">
+        <f>WEEKNUM(E79)-14</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>234</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C80" t="s">
+        <v>29</v>
+      </c>
+      <c r="D80" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" s="4">
+        <v>45824</v>
+      </c>
+      <c r="F80" t="s">
+        <v>2</v>
+      </c>
+      <c r="G80">
+        <f t="shared" ca="1" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="H80">
+        <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J80" s="2">
+        <v>0</v>
+      </c>
+      <c r="K80" s="3">
+        <f>WEEKNUM(E80)-14</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>236</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C81" t="s">
+        <v>29</v>
+      </c>
+      <c r="D81" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81" s="4">
+        <v>45825</v>
+      </c>
+      <c r="F81" t="s">
         <v>3</v>
       </c>
-      <c r="K75" s="3">
-        <f t="shared" si="4"/>
-        <v>10</v>
+      <c r="G81">
+        <f t="shared" ca="1" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="H81">
+        <f t="shared" ca="1" si="3"/>
+        <v>126</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J81" s="2">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
+        <f>WEEKNUM(E81)-14</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>238</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C82" t="s">
+        <v>29</v>
+      </c>
+      <c r="D82" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" s="4">
+        <v>45826</v>
+      </c>
+      <c r="F82" t="s">
+        <v>2</v>
+      </c>
+      <c r="G82">
+        <f t="shared" ca="1" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="H82">
+        <f t="shared" ca="1" si="3"/>
+        <v>127</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J82" s="2">
+        <v>0</v>
+      </c>
+      <c r="K82" s="3">
+        <f>WEEKNUM(E82)-14</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>240</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C83" t="s">
+        <v>29</v>
+      </c>
+      <c r="D83" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" s="4">
+        <v>45834</v>
+      </c>
+      <c r="F83" t="s">
+        <v>206</v>
+      </c>
+      <c r="G83">
+        <f t="shared" ca="1" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="H83">
+        <f t="shared" ca="1" si="3"/>
+        <v>122</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J83" s="2">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
+        <f>WEEKNUM(E83)-14</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>242</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C84" t="s">
+        <v>29</v>
+      </c>
+      <c r="D84" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" s="4">
+        <v>45835</v>
+      </c>
+      <c r="F84" t="s">
+        <v>244</v>
+      </c>
+      <c r="G84">
+        <f t="shared" ca="1" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="H84">
+        <f t="shared" ca="1" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J84" s="2">
+        <v>0</v>
+      </c>
+      <c r="K84" s="3">
+        <f>WEEKNUM(E84)-14</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>118</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C85" t="s">
+        <v>29</v>
+      </c>
+      <c r="D85" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" s="4">
+        <v>45839</v>
+      </c>
+      <c r="F85" t="s">
+        <v>2</v>
+      </c>
+      <c r="G85">
+        <f t="shared" ca="1" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="H85">
+        <f t="shared" ca="1" si="3"/>
+        <v>109</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J85" s="2">
+        <v>0</v>
+      </c>
+      <c r="K85" s="3">
+        <f>WEEKNUM(E85)-14</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>120</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C86" t="s">
+        <v>25</v>
+      </c>
+      <c r="D86" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" s="4">
+        <v>45840</v>
+      </c>
+      <c r="F86" t="s">
+        <v>55</v>
+      </c>
+      <c r="G86">
+        <f t="shared" ca="1" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="H86">
+        <f t="shared" ca="1" si="3"/>
+        <v>116</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J86" s="2">
+        <v>0</v>
+      </c>
+      <c r="K86" s="3">
+        <f>WEEKNUM(E86)-14</f>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K42">
-    <sortCondition ref="E1:E42"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K86">
+    <sortCondition ref="E1:E86"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B1:D1048576">
@@ -4356,7 +4816,7 @@
       <formula>NOT(ISERROR(SEARCH("On",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:I1048576 K1:K1048576">
+  <conditionalFormatting sqref="K1:K1048576 F1:I1048576">
     <cfRule type="containsText" dxfId="3" priority="14" operator="containsText" text="Ended">
       <formula>NOT(ISERROR(SEARCH("Ended",F1)))</formula>
     </cfRule>
@@ -4378,7 +4838,7 @@
       <formula2>10</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{F09CCFA7-B907-4EDC-9E6C-DB73AAE9A528}">
-      <formula1>"Pending,Denied,Interviewing,No Response,Ghosted,On Hold,Rejected,Offer"</formula1>
+      <formula1>"Pending,Denied,Interviewing,No Response,Bailed,Ghosted,On Hold,Rejected,Offer"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{A6492A70-2F97-4614-8C19-570E8591C842}">
       <formula1>"LinkedIn, LinkedIn DM, Company Site,Referral,Indeed,80000 Hours,Gaingels,Wellfound,YCombinator,BuiltIn,HiringCafe"</formula1>
@@ -4397,10 +4857,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E6A88D-3241-41C0-B7E9-472CCE1959EA}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4425,22 +4885,22 @@
         <v>6</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -4457,10 +4917,10 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="F2" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -4469,7 +4929,7 @@
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -4486,10 +4946,10 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="F3" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -4498,7 +4958,7 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -4515,10 +4975,10 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="F4" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -4527,12 +4987,12 @@
         <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -4544,10 +5004,10 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="F5" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -4556,12 +5016,12 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -4573,10 +5033,10 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="F6" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -4585,12 +5045,12 @@
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -4602,10 +5062,10 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="F7" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -4614,12 +5074,12 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -4631,10 +5091,10 @@
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="F8" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -4643,12 +5103,12 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -4660,10 +5120,10 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="F9" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -4672,12 +5132,12 @@
         <v>4</v>
       </c>
       <c r="I9" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -4689,10 +5149,10 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="F10" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -4701,12 +5161,12 @@
         <v>3</v>
       </c>
       <c r="I10" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -4718,10 +5178,10 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="F11" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -4730,12 +5190,12 @@
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -4747,10 +5207,10 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="F12" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="G12">
         <v>4</v>
@@ -4759,12 +5219,12 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
@@ -4776,10 +5236,10 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="F13" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -4788,12 +5248,12 @@
         <v>4</v>
       </c>
       <c r="I13" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
@@ -4805,10 +5265,10 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="F14" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -4817,15 +5277,15 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C15" s="4">
         <v>45769</v>
@@ -4834,10 +5294,10 @@
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="F15" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="G15">
         <v>4</v>
@@ -4846,7 +5306,297 @@
         <v>3</v>
       </c>
       <c r="I15" t="s">
-        <v>224</v>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>204</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="4">
+        <v>45839</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>216</v>
+      </c>
+      <c r="F16" t="s">
+        <v>214</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>204</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="4">
+        <v>45839</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>220</v>
+      </c>
+      <c r="F17" t="s">
+        <v>221</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="4">
+        <v>45840</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>218</v>
+      </c>
+      <c r="F18" t="s">
+        <v>214</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>204</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="4">
+        <v>45757</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>213</v>
+      </c>
+      <c r="F19" t="s">
+        <v>214</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="4">
+        <v>45757</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>213</v>
+      </c>
+      <c r="F20" t="s">
+        <v>219</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="4">
+        <v>45824</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>213</v>
+      </c>
+      <c r="F21" t="s">
+        <v>214</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="4">
+        <v>45824</v>
+      </c>
+      <c r="D22">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>213</v>
+      </c>
+      <c r="F22" t="s">
+        <v>221</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>5</v>
+      </c>
+      <c r="I22" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="4">
+        <v>45824</v>
+      </c>
+      <c r="D23">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>213</v>
+      </c>
+      <c r="F23" t="s">
+        <v>214</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+      <c r="I23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="4">
+        <v>45824</v>
+      </c>
+      <c r="D24">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>213</v>
+      </c>
+      <c r="F24" t="s">
+        <v>217</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="4">
+        <v>45762</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>213</v>
+      </c>
+      <c r="F25" t="s">
+        <v>219</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -4882,7 +5632,7 @@
   <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
@@ -4948,7 +5698,7 @@
       </c>
       <c r="D2">
         <f ca="1">(Tracker!G2+Tracker!H2)/2</f>
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="E2" s="10">
         <f>IF(OR(Tracker!F2="denied",Tracker!F2="on hold",Tracker!F2="No Response",Tracker!F2="pending",Tracker!F26="ghosted"), 0.2, IF(Tracker!F2="interviewing", 0.4, IF(Tracker!F2="rejected", 0.3, IF(Tracker!F2="offer", 1, 0))))</f>
@@ -4971,11 +5721,11 @@
       </c>
       <c r="J2">
         <f t="shared" ref="J2:J15" ca="1" si="0">IF(D2=0,0,((0.3*D2*G2*H2)/10)-2.7)</f>
-        <v>0.84254999999999969</v>
+        <v>0.46634999999999938</v>
       </c>
       <c r="K2">
         <f t="shared" ref="K2:K15" ca="1" si="1">IF(D2=0, 0,((D2*E2*G2*H2)/(F2*I2)-2))</f>
-        <v>0.76222222222222191</v>
+        <v>0.46888888888888935</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -4993,7 +5743,7 @@
       </c>
       <c r="D3">
         <f ca="1">(Tracker!G3+Tracker!H3)/2</f>
-        <v>104.5</v>
+        <v>94.5</v>
       </c>
       <c r="E3" s="10">
         <f>IF(OR(Tracker!F3="denied",Tracker!F3="on hold",Tracker!F3="No Response",Tracker!F3="pending",Tracker!F27="ghosted"), 0.2, IF(Tracker!F3="interviewing", 0.4, IF(Tracker!F3="rejected", 0.3, IF(Tracker!F3="offer", 1, 0))))</f>
@@ -5016,17 +5766,17 @@
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57607499999999945</v>
+        <v>0.26257499999999956</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2824509803921558</v>
+        <v>1.8726470588235289</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
         <f>Tracker!A4</f>
-        <v>Company 3</v>
+        <v>Company 5</v>
       </c>
       <c r="B4" t="str">
         <f>Tracker!B4</f>
@@ -5038,7 +5788,7 @@
       </c>
       <c r="D4">
         <f ca="1">(Tracker!G4+Tracker!H4)/2</f>
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E4" s="10">
         <f>IF(OR(Tracker!F4="denied",Tracker!F4="on hold",Tracker!F4="No Response",Tracker!F4="pending",Tracker!F28="ghosted"), 0.2, IF(Tracker!F4="interviewing", 0.4, IF(Tracker!F4="rejected", 0.3, IF(Tracker!F4="offer", 1, 0))))</f>
@@ -5061,11 +5811,11 @@
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56039999999999957</v>
+        <v>0.24690000000000012</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41511111111111099</v>
+        <v>0.18288888888888888</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -5083,7 +5833,7 @@
       </c>
       <c r="D5">
         <f ca="1">(Tracker!G5+Tracker!H5)/2</f>
-        <v>96</v>
+        <v>81.5</v>
       </c>
       <c r="E5" s="10">
         <f>IF(OR(Tracker!F5="denied",Tracker!F5="on hold",Tracker!F5="No Response",Tracker!F5="pending",Tracker!F29="ghosted"), 0.2, IF(Tracker!F5="interviewing", 0.4, IF(Tracker!F5="rejected", 0.3, IF(Tracker!F5="offer", 1, 0))))</f>
@@ -5106,11 +5856,11 @@
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5999999999999588E-2</v>
+        <v>-0.37725000000000009</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87999999999999945</v>
+        <v>0.44499999999999984</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -5128,7 +5878,7 @@
       </c>
       <c r="D6">
         <f ca="1">(Tracker!G6+Tracker!H6)/2</f>
-        <v>111.5</v>
+        <v>99</v>
       </c>
       <c r="E6" s="10">
         <f>IF(OR(Tracker!F6="denied",Tracker!F6="on hold",Tracker!F6="No Response",Tracker!F6="pending",Tracker!F30="ghosted"), 0.2, IF(Tracker!F6="interviewing", 0.4, IF(Tracker!F6="rejected", 0.3, IF(Tracker!F6="offer", 1, 0))))</f>
@@ -5151,11 +5901,11 @@
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79552499999999959</v>
+        <v>0.40364999999999984</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58927777777777779</v>
+        <v>0.29899999999999993</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -5173,7 +5923,7 @@
       </c>
       <c r="D7">
         <f ca="1">(Tracker!G7+Tracker!H7)/2</f>
-        <v>115.5</v>
+        <v>91</v>
       </c>
       <c r="E7" s="10">
         <f>IF(OR(Tracker!F7="denied",Tracker!F7="on hold",Tracker!F7="No Response",Tracker!F7="pending",Tracker!F31="ghosted"), 0.2, IF(Tracker!F7="interviewing", 0.4, IF(Tracker!F7="rejected", 0.3, IF(Tracker!F7="offer", 1, 0))))</f>
@@ -5196,11 +5946,11 @@
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92092499999999955</v>
+        <v>0.15285000000000037</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82333333333333325</v>
+        <v>0.224444444444444</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -5218,7 +5968,7 @@
       </c>
       <c r="D8">
         <f ca="1">(Tracker!G8+Tracker!H8)/2</f>
-        <v>102.5</v>
+        <v>89.5</v>
       </c>
       <c r="E8" s="10">
         <f>IF(OR(Tracker!F8="denied",Tracker!F8="on hold",Tracker!F8="No Response",Tracker!F8="pending",Tracker!F32="ghosted"), 0.2, IF(Tracker!F8="interviewing", 0.4, IF(Tracker!F8="rejected", 0.3, IF(Tracker!F8="offer", 1, 0))))</f>
@@ -5241,33 +5991,33 @@
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51337499999999991</v>
+        <v>0.10582499999999939</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38027777777777771</v>
+        <v>7.8388888888889507E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <f>Tracker!A9</f>
-        <v>Company 8</v>
+        <v>Company 25</v>
       </c>
       <c r="B9" t="str">
         <f>Tracker!B9</f>
-        <v>Title 8</v>
+        <v>Title 25</v>
       </c>
       <c r="C9" t="str">
         <f>Tracker!F9</f>
-        <v>Denied</v>
+        <v>Ghosted</v>
       </c>
       <c r="D9">
         <f ca="1">(Tracker!G9+Tracker!H9)/2</f>
-        <v>90.5</v>
+        <v>107.5</v>
       </c>
       <c r="E9" s="10">
         <f>IF(OR(Tracker!F9="denied",Tracker!F9="on hold",Tracker!F9="No Response",Tracker!F9="pending",Tracker!F33="ghosted"), 0.2, IF(Tracker!F9="interviewing", 0.4, IF(Tracker!F9="rejected", 0.3, IF(Tracker!F9="offer", 1, 0))))</f>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F9" s="11">
         <f>IF(OR(Tracker!I9="linkedin", Tracker!I9="Indeed", Tracker!I9="linkedin dm"), 0.9, IF(Tracker!I9="Company Site", 1.1, 1))</f>
@@ -5282,41 +6032,41 @@
       </c>
       <c r="I9" s="11">
         <f>10-(0.5*Tracker!J9)</f>
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13717500000000005</v>
+        <v>0.67012500000000008</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21222222222222253</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <f>Tracker!A10</f>
-        <v>Company 9</v>
+        <v>Company 26</v>
       </c>
       <c r="B10" t="str">
         <f>Tracker!B10</f>
-        <v>Title 9</v>
+        <v>Title 26</v>
       </c>
       <c r="C10" t="str">
         <f>Tracker!F10</f>
-        <v>Rejected</v>
+        <v>Pending</v>
       </c>
       <c r="D10">
         <f ca="1">(Tracker!G10+Tracker!H10)/2</f>
-        <v>93</v>
+        <v>109.5</v>
       </c>
       <c r="E10" s="10">
         <f>IF(OR(Tracker!F10="denied",Tracker!F10="on hold",Tracker!F10="No Response",Tracker!F10="pending",Tracker!F34="ghosted"), 0.2, IF(Tracker!F10="interviewing", 0.4, IF(Tracker!F10="rejected", 0.3, IF(Tracker!F10="offer", 1, 0))))</f>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F10" s="11">
         <f>IF(OR(Tracker!I10="linkedin", Tracker!I10="Indeed", Tracker!I10="linkedin dm"), 0.9, IF(Tracker!I10="Company Site", 1.1, 1))</f>
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="G10" s="11">
         <f>IF(OR(Tracker!D10="analyst", Tracker!D10="project manager", Tracker!D10="consultant"), 1.1, IF(Tracker!D10="Product Manager", 0.9, 1))</f>
@@ -5327,33 +6077,33 @@
       </c>
       <c r="I10" s="11">
         <f>10-(0.5*Tracker!J10)</f>
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21554999999999991</v>
+        <v>0.73282500000000006</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78999999999999959</v>
+        <v>0.54283333333333328</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <f>Tracker!A11</f>
-        <v>Company 10</v>
+        <v>Company 27</v>
       </c>
       <c r="B11" t="str">
         <f>Tracker!B11</f>
-        <v>Title 10</v>
+        <v>Title 27</v>
       </c>
       <c r="C11" t="str">
         <f>Tracker!F11</f>
-        <v>No Response</v>
+        <v>Pending</v>
       </c>
       <c r="D11">
         <f ca="1">(Tracker!G11+Tracker!H11)/2</f>
-        <v>107.5</v>
+        <v>74</v>
       </c>
       <c r="E11" s="10">
         <f>IF(OR(Tracker!F11="denied",Tracker!F11="on hold",Tracker!F11="No Response",Tracker!F11="pending",Tracker!F35="ghosted"), 0.2, IF(Tracker!F11="interviewing", 0.4, IF(Tracker!F11="rejected", 0.3, IF(Tracker!F11="offer", 1, 0))))</f>
@@ -5376,33 +6126,33 @@
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67012500000000008</v>
+        <v>-0.3801000000000001</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49638888888888921</v>
+        <v>-0.28155555555555534</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
         <f>Tracker!A12</f>
-        <v>Company 11</v>
+        <v>Company 28</v>
       </c>
       <c r="B12" t="str">
         <f>Tracker!B12</f>
-        <v>Title 11</v>
+        <v>Title 28</v>
       </c>
       <c r="C12" t="str">
         <f>Tracker!F12</f>
-        <v>Rejected</v>
+        <v>Interviewing</v>
       </c>
       <c r="D12">
         <f ca="1">(Tracker!G12+Tracker!H12)/2</f>
-        <v>86.5</v>
+        <v>94.5</v>
       </c>
       <c r="E12" s="10">
         <f>IF(OR(Tracker!F12="denied",Tracker!F12="on hold",Tracker!F12="No Response",Tracker!F12="pending",Tracker!F36="ghosted"), 0.2, IF(Tracker!F12="interviewing", 0.4, IF(Tracker!F12="rejected", 0.3, IF(Tracker!F12="offer", 1, 0))))</f>
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="F12" s="11">
         <f>IF(OR(Tracker!I12="linkedin", Tracker!I12="Indeed", Tracker!I12="linkedin dm"), 0.9, IF(Tracker!I12="Company Site", 1.1, 1))</f>
@@ -5421,29 +6171,29 @@
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1775000000000091E-2</v>
+        <v>0.26257499999999956</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0130833333333333</v>
+        <v>2.3890000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <f>Tracker!A13</f>
-        <v>Company 12</v>
+        <v>Company 31</v>
       </c>
       <c r="B13" t="str">
         <f>Tracker!B13</f>
-        <v>Title 12</v>
+        <v>Title 31</v>
       </c>
       <c r="C13" t="str">
         <f>Tracker!F13</f>
-        <v>On Hold</v>
+        <v>Pending</v>
       </c>
       <c r="D13">
         <f ca="1">(Tracker!G13+Tracker!H13)/2</f>
-        <v>117.5</v>
+        <v>67</v>
       </c>
       <c r="E13" s="10">
         <f>IF(OR(Tracker!F13="denied",Tracker!F13="on hold",Tracker!F13="No Response",Tracker!F13="pending",Tracker!F37="ghosted"), 0.2, IF(Tracker!F13="interviewing", 0.4, IF(Tracker!F13="rejected", 0.3, IF(Tracker!F13="offer", 1, 0))))</f>
@@ -5466,33 +6216,33 @@
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98362500000000042</v>
+        <v>-0.59955000000000025</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4557500000000001</v>
+        <v>-0.5996999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
         <f>Tracker!A14</f>
-        <v>Company 13</v>
+        <v>Company 32</v>
       </c>
       <c r="B14" t="str">
         <f>Tracker!B14</f>
-        <v>Title 13</v>
+        <v>Title 32</v>
       </c>
       <c r="C14" t="str">
         <f>Tracker!F14</f>
-        <v>Interviewing</v>
+        <v>Rejected</v>
       </c>
       <c r="D14">
         <f ca="1">(Tracker!G14+Tracker!H14)/2</f>
-        <v>107</v>
+        <v>92.5</v>
       </c>
       <c r="E14" s="10">
         <f>IF(OR(Tracker!F14="denied",Tracker!F14="on hold",Tracker!F14="No Response",Tracker!F14="pending",Tracker!F38="ghosted"), 0.2, IF(Tracker!F14="interviewing", 0.4, IF(Tracker!F14="rejected", 0.3, IF(Tracker!F14="offer", 1, 0))))</f>
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F14" s="11">
         <f>IF(OR(Tracker!I14="linkedin", Tracker!I14="Indeed", Tracker!I14="linkedin dm"), 0.9, IF(Tracker!I14="Company Site", 1.1, 1))</f>
@@ -5500,7 +6250,7 @@
       </c>
       <c r="G14" s="11">
         <f>IF(OR(Tracker!D14="analyst", Tracker!D14="project manager", Tracker!D14="consultant"), 1.1, IF(Tracker!D14="Product Manager", 0.9, 1))</f>
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H14" s="10">
         <v>0.95</v>
@@ -5511,33 +6261,33 @@
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4549999999999645E-2</v>
+        <v>0.19987500000000002</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.1702999999999999</v>
+        <v>0.8998750000000002</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
         <f>Tracker!A15</f>
-        <v>Company 14</v>
+        <v>Company 33</v>
       </c>
       <c r="B15" t="str">
         <f>Tracker!B15</f>
-        <v>Title 14</v>
+        <v>Title 33</v>
       </c>
       <c r="C15" t="str">
         <f>Tracker!F15</f>
-        <v>Offer</v>
+        <v>Pending</v>
       </c>
       <c r="D15">
         <f ca="1">(Tracker!G15+Tracker!H15)/2</f>
-        <v>87.5</v>
+        <v>80</v>
       </c>
       <c r="E15" s="10">
         <f>IF(OR(Tracker!F15="denied",Tracker!F15="on hold",Tracker!F15="No Response",Tracker!F15="pending",Tracker!F39="ghosted"), 0.2, IF(Tracker!F15="interviewing", 0.4, IF(Tracker!F15="rejected", 0.3, IF(Tracker!F15="offer", 1, 0))))</f>
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="F15" s="11">
         <f>IF(OR(Tracker!I15="linkedin", Tracker!I15="Indeed", Tracker!I15="linkedin dm"), 0.9, IF(Tracker!I15="Company Site", 1.1, 1))</f>
@@ -5545,7 +6295,7 @@
       </c>
       <c r="G15" s="11">
         <f>IF(OR(Tracker!D15="analyst", Tracker!D15="project manager", Tracker!D15="consultant"), 1.1, IF(Tracker!D15="Product Manager", 0.9, 1))</f>
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H15" s="10">
         <v>0.95</v>
@@ -5556,33 +6306,33 @@
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.45562500000000039</v>
+        <v>-0.19200000000000017</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="1"/>
-        <v>5.4812500000000002</v>
+        <v>-0.32800000000000007</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
         <f>Tracker!A16</f>
-        <v>Company 15</v>
+        <v>Company 34</v>
       </c>
       <c r="B16" t="str">
         <f>Tracker!B16</f>
-        <v>Title 15</v>
+        <v>Title 34</v>
       </c>
       <c r="C16" t="str">
         <f>Tracker!F16</f>
-        <v>Pending</v>
+        <v>Interviewing</v>
       </c>
       <c r="D16">
         <f ca="1">(Tracker!G16+Tracker!H16)/2</f>
-        <v>85.5</v>
+        <v>87</v>
       </c>
       <c r="E16" s="10">
         <f>IF(OR(Tracker!F16="denied",Tracker!F16="on hold",Tracker!F16="No Response",Tracker!F16="pending",Tracker!F40="ghosted"), 0.2, IF(Tracker!F16="interviewing", 0.4, IF(Tracker!F16="rejected", 0.3, IF(Tracker!F16="offer", 1, 0))))</f>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="F16" s="11">
         <f>IF(OR(Tracker!I16="linkedin", Tracker!I16="Indeed", Tracker!I16="linkedin dm"), 0.9, IF(Tracker!I16="Company Site", 1.1, 1))</f>
@@ -5590,130 +6340,130 @@
       </c>
       <c r="G16" s="11">
         <f>IF(OR(Tracker!D16="analyst", Tracker!D16="project manager", Tracker!D16="consultant"), 1.1, IF(Tracker!D16="Product Manager", 0.9, 1))</f>
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H16" s="10">
         <v>0.95</v>
       </c>
       <c r="I16" s="11">
         <f>10-(0.5*Tracker!J16)</f>
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="J16">
         <f t="shared" ref="J16:J70" ca="1" si="2">IF(D16=0,0,((0.3*D16*G16*H16)/10)-2.7)</f>
-        <v>-0.50692500000000029</v>
+        <v>2.7449999999999974E-2</v>
       </c>
       <c r="K16">
         <f t="shared" ref="K16:K70" ca="1" si="3">IF(D16=0, 0,((D16*E16*G16*H16)/(F16*I16)-2))</f>
-        <v>-0.53794999999999993</v>
+        <v>2.2783529411764718</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
         <f>Tracker!A17</f>
-        <v>Company 16</v>
+        <v>Company 8</v>
       </c>
       <c r="B17" t="str">
         <f>Tracker!B17</f>
-        <v>Title 16</v>
+        <v>Title 8</v>
       </c>
       <c r="C17" t="str">
         <f>Tracker!F17</f>
-        <v>Ghosted</v>
+        <v>Denied</v>
       </c>
       <c r="D17">
         <f ca="1">(Tracker!G17+Tracker!H17)/2</f>
-        <v>102.5</v>
+        <v>88</v>
       </c>
       <c r="E17" s="10">
         <f>IF(OR(Tracker!F17="denied",Tracker!F17="on hold",Tracker!F17="No Response",Tracker!F17="pending",Tracker!F41="ghosted"), 0.2, IF(Tracker!F17="interviewing", 0.4, IF(Tracker!F17="rejected", 0.3, IF(Tracker!F17="offer", 1, 0))))</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F17" s="11">
         <f>IF(OR(Tracker!I17="linkedin", Tracker!I17="Indeed", Tracker!I17="linkedin dm"), 0.9, IF(Tracker!I17="Company Site", 1.1, 1))</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G17" s="11">
         <f>IF(OR(Tracker!D17="analyst", Tracker!D17="project manager", Tracker!D17="consultant"), 1.1, IF(Tracker!D17="Product Manager", 0.9, 1))</f>
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H17" s="10">
         <v>0.95</v>
       </c>
       <c r="I17" s="11">
         <f>10-(0.5*Tracker!J17)</f>
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="2"/>
-        <v>-7.0875000000000465E-2</v>
+        <v>5.8799999999999741E-2</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="3"/>
-        <v>-2</v>
+        <v>0.1511111111111112</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <f>Tracker!A18</f>
-        <v>Company 17</v>
+        <v>Company 9</v>
       </c>
       <c r="B18" t="str">
         <f>Tracker!B18</f>
-        <v>Title 17</v>
+        <v>Title 9</v>
       </c>
       <c r="C18" t="str">
         <f>Tracker!F18</f>
-        <v>Offer</v>
+        <v>Rejected</v>
       </c>
       <c r="D18">
         <f ca="1">(Tracker!G18+Tracker!H18)/2</f>
-        <v>112.5</v>
+        <v>67.5</v>
       </c>
       <c r="E18" s="10">
         <f>IF(OR(Tracker!F18="denied",Tracker!F18="on hold",Tracker!F18="No Response",Tracker!F18="pending",Tracker!F42="ghosted"), 0.2, IF(Tracker!F18="interviewing", 0.4, IF(Tracker!F18="rejected", 0.3, IF(Tracker!F18="offer", 1, 0))))</f>
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="F18" s="11">
         <f>IF(OR(Tracker!I18="linkedin", Tracker!I18="Indeed", Tracker!I18="linkedin dm"), 0.9, IF(Tracker!I18="Company Site", 1.1, 1))</f>
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G18" s="11">
         <f>IF(OR(Tracker!D18="analyst", Tracker!D18="project manager", Tracker!D18="consultant"), 1.1, IF(Tracker!D18="Product Manager", 0.9, 1))</f>
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H18" s="10">
         <v>0.95</v>
       </c>
       <c r="I18" s="11">
         <f>10-(0.5*Tracker!J18)</f>
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="2"/>
-        <v>0.18562499999999993</v>
+        <v>-0.58387499999999992</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="3"/>
-        <v>7.6187500000000004</v>
+        <v>2.4999999999999911E-2</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="str">
         <f>Tracker!A19</f>
-        <v>Company 18</v>
+        <v>Company 35</v>
       </c>
       <c r="B19" t="str">
         <f>Tracker!B19</f>
-        <v>Title 18</v>
+        <v>Title 35</v>
       </c>
       <c r="C19" t="str">
         <f>Tracker!F19</f>
-        <v>No Response</v>
+        <v>Denied</v>
       </c>
       <c r="D19">
         <f ca="1">(Tracker!G19+Tracker!H19)/2</f>
-        <v>111.5</v>
+        <v>108.5</v>
       </c>
       <c r="E19" s="10">
         <f>IF(OR(Tracker!F19="denied",Tracker!F19="on hold",Tracker!F19="No Response",Tracker!F19="pending",Tracker!F43="ghosted"), 0.2, IF(Tracker!F19="interviewing", 0.4, IF(Tracker!F19="rejected", 0.3, IF(Tracker!F19="offer", 1, 0))))</f>
@@ -5725,40 +6475,40 @@
       </c>
       <c r="G19" s="11">
         <f>IF(OR(Tracker!D19="analyst", Tracker!D19="project manager", Tracker!D19="consultant"), 1.1, IF(Tracker!D19="Product Manager", 0.9, 1))</f>
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H19" s="10">
         <v>0.95</v>
       </c>
       <c r="I19" s="11">
         <f>10-(0.5*Tracker!J19)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15997499999999931</v>
+        <v>0.70147499999999985</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.11849999999999961</v>
+        <v>0.26765000000000061</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="str">
         <f>Tracker!A20</f>
-        <v>Company 19</v>
+        <v>Company 36</v>
       </c>
       <c r="B20" t="str">
         <f>Tracker!B20</f>
-        <v>Title 19</v>
+        <v>Title 36</v>
       </c>
       <c r="C20" t="str">
         <f>Tracker!F20</f>
-        <v>Pending</v>
+        <v>No Response</v>
       </c>
       <c r="D20">
         <f ca="1">(Tracker!G20+Tracker!H20)/2</f>
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="E20" s="10">
         <f>IF(OR(Tracker!F20="denied",Tracker!F20="on hold",Tracker!F20="No Response",Tracker!F20="pending",Tracker!F44="ghosted"), 0.2, IF(Tracker!F20="interviewing", 0.4, IF(Tracker!F20="rejected", 0.3, IF(Tracker!F20="offer", 1, 0))))</f>
@@ -5770,7 +6520,7 @@
       </c>
       <c r="G20" s="11">
         <f>IF(OR(Tracker!D20="analyst", Tracker!D20="project manager", Tracker!D20="consultant"), 1.1, IF(Tracker!D20="Product Manager", 0.9, 1))</f>
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H20" s="10">
         <v>0.95</v>
@@ -5781,41 +6531,41 @@
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="2"/>
-        <v>0.22409999999999952</v>
+        <v>0.12149999999999972</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="3"/>
-        <v>-5.0599999999999978E-2</v>
+        <v>-0.11900000000000022</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="str">
         <f>Tracker!A21</f>
-        <v>Company 20</v>
+        <v>Company 37</v>
       </c>
       <c r="B21" t="str">
         <f>Tracker!B21</f>
-        <v>Title 20</v>
+        <v>Title 37</v>
       </c>
       <c r="C21" t="str">
         <f>Tracker!F21</f>
-        <v>Offer</v>
+        <v>Ghosted</v>
       </c>
       <c r="D21">
         <f ca="1">(Tracker!G21+Tracker!H21)/2</f>
-        <v>93</v>
+        <v>71.5</v>
       </c>
       <c r="E21" s="10">
         <f>IF(OR(Tracker!F21="denied",Tracker!F21="on hold",Tracker!F21="No Response",Tracker!F21="pending",Tracker!F45="ghosted"), 0.2, IF(Tracker!F21="interviewing", 0.4, IF(Tracker!F21="rejected", 0.3, IF(Tracker!F21="offer", 1, 0))))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="11">
         <f>IF(OR(Tracker!I21="linkedin", Tracker!I21="Indeed", Tracker!I21="linkedin dm"), 0.9, IF(Tracker!I21="Company Site", 1.1, 1))</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G21" s="11">
         <f>IF(OR(Tracker!D21="analyst", Tracker!D21="project manager", Tracker!D21="consultant"), 1.1, IF(Tracker!D21="Product Manager", 0.9, 1))</f>
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H21" s="10">
         <v>0.95</v>
@@ -5826,29 +6576,29 @@
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.31455000000000055</v>
+        <v>-0.45847499999999997</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="3"/>
-        <v>6.8350000000000009</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="str">
         <f>Tracker!A22</f>
-        <v>Company 21</v>
+        <v>Company 10</v>
       </c>
       <c r="B22" t="str">
         <f>Tracker!B22</f>
-        <v>Title 21</v>
+        <v>Title 10</v>
       </c>
       <c r="C22" t="str">
         <f>Tracker!F22</f>
-        <v>Pending</v>
+        <v>No Response</v>
       </c>
       <c r="D22">
         <f ca="1">(Tracker!G22+Tracker!H22)/2</f>
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E22" s="10">
         <f>IF(OR(Tracker!F22="denied",Tracker!F22="on hold",Tracker!F22="No Response",Tracker!F22="pending",Tracker!F46="ghosted"), 0.2, IF(Tracker!F22="interviewing", 0.4, IF(Tracker!F22="rejected", 0.3, IF(Tracker!F22="offer", 1, 0))))</f>
@@ -5860,7 +6610,7 @@
       </c>
       <c r="G22" s="11">
         <f>IF(OR(Tracker!D22="analyst", Tracker!D22="project manager", Tracker!D22="consultant"), 1.1, IF(Tracker!D22="Product Manager", 0.9, 1))</f>
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H22" s="10">
         <v>0.95</v>
@@ -5871,37 +6621,37 @@
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.18630000000000013</v>
+        <v>0.30959999999999965</v>
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.13800000000000012</v>
+        <v>0.22933333333333383</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="str">
         <f>Tracker!A23</f>
-        <v>Company 22</v>
+        <v>Company 38</v>
       </c>
       <c r="B23" t="str">
         <f>Tracker!B23</f>
-        <v>Title 22</v>
+        <v>Title 38</v>
       </c>
       <c r="C23" t="str">
         <f>Tracker!F23</f>
-        <v>Interviewing</v>
+        <v>No Response</v>
       </c>
       <c r="D23">
         <f ca="1">(Tracker!G23+Tracker!H23)/2</f>
-        <v>97.5</v>
+        <v>85</v>
       </c>
       <c r="E23" s="10">
         <f>IF(OR(Tracker!F23="denied",Tracker!F23="on hold",Tracker!F23="No Response",Tracker!F23="pending",Tracker!F47="ghosted"), 0.2, IF(Tracker!F23="interviewing", 0.4, IF(Tracker!F23="rejected", 0.3, IF(Tracker!F23="offer", 1, 0))))</f>
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="F23" s="11">
         <f>IF(OR(Tracker!I23="linkedin", Tracker!I23="Indeed", Tracker!I23="linkedin dm"), 0.9, IF(Tracker!I23="Company Site", 1.1, 1))</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G23" s="11">
         <f>IF(OR(Tracker!D23="analyst", Tracker!D23="project manager", Tracker!D23="consultant"), 1.1, IF(Tracker!D23="Product Manager", 0.9, 1))</f>
@@ -5916,29 +6666,29 @@
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="2"/>
-        <v>0.35662500000000019</v>
+        <v>-3.5250000000000004E-2</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="3"/>
-        <v>2.7666666666666666</v>
+        <v>-0.12999999999999989</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="str">
         <f>Tracker!A24</f>
-        <v>Company 23</v>
+        <v>Company 39</v>
       </c>
       <c r="B24" t="str">
         <f>Tracker!B24</f>
-        <v>Title 23</v>
+        <v>Title 39</v>
       </c>
       <c r="C24" t="str">
         <f>Tracker!F24</f>
-        <v>Denied</v>
+        <v>No Response</v>
       </c>
       <c r="D24">
         <f ca="1">(Tracker!G24+Tracker!H24)/2</f>
-        <v>113</v>
+        <v>78.5</v>
       </c>
       <c r="E24" s="10">
         <f>IF(OR(Tracker!F24="denied",Tracker!F24="on hold",Tracker!F24="No Response",Tracker!F24="pending",Tracker!F48="ghosted"), 0.2, IF(Tracker!F24="interviewing", 0.4, IF(Tracker!F24="rejected", 0.3, IF(Tracker!F24="offer", 1, 0))))</f>
@@ -5946,7 +6696,7 @@
       </c>
       <c r="F24" s="11">
         <f>IF(OR(Tracker!I24="linkedin", Tracker!I24="Indeed", Tracker!I24="linkedin dm"), 0.9, IF(Tracker!I24="Company Site", 1.1, 1))</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G24" s="11">
         <f>IF(OR(Tracker!D24="analyst", Tracker!D24="project manager", Tracker!D24="consultant"), 1.1, IF(Tracker!D24="Product Manager", 0.9, 1))</f>
@@ -5961,29 +6711,29 @@
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="2"/>
-        <v>0.84254999999999969</v>
+        <v>-0.23902500000000027</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="3"/>
-        <v>0.62411111111111106</v>
+        <v>-0.35934999999999984</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="str">
         <f>Tracker!A25</f>
-        <v>Company 24</v>
+        <v>Company 40</v>
       </c>
       <c r="B25" t="str">
         <f>Tracker!B25</f>
-        <v>Title 24</v>
+        <v>Title 40</v>
       </c>
       <c r="C25" t="str">
         <f>Tracker!F25</f>
-        <v>Denied</v>
+        <v>Pending</v>
       </c>
       <c r="D25">
         <f ca="1">(Tracker!G25+Tracker!H25)/2</f>
-        <v>89</v>
+        <v>93.5</v>
       </c>
       <c r="E25" s="10">
         <f>IF(OR(Tracker!F25="denied",Tracker!F25="on hold",Tracker!F25="No Response",Tracker!F25="pending",Tracker!F49="ghosted"), 0.2, IF(Tracker!F25="interviewing", 0.4, IF(Tracker!F25="rejected", 0.3, IF(Tracker!F25="offer", 1, 0))))</f>
@@ -5991,7 +6741,7 @@
       </c>
       <c r="F25" s="11">
         <f>IF(OR(Tracker!I25="linkedin", Tracker!I25="Indeed", Tracker!I25="linkedin dm"), 0.9, IF(Tracker!I25="Company Site", 1.1, 1))</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G25" s="11">
         <f>IF(OR(Tracker!D25="analyst", Tracker!D25="project manager", Tracker!D25="consultant"), 1.1, IF(Tracker!D25="Product Manager", 0.9, 1))</f>
@@ -6006,33 +6756,33 @@
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="2"/>
-        <v>9.0149999999999508E-2</v>
+        <v>0.23122500000000024</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="3"/>
-        <v>6.6777777777778269E-2</v>
+        <v>-4.5850000000000168E-2</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="str">
         <f>Tracker!A26</f>
-        <v>Company 25</v>
+        <v>Company 5</v>
       </c>
       <c r="B26" t="str">
         <f>Tracker!B26</f>
-        <v>Title 25</v>
+        <v>Title 11</v>
       </c>
       <c r="C26" t="str">
         <f>Tracker!F26</f>
-        <v>Ghosted</v>
+        <v>Rejected</v>
       </c>
       <c r="D26">
         <f ca="1">(Tracker!G26+Tracker!H26)/2</f>
-        <v>82.5</v>
+        <v>105</v>
       </c>
       <c r="E26" s="10">
         <f>IF(OR(Tracker!F26="denied",Tracker!F26="on hold",Tracker!F26="No Response",Tracker!F26="pending",Tracker!F50="ghosted"), 0.2, IF(Tracker!F26="interviewing", 0.4, IF(Tracker!F26="rejected", 0.3, IF(Tracker!F26="offer", 1, 0))))</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F26" s="11">
         <f>IF(OR(Tracker!I26="linkedin", Tracker!I26="Indeed", Tracker!I26="linkedin dm"), 0.9, IF(Tracker!I26="Company Site", 1.1, 1))</f>
@@ -6051,37 +6801,37 @@
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.11362500000000031</v>
+        <v>0.59175000000000022</v>
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="3"/>
-        <v>-2</v>
+        <v>1.6575000000000006</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="str">
         <f>Tracker!A27</f>
-        <v>Company 26</v>
+        <v>Company 41</v>
       </c>
       <c r="B27" t="str">
         <f>Tracker!B27</f>
-        <v>Title 26</v>
+        <v>Title 41</v>
       </c>
       <c r="C27" t="str">
         <f>Tracker!F27</f>
-        <v>Pending</v>
+        <v>Rejected</v>
       </c>
       <c r="D27">
         <f ca="1">(Tracker!G27+Tracker!H27)/2</f>
-        <v>90</v>
+        <v>96.5</v>
       </c>
       <c r="E27" s="10">
         <f>IF(OR(Tracker!F27="denied",Tracker!F27="on hold",Tracker!F27="No Response",Tracker!F27="pending",Tracker!F51="ghosted"), 0.2, IF(Tracker!F27="interviewing", 0.4, IF(Tracker!F27="rejected", 0.3, IF(Tracker!F27="offer", 1, 0))))</f>
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F27" s="11">
         <f>IF(OR(Tracker!I27="linkedin", Tracker!I27="Indeed", Tracker!I27="linkedin dm"), 0.9, IF(Tracker!I27="Company Site", 1.1, 1))</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G27" s="11">
         <f>IF(OR(Tracker!D27="analyst", Tracker!D27="project manager", Tracker!D27="consultant"), 1.1, IF(Tracker!D27="Product Manager", 0.9, 1))</f>
@@ -6092,25 +6842,25 @@
       </c>
       <c r="I27" s="11">
         <f>10-(0.5*Tracker!J27)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12149999999999972</v>
+        <v>0.32527499999999998</v>
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="3"/>
-        <v>8.9999999999999858E-2</v>
+        <v>1.3614166666666669</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="str">
         <f>Tracker!A28</f>
-        <v>Company 27</v>
+        <v>Company 42</v>
       </c>
       <c r="B28" t="str">
         <f>Tracker!B28</f>
-        <v>Title 27</v>
+        <v>Title 42</v>
       </c>
       <c r="C28" t="str">
         <f>Tracker!F28</f>
@@ -6118,7 +6868,7 @@
       </c>
       <c r="D28">
         <f ca="1">(Tracker!G28+Tracker!H28)/2</f>
-        <v>95.5</v>
+        <v>88</v>
       </c>
       <c r="E28" s="10">
         <f>IF(OR(Tracker!F28="denied",Tracker!F28="on hold",Tracker!F28="No Response",Tracker!F28="pending",Tracker!F52="ghosted"), 0.2, IF(Tracker!F28="interviewing", 0.4, IF(Tracker!F28="rejected", 0.3, IF(Tracker!F28="offer", 1, 0))))</f>
@@ -6126,7 +6876,7 @@
       </c>
       <c r="F28" s="11">
         <f>IF(OR(Tracker!I28="linkedin", Tracker!I28="Indeed", Tracker!I28="linkedin dm"), 0.9, IF(Tracker!I28="Company Site", 1.1, 1))</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G28" s="11">
         <f>IF(OR(Tracker!D28="analyst", Tracker!D28="project manager", Tracker!D28="consultant"), 1.1, IF(Tracker!D28="Product Manager", 0.9, 1))</f>
@@ -6141,37 +6891,37 @@
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="2"/>
-        <v>0.29392499999999977</v>
+        <v>5.8799999999999741E-2</v>
       </c>
       <c r="K28">
         <f t="shared" ca="1" si="3"/>
-        <v>0.21772222222222259</v>
+        <v>-0.16079999999999961</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="str">
         <f>Tracker!A29</f>
-        <v>Company 28</v>
+        <v>Company 43</v>
       </c>
       <c r="B29" t="str">
         <f>Tracker!B29</f>
-        <v>Title 28</v>
+        <v>Title 43</v>
       </c>
       <c r="C29" t="str">
         <f>Tracker!F29</f>
-        <v>Interviewing</v>
+        <v>No Response</v>
       </c>
       <c r="D29">
         <f ca="1">(Tracker!G29+Tracker!H29)/2</f>
-        <v>80</v>
+        <v>80.5</v>
       </c>
       <c r="E29" s="10">
         <f>IF(OR(Tracker!F29="denied",Tracker!F29="on hold",Tracker!F29="No Response",Tracker!F29="pending",Tracker!F53="ghosted"), 0.2, IF(Tracker!F29="interviewing", 0.4, IF(Tracker!F29="rejected", 0.3, IF(Tracker!F29="offer", 1, 0))))</f>
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="F29" s="11">
         <f>IF(OR(Tracker!I29="linkedin", Tracker!I29="Indeed", Tracker!I29="linkedin dm"), 0.9, IF(Tracker!I29="Company Site", 1.1, 1))</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G29" s="11">
         <f>IF(OR(Tracker!D29="analyst", Tracker!D29="project manager", Tracker!D29="consultant"), 1.1, IF(Tracker!D29="Product Manager", 0.9, 1))</f>
@@ -6186,29 +6936,29 @@
       </c>
       <c r="J29">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.19200000000000017</v>
+        <v>-0.17632500000000029</v>
       </c>
       <c r="K29">
         <f t="shared" ca="1" si="3"/>
-        <v>1.7155555555555555</v>
+        <v>-0.31754999999999955</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="str">
         <f>Tracker!A30</f>
-        <v>Company 29</v>
+        <v>Company 44</v>
       </c>
       <c r="B30" t="str">
         <f>Tracker!B30</f>
-        <v>Title 29</v>
+        <v>Title 44</v>
       </c>
       <c r="C30" t="str">
         <f>Tracker!F30</f>
-        <v>Pending</v>
+        <v>No Response</v>
       </c>
       <c r="D30">
         <f ca="1">(Tracker!G30+Tracker!H30)/2</f>
-        <v>104</v>
+        <v>103.5</v>
       </c>
       <c r="E30" s="10">
         <f>IF(OR(Tracker!F30="denied",Tracker!F30="on hold",Tracker!F30="No Response",Tracker!F30="pending",Tracker!F54="ghosted"), 0.2, IF(Tracker!F30="interviewing", 0.4, IF(Tracker!F30="rejected", 0.3, IF(Tracker!F30="offer", 1, 0))))</f>
@@ -6216,7 +6966,7 @@
       </c>
       <c r="F30" s="11">
         <f>IF(OR(Tracker!I30="linkedin", Tracker!I30="Indeed", Tracker!I30="linkedin dm"), 0.9, IF(Tracker!I30="Company Site", 1.1, 1))</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G30" s="11">
         <f>IF(OR(Tracker!D30="analyst", Tracker!D30="project manager", Tracker!D30="consultant"), 1.1, IF(Tracker!D30="Product Manager", 0.9, 1))</f>
@@ -6231,29 +6981,29 @@
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="2"/>
-        <v>0.56039999999999957</v>
+        <v>0.54472499999999968</v>
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="3"/>
-        <v>0.41511111111111099</v>
+        <v>0.16315000000000079</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="str">
         <f>Tracker!A31</f>
-        <v>Company 30</v>
+        <v>Company 45</v>
       </c>
       <c r="B31" t="str">
         <f>Tracker!B31</f>
-        <v>Title 30</v>
+        <v>Title 45</v>
       </c>
       <c r="C31" t="str">
         <f>Tracker!F31</f>
-        <v>No Response</v>
+        <v>Denied</v>
       </c>
       <c r="D31">
         <f ca="1">(Tracker!G31+Tracker!H31)/2</f>
-        <v>106</v>
+        <v>110.5</v>
       </c>
       <c r="E31" s="10">
         <f>IF(OR(Tracker!F31="denied",Tracker!F31="on hold",Tracker!F31="No Response",Tracker!F31="pending",Tracker!F55="ghosted"), 0.2, IF(Tracker!F31="interviewing", 0.4, IF(Tracker!F31="rejected", 0.3, IF(Tracker!F31="offer", 1, 0))))</f>
@@ -6261,7 +7011,7 @@
       </c>
       <c r="F31" s="11">
         <f>IF(OR(Tracker!I31="linkedin", Tracker!I31="Indeed", Tracker!I31="linkedin dm"), 0.9, IF(Tracker!I31="Company Site", 1.1, 1))</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G31" s="11">
         <f>IF(OR(Tracker!D31="analyst", Tracker!D31="project manager", Tracker!D31="consultant"), 1.1, IF(Tracker!D31="Product Manager", 0.9, 1))</f>
@@ -6276,29 +7026,29 @@
       </c>
       <c r="J31">
         <f t="shared" ca="1" si="2"/>
-        <v>0.6230999999999991</v>
+        <v>0.76417499999999983</v>
       </c>
       <c r="K31">
         <f t="shared" ca="1" si="3"/>
-        <v>0.46155555555555594</v>
+        <v>0.30945</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="str">
         <f>Tracker!A32</f>
-        <v>Company 31</v>
+        <v>Company 46</v>
       </c>
       <c r="B32" t="str">
         <f>Tracker!B32</f>
-        <v>Title 31</v>
+        <v>Title 46</v>
       </c>
       <c r="C32" t="str">
         <f>Tracker!F32</f>
-        <v>Pending</v>
+        <v>No Response</v>
       </c>
       <c r="D32">
         <f ca="1">(Tracker!G32+Tracker!H32)/2</f>
-        <v>100.5</v>
+        <v>88.5</v>
       </c>
       <c r="E32" s="10">
         <f>IF(OR(Tracker!F32="denied",Tracker!F32="on hold",Tracker!F32="No Response",Tracker!F32="pending",Tracker!F56="ghosted"), 0.2, IF(Tracker!F32="interviewing", 0.4, IF(Tracker!F32="rejected", 0.3, IF(Tracker!F32="offer", 1, 0))))</f>
@@ -6321,21 +7071,21 @@
       </c>
       <c r="J32">
         <f t="shared" ca="1" si="2"/>
-        <v>0.45067499999999949</v>
+        <v>7.4474999999999625E-2</v>
       </c>
       <c r="K32">
         <f t="shared" ca="1" si="3"/>
-        <v>0.10044999999999993</v>
+        <v>-0.15034999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="str">
         <f>Tracker!A33</f>
-        <v>Company 32</v>
+        <v>Company 47</v>
       </c>
       <c r="B33" t="str">
         <f>Tracker!B33</f>
-        <v>Title 32</v>
+        <v>Title 47</v>
       </c>
       <c r="C33" t="str">
         <f>Tracker!F33</f>
@@ -6343,7 +7093,7 @@
       </c>
       <c r="D33">
         <f ca="1">(Tracker!G33+Tracker!H33)/2</f>
-        <v>115.5</v>
+        <v>88</v>
       </c>
       <c r="E33" s="10">
         <f>IF(OR(Tracker!F33="denied",Tracker!F33="on hold",Tracker!F33="No Response",Tracker!F33="pending",Tracker!F57="ghosted"), 0.2, IF(Tracker!F33="interviewing", 0.4, IF(Tracker!F33="rejected", 0.3, IF(Tracker!F33="offer", 1, 0))))</f>
@@ -6366,21 +7116,21 @@
       </c>
       <c r="J33">
         <f t="shared" ca="1" si="2"/>
-        <v>0.92092499999999955</v>
+        <v>5.8799999999999741E-2</v>
       </c>
       <c r="K33">
         <f t="shared" ca="1" si="3"/>
-        <v>1.6209249999999997</v>
+        <v>0.75879999999999992</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="str">
         <f>Tracker!A34</f>
-        <v>Company 33</v>
+        <v>Company 64</v>
       </c>
       <c r="B34" t="str">
         <f>Tracker!B34</f>
-        <v>Title 33</v>
+        <v>Title 48</v>
       </c>
       <c r="C34" t="str">
         <f>Tracker!F34</f>
@@ -6388,7 +7138,7 @@
       </c>
       <c r="D34">
         <f ca="1">(Tracker!G34+Tracker!H34)/2</f>
-        <v>103.5</v>
+        <v>72</v>
       </c>
       <c r="E34" s="10">
         <f>IF(OR(Tracker!F34="denied",Tracker!F34="on hold",Tracker!F34="No Response",Tracker!F34="pending",Tracker!F58="ghosted"), 0.2, IF(Tracker!F34="interviewing", 0.4, IF(Tracker!F34="rejected", 0.3, IF(Tracker!F34="offer", 1, 0))))</f>
@@ -6411,33 +7161,33 @@
       </c>
       <c r="J34">
         <f t="shared" ca="1" si="2"/>
-        <v>0.54472499999999968</v>
+        <v>-0.44280000000000053</v>
       </c>
       <c r="K34">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16315000000000079</v>
+        <v>-0.49520000000000008</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" t="str">
         <f>Tracker!A35</f>
-        <v>Company 34</v>
+        <v>Company 49</v>
       </c>
       <c r="B35" t="str">
         <f>Tracker!B35</f>
-        <v>Title 34</v>
+        <v>Title 49</v>
       </c>
       <c r="C35" t="str">
         <f>Tracker!F35</f>
-        <v>Interviewing</v>
+        <v>Rejected</v>
       </c>
       <c r="D35">
         <f ca="1">(Tracker!G35+Tracker!H35)/2</f>
-        <v>91</v>
+        <v>83.5</v>
       </c>
       <c r="E35" s="10">
         <f>IF(OR(Tracker!F35="denied",Tracker!F35="on hold",Tracker!F35="No Response",Tracker!F35="pending",Tracker!F59="ghosted"), 0.2, IF(Tracker!F35="interviewing", 0.4, IF(Tracker!F35="rejected", 0.3, IF(Tracker!F35="offer", 1, 0))))</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="F35" s="11">
         <f>IF(OR(Tracker!I35="linkedin", Tracker!I35="Indeed", Tracker!I35="linkedin dm"), 0.9, IF(Tracker!I35="Company Site", 1.1, 1))</f>
@@ -6452,33 +7202,33 @@
       </c>
       <c r="I35" s="11">
         <f>10-(0.5*Tracker!J35)</f>
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="J35">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15285000000000037</v>
+        <v>-8.2275000000000098E-2</v>
       </c>
       <c r="K35">
         <f t="shared" ca="1" si="3"/>
-        <v>2.4750588235294115</v>
+        <v>0.61772500000000008</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" t="str">
         <f>Tracker!A36</f>
-        <v>Company 35</v>
+        <v>Company 50</v>
       </c>
       <c r="B36" t="str">
         <f>Tracker!B36</f>
-        <v>Title 35</v>
+        <v>Title 50</v>
       </c>
       <c r="C36" t="str">
         <f>Tracker!F36</f>
-        <v>Denied</v>
+        <v>No Response</v>
       </c>
       <c r="D36">
         <f ca="1">(Tracker!G36+Tracker!H36)/2</f>
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="E36" s="10">
         <f>IF(OR(Tracker!F36="denied",Tracker!F36="on hold",Tracker!F36="No Response",Tracker!F36="pending",Tracker!F60="ghosted"), 0.2, IF(Tracker!F36="interviewing", 0.4, IF(Tracker!F36="rejected", 0.3, IF(Tracker!F36="offer", 1, 0))))</f>
@@ -6501,29 +7251,29 @@
       </c>
       <c r="J36">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12149999999999972</v>
+        <v>0.59175000000000022</v>
       </c>
       <c r="K36">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.11900000000000022</v>
+        <v>0.19450000000000012</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" t="str">
         <f>Tracker!A37</f>
-        <v>Company 36</v>
+        <v>Company 50</v>
       </c>
       <c r="B37" t="str">
         <f>Tracker!B37</f>
-        <v>Title 36</v>
+        <v>Title 51</v>
       </c>
       <c r="C37" t="str">
         <f>Tracker!F37</f>
-        <v>No Response</v>
+        <v>Rejected</v>
       </c>
       <c r="D37">
         <f ca="1">(Tracker!G37+Tracker!H37)/2</f>
-        <v>109</v>
+        <v>107.5</v>
       </c>
       <c r="E37" s="10">
         <f>IF(OR(Tracker!F37="denied",Tracker!F37="on hold",Tracker!F37="No Response",Tracker!F37="pending",Tracker!F61="ghosted"), 0.2, IF(Tracker!F37="interviewing", 0.4, IF(Tracker!F37="rejected", 0.3, IF(Tracker!F37="offer", 1, 0))))</f>
@@ -6546,33 +7296,33 @@
       </c>
       <c r="J37">
         <f t="shared" ca="1" si="2"/>
-        <v>0.71714999999999929</v>
+        <v>0.67012500000000008</v>
       </c>
       <c r="K37">
         <f t="shared" ca="1" si="3"/>
-        <v>0.27810000000000024</v>
+        <v>0.24675000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" t="str">
         <f>Tracker!A38</f>
-        <v>Company 37</v>
+        <v>Company 52</v>
       </c>
       <c r="B38" t="str">
         <f>Tracker!B38</f>
-        <v>Title 37</v>
+        <v>Title 52</v>
       </c>
       <c r="C38" t="str">
         <f>Tracker!F38</f>
-        <v>Ghosted</v>
+        <v>Interviewing</v>
       </c>
       <c r="D38">
         <f ca="1">(Tracker!G38+Tracker!H38)/2</f>
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="E38" s="10">
         <f>IF(OR(Tracker!F38="denied",Tracker!F38="on hold",Tracker!F38="No Response",Tracker!F38="pending",Tracker!F62="ghosted"), 0.2, IF(Tracker!F38="interviewing", 0.4, IF(Tracker!F38="rejected", 0.3, IF(Tracker!F38="offer", 1, 0))))</f>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="F38" s="11">
         <f>IF(OR(Tracker!I38="linkedin", Tracker!I38="Indeed", Tracker!I38="linkedin dm"), 0.9, IF(Tracker!I38="Company Site", 1.1, 1))</f>
@@ -6591,33 +7341,33 @@
       </c>
       <c r="J38">
         <f t="shared" ca="1" si="2"/>
-        <v>0.1841999999999997</v>
+        <v>-0.3801000000000001</v>
       </c>
       <c r="K38">
         <f t="shared" ca="1" si="3"/>
-        <v>-2</v>
+        <v>1.0932000000000004</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" t="str">
         <f>Tracker!A39</f>
-        <v>Company 38</v>
+        <v>Company 53</v>
       </c>
       <c r="B39" t="str">
         <f>Tracker!B39</f>
-        <v>Title 38</v>
+        <v>Title 53</v>
       </c>
       <c r="C39" t="str">
         <f>Tracker!F39</f>
-        <v>No Response</v>
+        <v>Rejected</v>
       </c>
       <c r="D39">
         <f ca="1">(Tracker!G39+Tracker!H39)/2</f>
-        <v>79</v>
+        <v>101.5</v>
       </c>
       <c r="E39" s="10">
         <f>IF(OR(Tracker!F39="denied",Tracker!F39="on hold",Tracker!F39="No Response",Tracker!F39="pending",Tracker!F63="ghosted"), 0.2, IF(Tracker!F39="interviewing", 0.4, IF(Tracker!F39="rejected", 0.3, IF(Tracker!F39="offer", 1, 0))))</f>
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F39" s="11">
         <f>IF(OR(Tracker!I39="linkedin", Tracker!I39="Indeed", Tracker!I39="linkedin dm"), 0.9, IF(Tracker!I39="Company Site", 1.1, 1))</f>
@@ -6625,44 +7375,44 @@
       </c>
       <c r="G39" s="11">
         <f>IF(OR(Tracker!D39="analyst", Tracker!D39="project manager", Tracker!D39="consultant"), 1.1, IF(Tracker!D39="Product Manager", 0.9, 1))</f>
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="H39" s="10">
         <v>0.95</v>
       </c>
       <c r="I39" s="11">
         <f>10-(0.5*Tracker!J39)</f>
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="J39">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.22334999999999994</v>
+        <v>0.19274999999999975</v>
       </c>
       <c r="K39">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.26199999999999979</v>
+        <v>1.8569999999999998</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" t="str">
         <f>Tracker!A40</f>
-        <v>Company 39</v>
+        <v>Company 50</v>
       </c>
       <c r="B40" t="str">
         <f>Tracker!B40</f>
-        <v>Title 39</v>
+        <v>Title 54</v>
       </c>
       <c r="C40" t="str">
         <f>Tracker!F40</f>
-        <v>No Response</v>
+        <v>Rejected</v>
       </c>
       <c r="D40">
         <f ca="1">(Tracker!G40+Tracker!H40)/2</f>
-        <v>99</v>
+        <v>89.5</v>
       </c>
       <c r="E40" s="10">
         <f>IF(OR(Tracker!F40="denied",Tracker!F40="on hold",Tracker!F40="No Response",Tracker!F40="pending",Tracker!F64="ghosted"), 0.2, IF(Tracker!F40="interviewing", 0.4, IF(Tracker!F40="rejected", 0.3, IF(Tracker!F40="offer", 1, 0))))</f>
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F40" s="11">
         <f>IF(OR(Tracker!I40="linkedin", Tracker!I40="Indeed", Tracker!I40="linkedin dm"), 0.9, IF(Tracker!I40="Company Site", 1.1, 1))</f>
@@ -6670,7 +7420,7 @@
       </c>
       <c r="G40" s="11">
         <f>IF(OR(Tracker!D40="analyst", Tracker!D40="project manager", Tracker!D40="consultant"), 1.1, IF(Tracker!D40="Product Manager", 0.9, 1))</f>
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="H40" s="10">
         <v>0.95</v>
@@ -6681,21 +7431,21 @@
       </c>
       <c r="J40">
         <f t="shared" ca="1" si="2"/>
-        <v>0.40364999999999984</v>
+        <v>-0.14925000000000033</v>
       </c>
       <c r="K40">
         <f t="shared" ca="1" si="3"/>
-        <v>6.9099999999999717E-2</v>
+        <v>0.55074999999999985</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" t="str">
         <f>Tracker!A41</f>
-        <v>Company 40</v>
+        <v>Company 55</v>
       </c>
       <c r="B41" t="str">
         <f>Tracker!B41</f>
-        <v>Title 40</v>
+        <v>Title 55</v>
       </c>
       <c r="C41" t="str">
         <f>Tracker!F41</f>
@@ -6703,7 +7453,7 @@
       </c>
       <c r="D41">
         <f ca="1">(Tracker!G41+Tracker!H41)/2</f>
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="E41" s="10">
         <f>IF(OR(Tracker!F41="denied",Tracker!F41="on hold",Tracker!F41="No Response",Tracker!F41="pending",Tracker!F65="ghosted"), 0.2, IF(Tracker!F41="interviewing", 0.4, IF(Tracker!F41="rejected", 0.3, IF(Tracker!F41="offer", 1, 0))))</f>
@@ -6715,7 +7465,7 @@
       </c>
       <c r="G41" s="11">
         <f>IF(OR(Tracker!D41="analyst", Tracker!D41="project manager", Tracker!D41="consultant"), 1.1, IF(Tracker!D41="Product Manager", 0.9, 1))</f>
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="H41" s="10">
         <v>0.95</v>
@@ -6726,33 +7476,33 @@
       </c>
       <c r="J41">
         <f t="shared" ca="1" si="2"/>
-        <v>0.43499999999999961</v>
+        <v>0.46349999999999936</v>
       </c>
       <c r="K41">
         <f t="shared" ca="1" si="3"/>
-        <v>8.9999999999999858E-2</v>
+        <v>0.10900000000000043</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" t="str">
         <f>Tracker!A42</f>
-        <v>Company 41</v>
+        <v>Company 56</v>
       </c>
       <c r="B42" t="str">
         <f>Tracker!B42</f>
-        <v>Title 41</v>
+        <v>Title 56</v>
       </c>
       <c r="C42" t="str">
         <f>Tracker!F42</f>
-        <v>Rejected</v>
+        <v>Pending</v>
       </c>
       <c r="D42">
         <f ca="1">(Tracker!G42+Tracker!H42)/2</f>
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E42" s="10">
         <f>IF(OR(Tracker!F42="denied",Tracker!F42="on hold",Tracker!F42="No Response",Tracker!F42="pending",Tracker!F66="ghosted"), 0.2, IF(Tracker!F42="interviewing", 0.4, IF(Tracker!F42="rejected", 0.3, IF(Tracker!F42="offer", 1, 0))))</f>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F42" s="11">
         <f>IF(OR(Tracker!I42="linkedin", Tracker!I42="Indeed", Tracker!I42="linkedin dm"), 0.9, IF(Tracker!I42="Company Site", 1.1, 1))</f>
@@ -6760,40 +7510,40 @@
       </c>
       <c r="G42" s="11">
         <f>IF(OR(Tracker!D42="analyst", Tracker!D42="project manager", Tracker!D42="consultant"), 1.1, IF(Tracker!D42="Product Manager", 0.9, 1))</f>
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="H42" s="10">
         <v>0.95</v>
       </c>
       <c r="I42" s="11">
         <f>10-(0.5*Tracker!J42)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J42">
         <f t="shared" ca="1" si="2"/>
-        <v>0.87389999999999946</v>
+        <v>0.26399999999999935</v>
       </c>
       <c r="K42">
         <f t="shared" ca="1" si="3"/>
-        <v>1.9709999999999996</v>
+        <v>-2.4000000000000243E-2</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" t="str">
         <f>Tracker!A43</f>
-        <v>Company 42</v>
+        <v>Company 57</v>
       </c>
       <c r="B43" t="str">
         <f>Tracker!B43</f>
-        <v>Title 42</v>
+        <v>Title 57</v>
       </c>
       <c r="C43" t="str">
         <f>Tracker!F43</f>
-        <v>Pending</v>
+        <v>On Hold</v>
       </c>
       <c r="D43">
         <f ca="1">(Tracker!G43+Tracker!H43)/2</f>
-        <v>105.5</v>
+        <v>94.5</v>
       </c>
       <c r="E43" s="10">
         <f>IF(OR(Tracker!F43="denied",Tracker!F43="on hold",Tracker!F43="No Response",Tracker!F43="pending",Tracker!F67="ghosted"), 0.2, IF(Tracker!F43="interviewing", 0.4, IF(Tracker!F43="rejected", 0.3, IF(Tracker!F43="offer", 1, 0))))</f>
@@ -6805,7 +7555,7 @@
       </c>
       <c r="G43" s="11">
         <f>IF(OR(Tracker!D43="analyst", Tracker!D43="project manager", Tracker!D43="consultant"), 1.1, IF(Tracker!D43="Product Manager", 0.9, 1))</f>
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="H43" s="10">
         <v>0.95</v>
@@ -6816,29 +7566,29 @@
       </c>
       <c r="J43">
         <f t="shared" ca="1" si="2"/>
-        <v>0.60742499999999966</v>
+        <v>-6.7500000000002558E-3</v>
       </c>
       <c r="K43">
         <f t="shared" ca="1" si="3"/>
-        <v>0.20495000000000019</v>
+        <v>-0.2044999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" t="str">
         <f>Tracker!A44</f>
-        <v>Company 43</v>
+        <v>Company 58</v>
       </c>
       <c r="B44" t="str">
         <f>Tracker!B44</f>
-        <v>Title 43</v>
+        <v>Title 58</v>
       </c>
       <c r="C44" t="str">
         <f>Tracker!F44</f>
-        <v>No Response</v>
+        <v>Pending</v>
       </c>
       <c r="D44">
         <f ca="1">(Tracker!G44+Tracker!H44)/2</f>
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="E44" s="10">
         <f>IF(OR(Tracker!F44="denied",Tracker!F44="on hold",Tracker!F44="No Response",Tracker!F44="pending",Tracker!F68="ghosted"), 0.2, IF(Tracker!F44="interviewing", 0.4, IF(Tracker!F44="rejected", 0.3, IF(Tracker!F44="offer", 1, 0))))</f>
@@ -6850,7 +7600,7 @@
       </c>
       <c r="G44" s="11">
         <f>IF(OR(Tracker!D44="analyst", Tracker!D44="project manager", Tracker!D44="consultant"), 1.1, IF(Tracker!D44="Product Manager", 0.9, 1))</f>
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="H44" s="10">
         <v>0.95</v>
@@ -6861,29 +7611,29 @@
       </c>
       <c r="J44">
         <f t="shared" ca="1" si="2"/>
-        <v>0.68579999999999952</v>
+        <v>-0.2775000000000003</v>
       </c>
       <c r="K44">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2572000000000001</v>
+        <v>-0.38500000000000023</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" t="str">
         <f>Tracker!A45</f>
-        <v>Company 44</v>
+        <v>Company 59</v>
       </c>
       <c r="B45" t="str">
         <f>Tracker!B45</f>
-        <v>Title 44</v>
+        <v>Title 59</v>
       </c>
       <c r="C45" t="str">
         <f>Tracker!F45</f>
-        <v>No Response</v>
+        <v>Denied</v>
       </c>
       <c r="D45">
         <f ca="1">(Tracker!G45+Tracker!H45)/2</f>
-        <v>111</v>
+        <v>103.5</v>
       </c>
       <c r="E45" s="10">
         <f>IF(OR(Tracker!F45="denied",Tracker!F45="on hold",Tracker!F45="No Response",Tracker!F45="pending",Tracker!F69="ghosted"), 0.2, IF(Tracker!F45="interviewing", 0.4, IF(Tracker!F45="rejected", 0.3, IF(Tracker!F45="offer", 1, 0))))</f>
@@ -6895,7 +7645,7 @@
       </c>
       <c r="G45" s="11">
         <f>IF(OR(Tracker!D45="analyst", Tracker!D45="project manager", Tracker!D45="consultant"), 1.1, IF(Tracker!D45="Product Manager", 0.9, 1))</f>
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="H45" s="10">
         <v>0.95</v>
@@ -6906,21 +7656,21 @@
       </c>
       <c r="J45">
         <f t="shared" ca="1" si="2"/>
-        <v>0.77985000000000015</v>
+        <v>0.24974999999999925</v>
       </c>
       <c r="K45">
         <f t="shared" ca="1" si="3"/>
-        <v>0.31990000000000052</v>
+        <v>-3.3499999999999641E-2</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" t="str">
         <f>Tracker!A46</f>
-        <v>Company 45</v>
+        <v>Company 60</v>
       </c>
       <c r="B46" t="str">
         <f>Tracker!B46</f>
-        <v>Title 45</v>
+        <v>Title 60</v>
       </c>
       <c r="C46" t="str">
         <f>Tracker!F46</f>
@@ -6928,7 +7678,7 @@
       </c>
       <c r="D46">
         <f ca="1">(Tracker!G46+Tracker!H46)/2</f>
-        <v>103</v>
+        <v>89.5</v>
       </c>
       <c r="E46" s="10">
         <f>IF(OR(Tracker!F46="denied",Tracker!F46="on hold",Tracker!F46="No Response",Tracker!F46="pending",Tracker!F70="ghosted"), 0.2, IF(Tracker!F46="interviewing", 0.4, IF(Tracker!F46="rejected", 0.3, IF(Tracker!F46="offer", 1, 0))))</f>
@@ -6940,7 +7690,7 @@
       </c>
       <c r="G46" s="11">
         <f>IF(OR(Tracker!D46="analyst", Tracker!D46="project manager", Tracker!D46="consultant"), 1.1, IF(Tracker!D46="Product Manager", 0.9, 1))</f>
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="H46" s="10">
         <v>0.95</v>
@@ -6951,33 +7701,33 @@
       </c>
       <c r="J46">
         <f t="shared" ca="1" si="2"/>
-        <v>0.5290499999999998</v>
+        <v>-0.14925000000000033</v>
       </c>
       <c r="K46">
         <f t="shared" ca="1" si="3"/>
-        <v>0.15270000000000028</v>
+        <v>-0.29949999999999966</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" t="str">
         <f>Tracker!A47</f>
-        <v>Company 46</v>
+        <v>Company 61</v>
       </c>
       <c r="B47" t="str">
         <f>Tracker!B47</f>
-        <v>Title 46</v>
+        <v>Title 61</v>
       </c>
       <c r="C47" t="str">
         <f>Tracker!F47</f>
-        <v>No Response</v>
+        <v>Rejected</v>
       </c>
       <c r="D47">
         <f ca="1">(Tracker!G47+Tracker!H47)/2</f>
-        <v>112</v>
+        <v>74.5</v>
       </c>
       <c r="E47" s="10">
         <f>IF(OR(Tracker!F47="denied",Tracker!F47="on hold",Tracker!F47="No Response",Tracker!F47="pending",Tracker!F71="ghosted"), 0.2, IF(Tracker!F47="interviewing", 0.4, IF(Tracker!F47="rejected", 0.3, IF(Tracker!F47="offer", 1, 0))))</f>
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F47" s="11">
         <f>IF(OR(Tracker!I47="linkedin", Tracker!I47="Indeed", Tracker!I47="linkedin dm"), 0.9, IF(Tracker!I47="Company Site", 1.1, 1))</f>
@@ -6985,7 +7735,7 @@
       </c>
       <c r="G47" s="11">
         <f>IF(OR(Tracker!D47="analyst", Tracker!D47="project manager", Tracker!D47="consultant"), 1.1, IF(Tracker!D47="Product Manager", 0.9, 1))</f>
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="H47" s="10">
         <v>0.95</v>
@@ -6996,33 +7746,33 @@
       </c>
       <c r="J47">
         <f t="shared" ca="1" si="2"/>
-        <v>0.81120000000000081</v>
+        <v>-0.57675000000000054</v>
       </c>
       <c r="K47">
         <f t="shared" ca="1" si="3"/>
-        <v>0.34080000000000021</v>
+        <v>0.12324999999999964</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" t="str">
         <f>Tracker!A48</f>
-        <v>Company 47</v>
+        <v>Company 62</v>
       </c>
       <c r="B48" t="str">
         <f>Tracker!B48</f>
-        <v>Title 47</v>
+        <v>Title 62</v>
       </c>
       <c r="C48" t="str">
         <f>Tracker!F48</f>
-        <v>Rejected</v>
+        <v>On Hold</v>
       </c>
       <c r="D48">
         <f ca="1">(Tracker!G48+Tracker!H48)/2</f>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E48" s="10">
         <f>IF(OR(Tracker!F48="denied",Tracker!F48="on hold",Tracker!F48="No Response",Tracker!F48="pending",Tracker!F72="ghosted"), 0.2, IF(Tracker!F48="interviewing", 0.4, IF(Tracker!F48="rejected", 0.3, IF(Tracker!F48="offer", 1, 0))))</f>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F48" s="11">
         <f>IF(OR(Tracker!I48="linkedin", Tracker!I48="Indeed", Tracker!I48="linkedin dm"), 0.9, IF(Tracker!I48="Company Site", 1.1, 1))</f>
@@ -7030,7 +7780,7 @@
       </c>
       <c r="G48" s="11">
         <f>IF(OR(Tracker!D48="analyst", Tracker!D48="project manager", Tracker!D48="consultant"), 1.1, IF(Tracker!D48="Product Manager", 0.9, 1))</f>
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="H48" s="10">
         <v>0.95</v>
@@ -7041,21 +7791,21 @@
       </c>
       <c r="J48">
         <f t="shared" ca="1" si="2"/>
-        <v>0.40364999999999984</v>
+        <v>0.17849999999999966</v>
       </c>
       <c r="K48">
         <f t="shared" ca="1" si="3"/>
-        <v>1.10365</v>
+        <v>-8.0999999999999961E-2</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" t="str">
         <f>Tracker!A49</f>
-        <v>Company 48</v>
+        <v>Company 63</v>
       </c>
       <c r="B49" t="str">
         <f>Tracker!B49</f>
-        <v>Title 48</v>
+        <v>Title 63</v>
       </c>
       <c r="C49" t="str">
         <f>Tracker!F49</f>
@@ -7063,7 +7813,7 @@
       </c>
       <c r="D49">
         <f ca="1">(Tracker!G49+Tracker!H49)/2</f>
-        <v>86.5</v>
+        <v>104</v>
       </c>
       <c r="E49" s="10">
         <f>IF(OR(Tracker!F49="denied",Tracker!F49="on hold",Tracker!F49="No Response",Tracker!F49="pending",Tracker!F73="ghosted"), 0.2, IF(Tracker!F49="interviewing", 0.4, IF(Tracker!F49="rejected", 0.3, IF(Tracker!F49="offer", 1, 0))))</f>
@@ -7075,7 +7825,7 @@
       </c>
       <c r="G49" s="11">
         <f>IF(OR(Tracker!D49="analyst", Tracker!D49="project manager", Tracker!D49="consultant"), 1.1, IF(Tracker!D49="Product Manager", 0.9, 1))</f>
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="H49" s="10">
         <v>0.95</v>
@@ -7086,33 +7836,33 @@
       </c>
       <c r="J49">
         <f t="shared" ca="1" si="2"/>
-        <v>1.1775000000000091E-2</v>
+        <v>0.26399999999999935</v>
       </c>
       <c r="K49">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.19214999999999982</v>
+        <v>-2.4000000000000243E-2</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" t="str">
         <f>Tracker!A50</f>
-        <v>Company 49</v>
+        <v>Company 64</v>
       </c>
       <c r="B50" t="str">
         <f>Tracker!B50</f>
-        <v>Title 49</v>
+        <v>Title 64</v>
       </c>
       <c r="C50" t="str">
         <f>Tracker!F50</f>
-        <v>Rejected</v>
+        <v>Pending</v>
       </c>
       <c r="D50">
         <f ca="1">(Tracker!G50+Tracker!H50)/2</f>
-        <v>108.5</v>
+        <v>81.5</v>
       </c>
       <c r="E50" s="10">
         <f>IF(OR(Tracker!F50="denied",Tracker!F50="on hold",Tracker!F50="No Response",Tracker!F50="pending",Tracker!F74="ghosted"), 0.2, IF(Tracker!F50="interviewing", 0.4, IF(Tracker!F50="rejected", 0.3, IF(Tracker!F50="offer", 1, 0))))</f>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F50" s="11">
         <f>IF(OR(Tracker!I50="linkedin", Tracker!I50="Indeed", Tracker!I50="linkedin dm"), 0.9, IF(Tracker!I50="Company Site", 1.1, 1))</f>
@@ -7120,7 +7870,7 @@
       </c>
       <c r="G50" s="11">
         <f>IF(OR(Tracker!D50="analyst", Tracker!D50="project manager", Tracker!D50="consultant"), 1.1, IF(Tracker!D50="Product Manager", 0.9, 1))</f>
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="H50" s="10">
         <v>0.95</v>
@@ -7131,21 +7881,21 @@
       </c>
       <c r="J50">
         <f t="shared" ca="1" si="2"/>
-        <v>0.70147499999999985</v>
+        <v>-0.60952500000000054</v>
       </c>
       <c r="K50">
         <f t="shared" ca="1" si="3"/>
-        <v>1.401475</v>
+        <v>-0.60634999999999994</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" t="str">
         <f>Tracker!A51</f>
-        <v>Company 50</v>
+        <v>Company 64</v>
       </c>
       <c r="B51" t="str">
         <f>Tracker!B51</f>
-        <v>Title 50</v>
+        <v>Title 65</v>
       </c>
       <c r="C51" t="str">
         <f>Tracker!F51</f>
@@ -7153,7 +7903,7 @@
       </c>
       <c r="D51">
         <f ca="1">(Tracker!G51+Tracker!H51)/2</f>
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E51" s="10">
         <f>IF(OR(Tracker!F51="denied",Tracker!F51="on hold",Tracker!F51="No Response",Tracker!F51="pending",Tracker!F75="ghosted"), 0.2, IF(Tracker!F51="interviewing", 0.4, IF(Tracker!F51="rejected", 0.3, IF(Tracker!F51="offer", 1, 0))))</f>
@@ -7161,48 +7911,48 @@
       </c>
       <c r="F51" s="11">
         <f>IF(OR(Tracker!I51="linkedin", Tracker!I51="Indeed", Tracker!I51="linkedin dm"), 0.9, IF(Tracker!I51="Company Site", 1.1, 1))</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G51" s="11">
         <f>IF(OR(Tracker!D51="analyst", Tracker!D51="project manager", Tracker!D51="consultant"), 1.1, IF(Tracker!D51="Product Manager", 0.9, 1))</f>
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="H51" s="10">
         <v>0.95</v>
       </c>
       <c r="I51" s="11">
         <f>10-(0.5*Tracker!J51)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J51">
         <f t="shared" ca="1" si="2"/>
-        <v>0.56039999999999957</v>
+        <v>-0.26325000000000021</v>
       </c>
       <c r="K51">
         <f t="shared" ca="1" si="3"/>
-        <v>0.17359999999999998</v>
+        <v>0.57857142857142874</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" t="str">
         <f>Tracker!A52</f>
-        <v>Company 51</v>
+        <v>Company 12</v>
       </c>
       <c r="B52" t="str">
         <f>Tracker!B52</f>
-        <v>Title 51</v>
+        <v>Title 12</v>
       </c>
       <c r="C52" t="str">
         <f>Tracker!F52</f>
-        <v>Rejected</v>
+        <v>On Hold</v>
       </c>
       <c r="D52">
         <f ca="1">(Tracker!G52+Tracker!H52)/2</f>
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="E52" s="10">
         <f>IF(OR(Tracker!F52="denied",Tracker!F52="on hold",Tracker!F52="No Response",Tracker!F52="pending",Tracker!F76="ghosted"), 0.2, IF(Tracker!F52="interviewing", 0.4, IF(Tracker!F52="rejected", 0.3, IF(Tracker!F52="offer", 1, 0))))</f>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F52" s="11">
         <f>IF(OR(Tracker!I52="linkedin", Tracker!I52="Indeed", Tracker!I52="linkedin dm"), 0.9, IF(Tracker!I52="Company Site", 1.1, 1))</f>
@@ -7221,41 +7971,41 @@
       </c>
       <c r="J52">
         <f t="shared" ca="1" si="2"/>
-        <v>0.24690000000000012</v>
+        <v>0.71714999999999929</v>
       </c>
       <c r="K52">
         <f t="shared" ca="1" si="3"/>
-        <v>0.9469000000000003</v>
+        <v>0.27810000000000024</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" t="str">
         <f>Tracker!A53</f>
-        <v>Company 52</v>
+        <v>Company 64</v>
       </c>
       <c r="B53" t="str">
         <f>Tracker!B53</f>
-        <v>Title 52</v>
+        <v>Title 66</v>
       </c>
       <c r="C53" t="str">
         <f>Tracker!F53</f>
-        <v>Interviewing</v>
+        <v>No Response</v>
       </c>
       <c r="D53">
         <f ca="1">(Tracker!G53+Tracker!H53)/2</f>
-        <v>102</v>
+        <v>74.5</v>
       </c>
       <c r="E53" s="10">
         <f>IF(OR(Tracker!F53="denied",Tracker!F53="on hold",Tracker!F53="No Response",Tracker!F53="pending",Tracker!F77="ghosted"), 0.2, IF(Tracker!F53="interviewing", 0.4, IF(Tracker!F53="rejected", 0.3, IF(Tracker!F53="offer", 1, 0))))</f>
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="F53" s="11">
         <f>IF(OR(Tracker!I53="linkedin", Tracker!I53="Indeed", Tracker!I53="linkedin dm"), 0.9, IF(Tracker!I53="Company Site", 1.1, 1))</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G53" s="11">
         <f>IF(OR(Tracker!D53="analyst", Tracker!D53="project manager", Tracker!D53="consultant"), 1.1, IF(Tracker!D53="Product Manager", 0.9, 1))</f>
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="H53" s="10">
         <v>0.95</v>
@@ -7266,78 +8016,78 @@
       </c>
       <c r="J53">
         <f t="shared" ca="1" si="2"/>
-        <v>0.49770000000000003</v>
+        <v>-0.78907500000000064</v>
       </c>
       <c r="K53">
         <f t="shared" ca="1" si="3"/>
-        <v>2.2636000000000012</v>
+        <v>-0.58450000000000002</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" t="str">
         <f>Tracker!A54</f>
-        <v>Company 53</v>
+        <v>Company 67</v>
       </c>
       <c r="B54" t="str">
         <f>Tracker!B54</f>
-        <v>Title 53</v>
+        <v>Title 67</v>
       </c>
       <c r="C54" t="str">
         <f>Tracker!F54</f>
-        <v>Rejected</v>
+        <v>Pending</v>
       </c>
       <c r="D54">
         <f ca="1">(Tracker!G54+Tracker!H54)/2</f>
-        <v>112.5</v>
+        <v>87.5</v>
       </c>
       <c r="E54" s="10">
         <f>IF(OR(Tracker!F54="denied",Tracker!F54="on hold",Tracker!F54="No Response",Tracker!F54="pending",Tracker!F78="ghosted"), 0.2, IF(Tracker!F54="interviewing", 0.4, IF(Tracker!F54="rejected", 0.3, IF(Tracker!F54="offer", 1, 0))))</f>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F54" s="11">
         <f>IF(OR(Tracker!I54="linkedin", Tracker!I54="Indeed", Tracker!I54="linkedin dm"), 0.9, IF(Tracker!I54="Company Site", 1.1, 1))</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G54" s="11">
         <f>IF(OR(Tracker!D54="analyst", Tracker!D54="project manager", Tracker!D54="consultant"), 1.1, IF(Tracker!D54="Product Manager", 0.9, 1))</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H54" s="10">
         <v>0.95</v>
       </c>
       <c r="I54" s="11">
         <f>10-(0.5*Tracker!J54)</f>
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="J54">
         <f t="shared" ca="1" si="2"/>
-        <v>0.50624999999999964</v>
+        <v>-0.45562500000000039</v>
       </c>
       <c r="K54">
         <f t="shared" ca="1" si="3"/>
-        <v>2.2750000000000004</v>
+        <v>-0.33750000000000013</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" t="str">
         <f>Tracker!A55</f>
-        <v>Company 54</v>
+        <v>Company 13</v>
       </c>
       <c r="B55" t="str">
         <f>Tracker!B55</f>
-        <v>Title 54</v>
+        <v>Title 13</v>
       </c>
       <c r="C55" t="str">
         <f>Tracker!F55</f>
-        <v>Rejected</v>
+        <v>Interviewing</v>
       </c>
       <c r="D55">
         <f ca="1">(Tracker!G55+Tracker!H55)/2</f>
-        <v>115.5</v>
+        <v>92</v>
       </c>
       <c r="E55" s="10">
         <f>IF(OR(Tracker!F55="denied",Tracker!F55="on hold",Tracker!F55="No Response",Tracker!F55="pending",Tracker!F79="ghosted"), 0.2, IF(Tracker!F55="interviewing", 0.4, IF(Tracker!F55="rejected", 0.3, IF(Tracker!F55="offer", 1, 0))))</f>
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="F55" s="11">
         <f>IF(OR(Tracker!I55="linkedin", Tracker!I55="Indeed", Tracker!I55="linkedin dm"), 0.9, IF(Tracker!I55="Company Site", 1.1, 1))</f>
@@ -7345,7 +8095,7 @@
       </c>
       <c r="G55" s="11">
         <f>IF(OR(Tracker!D55="analyst", Tracker!D55="project manager", Tracker!D55="consultant"), 1.1, IF(Tracker!D55="Product Manager", 0.9, 1))</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H55" s="10">
         <v>0.95</v>
@@ -7356,29 +8106,29 @@
       </c>
       <c r="J55">
         <f t="shared" ca="1" si="2"/>
-        <v>0.59174999999999933</v>
+        <v>-0.34020000000000028</v>
       </c>
       <c r="K55">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2917499999999995</v>
+        <v>1.1464000000000003</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" t="str">
         <f>Tracker!A56</f>
-        <v>Company 55</v>
+        <v>Company 68</v>
       </c>
       <c r="B56" t="str">
         <f>Tracker!B56</f>
-        <v>Title 55</v>
+        <v>Title 68</v>
       </c>
       <c r="C56" t="str">
         <f>Tracker!F56</f>
-        <v>Pending</v>
+        <v>Denied</v>
       </c>
       <c r="D56">
         <f ca="1">(Tracker!G56+Tracker!H56)/2</f>
-        <v>103</v>
+        <v>99.5</v>
       </c>
       <c r="E56" s="10">
         <f>IF(OR(Tracker!F56="denied",Tracker!F56="on hold",Tracker!F56="No Response",Tracker!F56="pending",Tracker!F80="ghosted"), 0.2, IF(Tracker!F56="interviewing", 0.4, IF(Tracker!F56="rejected", 0.3, IF(Tracker!F56="offer", 1, 0))))</f>
@@ -7386,11 +8136,11 @@
       </c>
       <c r="F56" s="11">
         <f>IF(OR(Tracker!I56="linkedin", Tracker!I56="Indeed", Tracker!I56="linkedin dm"), 0.9, IF(Tracker!I56="Company Site", 1.1, 1))</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G56" s="11">
         <f>IF(OR(Tracker!D56="analyst", Tracker!D56="project manager", Tracker!D56="consultant"), 1.1, IF(Tracker!D56="Product Manager", 0.9, 1))</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H56" s="10">
         <v>0.95</v>
@@ -7401,33 +8151,33 @@
       </c>
       <c r="J56">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2354999999999996</v>
+        <v>-0.14782500000000054</v>
       </c>
       <c r="K56">
         <f t="shared" ca="1" si="3"/>
-        <v>-4.2999999999999927E-2</v>
+        <v>-0.10949999999999971</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" t="str">
         <f>Tracker!A57</f>
-        <v>Company 56</v>
+        <v>Company 14</v>
       </c>
       <c r="B57" t="str">
         <f>Tracker!B57</f>
-        <v>Title 56</v>
+        <v>Title 14</v>
       </c>
       <c r="C57" t="str">
         <f>Tracker!F57</f>
-        <v>Pending</v>
+        <v>Offer</v>
       </c>
       <c r="D57">
         <f ca="1">(Tracker!G57+Tracker!H57)/2</f>
-        <v>106.5</v>
+        <v>73.5</v>
       </c>
       <c r="E57" s="10">
         <f>IF(OR(Tracker!F57="denied",Tracker!F57="on hold",Tracker!F57="No Response",Tracker!F57="pending",Tracker!F81="ghosted"), 0.2, IF(Tracker!F57="interviewing", 0.4, IF(Tracker!F57="rejected", 0.3, IF(Tracker!F57="offer", 1, 0))))</f>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="F57" s="11">
         <f>IF(OR(Tracker!I57="linkedin", Tracker!I57="Indeed", Tracker!I57="linkedin dm"), 0.9, IF(Tracker!I57="Company Site", 1.1, 1))</f>
@@ -7435,7 +8185,7 @@
       </c>
       <c r="G57" s="11">
         <f>IF(OR(Tracker!D57="analyst", Tracker!D57="project manager", Tracker!D57="consultant"), 1.1, IF(Tracker!D57="Product Manager", 0.9, 1))</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H57" s="10">
         <v>0.95</v>
@@ -7446,29 +8196,29 @@
       </c>
       <c r="J57">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33524999999999983</v>
+        <v>-0.81472500000000014</v>
       </c>
       <c r="K57">
         <f t="shared" ca="1" si="3"/>
-        <v>2.3499999999999854E-2</v>
+        <v>4.2842500000000001</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" t="str">
         <f>Tracker!A58</f>
-        <v>Company 57</v>
+        <v>Company 69</v>
       </c>
       <c r="B58" t="str">
         <f>Tracker!B58</f>
-        <v>Title 57</v>
+        <v>Title 69</v>
       </c>
       <c r="C58" t="str">
         <f>Tracker!F58</f>
-        <v>On Hold</v>
+        <v>No Response</v>
       </c>
       <c r="D58">
         <f ca="1">(Tracker!G58+Tracker!H58)/2</f>
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="E58" s="10">
         <f>IF(OR(Tracker!F58="denied",Tracker!F58="on hold",Tracker!F58="No Response",Tracker!F58="pending",Tracker!F82="ghosted"), 0.2, IF(Tracker!F58="interviewing", 0.4, IF(Tracker!F58="rejected", 0.3, IF(Tracker!F58="offer", 1, 0))))</f>
@@ -7476,11 +8226,11 @@
       </c>
       <c r="F58" s="11">
         <f>IF(OR(Tracker!I58="linkedin", Tracker!I58="Indeed", Tracker!I58="linkedin dm"), 0.9, IF(Tracker!I58="Company Site", 1.1, 1))</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G58" s="11">
         <f>IF(OR(Tracker!D58="analyst", Tracker!D58="project manager", Tracker!D58="consultant"), 1.1, IF(Tracker!D58="Product Manager", 0.9, 1))</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H58" s="10">
         <v>0.95</v>
@@ -7491,21 +8241,21 @@
       </c>
       <c r="J58">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.16350000000000042</v>
+        <v>-0.1093500000000005</v>
       </c>
       <c r="K58">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.30899999999999994</v>
+        <v>-8.0999999999999961E-2</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" t="str">
         <f>Tracker!A59</f>
-        <v>Company 58</v>
+        <v>Company 15</v>
       </c>
       <c r="B59" t="str">
         <f>Tracker!B59</f>
-        <v>Title 58</v>
+        <v>Title 15</v>
       </c>
       <c r="C59" t="str">
         <f>Tracker!F59</f>
@@ -7513,7 +8263,7 @@
       </c>
       <c r="D59">
         <f ca="1">(Tracker!G59+Tracker!H59)/2</f>
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="E59" s="10">
         <f>IF(OR(Tracker!F59="denied",Tracker!F59="on hold",Tracker!F59="No Response",Tracker!F59="pending",Tracker!F83="ghosted"), 0.2, IF(Tracker!F59="interviewing", 0.4, IF(Tracker!F59="rejected", 0.3, IF(Tracker!F59="offer", 1, 0))))</f>
@@ -7525,7 +8275,7 @@
       </c>
       <c r="G59" s="11">
         <f>IF(OR(Tracker!D59="analyst", Tracker!D59="project manager", Tracker!D59="consultant"), 1.1, IF(Tracker!D59="Product Manager", 0.9, 1))</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H59" s="10">
         <v>0.95</v>
@@ -7536,41 +8286,41 @@
       </c>
       <c r="J59">
         <f t="shared" ca="1" si="2"/>
-        <v>0.29249999999999954</v>
+        <v>-0.85320000000000062</v>
       </c>
       <c r="K59">
         <f t="shared" ca="1" si="3"/>
-        <v>-5.0000000000001155E-3</v>
+        <v>-0.76880000000000015</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" t="str">
         <f>Tracker!A60</f>
-        <v>Company 59</v>
+        <v>Company 70</v>
       </c>
       <c r="B60" t="str">
         <f>Tracker!B60</f>
-        <v>Title 59</v>
+        <v>Title 70</v>
       </c>
       <c r="C60" t="str">
         <f>Tracker!F60</f>
-        <v>Denied</v>
+        <v>Bailed</v>
       </c>
       <c r="D60">
         <f ca="1">(Tracker!G60+Tracker!H60)/2</f>
-        <v>120</v>
+        <v>97.5</v>
       </c>
       <c r="E60" s="10">
         <f>IF(OR(Tracker!F60="denied",Tracker!F60="on hold",Tracker!F60="No Response",Tracker!F60="pending",Tracker!F84="ghosted"), 0.2, IF(Tracker!F60="interviewing", 0.4, IF(Tracker!F60="rejected", 0.3, IF(Tracker!F60="offer", 1, 0))))</f>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F60" s="11">
         <f>IF(OR(Tracker!I60="linkedin", Tracker!I60="Indeed", Tracker!I60="linkedin dm"), 0.9, IF(Tracker!I60="Company Site", 1.1, 1))</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G60" s="11">
         <f>IF(OR(Tracker!D60="analyst", Tracker!D60="project manager", Tracker!D60="consultant"), 1.1, IF(Tracker!D60="Product Manager", 0.9, 1))</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H60" s="10">
         <v>0.95</v>
@@ -7581,33 +8331,33 @@
       </c>
       <c r="J60">
         <f t="shared" ca="1" si="2"/>
-        <v>0.71999999999999931</v>
+        <v>-0.19912500000000044</v>
       </c>
       <c r="K60">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2799999999999998</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" t="str">
         <f>Tracker!A61</f>
-        <v>Company 60</v>
+        <v>Company 16</v>
       </c>
       <c r="B61" t="str">
         <f>Tracker!B61</f>
-        <v>Title 60</v>
+        <v>Title 16</v>
       </c>
       <c r="C61" t="str">
         <f>Tracker!F61</f>
-        <v>Denied</v>
+        <v>Ghosted</v>
       </c>
       <c r="D61">
         <f ca="1">(Tracker!G61+Tracker!H61)/2</f>
-        <v>106</v>
+        <v>79.5</v>
       </c>
       <c r="E61" s="10">
         <f>IF(OR(Tracker!F61="denied",Tracker!F61="on hold",Tracker!F61="No Response",Tracker!F61="pending",Tracker!F85="ghosted"), 0.2, IF(Tracker!F61="interviewing", 0.4, IF(Tracker!F61="rejected", 0.3, IF(Tracker!F61="offer", 1, 0))))</f>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F61" s="11">
         <f>IF(OR(Tracker!I61="linkedin", Tracker!I61="Indeed", Tracker!I61="linkedin dm"), 0.9, IF(Tracker!I61="Company Site", 1.1, 1))</f>
@@ -7615,7 +8365,7 @@
       </c>
       <c r="G61" s="11">
         <f>IF(OR(Tracker!D61="analyst", Tracker!D61="project manager", Tracker!D61="consultant"), 1.1, IF(Tracker!D61="Product Manager", 0.9, 1))</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H61" s="10">
         <v>0.95</v>
@@ -7626,21 +8376,21 @@
       </c>
       <c r="J61">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32099999999999973</v>
+        <v>-0.66082500000000044</v>
       </c>
       <c r="K61">
         <f t="shared" ca="1" si="3"/>
-        <v>1.4000000000000234E-2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" t="str">
         <f>Tracker!A62</f>
-        <v>Company 61</v>
+        <v>Company 71</v>
       </c>
       <c r="B62" t="str">
         <f>Tracker!B62</f>
-        <v>Title 61</v>
+        <v>Title 71</v>
       </c>
       <c r="C62" t="str">
         <f>Tracker!F62</f>
@@ -7648,7 +8398,7 @@
       </c>
       <c r="D62">
         <f ca="1">(Tracker!G62+Tracker!H62)/2</f>
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="E62" s="10">
         <f>IF(OR(Tracker!F62="denied",Tracker!F62="on hold",Tracker!F62="No Response",Tracker!F62="pending",Tracker!F86="ghosted"), 0.2, IF(Tracker!F62="interviewing", 0.4, IF(Tracker!F62="rejected", 0.3, IF(Tracker!F62="offer", 1, 0))))</f>
@@ -7656,11 +8406,11 @@
       </c>
       <c r="F62" s="11">
         <f>IF(OR(Tracker!I62="linkedin", Tracker!I62="Indeed", Tracker!I62="linkedin dm"), 0.9, IF(Tracker!I62="Company Site", 1.1, 1))</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G62" s="11">
         <f>IF(OR(Tracker!D62="analyst", Tracker!D62="project manager", Tracker!D62="consultant"), 1.1, IF(Tracker!D62="Product Manager", 0.9, 1))</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H62" s="10">
         <v>0.95</v>
@@ -7671,33 +8421,33 @@
       </c>
       <c r="J62">
         <f t="shared" ca="1" si="2"/>
-        <v>0.17849999999999966</v>
+        <v>-0.59670000000000023</v>
       </c>
       <c r="K62">
         <f t="shared" ca="1" si="3"/>
-        <v>0.87849999999999984</v>
+        <v>0.33699999999999974</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" t="str">
         <f>Tracker!A63</f>
-        <v>Company 62</v>
+        <v>Company 30</v>
       </c>
       <c r="B63" t="str">
         <f>Tracker!B63</f>
-        <v>Title 62</v>
+        <v>Title 17</v>
       </c>
       <c r="C63" t="str">
         <f>Tracker!F63</f>
-        <v>On Hold</v>
+        <v>Offer</v>
       </c>
       <c r="D63">
         <f ca="1">(Tracker!G63+Tracker!H63)/2</f>
-        <v>87.5</v>
+        <v>91.5</v>
       </c>
       <c r="E63" s="10">
         <f>IF(OR(Tracker!F63="denied",Tracker!F63="on hold",Tracker!F63="No Response",Tracker!F63="pending",Tracker!F87="ghosted"), 0.2, IF(Tracker!F63="interviewing", 0.4, IF(Tracker!F63="rejected", 0.3, IF(Tracker!F63="offer", 1, 0))))</f>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="F63" s="11">
         <f>IF(OR(Tracker!I63="linkedin", Tracker!I63="Indeed", Tracker!I63="linkedin dm"), 0.9, IF(Tracker!I63="Company Site", 1.1, 1))</f>
@@ -7705,7 +8455,7 @@
       </c>
       <c r="G63" s="11">
         <f>IF(OR(Tracker!D63="analyst", Tracker!D63="project manager", Tracker!D63="consultant"), 1.1, IF(Tracker!D63="Product Manager", 0.9, 1))</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H63" s="10">
         <v>0.95</v>
@@ -7716,21 +8466,21 @@
       </c>
       <c r="J63">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.20625000000000027</v>
+        <v>-0.35302500000000059</v>
       </c>
       <c r="K63">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.33749999999999991</v>
+        <v>5.8232499999999998</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" t="str">
         <f>Tracker!A64</f>
-        <v>Company 63</v>
+        <v>Company 72</v>
       </c>
       <c r="B64" t="str">
         <f>Tracker!B64</f>
-        <v>Title 63</v>
+        <v>Title 72</v>
       </c>
       <c r="C64" t="str">
         <f>Tracker!F64</f>
@@ -7738,7 +8488,7 @@
       </c>
       <c r="D64">
         <f ca="1">(Tracker!G64+Tracker!H64)/2</f>
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="E64" s="10">
         <f>IF(OR(Tracker!F64="denied",Tracker!F64="on hold",Tracker!F64="No Response",Tracker!F64="pending",Tracker!F88="ghosted"), 0.2, IF(Tracker!F64="interviewing", 0.4, IF(Tracker!F64="rejected", 0.3, IF(Tracker!F64="offer", 1, 0))))</f>
@@ -7746,11 +8496,11 @@
       </c>
       <c r="F64" s="11">
         <f>IF(OR(Tracker!I64="linkedin", Tracker!I64="Indeed", Tracker!I64="linkedin dm"), 0.9, IF(Tracker!I64="Company Site", 1.1, 1))</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G64" s="11">
         <f>IF(OR(Tracker!D64="analyst", Tracker!D64="project manager", Tracker!D64="consultant"), 1.1, IF(Tracker!D64="Product Manager", 0.9, 1))</f>
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H64" s="10">
         <v>0.95</v>
@@ -7761,29 +8511,29 @@
       </c>
       <c r="J64">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37799999999999967</v>
+        <v>9.0149999999999508E-2</v>
       </c>
       <c r="K64">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2000000000000046E-2</v>
+        <v>6.6777777777778269E-2</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" t="str">
         <f>Tracker!A65</f>
-        <v>Company 64</v>
+        <v>Company 18</v>
       </c>
       <c r="B65" t="str">
         <f>Tracker!B65</f>
-        <v>Title 64</v>
+        <v>Title 18</v>
       </c>
       <c r="C65" t="str">
         <f>Tracker!F65</f>
-        <v>Pending</v>
+        <v>No Response</v>
       </c>
       <c r="D65">
         <f ca="1">(Tracker!G65+Tracker!H65)/2</f>
-        <v>107</v>
+        <v>100.5</v>
       </c>
       <c r="E65" s="10">
         <f>IF(OR(Tracker!F65="denied",Tracker!F65="on hold",Tracker!F65="No Response",Tracker!F65="pending",Tracker!F89="ghosted"), 0.2, IF(Tracker!F65="interviewing", 0.4, IF(Tracker!F65="rejected", 0.3, IF(Tracker!F65="offer", 1, 0))))</f>
@@ -7802,37 +8552,37 @@
       </c>
       <c r="I65" s="11">
         <f>10-(0.5*Tracker!J65)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J65">
         <f t="shared" ca="1" si="2"/>
-        <v>4.4549999999999645E-2</v>
+        <v>-0.12217500000000037</v>
       </c>
       <c r="K65">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.1702999999999999</v>
+        <v>-9.0499999999999803E-2</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" t="str">
         <f>Tracker!A66</f>
-        <v>Company 65</v>
+        <v>Company 73</v>
       </c>
       <c r="B66" t="str">
         <f>Tracker!B66</f>
-        <v>Title 65</v>
+        <v>Title 73</v>
       </c>
       <c r="C66" t="str">
         <f>Tracker!F66</f>
-        <v>No Response</v>
+        <v>Offer</v>
       </c>
       <c r="D66">
         <f ca="1">(Tracker!G66+Tracker!H66)/2</f>
-        <v>103.5</v>
+        <v>92.5</v>
       </c>
       <c r="E66" s="10">
         <f>IF(OR(Tracker!F66="denied",Tracker!F66="on hold",Tracker!F66="No Response",Tracker!F66="pending",Tracker!F90="ghosted"), 0.2, IF(Tracker!F66="interviewing", 0.4, IF(Tracker!F66="rejected", 0.3, IF(Tracker!F66="offer", 1, 0))))</f>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="F66" s="11">
         <f>IF(OR(Tracker!I66="linkedin", Tracker!I66="Indeed", Tracker!I66="linkedin dm"), 0.9, IF(Tracker!I66="Company Site", 1.1, 1))</f>
@@ -7840,40 +8590,40 @@
       </c>
       <c r="G66" s="11">
         <f>IF(OR(Tracker!D66="analyst", Tracker!D66="project manager", Tracker!D66="consultant"), 1.1, IF(Tracker!D66="Product Manager", 0.9, 1))</f>
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H66" s="10">
         <v>0.95</v>
       </c>
       <c r="I66" s="11">
         <f>10-(0.5*Tracker!J66)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J66">
         <f t="shared" ca="1" si="2"/>
-        <v>-4.5225000000000293E-2</v>
+        <v>0.19987500000000002</v>
       </c>
       <c r="K66">
         <f t="shared" ca="1" si="3"/>
-        <v>0.80928571428571461</v>
+        <v>8.7402777777777789</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" t="str">
         <f>Tracker!A67</f>
-        <v>Company 66</v>
+        <v>Company 19</v>
       </c>
       <c r="B67" t="str">
         <f>Tracker!B67</f>
-        <v>Title 66</v>
+        <v>Title 19</v>
       </c>
       <c r="C67" t="str">
         <f>Tracker!F67</f>
-        <v>No Response</v>
+        <v>Pending</v>
       </c>
       <c r="D67">
         <f ca="1">(Tracker!G67+Tracker!H67)/2</f>
-        <v>111.5</v>
+        <v>91</v>
       </c>
       <c r="E67" s="10">
         <f>IF(OR(Tracker!F67="denied",Tracker!F67="on hold",Tracker!F67="No Response",Tracker!F67="pending",Tracker!F91="ghosted"), 0.2, IF(Tracker!F67="interviewing", 0.4, IF(Tracker!F67="rejected", 0.3, IF(Tracker!F67="offer", 1, 0))))</f>
@@ -7881,7 +8631,7 @@
       </c>
       <c r="F67" s="11">
         <f>IF(OR(Tracker!I67="linkedin", Tracker!I67="Indeed", Tracker!I67="linkedin dm"), 0.9, IF(Tracker!I67="Company Site", 1.1, 1))</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G67" s="11">
         <f>IF(OR(Tracker!D67="analyst", Tracker!D67="project manager", Tracker!D67="consultant"), 1.1, IF(Tracker!D67="Product Manager", 0.9, 1))</f>
@@ -7896,21 +8646,21 @@
       </c>
       <c r="J67">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15997499999999931</v>
+        <v>-0.36585000000000001</v>
       </c>
       <c r="K67">
         <f t="shared" ca="1" si="3"/>
-        <v>0.11849999999999961</v>
+        <v>-0.44390000000000018</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" t="str">
         <f>Tracker!A68</f>
-        <v>Company 67</v>
+        <v>Company 74</v>
       </c>
       <c r="B68" t="str">
         <f>Tracker!B68</f>
-        <v>Title 67</v>
+        <v>Title 74</v>
       </c>
       <c r="C68" t="str">
         <f>Tracker!F68</f>
@@ -7918,7 +8668,7 @@
       </c>
       <c r="D68">
         <f ca="1">(Tracker!G68+Tracker!H68)/2</f>
-        <v>94.5</v>
+        <v>99</v>
       </c>
       <c r="E68" s="10">
         <f>IF(OR(Tracker!F68="denied",Tracker!F68="on hold",Tracker!F68="No Response",Tracker!F68="pending",Tracker!F92="ghosted"), 0.2, IF(Tracker!F68="interviewing", 0.4, IF(Tracker!F68="rejected", 0.3, IF(Tracker!F68="offer", 1, 0))))</f>
@@ -7930,44 +8680,44 @@
       </c>
       <c r="G68" s="11">
         <f>IF(OR(Tracker!D68="analyst", Tracker!D68="project manager", Tracker!D68="consultant"), 1.1, IF(Tracker!D68="Product Manager", 0.9, 1))</f>
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H68" s="10">
         <v>0.95</v>
       </c>
       <c r="I68" s="11">
         <f>10-(0.5*Tracker!J68)</f>
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="J68">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.27607500000000051</v>
+        <v>0.40364999999999984</v>
       </c>
       <c r="K68">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.2044999999999999</v>
+        <v>0.70470588235294107</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" t="str">
         <f>Tracker!A69</f>
-        <v>Company 68</v>
+        <v>Company 20</v>
       </c>
       <c r="B69" t="str">
         <f>Tracker!B69</f>
-        <v>Title 68</v>
+        <v>Title 20</v>
       </c>
       <c r="C69" t="str">
         <f>Tracker!F69</f>
-        <v>Denied</v>
+        <v>Offer</v>
       </c>
       <c r="D69">
         <f ca="1">(Tracker!G69+Tracker!H69)/2</f>
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E69" s="10">
         <f>IF(OR(Tracker!F69="denied",Tracker!F69="on hold",Tracker!F69="No Response",Tracker!F69="pending",Tracker!F93="ghosted"), 0.2, IF(Tracker!F69="interviewing", 0.4, IF(Tracker!F69="rejected", 0.3, IF(Tracker!F69="offer", 1, 0))))</f>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="F69" s="11">
         <f>IF(OR(Tracker!I69="linkedin", Tracker!I69="Indeed", Tracker!I69="linkedin dm"), 0.9, IF(Tracker!I69="Company Site", 1.1, 1))</f>
@@ -7986,29 +8736,29 @@
       </c>
       <c r="J69">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.49409999999999998</v>
+        <v>-0.57105000000000006</v>
       </c>
       <c r="K69">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.3660000000000001</v>
+        <v>5.8850000000000007</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" t="str">
         <f>Tracker!A70</f>
-        <v>Company 69</v>
+        <v>Company 75</v>
       </c>
       <c r="B70" t="str">
         <f>Tracker!B70</f>
-        <v>Title 69</v>
+        <v>Title 75</v>
       </c>
       <c r="C70" t="str">
         <f>Tracker!F70</f>
-        <v>No Response</v>
+        <v>Pending</v>
       </c>
       <c r="D70">
         <f ca="1">(Tracker!G70+Tracker!H70)/2</f>
-        <v>79.5</v>
+        <v>80.5</v>
       </c>
       <c r="E70" s="10">
         <f>IF(OR(Tracker!F70="denied",Tracker!F70="on hold",Tracker!F70="No Response",Tracker!F70="pending",Tracker!F94="ghosted"), 0.2, IF(Tracker!F70="interviewing", 0.4, IF(Tracker!F70="rejected", 0.3, IF(Tracker!F70="offer", 1, 0))))</f>
@@ -8020,22 +8770,22 @@
       </c>
       <c r="G70" s="11">
         <f>IF(OR(Tracker!D70="analyst", Tracker!D70="project manager", Tracker!D70="consultant"), 1.1, IF(Tracker!D70="Product Manager", 0.9, 1))</f>
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H70" s="10">
         <v>0.95</v>
       </c>
       <c r="I70" s="11">
         <f>10-(0.5*Tracker!J70)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J70">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.66082500000000044</v>
+        <v>-0.17632500000000029</v>
       </c>
       <c r="K70">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.48950000000000005</v>
+        <v>0.33673611111111157</v>
       </c>
     </row>
   </sheetData>

--- a/example_app_tracker.xlsx
+++ b/example_app_tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\graha\OneDrive\Documents\GitHub\application_tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F9BA87-3907-4FEA-886B-524D8A8FB8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88D9A2B-EC50-48ED-9948-7C5E773911A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18620" yWindow="4200" windowWidth="18740" windowHeight="15670" xr2:uid="{85E7A6A4-6F22-48D9-815F-FC03736B7AC4}"/>
+    <workbookView xWindow="13790" yWindow="5120" windowWidth="18740" windowHeight="15670" activeTab="2" xr2:uid="{85E7A6A4-6F22-48D9-815F-FC03736B7AC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Glossary" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'ROE Calculation'!$K$1:$K$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'ROE Calculation'!$L$1:$L$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="243">
   <si>
     <t>Company</t>
   </si>
@@ -936,6 +936,9 @@
   </si>
   <si>
     <t>Platform 5</t>
+  </si>
+  <si>
+    <t>Salary Spread</t>
   </si>
 </sst>
 </file>
@@ -1524,7 +1527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2050F9-523E-4C88-ABEB-54BB5869DFA0}">
   <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
@@ -1599,12 +1602,12 @@
         <v>30</v>
       </c>
       <c r="G2">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>93</v>
+        <f t="shared" ref="G2:G33" ca="1" si="0">ROUND(RAND()*60+40,0)</f>
+        <v>75</v>
       </c>
       <c r="H2">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>128</v>
+        <f t="shared" ref="H2:H33" ca="1" si="1">ROUND(RAND()*40+90,0)</f>
+        <v>120</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>241</v>
@@ -1613,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="3">
-        <f>WEEKNUM(E2)</f>
+        <f t="shared" ref="K2:K33" si="2">WEEKNUM(E2)</f>
         <v>1</v>
       </c>
     </row>
@@ -1637,12 +1640,12 @@
         <v>30</v>
       </c>
       <c r="G3">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>96</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
       </c>
       <c r="H3">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>94</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>93</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>241</v>
@@ -1651,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="3">
-        <f>WEEKNUM(E3)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -1675,12 +1678,12 @@
         <v>10</v>
       </c>
       <c r="G4">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>87</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
       </c>
       <c r="H4">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>105</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>91</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>241</v>
@@ -1689,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="3">
-        <f>WEEKNUM(E4)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
@@ -1713,12 +1716,12 @@
         <v>3</v>
       </c>
       <c r="G5">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>45</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>56</v>
       </c>
       <c r="H5">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>99</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>108</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>238</v>
@@ -1727,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="3">
-        <f>WEEKNUM(E5)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -1751,12 +1754,12 @@
         <v>11</v>
       </c>
       <c r="G6">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>78</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
       </c>
       <c r="H6">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>105</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>92</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>237</v>
@@ -1765,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="3">
-        <f>WEEKNUM(E6)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -1789,12 +1792,12 @@
         <v>2</v>
       </c>
       <c r="G7">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>44</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
       </c>
       <c r="H7">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>109</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>105</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>240</v>
@@ -1803,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="3">
-        <f>WEEKNUM(E7)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -1827,12 +1830,12 @@
         <v>179</v>
       </c>
       <c r="G8">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>55</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>59</v>
       </c>
       <c r="H8">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>99</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>104</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>237</v>
@@ -1841,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
-        <f>WEEKNUM(E8)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -1865,12 +1868,12 @@
         <v>30</v>
       </c>
       <c r="G9">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>65</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>92</v>
       </c>
       <c r="H9">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>105</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>110</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>240</v>
@@ -1879,7 +1882,7 @@
         <v>2</v>
       </c>
       <c r="K9" s="3">
-        <f>WEEKNUM(E9)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -1903,12 +1906,12 @@
         <v>2</v>
       </c>
       <c r="G10">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>74</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>41</v>
       </c>
       <c r="H10">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>126</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>111</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>239</v>
@@ -1917,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="3">
-        <f>WEEKNUM(E10)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -1941,12 +1944,12 @@
         <v>16</v>
       </c>
       <c r="G11">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>75</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
       </c>
       <c r="H11">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>92</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>123</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>237</v>
@@ -1955,7 +1958,7 @@
         <v>3</v>
       </c>
       <c r="K11" s="3">
-        <f>WEEKNUM(E11)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1979,12 +1982,12 @@
         <v>11</v>
       </c>
       <c r="G12">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>84</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>96</v>
       </c>
       <c r="H12">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>127</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>92</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>239</v>
@@ -1993,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="3">
-        <f>WEEKNUM(E12)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
     </row>
@@ -2017,12 +2020,12 @@
         <v>2</v>
       </c>
       <c r="G13">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>82</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>96</v>
       </c>
       <c r="H13">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>108</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>102</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>240</v>
@@ -2031,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="3">
-        <f>WEEKNUM(E13)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
     </row>
@@ -2055,12 +2058,12 @@
         <v>4</v>
       </c>
       <c r="G14">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>73</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>55</v>
       </c>
       <c r="H14">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>129</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>123</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>240</v>
@@ -2069,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
-        <f>WEEKNUM(E14)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
     </row>
@@ -2093,12 +2096,12 @@
         <v>179</v>
       </c>
       <c r="G15">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>50</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>66</v>
       </c>
       <c r="H15">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>95</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>117</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>239</v>
@@ -2107,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="3">
-        <f>WEEKNUM(E15)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -2131,12 +2134,12 @@
         <v>2</v>
       </c>
       <c r="G16">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>52</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>79</v>
       </c>
       <c r="H16">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>108</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>95</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>238</v>
@@ -2145,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="3">
-        <f>WEEKNUM(E16)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -2169,12 +2172,12 @@
         <v>2</v>
       </c>
       <c r="G17">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>92</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>58</v>
       </c>
       <c r="H17">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>116</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>91</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>239</v>
@@ -2183,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="3">
-        <f>WEEKNUM(E17)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -2207,12 +2210,12 @@
         <v>3</v>
       </c>
       <c r="G18">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>94</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>77</v>
       </c>
       <c r="H18">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>126</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>96</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>238</v>
@@ -2221,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="3">
-        <f>WEEKNUM(E18)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -2245,12 +2248,12 @@
         <v>2</v>
       </c>
       <c r="G19">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>62</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>85</v>
       </c>
       <c r="H19">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>99</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>101</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>238</v>
@@ -2259,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="3">
-        <f>WEEKNUM(E19)</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
     </row>
@@ -2283,12 +2286,12 @@
         <v>30</v>
       </c>
       <c r="G20">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>71</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>72</v>
       </c>
       <c r="H20">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>119</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>95</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>237</v>
@@ -2297,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <f>WEEKNUM(E20)</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
     </row>
@@ -2321,11 +2324,11 @@
         <v>11</v>
       </c>
       <c r="G21">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>75</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>97</v>
       </c>
       <c r="H21">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>124</v>
       </c>
       <c r="I21" s="1" t="s">
@@ -2335,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="3">
-        <f>WEEKNUM(E21)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -2359,12 +2362,12 @@
         <v>4</v>
       </c>
       <c r="G22">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>96</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>69</v>
       </c>
       <c r="H22">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>107</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>114</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>239</v>
@@ -2373,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
-        <f>WEEKNUM(E22)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -2397,12 +2400,12 @@
         <v>2</v>
       </c>
       <c r="G23">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>76</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>89</v>
       </c>
       <c r="H23">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>116</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>127</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>240</v>
@@ -2411,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="3">
-        <f>WEEKNUM(E23)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -2435,12 +2438,12 @@
         <v>16</v>
       </c>
       <c r="G24">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>86</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>74</v>
       </c>
       <c r="H24">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>120</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>114</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>240</v>
@@ -2449,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
-        <f>WEEKNUM(E24)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -2473,12 +2476,12 @@
         <v>2</v>
       </c>
       <c r="G25">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>42</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
       </c>
       <c r="H25">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>93</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>116</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>238</v>
@@ -2487,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="3">
-        <f>WEEKNUM(E25)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -2511,12 +2514,12 @@
         <v>3</v>
       </c>
       <c r="G26">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>51</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>78</v>
       </c>
       <c r="H26">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>106</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>102</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>237</v>
@@ -2525,7 +2528,7 @@
         <v>3</v>
       </c>
       <c r="K26" s="3">
-        <f>WEEKNUM(E26)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -2549,11 +2552,11 @@
         <v>4</v>
       </c>
       <c r="G27">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>86</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
       </c>
       <c r="H27">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>123</v>
       </c>
       <c r="I27" s="1" t="s">
@@ -2563,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="3">
-        <f>WEEKNUM(E27)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -2587,12 +2590,12 @@
         <v>30</v>
       </c>
       <c r="G28">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>52</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>57</v>
       </c>
       <c r="H28">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>112</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>93</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>239</v>
@@ -2601,7 +2604,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="3">
-        <f>WEEKNUM(E28)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -2625,11 +2628,11 @@
         <v>179</v>
       </c>
       <c r="G29">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>73</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>93</v>
       </c>
       <c r="H29">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>119</v>
       </c>
       <c r="I29" s="1" t="s">
@@ -2639,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
-        <f>WEEKNUM(E29)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -2663,12 +2666,12 @@
         <v>30</v>
       </c>
       <c r="G30">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>89</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>57</v>
       </c>
       <c r="H30">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>126</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>114</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>239</v>
@@ -2677,7 +2680,7 @@
         <v>1</v>
       </c>
       <c r="K30" s="3">
-        <f>WEEKNUM(E30)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -2701,12 +2704,12 @@
         <v>217</v>
       </c>
       <c r="G31">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>74</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>58</v>
       </c>
       <c r="H31">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>127</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>110</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>240</v>
@@ -2715,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="3">
-        <f>WEEKNUM(E31)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -2739,12 +2742,12 @@
         <v>16</v>
       </c>
       <c r="G32">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>68</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>63</v>
       </c>
       <c r="H32">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>113</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>92</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>238</v>
@@ -2753,7 +2756,7 @@
         <v>1</v>
       </c>
       <c r="K32" s="3">
-        <f>WEEKNUM(E32)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2777,12 +2780,12 @@
         <v>2</v>
       </c>
       <c r="G33">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>61</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
       </c>
       <c r="H33">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>91</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>115</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>239</v>
@@ -2791,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="3">
-        <f>WEEKNUM(E33)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -2815,12 +2818,12 @@
         <v>16</v>
       </c>
       <c r="G34">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>54</v>
+        <f t="shared" ref="G34:G65" ca="1" si="3">ROUND(RAND()*60+40,0)</f>
+        <v>43</v>
       </c>
       <c r="H34">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>105</v>
+        <f t="shared" ref="H34:H65" ca="1" si="4">ROUND(RAND()*40+90,0)</f>
+        <v>117</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>239</v>
@@ -2829,7 +2832,7 @@
         <v>2</v>
       </c>
       <c r="K34" s="3">
-        <f>WEEKNUM(E34)</f>
+        <f t="shared" ref="K34:K65" si="5">WEEKNUM(E34)</f>
         <v>5</v>
       </c>
     </row>
@@ -2853,12 +2856,12 @@
         <v>2</v>
       </c>
       <c r="G35">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>70</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>92</v>
       </c>
       <c r="H35">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>103</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>108</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>241</v>
@@ -2867,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="3">
-        <f>WEEKNUM(E35)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -2891,12 +2894,12 @@
         <v>30</v>
       </c>
       <c r="G36">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>74</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>94</v>
       </c>
       <c r="H36">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>93</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>125</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>237</v>
@@ -2905,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="3">
-        <f>WEEKNUM(E36)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -2929,12 +2932,12 @@
         <v>30</v>
       </c>
       <c r="G37">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>65</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>84</v>
       </c>
       <c r="H37">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>110</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>122</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>239</v>
@@ -2943,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="3">
-        <f>WEEKNUM(E37)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -2967,12 +2970,12 @@
         <v>4</v>
       </c>
       <c r="G38">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>99</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>78</v>
       </c>
       <c r="H38">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>121</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>100</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>240</v>
@@ -2981,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="3">
-        <f>WEEKNUM(E38)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -3005,12 +3008,12 @@
         <v>30</v>
       </c>
       <c r="G39">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>40</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>72</v>
       </c>
       <c r="H39">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>119</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>122</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>241</v>
@@ -3019,7 +3022,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="3">
-        <f>WEEKNUM(E39)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -3043,12 +3046,12 @@
         <v>217</v>
       </c>
       <c r="G40">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>63</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>51</v>
       </c>
       <c r="H40">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>100</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>111</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>241</v>
@@ -3057,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="3">
-        <f>WEEKNUM(E40)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -3081,12 +3084,12 @@
         <v>16</v>
       </c>
       <c r="G41">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>96</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>66</v>
       </c>
       <c r="H41">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>128</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>102</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>241</v>
@@ -3095,7 +3098,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <f>WEEKNUM(E41)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
@@ -3119,12 +3122,12 @@
         <v>3</v>
       </c>
       <c r="G42">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>94</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>58</v>
       </c>
       <c r="H42">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>94</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>102</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>237</v>
@@ -3133,7 +3136,7 @@
         <v>1</v>
       </c>
       <c r="K42" s="3">
-        <f>WEEKNUM(E42)</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
     </row>
@@ -3157,12 +3160,12 @@
         <v>4</v>
       </c>
       <c r="G43">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>50</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>65</v>
       </c>
       <c r="H43">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>130</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>97</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>237</v>
@@ -3171,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
-        <f>WEEKNUM(E43)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -3195,12 +3198,12 @@
         <v>4</v>
       </c>
       <c r="G44">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>40</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>77</v>
       </c>
       <c r="H44">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>91</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>118</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>240</v>
@@ -3209,7 +3212,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="3">
-        <f>WEEKNUM(E44)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -3233,11 +3236,11 @@
         <v>16</v>
       </c>
       <c r="G45">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>42</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>91</v>
       </c>
       <c r="H45">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>99</v>
       </c>
       <c r="I45" s="1" t="s">
@@ -3247,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <f>WEEKNUM(E45)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -3271,12 +3274,12 @@
         <v>179</v>
       </c>
       <c r="G46">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>76</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>42</v>
       </c>
       <c r="H46">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>107</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>91</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>237</v>
@@ -3285,7 +3288,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="3">
-        <f>WEEKNUM(E46)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
@@ -3309,12 +3312,12 @@
         <v>16</v>
       </c>
       <c r="G47">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>100</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>63</v>
       </c>
       <c r="H47">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>108</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>97</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>238</v>
@@ -3323,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="3">
-        <f>WEEKNUM(E47)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
@@ -3347,12 +3350,12 @@
         <v>30</v>
       </c>
       <c r="G48">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>56</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>55</v>
       </c>
       <c r="H48">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>117</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>109</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>241</v>
@@ -3361,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="K48" s="3">
-        <f>WEEKNUM(E48)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
@@ -3385,12 +3388,12 @@
         <v>3</v>
       </c>
       <c r="G49">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>64</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>58</v>
       </c>
       <c r="H49">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>128</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>111</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>238</v>
@@ -3399,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="3">
-        <f>WEEKNUM(E49)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
@@ -3423,12 +3426,12 @@
         <v>16</v>
       </c>
       <c r="G50">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>72</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>85</v>
       </c>
       <c r="H50">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>103</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>112</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>241</v>
@@ -3437,7 +3440,7 @@
         <v>5</v>
       </c>
       <c r="K50" s="3">
-        <f>WEEKNUM(E50)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
@@ -3461,12 +3464,12 @@
         <v>2</v>
       </c>
       <c r="G51">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>60</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>52</v>
       </c>
       <c r="H51">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>115</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>113</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>239</v>
@@ -3475,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="K51" s="3">
-        <f>WEEKNUM(E51)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
     </row>
@@ -3499,12 +3502,12 @@
         <v>2</v>
       </c>
       <c r="G52">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>45</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>63</v>
       </c>
       <c r="H52">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>101</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>114</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>239</v>
@@ -3513,7 +3516,7 @@
         <v>0</v>
       </c>
       <c r="K52" s="3">
-        <f>WEEKNUM(E52)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
     </row>
@@ -3537,12 +3540,12 @@
         <v>10</v>
       </c>
       <c r="G53">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>54</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>83</v>
       </c>
       <c r="H53">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>108</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>112</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>238</v>
@@ -3551,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="K53" s="3">
-        <f>WEEKNUM(E53)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
     </row>
@@ -3575,12 +3578,12 @@
         <v>2</v>
       </c>
       <c r="G54">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>94</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>80</v>
       </c>
       <c r="H54">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>101</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>122</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>238</v>
@@ -3589,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="3">
-        <f>WEEKNUM(E54)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
     </row>
@@ -3613,12 +3616,12 @@
         <v>4</v>
       </c>
       <c r="G55">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>64</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>67</v>
       </c>
       <c r="H55">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>124</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>98</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>239</v>
@@ -3627,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="K55" s="3">
-        <f>WEEKNUM(E55)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
     </row>
@@ -3651,12 +3654,12 @@
         <v>30</v>
       </c>
       <c r="G56">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>68</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>91</v>
       </c>
       <c r="H56">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>130</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>100</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>239</v>
@@ -3665,7 +3668,7 @@
         <v>1</v>
       </c>
       <c r="K56" s="3">
-        <f>WEEKNUM(E56)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -3689,12 +3692,12 @@
         <v>4</v>
       </c>
       <c r="G57">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>77</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>50</v>
       </c>
       <c r="H57">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>110</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>103</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>237</v>
@@ -3703,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="K57" s="3">
-        <f>WEEKNUM(E57)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
     </row>
@@ -3727,12 +3730,12 @@
         <v>16</v>
       </c>
       <c r="G58">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>45</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>73</v>
       </c>
       <c r="H58">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>125</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>93</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>239</v>
@@ -3741,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
-        <f>WEEKNUM(E58)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
     </row>
@@ -3765,12 +3768,12 @@
         <v>10</v>
       </c>
       <c r="G59">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>49</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>86</v>
       </c>
       <c r="H59">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>92</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>109</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>241</v>
@@ -3779,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="K59" s="3">
-        <f>WEEKNUM(E59)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
@@ -3803,12 +3806,12 @@
         <v>2</v>
       </c>
       <c r="G60">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>45</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>70</v>
       </c>
       <c r="H60">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>91</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>123</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>239</v>
@@ -3817,7 +3820,7 @@
         <v>0</v>
       </c>
       <c r="K60" s="3">
-        <f>WEEKNUM(E60)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
@@ -3841,12 +3844,12 @@
         <v>30</v>
       </c>
       <c r="G61">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>48</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>74</v>
       </c>
       <c r="H61">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>98</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>124</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>238</v>
@@ -3855,7 +3858,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <f>WEEKNUM(E61)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
@@ -3879,12 +3882,12 @@
         <v>2</v>
       </c>
       <c r="G62">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>55</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>47</v>
       </c>
       <c r="H62">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>117</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>128</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>238</v>
@@ -3893,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="K62" s="3">
-        <f>WEEKNUM(E62)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
@@ -3917,12 +3920,12 @@
         <v>2</v>
       </c>
       <c r="G63">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>49</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>85</v>
       </c>
       <c r="H63">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>110</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>94</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>239</v>
@@ -3931,7 +3934,7 @@
         <v>0</v>
       </c>
       <c r="K63" s="3">
-        <f>WEEKNUM(E63)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
@@ -3955,12 +3958,12 @@
         <v>30</v>
       </c>
       <c r="G64">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>74</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>96</v>
       </c>
       <c r="H64">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>116</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>105</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>240</v>
@@ -3969,7 +3972,7 @@
         <v>6</v>
       </c>
       <c r="K64" s="3">
-        <f>WEEKNUM(E64)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
@@ -3993,12 +3996,12 @@
         <v>2</v>
       </c>
       <c r="G65">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>86</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>81</v>
       </c>
       <c r="H65">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>119</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>124</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>239</v>
@@ -4007,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="K65" s="3">
-        <f>WEEKNUM(E65)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
@@ -4031,12 +4034,12 @@
         <v>4</v>
       </c>
       <c r="G66">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>95</v>
+        <f t="shared" ref="G66:G86" ca="1" si="6">ROUND(RAND()*60+40,0)</f>
+        <v>84</v>
       </c>
       <c r="H66">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>122</v>
+        <f t="shared" ref="H66:H86" ca="1" si="7">ROUND(RAND()*40+90,0)</f>
+        <v>116</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>240</v>
@@ -4045,7 +4048,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="3">
-        <f>WEEKNUM(E66)</f>
+        <f t="shared" ref="K66:K86" si="8">WEEKNUM(E66)</f>
         <v>9</v>
       </c>
     </row>
@@ -4069,12 +4072,12 @@
         <v>30</v>
       </c>
       <c r="G67">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>90</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>85</v>
       </c>
       <c r="H67">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>98</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>93</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>238</v>
@@ -4083,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="K67" s="3">
-        <f>WEEKNUM(E67)</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
     </row>
@@ -4107,12 +4110,12 @@
         <v>2</v>
       </c>
       <c r="G68">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>94</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>51</v>
       </c>
       <c r="H68">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>120</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>104</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>238</v>
@@ -4121,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="K68" s="3">
-        <f>WEEKNUM(E68)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
@@ -4145,12 +4148,12 @@
         <v>217</v>
       </c>
       <c r="G69">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>40</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>66</v>
       </c>
       <c r="H69">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>127</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>113</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>237</v>
@@ -4159,7 +4162,7 @@
         <v>0</v>
       </c>
       <c r="K69" s="3">
-        <f>WEEKNUM(E69)</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
     </row>
@@ -4183,12 +4186,12 @@
         <v>16</v>
       </c>
       <c r="G70">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>95</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>50</v>
       </c>
       <c r="H70">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>107</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>121</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>238</v>
@@ -4197,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
-        <f>WEEKNUM(E70)</f>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
     </row>
@@ -4221,12 +4224,12 @@
         <v>2</v>
       </c>
       <c r="G71">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>62</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>69</v>
       </c>
       <c r="H71">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>113</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>118</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>238</v>
@@ -4235,7 +4238,7 @@
         <v>0</v>
       </c>
       <c r="K71" s="3">
-        <f>WEEKNUM(E71)</f>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
     </row>
@@ -4259,12 +4262,12 @@
         <v>11</v>
       </c>
       <c r="G72">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>73</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>82</v>
       </c>
       <c r="H72">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>112</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>94</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>238</v>
@@ -4273,7 +4276,7 @@
         <v>0</v>
       </c>
       <c r="K72" s="3">
-        <f>WEEKNUM(E72)</f>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
     </row>
@@ -4297,12 +4300,12 @@
         <v>2</v>
       </c>
       <c r="G73">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>62</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>68</v>
       </c>
       <c r="H73">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>109</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>98</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>241</v>
@@ -4311,7 +4314,7 @@
         <v>3</v>
       </c>
       <c r="K73" s="3">
-        <f>WEEKNUM(E73)</f>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
     </row>
@@ -4335,12 +4338,12 @@
         <v>2</v>
       </c>
       <c r="G74">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>45</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>50</v>
       </c>
       <c r="H74">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>109</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>106</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>239</v>
@@ -4349,7 +4352,7 @@
         <v>4</v>
       </c>
       <c r="K74" s="3">
-        <f>WEEKNUM(E74)</f>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
     </row>
@@ -4373,12 +4376,12 @@
         <v>2</v>
       </c>
       <c r="G75">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>93</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>42</v>
       </c>
       <c r="H75">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>118</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>109</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>238</v>
@@ -4387,7 +4390,7 @@
         <v>5</v>
       </c>
       <c r="K75" s="3">
-        <f>WEEKNUM(E75)</f>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
     </row>
@@ -4411,12 +4414,12 @@
         <v>2</v>
       </c>
       <c r="G76">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>41</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>97</v>
       </c>
       <c r="H76">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>101</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>110</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>237</v>
@@ -4425,7 +4428,7 @@
         <v>2</v>
       </c>
       <c r="K76" s="3">
-        <f>WEEKNUM(E76)</f>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
     </row>
@@ -4449,11 +4452,11 @@
         <v>2</v>
       </c>
       <c r="G77">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>80</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>90</v>
       </c>
       <c r="H77">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>111</v>
       </c>
       <c r="I77" s="1" t="s">
@@ -4463,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="K77" s="3">
-        <f>WEEKNUM(E77)</f>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
     </row>
@@ -4487,12 +4490,12 @@
         <v>2</v>
       </c>
       <c r="G78">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>57</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>69</v>
       </c>
       <c r="H78">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>128</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>124</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>238</v>
@@ -4501,7 +4504,7 @@
         <v>1</v>
       </c>
       <c r="K78" s="3">
-        <f>WEEKNUM(E78)</f>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
     </row>
@@ -4525,12 +4528,12 @@
         <v>4</v>
       </c>
       <c r="G79">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>48</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>63</v>
       </c>
       <c r="H79">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>113</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>103</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>237</v>
@@ -4539,7 +4542,7 @@
         <v>1</v>
       </c>
       <c r="K79" s="3">
-        <f>WEEKNUM(E79)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
     </row>
@@ -4563,12 +4566,12 @@
         <v>2</v>
       </c>
       <c r="G80">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>64</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>62</v>
       </c>
       <c r="H80">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>107</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>103</v>
       </c>
       <c r="I80" s="1" t="s">
         <v>241</v>
@@ -4577,7 +4580,7 @@
         <v>2</v>
       </c>
       <c r="K80" s="3">
-        <f>WEEKNUM(E80)</f>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
     </row>
@@ -4601,12 +4604,12 @@
         <v>2</v>
       </c>
       <c r="G81">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>88</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>98</v>
       </c>
       <c r="H81">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>122</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>110</v>
       </c>
       <c r="I81" s="1" t="s">
         <v>240</v>
@@ -4615,7 +4618,7 @@
         <v>0</v>
       </c>
       <c r="K81" s="3">
-        <f>WEEKNUM(E81)</f>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
     </row>
@@ -4639,12 +4642,12 @@
         <v>3</v>
       </c>
       <c r="G82">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>55</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>44</v>
       </c>
       <c r="H82">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>130</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>129</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>240</v>
@@ -4653,7 +4656,7 @@
         <v>0</v>
       </c>
       <c r="K82" s="3">
-        <f>WEEKNUM(E82)</f>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
     </row>
@@ -4677,12 +4680,12 @@
         <v>2</v>
       </c>
       <c r="G83">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>97</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>76</v>
       </c>
       <c r="H83">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>98</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>95</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>241</v>
@@ -4691,7 +4694,7 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
-        <f>WEEKNUM(E83)</f>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
     </row>
@@ -4715,12 +4718,12 @@
         <v>179</v>
       </c>
       <c r="G84">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>75</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>55</v>
       </c>
       <c r="H84">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>119</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>114</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>239</v>
@@ -4729,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="K84" s="3">
-        <f>WEEKNUM(E84)</f>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
     </row>
@@ -4753,12 +4756,12 @@
         <v>217</v>
       </c>
       <c r="G85">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>60</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>81</v>
       </c>
       <c r="H85">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>123</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>98</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>239</v>
@@ -4767,7 +4770,7 @@
         <v>0</v>
       </c>
       <c r="K85" s="3">
-        <f>WEEKNUM(E85)</f>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
     </row>
@@ -4791,12 +4794,12 @@
         <v>16</v>
       </c>
       <c r="G86">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>66</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>70</v>
       </c>
       <c r="H86">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>124</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>101</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>240</v>
@@ -4805,7 +4808,7 @@
         <v>1</v>
       </c>
       <c r="K86" s="3">
-        <f>WEEKNUM(E86)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
     </row>
@@ -4851,7 +4854,7 @@
       <formula>NOT(ISERROR(SEARCH("On",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1048576 F1:I1048576">
+  <conditionalFormatting sqref="F1:I1048576 K1:K1048576">
     <cfRule type="containsText" dxfId="3" priority="16" operator="containsText" text="Ended">
       <formula>NOT(ISERROR(SEARCH("Ended",F1)))</formula>
     </cfRule>
@@ -4862,7 +4865,7 @@
       <formula>NOT(ISERROR(SEARCH("Interv",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1048576 E1:E1048576 I1:I1048576">
+  <conditionalFormatting sqref="I1:I1048576 K1:K1048576 E1:E1048576">
     <cfRule type="beginsWith" dxfId="0" priority="17" operator="beginsWith" text="?">
       <formula>LEFT(E1,LEN("?"))="?"</formula>
     </cfRule>
@@ -5664,29 +5667,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70590CAF-D2CD-443E-AE13-8F53684D3C03}">
-  <dimension ref="A1:N70"/>
+  <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="10.81640625" customWidth="1"/>
     <col min="3" max="3" width="16.453125" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.08984375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="13.54296875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.54296875" style="15" customWidth="1"/>
-    <col min="9" max="9" width="13.08984375" style="15" customWidth="1"/>
-    <col min="10" max="10" width="15.453125" style="15" customWidth="1"/>
-    <col min="11" max="11" width="16.6328125" customWidth="1"/>
-    <col min="12" max="12" width="11.7265625" customWidth="1"/>
-    <col min="13" max="13" width="2.453125" style="14" customWidth="1"/>
+    <col min="4" max="5" width="10.54296875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.08984375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="13.54296875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.54296875" style="15" customWidth="1"/>
+    <col min="10" max="10" width="13.08984375" style="15" customWidth="1"/>
+    <col min="11" max="11" width="15.453125" style="15" customWidth="1"/>
+    <col min="12" max="12" width="16.6328125" customWidth="1"/>
+    <col min="13" max="13" width="11.7265625" customWidth="1"/>
+    <col min="14" max="14" width="2.453125" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -5700,34 +5703,37 @@
         <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="K1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>221</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>222</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="str">
         <f>Tracker!A2</f>
         <v>Company 1</v>
@@ -5742,46 +5748,49 @@
       </c>
       <c r="D2" s="1">
         <f ca="1">(Tracker!G2+Tracker!H2)/2</f>
-        <v>110.5</v>
+        <v>97.5</v>
       </c>
       <c r="E2" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F2" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D2, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>0.9</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <f>0.95</f>
         <v>0.95</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C2, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>1.2</v>
       </c>
-      <c r="H2" s="15">
+      <c r="I2" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F2, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.4</v>
       </c>
-      <c r="I2" s="15">
+      <c r="J2" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I2, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.7</v>
       </c>
-      <c r="J2" s="15">
+      <c r="K2" s="15">
         <f>MIN(Tracker!L2, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K2">
-        <f ca="1">IF(D2=0, 0.5, MIN(1, MAX(0, (E2 * F2 * G2 * (D2 / 120)))))</f>
-        <v>0.94477499999999992</v>
-      </c>
       <c r="L2">
-        <f>IF(I2=0, 0.2, ROUND((0.4 * I2 + 0.3 * H2 + 0.3 * J2), 2))</f>
+        <f ca="1">IF(D2=0, 0.5, MIN(1, MAX(0, (E2 * F2 * G2 * H2 * (D2 / 120)))))</f>
+        <v>0.79194374999999995</v>
+      </c>
+      <c r="M2">
+        <f>IF(J2=0, 0.2, ROUND((0.4 * J2 + 0.3 * I2 + 0.3 * K2), 2))</f>
         <v>0.7</v>
       </c>
-      <c r="N2">
-        <f ca="1">K2/L2</f>
-        <v>1.3496785714285715</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O2">
+        <f ca="1">L2/M2</f>
+        <v>1.1313482142857143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="str">
         <f>Tracker!A3</f>
         <v>Company 10</v>
@@ -5796,46 +5805,49 @@
       </c>
       <c r="D3" s="1">
         <f ca="1">(Tracker!G3+Tracker!H3)/2</f>
-        <v>95</v>
+        <v>89.5</v>
       </c>
       <c r="E3" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F3" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D3, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>0.9</v>
       </c>
-      <c r="F3" s="1">
-        <f t="shared" ref="F3:F66" si="0">0.95</f>
-        <v>0.95</v>
-      </c>
       <c r="G3" s="1">
+        <f t="shared" ref="G3:G66" si="0">0.95</f>
+        <v>0.95</v>
+      </c>
+      <c r="H3" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C3, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>1</v>
       </c>
-      <c r="H3" s="15">
+      <c r="I3" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F3, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.4</v>
       </c>
-      <c r="I3" s="15">
+      <c r="J3" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I3, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.7</v>
       </c>
-      <c r="J3" s="15">
+      <c r="K3" s="15">
         <f>MIN(Tracker!L3, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K66" ca="1" si="1">IF(D3=0, 0.5, MIN(1, MAX(0, (E3 * F3 * G3 * (D3 / 120)))))</f>
-        <v>0.676875</v>
-      </c>
       <c r="L3">
-        <f t="shared" ref="L3:L66" si="2">IF(I3=0, 0.2, ROUND((0.4 * I3 + 0.3 * H3 + 0.3 * J3), 2))</f>
+        <f t="shared" ref="L3:L66" ca="1" si="1">IF(D3=0, 0.5, MIN(1, MAX(0, (E3 * F3 * G3 * H3 * (D3 / 120)))))</f>
+        <v>0.605803125</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M66" si="2">IF(J3=0, 0.2, ROUND((0.4 * J3 + 0.3 * I3 + 0.3 * K3), 2))</f>
         <v>0.7</v>
       </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N66" ca="1" si="3">K3/L3</f>
-        <v>0.96696428571428583</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O3">
+        <f t="shared" ref="O3:O66" ca="1" si="3">L3/M3</f>
+        <v>0.86543303571428576</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
         <f>Tracker!A4</f>
         <v>Company 12</v>
@@ -5850,46 +5862,49 @@
       </c>
       <c r="D4" s="1">
         <f ca="1">(Tracker!G4+Tracker!H4)/2</f>
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E4" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F4" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D4, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>1.2</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C4, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H4" s="15">
+      <c r="I4" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F4, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.4</v>
       </c>
-      <c r="I4" s="15">
+      <c r="J4" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I4, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.7</v>
       </c>
-      <c r="J4" s="15">
+      <c r="K4" s="15">
         <f>MIN(Tracker!L4, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L4">
+        <v>0.82398249999999995</v>
+      </c>
+      <c r="M4">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.4285714285714286</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1.1771178571428571</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f>Tracker!A5</f>
         <v>Company 13</v>
@@ -5904,46 +5919,49 @@
       </c>
       <c r="D5" s="1">
         <f ca="1">(Tracker!G5+Tracker!H5)/2</f>
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E5" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F5" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D5, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C5, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>0.8</v>
       </c>
-      <c r="H5" s="15">
+      <c r="I5" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F5, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="I5" s="15">
+      <c r="J5" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I5, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.4</v>
       </c>
-      <c r="J5" s="15">
+      <c r="K5" s="15">
         <f>MIN(Tracker!L5, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50159999999999993</v>
-      </c>
-      <c r="L5">
+        <v>0.54270333333333332</v>
+      </c>
+      <c r="M5">
         <f t="shared" si="2"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.91199999999999981</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.98673333333333324</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f>Tracker!A6</f>
         <v>Company 14</v>
@@ -5958,46 +5976,49 @@
       </c>
       <c r="D6" s="1">
         <f ca="1">(Tracker!G6+Tracker!H6)/2</f>
-        <v>91.5</v>
+        <v>73</v>
       </c>
       <c r="E6" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F6" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D6, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C6, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>0.8</v>
       </c>
-      <c r="H6" s="15">
+      <c r="I6" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F6, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.4</v>
       </c>
-      <c r="I6" s="15">
+      <c r="J6" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I6, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="J6" s="15">
+      <c r="K6" s="15">
         <f>MIN(Tracker!L6, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63744999999999996</v>
-      </c>
-      <c r="L6">
+        <v>0.48313833333333328</v>
+      </c>
+      <c r="M6">
         <f t="shared" si="2"/>
         <v>0.54</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1804629629629628</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.89470061728395045</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <f>Tracker!A7</f>
         <v>Company 15</v>
@@ -6012,46 +6033,49 @@
       </c>
       <c r="D7" s="1">
         <f ca="1">(Tracker!G7+Tracker!H7)/2</f>
-        <v>76.5</v>
+        <v>78.5</v>
       </c>
       <c r="E7" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F7" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D7, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C7, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>0.8</v>
       </c>
-      <c r="H7" s="15">
+      <c r="I7" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F7, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="I7" s="15">
+      <c r="J7" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I7, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.6</v>
       </c>
-      <c r="J7" s="15">
+      <c r="K7" s="15">
         <f>MIN(Tracker!L7, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53294999999999992</v>
-      </c>
-      <c r="L7">
+        <v>0.51953916666666666</v>
+      </c>
+      <c r="M7">
         <f t="shared" si="2"/>
         <v>0.63</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.84595238095238079</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.82466534391534385</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <f>Tracker!A8</f>
         <v>Company 16</v>
@@ -6066,46 +6090,49 @@
       </c>
       <c r="D8" s="1">
         <f ca="1">(Tracker!G8+Tracker!H8)/2</f>
-        <v>77</v>
+        <v>81.5</v>
       </c>
       <c r="E8" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F8" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D8, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C8, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>1</v>
       </c>
-      <c r="H8" s="15">
+      <c r="I8" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F8, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="I8" s="15">
+      <c r="J8" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I8, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="J8" s="15">
+      <c r="K8" s="15">
         <f>MIN(Tracker!L8, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6705416666666667</v>
-      </c>
-      <c r="L8">
+        <v>0.67424270833333333</v>
+      </c>
+      <c r="M8">
         <f t="shared" si="2"/>
         <v>0.51</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3147875816993464</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1.3220445261437908</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <f>Tracker!A9</f>
         <v>Company 18</v>
@@ -6120,46 +6147,49 @@
       </c>
       <c r="D9" s="1">
         <f ca="1">(Tracker!G9+Tracker!H9)/2</f>
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="E9" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F9" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D9, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C9, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>1</v>
       </c>
-      <c r="H9" s="15">
+      <c r="I9" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F9, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.4</v>
       </c>
-      <c r="I9" s="15">
+      <c r="J9" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I9, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.6</v>
       </c>
-      <c r="J9" s="15">
+      <c r="K9" s="15">
         <f>MIN(Tracker!L9, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74020833333333336</v>
-      </c>
-      <c r="L9">
+        <v>0.83556458333333328</v>
+      </c>
+      <c r="M9">
         <f t="shared" si="2"/>
         <v>0.66</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1215277777777777</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1.2660069444444444</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <f>Tracker!A10</f>
         <v>Company 19</v>
@@ -6174,46 +6204,49 @@
       </c>
       <c r="D10" s="1">
         <f ca="1">(Tracker!G10+Tracker!H10)/2</f>
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="E10" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F10" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D10, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C10, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>0.9</v>
       </c>
-      <c r="H10" s="15">
+      <c r="I10" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F10, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="I10" s="15">
+      <c r="J10" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I10, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.5</v>
       </c>
-      <c r="J10" s="15">
+      <c r="K10" s="15">
         <f>MIN(Tracker!L10, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78375000000000006</v>
-      </c>
-      <c r="L10">
+        <v>0.56586749999999997</v>
+      </c>
+      <c r="M10">
         <f t="shared" si="2"/>
         <v>0.59</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3283898305084747</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.95909745762711862</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <f>Tracker!A11</f>
         <v>Company 2</v>
@@ -6228,46 +6261,49 @@
       </c>
       <c r="D11" s="1">
         <f ca="1">(Tracker!G11+Tracker!H11)/2</f>
-        <v>83.5</v>
+        <v>82.5</v>
       </c>
       <c r="E11" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F11" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D11, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>0.9</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C11, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>0.9</v>
       </c>
-      <c r="H11" s="15">
+      <c r="I11" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F11, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="I11" s="15">
+      <c r="J11" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I11, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="J11" s="15">
+      <c r="K11" s="15">
         <f>MIN(Tracker!L11, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53544375</v>
-      </c>
-      <c r="L11">
+        <v>0.50257968749999993</v>
+      </c>
+      <c r="M11">
         <f t="shared" si="2"/>
         <v>0.51</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0498897058823529</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.98545036764705862</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
         <f>Tracker!A12</f>
         <v>Company 20</v>
@@ -6282,46 +6318,49 @@
       </c>
       <c r="D12" s="1">
         <f ca="1">(Tracker!G12+Tracker!H12)/2</f>
-        <v>105.5</v>
+        <v>94</v>
       </c>
       <c r="E12" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F12" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D12, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C12, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>0.9</v>
       </c>
-      <c r="H12" s="15">
+      <c r="I12" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F12, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.4</v>
       </c>
-      <c r="I12" s="15">
+      <c r="J12" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I12, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.5</v>
       </c>
-      <c r="J12" s="15">
+      <c r="K12" s="15">
         <f>MIN(Tracker!L12, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82685624999999996</v>
-      </c>
-      <c r="L12">
+        <v>0.69988874999999995</v>
+      </c>
+      <c r="M12">
         <f t="shared" si="2"/>
         <v>0.62</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3336391129032257</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1.1288528225806451</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <f>Tracker!A13</f>
         <v>Company 21</v>
@@ -6336,46 +6375,49 @@
       </c>
       <c r="D13" s="1">
         <f ca="1">(Tracker!G13+Tracker!H13)/2</f>
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E13" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F13" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D13, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>1</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C13, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>0.8</v>
       </c>
-      <c r="H13" s="15">
+      <c r="I13" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F13, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="I13" s="15">
+      <c r="J13" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I13, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.6</v>
       </c>
-      <c r="J13" s="15">
+      <c r="K13" s="15">
         <f>MIN(Tracker!L13, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60166666666666668</v>
-      </c>
-      <c r="L13">
+        <v>0.5956499999999999</v>
+      </c>
+      <c r="M13">
         <f t="shared" si="2"/>
         <v>0.63</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <f t="shared" ca="1" si="3"/>
-        <v>0.955026455026455</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.94547619047619036</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
         <f>Tracker!A14</f>
         <v>Company 23</v>
@@ -6390,46 +6432,49 @@
       </c>
       <c r="D14" s="1">
         <f ca="1">(Tracker!G14+Tracker!H14)/2</f>
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="E14" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F14" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D14, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>1.2</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C14, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>1</v>
       </c>
-      <c r="H14" s="15">
+      <c r="I14" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F14, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="I14" s="15">
+      <c r="J14" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I14, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.6</v>
       </c>
-      <c r="J14" s="15">
+      <c r="K14" s="15">
         <f>MIN(Tracker!L14, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95949999999999991</v>
-      </c>
-      <c r="L14">
+        <v>0.80322499999999997</v>
+      </c>
+      <c r="M14">
         <f t="shared" si="2"/>
         <v>0.63</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.5230158730158729</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1.2749603174603175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
         <f>Tracker!A15</f>
         <v>Company 25</v>
@@ -6444,46 +6489,49 @@
       </c>
       <c r="D15" s="1">
         <f ca="1">(Tracker!G15+Tracker!H15)/2</f>
-        <v>72.5</v>
+        <v>91.5</v>
       </c>
       <c r="E15" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F15" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D15, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>1.2</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C15, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>0.9</v>
       </c>
-      <c r="H15" s="15">
+      <c r="I15" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F15, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="I15" s="15">
+      <c r="J15" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I15, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.5</v>
       </c>
-      <c r="J15" s="15">
+      <c r="K15" s="15">
         <f>MIN(Tracker!L15, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61987499999999995</v>
-      </c>
-      <c r="L15">
+        <v>0.74320874999999997</v>
+      </c>
+      <c r="M15">
         <f t="shared" si="2"/>
         <v>0.59</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0506355932203391</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1.2596758474576271</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
         <f>Tracker!A16</f>
         <v>Company 26</v>
@@ -6498,46 +6546,49 @@
       </c>
       <c r="D16" s="1">
         <f ca="1">(Tracker!G16+Tracker!H16)/2</f>
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E16" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F16" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D16, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>1.2</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C16, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>0.8</v>
       </c>
-      <c r="H16" s="15">
+      <c r="I16" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F16, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="I16" s="15">
+      <c r="J16" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I16, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.4</v>
       </c>
-      <c r="J16" s="15">
+      <c r="K16" s="15">
         <f>MIN(Tracker!L16, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60799999999999987</v>
-      </c>
-      <c r="L16">
+        <v>0.62814000000000003</v>
+      </c>
+      <c r="M16">
         <f t="shared" si="2"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1054545454545452</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1.1420727272727271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
         <f>Tracker!A17</f>
         <v>Company 27</v>
@@ -6552,46 +6603,49 @@
       </c>
       <c r="D17" s="1">
         <f ca="1">(Tracker!G17+Tracker!H17)/2</f>
-        <v>104</v>
+        <v>74.5</v>
       </c>
       <c r="E17" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F17" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D17, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>1.2</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C17, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>0.8</v>
       </c>
-      <c r="H17" s="15">
+      <c r="I17" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F17, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="I17" s="15">
+      <c r="J17" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I17, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.5</v>
       </c>
-      <c r="J17" s="15">
+      <c r="K17" s="15">
         <f>MIN(Tracker!L17, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79039999999999999</v>
-      </c>
-      <c r="L17">
+        <v>0.53789000000000009</v>
+      </c>
+      <c r="M17">
         <f t="shared" si="2"/>
         <v>0.59</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3396610169491525</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.91167796610169516</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <f>Tracker!A18</f>
         <v>Company 28</v>
@@ -6606,46 +6660,49 @@
       </c>
       <c r="D18" s="1">
         <f ca="1">(Tracker!G18+Tracker!H18)/2</f>
-        <v>110</v>
+        <v>86.5</v>
       </c>
       <c r="E18" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F18" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D18, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>1.2</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G18" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C18, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>1.2</v>
       </c>
-      <c r="H18" s="15">
+      <c r="I18" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F18, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="I18" s="15">
+      <c r="J18" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I18, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.4</v>
       </c>
-      <c r="J18" s="15">
+      <c r="K18" s="15">
         <f>MIN(Tracker!L18, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L18">
+        <v>0.93679499999999993</v>
+      </c>
+      <c r="M18">
         <f t="shared" si="2"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <f t="shared" ca="1" si="3"/>
-        <v>1.8181818181818181</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1.7032636363636362</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" t="str">
         <f>Tracker!A19</f>
         <v>Company 29</v>
@@ -6660,46 +6717,49 @@
       </c>
       <c r="D19" s="1">
         <f ca="1">(Tracker!G19+Tracker!H19)/2</f>
-        <v>80.5</v>
+        <v>93</v>
       </c>
       <c r="E19" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F19" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D19, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>1.2</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C19, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>0.9</v>
       </c>
-      <c r="H19" s="15">
+      <c r="I19" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F19, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="I19" s="15">
+      <c r="J19" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I19, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.4</v>
       </c>
-      <c r="J19" s="15">
+      <c r="K19" s="15">
         <f>MIN(Tracker!L19, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68827499999999997</v>
-      </c>
-      <c r="L19">
+        <v>0.75539250000000002</v>
+      </c>
+      <c r="M19">
         <f t="shared" si="2"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2514090909090907</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1.373440909090909</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" t="str">
         <f>Tracker!A20</f>
         <v>Company 30</v>
@@ -6714,46 +6774,49 @@
       </c>
       <c r="D20" s="1">
         <f ca="1">(Tracker!G20+Tracker!H20)/2</f>
-        <v>95</v>
+        <v>83.5</v>
       </c>
       <c r="E20" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F20" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D20, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>1.2</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G20" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C20, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>0.8</v>
       </c>
-      <c r="H20" s="15">
+      <c r="I20" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F20, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.4</v>
       </c>
-      <c r="I20" s="15">
+      <c r="J20" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I20, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="J20" s="15">
+      <c r="K20" s="15">
         <f>MIN(Tracker!L20, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72199999999999986</v>
-      </c>
-      <c r="L20">
+        <v>0.60287000000000002</v>
+      </c>
+      <c r="M20">
         <f t="shared" si="2"/>
         <v>0.54</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3370370370370368</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1.1164259259259259</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" t="str">
         <f>Tracker!A21</f>
         <v>Company 30</v>
@@ -6768,46 +6831,49 @@
       </c>
       <c r="D21" s="1">
         <f ca="1">(Tracker!G21+Tracker!H21)/2</f>
-        <v>99.5</v>
+        <v>110.5</v>
       </c>
       <c r="E21" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F21" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D21, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>1.2</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G21" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G21" s="1">
+      <c r="H21" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C21, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>1.2</v>
       </c>
-      <c r="H21" s="15">
+      <c r="I21" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F21, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.4</v>
       </c>
-      <c r="I21" s="15">
+      <c r="J21" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I21, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.5</v>
       </c>
-      <c r="J21" s="15">
+      <c r="K21" s="15">
         <f>MIN(Tracker!L21, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <f t="shared" si="2"/>
         <v>0.62</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <f t="shared" ca="1" si="3"/>
         <v>1.6129032258064517</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" t="str">
         <f>Tracker!A22</f>
         <v>Company 30</v>
@@ -6822,46 +6888,49 @@
       </c>
       <c r="D22" s="1">
         <f ca="1">(Tracker!G22+Tracker!H22)/2</f>
-        <v>101.5</v>
+        <v>91.5</v>
       </c>
       <c r="E22" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F22" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D22, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>1.2</v>
       </c>
-      <c r="F22" s="1">
+      <c r="G22" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G22" s="1">
+      <c r="H22" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C22, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H22" s="15">
+      <c r="I22" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F22, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="I22" s="15">
+      <c r="J22" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I22, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.5</v>
       </c>
-      <c r="J22" s="15">
+      <c r="K22" s="15">
         <f>MIN(Tracker!L22, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L22">
+        <v>0.90836624999999993</v>
+      </c>
+      <c r="M22">
         <f t="shared" si="2"/>
         <v>0.59</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <f t="shared" ca="1" si="3"/>
-        <v>1.6949152542372883</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1.539603813559322</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" t="str">
         <f>Tracker!A23</f>
         <v>Company 31</v>
@@ -6876,46 +6945,49 @@
       </c>
       <c r="D23" s="1">
         <f ca="1">(Tracker!G23+Tracker!H23)/2</f>
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="E23" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F23" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D23, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>1.2</v>
       </c>
-      <c r="F23" s="1">
+      <c r="G23" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G23" s="1">
+      <c r="H23" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C23, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>0.8</v>
       </c>
-      <c r="H23" s="15">
+      <c r="I23" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F23, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="I23" s="15">
+      <c r="J23" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I23, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.6</v>
       </c>
-      <c r="J23" s="15">
+      <c r="K23" s="15">
         <f>MIN(Tracker!L23, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72960000000000003</v>
-      </c>
-      <c r="L23">
+        <v>0.77976000000000012</v>
+      </c>
+      <c r="M23">
         <f t="shared" si="2"/>
         <v>0.63</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1580952380952381</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1.237714285714286</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" t="str">
         <f>Tracker!A24</f>
         <v>Company 32</v>
@@ -6930,46 +7002,49 @@
       </c>
       <c r="D24" s="1">
         <f ca="1">(Tracker!G24+Tracker!H24)/2</f>
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E24" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F24" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D24, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>0.9</v>
       </c>
-      <c r="F24" s="1">
+      <c r="G24" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G24" s="1">
+      <c r="H24" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C24, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H24" s="15">
+      <c r="I24" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F24, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="I24" s="15">
+      <c r="J24" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I24, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.6</v>
       </c>
-      <c r="J24" s="15">
+      <c r="K24" s="15">
         <f>MIN(Tracker!L24, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80726249999999999</v>
-      </c>
-      <c r="L24">
+        <v>0.69988875000000006</v>
+      </c>
+      <c r="M24">
         <f t="shared" si="2"/>
         <v>0.63</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2813690476190476</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1.1109345238095238</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" t="str">
         <f>Tracker!A25</f>
         <v>Company 33</v>
@@ -6984,46 +7059,49 @@
       </c>
       <c r="D25" s="1">
         <f ca="1">(Tracker!G25+Tracker!H25)/2</f>
-        <v>67.5</v>
+        <v>95.5</v>
       </c>
       <c r="E25" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F25" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D25, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>0.8</v>
       </c>
-      <c r="F25" s="1">
+      <c r="G25" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G25" s="1">
+      <c r="H25" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C25, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>0.9</v>
       </c>
-      <c r="H25" s="15">
+      <c r="I25" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F25, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="I25" s="15">
+      <c r="J25" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I25, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.4</v>
       </c>
-      <c r="J25" s="15">
+      <c r="K25" s="15">
         <f>MIN(Tracker!L25, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38475000000000004</v>
-      </c>
-      <c r="L25">
+        <v>0.51713249999999999</v>
+      </c>
+      <c r="M25">
         <f t="shared" si="2"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <f t="shared" ca="1" si="3"/>
-        <v>0.69954545454545458</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.94024090909090896</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" t="str">
         <f>Tracker!A26</f>
         <v>Company 34</v>
@@ -7038,46 +7116,49 @@
       </c>
       <c r="D26" s="1">
         <f ca="1">(Tracker!G26+Tracker!H26)/2</f>
-        <v>78.5</v>
+        <v>90</v>
       </c>
       <c r="E26" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F26" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D26, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>0.8</v>
       </c>
-      <c r="F26" s="1">
+      <c r="G26" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G26" s="1">
+      <c r="H26" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C26, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>0.8</v>
       </c>
-      <c r="H26" s="15">
+      <c r="I26" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F26, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="I26" s="15">
+      <c r="J26" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I26, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="J26" s="15">
+      <c r="K26" s="15">
         <f>MIN(Tracker!L26, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39773333333333338</v>
-      </c>
-      <c r="L26">
+        <v>0.43320000000000003</v>
+      </c>
+      <c r="M26">
         <f t="shared" si="2"/>
         <v>0.51</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <f t="shared" ca="1" si="3"/>
-        <v>0.77986928104575171</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.84941176470588242</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" t="str">
         <f>Tracker!A27</f>
         <v>Company 35</v>
@@ -7092,46 +7173,49 @@
       </c>
       <c r="D27" s="1">
         <f ca="1">(Tracker!G27+Tracker!H27)/2</f>
-        <v>104.5</v>
+        <v>99</v>
       </c>
       <c r="E27" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F27" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D27, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>0.9</v>
       </c>
-      <c r="F27" s="1">
+      <c r="G27" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G27" s="1">
+      <c r="H27" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C27, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>0.9</v>
       </c>
-      <c r="H27" s="15">
+      <c r="I27" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F27, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="I27" s="15">
+      <c r="J27" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I27, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.5</v>
       </c>
-      <c r="J27" s="15">
+      <c r="K27" s="15">
         <f>MIN(Tracker!L27, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67010625000000001</v>
-      </c>
-      <c r="L27">
+        <v>0.60309562499999991</v>
+      </c>
+      <c r="M27">
         <f t="shared" si="2"/>
         <v>0.59</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1357733050847458</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1.022195974576271</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" t="str">
         <f>Tracker!A28</f>
         <v>Company 36</v>
@@ -7146,46 +7230,49 @@
       </c>
       <c r="D28" s="1">
         <f ca="1">(Tracker!G28+Tracker!H28)/2</f>
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E28" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F28" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D28, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>0.8</v>
       </c>
-      <c r="F28" s="1">
+      <c r="G28" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G28" s="1">
+      <c r="H28" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C28, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>0.8</v>
       </c>
-      <c r="H28" s="15">
+      <c r="I28" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F28, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.4</v>
       </c>
-      <c r="I28" s="15">
+      <c r="J28" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I28, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.5</v>
       </c>
-      <c r="J28" s="15">
+      <c r="K28" s="15">
         <f>MIN(Tracker!L28, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41546666666666676</v>
-      </c>
-      <c r="L28">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="M28">
         <f t="shared" si="2"/>
         <v>0.62</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <f t="shared" ca="1" si="3"/>
-        <v>0.67010752688172059</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.58225806451612905</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" t="str">
         <f>Tracker!A29</f>
         <v>Company 37</v>
@@ -7200,46 +7287,49 @@
       </c>
       <c r="D29" s="1">
         <f ca="1">(Tracker!G29+Tracker!H29)/2</f>
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E29" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F29" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D29, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>0.8</v>
       </c>
-      <c r="F29" s="1">
+      <c r="G29" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G29" s="1">
+      <c r="H29" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C29, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>0.9</v>
       </c>
-      <c r="H29" s="15">
+      <c r="I29" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F29, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="I29" s="15">
+      <c r="J29" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I29, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.4</v>
       </c>
-      <c r="J29" s="15">
+      <c r="K29" s="15">
         <f>MIN(Tracker!L29, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54720000000000002</v>
-      </c>
-      <c r="L29">
+        <v>0.57399</v>
+      </c>
+      <c r="M29">
         <f t="shared" si="2"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <f t="shared" ca="1" si="3"/>
-        <v>0.99490909090909085</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1.0436181818181818</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" t="str">
         <f>Tracker!A30</f>
         <v>Company 38</v>
@@ -7254,46 +7344,49 @@
       </c>
       <c r="D30" s="1">
         <f ca="1">(Tracker!G30+Tracker!H30)/2</f>
-        <v>107.5</v>
+        <v>85.5</v>
       </c>
       <c r="E30" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F30" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D30, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>0.9</v>
       </c>
-      <c r="F30" s="1">
+      <c r="G30" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G30" s="1">
+      <c r="H30" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C30, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>0.9</v>
       </c>
-      <c r="H30" s="15">
+      <c r="I30" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F30, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.4</v>
       </c>
-      <c r="I30" s="15">
+      <c r="J30" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I30, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.5</v>
       </c>
-      <c r="J30" s="15">
+      <c r="K30" s="15">
         <f>MIN(Tracker!L30, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68934375000000003</v>
-      </c>
-      <c r="L30">
+        <v>0.52085531249999995</v>
+      </c>
+      <c r="M30">
         <f t="shared" si="2"/>
         <v>0.62</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1118447580645161</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.84008921370967737</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" t="str">
         <f>Tracker!A31</f>
         <v>Company 39</v>
@@ -7308,46 +7401,49 @@
       </c>
       <c r="D31" s="1">
         <f ca="1">(Tracker!G31+Tracker!H31)/2</f>
-        <v>100.5</v>
+        <v>84</v>
       </c>
       <c r="E31" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F31" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D31, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>0.8</v>
       </c>
-      <c r="F31" s="1">
+      <c r="G31" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G31" s="1">
+      <c r="H31" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C31, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>0.8</v>
       </c>
-      <c r="H31" s="15">
+      <c r="I31" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F31, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.4</v>
       </c>
-      <c r="I31" s="15">
+      <c r="J31" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I31, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.6</v>
       </c>
-      <c r="J31" s="15">
+      <c r="K31" s="15">
         <f>MIN(Tracker!L31, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5092000000000001</v>
-      </c>
-      <c r="L31">
+        <v>0.40431999999999996</v>
+      </c>
+      <c r="M31">
         <f t="shared" si="2"/>
         <v>0.66</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <f t="shared" ca="1" si="3"/>
-        <v>0.7715151515151516</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.61260606060606049</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" t="str">
         <f>Tracker!A32</f>
         <v>Company 4</v>
@@ -7362,46 +7458,49 @@
       </c>
       <c r="D32" s="1">
         <f ca="1">(Tracker!G32+Tracker!H32)/2</f>
-        <v>90.5</v>
+        <v>77.5</v>
       </c>
       <c r="E32" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F32" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D32, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>1</v>
       </c>
-      <c r="F32" s="1">
+      <c r="G32" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G32" s="1">
+      <c r="H32" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C32, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>0.8</v>
       </c>
-      <c r="H32" s="15">
+      <c r="I32" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F32, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="I32" s="15">
+      <c r="J32" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I32, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.4</v>
       </c>
-      <c r="J32" s="15">
+      <c r="K32" s="15">
         <f>MIN(Tracker!L32, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57316666666666671</v>
-      </c>
-      <c r="L32">
+        <v>0.46629166666666666</v>
+      </c>
+      <c r="M32">
         <f t="shared" si="2"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0421212121212122</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.84780303030303017</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" t="str">
         <f>Tracker!A33</f>
         <v>Company 40</v>
@@ -7416,46 +7515,49 @@
       </c>
       <c r="D33" s="1">
         <f ca="1">(Tracker!G33+Tracker!H33)/2</f>
-        <v>76</v>
+        <v>79.5</v>
       </c>
       <c r="E33" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F33" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D33, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>0.8</v>
       </c>
-      <c r="F33" s="1">
+      <c r="G33" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G33" s="1">
+      <c r="H33" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C33, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>0.8</v>
       </c>
-      <c r="H33" s="15">
+      <c r="I33" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F33, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="I33" s="15">
+      <c r="J33" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I33, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.5</v>
       </c>
-      <c r="J33" s="15">
+      <c r="K33" s="15">
         <f>MIN(Tracker!L33, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38506666666666672</v>
-      </c>
-      <c r="L33">
+        <v>0.38266</v>
+      </c>
+      <c r="M33">
         <f t="shared" si="2"/>
         <v>0.59</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <f t="shared" ca="1" si="3"/>
-        <v>0.65265536723163853</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.64857627118644068</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" t="str">
         <f>Tracker!A34</f>
         <v>Company 41</v>
@@ -7470,46 +7572,49 @@
       </c>
       <c r="D34" s="1">
         <f ca="1">(Tracker!G34+Tracker!H34)/2</f>
-        <v>79.5</v>
+        <v>80</v>
       </c>
       <c r="E34" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F34" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D34, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>0.9</v>
       </c>
-      <c r="F34" s="1">
+      <c r="G34" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G34" s="1">
+      <c r="H34" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C34, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>1.2</v>
       </c>
-      <c r="H34" s="15">
+      <c r="I34" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F34, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="I34" s="15">
+      <c r="J34" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I34, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.5</v>
       </c>
-      <c r="J34" s="15">
+      <c r="K34" s="15">
         <f>MIN(Tracker!L34, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67972500000000002</v>
-      </c>
-      <c r="L34">
+        <v>0.64979999999999993</v>
+      </c>
+      <c r="M34">
         <f t="shared" si="2"/>
         <v>0.59</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1520762711864407</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1.1013559322033897</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" t="str">
         <f>Tracker!A35</f>
         <v>Company 42</v>
@@ -7524,46 +7629,49 @@
       </c>
       <c r="D35" s="1">
         <f ca="1">(Tracker!G35+Tracker!H35)/2</f>
-        <v>86.5</v>
+        <v>100</v>
       </c>
       <c r="E35" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F35" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D35, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>0.9</v>
       </c>
-      <c r="F35" s="1">
+      <c r="G35" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G35" s="1">
+      <c r="H35" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C35, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H35" s="15">
+      <c r="I35" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F35, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="I35" s="15">
+      <c r="J35" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I35, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.7</v>
       </c>
-      <c r="J35" s="15">
+      <c r="K35" s="15">
         <f>MIN(Tracker!L35, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67794374999999996</v>
-      </c>
-      <c r="L35">
+        <v>0.74456250000000002</v>
+      </c>
+      <c r="M35">
         <f t="shared" si="2"/>
         <v>0.67</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0118563432835819</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1.1112873134328358</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" t="str">
         <f>Tracker!A36</f>
         <v>Company 43</v>
@@ -7578,46 +7686,49 @@
       </c>
       <c r="D36" s="1">
         <f ca="1">(Tracker!G36+Tracker!H36)/2</f>
-        <v>83.5</v>
+        <v>109.5</v>
       </c>
       <c r="E36" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F36" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D36, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>0.9</v>
       </c>
-      <c r="F36" s="1">
+      <c r="G36" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G36" s="1">
+      <c r="H36" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C36, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H36" s="15">
+      <c r="I36" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F36, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.4</v>
       </c>
-      <c r="I36" s="15">
+      <c r="J36" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I36, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="J36" s="15">
+      <c r="K36" s="15">
         <f>MIN(Tracker!L36, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65443125000000002</v>
-      </c>
-      <c r="L36">
+        <v>0.81529593749999996</v>
+      </c>
+      <c r="M36">
         <f t="shared" si="2"/>
         <v>0.54</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2119097222222222</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1.5098072916666665</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" t="str">
         <f>Tracker!A37</f>
         <v>Company 44</v>
@@ -7632,46 +7743,49 @@
       </c>
       <c r="D37" s="1">
         <f ca="1">(Tracker!G37+Tracker!H37)/2</f>
-        <v>87.5</v>
+        <v>103</v>
       </c>
       <c r="E37" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F37" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D37, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>0.9</v>
       </c>
-      <c r="F37" s="1">
+      <c r="G37" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G37" s="1">
+      <c r="H37" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C37, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>0.9</v>
       </c>
-      <c r="H37" s="15">
+      <c r="I37" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F37, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.4</v>
       </c>
-      <c r="I37" s="15">
+      <c r="J37" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I37, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.5</v>
       </c>
-      <c r="J37" s="15">
+      <c r="K37" s="15">
         <f>MIN(Tracker!L37, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56109374999999995</v>
-      </c>
-      <c r="L37">
+        <v>0.6274631249999999</v>
+      </c>
+      <c r="M37">
         <f t="shared" si="2"/>
         <v>0.62</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <f t="shared" ca="1" si="3"/>
-        <v>0.90498991935483863</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1.0120372983870967</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" t="str">
         <f>Tracker!A38</f>
         <v>Company 45</v>
@@ -7686,46 +7800,49 @@
       </c>
       <c r="D38" s="1">
         <f ca="1">(Tracker!G38+Tracker!H38)/2</f>
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="E38" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F38" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D38, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>1</v>
       </c>
-      <c r="F38" s="1">
+      <c r="G38" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G38" s="1">
+      <c r="H38" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C38, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>1.2</v>
       </c>
-      <c r="H38" s="15">
+      <c r="I38" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F38, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="I38" s="15">
+      <c r="J38" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I38, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.6</v>
       </c>
-      <c r="J38" s="15">
+      <c r="K38" s="15">
         <f>MIN(Tracker!L38, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L38">
+        <v>0.80322499999999997</v>
+      </c>
+      <c r="M38">
         <f t="shared" si="2"/>
         <v>0.63</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <f t="shared" ca="1" si="3"/>
-        <v>1.5873015873015872</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1.2749603174603175</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" t="str">
         <f>Tracker!A39</f>
         <v>Company 46</v>
@@ -7740,46 +7857,49 @@
       </c>
       <c r="D39" s="1">
         <f ca="1">(Tracker!G39+Tracker!H39)/2</f>
-        <v>79.5</v>
+        <v>97</v>
       </c>
       <c r="E39" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F39" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D39, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>1</v>
       </c>
-      <c r="F39" s="1">
+      <c r="G39" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G39" s="1">
+      <c r="H39" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C39, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>1</v>
       </c>
-      <c r="H39" s="15">
+      <c r="I39" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F39, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.4</v>
       </c>
-      <c r="I39" s="15">
+      <c r="J39" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I39, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.7</v>
       </c>
-      <c r="J39" s="15">
+      <c r="K39" s="15">
         <f>MIN(Tracker!L39, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62937499999999991</v>
-      </c>
-      <c r="L39">
+        <v>0.72952083333333329</v>
+      </c>
+      <c r="M39">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <f t="shared" ca="1" si="3"/>
-        <v>0.89910714285714277</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1.042172619047619</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" t="str">
         <f>Tracker!A40</f>
         <v>Company 47</v>
@@ -7794,46 +7914,49 @@
       </c>
       <c r="D40" s="1">
         <f ca="1">(Tracker!G40+Tracker!H40)/2</f>
-        <v>81.5</v>
+        <v>81</v>
       </c>
       <c r="E40" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F40" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D40, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>1</v>
       </c>
-      <c r="F40" s="1">
+      <c r="G40" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G40" s="1">
+      <c r="H40" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C40, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>1</v>
       </c>
-      <c r="H40" s="15">
+      <c r="I40" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F40, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.4</v>
       </c>
-      <c r="I40" s="15">
+      <c r="J40" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I40, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.7</v>
       </c>
-      <c r="J40" s="15">
+      <c r="K40" s="15">
         <f>MIN(Tracker!L40, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64520833333333338</v>
-      </c>
-      <c r="L40">
+        <v>0.60918749999999999</v>
+      </c>
+      <c r="M40">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <f t="shared" ca="1" si="3"/>
-        <v>0.92172619047619064</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.87026785714285715</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" t="str">
         <f>Tracker!A41</f>
         <v>Company 49</v>
@@ -7848,46 +7971,49 @@
       </c>
       <c r="D41" s="1">
         <f ca="1">(Tracker!G41+Tracker!H41)/2</f>
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="E41" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F41" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D41, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>0.9</v>
       </c>
-      <c r="F41" s="1">
+      <c r="G41" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G41" s="1">
+      <c r="H41" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C41, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>0.9</v>
       </c>
-      <c r="H41" s="15">
+      <c r="I41" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F41, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="I41" s="15">
+      <c r="J41" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I41, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.7</v>
       </c>
-      <c r="J41" s="15">
+      <c r="K41" s="15">
         <f>MIN(Tracker!L41, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71819999999999995</v>
-      </c>
-      <c r="L41">
+        <v>0.51171749999999994</v>
+      </c>
+      <c r="M41">
         <f t="shared" si="2"/>
         <v>0.67</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0719402985074626</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.76375746268656708</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" t="str">
         <f>Tracker!A42</f>
         <v>Company 5</v>
@@ -7902,46 +8028,49 @@
       </c>
       <c r="D42" s="1">
         <f ca="1">(Tracker!G42+Tracker!H42)/2</f>
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="E42" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F42" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D42, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>1.2</v>
       </c>
-      <c r="F42" s="1">
+      <c r="G42" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G42" s="1">
+      <c r="H42" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C42, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H42" s="15">
+      <c r="I42" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F42, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="I42" s="15">
+      <c r="J42" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I42, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="J42" s="15">
+      <c r="K42" s="15">
         <f>MIN(Tracker!L42, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98229999999999995</v>
-      </c>
-      <c r="L42">
+        <v>0.79420000000000002</v>
+      </c>
+      <c r="M42">
         <f t="shared" si="2"/>
         <v>0.51</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <f t="shared" ca="1" si="3"/>
-        <v>1.926078431372549</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1.5572549019607844</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" t="str">
         <f>Tracker!A43</f>
         <v>Company 5</v>
@@ -7956,46 +8085,49 @@
       </c>
       <c r="D43" s="1">
         <f ca="1">(Tracker!G43+Tracker!H43)/2</f>
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E43" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F43" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D43, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>0.9</v>
       </c>
-      <c r="F43" s="1">
+      <c r="G43" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G43" s="1">
+      <c r="H43" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C43, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>1</v>
       </c>
-      <c r="H43" s="15">
+      <c r="I43" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F43, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="I43" s="15">
+      <c r="J43" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I43, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="J43" s="15">
+      <c r="K43" s="15">
         <f>MIN(Tracker!L43, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64124999999999999</v>
-      </c>
-      <c r="L43">
+        <v>0.54826874999999997</v>
+      </c>
+      <c r="M43">
         <f t="shared" si="2"/>
         <v>0.51</v>
       </c>
-      <c r="N43">
+      <c r="O43">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2573529411764706</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1.0750367647058823</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" t="str">
         <f>Tracker!A44</f>
         <v>Company 5</v>
@@ -8010,46 +8142,49 @@
       </c>
       <c r="D44" s="1">
         <f ca="1">(Tracker!G44+Tracker!H44)/2</f>
-        <v>65.5</v>
+        <v>97.5</v>
       </c>
       <c r="E44" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F44" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D44, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>0.9</v>
       </c>
-      <c r="F44" s="1">
+      <c r="G44" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G44" s="1">
+      <c r="H44" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C44, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>0.9</v>
       </c>
-      <c r="H44" s="15">
+      <c r="I44" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F44, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="I44" s="15">
+      <c r="J44" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I44, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.6</v>
       </c>
-      <c r="J44" s="15">
+      <c r="K44" s="15">
         <f>MIN(Tracker!L44, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42001874999999994</v>
-      </c>
-      <c r="L44">
+        <v>0.5939578124999999</v>
+      </c>
+      <c r="M44">
         <f t="shared" si="2"/>
         <v>0.63</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <f t="shared" ca="1" si="3"/>
-        <v>0.66669642857142852</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.94279017857142844</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" t="str">
         <f>Tracker!A45</f>
         <v>Company 5</v>
@@ -8064,46 +8199,49 @@
       </c>
       <c r="D45" s="1">
         <f ca="1">(Tracker!G45+Tracker!H45)/2</f>
-        <v>70.5</v>
+        <v>95</v>
       </c>
       <c r="E45" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F45" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D45, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>0.9</v>
       </c>
-      <c r="F45" s="1">
+      <c r="G45" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G45" s="1">
+      <c r="H45" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C45, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H45" s="15">
+      <c r="I45" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F45, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="I45" s="15">
+      <c r="J45" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I45, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.7</v>
       </c>
-      <c r="J45" s="15">
+      <c r="K45" s="15">
         <f>MIN(Tracker!L45, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55254375</v>
-      </c>
-      <c r="L45">
+        <v>0.70733437499999996</v>
+      </c>
+      <c r="M45">
         <f t="shared" si="2"/>
         <v>0.67</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <f t="shared" ca="1" si="3"/>
-        <v>0.8246921641791044</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1.0557229477611938</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" t="str">
         <f>Tracker!A46</f>
         <v>Company 50</v>
@@ -8118,46 +8256,49 @@
       </c>
       <c r="D46" s="1">
         <f ca="1">(Tracker!G46+Tracker!H46)/2</f>
-        <v>91.5</v>
+        <v>66.5</v>
       </c>
       <c r="E46" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F46" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D46, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>1</v>
       </c>
-      <c r="F46" s="1">
+      <c r="G46" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G46" s="1">
+      <c r="H46" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C46, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>1.2</v>
       </c>
-      <c r="H46" s="15">
+      <c r="I46" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F46, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="I46" s="15">
+      <c r="J46" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I46, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="J46" s="15">
+      <c r="K46" s="15">
         <f>MIN(Tracker!L46, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86924999999999986</v>
-      </c>
-      <c r="L46">
+        <v>0.60016250000000004</v>
+      </c>
+      <c r="M46">
         <f t="shared" si="2"/>
         <v>0.51</v>
       </c>
-      <c r="N46">
+      <c r="O46">
         <f t="shared" ca="1" si="3"/>
-        <v>1.7044117647058821</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1.1767892156862745</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" t="str">
         <f>Tracker!A47</f>
         <v>Company 50</v>
@@ -8172,46 +8313,49 @@
       </c>
       <c r="D47" s="1">
         <f ca="1">(Tracker!G47+Tracker!H47)/2</f>
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="E47" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F47" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D47, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>0.9</v>
       </c>
-      <c r="F47" s="1">
+      <c r="G47" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G47" s="1">
+      <c r="H47" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C47, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>0.9</v>
       </c>
-      <c r="H47" s="15">
+      <c r="I47" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F47, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="I47" s="15">
+      <c r="J47" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I47, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.4</v>
       </c>
-      <c r="J47" s="15">
+      <c r="K47" s="15">
         <f>MIN(Tracker!L47, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K47">
+      <c r="L47">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66689999999999994</v>
-      </c>
-      <c r="L47">
+        <v>0.48734999999999995</v>
+      </c>
+      <c r="M47">
         <f t="shared" si="2"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="N47">
+      <c r="O47">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2125454545454544</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.88609090909090893</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" t="str">
         <f>Tracker!A48</f>
         <v>Company 50</v>
@@ -8226,46 +8370,49 @@
       </c>
       <c r="D48" s="1">
         <f ca="1">(Tracker!G48+Tracker!H48)/2</f>
-        <v>86.5</v>
+        <v>82</v>
       </c>
       <c r="E48" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F48" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D48, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>1</v>
       </c>
-      <c r="F48" s="1">
+      <c r="G48" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G48" s="1">
+      <c r="H48" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C48, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H48" s="15">
+      <c r="I48" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F48, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.4</v>
       </c>
-      <c r="I48" s="15">
+      <c r="J48" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I48, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.7</v>
       </c>
-      <c r="J48" s="15">
+      <c r="K48" s="15">
         <f>MIN(Tracker!L48, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75327083333333322</v>
-      </c>
-      <c r="L48">
+        <v>0.67837916666666664</v>
+      </c>
+      <c r="M48">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="N48">
+      <c r="O48">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0761011904761904</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.9691130952380953</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" t="str">
         <f>Tracker!A49</f>
         <v>Company 52</v>
@@ -8280,46 +8427,49 @@
       </c>
       <c r="D49" s="1">
         <f ca="1">(Tracker!G49+Tracker!H49)/2</f>
-        <v>96</v>
+        <v>84.5</v>
       </c>
       <c r="E49" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F49" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D49, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>0.9</v>
       </c>
-      <c r="F49" s="1">
+      <c r="G49" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G49" s="1">
+      <c r="H49" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C49, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>0.9</v>
       </c>
-      <c r="H49" s="15">
+      <c r="I49" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F49, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="I49" s="15">
+      <c r="J49" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I49, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.4</v>
       </c>
-      <c r="J49" s="15">
+      <c r="K49" s="15">
         <f>MIN(Tracker!L49, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K49">
+      <c r="L49">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61560000000000004</v>
-      </c>
-      <c r="L49">
+        <v>0.51476343749999998</v>
+      </c>
+      <c r="M49">
         <f t="shared" si="2"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="N49">
+      <c r="O49">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1192727272727272</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.93593352272727259</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" t="str">
         <f>Tracker!A50</f>
         <v>Company 53</v>
@@ -8334,46 +8484,49 @@
       </c>
       <c r="D50" s="1">
         <f ca="1">(Tracker!G50+Tracker!H50)/2</f>
-        <v>87.5</v>
+        <v>98.5</v>
       </c>
       <c r="E50" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F50" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D50, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>1</v>
       </c>
-      <c r="F50" s="1">
+      <c r="G50" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G50" s="1">
+      <c r="H50" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C50, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>0.9</v>
       </c>
-      <c r="H50" s="15">
+      <c r="I50" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F50, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="I50" s="15">
+      <c r="J50" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I50, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.7</v>
       </c>
-      <c r="J50" s="15">
+      <c r="K50" s="15">
         <f>MIN(Tracker!L50, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K50">
+      <c r="L50">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62343749999999998</v>
-      </c>
-      <c r="L50">
+        <v>0.66672187500000002</v>
+      </c>
+      <c r="M50">
         <f t="shared" si="2"/>
         <v>0.67</v>
       </c>
-      <c r="N50">
+      <c r="O50">
         <f t="shared" ca="1" si="3"/>
-        <v>0.93050373134328346</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.99510727611940297</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" t="str">
         <f>Tracker!A51</f>
         <v>Company 55</v>
@@ -8388,46 +8541,49 @@
       </c>
       <c r="D51" s="1">
         <f ca="1">(Tracker!G51+Tracker!H51)/2</f>
-        <v>87.5</v>
+        <v>82.5</v>
       </c>
       <c r="E51" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F51" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D51, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>1</v>
       </c>
-      <c r="F51" s="1">
+      <c r="G51" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G51" s="1">
+      <c r="H51" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C51, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>0.9</v>
       </c>
-      <c r="H51" s="15">
+      <c r="I51" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F51, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="I51" s="15">
+      <c r="J51" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I51, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.5</v>
       </c>
-      <c r="J51" s="15">
+      <c r="K51" s="15">
         <f>MIN(Tracker!L51, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K51">
+      <c r="L51">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62343749999999998</v>
-      </c>
-      <c r="L51">
+        <v>0.55842187500000007</v>
+      </c>
+      <c r="M51">
         <f t="shared" si="2"/>
         <v>0.59</v>
       </c>
-      <c r="N51">
+      <c r="O51">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0566737288135593</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.9464777542372883</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" t="str">
         <f>Tracker!A52</f>
         <v>Company 56</v>
@@ -8442,46 +8598,49 @@
       </c>
       <c r="D52" s="1">
         <f ca="1">(Tracker!G52+Tracker!H52)/2</f>
-        <v>73</v>
+        <v>88.5</v>
       </c>
       <c r="E52" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F52" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D52, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>1</v>
       </c>
-      <c r="F52" s="1">
+      <c r="G52" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G52" s="1">
+      <c r="H52" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C52, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>1.2</v>
       </c>
-      <c r="H52" s="15">
+      <c r="I52" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F52, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="I52" s="15">
+      <c r="J52" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I52, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.5</v>
       </c>
-      <c r="J52" s="15">
+      <c r="K52" s="15">
         <f>MIN(Tracker!L52, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K52">
+      <c r="L52">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69349999999999989</v>
-      </c>
-      <c r="L52">
+        <v>0.79871250000000005</v>
+      </c>
+      <c r="M52">
         <f t="shared" si="2"/>
         <v>0.59</v>
       </c>
-      <c r="N52">
+      <c r="O52">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1754237288135592</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1.3537500000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" t="str">
         <f>Tracker!A53</f>
         <v>Company 57</v>
@@ -8496,46 +8655,49 @@
       </c>
       <c r="D53" s="1">
         <f ca="1">(Tracker!G53+Tracker!H53)/2</f>
-        <v>81</v>
+        <v>97.5</v>
       </c>
       <c r="E53" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F53" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D53, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>1</v>
       </c>
-      <c r="F53" s="1">
+      <c r="G53" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G53" s="1">
+      <c r="H53" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C53, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>0.8</v>
       </c>
-      <c r="H53" s="15">
+      <c r="I53" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F53, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.4</v>
       </c>
-      <c r="I53" s="15">
+      <c r="J53" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I53, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.4</v>
       </c>
-      <c r="J53" s="15">
+      <c r="K53" s="15">
         <f>MIN(Tracker!L53, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K53">
+      <c r="L53">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51300000000000001</v>
-      </c>
-      <c r="L53">
+        <v>0.58662499999999995</v>
+      </c>
+      <c r="M53">
         <f t="shared" si="2"/>
         <v>0.57999999999999996</v>
       </c>
-      <c r="N53">
+      <c r="O53">
         <f t="shared" ca="1" si="3"/>
-        <v>0.8844827586206897</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1.0114224137931034</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" t="str">
         <f>Tracker!A54</f>
         <v>Company 58</v>
@@ -8550,46 +8712,49 @@
       </c>
       <c r="D54" s="1">
         <f ca="1">(Tracker!G54+Tracker!H54)/2</f>
-        <v>97.5</v>
+        <v>101</v>
       </c>
       <c r="E54" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F54" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D54, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>1</v>
       </c>
-      <c r="F54" s="1">
+      <c r="G54" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G54" s="1">
+      <c r="H54" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C54, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>1</v>
       </c>
-      <c r="H54" s="15">
+      <c r="I54" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F54, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="I54" s="15">
+      <c r="J54" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I54, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.4</v>
       </c>
-      <c r="J54" s="15">
+      <c r="K54" s="15">
         <f>MIN(Tracker!L54, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K54">
+      <c r="L54">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77187499999999998</v>
-      </c>
-      <c r="L54">
+        <v>0.75960416666666664</v>
+      </c>
+      <c r="M54">
         <f t="shared" si="2"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="N54">
+      <c r="O54">
         <f t="shared" ca="1" si="3"/>
-        <v>1.4034090909090908</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1.3810984848484846</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" t="str">
         <f>Tracker!A55</f>
         <v>Company 59</v>
@@ -8604,46 +8769,49 @@
       </c>
       <c r="D55" s="1">
         <f ca="1">(Tracker!G55+Tracker!H55)/2</f>
-        <v>94</v>
+        <v>82.5</v>
       </c>
       <c r="E55" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F55" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D55, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>1</v>
       </c>
-      <c r="F55" s="1">
+      <c r="G55" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G55" s="1">
+      <c r="H55" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C55, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>1</v>
       </c>
-      <c r="H55" s="15">
+      <c r="I55" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F55, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="I55" s="15">
+      <c r="J55" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I55, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.5</v>
       </c>
-      <c r="J55" s="15">
+      <c r="K55" s="15">
         <f>MIN(Tracker!L55, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K55">
+      <c r="L55">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74416666666666664</v>
-      </c>
-      <c r="L55">
+        <v>0.62046875000000001</v>
+      </c>
+      <c r="M55">
         <f t="shared" si="2"/>
         <v>0.59</v>
       </c>
-      <c r="N55">
+      <c r="O55">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2612994350282487</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1.0516419491525424</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" t="str">
         <f>Tracker!A56</f>
         <v>Company 6</v>
@@ -8658,46 +8826,49 @@
       </c>
       <c r="D56" s="1">
         <f ca="1">(Tracker!G56+Tracker!H56)/2</f>
-        <v>99</v>
+        <v>95.5</v>
       </c>
       <c r="E56" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F56" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D56, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>1.2</v>
       </c>
-      <c r="F56" s="1">
+      <c r="G56" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G56" s="1">
+      <c r="H56" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C56, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>0.9</v>
       </c>
-      <c r="H56" s="15">
+      <c r="I56" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F56, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.4</v>
       </c>
-      <c r="I56" s="15">
+      <c r="J56" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I56, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.5</v>
       </c>
-      <c r="J56" s="15">
+      <c r="K56" s="15">
         <f>MIN(Tracker!L56, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K56">
+      <c r="L56">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84644999999999992</v>
-      </c>
-      <c r="L56">
+        <v>0.77569874999999999</v>
+      </c>
+      <c r="M56">
         <f t="shared" si="2"/>
         <v>0.62</v>
       </c>
-      <c r="N56">
+      <c r="O56">
         <f t="shared" ca="1" si="3"/>
-        <v>1.365241935483871</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1.2511270161290322</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" t="str">
         <f>Tracker!A57</f>
         <v>Company 60</v>
@@ -8712,46 +8883,49 @@
       </c>
       <c r="D57" s="1">
         <f ca="1">(Tracker!G57+Tracker!H57)/2</f>
-        <v>93.5</v>
+        <v>76.5</v>
       </c>
       <c r="E57" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F57" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D57, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>1</v>
       </c>
-      <c r="F57" s="1">
+      <c r="G57" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G57" s="1">
+      <c r="H57" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C57, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>0.8</v>
       </c>
-      <c r="H57" s="15">
+      <c r="I57" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F57, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="I57" s="15">
+      <c r="J57" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I57, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="J57" s="15">
+      <c r="K57" s="15">
         <f>MIN(Tracker!L57, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K57">
+      <c r="L57">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59216666666666673</v>
-      </c>
-      <c r="L57">
+        <v>0.46027499999999993</v>
+      </c>
+      <c r="M57">
         <f t="shared" si="2"/>
         <v>0.51</v>
       </c>
-      <c r="N57">
+      <c r="O57">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1611111111111112</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.90249999999999986</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" t="str">
         <f>Tracker!A58</f>
         <v>Company 61</v>
@@ -8766,46 +8940,49 @@
       </c>
       <c r="D58" s="1">
         <f ca="1">(Tracker!G58+Tracker!H58)/2</f>
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E58" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F58" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D58, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>1</v>
       </c>
-      <c r="F58" s="1">
+      <c r="G58" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G58" s="1">
+      <c r="H58" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C58, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>1</v>
       </c>
-      <c r="H58" s="15">
+      <c r="I58" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F58, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="I58" s="15">
+      <c r="J58" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I58, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.5</v>
       </c>
-      <c r="J58" s="15">
+      <c r="K58" s="15">
         <f>MIN(Tracker!L58, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K58">
+      <c r="L58">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67291666666666672</v>
-      </c>
-      <c r="L58">
+        <v>0.62422916666666661</v>
+      </c>
+      <c r="M58">
         <f t="shared" si="2"/>
         <v>0.59</v>
       </c>
-      <c r="N58">
+      <c r="O58">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1405367231638419</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1.0580155367231638</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" t="str">
         <f>Tracker!A59</f>
         <v>Company 62</v>
@@ -8820,46 +8997,49 @@
       </c>
       <c r="D59" s="1">
         <f ca="1">(Tracker!G59+Tracker!H59)/2</f>
-        <v>70.5</v>
+        <v>97.5</v>
       </c>
       <c r="E59" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F59" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D59, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>1</v>
       </c>
-      <c r="F59" s="1">
+      <c r="G59" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G59" s="1">
+      <c r="H59" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C59, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H59" s="15">
+      <c r="I59" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F59, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.4</v>
       </c>
-      <c r="I59" s="15">
+      <c r="J59" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I59, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.7</v>
       </c>
-      <c r="J59" s="15">
+      <c r="K59" s="15">
         <f>MIN(Tracker!L59, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K59">
+      <c r="L59">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61393750000000002</v>
-      </c>
-      <c r="L59">
+        <v>0.80660937500000007</v>
+      </c>
+      <c r="M59">
         <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
-      <c r="N59">
+      <c r="O59">
         <f t="shared" ca="1" si="3"/>
-        <v>0.87705357142857154</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1.1522991071428572</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60" t="str">
         <f>Tracker!A60</f>
         <v>Company 63</v>
@@ -8874,46 +9054,49 @@
       </c>
       <c r="D60" s="1">
         <f ca="1">(Tracker!G60+Tracker!H60)/2</f>
-        <v>68</v>
+        <v>96.5</v>
       </c>
       <c r="E60" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F60" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D60, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>1</v>
       </c>
-      <c r="F60" s="1">
+      <c r="G60" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G60" s="1">
+      <c r="H60" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C60, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H60" s="15">
+      <c r="I60" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F60, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="I60" s="15">
+      <c r="J60" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I60, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.5</v>
       </c>
-      <c r="J60" s="15">
+      <c r="K60" s="15">
         <f>MIN(Tracker!L60, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K60">
+      <c r="L60">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59216666666666662</v>
-      </c>
-      <c r="L60">
+        <v>0.79833645833333333</v>
+      </c>
+      <c r="M60">
         <f t="shared" si="2"/>
         <v>0.59</v>
       </c>
-      <c r="N60">
+      <c r="O60">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0036723163841808</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1.353112641242938</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61" t="str">
         <f>Tracker!A61</f>
         <v>Company 64</v>
@@ -8928,46 +9111,49 @@
       </c>
       <c r="D61" s="1">
         <f ca="1">(Tracker!G61+Tracker!H61)/2</f>
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="E61" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F61" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D61, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="F61" s="1">
+      <c r="G61" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G61" s="1">
+      <c r="H61" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C61, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>0.9</v>
       </c>
-      <c r="H61" s="15">
+      <c r="I61" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F61, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.4</v>
       </c>
-      <c r="I61" s="15">
+      <c r="J61" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I61, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.4</v>
       </c>
-      <c r="J61" s="15">
+      <c r="K61" s="15">
         <f>MIN(Tracker!L61, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K61">
+      <c r="L61">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57213749999999997</v>
-      </c>
-      <c r="L61">
+        <v>0.73711687499999989</v>
+      </c>
+      <c r="M61">
         <f t="shared" si="2"/>
         <v>0.57999999999999996</v>
       </c>
-      <c r="N61">
+      <c r="O61">
         <f t="shared" ca="1" si="3"/>
-        <v>0.98644396551724134</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1.2708911637931033</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62" t="str">
         <f>Tracker!A62</f>
         <v>Company 64</v>
@@ -8982,46 +9168,49 @@
       </c>
       <c r="D62" s="1">
         <f ca="1">(Tracker!G62+Tracker!H62)/2</f>
-        <v>86</v>
+        <v>87.5</v>
       </c>
       <c r="E62" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F62" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D62, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="F62" s="1">
+      <c r="G62" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G62" s="1">
+      <c r="H62" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C62, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>1</v>
       </c>
-      <c r="H62" s="15">
+      <c r="I62" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F62, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="I62" s="15">
+      <c r="J62" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I62, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.4</v>
       </c>
-      <c r="J62" s="15">
+      <c r="K62" s="15">
         <f>MIN(Tracker!L62, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K62">
+      <c r="L62">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74891666666666667</v>
-      </c>
-      <c r="L62">
+        <v>0.72388020833333322</v>
+      </c>
+      <c r="M62">
         <f t="shared" si="2"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="N62">
+      <c r="O62">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3616666666666666</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1.3161458333333331</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63" t="str">
         <f>Tracker!A63</f>
         <v>Company 64</v>
@@ -9036,46 +9225,49 @@
       </c>
       <c r="D63" s="1">
         <f ca="1">(Tracker!G63+Tracker!H63)/2</f>
-        <v>79.5</v>
+        <v>89.5</v>
       </c>
       <c r="E63" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F63" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D63, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>1</v>
       </c>
-      <c r="F63" s="1">
+      <c r="G63" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G63" s="1">
+      <c r="H63" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C63, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>1</v>
       </c>
-      <c r="H63" s="15">
+      <c r="I63" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F63, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="I63" s="15">
+      <c r="J63" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I63, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.5</v>
       </c>
-      <c r="J63" s="15">
+      <c r="K63" s="15">
         <f>MIN(Tracker!L63, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K63">
+      <c r="L63">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62937499999999991</v>
-      </c>
-      <c r="L63">
+        <v>0.67311458333333329</v>
+      </c>
+      <c r="M63">
         <f t="shared" si="2"/>
         <v>0.59</v>
       </c>
-      <c r="N63">
+      <c r="O63">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0667372881355932</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1.140872175141243</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64" t="str">
         <f>Tracker!A64</f>
         <v>Company 64</v>
@@ -9090,46 +9282,49 @@
       </c>
       <c r="D64" s="1">
         <f ca="1">(Tracker!G64+Tracker!H64)/2</f>
-        <v>95</v>
+        <v>100.5</v>
       </c>
       <c r="E64" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F64" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D64, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="F64" s="1">
+      <c r="G64" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G64" s="1">
+      <c r="H64" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C64, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>1</v>
       </c>
-      <c r="H64" s="15">
+      <c r="I64" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F64, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.4</v>
       </c>
-      <c r="I64" s="15">
+      <c r="J64" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I64, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.6</v>
       </c>
-      <c r="J64" s="15">
+      <c r="K64" s="15">
         <f>MIN(Tracker!L64, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K64">
+      <c r="L64">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82729166666666654</v>
-      </c>
-      <c r="L64">
+        <v>0.83142812499999996</v>
+      </c>
+      <c r="M64">
         <f t="shared" si="2"/>
         <v>0.66</v>
       </c>
-      <c r="N64">
+      <c r="O64">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2534722222222219</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1.2597395833333331</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65" t="str">
         <f>Tracker!A65</f>
         <v>Company 67</v>
@@ -9147,43 +9342,46 @@
         <v>102.5</v>
       </c>
       <c r="E65" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F65" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D65, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="F65" s="1">
+      <c r="G65" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G65" s="1">
+      <c r="H65" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C65, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>1</v>
       </c>
-      <c r="H65" s="15">
+      <c r="I65" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F65, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="I65" s="15">
+      <c r="J65" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I65, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.5</v>
       </c>
-      <c r="J65" s="15">
+      <c r="K65" s="15">
         <f>MIN(Tracker!L65, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K65">
+      <c r="L65">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89260416666666653</v>
-      </c>
-      <c r="L65">
+        <v>0.84797395833333322</v>
+      </c>
+      <c r="M65">
         <f t="shared" si="2"/>
         <v>0.59</v>
       </c>
-      <c r="N65">
+      <c r="O65">
         <f t="shared" ca="1" si="3"/>
-        <v>1.5128884180790958</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1.4372439971751412</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" t="str">
         <f>Tracker!A66</f>
         <v>Company 68</v>
@@ -9198,46 +9396,49 @@
       </c>
       <c r="D66" s="1">
         <f ca="1">(Tracker!G66+Tracker!H66)/2</f>
-        <v>108.5</v>
+        <v>100</v>
       </c>
       <c r="E66" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F66" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D66, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="F66" s="1">
+      <c r="G66" s="1">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G66" s="1">
+      <c r="H66" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C66, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>1.2</v>
       </c>
-      <c r="H66" s="15">
+      <c r="I66" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F66, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="I66" s="15">
+      <c r="J66" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I66, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.6</v>
       </c>
-      <c r="J66" s="15">
+      <c r="K66" s="15">
         <f>MIN(Tracker!L66, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K66">
+      <c r="L66">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L66">
+        <v>0.99274999999999991</v>
+      </c>
+      <c r="M66">
         <f t="shared" si="2"/>
         <v>0.63</v>
       </c>
-      <c r="N66">
+      <c r="O66">
         <f t="shared" ca="1" si="3"/>
-        <v>1.5873015873015872</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1.5757936507936507</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" t="str">
         <f>Tracker!A67</f>
         <v>Company 69</v>
@@ -9252,46 +9453,49 @@
       </c>
       <c r="D67" s="1">
         <f ca="1">(Tracker!G67+Tracker!H67)/2</f>
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E67" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F67" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D67, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="F67" s="1">
-        <f t="shared" ref="F67:F70" si="4">0.95</f>
-        <v>0.95</v>
-      </c>
       <c r="G67" s="1">
+        <f t="shared" ref="G67:G70" si="4">0.95</f>
+        <v>0.95</v>
+      </c>
+      <c r="H67" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C67, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>1.2</v>
       </c>
-      <c r="H67" s="15">
+      <c r="I67" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F67, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.4</v>
       </c>
-      <c r="I67" s="15">
+      <c r="J67" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I67, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.4</v>
       </c>
-      <c r="J67" s="15">
+      <c r="K67" s="15">
         <f>MIN(Tracker!L67, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K67">
-        <f t="shared" ref="K67:K70" ca="1" si="5">IF(D67=0, 0.5, MIN(1, MAX(0, (E67 * F67 * G67 * (D67 / 120)))))</f>
-        <v>0.98229999999999984</v>
-      </c>
       <c r="L67">
-        <f t="shared" ref="L67:L70" si="6">IF(I67=0, 0.2, ROUND((0.4 * I67 + 0.3 * H67 + 0.3 * J67), 2))</f>
+        <f t="shared" ref="L67:L70" ca="1" si="5">IF(D67=0, 0.5, MIN(1, MAX(0, (E67 * F67 * G67 * H67 * (D67 / 120)))))</f>
+        <v>0.88354749999999993</v>
+      </c>
+      <c r="M67">
+        <f t="shared" ref="M67:M70" si="6">IF(J67=0, 0.2, ROUND((0.4 * J67 + 0.3 * I67 + 0.3 * K67), 2))</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="N67">
-        <f t="shared" ref="N67:N70" ca="1" si="7">K67/L67</f>
-        <v>1.6936206896551722</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O67">
+        <f t="shared" ref="O67:O70" ca="1" si="7">L67/M67</f>
+        <v>1.5233577586206897</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" t="str">
         <f>Tracker!A68</f>
         <v>Company 7</v>
@@ -9306,46 +9510,49 @@
       </c>
       <c r="D68" s="1">
         <f ca="1">(Tracker!G68+Tracker!H68)/2</f>
-        <v>107</v>
+        <v>77.5</v>
       </c>
       <c r="E68" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F68" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D68, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>0.8</v>
       </c>
-      <c r="F68" s="1">
+      <c r="G68" s="1">
         <f t="shared" si="4"/>
         <v>0.95</v>
       </c>
-      <c r="G68" s="1">
+      <c r="H68" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C68, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>0.8</v>
       </c>
-      <c r="H68" s="15">
+      <c r="I68" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F68, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="I68" s="15">
+      <c r="J68" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I68, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.4</v>
       </c>
-      <c r="J68" s="15">
+      <c r="K68" s="15">
         <f>MIN(Tracker!L68, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K68">
+      <c r="L68">
         <f t="shared" ca="1" si="5"/>
-        <v>0.54213333333333347</v>
-      </c>
-      <c r="L68">
+        <v>0.37303333333333338</v>
+      </c>
+      <c r="M68">
         <f t="shared" si="6"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="N68">
+      <c r="O68">
         <f t="shared" ca="1" si="7"/>
-        <v>0.98569696969696985</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.67824242424242431</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" t="str">
         <f>Tracker!A69</f>
         <v>Company 70</v>
@@ -9360,46 +9567,49 @@
       </c>
       <c r="D69" s="1">
         <f ca="1">(Tracker!G69+Tracker!H69)/2</f>
-        <v>83.5</v>
+        <v>89.5</v>
       </c>
       <c r="E69" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F69" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D69, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="F69" s="1">
+      <c r="G69" s="1">
         <f t="shared" si="4"/>
         <v>0.95</v>
       </c>
-      <c r="G69" s="1">
+      <c r="H69" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C69, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>1</v>
       </c>
-      <c r="H69" s="15">
+      <c r="I69" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F69, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.4</v>
       </c>
-      <c r="I69" s="15">
+      <c r="J69" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I69, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="J69" s="15">
+      <c r="K69" s="15">
         <f>MIN(Tracker!L69, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K69">
+      <c r="L69">
         <f t="shared" ca="1" si="5"/>
-        <v>0.72714583333333327</v>
-      </c>
-      <c r="L69">
+        <v>0.74042604166666659</v>
+      </c>
+      <c r="M69">
         <f t="shared" si="6"/>
         <v>0.54</v>
       </c>
-      <c r="N69">
+      <c r="O69">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3465663580246912</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1.371159336419753</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" t="str">
         <f>Tracker!A70</f>
         <v>Company 71</v>
@@ -9414,47 +9624,50 @@
       </c>
       <c r="D70" s="1">
         <f ca="1">(Tracker!G70+Tracker!H70)/2</f>
-        <v>101</v>
+        <v>85.5</v>
       </c>
       <c r="E70" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F70" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D70, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
         <v>1</v>
       </c>
-      <c r="F70" s="1">
+      <c r="G70" s="1">
         <f t="shared" si="4"/>
         <v>0.95</v>
       </c>
-      <c r="G70" s="1">
+      <c r="H70" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C70, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
         <v>0.8</v>
       </c>
-      <c r="H70" s="15">
+      <c r="I70" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F70, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
         <v>0.3</v>
       </c>
-      <c r="I70" s="15">
+      <c r="J70" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I70, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
         <v>0.4</v>
       </c>
-      <c r="J70" s="15">
+      <c r="K70" s="15">
         <f>MIN(Tracker!L70, 4)/4</f>
         <v>1</v>
       </c>
-      <c r="K70">
+      <c r="L70">
         <f t="shared" ca="1" si="5"/>
-        <v>0.63966666666666672</v>
-      </c>
-      <c r="L70">
+        <v>0.51442500000000002</v>
+      </c>
+      <c r="M70">
         <f t="shared" si="6"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="N70">
+      <c r="O70">
         <f t="shared" ca="1" si="7"/>
-        <v>1.1630303030303031</v>
+        <v>0.93531818181818183</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="K1:K15" xr:uid="{70590CAF-D2CD-443E-AE13-8F53684D3C03}"/>
+  <autoFilter ref="L1:L15" xr:uid="{70590CAF-D2CD-443E-AE13-8F53684D3C03}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/example_app_tracker.xlsx
+++ b/example_app_tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\graha\OneDrive\Documents\GitHub\application_tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690A0B6E-956C-410A-9252-C4D350C39BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DC57B2-7E2C-4ECC-904B-E0DF3FC16840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18960" yWindow="4540" windowWidth="18740" windowHeight="15670" xr2:uid="{85E7A6A4-6F22-48D9-815F-FC03736B7AC4}"/>
+    <workbookView xWindow="18810" yWindow="5210" windowWidth="18740" windowHeight="15670" xr2:uid="{85E7A6A4-6F22-48D9-815F-FC03736B7AC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
@@ -1113,6 +1113,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFC4F8D2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFEB9FCC"/>
         </patternFill>
       </fill>
@@ -1121,13 +1128,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFF1B9DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC4F8D2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1556,7 +1556,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O25" sqref="O25"/>
+      <selection pane="bottomLeft" activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1637,165 +1637,159 @@
         <v>30</v>
       </c>
       <c r="G2">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>85</v>
+        <f t="shared" ref="G2:G33" ca="1" si="0">ROUND(RAND()*60+40,0)</f>
+        <v>60</v>
       </c>
       <c r="H2">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>130</v>
+        <f t="shared" ref="H2:H33" ca="1" si="1">ROUND(RAND()*40+90,0)</f>
+        <v>100</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>241</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="3" t="str">
-        <f>IF(J2&lt;&gt;"",DATEDIF(E2,J2,"d"),"")</f>
+        <f t="shared" ref="K2:K33" si="2">IF(J2&lt;&gt;"",DATEDIF(E2,J2,"d"),"")</f>
         <v/>
       </c>
       <c r="L2" s="2">
         <v>1</v>
       </c>
       <c r="M2" s="3">
-        <f>WEEKNUM(E2)</f>
+        <f t="shared" ref="M2:M33" si="3">WEEKNUM(E2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="C3" t="s">
         <v>228</v>
       </c>
       <c r="D3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E3" s="4">
-        <v>45659</v>
+        <v>45658</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>67</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
       </c>
       <c r="H3">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>126</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>109</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="3" t="str">
-        <f>IF(J3&lt;&gt;"",DATEDIF(E3,J3,"d"),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L3" s="2">
-        <v>3</v>
-      </c>
       <c r="M3" s="3">
-        <f>WEEKNUM(E3)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E4" s="4">
-        <v>45660</v>
+        <v>45658</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>78</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
       </c>
       <c r="H4">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>113</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>91</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="K4" s="3" t="str">
-        <f>IF(J4&lt;&gt;"",DATEDIF(E4,J4,"d"),"")</f>
-        <v/>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
+        <v>239</v>
+      </c>
+      <c r="J4" s="4">
+        <v>45740</v>
+      </c>
+      <c r="K4" s="3">
+        <f t="shared" si="2"/>
+        <v>82</v>
       </c>
       <c r="M4" s="3">
-        <f>WEEKNUM(E4)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E5" s="4">
-        <v>45661</v>
+        <v>45658</v>
       </c>
       <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ca="1" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ca="1" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J5" s="4">
+        <v>45674</v>
+      </c>
+      <c r="K5" s="3">
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="G5">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>49</v>
-      </c>
-      <c r="H5">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>119</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J5" s="4">
-        <v>45667</v>
-      </c>
-      <c r="K5" s="3">
-        <f>IF(J5&lt;&gt;"",DATEDIF(E5,J5,"d"),"")</f>
-        <v>6</v>
-      </c>
-      <c r="L5" s="2">
-        <v>1</v>
-      </c>
       <c r="M5" s="3">
-        <f>WEEKNUM(E5)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
         <v>228</v>
@@ -1804,124 +1798,125 @@
         <v>233</v>
       </c>
       <c r="E6" s="4">
-        <v>45662</v>
+        <v>45659</v>
       </c>
       <c r="F6" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G6">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>83</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
       </c>
       <c r="H6">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>107</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>105</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>240</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="J6" s="4"/>
       <c r="K6" s="3" t="str">
-        <f>IF(J6&lt;&gt;"",DATEDIF(E6,J6,"d"),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L6" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M6" s="3">
-        <f>WEEKNUM(E6)</f>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E7" s="4">
-        <v>45663</v>
+        <v>45660</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>79</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>91</v>
       </c>
       <c r="H7">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>117</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>115</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K7" s="3" t="str">
-        <f>IF(J7&lt;&gt;"",DATEDIF(E7,J7,"d"),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L7" s="2">
-        <v>1</v>
-      </c>
       <c r="M7" s="3">
-        <f>WEEKNUM(E7)</f>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
         <v>227</v>
       </c>
       <c r="D8" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E8" s="4">
-        <v>45664</v>
+        <v>45661</v>
       </c>
       <c r="F8" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G8">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>88</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>57</v>
       </c>
       <c r="H8">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>127</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="K8" s="3" t="str">
-        <f>IF(J8&lt;&gt;"",DATEDIF(E8,J8,"d"),"")</f>
-        <v/>
+      <c r="J8" s="4">
+        <v>45667</v>
+      </c>
+      <c r="K8" s="3">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="L8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="3">
-        <f>WEEKNUM(E8)</f>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
         <v>228</v>
@@ -1930,257 +1925,250 @@
         <v>236</v>
       </c>
       <c r="E9" s="4">
-        <v>45665</v>
+        <v>45663</v>
       </c>
       <c r="F9" t="s">
-        <v>179</v>
+        <v>30</v>
       </c>
       <c r="G9">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>58</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>70</v>
       </c>
       <c r="H9">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>112</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>91</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>239</v>
       </c>
       <c r="J9" s="4">
-        <v>45782</v>
+        <v>45674</v>
       </c>
       <c r="K9" s="3">
-        <f>IF(J9&lt;&gt;"",DATEDIF(E9,J9,"d"),"")</f>
-        <v>117</v>
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="L9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="3">
-        <f>WEEKNUM(E9)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
         <v>227</v>
       </c>
       <c r="D10" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E10" s="4">
-        <v>45666</v>
+        <v>45664</v>
       </c>
       <c r="F10" t="s">
         <v>2</v>
       </c>
       <c r="G10">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>71</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>76</v>
       </c>
       <c r="H10">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>125</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>120</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="J10" s="4"/>
       <c r="K10" s="3" t="str">
-        <f>IF(J10&lt;&gt;"",DATEDIF(E10,J10,"d"),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L10" s="2">
-        <v>0</v>
-      </c>
       <c r="M10" s="3">
-        <f>WEEKNUM(E10)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D11" t="s">
         <v>236</v>
       </c>
       <c r="E11" s="4">
-        <v>45667</v>
+        <v>45665</v>
       </c>
       <c r="F11" t="s">
-        <v>2</v>
+        <v>179</v>
       </c>
       <c r="G11">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>88</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>95</v>
       </c>
       <c r="H11">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>98</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="K11" s="3" t="str">
-        <f>IF(J11&lt;&gt;"",DATEDIF(E11,J11,"d"),"")</f>
-        <v/>
-      </c>
-      <c r="L11" s="2">
-        <v>0</v>
+      <c r="J11" s="4">
+        <v>45782</v>
+      </c>
+      <c r="K11" s="3">
+        <f t="shared" si="2"/>
+        <v>117</v>
       </c>
       <c r="M11" s="3">
-        <f>WEEKNUM(E11)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D12" t="s">
+        <v>233</v>
+      </c>
+      <c r="E12" s="4">
+        <v>45665</v>
+      </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ca="1" si="1"/>
         <v>91</v>
       </c>
-      <c r="C12" t="s">
-        <v>231</v>
-      </c>
-      <c r="D12" t="s">
-        <v>236</v>
-      </c>
-      <c r="E12" s="4">
-        <v>45668</v>
-      </c>
-      <c r="F12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>81</v>
-      </c>
-      <c r="H12">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>97</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J12" s="4">
-        <v>45689</v>
-      </c>
-      <c r="K12" s="3">
-        <f>IF(J12&lt;&gt;"",DATEDIF(E12,J12,"d"),"")</f>
-        <v>21</v>
+        <v>239</v>
+      </c>
+      <c r="K12" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="L12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="3">
-        <f>WEEKNUM(E12)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="C13" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D13" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E13" s="4">
-        <v>45669</v>
+        <v>45665</v>
       </c>
       <c r="F13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ca="1" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="J13" s="4">
+        <v>45740</v>
+      </c>
+      <c r="K13" s="3">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="M13" s="3">
+        <f t="shared" si="3"/>
         <v>2</v>
-      </c>
-      <c r="G13">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>59</v>
-      </c>
-      <c r="H13">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>91</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="K13" s="3" t="str">
-        <f>IF(J13&lt;&gt;"",DATEDIF(E13,J13,"d"),"")</f>
-        <v/>
-      </c>
-      <c r="L13" s="2">
-        <v>0</v>
-      </c>
-      <c r="M13" s="3">
-        <f>WEEKNUM(E13)</f>
-        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>149</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>99</v>
+        <v>150</v>
       </c>
       <c r="C14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D14" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E14" s="4">
-        <v>45670</v>
+        <v>45665</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>61</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>66</v>
       </c>
       <c r="H14">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>120</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>94</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="K14" s="3" t="str">
-        <f>IF(J14&lt;&gt;"",DATEDIF(E14,J14,"d"),"")</f>
-        <v/>
-      </c>
-      <c r="L14" s="2">
-        <v>0</v>
+        <v>239</v>
+      </c>
+      <c r="J14" s="4">
+        <v>45674</v>
+      </c>
+      <c r="K14" s="3">
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="M14" s="3">
-        <f>WEEKNUM(E14)</f>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>176</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>101</v>
+        <v>172</v>
       </c>
       <c r="C15" t="s">
         <v>228</v>
@@ -2189,41 +2177,37 @@
         <v>232</v>
       </c>
       <c r="E15" s="4">
-        <v>45671</v>
+        <v>45665</v>
       </c>
       <c r="F15" t="s">
         <v>2</v>
       </c>
       <c r="G15">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>57</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>99</v>
       </c>
       <c r="H15">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>90</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>113</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="J15" s="4"/>
       <c r="K15" s="3" t="str">
-        <f>IF(J15&lt;&gt;"",DATEDIF(E15,J15,"d"),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L15" s="2">
-        <v>0</v>
-      </c>
       <c r="M15" s="3">
-        <f>WEEKNUM(E15)</f>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>102</v>
+        <v>207</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>103</v>
+        <v>208</v>
       </c>
       <c r="C16" t="s">
         <v>227</v>
@@ -2232,938 +2216,899 @@
         <v>232</v>
       </c>
       <c r="E16" s="4">
-        <v>45672</v>
+        <v>45665</v>
       </c>
       <c r="F16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G16">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>87</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>76</v>
       </c>
       <c r="H16">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>125</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>107</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="K16" s="3" t="str">
-        <f>IF(J16&lt;&gt;"",DATEDIF(E16,J16,"d"),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L16" s="2">
-        <v>3</v>
-      </c>
       <c r="M16" s="3">
-        <f>WEEKNUM(E16)</f>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
         <v>227</v>
       </c>
       <c r="D17" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E17" s="4">
-        <v>45673</v>
+        <v>45666</v>
       </c>
       <c r="F17" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>95</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>97</v>
       </c>
       <c r="H17">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>106</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>96</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="K17" s="3" t="str">
-        <f>IF(J17&lt;&gt;"",DATEDIF(E17,J17,"d"),"")</f>
-        <v/>
-      </c>
-      <c r="L17" s="2">
-        <v>1</v>
+        <v>238</v>
+      </c>
+      <c r="J17" s="4">
+        <v>45740</v>
+      </c>
+      <c r="K17" s="3">
+        <f t="shared" si="2"/>
+        <v>74</v>
       </c>
       <c r="M17" s="3">
-        <f>WEEKNUM(E17)</f>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D18" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E18" s="4">
-        <v>45674</v>
+        <v>45667</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G18">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>97</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>95</v>
       </c>
       <c r="H18">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>95</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>128</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="J18" s="4">
-        <v>45677</v>
-      </c>
-      <c r="K18" s="3">
-        <f>IF(J18&lt;&gt;"",DATEDIF(E18,J18,"d"),"")</f>
-        <v>3</v>
-      </c>
-      <c r="L18" s="2">
-        <v>1</v>
+        <v>239</v>
+      </c>
+      <c r="K18" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="M18" s="3">
-        <f>WEEKNUM(E18)</f>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" t="s">
+        <v>231</v>
+      </c>
+      <c r="D19" t="s">
+        <v>236</v>
+      </c>
+      <c r="E19" s="4">
+        <v>45668</v>
+      </c>
+      <c r="F19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ca="1" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ca="1" si="1"/>
         <v>104</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" t="s">
-        <v>228</v>
-      </c>
-      <c r="D19" t="s">
-        <v>233</v>
-      </c>
-      <c r="E19" s="4">
-        <v>45675</v>
-      </c>
-      <c r="F19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>42</v>
-      </c>
-      <c r="H19">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>120</v>
-      </c>
       <c r="I19" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J19" s="4">
-        <v>45751</v>
+        <v>45689</v>
       </c>
       <c r="K19" s="3">
-        <f>IF(J19&lt;&gt;"",DATEDIF(E19,J19,"d"),"")</f>
-        <v>76</v>
-      </c>
-      <c r="L19" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>21</v>
       </c>
       <c r="M19" s="3">
-        <f>WEEKNUM(E19)</f>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
         <v>227</v>
       </c>
       <c r="D20" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E20" s="4">
-        <v>45676</v>
+        <v>45669</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G20">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>62</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>97</v>
       </c>
       <c r="H20">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>105</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>120</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="K20" s="3" t="str">
-        <f>IF(J20&lt;&gt;"",DATEDIF(E20,J20,"d"),"")</f>
-        <v/>
-      </c>
-      <c r="L20" s="2">
-        <v>0</v>
+        <v>240</v>
+      </c>
+      <c r="J20" s="4">
+        <v>45674</v>
+      </c>
+      <c r="K20" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="M20" s="3">
-        <f>WEEKNUM(E20)</f>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C21" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D21" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E21" s="4">
-        <v>45677</v>
+        <v>45670</v>
       </c>
       <c r="F21" t="s">
-        <v>179</v>
+        <v>16</v>
       </c>
       <c r="G21">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>63</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>71</v>
       </c>
       <c r="H21">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>98</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>92</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J21" s="4">
-        <v>45690</v>
-      </c>
-      <c r="K21" s="3">
-        <f>IF(J21&lt;&gt;"",DATEDIF(E21,J21,"d"),"")</f>
-        <v>13</v>
-      </c>
-      <c r="L21" s="2">
-        <v>0</v>
+        <v>240</v>
+      </c>
+      <c r="K21" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="M21" s="3">
-        <f>WEEKNUM(E21)</f>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="C22" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E22" s="4">
-        <v>45678</v>
+        <v>45672</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="G22">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>57</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>94</v>
       </c>
       <c r="H22">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>123</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>111</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J22" s="4"/>
+        <v>237</v>
+      </c>
       <c r="K22" s="3" t="str">
-        <f>IF(J22&lt;&gt;"",DATEDIF(E22,J22,"d"),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L22" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M22" s="3">
-        <f>WEEKNUM(E22)</f>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E23" s="4">
-        <v>45679</v>
+        <v>45673</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="G23">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>62</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>93</v>
       </c>
       <c r="H23">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>110</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>120</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K23" s="3" t="str">
-        <f>IF(J23&lt;&gt;"",DATEDIF(E23,J23,"d"),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L23" s="2">
         <v>1</v>
       </c>
       <c r="M23" s="3">
-        <f>WEEKNUM(E23)</f>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D24" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E24" s="4">
-        <v>45680</v>
+        <v>45674</v>
       </c>
       <c r="F24" t="s">
-        <v>217</v>
+        <v>16</v>
       </c>
       <c r="G24">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>96</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
       </c>
       <c r="H24">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>124</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>94</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="J24" s="4"/>
-      <c r="K24" s="3" t="str">
-        <f>IF(J24&lt;&gt;"",DATEDIF(E24,J24,"d"),"")</f>
-        <v/>
+      <c r="J24" s="4">
+        <v>45677</v>
+      </c>
+      <c r="K24" s="3">
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="L24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="3">
-        <f>WEEKNUM(E24)</f>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C25" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D25" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E25" s="4">
-        <v>45681</v>
+        <v>45675</v>
       </c>
       <c r="F25" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G25">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>43</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>78</v>
       </c>
       <c r="H25">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>102</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>99</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="J25" s="4"/>
-      <c r="K25" s="3" t="str">
-        <f>IF(J25&lt;&gt;"",DATEDIF(E25,J25,"d"),"")</f>
-        <v/>
-      </c>
-      <c r="L25" s="2">
-        <v>0</v>
+      <c r="J25" s="4">
+        <v>45751</v>
+      </c>
+      <c r="K25" s="3">
+        <f t="shared" si="2"/>
+        <v>76</v>
       </c>
       <c r="M25" s="3">
-        <f>WEEKNUM(E25)</f>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="C26" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E26" s="4">
-        <v>45682</v>
+        <v>45676</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="G26">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>42</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>74</v>
       </c>
       <c r="H26">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>117</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K26" s="3" t="str">
-        <f>IF(J26&lt;&gt;"",DATEDIF(E26,J26,"d"),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L26" s="2">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
-        <f>WEEKNUM(E26)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="C27" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D27" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E27" s="4">
-        <v>45683</v>
+        <v>45677</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G27">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>71</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>92</v>
       </c>
       <c r="H27">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>117</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>129</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K27" s="3" t="str">
-        <f>IF(J27&lt;&gt;"",DATEDIF(E27,J27,"d"),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L27" s="2">
-        <v>2</v>
-      </c>
       <c r="M27" s="3">
-        <f>WEEKNUM(E27)</f>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C28" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E28" s="4">
-        <v>45684</v>
+        <v>45677</v>
       </c>
       <c r="F28" t="s">
-        <v>2</v>
+        <v>179</v>
       </c>
       <c r="G28">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>92</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>100</v>
       </c>
       <c r="H28">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>92</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>107</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J28" s="4"/>
-      <c r="K28" s="3" t="str">
-        <f>IF(J28&lt;&gt;"",DATEDIF(E28,J28,"d"),"")</f>
-        <v/>
-      </c>
-      <c r="L28" s="2">
-        <v>0</v>
+        <v>238</v>
+      </c>
+      <c r="J28" s="4">
+        <v>45690</v>
+      </c>
+      <c r="K28" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="M28" s="3">
-        <f>WEEKNUM(E28)</f>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="C29" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D29" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E29" s="4">
-        <v>45685</v>
+        <v>45677</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G29">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>67</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>71</v>
       </c>
       <c r="H29">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>125</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="J29" s="4"/>
+        <v>239</v>
+      </c>
       <c r="K29" s="3" t="str">
-        <f>IF(J29&lt;&gt;"",DATEDIF(E29,J29,"d"),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L29" s="2">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
-        <f>WEEKNUM(E29)</f>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="C30" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D30" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E30" s="4">
-        <v>45686</v>
+        <v>45677</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G30">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>97</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>58</v>
       </c>
       <c r="H30">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>118</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>111</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="K30" s="3" t="str">
-        <f>IF(J30&lt;&gt;"",DATEDIF(E30,J30,"d"),"")</f>
-        <v/>
-      </c>
-      <c r="L30" s="2">
-        <v>0</v>
+        <v>238</v>
+      </c>
+      <c r="J30" s="4">
+        <v>45740</v>
+      </c>
+      <c r="K30" s="3">
+        <f t="shared" si="2"/>
+        <v>63</v>
       </c>
       <c r="M30" s="3">
-        <f>WEEKNUM(E30)</f>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>124</v>
+        <v>178</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>125</v>
+        <v>174</v>
       </c>
       <c r="C31" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D31" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E31" s="4">
-        <v>45687</v>
+        <v>45677</v>
       </c>
       <c r="F31" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ca="1" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="H31">
+        <f t="shared" ca="1" si="1"/>
+        <v>126</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="K31" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L31" s="2">
+        <v>3</v>
+      </c>
+      <c r="M31" s="3">
+        <f t="shared" si="3"/>
         <v>4</v>
-      </c>
-      <c r="G31">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>97</v>
-      </c>
-      <c r="H31">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>125</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="J31" s="4"/>
-      <c r="K31" s="3" t="str">
-        <f>IF(J31&lt;&gt;"",DATEDIF(E31,J31,"d"),"")</f>
-        <v/>
-      </c>
-      <c r="L31" s="2">
-        <v>0</v>
-      </c>
-      <c r="M31" s="3">
-        <f>WEEKNUM(E31)</f>
-        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="C32" t="s">
         <v>229</v>
       </c>
       <c r="D32" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E32" s="4">
-        <v>45688</v>
+        <v>45678</v>
       </c>
       <c r="F32" t="s">
         <v>30</v>
       </c>
       <c r="G32">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>87</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>53</v>
       </c>
       <c r="H32">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>98</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>125</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>241</v>
       </c>
+      <c r="J32" s="4"/>
       <c r="K32" s="3" t="str">
-        <f>IF(J32&lt;&gt;"",DATEDIF(E32,J32,"d"),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L32" s="2">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
-        <f>WEEKNUM(E32)</f>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C33" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D33" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E33" s="4">
-        <v>45689</v>
+        <v>45680</v>
       </c>
       <c r="F33" t="s">
         <v>217</v>
       </c>
       <c r="G33">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>41</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
       </c>
       <c r="H33">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>117</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>108</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>241</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="J33" s="4"/>
       <c r="K33" s="3" t="str">
-        <f>IF(J33&lt;&gt;"",DATEDIF(E33,J33,"d"),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L33" s="2">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
-        <f>WEEKNUM(E33)</f>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>159</v>
+        <v>53</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>130</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D34" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E34" s="4">
-        <v>45690</v>
+        <v>45682</v>
       </c>
       <c r="F34" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G34">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>59</v>
+        <f t="shared" ref="G34:G65" ca="1" si="4">ROUND(RAND()*60+40,0)</f>
+        <v>79</v>
       </c>
       <c r="H34">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>94</v>
+        <f t="shared" ref="H34:H65" ca="1" si="5">ROUND(RAND()*40+90,0)</f>
+        <v>117</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K34" s="3" t="str">
-        <f>IF(J34&lt;&gt;"",DATEDIF(E34,J34,"d"),"")</f>
+        <f t="shared" ref="K34:K65" si="6">IF(J34&lt;&gt;"",DATEDIF(E34,J34,"d"),"")</f>
         <v/>
       </c>
-      <c r="L34" s="2">
-        <v>0</v>
-      </c>
       <c r="M34" s="3">
-        <f>WEEKNUM(E34)</f>
-        <v>6</v>
+        <f t="shared" ref="M34:M65" si="7">WEEKNUM(E34)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C35" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D35" t="s">
         <v>233</v>
       </c>
       <c r="E35" s="4">
-        <v>45691</v>
+        <v>45683</v>
       </c>
       <c r="F35" t="s">
         <v>16</v>
       </c>
       <c r="G35">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>75</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>95</v>
       </c>
       <c r="H35">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>122</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>113</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J35" s="4"/>
-      <c r="K35" s="3" t="str">
-        <f>IF(J35&lt;&gt;"",DATEDIF(E35,J35,"d"),"")</f>
-        <v/>
+        <v>239</v>
+      </c>
+      <c r="J35" s="4">
+        <v>45740</v>
+      </c>
+      <c r="K35" s="3">
+        <f t="shared" si="6"/>
+        <v>57</v>
       </c>
       <c r="L35" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M35" s="3">
-        <f>WEEKNUM(E35)</f>
-        <v>6</v>
+        <f t="shared" si="7"/>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C36" t="s">
         <v>230</v>
       </c>
       <c r="D36" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E36" s="4">
-        <v>45692</v>
+        <v>45684</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G36">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>77</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>84</v>
       </c>
       <c r="H36">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>118</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>102</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>241</v>
       </c>
+      <c r="J36" s="4"/>
       <c r="K36" s="3" t="str">
-        <f>IF(J36&lt;&gt;"",DATEDIF(E36,J36,"d"),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L36" s="2">
-        <v>0</v>
-      </c>
       <c r="M36" s="3">
-        <f>WEEKNUM(E36)</f>
-        <v>6</v>
+        <f t="shared" si="7"/>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="C37" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D37" t="s">
         <v>233</v>
       </c>
       <c r="E37" s="4">
-        <v>45693</v>
+        <v>45685</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="G37">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>78</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>93</v>
       </c>
       <c r="H37">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>116</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>94</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>238</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="J37" s="4"/>
       <c r="K37" s="3" t="str">
-        <f>IF(J37&lt;&gt;"",DATEDIF(E37,J37,"d"),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L37" s="2">
-        <v>0</v>
-      </c>
       <c r="M37" s="3">
-        <f>WEEKNUM(E37)</f>
-        <v>6</v>
+        <f t="shared" si="7"/>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C38" t="s">
         <v>228</v>
@@ -3172,890 +3117,835 @@
         <v>233</v>
       </c>
       <c r="E38" s="4">
-        <v>45694</v>
+        <v>45686</v>
       </c>
       <c r="F38" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="G38">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>85</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>70</v>
       </c>
       <c r="H38">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>120</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>96</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K38" s="3" t="str">
-        <f>IF(J38&lt;&gt;"",DATEDIF(E38,J38,"d"),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L38" s="2">
-        <v>0</v>
-      </c>
       <c r="M38" s="3">
-        <f>WEEKNUM(E38)</f>
-        <v>6</v>
+        <f t="shared" si="7"/>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="C39" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D39" t="s">
         <v>234</v>
       </c>
       <c r="E39" s="4">
-        <v>45695</v>
+        <v>45687</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G39">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>79</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>74</v>
       </c>
       <c r="H39">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>98</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>105</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J39" s="4">
-        <v>45696</v>
-      </c>
-      <c r="K39" s="3">
-        <f>IF(J39&lt;&gt;"",DATEDIF(E39,J39,"d"),"")</f>
-        <v>1</v>
-      </c>
-      <c r="L39" s="2">
+        <v>240</v>
+      </c>
+      <c r="J39" s="4"/>
+      <c r="K39" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="M39" s="3">
+        <f t="shared" si="7"/>
         <v>5</v>
-      </c>
-      <c r="M39" s="3">
-        <f>WEEKNUM(E39)</f>
-        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C40" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D40" t="s">
         <v>234</v>
       </c>
       <c r="E40" s="4">
-        <v>45696</v>
+        <v>45688</v>
       </c>
       <c r="F40" t="s">
-        <v>179</v>
+        <v>30</v>
       </c>
       <c r="G40">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>66</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>96</v>
       </c>
       <c r="H40">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>94</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>123</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="K40" s="3" t="str">
-        <f>IF(J40&lt;&gt;"",DATEDIF(E40,J40,"d"),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L40" s="2">
-        <v>0</v>
-      </c>
       <c r="M40" s="3">
-        <f>WEEKNUM(E40)</f>
-        <v>6</v>
+        <f t="shared" si="7"/>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="C41" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D41" t="s">
         <v>234</v>
       </c>
       <c r="E41" s="4">
-        <v>45697</v>
+        <v>45689</v>
       </c>
       <c r="F41" t="s">
-        <v>2</v>
+        <v>217</v>
       </c>
       <c r="G41">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>90</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>61</v>
       </c>
       <c r="H41">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>94</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>116</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K41" s="3" t="str">
-        <f>IF(J41&lt;&gt;"",DATEDIF(E41,J41,"d"),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L41" s="2">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
-        <f>WEEKNUM(E41)</f>
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="C42" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D42" t="s">
         <v>234</v>
       </c>
       <c r="E42" s="4">
-        <v>45698</v>
+        <v>45690</v>
       </c>
       <c r="F42" t="s">
         <v>2</v>
       </c>
       <c r="G42">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>78</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>71</v>
       </c>
       <c r="H42">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>109</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>100</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>239</v>
       </c>
       <c r="K42" s="3" t="str">
-        <f>IF(J42&lt;&gt;"",DATEDIF(E42,J42,"d"),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L42" s="2">
-        <v>0</v>
-      </c>
       <c r="M42" s="3">
-        <f>WEEKNUM(E42)</f>
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C43" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E43" s="4">
-        <v>45699</v>
+        <v>45691</v>
       </c>
       <c r="F43" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G43">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>76</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>99</v>
       </c>
       <c r="H43">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>106</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>115</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>238</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="J43" s="4"/>
       <c r="K43" s="3" t="str">
-        <f>IF(J43&lt;&gt;"",DATEDIF(E43,J43,"d"),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L43" s="2">
-        <v>0</v>
-      </c>
       <c r="M43" s="3">
-        <f>WEEKNUM(E43)</f>
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="C44" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D44" t="s">
         <v>234</v>
       </c>
       <c r="E44" s="4">
-        <v>45700</v>
+        <v>45692</v>
       </c>
       <c r="F44" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G44">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>89</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>82</v>
       </c>
       <c r="H44">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>105</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>111</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="K44" s="3" t="str">
-        <f>IF(J44&lt;&gt;"",DATEDIF(E44,J44,"d"),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L44" s="2">
-        <v>0</v>
-      </c>
       <c r="M44" s="3">
-        <f>WEEKNUM(E44)</f>
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="C45" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D45" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E45" s="4">
-        <v>45701</v>
+        <v>45693</v>
       </c>
       <c r="F45" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G45">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>83</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>57</v>
       </c>
       <c r="H45">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>95</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>97</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K45" s="3" t="str">
-        <f>IF(J45&lt;&gt;"",DATEDIF(E45,J45,"d"),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L45" s="2">
-        <v>0</v>
-      </c>
       <c r="M45" s="3">
-        <f>WEEKNUM(E45)</f>
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="C46" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D46" t="s">
         <v>234</v>
       </c>
       <c r="E46" s="4">
-        <v>45702</v>
+        <v>45695</v>
       </c>
       <c r="F46" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G46">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>80</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>40</v>
       </c>
       <c r="H46">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>109</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>96</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="K46" s="3" t="str">
-        <f>IF(J46&lt;&gt;"",DATEDIF(E46,J46,"d"),"")</f>
-        <v/>
+        <v>241</v>
+      </c>
+      <c r="J46" s="4">
+        <v>45696</v>
+      </c>
+      <c r="K46" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="L46" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M46" s="3">
-        <f>WEEKNUM(E46)</f>
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="C47" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D47" t="s">
         <v>234</v>
       </c>
       <c r="E47" s="4">
-        <v>45703</v>
+        <v>45696</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
+        <v>179</v>
       </c>
       <c r="G47">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>57</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>99</v>
       </c>
       <c r="H47">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>119</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>112</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="J47" s="4">
-        <v>45779</v>
-      </c>
-      <c r="K47" s="3">
-        <f>IF(J47&lt;&gt;"",DATEDIF(E47,J47,"d"),"")</f>
-        <v>76</v>
-      </c>
-      <c r="L47" s="2">
-        <v>0</v>
+        <v>237</v>
+      </c>
+      <c r="K47" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="M47" s="3">
-        <f>WEEKNUM(E47)</f>
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C48" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D48" t="s">
         <v>234</v>
       </c>
       <c r="E48" s="4">
-        <v>45704</v>
+        <v>45698</v>
       </c>
       <c r="F48" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G48">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>42</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>99</v>
       </c>
       <c r="H48">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>112</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>127</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K48" s="3" t="str">
-        <f>IF(J48&lt;&gt;"",DATEDIF(E48,J48,"d"),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L48" s="2">
-        <v>0</v>
-      </c>
       <c r="M48" s="3">
-        <f>WEEKNUM(E48)</f>
-        <v>8</v>
+        <f t="shared" si="7"/>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C49" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D49" t="s">
         <v>234</v>
       </c>
       <c r="E49" s="4">
-        <v>45705</v>
+        <v>45699</v>
       </c>
       <c r="F49" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G49">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>50</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>71</v>
       </c>
       <c r="H49">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>117</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>94</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K49" s="3" t="str">
-        <f>IF(J49&lt;&gt;"",DATEDIF(E49,J49,"d"),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L49" s="2">
-        <v>0</v>
-      </c>
       <c r="M49" s="3">
-        <f>WEEKNUM(E49)</f>
-        <v>8</v>
+        <f t="shared" si="7"/>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C50" t="s">
         <v>229</v>
       </c>
       <c r="D50" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E50" s="4">
-        <v>45706</v>
+        <v>45700</v>
       </c>
       <c r="F50" t="s">
         <v>2</v>
       </c>
       <c r="G50">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>65</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>52</v>
       </c>
       <c r="H50">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>126</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>95</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>238</v>
       </c>
+      <c r="J50" s="4"/>
       <c r="K50" s="3" t="str">
-        <f>IF(J50&lt;&gt;"",DATEDIF(E50,J50,"d"),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L50" s="2">
-        <v>0</v>
-      </c>
       <c r="M50" s="3">
-        <f>WEEKNUM(E50)</f>
-        <v>8</v>
+        <f t="shared" si="7"/>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C51" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D51" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E51" s="4">
-        <v>45707</v>
+        <v>45702</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="G51">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>74</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45</v>
       </c>
       <c r="H51">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>121</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>99</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="K51" s="3" t="str">
-        <f>IF(J51&lt;&gt;"",DATEDIF(E51,J51,"d"),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L51" s="2">
-        <v>6</v>
-      </c>
       <c r="M51" s="3">
-        <f>WEEKNUM(E51)</f>
-        <v>8</v>
+        <f t="shared" si="7"/>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>60</v>
+        <v>153</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>61</v>
+        <v>154</v>
       </c>
       <c r="C52" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D52" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E52" s="4">
-        <v>45708</v>
+        <v>45703</v>
       </c>
       <c r="F52" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G52">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>97</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>93</v>
       </c>
       <c r="H52">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>125</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>113</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="K52" s="3" t="str">
-        <f>IF(J52&lt;&gt;"",DATEDIF(E52,J52,"d"),"")</f>
-        <v/>
-      </c>
-      <c r="L52" s="2">
-        <v>0</v>
+        <v>239</v>
+      </c>
+      <c r="J52" s="4">
+        <v>45779</v>
+      </c>
+      <c r="K52" s="3">
+        <f t="shared" si="6"/>
+        <v>76</v>
       </c>
       <c r="M52" s="3">
-        <f>WEEKNUM(E52)</f>
-        <v>8</v>
+        <f t="shared" si="7"/>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C53" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D53" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E53" s="4">
-        <v>45709</v>
+        <v>45704</v>
       </c>
       <c r="F53" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G53">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>89</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>99</v>
       </c>
       <c r="H53">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>103</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>101</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="K53" s="3" t="str">
-        <f>IF(J53&lt;&gt;"",DATEDIF(E53,J53,"d"),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L53" s="2">
-        <v>0</v>
-      </c>
       <c r="M53" s="3">
-        <f>WEEKNUM(E53)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C54" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D54" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E54" s="4">
-        <v>45710</v>
+        <v>45705</v>
       </c>
       <c r="F54" t="s">
         <v>2</v>
       </c>
       <c r="G54">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>43</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>46</v>
       </c>
       <c r="H54">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>110</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>114</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>239</v>
       </c>
       <c r="K54" s="3" t="str">
-        <f>IF(J54&lt;&gt;"",DATEDIF(E54,J54,"d"),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L54" s="2">
-        <v>0</v>
-      </c>
       <c r="M54" s="3">
-        <f>WEEKNUM(E54)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>159</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>63</v>
+        <v>161</v>
       </c>
       <c r="C55" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D55" t="s">
         <v>235</v>
       </c>
       <c r="E55" s="4">
-        <v>45711</v>
+        <v>45707</v>
       </c>
       <c r="F55" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="G55">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>80</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>93</v>
       </c>
       <c r="H55">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>115</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>120</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="J55" s="4">
-        <v>45748</v>
+        <v>45740</v>
       </c>
       <c r="K55" s="3">
-        <f>IF(J55&lt;&gt;"",DATEDIF(E55,J55,"d"),"")</f>
-        <v>37</v>
+        <f t="shared" si="6"/>
+        <v>33</v>
       </c>
       <c r="L55" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M55" s="3">
-        <f>WEEKNUM(E55)</f>
-        <v>9</v>
+        <f t="shared" si="7"/>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>165</v>
+        <v>60</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>166</v>
+        <v>61</v>
       </c>
       <c r="C56" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D56" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E56" s="4">
-        <v>45712</v>
+        <v>45708</v>
       </c>
       <c r="F56" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G56">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>52</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>86</v>
       </c>
       <c r="H56">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>107</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>127</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K56" s="3" t="str">
-        <f>IF(J56&lt;&gt;"",DATEDIF(E56,J56,"d"),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L56" s="2">
-        <v>0</v>
-      </c>
       <c r="M56" s="3">
-        <f>WEEKNUM(E56)</f>
-        <v>9</v>
+        <f t="shared" si="7"/>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>64</v>
+        <v>159</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>65</v>
+        <v>162</v>
       </c>
       <c r="C57" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D57" t="s">
         <v>235</v>
       </c>
       <c r="E57" s="4">
-        <v>45713</v>
+        <v>45709</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G57">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>79</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>57</v>
       </c>
       <c r="H57">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>97</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>113</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="J57" s="4"/>
+        <v>238</v>
+      </c>
       <c r="K57" s="3" t="str">
-        <f>IF(J57&lt;&gt;"",DATEDIF(E57,J57,"d"),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L57" s="2">
-        <v>0</v>
-      </c>
       <c r="M57" s="3">
-        <f>WEEKNUM(E57)</f>
-        <v>9</v>
+        <f t="shared" si="7"/>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C58" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D58" t="s">
         <v>235</v>
       </c>
       <c r="E58" s="4">
-        <v>45714</v>
+        <v>45710</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G58">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>93</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>47</v>
       </c>
       <c r="H58">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>124</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>119</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K58" s="3" t="str">
-        <f>IF(J58&lt;&gt;"",DATEDIF(E58,J58,"d"),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L58" s="2">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
-        <f>WEEKNUM(E58)</f>
-        <v>9</v>
+        <f t="shared" si="7"/>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C59" t="s">
         <v>227</v>
@@ -4064,423 +3954,402 @@
         <v>235</v>
       </c>
       <c r="E59" s="4">
-        <v>45715</v>
+        <v>45711</v>
       </c>
       <c r="F59" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G59">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>87</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>79</v>
       </c>
       <c r="H59">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>105</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>129</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="K59" s="3" t="str">
-        <f>IF(J59&lt;&gt;"",DATEDIF(E59,J59,"d"),"")</f>
-        <v/>
-      </c>
-      <c r="L59" s="2">
-        <v>0</v>
+        <v>238</v>
+      </c>
+      <c r="J59" s="4">
+        <v>45748</v>
+      </c>
+      <c r="K59" s="3">
+        <f t="shared" si="6"/>
+        <v>37</v>
       </c>
       <c r="M59" s="3">
-        <f>WEEKNUM(E59)</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C60" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D60" t="s">
         <v>235</v>
       </c>
       <c r="E60" s="4">
-        <v>45716</v>
+        <v>45712</v>
       </c>
       <c r="F60" t="s">
-        <v>217</v>
+        <v>4</v>
       </c>
       <c r="G60">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>41</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>49</v>
       </c>
       <c r="H60">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>99</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>115</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="K60" s="3" t="str">
-        <f>IF(J60&lt;&gt;"",DATEDIF(E60,J60,"d"),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L60" s="2">
-        <v>0</v>
-      </c>
       <c r="M60" s="3">
-        <f>WEEKNUM(E60)</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C61" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D61" t="s">
         <v>235</v>
       </c>
       <c r="E61" s="4">
-        <v>45717</v>
+        <v>45713</v>
       </c>
       <c r="F61" t="s">
-        <v>179</v>
+        <v>11</v>
       </c>
       <c r="G61">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>97</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>95</v>
       </c>
       <c r="H61">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>99</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>110</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="J61" s="4">
-        <v>45779</v>
-      </c>
-      <c r="K61" s="3">
-        <f>IF(J61&lt;&gt;"",DATEDIF(E61,J61,"d"),"")</f>
-        <v>62</v>
-      </c>
-      <c r="L61" s="2">
-        <v>0</v>
+      <c r="J61" s="4"/>
+      <c r="K61" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="M61" s="3">
-        <f>WEEKNUM(E61)</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C62" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D62" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E62" s="4">
-        <v>45718</v>
+        <v>45714</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="G62">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>41</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>59</v>
       </c>
       <c r="H62">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>111</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>92</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>238</v>
       </c>
       <c r="K62" s="3" t="str">
-        <f>IF(J62&lt;&gt;"",DATEDIF(E62,J62,"d"),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L62" s="2">
-        <v>0</v>
-      </c>
       <c r="M62" s="3">
-        <f>WEEKNUM(E62)</f>
-        <v>10</v>
+        <f t="shared" si="7"/>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>94</v>
+        <v>169</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="C63" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D63" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E63" s="4">
-        <v>45719</v>
+        <v>45716</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
+        <v>217</v>
       </c>
       <c r="G63">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>42</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>89</v>
       </c>
       <c r="H63">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>119</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>117</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="J63" s="4"/>
+        <v>237</v>
+      </c>
       <c r="K63" s="3" t="str">
-        <f>IF(J63&lt;&gt;"",DATEDIF(E63,J63,"d"),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L63" s="2">
-        <v>0</v>
-      </c>
       <c r="M63" s="3">
-        <f>WEEKNUM(E63)</f>
-        <v>10</v>
+        <f t="shared" si="7"/>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>176</v>
+        <v>68</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>172</v>
+        <v>69</v>
       </c>
       <c r="C64" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D64" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E64" s="4">
-        <v>45720</v>
+        <v>45717</v>
       </c>
       <c r="F64" t="s">
-        <v>2</v>
+        <v>179</v>
       </c>
       <c r="G64">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>90</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>43</v>
       </c>
       <c r="H64">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>122</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>118</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="K64" s="3" t="str">
-        <f>IF(J64&lt;&gt;"",DATEDIF(E64,J64,"d"),"")</f>
-        <v/>
-      </c>
-      <c r="L64" s="2">
-        <v>0</v>
+        <v>237</v>
+      </c>
+      <c r="J64" s="4">
+        <v>45779</v>
+      </c>
+      <c r="K64" s="3">
+        <f t="shared" si="6"/>
+        <v>62</v>
       </c>
       <c r="M64" s="3">
-        <f>WEEKNUM(E64)</f>
-        <v>10</v>
+        <f t="shared" si="7"/>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>71</v>
+        <v>175</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>72</v>
+        <v>171</v>
       </c>
       <c r="C65" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D65" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E65" s="4">
-        <v>45721</v>
+        <v>45718</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G65">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>81</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>54</v>
       </c>
       <c r="H65">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>114</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>105</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K65" s="3" t="str">
-        <f>IF(J65&lt;&gt;"",DATEDIF(E65,J65,"d"),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L65" s="2">
-        <v>2</v>
-      </c>
       <c r="M65" s="3">
-        <f>WEEKNUM(E65)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>177</v>
+        <v>94</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>173</v>
+        <v>70</v>
       </c>
       <c r="C66" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D66" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E66" s="4">
-        <v>45722</v>
+        <v>45719</v>
       </c>
       <c r="F66" t="s">
         <v>11</v>
       </c>
       <c r="G66">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>88</v>
+        <f t="shared" ref="G66:G86" ca="1" si="8">ROUND(RAND()*60+40,0)</f>
+        <v>55</v>
       </c>
       <c r="H66">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>106</v>
+        <f t="shared" ref="H66:H86" ca="1" si="9">ROUND(RAND()*40+90,0)</f>
+        <v>90</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>238</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="J66" s="4"/>
       <c r="K66" s="3" t="str">
-        <f>IF(J66&lt;&gt;"",DATEDIF(E66,J66,"d"),"")</f>
+        <f t="shared" ref="K66:K97" si="10">IF(J66&lt;&gt;"",DATEDIF(E66,J66,"d"),"")</f>
         <v/>
       </c>
-      <c r="L66" s="2">
-        <v>0</v>
-      </c>
       <c r="M66" s="3">
-        <f>WEEKNUM(E66)</f>
+        <f t="shared" ref="M66:M86" si="11">WEEKNUM(E66)</f>
         <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C67" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D67" t="s">
         <v>235</v>
       </c>
       <c r="E67" s="4">
-        <v>45723</v>
+        <v>45721</v>
       </c>
       <c r="F67" t="s">
+        <v>30</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ca="1" si="8"/>
+        <v>93</v>
+      </c>
+      <c r="H67">
+        <f t="shared" ca="1" si="9"/>
+        <v>125</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K67" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="L67" s="2">
         <v>2</v>
       </c>
-      <c r="G67">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>60</v>
-      </c>
-      <c r="H67">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>96</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="J67" s="4"/>
-      <c r="K67" s="3" t="str">
-        <f>IF(J67&lt;&gt;"",DATEDIF(E67,J67,"d"),"")</f>
-        <v/>
-      </c>
-      <c r="L67" s="2">
-        <v>0</v>
-      </c>
       <c r="M67" s="3">
-        <f>WEEKNUM(E67)</f>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C68" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D68" t="s">
         <v>232</v>
       </c>
       <c r="E68" s="4">
-        <v>45724</v>
+        <v>45722</v>
       </c>
       <c r="F68" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G68">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>65</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>66</v>
       </c>
       <c r="H68">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>96</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>107</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="K68" s="3" t="str">
-        <f>IF(J68&lt;&gt;"",DATEDIF(E68,J68,"d"),"")</f>
-        <v/>
-      </c>
-      <c r="L68" s="2">
-        <v>3</v>
+        <v>238</v>
+      </c>
+      <c r="J68" s="4">
+        <v>45740</v>
+      </c>
+      <c r="K68" s="3">
+        <f t="shared" si="10"/>
+        <v>18</v>
       </c>
       <c r="M68" s="3">
-        <f>WEEKNUM(E68)</f>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C69" t="s">
         <v>228</v>
@@ -4489,547 +4358,530 @@
         <v>235</v>
       </c>
       <c r="E69" s="4">
-        <v>45725</v>
+        <v>45723</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G69">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>95</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>92</v>
       </c>
       <c r="H69">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>91</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>116</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="K69" s="3" t="str">
-        <f>IF(J69&lt;&gt;"",DATEDIF(E69,J69,"d"),"")</f>
-        <v/>
-      </c>
-      <c r="L69" s="2">
-        <v>0</v>
+      <c r="J69" s="4">
+        <v>45740</v>
+      </c>
+      <c r="K69" s="3">
+        <f t="shared" si="10"/>
+        <v>17</v>
       </c>
       <c r="M69" s="3">
-        <f>WEEKNUM(E69)</f>
-        <v>11</v>
+        <f t="shared" si="11"/>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>195</v>
+        <v>75</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>196</v>
+        <v>76</v>
       </c>
       <c r="C70" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D70" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E70" s="4">
-        <v>45726</v>
+        <v>45725</v>
       </c>
       <c r="F70" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G70">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>44</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>54</v>
       </c>
       <c r="H70">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>91</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>106</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="K70" s="3" t="str">
-        <f>IF(J70&lt;&gt;"",DATEDIF(E70,J70,"d"),"")</f>
-        <v/>
-      </c>
-      <c r="L70" s="2">
-        <v>4</v>
+      <c r="J70" s="4">
+        <v>45740</v>
+      </c>
+      <c r="K70" s="3">
+        <f t="shared" si="10"/>
+        <v>15</v>
       </c>
       <c r="M70" s="3">
-        <f>WEEKNUM(E70)</f>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>77</v>
+        <v>195</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>78</v>
+        <v>196</v>
       </c>
       <c r="C71" t="s">
         <v>227</v>
       </c>
       <c r="D71" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E71" s="4">
-        <v>45727</v>
+        <v>45726</v>
       </c>
       <c r="F71" t="s">
         <v>2</v>
       </c>
       <c r="G71">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>58</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>63</v>
       </c>
       <c r="H71">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>92</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>110</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K71" s="3" t="str">
-        <f>IF(J71&lt;&gt;"",DATEDIF(E71,J71,"d"),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L71" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M71" s="3">
-        <f>WEEKNUM(E71)</f>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>198</v>
+        <v>78</v>
       </c>
       <c r="C72" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D72" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E72" s="4">
-        <v>45728</v>
+        <v>45727</v>
       </c>
       <c r="F72" t="s">
         <v>2</v>
       </c>
       <c r="G72">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>44</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>89</v>
       </c>
       <c r="H72">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>109</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>114</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K72" s="3" t="str">
-        <f>IF(J72&lt;&gt;"",DATEDIF(E72,J72,"d"),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L72" s="2">
-        <v>5</v>
-      </c>
       <c r="M72" s="3">
-        <f>WEEKNUM(E72)</f>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>53</v>
+        <v>197</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>80</v>
+        <v>198</v>
       </c>
       <c r="C73" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D73" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E73" s="4">
-        <v>45729</v>
+        <v>45728</v>
       </c>
       <c r="F73" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G73">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>84</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>98</v>
       </c>
       <c r="H73">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>121</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>114</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K73" s="3" t="str">
-        <f>IF(J73&lt;&gt;"",DATEDIF(E73,J73,"d"),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L73" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M73" s="3">
-        <f>WEEKNUM(E73)</f>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>199</v>
+        <v>92</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>200</v>
+        <v>93</v>
       </c>
       <c r="C74" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D74" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E74" s="4">
-        <v>45730</v>
+        <v>45729</v>
       </c>
       <c r="F74" t="s">
         <v>2</v>
       </c>
       <c r="G74">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>44</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>91</v>
       </c>
       <c r="H74">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>117</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>237</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="J74" s="4"/>
       <c r="K74" s="3" t="str">
-        <f>IF(J74&lt;&gt;"",DATEDIF(E74,J74,"d"),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L74" s="2">
-        <v>2</v>
-      </c>
       <c r="M74" s="3">
-        <f>WEEKNUM(E74)</f>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C75" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D75" t="s">
         <v>236</v>
       </c>
       <c r="E75" s="4">
-        <v>45731</v>
+        <v>45729</v>
       </c>
       <c r="F75" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G75">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>62</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>92</v>
       </c>
       <c r="H75">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>118</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>115</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="K75" s="3" t="str">
-        <f>IF(J75&lt;&gt;"",DATEDIF(E75,J75,"d"),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L75" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M75" s="3">
-        <f>WEEKNUM(E75)</f>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C76" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D76" t="s">
         <v>232</v>
       </c>
       <c r="E76" s="4">
-        <v>45732</v>
+        <v>45729</v>
       </c>
       <c r="F76" t="s">
         <v>2</v>
       </c>
       <c r="G76">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>62</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>44</v>
       </c>
       <c r="H76">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>106</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>125</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K76" s="3" t="str">
-        <f>IF(J76&lt;&gt;"",DATEDIF(E76,J76,"d"),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L76" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M76" s="3">
-        <f>WEEKNUM(E76)</f>
-        <v>12</v>
+        <f t="shared" si="11"/>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>94</v>
+        <v>199</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="C77" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D77" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E77" s="4">
-        <v>45733</v>
+        <v>45730</v>
       </c>
       <c r="F77" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G77">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>46</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>59</v>
       </c>
       <c r="H77">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>101</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>106</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K77" s="3" t="str">
-        <f>IF(J77&lt;&gt;"",DATEDIF(E77,J77,"d"),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L77" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M77" s="3">
-        <f>WEEKNUM(E77)</f>
-        <v>12</v>
+        <f t="shared" si="11"/>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>203</v>
+        <v>81</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>204</v>
+        <v>82</v>
       </c>
       <c r="C78" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D78" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E78" s="4">
-        <v>45734</v>
+        <v>45731</v>
       </c>
       <c r="F78" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G78">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>85</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>57</v>
       </c>
       <c r="H78">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>121</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>92</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K78" s="3" t="str">
-        <f>IF(J78&lt;&gt;"",DATEDIF(E78,J78,"d"),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L78" s="2">
-        <v>1</v>
-      </c>
       <c r="M78" s="3">
-        <f>WEEKNUM(E78)</f>
-        <v>12</v>
+        <f t="shared" si="11"/>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C79" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D79" t="s">
         <v>232</v>
       </c>
       <c r="E79" s="4">
-        <v>45735</v>
+        <v>45732</v>
       </c>
       <c r="F79" t="s">
         <v>2</v>
       </c>
       <c r="G79">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>71</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>73</v>
       </c>
       <c r="H79">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>102</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>112</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K79" s="3" t="str">
-        <f>IF(J79&lt;&gt;"",DATEDIF(E79,J79,"d"),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L79" s="2">
-        <v>2</v>
-      </c>
       <c r="M79" s="3">
-        <f>WEEKNUM(E79)</f>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>207</v>
+        <v>94</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>208</v>
+        <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D80" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E80" s="4">
-        <v>45736</v>
+        <v>45733</v>
       </c>
       <c r="F80" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G80">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>96</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>52</v>
       </c>
       <c r="H80">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>92</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>90</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K80" s="3" t="str">
-        <f>IF(J80&lt;&gt;"",DATEDIF(E80,J80,"d"),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L80" s="2">
-        <v>0</v>
-      </c>
       <c r="M80" s="3">
-        <f>WEEKNUM(E80)</f>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C81" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D81" t="s">
         <v>232</v>
       </c>
       <c r="E81" s="4">
-        <v>45737</v>
+        <v>45735</v>
       </c>
       <c r="F81" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G81">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>44</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>81</v>
       </c>
       <c r="H81">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>96</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>126</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="J81" s="4">
-        <v>45877</v>
-      </c>
-      <c r="K81" s="3">
-        <f>IF(J81&lt;&gt;"",DATEDIF(E81,J81,"d"),"")</f>
-        <v>140</v>
+        <v>241</v>
+      </c>
+      <c r="K81" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v/>
       </c>
       <c r="L81" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M81" s="3">
-        <f>WEEKNUM(E81)</f>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C82" t="s">
         <v>227</v>
@@ -5038,161 +4890,151 @@
         <v>232</v>
       </c>
       <c r="E82" s="4">
-        <v>45738</v>
+        <v>45737</v>
       </c>
       <c r="F82" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G82">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>81</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>100</v>
       </c>
       <c r="H82">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>108</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>91</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="K82" s="3" t="str">
-        <f>IF(J82&lt;&gt;"",DATEDIF(E82,J82,"d"),"")</f>
-        <v/>
-      </c>
-      <c r="L82" s="2">
-        <v>0</v>
+        <v>240</v>
+      </c>
+      <c r="J82" s="4">
+        <v>45877</v>
+      </c>
+      <c r="K82" s="3">
+        <f t="shared" si="10"/>
+        <v>140</v>
       </c>
       <c r="M82" s="3">
-        <f>WEEKNUM(E82)</f>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C83" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D83" t="s">
         <v>232</v>
       </c>
       <c r="E83" s="4">
-        <v>45739</v>
+        <v>45738</v>
       </c>
       <c r="F83" t="s">
-        <v>179</v>
+        <v>2</v>
       </c>
       <c r="G83">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>76</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>44</v>
       </c>
       <c r="H83">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>128</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>103</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="J83" s="4">
-        <v>45787</v>
-      </c>
-      <c r="K83" s="3">
-        <f>IF(J83&lt;&gt;"",DATEDIF(E83,J83,"d"),"")</f>
-        <v>48</v>
-      </c>
-      <c r="L83" s="2">
-        <v>0</v>
+        <v>241</v>
+      </c>
+      <c r="K83" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v/>
       </c>
       <c r="M83" s="3">
-        <f>WEEKNUM(E83)</f>
-        <v>13</v>
+        <f t="shared" si="11"/>
+        <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C84" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D84" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E84" s="4">
-        <v>45740</v>
+        <v>45739</v>
       </c>
       <c r="F84" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="G84">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>80</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>49</v>
       </c>
       <c r="H84">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>108</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>110</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="K84" s="3" t="str">
-        <f>IF(J84&lt;&gt;"",DATEDIF(E84,J84,"d"),"")</f>
-        <v/>
-      </c>
-      <c r="L84" s="2">
-        <v>0</v>
+      <c r="J84" s="4">
+        <v>45787</v>
+      </c>
+      <c r="K84" s="3">
+        <f t="shared" si="10"/>
+        <v>48</v>
       </c>
       <c r="M84" s="3">
-        <f>WEEKNUM(E84)</f>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>92</v>
+        <v>215</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>93</v>
+        <v>216</v>
       </c>
       <c r="C85" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D85" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E85" s="4">
-        <v>45741</v>
+        <v>45740</v>
       </c>
       <c r="F85" t="s">
-        <v>2</v>
+        <v>217</v>
       </c>
       <c r="G85">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>78</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>49</v>
       </c>
       <c r="H85">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>94</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>120</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J85" s="4"/>
+        <v>239</v>
+      </c>
       <c r="K85" s="3" t="str">
-        <f>IF(J85&lt;&gt;"",DATEDIF(E85,J85,"d"),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L85" s="2">
-        <v>0</v>
-      </c>
       <c r="M85" s="3">
-        <f>WEEKNUM(E85)</f>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
     </row>
@@ -5216,43 +5058,96 @@
         <v>30</v>
       </c>
       <c r="G86">
-        <f ca="1">ROUND(RAND()*60+40,0)</f>
-        <v>43</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>77</v>
       </c>
       <c r="H86">
-        <f ca="1">ROUND(RAND()*40+90,0)</f>
-        <v>120</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>125</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>237</v>
       </c>
       <c r="J86" s="4"/>
       <c r="K86" s="3" t="str">
-        <f>IF(J86&lt;&gt;"",DATEDIF(E86,J86,"d"),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L86" s="2">
-        <v>0</v>
-      </c>
       <c r="M86" s="3">
-        <f>WEEKNUM(E86)</f>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M383">
-    <sortCondition ref="E1:E383"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M87">
+    <sortCondition ref="E1:E87"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B1:D1048576">
-    <cfRule type="endsWith" dxfId="13" priority="22" operator="endsWith" text="?">
+    <cfRule type="endsWith" dxfId="13" priority="36" operator="endsWith" text="?">
       <formula>RIGHT(B1,LEN("?"))="?"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="23" operator="containsText" text="&quot;?&quot;">
+    <cfRule type="containsText" dxfId="12" priority="37" operator="containsText" text="&quot;?&quot;">
       <formula>NOT(ISERROR(SEARCH("""?""",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="Ghosted">
+      <formula>NOT(ISERROR(SEARCH("Ghosted",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="20" operator="containsText" text="Bailed">
+      <formula>NOT(ISERROR(SEARCH("Bailed",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="25" operator="containsText" text="Reject">
+      <formula>NOT(ISERROR(SEARCH("Reject",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="27" operator="containsText" text="Offer">
+      <formula>NOT(ISERROR(SEARCH("Offer",F1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:H1048576">
+    <cfRule type="containsText" dxfId="7" priority="33" operator="containsText" text="On">
+      <formula>NOT(ISERROR(SEARCH("On",F1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:I1048576 M1:M1048576">
+    <cfRule type="containsText" dxfId="6" priority="34" operator="containsText" text="Ended">
+      <formula>NOT(ISERROR(SEARCH("Ended",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="38" operator="containsText" text="Den">
+      <formula>NOT(ISERROR(SEARCH("Den",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="39" operator="containsText" text="Interv">
+      <formula>NOT(ISERROR(SEARCH("Interv",F1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1048576 E1:E1048576 I1:K1048576">
+    <cfRule type="beginsWith" dxfId="3" priority="35" operator="beginsWith" text="?">
+      <formula>LEFT(E1,LEN("?"))="?"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:K1048576">
+    <cfRule type="containsText" dxfId="2" priority="15" operator="containsText" text="Ended">
+      <formula>NOT(ISERROR(SEARCH("Ended",J1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="17" operator="containsText" text="Den">
+      <formula>NOT(ISERROR(SEARCH("Den",J1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="18" operator="containsText" text="Interv">
+      <formula>NOT(ISERROR(SEARCH("Interv",J1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J50">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -5262,54 +5157,134 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="Ghosted">
-      <formula>NOT(ISERROR(SEARCH("Ghosted",F1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="Bailed">
-      <formula>NOT(ISERROR(SEARCH("Bailed",F1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Reject">
-      <formula>NOT(ISERROR(SEARCH("Reject",F1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="Offer">
-      <formula>NOT(ISERROR(SEARCH("Offer",F1)))</formula>
+  <conditionalFormatting sqref="J68">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <color theme="0"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:H1048576">
-    <cfRule type="containsText" dxfId="7" priority="19" operator="containsText" text="On">
-      <formula>NOT(ISERROR(SEARCH("On",F1)))</formula>
+  <conditionalFormatting sqref="J69">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <color theme="0"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:I1048576 M1:M1048576">
-    <cfRule type="containsText" dxfId="6" priority="20" operator="containsText" text="Ended">
-      <formula>NOT(ISERROR(SEARCH("Ended",F1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="24" operator="containsText" text="Den">
-      <formula>NOT(ISERROR(SEARCH("Den",F1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="25" operator="containsText" text="Interv">
-      <formula>NOT(ISERROR(SEARCH("Interv",F1)))</formula>
+  <conditionalFormatting sqref="J70">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <color theme="0"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1048576 E1:E1048576 I1:K1048576">
-    <cfRule type="beginsWith" dxfId="3" priority="21" operator="beginsWith" text="?">
-      <formula>LEFT(E1,LEN("?"))="?"</formula>
+  <conditionalFormatting sqref="J55">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <color theme="0"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:K1048576">
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Interv">
-      <formula>NOT(ISERROR(SEARCH("Interv",J1)))</formula>
+  <conditionalFormatting sqref="J35">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <color theme="0"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:K1048576">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Ended">
-      <formula>NOT(ISERROR(SEARCH("Ended",J1)))</formula>
+  <conditionalFormatting sqref="J30">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <color theme="0"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:K1048576">
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Den">
-      <formula>NOT(ISERROR(SEARCH("Den",J1)))</formula>
+  <conditionalFormatting sqref="J17">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="6" tint="0.39997558519241921"/>
+        <color theme="0"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
@@ -6190,7 +6165,7 @@
       </c>
       <c r="D2" s="1">
         <f ca="1">(Tracker!G2+Tracker!H2)/2</f>
-        <v>107.5</v>
+        <v>80</v>
       </c>
       <c r="E2" s="1">
         <v>0.95</v>
@@ -6221,7 +6196,7 @@
       </c>
       <c r="L2">
         <f ca="1">IF(D2=0, 0.5, MIN(1, MAX(0, (E2 * F2 * G2 * H2 * (D2 / 120)))))</f>
-        <v>0.87316874999999994</v>
+        <v>0.64979999999999993</v>
       </c>
       <c r="M2">
         <f>IF(J2=0, 0.2, ROUND((0.4 * J2 + 0.3 * I2 + 0.3 * K2), 2))</f>
@@ -6229,32 +6204,32 @@
       </c>
       <c r="O2">
         <f ca="1">L2/M2</f>
-        <v>1.2473839285714285</v>
+        <v>0.92828571428571427</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="str">
         <f>Tracker!A3</f>
-        <v>Company 2</v>
+        <v>Company 33</v>
       </c>
       <c r="B3" t="str">
         <f>Tracker!B3</f>
-        <v>Title 2</v>
+        <v>Title 33</v>
       </c>
       <c r="C3" t="str">
         <f>Tracker!F3</f>
-        <v>Rejected</v>
+        <v>Pending</v>
       </c>
       <c r="D3" s="1">
         <f ca="1">(Tracker!G3+Tracker!H3)/2</f>
-        <v>96.5</v>
+        <v>92</v>
       </c>
       <c r="E3" s="1">
         <v>0.95</v>
       </c>
       <c r="F3" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D3, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="G3" s="1">
         <f t="shared" ref="G3:G66" si="0">0.95</f>
@@ -6270,7 +6245,7 @@
       </c>
       <c r="J3" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I3, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="K3" s="15">
         <f>MIN(Tracker!N3, 4)/4</f>
@@ -6278,40 +6253,40 @@
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L66" ca="1" si="1">IF(D3=0, 0.5, MIN(1, MAX(0, (E3 * F3 * G3 * H3 * (D3 / 120)))))</f>
-        <v>0.58786593749999994</v>
+        <v>0.49818000000000007</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M66" si="2">IF(J3=0, 0.2, ROUND((0.4 * J3 + 0.3 * I3 + 0.3 * K3), 2))</f>
-        <v>0.51</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O66" ca="1" si="3">L3/M3</f>
-        <v>1.1526783088235293</v>
+        <v>0.90578181818181824</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
         <f>Tracker!A4</f>
-        <v>Company 5</v>
+        <v>Company 40</v>
       </c>
       <c r="B4" t="str">
         <f>Tracker!B4</f>
-        <v>Title 3</v>
+        <v>Title 40</v>
       </c>
       <c r="C4" t="str">
         <f>Tracker!F4</f>
-        <v>Denied</v>
+        <v>Pending</v>
       </c>
       <c r="D4" s="1">
         <f ca="1">(Tracker!G4+Tracker!H4)/2</f>
-        <v>95.5</v>
+        <v>88.5</v>
       </c>
       <c r="E4" s="1">
         <v>0.95</v>
       </c>
       <c r="F4" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D4, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
@@ -6319,7 +6294,7 @@
       </c>
       <c r="H4" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C4, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I4" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F4, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
@@ -6327,7 +6302,7 @@
       </c>
       <c r="J4" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I4, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="K4" s="15">
         <f>MIN(Tracker!N4, 4)/4</f>
@@ -6335,40 +6310,40 @@
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64641562499999994</v>
+        <v>0.42598000000000003</v>
       </c>
       <c r="M4">
         <f t="shared" si="2"/>
-        <v>0.51</v>
+        <v>0.59</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2674816176470587</v>
+        <v>0.72200000000000009</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f>Tracker!A5</f>
-        <v>Company 4</v>
+        <v>Company 5</v>
       </c>
       <c r="B5" t="str">
         <f>Tracker!B5</f>
-        <v>Title 4</v>
+        <v>Title 5</v>
       </c>
       <c r="C5" t="str">
         <f>Tracker!F5</f>
-        <v>Rejected</v>
+        <v>Denied</v>
       </c>
       <c r="D5" s="1">
         <f ca="1">(Tracker!G5+Tracker!H5)/2</f>
-        <v>84</v>
+        <v>92.5</v>
       </c>
       <c r="E5" s="1">
         <v>0.95</v>
       </c>
       <c r="F5" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D5, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="0"/>
@@ -6376,7 +6351,7 @@
       </c>
       <c r="H5" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C5, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I5" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F5, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
@@ -6384,7 +6359,7 @@
       </c>
       <c r="J5" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I5, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="K5" s="15">
         <f>MIN(Tracker!N5, 4)/4</f>
@@ -6392,33 +6367,33 @@
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50539999999999996</v>
+        <v>0.56349843749999995</v>
       </c>
       <c r="M5">
         <f t="shared" si="2"/>
-        <v>0.55000000000000004</v>
+        <v>0.63</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.91890909090909079</v>
+        <v>0.89444196428571421</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f>Tracker!A6</f>
-        <v>Company 5</v>
+        <v>Company 2</v>
       </c>
       <c r="B6" t="str">
         <f>Tracker!B6</f>
-        <v>Title 5</v>
+        <v>Title 2</v>
       </c>
       <c r="C6" t="str">
         <f>Tracker!F6</f>
-        <v>Denied</v>
+        <v>Rejected</v>
       </c>
       <c r="D6" s="1">
         <f ca="1">(Tracker!G6+Tracker!H6)/2</f>
-        <v>95</v>
+        <v>78.5</v>
       </c>
       <c r="E6" s="1">
         <v>0.95</v>
@@ -6441,7 +6416,7 @@
       </c>
       <c r="J6" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I6, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="K6" s="15">
         <f>MIN(Tracker!N6, 4)/4</f>
@@ -6449,40 +6424,40 @@
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57872812499999993</v>
+        <v>0.47821218749999994</v>
       </c>
       <c r="M6">
         <f t="shared" si="2"/>
-        <v>0.63</v>
+        <v>0.51</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="3"/>
-        <v>0.91861607142857127</v>
+        <v>0.93767095588235283</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <f>Tracker!A7</f>
-        <v>Company 6</v>
+        <v>Company 5</v>
       </c>
       <c r="B7" t="str">
         <f>Tracker!B7</f>
-        <v>Title 6</v>
+        <v>Title 3</v>
       </c>
       <c r="C7" t="str">
         <f>Tracker!F7</f>
-        <v>No Response</v>
+        <v>Denied</v>
       </c>
       <c r="D7" s="1">
         <f ca="1">(Tracker!G7+Tracker!H7)/2</f>
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E7" s="1">
         <v>0.95</v>
       </c>
       <c r="F7" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D7, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
@@ -6490,15 +6465,15 @@
       </c>
       <c r="H7" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C7, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I7" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F7, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="J7" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I7, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="K7" s="15">
         <f>MIN(Tracker!N7, 4)/4</f>
@@ -6506,40 +6481,40 @@
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79600499999999996</v>
+        <v>0.69718124999999986</v>
       </c>
       <c r="M7">
         <f t="shared" si="2"/>
-        <v>0.62</v>
+        <v>0.51</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2838790322580644</v>
+        <v>1.3670220588235291</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <f>Tracker!A8</f>
-        <v>Company 7</v>
+        <v>Company 4</v>
       </c>
       <c r="B8" t="str">
         <f>Tracker!B8</f>
-        <v>Title 7</v>
+        <v>Title 4</v>
       </c>
       <c r="C8" t="str">
         <f>Tracker!F8</f>
-        <v>Pending</v>
+        <v>Rejected</v>
       </c>
       <c r="D8" s="1">
         <f ca="1">(Tracker!G8+Tracker!H8)/2</f>
-        <v>107.5</v>
+        <v>92</v>
       </c>
       <c r="E8" s="1">
         <v>0.95</v>
       </c>
       <c r="F8" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D8, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="0"/>
@@ -6563,7 +6538,7 @@
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51743333333333341</v>
+        <v>0.55353333333333332</v>
       </c>
       <c r="M8">
         <f t="shared" si="2"/>
@@ -6571,25 +6546,25 @@
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.94078787878787884</v>
+        <v>1.0064242424242422</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <f>Tracker!A9</f>
-        <v>Company 25</v>
+        <v>Company 6</v>
       </c>
       <c r="B9" t="str">
         <f>Tracker!B9</f>
-        <v>Title 25</v>
+        <v>Title 6</v>
       </c>
       <c r="C9" t="str">
         <f>Tracker!F9</f>
-        <v>Ghosted</v>
+        <v>No Response</v>
       </c>
       <c r="D9" s="1">
         <f ca="1">(Tracker!G9+Tracker!H9)/2</f>
-        <v>85</v>
+        <v>80.5</v>
       </c>
       <c r="E9" s="1">
         <v>0.95</v>
@@ -6608,7 +6583,7 @@
       </c>
       <c r="I9" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F9, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J9" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I9, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
@@ -6620,25 +6595,25 @@
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6904125000000001</v>
+        <v>0.65386124999999995</v>
       </c>
       <c r="M9">
         <f t="shared" si="2"/>
-        <v>0.59</v>
+        <v>0.62</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="3"/>
-        <v>1.170190677966102</v>
+        <v>1.0546149193548386</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <f>Tracker!A10</f>
-        <v>Company 26</v>
+        <v>Company 7</v>
       </c>
       <c r="B10" t="str">
         <f>Tracker!B10</f>
-        <v>Title 26</v>
+        <v>Title 7</v>
       </c>
       <c r="C10" t="str">
         <f>Tracker!F10</f>
@@ -6653,7 +6628,7 @@
       </c>
       <c r="F10" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D10, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="0"/>
@@ -6677,7 +6652,7 @@
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70756000000000008</v>
+        <v>0.47170666666666666</v>
       </c>
       <c r="M10">
         <f t="shared" si="2"/>
@@ -6685,25 +6660,25 @@
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2864727272727272</v>
+        <v>0.85764848484848477</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <f>Tracker!A11</f>
-        <v>Company 27</v>
+        <v>Company 25</v>
       </c>
       <c r="B11" t="str">
         <f>Tracker!B11</f>
-        <v>Title 27</v>
+        <v>Title 25</v>
       </c>
       <c r="C11" t="str">
         <f>Tracker!F11</f>
-        <v>Pending</v>
+        <v>Ghosted</v>
       </c>
       <c r="D11" s="1">
         <f ca="1">(Tracker!G11+Tracker!H11)/2</f>
-        <v>94</v>
+        <v>96.5</v>
       </c>
       <c r="E11" s="1">
         <v>0.95</v>
@@ -6718,7 +6693,7 @@
       </c>
       <c r="H11" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C11, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I11" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F11, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
@@ -6734,7 +6709,7 @@
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67868000000000006</v>
+        <v>0.78382125000000002</v>
       </c>
       <c r="M11">
         <f t="shared" si="2"/>
@@ -6742,32 +6717,32 @@
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="3"/>
-        <v>1.150305084745763</v>
+        <v>1.3285105932203392</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
         <f>Tracker!A12</f>
-        <v>Company 28</v>
+        <v>Company 38</v>
       </c>
       <c r="B12" t="str">
         <f>Tracker!B12</f>
-        <v>Title 28</v>
+        <v>Title 38</v>
       </c>
       <c r="C12" t="str">
         <f>Tracker!F12</f>
-        <v>Interviewing</v>
+        <v>No Response</v>
       </c>
       <c r="D12" s="1">
         <f ca="1">(Tracker!G12+Tracker!H12)/2</f>
-        <v>89</v>
+        <v>88.5</v>
       </c>
       <c r="E12" s="1">
         <v>0.95</v>
       </c>
       <c r="F12" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D12, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="0"/>
@@ -6775,15 +6750,15 @@
       </c>
       <c r="H12" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C12, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="I12" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F12, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J12" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I12, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="K12" s="15">
         <f>MIN(Tracker!N12, 4)/4</f>
@@ -6791,40 +6766,40 @@
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96386999999999989</v>
+        <v>0.53913093749999996</v>
       </c>
       <c r="M12">
         <f t="shared" si="2"/>
-        <v>0.55000000000000004</v>
+        <v>0.62</v>
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="3"/>
-        <v>1.7524909090909087</v>
+        <v>0.86956602822580642</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <f>Tracker!A13</f>
-        <v>Company 31</v>
+        <v>Company 52</v>
       </c>
       <c r="B13" t="str">
         <f>Tracker!B13</f>
-        <v>Title 31</v>
+        <v>Title 52</v>
       </c>
       <c r="C13" t="str">
         <f>Tracker!F13</f>
-        <v>Pending</v>
+        <v>Interviewing</v>
       </c>
       <c r="D13" s="1">
         <f ca="1">(Tracker!G13+Tracker!H13)/2</f>
-        <v>75</v>
+        <v>73.5</v>
       </c>
       <c r="E13" s="1">
         <v>0.95</v>
       </c>
       <c r="F13" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D13, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="0"/>
@@ -6832,7 +6807,7 @@
       </c>
       <c r="H13" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C13, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I13" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F13, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
@@ -6840,7 +6815,7 @@
       </c>
       <c r="J13" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I13, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="K13" s="15">
         <f>MIN(Tracker!N13, 4)/4</f>
@@ -6848,40 +6823,40 @@
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54150000000000009</v>
+        <v>0.44775281249999999</v>
       </c>
       <c r="M13">
         <f t="shared" si="2"/>
-        <v>0.63</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="3"/>
-        <v>0.85952380952380969</v>
+        <v>0.81409602272727266</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
         <f>Tracker!A14</f>
-        <v>Company 32</v>
+        <v>Company 59</v>
       </c>
       <c r="B14" t="str">
         <f>Tracker!B14</f>
-        <v>Title 32</v>
+        <v>Title 59</v>
       </c>
       <c r="C14" t="str">
         <f>Tracker!F14</f>
-        <v>Rejected</v>
+        <v>Denied</v>
       </c>
       <c r="D14" s="1">
         <f ca="1">(Tracker!G14+Tracker!H14)/2</f>
-        <v>90.5</v>
+        <v>80</v>
       </c>
       <c r="E14" s="1">
         <v>0.95</v>
       </c>
       <c r="F14" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D14, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="0"/>
@@ -6889,7 +6864,7 @@
       </c>
       <c r="H14" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C14, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="I14" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F14, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
@@ -6897,7 +6872,7 @@
       </c>
       <c r="J14" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I14, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K14" s="15">
         <f>MIN(Tracker!N14, 4)/4</f>
@@ -6905,25 +6880,25 @@
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67382906249999996</v>
+        <v>0.60166666666666657</v>
       </c>
       <c r="M14">
         <f t="shared" si="2"/>
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0695699404761905</v>
+        <v>1.0197740112994349</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
         <f>Tracker!A15</f>
-        <v>Company 33</v>
+        <v>Company 72</v>
       </c>
       <c r="B15" t="str">
         <f>Tracker!B15</f>
-        <v>Title 33</v>
+        <v>Title 72</v>
       </c>
       <c r="C15" t="str">
         <f>Tracker!F15</f>
@@ -6931,7 +6906,7 @@
       </c>
       <c r="D15" s="1">
         <f ca="1">(Tracker!G15+Tracker!H15)/2</f>
-        <v>73.5</v>
+        <v>106</v>
       </c>
       <c r="E15" s="1">
         <v>0.95</v>
@@ -6962,7 +6937,7 @@
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39800250000000004</v>
+        <v>0.57399</v>
       </c>
       <c r="M15">
         <f t="shared" si="2"/>
@@ -6970,25 +6945,25 @@
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="3"/>
-        <v>0.72364090909090906</v>
+        <v>1.0436181818181818</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
         <f>Tracker!A16</f>
-        <v>Company 34</v>
+        <v>Company 81</v>
       </c>
       <c r="B16" t="str">
         <f>Tracker!B16</f>
-        <v>Title 34</v>
+        <v>Title 81</v>
       </c>
       <c r="C16" t="str">
         <f>Tracker!F16</f>
-        <v>Interviewing</v>
+        <v>Pending</v>
       </c>
       <c r="D16" s="1">
         <f ca="1">(Tracker!G16+Tracker!H16)/2</f>
-        <v>106</v>
+        <v>91.5</v>
       </c>
       <c r="E16" s="1">
         <v>0.95</v>
@@ -7011,7 +6986,7 @@
       </c>
       <c r="J16" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I16, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="K16" s="15">
         <f>MIN(Tracker!N16, 4)/4</f>
@@ -7019,40 +6994,40 @@
       </c>
       <c r="L16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5102133333333333</v>
+        <v>0.44041999999999998</v>
       </c>
       <c r="M16">
         <f t="shared" si="2"/>
-        <v>0.51</v>
+        <v>0.63</v>
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0004183006535947</v>
+        <v>0.69907936507936508</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
         <f>Tracker!A17</f>
-        <v>Company 8</v>
+        <v>Company 26</v>
       </c>
       <c r="B17" t="str">
         <f>Tracker!B17</f>
-        <v>Title 8</v>
+        <v>Title 26</v>
       </c>
       <c r="C17" t="str">
         <f>Tracker!F17</f>
-        <v>Denied</v>
+        <v>Pending</v>
       </c>
       <c r="D17" s="1">
         <f ca="1">(Tracker!G17+Tracker!H17)/2</f>
-        <v>100.5</v>
+        <v>96.5</v>
       </c>
       <c r="E17" s="1">
         <v>0.95</v>
       </c>
       <c r="F17" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D17, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" si="0"/>
@@ -7068,7 +7043,7 @@
       </c>
       <c r="J17" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I17, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="K17" s="15">
         <f>MIN(Tracker!N17, 4)/4</f>
@@ -7076,40 +7051,40 @@
       </c>
       <c r="L17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48374</v>
+        <v>0.69673000000000007</v>
       </c>
       <c r="M17">
         <f t="shared" si="2"/>
-        <v>0.51</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="O17">
         <f t="shared" ca="1" si="3"/>
-        <v>0.94850980392156858</v>
+        <v>1.2667818181818182</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <f>Tracker!A18</f>
-        <v>Company 9</v>
+        <v>Company 27</v>
       </c>
       <c r="B18" t="str">
         <f>Tracker!B18</f>
-        <v>Title 9</v>
+        <v>Title 27</v>
       </c>
       <c r="C18" t="str">
         <f>Tracker!F18</f>
-        <v>Rejected</v>
+        <v>Pending</v>
       </c>
       <c r="D18" s="1">
         <f ca="1">(Tracker!G18+Tracker!H18)/2</f>
-        <v>96</v>
+        <v>111.5</v>
       </c>
       <c r="E18" s="1">
         <v>0.95</v>
       </c>
       <c r="F18" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D18, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" si="0"/>
@@ -7117,7 +7092,7 @@
       </c>
       <c r="H18" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C18, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I18" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F18, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
@@ -7125,7 +7100,7 @@
       </c>
       <c r="J18" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I18, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K18" s="15">
         <f>MIN(Tracker!N18, 4)/4</f>
@@ -7133,40 +7108,40 @@
       </c>
       <c r="L18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64979999999999993</v>
+        <v>0.80503000000000013</v>
       </c>
       <c r="M18">
         <f t="shared" si="2"/>
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="O18">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0314285714285714</v>
+        <v>1.3644576271186444</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" t="str">
         <f>Tracker!A19</f>
-        <v>Company 35</v>
+        <v>Company 28</v>
       </c>
       <c r="B19" t="str">
         <f>Tracker!B19</f>
-        <v>Title 35</v>
+        <v>Title 28</v>
       </c>
       <c r="C19" t="str">
         <f>Tracker!F19</f>
-        <v>Denied</v>
+        <v>Interviewing</v>
       </c>
       <c r="D19" s="1">
         <f ca="1">(Tracker!G19+Tracker!H19)/2</f>
-        <v>81</v>
+        <v>101.5</v>
       </c>
       <c r="E19" s="1">
         <v>0.95</v>
       </c>
       <c r="F19" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D19, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" si="0"/>
@@ -7174,7 +7149,7 @@
       </c>
       <c r="H19" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C19, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="I19" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F19, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
@@ -7182,7 +7157,7 @@
       </c>
       <c r="J19" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I19, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K19" s="15">
         <f>MIN(Tracker!N19, 4)/4</f>
@@ -7190,40 +7165,40 @@
       </c>
       <c r="L19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49344187499999997</v>
+        <v>1</v>
       </c>
       <c r="M19">
         <f t="shared" si="2"/>
-        <v>0.59</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="O19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.83634216101694914</v>
+        <v>1.8181818181818181</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" t="str">
         <f>Tracker!A20</f>
-        <v>Company 36</v>
+        <v>Company 31</v>
       </c>
       <c r="B20" t="str">
         <f>Tracker!B20</f>
-        <v>Title 36</v>
+        <v>Title 31</v>
       </c>
       <c r="C20" t="str">
         <f>Tracker!F20</f>
-        <v>No Response</v>
+        <v>Pending</v>
       </c>
       <c r="D20" s="1">
         <f ca="1">(Tracker!G20+Tracker!H20)/2</f>
-        <v>83.5</v>
+        <v>108.5</v>
       </c>
       <c r="E20" s="1">
         <v>0.95</v>
       </c>
       <c r="F20" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D20, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="0"/>
@@ -7235,11 +7210,11 @@
       </c>
       <c r="I20" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F20, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="J20" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I20, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K20" s="15">
         <f>MIN(Tracker!N20, 4)/4</f>
@@ -7247,40 +7222,40 @@
       </c>
       <c r="L20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40191333333333334</v>
+        <v>0.78337000000000001</v>
       </c>
       <c r="M20">
         <f t="shared" si="2"/>
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="O20">
         <f t="shared" ca="1" si="3"/>
-        <v>0.64824731182795703</v>
+        <v>1.2434444444444444</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" t="str">
         <f>Tracker!A21</f>
-        <v>Company 37</v>
+        <v>Company 32</v>
       </c>
       <c r="B21" t="str">
         <f>Tracker!B21</f>
-        <v>Title 37</v>
+        <v>Title 32</v>
       </c>
       <c r="C21" t="str">
         <f>Tracker!F21</f>
-        <v>Ghosted</v>
+        <v>Rejected</v>
       </c>
       <c r="D21" s="1">
         <f ca="1">(Tracker!G21+Tracker!H21)/2</f>
-        <v>80.5</v>
+        <v>81.5</v>
       </c>
       <c r="E21" s="1">
         <v>0.95</v>
       </c>
       <c r="F21" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D21, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="0"/>
@@ -7288,7 +7263,7 @@
       </c>
       <c r="H21" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C21, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I21" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F21, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
@@ -7296,7 +7271,7 @@
       </c>
       <c r="J21" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I21, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="K21" s="15">
         <f>MIN(Tracker!N21, 4)/4</f>
@@ -7304,40 +7279,40 @@
       </c>
       <c r="L21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4359075</v>
+        <v>0.60681843750000009</v>
       </c>
       <c r="M21">
         <f t="shared" si="2"/>
-        <v>0.55000000000000004</v>
+        <v>0.63</v>
       </c>
       <c r="O21">
         <f t="shared" ca="1" si="3"/>
-        <v>0.79255909090909082</v>
+        <v>0.96320386904761912</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" t="str">
         <f>Tracker!A22</f>
-        <v>Company 10</v>
+        <v>Company 34</v>
       </c>
       <c r="B22" t="str">
         <f>Tracker!B22</f>
-        <v>Title 10</v>
+        <v>Title 34</v>
       </c>
       <c r="C22" t="str">
         <f>Tracker!F22</f>
-        <v>No Response</v>
+        <v>Interviewing</v>
       </c>
       <c r="D22" s="1">
         <f ca="1">(Tracker!G22+Tracker!H22)/2</f>
-        <v>90</v>
+        <v>102.5</v>
       </c>
       <c r="E22" s="1">
         <v>0.95</v>
       </c>
       <c r="F22" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D22, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="0"/>
@@ -7345,15 +7320,15 @@
       </c>
       <c r="H22" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C22, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I22" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F22, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="J22" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I22, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="K22" s="15">
         <f>MIN(Tracker!N22, 4)/4</f>
@@ -7361,40 +7336,40 @@
       </c>
       <c r="L22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60918749999999999</v>
+        <v>0.49336666666666662</v>
       </c>
       <c r="M22">
         <f t="shared" si="2"/>
-        <v>0.7</v>
+        <v>0.51</v>
       </c>
       <c r="O22">
         <f t="shared" ca="1" si="3"/>
-        <v>0.87026785714285715</v>
+        <v>0.96738562091503255</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" t="str">
         <f>Tracker!A23</f>
-        <v>Company 38</v>
+        <v>Company 8</v>
       </c>
       <c r="B23" t="str">
         <f>Tracker!B23</f>
-        <v>Title 38</v>
+        <v>Title 8</v>
       </c>
       <c r="C23" t="str">
         <f>Tracker!F23</f>
-        <v>No Response</v>
+        <v>Denied</v>
       </c>
       <c r="D23" s="1">
         <f ca="1">(Tracker!G23+Tracker!H23)/2</f>
-        <v>86</v>
+        <v>106.5</v>
       </c>
       <c r="E23" s="1">
         <v>0.95</v>
       </c>
       <c r="F23" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D23, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="0"/>
@@ -7402,15 +7377,15 @@
       </c>
       <c r="H23" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C23, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I23" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F23, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="J23" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I23, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="K23" s="15">
         <f>MIN(Tracker!N23, 4)/4</f>
@@ -7418,40 +7393,40 @@
       </c>
       <c r="L23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52390124999999999</v>
+        <v>0.51261999999999996</v>
       </c>
       <c r="M23">
         <f t="shared" si="2"/>
-        <v>0.62</v>
+        <v>0.51</v>
       </c>
       <c r="O23">
         <f t="shared" ca="1" si="3"/>
-        <v>0.84500201612903225</v>
+        <v>1.0051372549019606</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" t="str">
         <f>Tracker!A24</f>
-        <v>Company 39</v>
+        <v>Company 9</v>
       </c>
       <c r="B24" t="str">
         <f>Tracker!B24</f>
-        <v>Title 39</v>
+        <v>Title 9</v>
       </c>
       <c r="C24" t="str">
         <f>Tracker!F24</f>
-        <v>Bailed</v>
+        <v>Rejected</v>
       </c>
       <c r="D24" s="1">
         <f ca="1">(Tracker!G24+Tracker!H24)/2</f>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="E24" s="1">
         <v>0.95</v>
       </c>
       <c r="F24" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D24, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="0"/>
@@ -7459,11 +7434,11 @@
       </c>
       <c r="H24" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C24, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I24" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F24, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="J24" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I24, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
@@ -7475,40 +7450,40 @@
       </c>
       <c r="L24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52946666666666664</v>
+        <v>0.60918749999999999</v>
       </c>
       <c r="M24">
         <f t="shared" si="2"/>
-        <v>0.66</v>
+        <v>0.63</v>
       </c>
       <c r="O24">
         <f t="shared" ca="1" si="3"/>
-        <v>0.80222222222222217</v>
+        <v>0.96696428571428572</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" t="str">
         <f>Tracker!A25</f>
-        <v>Company 40</v>
+        <v>Company 35</v>
       </c>
       <c r="B25" t="str">
         <f>Tracker!B25</f>
-        <v>Title 40</v>
+        <v>Title 35</v>
       </c>
       <c r="C25" t="str">
         <f>Tracker!F25</f>
-        <v>Pending</v>
+        <v>Denied</v>
       </c>
       <c r="D25" s="1">
         <f ca="1">(Tracker!G25+Tracker!H25)/2</f>
-        <v>72.5</v>
+        <v>88.5</v>
       </c>
       <c r="E25" s="1">
         <v>0.95</v>
       </c>
       <c r="F25" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D25, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="0"/>
@@ -7516,7 +7491,7 @@
       </c>
       <c r="H25" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C25, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I25" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F25, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
@@ -7532,7 +7507,7 @@
       </c>
       <c r="L25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34896666666666665</v>
+        <v>0.53913093749999996</v>
       </c>
       <c r="M25">
         <f t="shared" si="2"/>
@@ -7540,32 +7515,32 @@
       </c>
       <c r="O25">
         <f t="shared" ca="1" si="3"/>
-        <v>0.59146892655367234</v>
+        <v>0.91378124999999999</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" t="str">
         <f>Tracker!A26</f>
-        <v>Company 5</v>
+        <v>Company 36</v>
       </c>
       <c r="B26" t="str">
         <f>Tracker!B26</f>
-        <v>Title 11</v>
+        <v>Title 36</v>
       </c>
       <c r="C26" t="str">
         <f>Tracker!F26</f>
-        <v>Rejected</v>
+        <v>No Response</v>
       </c>
       <c r="D26" s="1">
         <f ca="1">(Tracker!G26+Tracker!H26)/2</f>
-        <v>71</v>
+        <v>95.5</v>
       </c>
       <c r="E26" s="1">
         <v>0.95</v>
       </c>
       <c r="F26" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D26, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="0"/>
@@ -7573,15 +7548,15 @@
       </c>
       <c r="H26" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C26, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
-        <v>1.1000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="I26" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F26, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J26" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I26, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="K26" s="15">
         <f>MIN(Tracker!N26, 4)/4</f>
@@ -7589,40 +7564,40 @@
       </c>
       <c r="L26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52863937500000002</v>
+        <v>0.45967333333333332</v>
       </c>
       <c r="M26">
         <f t="shared" si="2"/>
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="O26">
         <f t="shared" ca="1" si="3"/>
-        <v>0.78901399253731341</v>
+        <v>0.74140860215053761</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" t="str">
         <f>Tracker!A27</f>
-        <v>Company 41</v>
+        <v>Company 15</v>
       </c>
       <c r="B27" t="str">
         <f>Tracker!B27</f>
-        <v>Title 41</v>
+        <v>Title 15</v>
       </c>
       <c r="C27" t="str">
         <f>Tracker!F27</f>
-        <v>Rejected</v>
+        <v>Pending</v>
       </c>
       <c r="D27" s="1">
         <f ca="1">(Tracker!G27+Tracker!H27)/2</f>
-        <v>94</v>
+        <v>110.5</v>
       </c>
       <c r="E27" s="1">
         <v>0.95</v>
       </c>
       <c r="F27" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D27, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" si="0"/>
@@ -7630,7 +7605,7 @@
       </c>
       <c r="H27" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C27, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="I27" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F27, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
@@ -7638,7 +7613,7 @@
       </c>
       <c r="J27" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I27, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K27" s="15">
         <f>MIN(Tracker!N27, 4)/4</f>
@@ -7646,40 +7621,40 @@
       </c>
       <c r="L27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76351499999999994</v>
+        <v>0.73132583333333334</v>
       </c>
       <c r="M27">
         <f t="shared" si="2"/>
-        <v>0.59</v>
+        <v>0.63</v>
       </c>
       <c r="O27">
         <f t="shared" ca="1" si="3"/>
-        <v>1.294093220338983</v>
+        <v>1.1608346560846561</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" t="str">
         <f>Tracker!A28</f>
-        <v>Company 42</v>
+        <v>Company 37</v>
       </c>
       <c r="B28" t="str">
         <f>Tracker!B28</f>
-        <v>Title 42</v>
+        <v>Title 37</v>
       </c>
       <c r="C28" t="str">
         <f>Tracker!F28</f>
-        <v>Pending</v>
+        <v>Ghosted</v>
       </c>
       <c r="D28" s="1">
         <f ca="1">(Tracker!G28+Tracker!H28)/2</f>
-        <v>92</v>
+        <v>103.5</v>
       </c>
       <c r="E28" s="1">
         <v>0.95</v>
       </c>
       <c r="F28" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D28, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="G28" s="1">
         <f t="shared" si="0"/>
@@ -7687,7 +7662,7 @@
       </c>
       <c r="H28" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C28, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="I28" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F28, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
@@ -7695,7 +7670,7 @@
       </c>
       <c r="J28" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I28, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="K28" s="15">
         <f>MIN(Tracker!N28, 4)/4</f>
@@ -7703,40 +7678,40 @@
       </c>
       <c r="L28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68499750000000004</v>
+        <v>0.56045250000000002</v>
       </c>
       <c r="M28">
         <f t="shared" si="2"/>
-        <v>0.67</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="O28">
         <f t="shared" ca="1" si="3"/>
-        <v>1.022384328358209</v>
+        <v>1.0190045454545453</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" t="str">
         <f>Tracker!A29</f>
-        <v>Company 43</v>
+        <v>Company 55</v>
       </c>
       <c r="B29" t="str">
         <f>Tracker!B29</f>
-        <v>Title 43</v>
+        <v>Title 55</v>
       </c>
       <c r="C29" t="str">
         <f>Tracker!F29</f>
-        <v>No Response</v>
+        <v>Pending</v>
       </c>
       <c r="D29" s="1">
         <f ca="1">(Tracker!G29+Tracker!H29)/2</f>
-        <v>83.5</v>
+        <v>98</v>
       </c>
       <c r="E29" s="1">
         <v>0.95</v>
       </c>
       <c r="F29" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D29, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" si="0"/>
@@ -7744,15 +7719,15 @@
       </c>
       <c r="H29" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C29, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="I29" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F29, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="J29" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I29, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="K29" s="15">
         <f>MIN(Tracker!N29, 4)/4</f>
@@ -7760,40 +7735,40 @@
       </c>
       <c r="L29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6217096875</v>
+        <v>0.66333750000000002</v>
       </c>
       <c r="M29">
         <f t="shared" si="2"/>
-        <v>0.54</v>
+        <v>0.59</v>
       </c>
       <c r="O29">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1513142361111111</v>
+        <v>1.1243008474576273</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" t="str">
         <f>Tracker!A30</f>
-        <v>Company 44</v>
+        <v>Company 64</v>
       </c>
       <c r="B30" t="str">
         <f>Tracker!B30</f>
-        <v>Title 44</v>
+        <v>Title 64</v>
       </c>
       <c r="C30" t="str">
         <f>Tracker!F30</f>
-        <v>No Response</v>
+        <v>Pending</v>
       </c>
       <c r="D30" s="1">
         <f ca="1">(Tracker!G30+Tracker!H30)/2</f>
-        <v>107.5</v>
+        <v>84.5</v>
       </c>
       <c r="E30" s="1">
         <v>0.95</v>
       </c>
       <c r="F30" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D30, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G30" s="1">
         <f t="shared" si="0"/>
@@ -7801,15 +7776,15 @@
       </c>
       <c r="H30" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C30, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I30" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F30, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="J30" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I30, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K30" s="15">
         <f>MIN(Tracker!N30, 4)/4</f>
@@ -7817,40 +7792,40 @@
       </c>
       <c r="L30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65487656249999993</v>
+        <v>0.69906145833333333</v>
       </c>
       <c r="M30">
         <f t="shared" si="2"/>
-        <v>0.62</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="O30">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0562525201612902</v>
+        <v>1.2710208333333333</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" t="str">
         <f>Tracker!A31</f>
-        <v>Company 45</v>
+        <v>Company 74</v>
       </c>
       <c r="B31" t="str">
         <f>Tracker!B31</f>
-        <v>Title 45</v>
+        <v>Title 74</v>
       </c>
       <c r="C31" t="str">
         <f>Tracker!F31</f>
-        <v>Denied</v>
+        <v>Pending</v>
       </c>
       <c r="D31" s="1">
         <f ca="1">(Tracker!G31+Tracker!H31)/2</f>
-        <v>111</v>
+        <v>111.5</v>
       </c>
       <c r="E31" s="1">
         <v>0.95</v>
       </c>
       <c r="F31" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D31, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="0"/>
@@ -7858,7 +7833,7 @@
       </c>
       <c r="H31" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C31, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="I31" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F31, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
@@ -7866,7 +7841,7 @@
       </c>
       <c r="J31" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I31, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K31" s="15">
         <f>MIN(Tracker!N31, 4)/4</f>
@@ -7874,25 +7849,25 @@
       </c>
       <c r="L31">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0.53668666666666665</v>
       </c>
       <c r="M31">
         <f t="shared" si="2"/>
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="O31">
         <f t="shared" ca="1" si="3"/>
-        <v>1.5873015873015872</v>
+        <v>0.80102487562189051</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" t="str">
         <f>Tracker!A32</f>
-        <v>Company 46</v>
+        <v>Company 10</v>
       </c>
       <c r="B32" t="str">
         <f>Tracker!B32</f>
-        <v>Title 46</v>
+        <v>Title 10</v>
       </c>
       <c r="C32" t="str">
         <f>Tracker!F32</f>
@@ -7900,14 +7875,14 @@
       </c>
       <c r="D32" s="1">
         <f ca="1">(Tracker!G32+Tracker!H32)/2</f>
-        <v>92.5</v>
+        <v>89</v>
       </c>
       <c r="E32" s="1">
         <v>0.95</v>
       </c>
       <c r="F32" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D32, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G32" s="1">
         <f t="shared" si="0"/>
@@ -7931,7 +7906,7 @@
       </c>
       <c r="L32">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69567708333333333</v>
+        <v>0.60241875</v>
       </c>
       <c r="M32">
         <f t="shared" si="2"/>
@@ -7939,17 +7914,17 @@
       </c>
       <c r="O32">
         <f t="shared" ca="1" si="3"/>
-        <v>0.99382440476190481</v>
+        <v>0.86059821428571437</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" t="str">
         <f>Tracker!A33</f>
-        <v>Company 47</v>
+        <v>Company 39</v>
       </c>
       <c r="B33" t="str">
         <f>Tracker!B33</f>
-        <v>Title 47</v>
+        <v>Title 39</v>
       </c>
       <c r="C33" t="str">
         <f>Tracker!F33</f>
@@ -7957,14 +7932,14 @@
       </c>
       <c r="D33" s="1">
         <f ca="1">(Tracker!G33+Tracker!H33)/2</f>
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E33" s="1">
         <v>0.95</v>
       </c>
       <c r="F33" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D33, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G33" s="1">
         <f t="shared" si="0"/>
@@ -7972,7 +7947,7 @@
       </c>
       <c r="H33" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C33, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I33" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F33, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
@@ -7980,7 +7955,7 @@
       </c>
       <c r="J33" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I33, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="K33" s="15">
         <f>MIN(Tracker!N33, 4)/4</f>
@@ -7988,40 +7963,40 @@
       </c>
       <c r="L33">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59414583333333326</v>
+        <v>0.40431999999999996</v>
       </c>
       <c r="M33">
         <f t="shared" si="2"/>
-        <v>0.7</v>
+        <v>0.66</v>
       </c>
       <c r="O33">
         <f t="shared" ca="1" si="3"/>
-        <v>0.8487797619047619</v>
+        <v>0.61260606060606049</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" t="str">
         <f>Tracker!A34</f>
-        <v>Company 64</v>
+        <v>Company 5</v>
       </c>
       <c r="B34" t="str">
         <f>Tracker!B34</f>
-        <v>Title 48</v>
+        <v>Title 11</v>
       </c>
       <c r="C34" t="str">
         <f>Tracker!F34</f>
-        <v>Pending</v>
+        <v>Rejected</v>
       </c>
       <c r="D34" s="1">
         <f ca="1">(Tracker!G34+Tracker!H34)/2</f>
-        <v>76.5</v>
+        <v>98</v>
       </c>
       <c r="E34" s="1">
         <v>0.95</v>
       </c>
       <c r="F34" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D34, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G34" s="1">
         <f t="shared" si="0"/>
@@ -8029,7 +8004,7 @@
       </c>
       <c r="H34" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C34, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I34" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F34, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
@@ -8037,7 +8012,7 @@
       </c>
       <c r="J34" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I34, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="K34" s="15">
         <f>MIN(Tracker!N34, 4)/4</f>
@@ -8045,25 +8020,25 @@
       </c>
       <c r="L34">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57534374999999993</v>
+        <v>0.72967124999999999</v>
       </c>
       <c r="M34">
         <f t="shared" si="2"/>
-        <v>0.59</v>
+        <v>0.67</v>
       </c>
       <c r="O34">
         <f t="shared" ca="1" si="3"/>
-        <v>0.97515889830508473</v>
+        <v>1.089061567164179</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" t="str">
         <f>Tracker!A35</f>
-        <v>Company 49</v>
+        <v>Company 41</v>
       </c>
       <c r="B35" t="str">
         <f>Tracker!B35</f>
-        <v>Title 49</v>
+        <v>Title 41</v>
       </c>
       <c r="C35" t="str">
         <f>Tracker!F35</f>
@@ -8071,7 +8046,7 @@
       </c>
       <c r="D35" s="1">
         <f ca="1">(Tracker!G35+Tracker!H35)/2</f>
-        <v>98.5</v>
+        <v>104</v>
       </c>
       <c r="E35" s="1">
         <v>0.95</v>
@@ -8086,7 +8061,7 @@
       </c>
       <c r="H35" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C35, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="I35" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F35, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
@@ -8094,7 +8069,7 @@
       </c>
       <c r="J35" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I35, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="K35" s="15">
         <f>MIN(Tracker!N35, 4)/4</f>
@@ -8102,40 +8077,40 @@
       </c>
       <c r="L35">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60004968749999987</v>
+        <v>0.84473999999999994</v>
       </c>
       <c r="M35">
         <f t="shared" si="2"/>
-        <v>0.67</v>
+        <v>0.59</v>
       </c>
       <c r="O35">
         <f t="shared" ca="1" si="3"/>
-        <v>0.8955965485074624</v>
+        <v>1.4317627118644067</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" t="str">
         <f>Tracker!A36</f>
-        <v>Company 50</v>
+        <v>Company 42</v>
       </c>
       <c r="B36" t="str">
         <f>Tracker!B36</f>
-        <v>Title 50</v>
+        <v>Title 42</v>
       </c>
       <c r="C36" t="str">
         <f>Tracker!F36</f>
-        <v>No Response</v>
+        <v>Pending</v>
       </c>
       <c r="D36" s="1">
         <f ca="1">(Tracker!G36+Tracker!H36)/2</f>
-        <v>97.5</v>
+        <v>93</v>
       </c>
       <c r="E36" s="1">
         <v>0.95</v>
       </c>
       <c r="F36" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D36, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G36" s="1">
         <f t="shared" si="0"/>
@@ -8147,7 +8122,7 @@
       </c>
       <c r="I36" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F36, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="J36" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I36, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
@@ -8159,33 +8134,33 @@
       </c>
       <c r="L36">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80660937500000007</v>
+        <v>0.69244312500000005</v>
       </c>
       <c r="M36">
         <f t="shared" si="2"/>
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
       <c r="O36">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1522991071428572</v>
+        <v>1.0334972014925374</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" t="str">
         <f>Tracker!A37</f>
-        <v>Company 50</v>
+        <v>Company 43</v>
       </c>
       <c r="B37" t="str">
         <f>Tracker!B37</f>
-        <v>Title 51</v>
+        <v>Title 43</v>
       </c>
       <c r="C37" t="str">
         <f>Tracker!F37</f>
-        <v>Rejected</v>
+        <v>No Response</v>
       </c>
       <c r="D37" s="1">
         <f ca="1">(Tracker!G37+Tracker!H37)/2</f>
-        <v>97</v>
+        <v>93.5</v>
       </c>
       <c r="E37" s="1">
         <v>0.95</v>
@@ -8200,15 +8175,15 @@
       </c>
       <c r="H37" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C37, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I37" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F37, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J37" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I37, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="K37" s="15">
         <f>MIN(Tracker!N37, 4)/4</f>
@@ -8216,33 +8191,33 @@
       </c>
       <c r="L37">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59091187499999998</v>
+        <v>0.6961659375</v>
       </c>
       <c r="M37">
         <f t="shared" si="2"/>
-        <v>0.55000000000000004</v>
+        <v>0.54</v>
       </c>
       <c r="O37">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0743852272727272</v>
+        <v>1.2891961805555554</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" t="str">
         <f>Tracker!A38</f>
-        <v>Company 52</v>
+        <v>Company 44</v>
       </c>
       <c r="B38" t="str">
         <f>Tracker!B38</f>
-        <v>Title 52</v>
+        <v>Title 44</v>
       </c>
       <c r="C38" t="str">
         <f>Tracker!F38</f>
-        <v>Interviewing</v>
+        <v>No Response</v>
       </c>
       <c r="D38" s="1">
         <f ca="1">(Tracker!G38+Tracker!H38)/2</f>
-        <v>102.5</v>
+        <v>83</v>
       </c>
       <c r="E38" s="1">
         <v>0.95</v>
@@ -8261,11 +8236,11 @@
       </c>
       <c r="I38" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F38, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J38" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I38, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="K38" s="15">
         <f>MIN(Tracker!N38, 4)/4</f>
@@ -8273,33 +8248,33 @@
       </c>
       <c r="L38">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62441718749999986</v>
+        <v>0.50562562499999997</v>
       </c>
       <c r="M38">
         <f t="shared" si="2"/>
-        <v>0.55000000000000004</v>
+        <v>0.62</v>
       </c>
       <c r="O38">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1353039772727269</v>
+        <v>0.81552520161290321</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" t="str">
         <f>Tracker!A39</f>
-        <v>Company 53</v>
+        <v>Company 45</v>
       </c>
       <c r="B39" t="str">
         <f>Tracker!B39</f>
-        <v>Title 53</v>
+        <v>Title 45</v>
       </c>
       <c r="C39" t="str">
         <f>Tracker!F39</f>
-        <v>Rejected</v>
+        <v>Denied</v>
       </c>
       <c r="D39" s="1">
         <f ca="1">(Tracker!G39+Tracker!H39)/2</f>
-        <v>88.5</v>
+        <v>89.5</v>
       </c>
       <c r="E39" s="1">
         <v>0.95</v>
@@ -8314,7 +8289,7 @@
       </c>
       <c r="H39" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C39, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="I39" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F39, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
@@ -8322,7 +8297,7 @@
       </c>
       <c r="J39" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I39, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="K39" s="15">
         <f>MIN(Tracker!N39, 4)/4</f>
@@ -8330,33 +8305,33 @@
       </c>
       <c r="L39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59903437500000001</v>
+        <v>0.8077375</v>
       </c>
       <c r="M39">
         <f t="shared" si="2"/>
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="O39">
         <f t="shared" ca="1" si="3"/>
-        <v>0.89408115671641786</v>
+        <v>1.2821230158730159</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" t="str">
         <f>Tracker!A40</f>
-        <v>Company 50</v>
+        <v>Company 46</v>
       </c>
       <c r="B40" t="str">
         <f>Tracker!B40</f>
-        <v>Title 54</v>
+        <v>Title 46</v>
       </c>
       <c r="C40" t="str">
         <f>Tracker!F40</f>
-        <v>Ghosted</v>
+        <v>No Response</v>
       </c>
       <c r="D40" s="1">
         <f ca="1">(Tracker!G40+Tracker!H40)/2</f>
-        <v>80</v>
+        <v>109.5</v>
       </c>
       <c r="E40" s="1">
         <v>0.95</v>
@@ -8371,15 +8346,15 @@
       </c>
       <c r="H40" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C40, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I40" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F40, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J40" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I40, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="K40" s="15">
         <f>MIN(Tracker!N40, 4)/4</f>
@@ -8387,33 +8362,33 @@
       </c>
       <c r="L40">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72199999999999998</v>
+        <v>0.82353124999999994</v>
       </c>
       <c r="M40">
         <f t="shared" si="2"/>
-        <v>0.51</v>
+        <v>0.7</v>
       </c>
       <c r="O40">
         <f t="shared" ca="1" si="3"/>
-        <v>1.4156862745098038</v>
+        <v>1.1764732142857142</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" t="str">
         <f>Tracker!A41</f>
-        <v>Company 55</v>
+        <v>Company 47</v>
       </c>
       <c r="B41" t="str">
         <f>Tracker!B41</f>
-        <v>Title 55</v>
+        <v>Title 47</v>
       </c>
       <c r="C41" t="str">
         <f>Tracker!F41</f>
-        <v>Pending</v>
+        <v>Bailed</v>
       </c>
       <c r="D41" s="1">
         <f ca="1">(Tracker!G41+Tracker!H41)/2</f>
-        <v>92</v>
+        <v>88.5</v>
       </c>
       <c r="E41" s="1">
         <v>0.95</v>
@@ -8428,15 +8403,15 @@
       </c>
       <c r="H41" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C41, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I41" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F41, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J41" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I41, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="K41" s="15">
         <f>MIN(Tracker!N41, 4)/4</f>
@@ -8444,25 +8419,25 @@
       </c>
       <c r="L41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62272500000000008</v>
+        <v>0.66559374999999998</v>
       </c>
       <c r="M41">
         <f t="shared" si="2"/>
-        <v>0.59</v>
+        <v>0.7</v>
       </c>
       <c r="O41">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0554661016949154</v>
+        <v>0.95084821428571431</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" t="str">
         <f>Tracker!A42</f>
-        <v>Company 56</v>
+        <v>Company 64</v>
       </c>
       <c r="B42" t="str">
         <f>Tracker!B42</f>
-        <v>Title 56</v>
+        <v>Title 48</v>
       </c>
       <c r="C42" t="str">
         <f>Tracker!F42</f>
@@ -8470,7 +8445,7 @@
       </c>
       <c r="D42" s="1">
         <f ca="1">(Tracker!G42+Tracker!H42)/2</f>
-        <v>93.5</v>
+        <v>85.5</v>
       </c>
       <c r="E42" s="1">
         <v>0.95</v>
@@ -8485,7 +8460,7 @@
       </c>
       <c r="H42" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C42, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I42" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F42, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
@@ -8501,7 +8476,7 @@
       </c>
       <c r="L42">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84383750000000002</v>
+        <v>0.64303124999999994</v>
       </c>
       <c r="M42">
         <f t="shared" si="2"/>
@@ -8509,32 +8484,32 @@
       </c>
       <c r="O42">
         <f t="shared" ca="1" si="3"/>
-        <v>1.4302330508474577</v>
+        <v>1.0898834745762711</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" t="str">
         <f>Tracker!A43</f>
-        <v>Company 57</v>
+        <v>Company 49</v>
       </c>
       <c r="B43" t="str">
         <f>Tracker!B43</f>
-        <v>Title 57</v>
+        <v>Title 49</v>
       </c>
       <c r="C43" t="str">
         <f>Tracker!F43</f>
-        <v>On Hold</v>
+        <v>Rejected</v>
       </c>
       <c r="D43" s="1">
         <f ca="1">(Tracker!G43+Tracker!H43)/2</f>
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="E43" s="1">
         <v>0.95</v>
       </c>
       <c r="F43" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D43, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G43" s="1">
         <f t="shared" si="0"/>
@@ -8542,15 +8517,15 @@
       </c>
       <c r="H43" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C43, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I43" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F43, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="J43" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I43, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="K43" s="15">
         <f>MIN(Tracker!N43, 4)/4</f>
@@ -8558,33 +8533,33 @@
       </c>
       <c r="L43">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54751666666666665</v>
+        <v>0.651830625</v>
       </c>
       <c r="M43">
         <f t="shared" si="2"/>
-        <v>0.57999999999999996</v>
+        <v>0.67</v>
       </c>
       <c r="O43">
         <f t="shared" ca="1" si="3"/>
-        <v>0.94399425287356331</v>
+        <v>0.97288152985074616</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" t="str">
         <f>Tracker!A44</f>
-        <v>Company 58</v>
+        <v>Company 50</v>
       </c>
       <c r="B44" t="str">
         <f>Tracker!B44</f>
-        <v>Title 58</v>
+        <v>Title 50</v>
       </c>
       <c r="C44" t="str">
         <f>Tracker!F44</f>
-        <v>Pending</v>
+        <v>No Response</v>
       </c>
       <c r="D44" s="1">
         <f ca="1">(Tracker!G44+Tracker!H44)/2</f>
-        <v>97</v>
+        <v>96.5</v>
       </c>
       <c r="E44" s="1">
         <v>0.95</v>
@@ -8599,15 +8574,15 @@
       </c>
       <c r="H44" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C44, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I44" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F44, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J44" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I44, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="K44" s="15">
         <f>MIN(Tracker!N44, 4)/4</f>
@@ -8615,40 +8590,40 @@
       </c>
       <c r="L44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72952083333333329</v>
+        <v>0.79833645833333333</v>
       </c>
       <c r="M44">
         <f t="shared" si="2"/>
-        <v>0.55000000000000004</v>
+        <v>0.7</v>
       </c>
       <c r="O44">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3264015151515149</v>
+        <v>1.1404806547619049</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" t="str">
         <f>Tracker!A45</f>
-        <v>Company 59</v>
+        <v>Company 50</v>
       </c>
       <c r="B45" t="str">
         <f>Tracker!B45</f>
-        <v>Title 59</v>
+        <v>Title 51</v>
       </c>
       <c r="C45" t="str">
         <f>Tracker!F45</f>
-        <v>Denied</v>
+        <v>Rejected</v>
       </c>
       <c r="D45" s="1">
         <f ca="1">(Tracker!G45+Tracker!H45)/2</f>
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E45" s="1">
         <v>0.95</v>
       </c>
       <c r="F45" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D45, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G45" s="1">
         <f t="shared" si="0"/>
@@ -8656,7 +8631,7 @@
       </c>
       <c r="H45" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C45, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I45" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F45, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
@@ -8664,7 +8639,7 @@
       </c>
       <c r="J45" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I45, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K45" s="15">
         <f>MIN(Tracker!N45, 4)/4</f>
@@ -8672,33 +8647,33 @@
       </c>
       <c r="L45">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66935416666666669</v>
+        <v>0.46907437499999999</v>
       </c>
       <c r="M45">
         <f t="shared" si="2"/>
-        <v>0.59</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="O45">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1344985875706215</v>
+        <v>0.85286249999999986</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" t="str">
         <f>Tracker!A46</f>
-        <v>Company 60</v>
+        <v>Company 53</v>
       </c>
       <c r="B46" t="str">
         <f>Tracker!B46</f>
-        <v>Title 60</v>
+        <v>Title 53</v>
       </c>
       <c r="C46" t="str">
         <f>Tracker!F46</f>
-        <v>Denied</v>
+        <v>Rejected</v>
       </c>
       <c r="D46" s="1">
         <f ca="1">(Tracker!G46+Tracker!H46)/2</f>
-        <v>94.5</v>
+        <v>68</v>
       </c>
       <c r="E46" s="1">
         <v>0.95</v>
@@ -8713,7 +8688,7 @@
       </c>
       <c r="H46" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C46, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I46" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F46, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
@@ -8721,7 +8696,7 @@
       </c>
       <c r="J46" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I46, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="K46" s="15">
         <f>MIN(Tracker!N46, 4)/4</f>
@@ -8729,33 +8704,33 @@
       </c>
       <c r="L46">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56857499999999994</v>
+        <v>0.46027499999999999</v>
       </c>
       <c r="M46">
         <f t="shared" si="2"/>
-        <v>0.51</v>
+        <v>0.67</v>
       </c>
       <c r="O46">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1148529411764705</v>
+        <v>0.68697761194029849</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" t="str">
         <f>Tracker!A47</f>
-        <v>Company 61</v>
+        <v>Company 50</v>
       </c>
       <c r="B47" t="str">
         <f>Tracker!B47</f>
-        <v>Title 61</v>
+        <v>Title 54</v>
       </c>
       <c r="C47" t="str">
         <f>Tracker!F47</f>
-        <v>Rejected</v>
+        <v>Ghosted</v>
       </c>
       <c r="D47" s="1">
         <f ca="1">(Tracker!G47+Tracker!H47)/2</f>
-        <v>88</v>
+        <v>105.5</v>
       </c>
       <c r="E47" s="1">
         <v>0.95</v>
@@ -8770,7 +8745,7 @@
       </c>
       <c r="H47" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C47, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="I47" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F47, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
@@ -8778,7 +8753,7 @@
       </c>
       <c r="J47" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I47, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="K47" s="15">
         <f>MIN(Tracker!N47, 4)/4</f>
@@ -8786,33 +8761,33 @@
       </c>
       <c r="L47">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66183333333333327</v>
+        <v>0.95213749999999997</v>
       </c>
       <c r="M47">
         <f t="shared" si="2"/>
-        <v>0.59</v>
+        <v>0.51</v>
       </c>
       <c r="O47">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1217514124293786</v>
+        <v>1.8669362745098039</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" t="str">
         <f>Tracker!A48</f>
-        <v>Company 62</v>
+        <v>Company 56</v>
       </c>
       <c r="B48" t="str">
         <f>Tracker!B48</f>
-        <v>Title 62</v>
+        <v>Title 56</v>
       </c>
       <c r="C48" t="str">
         <f>Tracker!F48</f>
-        <v>On Hold</v>
+        <v>Pending</v>
       </c>
       <c r="D48" s="1">
         <f ca="1">(Tracker!G48+Tracker!H48)/2</f>
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="E48" s="1">
         <v>0.95</v>
@@ -8827,15 +8802,15 @@
       </c>
       <c r="H48" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C48, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="I48" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F48, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="J48" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I48, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="K48" s="15">
         <f>MIN(Tracker!N48, 4)/4</f>
@@ -8843,33 +8818,33 @@
       </c>
       <c r="L48">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63701458333333338</v>
+        <v>1</v>
       </c>
       <c r="M48">
         <f t="shared" si="2"/>
-        <v>0.7</v>
+        <v>0.59</v>
       </c>
       <c r="O48">
         <f t="shared" ca="1" si="3"/>
-        <v>0.9100208333333335</v>
+        <v>1.6949152542372883</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" t="str">
         <f>Tracker!A49</f>
-        <v>Company 63</v>
+        <v>Company 57</v>
       </c>
       <c r="B49" t="str">
         <f>Tracker!B49</f>
-        <v>Title 63</v>
+        <v>Title 57</v>
       </c>
       <c r="C49" t="str">
         <f>Tracker!F49</f>
-        <v>Pending</v>
+        <v>On Hold</v>
       </c>
       <c r="D49" s="1">
         <f ca="1">(Tracker!G49+Tracker!H49)/2</f>
-        <v>83.5</v>
+        <v>82.5</v>
       </c>
       <c r="E49" s="1">
         <v>0.95</v>
@@ -8884,15 +8859,15 @@
       </c>
       <c r="H49" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C49, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
-        <v>1.1000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="I49" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F49, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J49" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I49, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K49" s="15">
         <f>MIN(Tracker!N49, 4)/4</f>
@@ -8900,25 +8875,25 @@
       </c>
       <c r="L49">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6907885416666667</v>
+        <v>0.49637500000000001</v>
       </c>
       <c r="M49">
         <f t="shared" si="2"/>
-        <v>0.59</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="O49">
         <f t="shared" ca="1" si="3"/>
-        <v>1.170828036723164</v>
+        <v>0.85581896551724146</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" t="str">
         <f>Tracker!A50</f>
-        <v>Company 64</v>
+        <v>Company 58</v>
       </c>
       <c r="B50" t="str">
         <f>Tracker!B50</f>
-        <v>Title 64</v>
+        <v>Title 58</v>
       </c>
       <c r="C50" t="str">
         <f>Tracker!F50</f>
@@ -8926,14 +8901,14 @@
       </c>
       <c r="D50" s="1">
         <f ca="1">(Tracker!G50+Tracker!H50)/2</f>
-        <v>95.5</v>
+        <v>73.5</v>
       </c>
       <c r="E50" s="1">
         <v>0.95</v>
       </c>
       <c r="F50" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D50, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G50" s="1">
         <f t="shared" si="0"/>
@@ -8957,7 +8932,7 @@
       </c>
       <c r="L50">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79006354166666659</v>
+        <v>0.55278125</v>
       </c>
       <c r="M50">
         <f t="shared" si="2"/>
@@ -8965,32 +8940,32 @@
       </c>
       <c r="O50">
         <f t="shared" ca="1" si="3"/>
-        <v>1.4364791666666663</v>
+        <v>1.005056818181818</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" t="str">
         <f>Tracker!A51</f>
-        <v>Company 64</v>
+        <v>Company 60</v>
       </c>
       <c r="B51" t="str">
         <f>Tracker!B51</f>
-        <v>Title 65</v>
+        <v>Title 60</v>
       </c>
       <c r="C51" t="str">
         <f>Tracker!F51</f>
-        <v>No Response</v>
+        <v>Denied</v>
       </c>
       <c r="D51" s="1">
         <f ca="1">(Tracker!G51+Tracker!H51)/2</f>
-        <v>97.5</v>
+        <v>72</v>
       </c>
       <c r="E51" s="1">
         <v>0.95</v>
       </c>
       <c r="F51" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D51, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G51" s="1">
         <f t="shared" si="0"/>
@@ -8998,15 +8973,15 @@
       </c>
       <c r="H51" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C51, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I51" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F51, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="J51" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I51, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="K51" s="15">
         <f>MIN(Tracker!N51, 4)/4</f>
@@ -9014,40 +8989,40 @@
       </c>
       <c r="L51">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80660937499999996</v>
+        <v>0.43319999999999997</v>
       </c>
       <c r="M51">
         <f t="shared" si="2"/>
-        <v>0.66</v>
+        <v>0.51</v>
       </c>
       <c r="O51">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2221354166666665</v>
+        <v>0.84941176470588231</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" t="str">
         <f>Tracker!A52</f>
-        <v>Company 12</v>
+        <v>Company 61</v>
       </c>
       <c r="B52" t="str">
         <f>Tracker!B52</f>
-        <v>Title 12</v>
+        <v>Title 61</v>
       </c>
       <c r="C52" t="str">
         <f>Tracker!F52</f>
-        <v>On Hold</v>
+        <v>Rejected</v>
       </c>
       <c r="D52" s="1">
         <f ca="1">(Tracker!G52+Tracker!H52)/2</f>
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E52" s="1">
         <v>0.95</v>
       </c>
       <c r="F52" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D52, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G52" s="1">
         <f t="shared" si="0"/>
@@ -9055,15 +9030,15 @@
       </c>
       <c r="H52" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C52, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="I52" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F52, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="J52" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I52, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="K52" s="15">
         <f>MIN(Tracker!N52, 4)/4</f>
@@ -9071,40 +9046,40 @@
       </c>
       <c r="L52">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0.77464583333333326</v>
       </c>
       <c r="M52">
         <f t="shared" si="2"/>
-        <v>0.7</v>
+        <v>0.59</v>
       </c>
       <c r="O52">
         <f t="shared" ca="1" si="3"/>
-        <v>1.4285714285714286</v>
+        <v>1.3129590395480226</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" t="str">
         <f>Tracker!A53</f>
-        <v>Company 64</v>
+        <v>Company 62</v>
       </c>
       <c r="B53" t="str">
         <f>Tracker!B53</f>
-        <v>Title 66</v>
+        <v>Title 62</v>
       </c>
       <c r="C53" t="str">
         <f>Tracker!F53</f>
-        <v>No Response</v>
+        <v>On Hold</v>
       </c>
       <c r="D53" s="1">
         <f ca="1">(Tracker!G53+Tracker!H53)/2</f>
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E53" s="1">
         <v>0.95</v>
       </c>
       <c r="F53" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D53, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G53" s="1">
         <f t="shared" si="0"/>
@@ -9112,7 +9087,7 @@
       </c>
       <c r="H53" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C53, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I53" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F53, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
@@ -9120,7 +9095,7 @@
       </c>
       <c r="J53" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I53, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="K53" s="15">
         <f>MIN(Tracker!N53, 4)/4</f>
@@ -9128,25 +9103,25 @@
       </c>
       <c r="L53">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71477999999999997</v>
+        <v>0.82729166666666676</v>
       </c>
       <c r="M53">
         <f t="shared" si="2"/>
-        <v>0.57999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="O53">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2323793103448277</v>
+        <v>1.1818452380952382</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" t="str">
         <f>Tracker!A54</f>
-        <v>Company 67</v>
+        <v>Company 63</v>
       </c>
       <c r="B54" t="str">
         <f>Tracker!B54</f>
-        <v>Title 67</v>
+        <v>Title 63</v>
       </c>
       <c r="C54" t="str">
         <f>Tracker!F54</f>
@@ -9154,14 +9129,14 @@
       </c>
       <c r="D54" s="1">
         <f ca="1">(Tracker!G54+Tracker!H54)/2</f>
-        <v>76.5</v>
+        <v>80</v>
       </c>
       <c r="E54" s="1">
         <v>0.95</v>
       </c>
       <c r="F54" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D54, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G54" s="1">
         <f t="shared" si="0"/>
@@ -9169,7 +9144,7 @@
       </c>
       <c r="H54" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C54, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I54" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F54, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
@@ -9185,7 +9160,7 @@
       </c>
       <c r="L54">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63287812499999985</v>
+        <v>0.66183333333333327</v>
       </c>
       <c r="M54">
         <f t="shared" si="2"/>
@@ -9193,25 +9168,25 @@
       </c>
       <c r="O54">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0726747881355929</v>
+        <v>1.1217514124293786</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" t="str">
         <f>Tracker!A55</f>
-        <v>Company 13</v>
+        <v>Company 64</v>
       </c>
       <c r="B55" t="str">
         <f>Tracker!B55</f>
-        <v>Title 13</v>
+        <v>Title 65</v>
       </c>
       <c r="C55" t="str">
         <f>Tracker!F55</f>
-        <v>Interviewing</v>
+        <v>No Response</v>
       </c>
       <c r="D55" s="1">
         <f ca="1">(Tracker!G55+Tracker!H55)/2</f>
-        <v>97.5</v>
+        <v>106.5</v>
       </c>
       <c r="E55" s="1">
         <v>0.95</v>
@@ -9226,15 +9201,15 @@
       </c>
       <c r="H55" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C55, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I55" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F55, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J55" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I55, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="K55" s="15">
         <f>MIN(Tracker!N55, 4)/4</f>
@@ -9242,40 +9217,40 @@
       </c>
       <c r="L55">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64528750000000001</v>
+        <v>0.88106562499999985</v>
       </c>
       <c r="M55">
         <f t="shared" si="2"/>
-        <v>0.55000000000000004</v>
+        <v>0.66</v>
       </c>
       <c r="O55">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1732499999999999</v>
+        <v>1.3349479166666665</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" t="str">
         <f>Tracker!A56</f>
-        <v>Company 68</v>
+        <v>Company 12</v>
       </c>
       <c r="B56" t="str">
         <f>Tracker!B56</f>
-        <v>Title 68</v>
+        <v>Title 12</v>
       </c>
       <c r="C56" t="str">
         <f>Tracker!F56</f>
-        <v>Denied</v>
+        <v>On Hold</v>
       </c>
       <c r="D56" s="1">
         <f ca="1">(Tracker!G56+Tracker!H56)/2</f>
-        <v>79.5</v>
+        <v>106.5</v>
       </c>
       <c r="E56" s="1">
         <v>0.95</v>
       </c>
       <c r="F56" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D56, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="G56" s="1">
         <f t="shared" si="0"/>
@@ -9283,15 +9258,15 @@
       </c>
       <c r="H56" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C56, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I56" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F56, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J56" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I56, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K56" s="15">
         <f>MIN(Tracker!N56, 4)/4</f>
@@ -9299,33 +9274,33 @@
       </c>
       <c r="L56">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78923624999999986</v>
+        <v>1</v>
       </c>
       <c r="M56">
         <f t="shared" si="2"/>
-        <v>0.63</v>
+        <v>0.7</v>
       </c>
       <c r="O56">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2527559523809522</v>
+        <v>1.4285714285714286</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" t="str">
         <f>Tracker!A57</f>
-        <v>Company 14</v>
+        <v>Company 64</v>
       </c>
       <c r="B57" t="str">
         <f>Tracker!B57</f>
-        <v>Title 14</v>
+        <v>Title 66</v>
       </c>
       <c r="C57" t="str">
         <f>Tracker!F57</f>
-        <v>Offer</v>
+        <v>No Response</v>
       </c>
       <c r="D57" s="1">
         <f ca="1">(Tracker!G57+Tracker!H57)/2</f>
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E57" s="1">
         <v>0.95</v>
@@ -9340,7 +9315,7 @@
       </c>
       <c r="H57" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C57, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I57" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F57, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
@@ -9348,7 +9323,7 @@
       </c>
       <c r="J57" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I57, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="K57" s="15">
         <f>MIN(Tracker!N57, 4)/4</f>
@@ -9356,33 +9331,33 @@
       </c>
       <c r="L57">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58241333333333334</v>
+        <v>0.63287812499999996</v>
       </c>
       <c r="M57">
         <f t="shared" si="2"/>
-        <v>0.54</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="O57">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0785432098765431</v>
+        <v>1.0911691810344828</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" t="str">
         <f>Tracker!A58</f>
-        <v>Company 69</v>
+        <v>Company 67</v>
       </c>
       <c r="B58" t="str">
         <f>Tracker!B58</f>
-        <v>Title 69</v>
+        <v>Title 67</v>
       </c>
       <c r="C58" t="str">
         <f>Tracker!F58</f>
-        <v>No Response</v>
+        <v>Pending</v>
       </c>
       <c r="D58" s="1">
         <f ca="1">(Tracker!G58+Tracker!H58)/2</f>
-        <v>108.5</v>
+        <v>83</v>
       </c>
       <c r="E58" s="1">
         <v>0.95</v>
@@ -9397,15 +9372,15 @@
       </c>
       <c r="H58" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C58, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I58" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F58, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="J58" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I58, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="K58" s="15">
         <f>MIN(Tracker!N58, 4)/4</f>
@@ -9413,33 +9388,33 @@
       </c>
       <c r="L58">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0.68665208333333327</v>
       </c>
       <c r="M58">
         <f t="shared" si="2"/>
-        <v>0.57999999999999996</v>
+        <v>0.59</v>
       </c>
       <c r="O58">
         <f t="shared" ca="1" si="3"/>
-        <v>1.7241379310344829</v>
+        <v>1.1638170903954801</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" t="str">
         <f>Tracker!A59</f>
-        <v>Company 15</v>
+        <v>Company 13</v>
       </c>
       <c r="B59" t="str">
         <f>Tracker!B59</f>
-        <v>Title 15</v>
+        <v>Title 13</v>
       </c>
       <c r="C59" t="str">
         <f>Tracker!F59</f>
-        <v>Pending</v>
+        <v>Interviewing</v>
       </c>
       <c r="D59" s="1">
         <f ca="1">(Tracker!G59+Tracker!H59)/2</f>
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E59" s="1">
         <v>0.95</v>
@@ -9462,7 +9437,7 @@
       </c>
       <c r="J59" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I59, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="K59" s="15">
         <f>MIN(Tracker!N59, 4)/4</f>
@@ -9470,33 +9445,33 @@
       </c>
       <c r="L59">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63536000000000004</v>
+        <v>0.68830666666666673</v>
       </c>
       <c r="M59">
         <f t="shared" si="2"/>
-        <v>0.63</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="O59">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0085079365079366</v>
+        <v>1.2514666666666667</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60" t="str">
         <f>Tracker!A60</f>
-        <v>Company 70</v>
+        <v>Company 68</v>
       </c>
       <c r="B60" t="str">
         <f>Tracker!B60</f>
-        <v>Title 70</v>
+        <v>Title 68</v>
       </c>
       <c r="C60" t="str">
         <f>Tracker!F60</f>
-        <v>Bailed</v>
+        <v>Denied</v>
       </c>
       <c r="D60" s="1">
         <f ca="1">(Tracker!G60+Tracker!H60)/2</f>
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E60" s="1">
         <v>0.95</v>
@@ -9511,15 +9486,15 @@
       </c>
       <c r="H60" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C60, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="I60" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F60, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="J60" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I60, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="K60" s="15">
         <f>MIN(Tracker!N60, 4)/4</f>
@@ -9527,33 +9502,33 @@
       </c>
       <c r="L60">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57910416666666664</v>
+        <v>0.81405499999999986</v>
       </c>
       <c r="M60">
         <f t="shared" si="2"/>
-        <v>0.54</v>
+        <v>0.63</v>
       </c>
       <c r="O60">
         <f t="shared" ca="1" si="3"/>
-        <v>1.07241512345679</v>
+        <v>1.2921507936507934</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61" t="str">
         <f>Tracker!A61</f>
-        <v>Company 16</v>
+        <v>Company 14</v>
       </c>
       <c r="B61" t="str">
         <f>Tracker!B61</f>
-        <v>Title 16</v>
+        <v>Title 14</v>
       </c>
       <c r="C61" t="str">
         <f>Tracker!F61</f>
-        <v>Ghosted</v>
+        <v>Offer</v>
       </c>
       <c r="D61" s="1">
         <f ca="1">(Tracker!G61+Tracker!H61)/2</f>
-        <v>98</v>
+        <v>102.5</v>
       </c>
       <c r="E61" s="1">
         <v>0.95</v>
@@ -9568,11 +9543,11 @@
       </c>
       <c r="H61" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C61, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I61" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F61, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J61" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I61, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
@@ -9584,40 +9559,40 @@
       </c>
       <c r="L61">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81074583333333328</v>
+        <v>0.67837916666666664</v>
       </c>
       <c r="M61">
         <f t="shared" si="2"/>
-        <v>0.51</v>
+        <v>0.54</v>
       </c>
       <c r="O61">
         <f t="shared" ca="1" si="3"/>
-        <v>1.5896977124183005</v>
+        <v>1.2562577160493826</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62" t="str">
         <f>Tracker!A62</f>
-        <v>Company 71</v>
+        <v>Company 69</v>
       </c>
       <c r="B62" t="str">
         <f>Tracker!B62</f>
-        <v>Title 71</v>
+        <v>Title 69</v>
       </c>
       <c r="C62" t="str">
         <f>Tracker!F62</f>
-        <v>Rejected</v>
+        <v>No Response</v>
       </c>
       <c r="D62" s="1">
         <f ca="1">(Tracker!G62+Tracker!H62)/2</f>
-        <v>76</v>
+        <v>75.5</v>
       </c>
       <c r="E62" s="1">
         <v>0.95</v>
       </c>
       <c r="F62" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D62, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G62" s="1">
         <f t="shared" si="0"/>
@@ -9625,11 +9600,11 @@
       </c>
       <c r="H62" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C62, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="I62" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F62, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J62" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I62, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
@@ -9641,40 +9616,40 @@
       </c>
       <c r="L62">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45726666666666665</v>
+        <v>0.74952624999999984</v>
       </c>
       <c r="M62">
         <f t="shared" si="2"/>
-        <v>0.55000000000000004</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="O62">
         <f t="shared" ca="1" si="3"/>
-        <v>0.83139393939393935</v>
+        <v>1.2922866379310343</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63" t="str">
         <f>Tracker!A63</f>
-        <v>Company 30</v>
+        <v>Company 70</v>
       </c>
       <c r="B63" t="str">
         <f>Tracker!B63</f>
-        <v>Title 17</v>
+        <v>Title 70</v>
       </c>
       <c r="C63" t="str">
         <f>Tracker!F63</f>
-        <v>Offer</v>
+        <v>Bailed</v>
       </c>
       <c r="D63" s="1">
         <f ca="1">(Tracker!G63+Tracker!H63)/2</f>
-        <v>80.5</v>
+        <v>103</v>
       </c>
       <c r="E63" s="1">
         <v>0.95</v>
       </c>
       <c r="F63" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D63, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G63" s="1">
         <f t="shared" si="0"/>
@@ -9682,7 +9657,7 @@
       </c>
       <c r="H63" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C63, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I63" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F63, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
@@ -9690,7 +9665,7 @@
       </c>
       <c r="J63" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I63, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="K63" s="15">
         <f>MIN(Tracker!N63, 4)/4</f>
@@ -9698,40 +9673,40 @@
       </c>
       <c r="L63">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8718149999999999</v>
+        <v>0.85211041666666654</v>
       </c>
       <c r="M63">
         <f t="shared" si="2"/>
-        <v>0.62</v>
+        <v>0.54</v>
       </c>
       <c r="O63">
         <f t="shared" ca="1" si="3"/>
-        <v>1.4061532258064515</v>
+        <v>1.5779822530864194</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64" t="str">
         <f>Tracker!A64</f>
-        <v>Company 72</v>
+        <v>Company 16</v>
       </c>
       <c r="B64" t="str">
         <f>Tracker!B64</f>
-        <v>Title 72</v>
+        <v>Title 16</v>
       </c>
       <c r="C64" t="str">
         <f>Tracker!F64</f>
-        <v>Pending</v>
+        <v>Ghosted</v>
       </c>
       <c r="D64" s="1">
         <f ca="1">(Tracker!G64+Tracker!H64)/2</f>
-        <v>106</v>
+        <v>80.5</v>
       </c>
       <c r="E64" s="1">
         <v>0.95</v>
       </c>
       <c r="F64" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D64, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G64" s="1">
         <f t="shared" si="0"/>
@@ -9739,7 +9714,7 @@
       </c>
       <c r="H64" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C64, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I64" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F64, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
@@ -9747,7 +9722,7 @@
       </c>
       <c r="J64" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I64, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="K64" s="15">
         <f>MIN(Tracker!N64, 4)/4</f>
@@ -9755,40 +9730,40 @@
       </c>
       <c r="L64">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57399</v>
+        <v>0.66596979166666659</v>
       </c>
       <c r="M64">
         <f t="shared" si="2"/>
-        <v>0.55000000000000004</v>
+        <v>0.51</v>
       </c>
       <c r="O64">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0436181818181818</v>
+        <v>1.3058231209150326</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65" t="str">
         <f>Tracker!A65</f>
-        <v>Company 18</v>
+        <v>Company 71</v>
       </c>
       <c r="B65" t="str">
         <f>Tracker!B65</f>
-        <v>Title 18</v>
+        <v>Title 71</v>
       </c>
       <c r="C65" t="str">
         <f>Tracker!F65</f>
-        <v>No Response</v>
+        <v>Rejected</v>
       </c>
       <c r="D65" s="1">
         <f ca="1">(Tracker!G65+Tracker!H65)/2</f>
-        <v>97.5</v>
+        <v>79.5</v>
       </c>
       <c r="E65" s="1">
         <v>0.95</v>
       </c>
       <c r="F65" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D65, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G65" s="1">
         <f t="shared" si="0"/>
@@ -9796,15 +9771,15 @@
       </c>
       <c r="H65" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C65, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I65" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F65, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="J65" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I65, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="K65" s="15">
         <f>MIN(Tracker!N65, 4)/4</f>
@@ -9812,25 +9787,25 @@
       </c>
       <c r="L65">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80660937499999996</v>
+        <v>0.47832499999999994</v>
       </c>
       <c r="M65">
         <f t="shared" si="2"/>
-        <v>0.66</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="O65">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2221354166666665</v>
+        <v>0.869681818181818</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" t="str">
         <f>Tracker!A66</f>
-        <v>Company 73</v>
+        <v>Company 30</v>
       </c>
       <c r="B66" t="str">
         <f>Tracker!B66</f>
-        <v>Title 73</v>
+        <v>Title 17</v>
       </c>
       <c r="C66" t="str">
         <f>Tracker!F66</f>
@@ -9838,14 +9813,14 @@
       </c>
       <c r="D66" s="1">
         <f ca="1">(Tracker!G66+Tracker!H66)/2</f>
-        <v>97</v>
+        <v>72.5</v>
       </c>
       <c r="E66" s="1">
         <v>0.95</v>
       </c>
       <c r="F66" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D66, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="G66" s="1">
         <f t="shared" si="0"/>
@@ -9853,7 +9828,7 @@
       </c>
       <c r="H66" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C66, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="I66" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F66, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
@@ -9861,7 +9836,7 @@
       </c>
       <c r="J66" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I66, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="K66" s="15">
         <f>MIN(Tracker!N66, 4)/4</f>
@@ -9869,33 +9844,33 @@
       </c>
       <c r="L66">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52525500000000003</v>
+        <v>0.78517499999999985</v>
       </c>
       <c r="M66">
         <f t="shared" si="2"/>
-        <v>0.57999999999999996</v>
+        <v>0.62</v>
       </c>
       <c r="O66">
         <f t="shared" ca="1" si="3"/>
-        <v>0.90561206896551738</v>
+        <v>1.2664112903225804</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" t="str">
         <f>Tracker!A67</f>
-        <v>Company 19</v>
+        <v>Company 18</v>
       </c>
       <c r="B67" t="str">
         <f>Tracker!B67</f>
-        <v>Title 19</v>
+        <v>Title 18</v>
       </c>
       <c r="C67" t="str">
         <f>Tracker!F67</f>
-        <v>Pending</v>
+        <v>No Response</v>
       </c>
       <c r="D67" s="1">
         <f ca="1">(Tracker!G67+Tracker!H67)/2</f>
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="E67" s="1">
         <v>0.95</v>
@@ -9910,15 +9885,15 @@
       </c>
       <c r="H67" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C67, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I67" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F67, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J67" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I67, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K67" s="15">
         <f>MIN(Tracker!N67, 4)/4</f>
@@ -9926,33 +9901,33 @@
       </c>
       <c r="L67">
         <f t="shared" ref="L67:L70" ca="1" si="5">IF(D67=0, 0.5, MIN(1, MAX(0, (E67 * F67 * G67 * H67 * (D67 / 120)))))</f>
-        <v>0.58075874999999999</v>
+        <v>0.90174791666666654</v>
       </c>
       <c r="M67">
         <f t="shared" ref="M67:M70" si="6">IF(J67=0, 0.2, ROUND((0.4 * J67 + 0.3 * I67 + 0.3 * K67), 2))</f>
-        <v>0.59</v>
+        <v>0.66</v>
       </c>
       <c r="O67">
         <f t="shared" ref="O67:O70" ca="1" si="7">L67/M67</f>
-        <v>0.9843368644067797</v>
+        <v>1.3662847222222219</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" t="str">
         <f>Tracker!A68</f>
-        <v>Company 74</v>
+        <v>Company 73</v>
       </c>
       <c r="B68" t="str">
         <f>Tracker!B68</f>
-        <v>Title 74</v>
+        <v>Title 73</v>
       </c>
       <c r="C68" t="str">
         <f>Tracker!F68</f>
-        <v>Pending</v>
+        <v>Offer</v>
       </c>
       <c r="D68" s="1">
         <f ca="1">(Tracker!G68+Tracker!H68)/2</f>
-        <v>80.5</v>
+        <v>86.5</v>
       </c>
       <c r="E68" s="1">
         <v>0.95</v>
@@ -9967,15 +9942,15 @@
       </c>
       <c r="H68" s="1">
         <f>_xlfn.XLOOKUP(Tracker!C68, Weights!$A$2:$A$30, Weights!$B$2:$B$30, 0.5)</f>
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I68" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F68, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J68" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I68, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="K68" s="15">
         <f>MIN(Tracker!N68, 4)/4</f>
@@ -9983,33 +9958,33 @@
       </c>
       <c r="L68">
         <f t="shared" ca="1" si="5"/>
-        <v>0.38747333333333328</v>
+        <v>0.46839750000000002</v>
       </c>
       <c r="M68">
         <f t="shared" si="6"/>
-        <v>0.67</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="O68">
         <f t="shared" ca="1" si="7"/>
-        <v>0.57831840796019884</v>
+        <v>0.80758189655172419</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" t="str">
         <f>Tracker!A69</f>
-        <v>Company 20</v>
+        <v>Company 19</v>
       </c>
       <c r="B69" t="str">
         <f>Tracker!B69</f>
-        <v>Title 20</v>
+        <v>Title 19</v>
       </c>
       <c r="C69" t="str">
         <f>Tracker!F69</f>
-        <v>Offer</v>
+        <v>Pending</v>
       </c>
       <c r="D69" s="1">
         <f ca="1">(Tracker!G69+Tracker!H69)/2</f>
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="E69" s="1">
         <v>0.95</v>
@@ -10028,7 +10003,7 @@
       </c>
       <c r="I69" s="15">
         <f>_xlfn.XLOOKUP(Tracker!F69, Weights!$G$2:$G$30, Weights!$H$2:$H$30, 0.2)</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="J69" s="15">
         <f>_xlfn.XLOOKUP(Tracker!I69, Weights!$C$2:$C$30, Weights!$D$2:$D$30, 0.2)</f>
@@ -10040,40 +10015,40 @@
       </c>
       <c r="L69">
         <f t="shared" ca="1" si="5"/>
-        <v>0.69244312499999994</v>
+        <v>0.77434499999999995</v>
       </c>
       <c r="M69">
         <f t="shared" si="6"/>
-        <v>0.62</v>
+        <v>0.59</v>
       </c>
       <c r="O69">
         <f t="shared" ca="1" si="7"/>
-        <v>1.1168437499999999</v>
+        <v>1.3124491525423729</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" t="str">
         <f>Tracker!A70</f>
-        <v>Company 75</v>
+        <v>Company 20</v>
       </c>
       <c r="B70" t="str">
         <f>Tracker!B70</f>
-        <v>Title 75</v>
+        <v>Title 20</v>
       </c>
       <c r="C70" t="str">
         <f>Tracker!F70</f>
-        <v>Pending</v>
+        <v>Offer</v>
       </c>
       <c r="D70" s="1">
         <f ca="1">(Tracker!G70+Tracker!H70)/2</f>
-        <v>67.5</v>
+        <v>80</v>
       </c>
       <c r="E70" s="1">
         <v>0.95</v>
       </c>
       <c r="F70" s="1">
         <f>_xlfn.XLOOKUP(Tracker!D70, Weights!$E$2:$E$30, Weights!$F$2:$F$30, 1)</f>
-        <v>0.8</v>
+        <v>1.100000000